--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>28452</v>
+        <v>28486</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>25557</v>
+        <v>25594</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>25126</v>
+        <v>25188</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>24999</v>
+        <v>25094</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>24601</v>
+        <v>24620</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>24279</v>
+        <v>24289</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>21609</v>
+        <v>21758</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>17502</v>
+        <v>17533</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -936,11 +936,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(27/12)</t>
+          <t>(26/11)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17402</v>
+        <v>17243</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -1336,18 +1336,18 @@
         <v>2003</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>21.2</v>
+        <v>20.94</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>959</v>
+        <v>993</v>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
-          <t>Kaiserslautern/GER</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="H11" s="16" t="n">
-        <v>24.05</v>
+        <v>14.07</v>
       </c>
       <c r="J11" s="5" t="n"/>
       <c r="L11" s="14" t="inlineStr">
@@ -1786,18 +1786,18 @@
         <v>1991</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>13.63</v>
+        <v>13.44</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>1033</v>
+        <v>1070</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Turku/FIN</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>18.06</v>
+        <v>14.07</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>14668</v>
+        <v>14702</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>13127</v>
+        <v>13164</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>28452</v>
+        <v>28486</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>25557</v>
+        <v>25594</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -3577,25 +3577,25 @@
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E63" s="15" t="n">
-        <v>21.5</v>
+        <v>21.27</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>17.02</v>
+        <v>14.07</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -3731,19 +3731,19 @@
       </c>
       <c r="O65" s="17" t="inlineStr">
         <is>
-          <t>3,29,74</t>
+          <t>3,26,73</t>
         </is>
       </c>
       <c r="P65" s="7" t="n">
-        <v>1140</v>
+        <v>1191</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Monaco/MON</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>30.05</v>
+        <v>12.07</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -3755,11 +3755,11 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Vetle Farbu-Solbakken</t>
+          <t>Simon Steinshamn</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E66" s="17" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12625</v>
+        <v>12654</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12677</v>
+        <v>12728</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -4533,19 +4533,19 @@
       </c>
       <c r="O82" s="17" t="inlineStr">
         <is>
-          <t>3,33,87</t>
+          <t>3,31,06</t>
         </is>
       </c>
       <c r="P82" s="7" t="n">
-        <v>1074</v>
+        <v>1118</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Doha/QAT</t>
+          <t>Monaco/MON</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>10.05</v>
+        <v>12.07</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -4612,32 +4612,30 @@
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Simon Steinshamn</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E84" s="17" t="inlineStr">
-        <is>
-          <t>3,45,99</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="E84" s="15" t="n">
+        <v>21.5</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Watford/GBR</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>8.06</v>
+        <v>17.02</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -4674,30 +4672,32 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Vetle Farbu-Solbakken</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E85" s="15" t="n">
-        <v>6.91</v>
+      <c r="E85" s="17" t="inlineStr">
+        <is>
+          <t>3,45,99</t>
+        </is>
       </c>
       <c r="F85" s="7" t="n">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Watford/GBR</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>8.06</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -4734,7 +4734,7 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
@@ -4746,10 +4746,10 @@
         <v>2003</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>10.77</v>
+        <v>6.91</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>27.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -4792,30 +4792,30 @@
     <row r="87" ht="13" customHeight="1">
       <c r="B87" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="D87" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E87" s="15" t="n">
-        <v>21.65</v>
+        <v>10.77</v>
       </c>
       <c r="F87" s="7" t="n">
         <v>902</v>
       </c>
       <c r="G87" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H87" s="16" t="n">
-        <v>18.06</v>
+        <v>27.06</v>
       </c>
       <c r="J87" s="5" t="n"/>
       <c r="L87" s="14" t="inlineStr">
@@ -4852,32 +4852,30 @@
     <row r="88" ht="13" customHeight="1">
       <c r="B88" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>Håkon Stavik</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="D88" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E88" s="17" t="inlineStr">
-        <is>
-          <t>8,12,30</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E88" s="15" t="n">
+        <v>21.65</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="G88" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H88" s="16" t="n">
-        <v>14.06</v>
+        <v>18.06</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
@@ -4912,30 +4910,32 @@
     <row r="89" ht="13" customHeight="1">
       <c r="B89" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>Erik Hagen</t>
+          <t>Håkon Stavik</t>
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E89" s="15" t="n">
-        <v>10.8</v>
+        <v>2000</v>
+      </c>
+      <c r="E89" s="17" t="inlineStr">
+        <is>
+          <t>8,12,30</t>
+        </is>
       </c>
       <c r="F89" s="7" t="n">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G89" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H89" s="16" t="n">
-        <v>27.06</v>
+        <v>14.06</v>
       </c>
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
@@ -5028,30 +5028,30 @@
     <row r="91" ht="13" customHeight="1">
       <c r="B91" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Erik Hagen</t>
         </is>
       </c>
       <c r="D91" s="7" t="n">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="E91" s="15" t="n">
-        <v>21.77</v>
+        <v>10.8</v>
       </c>
       <c r="F91" s="7" t="n">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="G91" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H91" s="16" t="n">
-        <v>25.05</v>
+        <v>27.06</v>
       </c>
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>12501</v>
+        <v>12534</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>12322</v>
+        <v>12366</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>25126</v>
+        <v>25188</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>24999</v>
+        <v>25094</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5939,19 +5939,19 @@
       </c>
       <c r="E117" s="17" t="inlineStr">
         <is>
-          <t>1,43,66</t>
+          <t>1,43,13</t>
         </is>
       </c>
       <c r="F117" s="7" t="n">
-        <v>1110</v>
+        <v>1129</v>
       </c>
       <c r="G117" s="7" t="inlineStr">
         <is>
-          <t>Paris/FRA</t>
+          <t>Monaco/MON</t>
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>7.07</v>
+        <v>12.07</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="inlineStr">
@@ -6614,7 +6614,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11987</v>
+        <v>12006</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -7188,7 +7188,7 @@
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
@@ -7200,18 +7200,18 @@
         <v>2004</v>
       </c>
       <c r="O141" s="15" t="n">
-        <v>49.59</v>
+        <v>22.48</v>
       </c>
       <c r="P141" s="7" t="n">
         <v>805</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Helsingborg/SWE</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>27.06</v>
+        <v>13.07</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
@@ -7248,7 +7248,7 @@
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M142" s="7" t="inlineStr">
@@ -7260,18 +7260,18 @@
         <v>2004</v>
       </c>
       <c r="O142" s="15" t="n">
-        <v>11.17</v>
+        <v>49.59</v>
       </c>
       <c r="P142" s="7" t="n">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R142" s="16" t="n">
-        <v>19.05</v>
+        <v>27.06</v>
       </c>
       <c r="T142" s="5" t="n"/>
     </row>
@@ -7308,30 +7308,30 @@
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Sindre Strønstad-Løseth</t>
+          <t>Filip Holdhus</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O143" s="15" t="n">
-        <v>22.57</v>
+        <v>11.17</v>
       </c>
       <c r="P143" s="7" t="n">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Austevoll</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>15.05</v>
+        <v>19.05</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
@@ -7675,7 +7675,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11579</v>
+        <v>11589</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7698,7 +7698,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>24601</v>
+        <v>24620</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>24279</v>
+        <v>24289</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -10637,19 +10637,19 @@
       </c>
       <c r="O224" s="17" t="inlineStr">
         <is>
-          <t>13,19,87</t>
+          <t>13,18,61</t>
         </is>
       </c>
       <c r="P224" s="7" t="n">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Huelva/ESP</t>
+          <t>Dublin/IRL</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>30.04</v>
+        <v>12.07</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>12525</v>
+        <v>12529</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -11800,30 +11800,30 @@
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M248" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Seland Haugen</t>
+          <t>Leon Victor Sandvik</t>
         </is>
       </c>
       <c r="N248" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O248" s="15" t="n">
-        <v>10.77</v>
+        <v>5.44</v>
       </c>
       <c r="P248" s="7" t="n">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="Q248" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R248" s="16" t="n">
-        <v>20.01</v>
+        <v>3.07</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
@@ -11858,22 +11858,22 @@
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M249" s="7" t="inlineStr">
         <is>
-          <t>Andreas Brakstad Klausen</t>
+          <t>Bjørnar Seland Haugen</t>
         </is>
       </c>
       <c r="N249" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O249" s="15" t="n">
-        <v>1.5</v>
+        <v>10.77</v>
       </c>
       <c r="P249" s="7" t="n">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
@@ -11916,30 +11916,30 @@
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M250" s="7" t="inlineStr">
         <is>
-          <t>Leon Victor Sandvik</t>
+          <t>Andreas Brakstad Klausen</t>
         </is>
       </c>
       <c r="N250" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O250" s="15" t="n">
-        <v>4.84</v>
+        <v>1.5</v>
       </c>
       <c r="P250" s="7" t="n">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>11.05</v>
+        <v>20.01</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
@@ -12109,7 +12109,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>9084</v>
+        <v>9229</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -12149,7 +12149,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>21609</v>
+        <v>21758</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -12536,18 +12536,18 @@
         <v>1998</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>21</v>
+        <v>20.77</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>985</v>
+        <v>1016</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Lahti/FIN</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>24.05</v>
+        <v>14.07</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -13233,7 +13233,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>9034</v>
+        <v>9065</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>17502</v>
+        <v>17533</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -14516,18 +14516,18 @@
         <v>1996</v>
       </c>
       <c r="E322" s="15" t="n">
-        <v>10.44</v>
+        <v>10.4</v>
       </c>
       <c r="F322" s="7" t="n">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="G322" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="H322" s="16" t="n">
-        <v>27.06</v>
+        <v>14.07</v>
       </c>
       <c r="J322" s="5" t="n"/>
       <c r="L322" s="14" t="inlineStr">
@@ -15240,7 +15240,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>9421</v>
+        <v>9433</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -15940,22 +15940,22 @@
     <row r="352" ht="13" customHeight="1">
       <c r="B352" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>David Askeland</t>
+          <t>Brage Henriksen</t>
         </is>
       </c>
       <c r="D352" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E352" s="15" t="n">
-        <v>6.58</v>
+        <v>1.3</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>12.05</v>
+        <v>21.01</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
@@ -16003,25 +16003,25 @@
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Brage Henriksen</t>
+          <t>Adam Torp Kvasjord</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
         <v>2011</v>
       </c>
       <c r="E353" s="15" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="F353" s="7" t="n">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H353" s="16" t="n">
-        <v>21.01</v>
+        <v>24.05</v>
       </c>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
@@ -16054,33 +16054,13 @@
       <c r="T353" s="5" t="n"/>
     </row>
     <row r="354" ht="13" customHeight="1">
-      <c r="B354" s="14" t="inlineStr">
-        <is>
-          <t>Høyde</t>
-        </is>
-      </c>
-      <c r="C354" s="7" t="inlineStr">
-        <is>
-          <t>Adam Torp Kvasjord</t>
-        </is>
-      </c>
-      <c r="D354" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E354" s="15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F354" s="7" t="n">
-        <v>19</v>
-      </c>
-      <c r="G354" s="7" t="inlineStr">
-        <is>
-          <t>Kristiansand</t>
-        </is>
-      </c>
-      <c r="H354" s="16" t="n">
-        <v>24.05</v>
-      </c>
+      <c r="B354" s="14" t="n"/>
+      <c r="C354" s="7" t="n"/>
+      <c r="D354" s="7" t="n"/>
+      <c r="E354" s="7" t="n"/>
+      <c r="F354" s="7" t="n"/>
+      <c r="G354" s="7" t="n"/>
+      <c r="H354" s="21" t="n"/>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
         <is>
@@ -16192,7 +16172,7 @@
         </is>
       </c>
       <c r="C358" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E358" s="19" t="inlineStr">
         <is>
@@ -16200,7 +16180,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>7981</v>
+        <v>7810</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16232,7 +16212,7 @@
         </is>
       </c>
       <c r="C360" s="20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E360" s="19" t="inlineStr">
         <is>
@@ -16240,7 +16220,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17402</v>
+        <v>17243</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16272,7 +16252,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -16621,7 +16601,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15461</v>
+        <v>15525</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -24959,18 +24939,18 @@
         <v>2006</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>49.87</v>
+        <v>49.42</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>791</v>
+        <v>814</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>22.05</v>
+        <v>3.07</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -25549,7 +25529,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>9298</v>
+        <v>9321</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -26195,30 +26175,32 @@
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Baard Raknes</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E225" s="15" t="n">
-        <v>2.62</v>
+        <v>1978</v>
+      </c>
+      <c r="E225" s="17" t="inlineStr">
+        <is>
+          <t>17,48,06</t>
+        </is>
       </c>
       <c r="F225" s="7" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>19.02</v>
+        <v>3.07</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
@@ -26253,22 +26235,22 @@
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Strand Blichfeldt</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>1.3</v>
+        <v>2.62</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
@@ -26276,7 +26258,7 @@
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>15.01</v>
+        <v>19.02</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
@@ -26311,24 +26293,22 @@
     <row r="227" ht="13" customHeight="1">
       <c r="B227" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Dagfinn Gjerstad</t>
+          <t>Benjamin Strand Blichfeldt</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E227" s="17" t="inlineStr">
-        <is>
-          <t>18,15,42</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E227" s="15" t="n">
+        <v>1.3</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
@@ -26336,7 +26316,7 @@
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>19.06</v>
+        <v>15.01</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="n"/>
@@ -26381,7 +26361,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>6163</v>
+        <v>6204</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26421,7 +26401,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15461</v>
+        <v>15525</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -30202,7 +30182,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>27737</v>
+        <v>27741</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30482,7 +30462,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>19248</v>
+        <v>19306</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -30993,19 +30973,19 @@
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>2,02,62</t>
+          <t>2,02,42</t>
         </is>
       </c>
       <c r="F12" s="7" t="n">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Dublin/IRL</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
-        <v>30.05</v>
+        <v>12.07</v>
       </c>
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
@@ -31091,7 +31071,7 @@
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Kaiserslautern/GER</t>
+          <t>Gorzów Wielkopolski/POL</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
@@ -31722,7 +31702,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>14411</v>
+        <v>14415</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -32794,7 +32774,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>27737</v>
+        <v>27741</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -42072,18 +42052,18 @@
         <v>1986</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>23.88</v>
+        <v>23.58</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>905</v>
+        <v>933</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>29.06</v>
+        <v>14.07</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -42492,18 +42472,18 @@
         <v>1986</v>
       </c>
       <c r="E278" s="15" t="n">
-        <v>57.16</v>
+        <v>56.33</v>
       </c>
       <c r="F278" s="7" t="n">
-        <v>938</v>
+        <v>968</v>
       </c>
       <c r="G278" s="7" t="inlineStr">
         <is>
-          <t>Roma/ITA</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="H278" s="16" t="n">
-        <v>9.06</v>
+        <v>14.07</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="14" t="inlineStr">
@@ -42838,7 +42818,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>10402</v>
+        <v>10460</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -43886,7 +43866,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>19248</v>
+        <v>19306</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -46335,11 +46315,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/8)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17582</v>
+        <v>17568</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -46367,7 +46347,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16075</v>
+        <v>16132</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -46386,20 +46366,20 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL 2. lag</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(24/9)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>15626</v>
+        <v>15780</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(3/3d)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -46414,20 +46394,20 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Norna-Salhus IL 2. lag</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(24/10)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15244</v>
+        <v>15626</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(3/3d)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -49189,32 +49169,32 @@
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Tonje Helle Flo</t>
+          <t>Karoline Daland</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>1987</v>
+        <v>1999</v>
       </c>
       <c r="O62" s="17" t="inlineStr">
         <is>
-          <t>19,08,2</t>
+          <t>10,25,55</t>
         </is>
       </c>
       <c r="P62" s="7" t="n">
-        <v>596</v>
+        <v>836</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Fevik</t>
+          <t>Winston-Salem/NC/USA</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>5.05</v>
+        <v>19.04</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -49249,32 +49229,30 @@
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Karoline Daland</t>
+          <t>Helena Lauvdal Myhren</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O63" s="17" t="inlineStr">
-        <is>
-          <t>10,25,55</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O63" s="15" t="n">
+        <v>10.01</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>836</v>
+        <v>600</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Winston-Salem/NC/USA</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>19.04</v>
+        <v>2.03</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -49546,25 +49524,25 @@
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Helena Lauvdal Myhren</t>
+          <t>Madelen Haaheim Sveinungsen</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>10.3</v>
+        <v>9.49</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>12.05</v>
+        <v>25.05</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -49618,7 +49596,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>9666</v>
+        <v>9610</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -50045,30 +50023,30 @@
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Celine Thorjussen</t>
+          <t>Madelen Haaheim Sveinungsen</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="O80" s="15" t="n">
-        <v>12.97</v>
+        <v>26.57</v>
       </c>
       <c r="P80" s="7" t="n">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>San Antonio/TX/USA</t>
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>16.06</v>
+        <v>10.05</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -50108,25 +50086,25 @@
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Helena Lauvdal Myhren</t>
+          <t>Charlotte Celine Thorjussen</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="O81" s="15" t="n">
-        <v>13.17</v>
+        <v>12.97</v>
       </c>
       <c r="P81" s="7" t="n">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R81" s="16" t="n">
-        <v>1.06</v>
+        <v>16.06</v>
       </c>
       <c r="T81" s="5" t="n"/>
     </row>
@@ -50161,30 +50139,30 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Madelen Haaheim Sveinungsen</t>
+          <t>Helena Lauvdal Myhren</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>27.14</v>
+        <v>13.17</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>25.05</v>
+        <v>1.06</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -50470,7 +50448,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>7916</v>
+        <v>7958</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -50510,7 +50488,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17582</v>
+        <v>17568</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -50534,7 +50512,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -50617,7 +50595,7 @@
       </c>
       <c r="M97" s="7" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL 2. lag</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="T97" s="5" t="n"/>
@@ -50774,25 +50752,25 @@
       </c>
       <c r="M103" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="N103" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="O103" s="15" t="n">
-        <v>8.029999999999999</v>
+        <v>7.78</v>
       </c>
       <c r="P103" s="7" t="n">
-        <v>725</v>
+        <v>804</v>
       </c>
       <c r="Q103" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R103" s="16" t="n">
-        <v>10.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T103" s="5" t="n"/>
     </row>
@@ -50832,25 +50810,25 @@
       </c>
       <c r="M104" s="7" t="inlineStr">
         <is>
-          <t>Martine Lundberg Espetvedt</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="N104" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O104" s="15" t="n">
-        <v>12.82</v>
+        <v>12.27</v>
       </c>
       <c r="P104" s="7" t="n">
-        <v>702</v>
+        <v>802</v>
       </c>
       <c r="Q104" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R104" s="16" t="n">
-        <v>8.06</v>
+        <v>27.06</v>
       </c>
       <c r="T104" s="5" t="n"/>
     </row>
@@ -50862,25 +50840,25 @@
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Pernille Sina Lund</t>
+          <t>Emma Fatu Suhonen</t>
         </is>
       </c>
       <c r="D105" s="7" t="n">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>26.02</v>
+        <v>25.83</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="G105" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Kortrijk/BEL</t>
         </is>
       </c>
       <c r="H105" s="16" t="n">
-        <v>21.06</v>
+        <v>13.07</v>
       </c>
       <c r="J105" s="5" t="n"/>
       <c r="L105" s="14" t="inlineStr">
@@ -50890,25 +50868,25 @@
       </c>
       <c r="M105" s="7" t="inlineStr">
         <is>
-          <t>Martine Lundberg Espetvedt</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="N105" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O105" s="15" t="n">
-        <v>26.6</v>
+        <v>25.41</v>
       </c>
       <c r="P105" s="7" t="n">
-        <v>680</v>
+        <v>773</v>
       </c>
       <c r="Q105" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R105" s="16" t="n">
-        <v>12.05</v>
+        <v>21.06</v>
       </c>
       <c r="T105" s="5" t="n"/>
     </row>
@@ -50950,27 +50928,27 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Tunes Lund</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="N106" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O106" s="17" t="inlineStr">
         <is>
-          <t>1,03,26</t>
+          <t>1,01,10</t>
         </is>
       </c>
       <c r="P106" s="7" t="n">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="Q106" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R106" s="16" t="n">
-        <v>21.01</v>
+        <v>3.07</v>
       </c>
       <c r="T106" s="5" t="n"/>
     </row>
@@ -51012,27 +50990,27 @@
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Tunes Lund</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="N107" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O107" s="17" t="inlineStr">
         <is>
-          <t>2,21,20</t>
+          <t>2,25,04</t>
         </is>
       </c>
       <c r="P107" s="7" t="n">
-        <v>653</v>
+        <v>610</v>
       </c>
       <c r="Q107" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R107" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>31.05</v>
       </c>
       <c r="T107" s="5" t="n"/>
     </row>
@@ -51067,32 +51045,30 @@
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M108" s="7" t="inlineStr">
         <is>
-          <t>Aurora Veen Torkildsen</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="N108" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O108" s="17" t="inlineStr">
-        <is>
-          <t>4,56,92</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O108" s="15" t="n">
+        <v>8.49</v>
       </c>
       <c r="P108" s="7" t="n">
-        <v>628</v>
+        <v>886</v>
       </c>
       <c r="Q108" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R108" s="16" t="n">
-        <v>10.02</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T108" s="5" t="n"/>
     </row>
@@ -51127,32 +51103,30 @@
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M109" s="7" t="inlineStr">
         <is>
-          <t>Nellie Cecilia Taule</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="N109" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O109" s="17" t="inlineStr">
-        <is>
-          <t>18,51,67mx</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O109" s="15" t="n">
+        <v>14.32</v>
       </c>
       <c r="P109" s="7" t="n">
-        <v>618</v>
+        <v>836</v>
       </c>
       <c r="Q109" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R109" s="16" t="n">
-        <v>19.06</v>
+        <v>22.05</v>
       </c>
       <c r="T109" s="5" t="n"/>
     </row>
@@ -51187,30 +51161,30 @@
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M110" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Kira Chan Sobolowski</t>
         </is>
       </c>
       <c r="N110" s="7" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="O110" s="15" t="n">
-        <v>9.15</v>
+        <v>1.4</v>
       </c>
       <c r="P110" s="7" t="n">
-        <v>749</v>
+        <v>518</v>
       </c>
       <c r="Q110" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R110" s="16" t="n">
-        <v>11.02</v>
+        <v>11.05</v>
       </c>
       <c r="T110" s="5" t="n"/>
     </row>
@@ -51245,30 +51219,30 @@
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M111" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="N111" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O111" s="15" t="n">
-        <v>15.52</v>
+        <v>5.59</v>
       </c>
       <c r="P111" s="7" t="n">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="Q111" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R111" s="16" t="n">
-        <v>9.06</v>
+        <v>28.06</v>
       </c>
       <c r="T111" s="5" t="n"/>
     </row>
@@ -51308,17 +51282,17 @@
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Selma Persen Haltbakk</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>11.54</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P112" s="7" t="n">
-        <v>717</v>
+        <v>427</v>
       </c>
       <c r="Q112" s="7" t="inlineStr">
         <is>
@@ -51361,22 +51335,22 @@
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Nora Ekroll Jaidi</t>
+          <t>Kateryna Retiva</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>33.48</v>
+        <v>10.58</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
@@ -51384,7 +51358,7 @@
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>23.06</v>
+        <v>12.05</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
@@ -51419,30 +51393,30 @@
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Nora Ekroll Jaidi</t>
+          <t>Kateryna Retiva</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>41.41</v>
+        <v>44.22</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>702</v>
+        <v>766</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>23.06</v>
+        <v>28.06</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -51475,33 +51449,13 @@
         <v>7.05</v>
       </c>
       <c r="J115" s="5" t="n"/>
-      <c r="L115" s="14" t="inlineStr">
-        <is>
-          <t>Spyd</t>
-        </is>
-      </c>
-      <c r="M115" s="7" t="inlineStr">
-        <is>
-          <t>Nora Ekroll Jaidi</t>
-        </is>
-      </c>
-      <c r="N115" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O115" s="15" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="P115" s="7" t="n">
-        <v>558</v>
-      </c>
-      <c r="Q115" s="7" t="inlineStr">
-        <is>
-          <t>Fana</t>
-        </is>
-      </c>
-      <c r="R115" s="16" t="n">
-        <v>2.06</v>
-      </c>
+      <c r="L115" s="14" t="n"/>
+      <c r="M115" s="7" t="n"/>
+      <c r="N115" s="7" t="n"/>
+      <c r="O115" s="7" t="n"/>
+      <c r="P115" s="7" t="n"/>
+      <c r="Q115" s="7" t="n"/>
+      <c r="R115" s="21" t="n"/>
       <c r="T115" s="5" t="n"/>
     </row>
     <row r="116" ht="13" customHeight="1">
@@ -51537,7 +51491,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>7993</v>
+        <v>8008</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -51546,7 +51500,7 @@
         </is>
       </c>
       <c r="M117" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O117" s="19" t="inlineStr">
         <is>
@@ -51554,7 +51508,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>8666</v>
+        <v>8447</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -51685,30 +51639,30 @@
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O122" s="15" t="n">
-        <v>9.25</v>
+        <v>12.37</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>731</v>
+        <v>783</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>11.02</v>
+        <v>27.06</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
@@ -51743,30 +51697,30 @@
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>8.050000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>719</v>
+        <v>766</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>4.06</v>
+        <v>21.06</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
@@ -51801,30 +51755,30 @@
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>8.16</v>
+        <v>12.48</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>686</v>
+        <v>763</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>21.01</v>
+        <v>23.06</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
@@ -51864,90 +51818,90 @@
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Birgitte Langeland Birkeland</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>8.18</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>681</v>
+        <v>722</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>10.02</v>
+        <v>24.02</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Guro Navelsaker Hjeltnes</t>
+          <t>Pernille Sina Lund</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>8.050000000000001</v>
+        <v>26.02</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>21.01</v>
+        <v>21.06</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>26.7</v>
+        <v>8.06</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>672</v>
+        <v>716</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>20.01</v>
+        <v>10.05</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
@@ -51959,96 +51913,98 @@
         <v>2004</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>12.78</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>1.06</v>
+        <v>21.01</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>13.01</v>
+        <v>5.23</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>2.06</v>
+        <v>3.07</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Pernille Sina Lund</t>
+          <t>Guro Navelsaker Hjeltnes</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="E128" s="15" t="n">
-        <v>8.119999999999999</v>
+        <v>12.78</v>
       </c>
       <c r="F128" s="7" t="n">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>20.01</v>
+        <v>1.06</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M128" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="N128" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O128" s="15" t="n">
-        <v>26.94</v>
+      <c r="O128" s="17" t="inlineStr">
+        <is>
+          <t>1,01,46</t>
+        </is>
       </c>
       <c r="P128" s="7" t="n">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
@@ -52056,29 +52012,29 @@
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>12.05</v>
+        <v>2.06</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
     <row r="129" ht="13" customHeight="1">
       <c r="B129" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Regine Johansen</t>
+          <t>Pernille Sina Lund</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="E129" s="15" t="n">
-        <v>11.23</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
@@ -52086,7 +52042,7 @@
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>16.06</v>
+        <v>20.01</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
@@ -52096,47 +52052,47 @@
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="O129" s="15" t="n">
-        <v>27.05</v>
+        <v>27.94</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>646</v>
+        <v>583</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>20.01</v>
+        <v>15.05</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Emma Fatu Suhonen</t>
+          <t>Regine Johansen</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>26.57</v>
+        <v>11.23</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
@@ -52144,35 +52100,35 @@
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>10.02</v>
+        <v>16.06</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M130" s="7" t="inlineStr">
         <is>
-          <t>Nora Ekroll Jaidi</t>
+          <t>Selma Persen Haltbakk</t>
         </is>
       </c>
       <c r="N130" s="7" t="n">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="O130" s="15" t="n">
-        <v>8.44</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="P130" s="7" t="n">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="Q130" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R130" s="16" t="n">
-        <v>1.06</v>
+        <v>5.06</v>
       </c>
       <c r="T130" s="5" t="n"/>
     </row>
@@ -52212,17 +52168,17 @@
       </c>
       <c r="M131" s="7" t="inlineStr">
         <is>
-          <t>Elise Bø</t>
+          <t>Tuva Paulsdatter Sandlund</t>
         </is>
       </c>
       <c r="N131" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O131" s="15" t="n">
-        <v>4.03</v>
+        <v>4.34</v>
       </c>
       <c r="P131" s="7" t="n">
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="Q131" s="7" t="inlineStr">
         <is>
@@ -52230,7 +52186,7 @@
         </is>
       </c>
       <c r="R131" s="16" t="n">
-        <v>10.02</v>
+        <v>11.02</v>
       </c>
       <c r="T131" s="5" t="n"/>
     </row>
@@ -52265,30 +52221,30 @@
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M132" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Juliane Bøen Flygansvær</t>
+          <t>Selma Persen Haltbakk</t>
         </is>
       </c>
       <c r="N132" s="7" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="O132" s="15" t="n">
-        <v>1.25</v>
+        <v>3.96</v>
       </c>
       <c r="P132" s="7" t="n">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="Q132" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R132" s="16" t="n">
-        <v>10.02</v>
+        <v>5.06</v>
       </c>
       <c r="T132" s="5" t="n"/>
     </row>
@@ -52323,30 +52279,30 @@
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M133" s="7" t="inlineStr">
         <is>
-          <t>Thea Stikholmen</t>
+          <t>Pernille Nøkleby</t>
         </is>
       </c>
       <c r="N133" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O133" s="15" t="n">
-        <v>1.18</v>
+        <v>8.33</v>
       </c>
       <c r="P133" s="7" t="n">
-        <v>278</v>
+        <v>371</v>
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
-          <t>Alvøen</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>29.05</v>
+        <v>10.02</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -52383,7 +52339,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>8082</v>
+        <v>8124</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -52400,7 +52356,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>6960</v>
+        <v>7333</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -52423,7 +52379,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16075</v>
+        <v>16132</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -52432,7 +52388,7 @@
         </is>
       </c>
       <c r="M137" s="20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O137" s="19" t="inlineStr">
         <is>
@@ -52440,7 +52396,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>15626</v>
+        <v>15780</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -52464,7 +52420,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -52536,7 +52492,7 @@
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Norna-Salhus IL 2. lag</t>
         </is>
       </c>
       <c r="J144" s="5" t="n"/>
@@ -52676,25 +52632,25 @@
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="D150" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E150" s="15" t="n">
-        <v>7.78</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>804</v>
+        <v>725</v>
       </c>
       <c r="G150" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H150" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="14" t="inlineStr">
@@ -52734,25 +52690,25 @@
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Martine Lundberg Espetvedt</t>
         </is>
       </c>
       <c r="D151" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E151" s="15" t="n">
-        <v>12.27</v>
+        <v>12.82</v>
       </c>
       <c r="F151" s="7" t="n">
-        <v>802</v>
+        <v>702</v>
       </c>
       <c r="G151" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H151" s="16" t="n">
-        <v>27.06</v>
+        <v>8.06</v>
       </c>
       <c r="J151" s="5" t="n"/>
       <c r="L151" s="14" t="inlineStr">
@@ -52792,25 +52748,25 @@
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Martine Lundberg Espetvedt</t>
         </is>
       </c>
       <c r="D152" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E152" s="15" t="n">
-        <v>25.41</v>
+        <v>26.6</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>773</v>
+        <v>680</v>
       </c>
       <c r="G152" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H152" s="16" t="n">
-        <v>21.06</v>
+        <v>12.05</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="14" t="inlineStr">
@@ -52850,27 +52806,27 @@
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Alexandra Tunes Lund</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E153" s="17" t="inlineStr">
         <is>
-          <t>1,01,46</t>
+          <t>1,03,26</t>
         </is>
       </c>
       <c r="F153" s="7" t="n">
-        <v>634</v>
+        <v>582</v>
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>2.06</v>
+        <v>21.01</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -52912,27 +52868,27 @@
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Alexandra Tunes Lund</t>
         </is>
       </c>
       <c r="D154" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E154" s="17" t="inlineStr">
         <is>
-          <t>2,25,04</t>
+          <t>2,21,20</t>
         </is>
       </c>
       <c r="F154" s="7" t="n">
-        <v>610</v>
+        <v>653</v>
       </c>
       <c r="G154" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H154" s="16" t="n">
-        <v>31.05</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="14" t="inlineStr">
@@ -52969,30 +52925,32 @@
     <row r="155" ht="13" customHeight="1">
       <c r="B155" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Aurora Veen Torkildsen</t>
         </is>
       </c>
       <c r="D155" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E155" s="15" t="n">
-        <v>8.49</v>
+        <v>2010</v>
+      </c>
+      <c r="E155" s="17" t="inlineStr">
+        <is>
+          <t>4,56,92</t>
+        </is>
       </c>
       <c r="F155" s="7" t="n">
-        <v>886</v>
+        <v>628</v>
       </c>
       <c r="G155" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H155" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
@@ -53029,30 +52987,32 @@
     <row r="156" ht="13" customHeight="1">
       <c r="B156" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Nellie Cecilia Taule</t>
         </is>
       </c>
       <c r="D156" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E156" s="15" t="n">
-        <v>14.32</v>
+        <v>2008</v>
+      </c>
+      <c r="E156" s="17" t="inlineStr">
+        <is>
+          <t>18,51,67mx</t>
+        </is>
       </c>
       <c r="F156" s="7" t="n">
-        <v>836</v>
+        <v>618</v>
       </c>
       <c r="G156" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H156" s="16" t="n">
-        <v>22.05</v>
+        <v>19.06</v>
       </c>
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
@@ -53087,30 +53047,30 @@
     <row r="157" ht="13" customHeight="1">
       <c r="B157" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>Kira Chan Sobolowski</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="D157" s="7" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E157" s="15" t="n">
-        <v>1.4</v>
+        <v>9.15</v>
       </c>
       <c r="F157" s="7" t="n">
-        <v>518</v>
+        <v>749</v>
       </c>
       <c r="G157" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H157" s="16" t="n">
-        <v>11.05</v>
+        <v>11.02</v>
       </c>
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
@@ -53147,30 +53107,30 @@
     <row r="158" ht="13" customHeight="1">
       <c r="B158" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="D158" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E158" s="15" t="n">
-        <v>5.59</v>
+        <v>15.52</v>
       </c>
       <c r="F158" s="7" t="n">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="G158" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H158" s="16" t="n">
-        <v>28.06</v>
+        <v>9.06</v>
       </c>
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
@@ -53210,17 +53170,17 @@
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Selma Persen Haltbakk</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="D159" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E159" s="15" t="n">
-        <v>8.800000000000001</v>
+        <v>11.54</v>
       </c>
       <c r="F159" s="7" t="n">
-        <v>427</v>
+        <v>717</v>
       </c>
       <c r="G159" s="7" t="inlineStr">
         <is>
@@ -53263,22 +53223,22 @@
     <row r="160" ht="13" customHeight="1">
       <c r="B160" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>Kateryna Retiva</t>
+          <t>Nora Ekroll Jaidi</t>
         </is>
       </c>
       <c r="D160" s="7" t="n">
-        <v>1989</v>
+        <v>2005</v>
       </c>
       <c r="E160" s="15" t="n">
-        <v>10.58</v>
+        <v>33.48</v>
       </c>
       <c r="F160" s="7" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G160" s="7" t="inlineStr">
         <is>
@@ -53286,7 +53246,7 @@
         </is>
       </c>
       <c r="H160" s="16" t="n">
-        <v>12.05</v>
+        <v>23.06</v>
       </c>
       <c r="J160" s="5" t="n"/>
       <c r="L160" s="14" t="inlineStr">
@@ -53321,30 +53281,30 @@
     <row r="161" ht="13" customHeight="1">
       <c r="B161" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>Kateryna Retiva</t>
+          <t>Nora Ekroll Jaidi</t>
         </is>
       </c>
       <c r="D161" s="7" t="n">
-        <v>1989</v>
+        <v>2005</v>
       </c>
       <c r="E161" s="15" t="n">
-        <v>44.22</v>
+        <v>41.41</v>
       </c>
       <c r="F161" s="7" t="n">
-        <v>766</v>
+        <v>702</v>
       </c>
       <c r="G161" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H161" s="16" t="n">
-        <v>28.06</v>
+        <v>23.06</v>
       </c>
       <c r="J161" s="5" t="n"/>
       <c r="L161" s="14" t="inlineStr">
@@ -53377,13 +53337,33 @@
       <c r="T161" s="5" t="n"/>
     </row>
     <row r="162" ht="13" customHeight="1">
-      <c r="B162" s="14" t="n"/>
-      <c r="C162" s="7" t="n"/>
-      <c r="D162" s="7" t="n"/>
-      <c r="E162" s="7" t="n"/>
-      <c r="F162" s="7" t="n"/>
-      <c r="G162" s="7" t="n"/>
-      <c r="H162" s="21" t="n"/>
+      <c r="B162" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C162" s="7" t="inlineStr">
+        <is>
+          <t>Nora Ekroll Jaidi</t>
+        </is>
+      </c>
+      <c r="D162" s="7" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E162" s="15" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F162" s="7" t="n">
+        <v>558</v>
+      </c>
+      <c r="G162" s="7" t="inlineStr">
+        <is>
+          <t>Fana</t>
+        </is>
+      </c>
+      <c r="H162" s="16" t="n">
+        <v>2.06</v>
+      </c>
       <c r="J162" s="5" t="n"/>
       <c r="L162" s="14" t="inlineStr">
         <is>
@@ -53439,7 +53419,7 @@
         </is>
       </c>
       <c r="C164" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E164" s="19" t="inlineStr">
         <is>
@@ -53447,7 +53427,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>8437</v>
+        <v>8666</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -53567,30 +53547,30 @@
     <row r="169" ht="13" customHeight="1">
       <c r="B169" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E169" s="15" t="n">
-        <v>12.37</v>
+        <v>9.25</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>783</v>
+        <v>731</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>27.06</v>
+        <v>11.02</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -53625,30 +53605,30 @@
     <row r="170" ht="13" customHeight="1">
       <c r="B170" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E170" s="15" t="n">
-        <v>25.5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>766</v>
+        <v>719</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>21.06</v>
+        <v>4.06</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -53683,30 +53663,30 @@
     <row r="171" ht="13" customHeight="1">
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E171" s="15" t="n">
-        <v>12.48</v>
+        <v>8.16</v>
       </c>
       <c r="F171" s="7" t="n">
-        <v>763</v>
+        <v>686</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>23.06</v>
+        <v>21.01</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -53748,25 +53728,25 @@
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Birgitte Langeland Birkeland</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E172" s="15" t="n">
-        <v>8.039999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>722</v>
+        <v>681</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>24.02</v>
+        <v>10.02</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -53801,30 +53781,30 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E173" s="15" t="n">
-        <v>8.06</v>
+        <v>26.7</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>716</v>
+        <v>672</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>10.05</v>
+        <v>20.01</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -53859,22 +53839,22 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>27.94</v>
+        <v>13.01</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>583</v>
+        <v>669</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
@@ -53882,7 +53862,7 @@
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>15.05</v>
+        <v>2.06</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -53917,30 +53897,30 @@
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Selma Persen Haltbakk</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>8.970000000000001</v>
+        <v>26.94</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>480</v>
+        <v>654</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>5.06</v>
+        <v>12.05</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -53975,30 +53955,30 @@
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Tuva Paulsdatter Sandlund</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>9</v>
+        <v>27.05</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>473</v>
+        <v>646</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>5.06</v>
+        <v>20.01</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -54035,30 +54015,30 @@
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Tuva Paulsdatter Sandlund</t>
+          <t>Nora Ekroll Jaidi</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>4.34</v>
+        <v>8.44</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>11.02</v>
+        <v>1.06</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
@@ -54098,25 +54078,25 @@
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Selma Persen Haltbakk</t>
+          <t>Elise Bø</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>3.96</v>
+        <v>4.03</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>5.06</v>
+        <v>10.02</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -54151,22 +54131,22 @@
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Pernille Nøkleby</t>
+          <t>Nicoline Juliane Bøen Flygansvær</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>8.33</v>
+        <v>1.25</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
@@ -54214,25 +54194,25 @@
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Zoey Faye Lasrado</t>
+          <t>Thea Stikholmen</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E180" s="15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="F180" s="7" t="n">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Alvøen</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>20.01</v>
+        <v>29.05</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
@@ -54297,7 +54277,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>6807</v>
+        <v>6960</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -54329,7 +54309,7 @@
         </is>
       </c>
       <c r="C184" s="20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E184" s="19" t="inlineStr">
         <is>
@@ -54337,7 +54317,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15244</v>
+        <v>15626</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -54369,7 +54349,7 @@
         </is>
       </c>
       <c r="C186" s="20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="19" t="inlineStr">

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -908,11 +908,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(24/14)</t>
+          <t>(26/15)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>17533</v>
+        <v>18275</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -14002,13 +14002,33 @@
         <v>21.06</v>
       </c>
       <c r="J301" s="5" t="n"/>
-      <c r="L301" s="14" t="n"/>
-      <c r="M301" s="7" t="n"/>
-      <c r="N301" s="7" t="n"/>
-      <c r="O301" s="7" t="n"/>
-      <c r="P301" s="7" t="n"/>
-      <c r="Q301" s="7" t="n"/>
-      <c r="R301" s="21" t="n"/>
+      <c r="L301" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="M301" s="7" t="inlineStr">
+        <is>
+          <t>Samuel Runde</t>
+        </is>
+      </c>
+      <c r="N301" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="O301" s="15" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="P301" s="7" t="n">
+        <v>415</v>
+      </c>
+      <c r="Q301" s="7" t="inlineStr">
+        <is>
+          <t>Sandnes</t>
+        </is>
+      </c>
+      <c r="R301" s="16" t="n">
+        <v>6.05</v>
+      </c>
       <c r="T301" s="5" t="n"/>
     </row>
     <row r="302" ht="13" customHeight="1">
@@ -14040,13 +14060,33 @@
         <v>9.029999999999999</v>
       </c>
       <c r="J302" s="5" t="n"/>
-      <c r="L302" s="14" t="n"/>
-      <c r="M302" s="7" t="n"/>
-      <c r="N302" s="7" t="n"/>
-      <c r="O302" s="7" t="n"/>
-      <c r="P302" s="7" t="n"/>
-      <c r="Q302" s="7" t="n"/>
-      <c r="R302" s="21" t="n"/>
+      <c r="L302" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="M302" s="7" t="inlineStr">
+        <is>
+          <t>Sander Stoltenberg</t>
+        </is>
+      </c>
+      <c r="N302" s="7" t="n">
+        <v>2006</v>
+      </c>
+      <c r="O302" s="15" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="P302" s="7" t="n">
+        <v>327</v>
+      </c>
+      <c r="Q302" s="7" t="inlineStr">
+        <is>
+          <t>Sandnes</t>
+        </is>
+      </c>
+      <c r="R302" s="16" t="n">
+        <v>6.05</v>
+      </c>
       <c r="T302" s="5" t="n"/>
     </row>
     <row r="303" ht="13" customHeight="1">
@@ -14167,7 +14207,7 @@
         </is>
       </c>
       <c r="M306" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O306" s="19" t="inlineStr">
         <is>
@@ -14175,7 +14215,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>8468</v>
+        <v>9210</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -14207,7 +14247,7 @@
         </is>
       </c>
       <c r="M308" s="20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O308" s="19" t="inlineStr">
         <is>
@@ -14215,7 +14255,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>17533</v>
+        <v>18275</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -14239,7 +14279,7 @@
         </is>
       </c>
       <c r="M310" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
@@ -16489,7 +16529,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16873</v>
+        <v>16943</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -16545,7 +16585,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>16268</v>
+        <v>16279</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -16741,7 +16781,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>11092</v>
+        <v>11096</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -21447,30 +21487,30 @@
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Leif-Andreas Borgersen</t>
+          <t>Karl-Henrik Borgersen</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>27.01</v>
+        <v>2.07</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -21651,7 +21691,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9147</v>
+        <v>9168</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -22247,7 +22287,7 @@
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
@@ -22259,18 +22299,18 @@
         <v>2008</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>511</v>
+        <v>549</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>23.06</v>
+        <v>27.01</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
@@ -22305,30 +22345,30 @@
     <row r="131" ht="13" customHeight="1">
       <c r="B131" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Leif-Andreas Borgersen</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>5.55</v>
+        <v>1.65</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>10.02</v>
+        <v>23.06</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
@@ -22421,30 +22461,30 @@
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Karl-Henrik Borgersen</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>3</v>
+        <v>5.55</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>9.06</v>
+        <v>10.02</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
@@ -22509,7 +22549,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7726</v>
+        <v>7775</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -22549,7 +22589,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16873</v>
+        <v>16943</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -23795,18 +23835,18 @@
         <v>2005</v>
       </c>
       <c r="E170" s="15" t="n">
-        <v>23.82</v>
+        <v>23.71</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>19.05</v>
+        <v>17.07</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -24465,7 +24505,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>7243</v>
+        <v>7254</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24505,7 +24545,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>16268</v>
+        <v>16279</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -28643,18 +28683,18 @@
         <v>2004</v>
       </c>
       <c r="O293" s="15" t="n">
-        <v>22.82</v>
+        <v>22.78</v>
       </c>
       <c r="P293" s="7" t="n">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>25.05</v>
+        <v>13.07</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
@@ -29206,7 +29246,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>5515</v>
+        <v>5519</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -30042,7 +30082,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>11092</v>
+        <v>11096</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30290,11 +30330,11 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(30/15)</t>
+          <t>(30/16)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>22408</v>
+        <v>22442</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -30322,7 +30362,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>22311</v>
+        <v>22314</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -30518,7 +30558,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17487</v>
+        <v>17522</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -35913,7 +35953,7 @@
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="E124" s="15" t="n">
         <v>1.15</v>
@@ -36764,12 +36804,12 @@
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Elén Linchausen Skar</t>
+          <t>Oda Bråten Richenberg</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
@@ -36777,19 +36817,19 @@
       </c>
       <c r="E142" s="17" t="inlineStr">
         <is>
-          <t>1,00,27</t>
+          <t>10,26,34</t>
         </is>
       </c>
       <c r="F142" s="7" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>26.05</v>
+        <v>13.07</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
@@ -36824,30 +36864,32 @@
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Marie Øverli</t>
+          <t>Elén Linchausen Skar</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E143" s="15" t="n">
-        <v>2.9</v>
+        <v>2006</v>
+      </c>
+      <c r="E143" s="17" t="inlineStr">
+        <is>
+          <t>1,00,27</t>
+        </is>
       </c>
       <c r="F143" s="7" t="n">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>6.01</v>
+        <v>26.05</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
@@ -36882,7 +36924,7 @@
     <row r="144" ht="13" customHeight="1">
       <c r="B144" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
@@ -36894,23 +36936,23 @@
         <v>2008</v>
       </c>
       <c r="E144" s="15" t="n">
-        <v>8.32</v>
+        <v>2.9</v>
       </c>
       <c r="F144" s="7" t="n">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>11.02</v>
+        <v>6.01</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
@@ -36922,48 +36964,48 @@
         <v>2005</v>
       </c>
       <c r="O144" s="15" t="n">
-        <v>26.6</v>
+        <v>12.93</v>
       </c>
       <c r="P144" s="7" t="n">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>10.02</v>
+        <v>13.07</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
     <row r="145" ht="13" customHeight="1">
       <c r="B145" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Natalie Norbeck Jøransen</t>
+          <t>Marie Øverli</t>
         </is>
       </c>
       <c r="D145" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>27.14</v>
+        <v>8.32</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>11.05</v>
+        <v>11.02</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
@@ -36998,30 +37040,30 @@
     <row r="146" ht="13" customHeight="1">
       <c r="B146" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Linnea Bratteng</t>
+          <t>Natalie Norbeck Jøransen</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E146" s="15" t="n">
-        <v>13.19</v>
+        <v>27.14</v>
       </c>
       <c r="F146" s="7" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>1.06</v>
+        <v>11.05</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
@@ -37202,7 +37244,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>10766</v>
+        <v>10800</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -37219,7 +37261,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>10253</v>
+        <v>10256</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -37242,7 +37284,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>22408</v>
+        <v>22442</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -37259,7 +37301,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>22311</v>
+        <v>22314</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -37274,7 +37316,7 @@
         </is>
       </c>
       <c r="C154" s="20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="19" t="inlineStr">
@@ -44301,19 +44343,19 @@
       </c>
       <c r="E324" s="17" t="inlineStr">
         <is>
-          <t>1,02,79</t>
+          <t>1,01,60</t>
         </is>
       </c>
       <c r="F324" s="7" t="n">
-        <v>595</v>
+        <v>630</v>
       </c>
       <c r="G324" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H324" s="16" t="n">
-        <v>23.06</v>
+        <v>13.07</v>
       </c>
       <c r="J324" s="5" t="n"/>
       <c r="L324" s="14" t="inlineStr">
@@ -45010,7 +45052,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>8887</v>
+        <v>8922</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -46078,7 +46120,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17487</v>
+        <v>17522</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>25188</v>
+        <v>25195</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>24289</v>
+        <v>24323</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -768,11 +768,11 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(30/17)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>23524</v>
+        <v>23630</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>21758</v>
+        <v>21781</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>18275</v>
+        <v>18504</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17243</v>
+        <v>17269</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>17159</v>
+        <v>17169</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -3642,10 +3642,10 @@
         <v>2000</v>
       </c>
       <c r="E64" s="15" t="n">
-        <v>48</v>
+        <v>47.89</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>18.06</v>
+        <v>18.07</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12654</v>
+        <v>12661</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>25188</v>
+        <v>25195</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -6031,19 +6031,19 @@
       </c>
       <c r="O118" s="17" t="inlineStr">
         <is>
-          <t>3,52,53</t>
+          <t>3,51,48</t>
         </is>
       </c>
       <c r="P118" s="7" t="n">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="Q118" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R118" s="16" t="n">
-        <v>10.05</v>
+        <v>18.07</v>
       </c>
       <c r="T118" s="5" t="n"/>
     </row>
@@ -6631,7 +6631,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12700</v>
+        <v>12711</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -7126,32 +7126,30 @@
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Aleksander Hauge Øyen</t>
+          <t>Sindre Strønstad-Løseth</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O140" s="17" t="inlineStr">
-        <is>
-          <t>3,54,98</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O140" s="15" t="n">
+        <v>22.33</v>
       </c>
       <c r="P140" s="7" t="n">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>4.06</v>
+        <v>16.07</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
@@ -7188,30 +7186,32 @@
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Filip Holdhus</t>
+          <t>Aleksander Hauge Øyen</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O141" s="15" t="n">
-        <v>22.48</v>
+        <v>2006</v>
+      </c>
+      <c r="O141" s="17" t="inlineStr">
+        <is>
+          <t>3,54,98</t>
+        </is>
       </c>
       <c r="P141" s="7" t="n">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Helsingborg/SWE</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>13.07</v>
+        <v>1.06</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
@@ -7308,7 +7308,7 @@
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
@@ -7320,18 +7320,18 @@
         <v>2004</v>
       </c>
       <c r="O143" s="15" t="n">
-        <v>11.17</v>
+        <v>22.48</v>
       </c>
       <c r="P143" s="7" t="n">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Helsingborg/SWE</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>19.05</v>
+        <v>13.07</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
@@ -7675,7 +7675,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11589</v>
+        <v>11612</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>24289</v>
+        <v>24323</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -8016,18 +8016,18 @@
         <v>2000</v>
       </c>
       <c r="E166" s="15" t="n">
-        <v>10.96</v>
+        <v>10.94</v>
       </c>
       <c r="F166" s="7" t="n">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="G166" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H166" s="16" t="n">
-        <v>27.06</v>
+        <v>18.07</v>
       </c>
       <c r="J166" s="5" t="n"/>
       <c r="L166" s="14" t="inlineStr">
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>12312</v>
+        <v>12317</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -8986,30 +8986,30 @@
     <row r="186" ht="13" customHeight="1">
       <c r="B186" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
         <is>
-          <t>Albin Lydersen Botez</t>
+          <t>Sander Steen Myrvang</t>
         </is>
       </c>
       <c r="D186" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E186" s="15" t="n">
-        <v>11.12</v>
+        <v>49.03</v>
       </c>
       <c r="F186" s="7" t="n">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="G186" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H186" s="16" t="n">
-        <v>27.06</v>
+        <v>18.07</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="14" t="inlineStr">
@@ -9044,30 +9044,30 @@
     <row r="187" ht="13" customHeight="1">
       <c r="B187" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>Thor Olav Rosvold</t>
+          <t>Albin Lydersen Botez</t>
         </is>
       </c>
       <c r="D187" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="E187" s="15" t="n">
-        <v>47.14</v>
+        <v>11.12</v>
       </c>
       <c r="F187" s="7" t="n">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G187" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H187" s="16" t="n">
-        <v>18.06</v>
+        <v>27.06</v>
       </c>
       <c r="J187" s="5" t="n"/>
       <c r="L187" s="14" t="inlineStr">
@@ -9102,22 +9102,22 @@
     <row r="188" ht="13" customHeight="1">
       <c r="B188" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Thor Olav Rosvold</t>
         </is>
       </c>
       <c r="D188" s="7" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E188" s="15" t="n">
-        <v>22.61</v>
+        <v>47.14</v>
       </c>
       <c r="F188" s="7" t="n">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="G188" s="7" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         </is>
       </c>
       <c r="H188" s="16" t="n">
-        <v>2.06</v>
+        <v>18.06</v>
       </c>
       <c r="J188" s="5" t="n"/>
       <c r="L188" s="14" t="inlineStr">
@@ -9160,24 +9160,22 @@
     <row r="189" ht="13" customHeight="1">
       <c r="B189" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>Abdullahi Hassan Ali</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="D189" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E189" s="17" t="inlineStr">
-        <is>
-          <t>8,35,56</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E189" s="15" t="n">
+        <v>22.61</v>
       </c>
       <c r="F189" s="7" t="n">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="G189" s="7" t="inlineStr">
         <is>
@@ -9185,7 +9183,7 @@
         </is>
       </c>
       <c r="H189" s="16" t="n">
-        <v>1.06</v>
+        <v>2.06</v>
       </c>
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
@@ -9220,7 +9218,7 @@
     <row r="190" ht="13" customHeight="1">
       <c r="B190" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
@@ -9233,11 +9231,11 @@
       </c>
       <c r="E190" s="17" t="inlineStr">
         <is>
-          <t>14,54,37</t>
+          <t>8,35,56</t>
         </is>
       </c>
       <c r="F190" s="7" t="n">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="G190" s="7" t="inlineStr">
         <is>
@@ -9245,7 +9243,7 @@
         </is>
       </c>
       <c r="H190" s="16" t="n">
-        <v>17.06</v>
+        <v>1.06</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="14" t="inlineStr">
@@ -9280,22 +9278,24 @@
     <row r="191" ht="13" customHeight="1">
       <c r="B191" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Abdullahi Hassan Ali</t>
         </is>
       </c>
       <c r="D191" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E191" s="15" t="n">
-        <v>11.24</v>
+        <v>1994</v>
+      </c>
+      <c r="E191" s="17" t="inlineStr">
+        <is>
+          <t>14,54,37</t>
+        </is>
       </c>
       <c r="F191" s="7" t="n">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="G191" s="7" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         </is>
       </c>
       <c r="H191" s="16" t="n">
-        <v>1.06</v>
+        <v>17.06</v>
       </c>
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
@@ -9338,24 +9338,22 @@
     <row r="192" ht="13" customHeight="1">
       <c r="B192" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>Karl Oraug Rygh</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="D192" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E192" s="17" t="inlineStr">
-        <is>
-          <t>3,59,25</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E192" s="15" t="n">
+        <v>11.24</v>
       </c>
       <c r="F192" s="7" t="n">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="G192" s="7" t="inlineStr">
         <is>
@@ -9363,7 +9361,7 @@
         </is>
       </c>
       <c r="H192" s="16" t="n">
-        <v>21.05</v>
+        <v>1.06</v>
       </c>
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
@@ -9403,27 +9401,27 @@
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>Jonas Riseth</t>
+          <t>Børge Nilsen Berg</t>
         </is>
       </c>
       <c r="D193" s="7" t="n">
-        <v>1994</v>
+        <v>2004</v>
       </c>
       <c r="E193" s="17" t="inlineStr">
         <is>
-          <t>3,59,57</t>
+          <t>3,58,15</t>
         </is>
       </c>
       <c r="F193" s="7" t="n">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="G193" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H193" s="16" t="n">
-        <v>24.05</v>
+        <v>18.07</v>
       </c>
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
@@ -9458,30 +9456,32 @@
     <row r="194" ht="13" customHeight="1">
       <c r="B194" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>Sander Steen Myrvang</t>
+          <t>Karl Oraug Rygh</t>
         </is>
       </c>
       <c r="D194" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E194" s="15" t="n">
-        <v>22.89</v>
+        <v>2009</v>
+      </c>
+      <c r="E194" s="17" t="inlineStr">
+        <is>
+          <t>3,59,25</t>
+        </is>
       </c>
       <c r="F194" s="7" t="n">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>11.01</v>
+        <v>21.05</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
@@ -9516,30 +9516,32 @@
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Albin Lydersen Botez</t>
+          <t>Jonas Riseth</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E195" s="15" t="n">
-        <v>22.92</v>
+        <v>1994</v>
+      </c>
+      <c r="E195" s="17" t="inlineStr">
+        <is>
+          <t>3,59,57</t>
+        </is>
       </c>
       <c r="F195" s="7" t="n">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>21.06</v>
+        <v>24.05</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
@@ -9574,24 +9576,22 @@
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Jonas Riseth</t>
+          <t>Sander Steen Myrvang</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E196" s="17" t="inlineStr">
-        <is>
-          <t>8,43,14</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="E196" s="15" t="n">
+        <v>22.89</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>14.06</v>
+        <v>11.01</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>11212</v>
+        <v>11313</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -9936,7 +9936,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>23524</v>
+        <v>23630</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -9968,7 +9968,7 @@
         </is>
       </c>
       <c r="C206" s="20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="19" t="inlineStr">
@@ -10282,10 +10282,10 @@
         <v>1993</v>
       </c>
       <c r="O218" s="15" t="n">
-        <v>10.56</v>
+        <v>10.48</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>960</v>
+        <v>983</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>30.05</v>
+        <v>18.07</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>12529</v>
+        <v>12552</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="R238" s="16" t="n">
-        <v>4.06</v>
+        <v>1.06</v>
       </c>
       <c r="T238" s="5" t="n"/>
     </row>
@@ -11649,7 +11649,7 @@
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>4.06</v>
+        <v>31.05</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
@@ -12149,7 +12149,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>21758</v>
+        <v>21781</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -12587,25 +12587,25 @@
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Maxime Louis Christian Bombart</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
         <v>1998</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>52.73</v>
+        <v>48.12</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>656</v>
+        <v>885</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>22.06</v>
+        <v>18.07</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -13233,7 +13233,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>9065</v>
+        <v>9294</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -14255,7 +14255,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>18275</v>
+        <v>18504</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -14556,18 +14556,18 @@
         <v>1996</v>
       </c>
       <c r="E322" s="15" t="n">
-        <v>10.4</v>
+        <v>10.39</v>
       </c>
       <c r="F322" s="7" t="n">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="G322" s="7" t="inlineStr">
         <is>
-          <t>La Chaux-de-Fonds/SUI</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H322" s="16" t="n">
-        <v>14.07</v>
+        <v>18.07</v>
       </c>
       <c r="J322" s="5" t="n"/>
       <c r="L322" s="14" t="inlineStr">
@@ -14700,18 +14700,18 @@
         <v>2002</v>
       </c>
       <c r="O324" s="15" t="n">
-        <v>45.37</v>
+        <v>45.22</v>
       </c>
       <c r="P324" s="7" t="n">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="Q324" s="7" t="inlineStr">
         <is>
-          <t>Roma/ITA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R324" s="16" t="n">
-        <v>9.06</v>
+        <v>18.07</v>
       </c>
       <c r="T324" s="5" t="n"/>
     </row>
@@ -14731,19 +14731,19 @@
       </c>
       <c r="E325" s="17" t="inlineStr">
         <is>
-          <t>2,03,36</t>
+          <t>2,02,00</t>
         </is>
       </c>
       <c r="F325" s="7" t="n">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="G325" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H325" s="16" t="n">
-        <v>15.06</v>
+        <v>16.07</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="14" t="inlineStr">
@@ -15280,7 +15280,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>9433</v>
+        <v>9459</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -15297,7 +15297,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>6881</v>
+        <v>6891</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -16260,7 +16260,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17243</v>
+        <v>17269</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16277,7 +16277,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>17159</v>
+        <v>17169</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -16473,7 +16473,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>17590</v>
+        <v>17604</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17103</v>
+        <v>17239</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16943</v>
+        <v>16986</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15777</v>
+        <v>15984</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -16777,11 +16777,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(19/10)</t>
+          <t>(19/9)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>11096</v>
+        <v>11673</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -19025,10 +19025,10 @@
         <v>2003</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>11.35</v>
+        <v>11.31</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>18.06</v>
+        <v>18.07</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -19053,18 +19053,18 @@
         <v>2005</v>
       </c>
       <c r="O57" s="15" t="n">
-        <v>10.92</v>
+        <v>10.68</v>
       </c>
       <c r="P57" s="7" t="n">
-        <v>862</v>
+        <v>926</v>
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>4.05</v>
+        <v>18.07</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
@@ -19753,7 +19753,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>9959</v>
+        <v>9969</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -19770,7 +19770,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>8844</v>
+        <v>8908</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -20133,30 +20133,30 @@
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Lucas Øverbakke Løn-Haakanes</t>
+          <t>René Alejandro Myhre</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O79" s="15" t="n">
-        <v>7.41</v>
+        <v>11.61</v>
       </c>
       <c r="P79" s="7" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>18.07</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
@@ -20191,7 +20191,7 @@
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M80" s="7" t="inlineStr">
@@ -20203,18 +20203,18 @@
         <v>2007</v>
       </c>
       <c r="O80" s="15" t="n">
-        <v>23.94</v>
+        <v>7.41</v>
       </c>
       <c r="P80" s="7" t="n">
-        <v>653</v>
+        <v>694</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>6.01</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -20249,30 +20249,30 @@
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Sivert Vataker Liverød</t>
+          <t>Lucas Øverbakke Løn-Haakanes</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O81" s="15" t="n">
-        <v>6.19</v>
+        <v>23.94</v>
       </c>
       <c r="P81" s="7" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R81" s="16" t="n">
-        <v>15.05</v>
+        <v>6.01</v>
       </c>
       <c r="T81" s="5" t="n"/>
     </row>
@@ -20307,7 +20307,7 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
@@ -20319,18 +20319,18 @@
         <v>2004</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>7.56</v>
+        <v>6.19</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>15.05</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -20365,7 +20365,7 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
@@ -20377,18 +20377,18 @@
         <v>2004</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>11.93</v>
+        <v>7.56</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>15.05</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -20428,17 +20428,17 @@
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>René Alejandro Myhre</t>
+          <t>Sivert Vataker Liverød</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>11.94</v>
+        <v>11.93</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
@@ -20465,18 +20465,18 @@
         <v>2006</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>43.6</v>
+        <v>43.88</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>11.06</v>
+        <v>18.07</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -20599,7 +20599,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>7631</v>
+        <v>7635</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -20616,7 +20616,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>8259</v>
+        <v>8331</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -20639,7 +20639,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>17590</v>
+        <v>17604</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -20656,7 +20656,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17103</v>
+        <v>17239</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -20938,7 +20938,7 @@
         </is>
       </c>
       <c r="R103" s="16" t="n">
-        <v>4.06</v>
+        <v>1.06</v>
       </c>
       <c r="T103" s="5" t="n"/>
     </row>
@@ -21134,11 +21134,11 @@
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>2,01,34</t>
+          <t>2,00,29</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>22.05</v>
+        <v>22.07</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
@@ -21499,10 +21499,10 @@
         <v>2008</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>2.07</v>
+        <v>22.07</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9168</v>
+        <v>9211</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>4.06</v>
+        <v>1.06</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
@@ -22104,7 +22104,7 @@
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>4.06</v>
+        <v>31.05</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
@@ -22164,7 +22164,7 @@
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>4.06</v>
+        <v>1.06</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
@@ -22589,7 +22589,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16943</v>
+        <v>16986</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -22888,7 +22888,7 @@
         </is>
       </c>
       <c r="R150" s="16" t="n">
-        <v>4.06</v>
+        <v>1.06</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -23106,27 +23106,27 @@
       </c>
       <c r="M154" s="7" t="inlineStr">
         <is>
-          <t>Elias Landøy Rasmussen</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N154" s="7" t="n">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="O154" s="17" t="inlineStr">
         <is>
-          <t>4,12,27</t>
+          <t>3,52,96</t>
         </is>
       </c>
       <c r="P154" s="7" t="n">
-        <v>653</v>
+        <v>832</v>
       </c>
       <c r="Q154" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R154" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>18.07</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -23658,7 +23658,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8412</v>
+        <v>8591</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -24086,35 +24086,37 @@
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>4.06</v>
+        <v>2.06</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Sondre F. Eilertsen</t>
+          <t>Elias Landøy Rasmussen</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O174" s="15" t="n">
-        <v>11.81</v>
+        <v>2009</v>
+      </c>
+      <c r="O174" s="17" t="inlineStr">
+        <is>
+          <t>4,12,27</t>
+        </is>
       </c>
       <c r="P174" s="7" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>16.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
@@ -24151,24 +24153,22 @@
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Marius Pedersen</t>
+          <t>Sondre F. Eilertsen</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O175" s="17" t="inlineStr">
-        <is>
-          <t>2,02,18</t>
-        </is>
+      <c r="O175" s="15" t="n">
+        <v>11.81</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>15.06</v>
+        <v>16.06</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
@@ -24211,32 +24211,32 @@
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Marius Pedersen</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="O176" s="17" t="inlineStr">
         <is>
-          <t>4,15,92</t>
+          <t>2,02,18</t>
         </is>
       </c>
       <c r="P176" s="7" t="n">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>26.05</v>
+        <v>15.06</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -24522,7 +24522,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>7365</v>
+        <v>7393</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -24562,7 +24562,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15777</v>
+        <v>15984</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -28856,27 +28856,27 @@
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Anders Rossen Bryhni</t>
+          <t>John Christian Deighan</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="O296" s="17" t="inlineStr">
         <is>
-          <t>4,51,50</t>
+          <t>4,11,51</t>
         </is>
       </c>
       <c r="P296" s="7" t="n">
-        <v>397</v>
+        <v>659</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>8.06</v>
+        <v>18.07</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -28980,27 +28980,27 @@
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Espen Wøien</t>
+          <t>John Christian Deighan</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>1969</v>
+        <v>1986</v>
       </c>
       <c r="O298" s="17" t="inlineStr">
         <is>
-          <t>18,50,35</t>
+          <t>15,42,93</t>
         </is>
       </c>
       <c r="P298" s="7" t="n">
-        <v>365</v>
+        <v>680</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>14.05</v>
+        <v>18.07</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -29072,7 +29072,7 @@
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>Jesper Kvaale</t>
+          <t>Jesper Dypvik Kvaale</t>
         </is>
       </c>
       <c r="D300" s="7" t="n">
@@ -29110,7 +29110,7 @@
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>Jesper Kvaale</t>
+          <t>Jesper Dypvik Kvaale</t>
         </is>
       </c>
       <c r="D301" s="7" t="n">
@@ -29246,7 +29246,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>5519</v>
+        <v>6096</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -29414,7 +29414,7 @@
       </c>
       <c r="C311" s="7" t="inlineStr">
         <is>
-          <t>Jesper Kvaale</t>
+          <t>Jesper Dypvik Kvaale</t>
         </is>
       </c>
       <c r="D311" s="7" t="n">
@@ -29474,7 +29474,7 @@
       </c>
       <c r="C312" s="7" t="inlineStr">
         <is>
-          <t>Jesper Kvaale</t>
+          <t>Jesper Dypvik Kvaale</t>
         </is>
       </c>
       <c r="D312" s="7" t="n">
@@ -29886,7 +29886,7 @@
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>Jesper Kvaale</t>
+          <t>Jesper Dypvik Kvaale</t>
         </is>
       </c>
       <c r="D319" s="7" t="n">
@@ -30082,7 +30082,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>11096</v>
+        <v>11673</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30106,7 +30106,7 @@
         </is>
       </c>
       <c r="M327" s="20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>27741</v>
+        <v>27762</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23045</v>
+        <v>23136</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>19306</v>
+        <v>19360</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -30554,11 +30554,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(30/17)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17522</v>
+        <v>17963</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -30954,18 +30954,18 @@
         <v>2002</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>52.77</v>
+        <v>52.26</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>943</v>
+        <v>964</v>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H11" s="16" t="n">
-        <v>18.05</v>
+        <v>18.07</v>
       </c>
       <c r="J11" s="5" t="n"/>
       <c r="L11" s="14" t="inlineStr">
@@ -31053,7 +31053,7 @@
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>4.06</v>
+        <v>2.06</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -31742,7 +31742,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>14415</v>
+        <v>14436</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -32814,7 +32814,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>27741</v>
+        <v>27762</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -33153,17 +33153,17 @@
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Camilla Dahl Kristiansen</t>
+          <t>Miranda Lauvstad</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>12.73</v>
+        <v>12.4</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>718</v>
+        <v>778</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>1.06</v>
+        <v>18.07</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -33448,32 +33448,32 @@
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Alvik</t>
+          <t>Astrid Brathaug Sørset</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>2003</v>
+        <v>1990</v>
       </c>
       <c r="O67" s="17" t="inlineStr">
         <is>
-          <t>9,59,91</t>
+          <t>17,29,09mx</t>
         </is>
       </c>
       <c r="P67" s="7" t="n">
-        <v>908</v>
+        <v>736</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>28.06</v>
+        <v>18.07</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -33510,30 +33510,32 @@
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Miranda Lauvstad</t>
+          <t>Sigrid Alvik</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="O68" s="15" t="n">
-        <v>8.949999999999999</v>
+      <c r="O68" s="17" t="inlineStr">
+        <is>
+          <t>9,59,91</t>
+        </is>
       </c>
       <c r="P68" s="7" t="n">
-        <v>789</v>
+        <v>908</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Mankato/MN/USA</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>16.02</v>
+        <v>28.06</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -33568,7 +33570,7 @@
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
@@ -33580,10 +33582,10 @@
         <v>2003</v>
       </c>
       <c r="O69" s="15" t="n">
-        <v>14.69</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="P69" s="7" t="n">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
@@ -33591,7 +33593,7 @@
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>1.05</v>
+        <v>16.02</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
@@ -33626,30 +33628,30 @@
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Lina Svarlien</t>
+          <t>Miranda Lauvstad</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O70" s="15" t="n">
-        <v>1.73</v>
+        <v>14.69</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Mankato/MN/USA</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>10.03</v>
+        <v>1.05</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -33684,30 +33686,30 @@
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Miranda Lauvstad</t>
+          <t>Lina Svarlien</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>5.95</v>
+        <v>1.73</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>830</v>
+        <v>799</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Mankato/MN/USA</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>23.02</v>
+        <v>10.03</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
@@ -33742,30 +33744,30 @@
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Lina Svarlien</t>
+          <t>Miranda Lauvstad</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>11.77</v>
+        <v>5.95</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>742</v>
+        <v>830</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Mankato/MN/USA</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>7.07</v>
+        <v>23.02</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
@@ -33800,7 +33802,7 @@
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M73" s="7" t="inlineStr">
@@ -33812,18 +33814,18 @@
         <v>2008</v>
       </c>
       <c r="O73" s="15" t="n">
-        <v>1.31</v>
+        <v>11.77</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>672</v>
+        <v>742</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>19.03</v>
+        <v>7.07</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
@@ -33858,22 +33860,22 @@
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Lina Svarlien</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>34.44</v>
+        <v>1.31</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
@@ -33881,7 +33883,7 @@
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>20.04</v>
+        <v>19.03</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
@@ -33993,7 +33995,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12021</v>
+        <v>12169</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -34298,30 +34300,30 @@
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Miranda Lauvstad</t>
+          <t>Lina Svarlien</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>7.87</v>
+        <v>5.61</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Mankato/MN/USA</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>10.02</v>
+        <v>9.02</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -34361,25 +34363,25 @@
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Lina Svarlien</t>
+          <t>Elise Sandvik Tornberg</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>5.61</v>
+        <v>5.58</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>9.02</v>
+        <v>21.05</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -34414,30 +34416,30 @@
       <c r="J87" s="5" t="n"/>
       <c r="L87" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M87" s="7" t="inlineStr">
         <is>
-          <t>Elise Sandvik Tornberg</t>
+          <t>Camilla Dahl Kristiansen</t>
         </is>
       </c>
       <c r="N87" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O87" s="15" t="n">
-        <v>5.58</v>
+        <v>7.99</v>
       </c>
       <c r="P87" s="7" t="n">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="Q87" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R87" s="16" t="n">
-        <v>21.05</v>
+        <v>27.01</v>
       </c>
       <c r="T87" s="5" t="n"/>
     </row>
@@ -34472,22 +34474,22 @@
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M88" s="7" t="inlineStr">
         <is>
-          <t>Camilla Dahl Kristiansen</t>
+          <t>Elise Sandvik Tornberg</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>7.99</v>
+        <v>25.94</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
@@ -34495,7 +34497,7 @@
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>27.01</v>
+        <v>15.06</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -34532,30 +34534,30 @@
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M89" s="7" t="inlineStr">
         <is>
-          <t>Elise Sandvik Tornberg</t>
+          <t>Kaja Carlsen-Brown</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>25.94</v>
+        <v>5.47</v>
       </c>
       <c r="P89" s="7" t="n">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>15.06</v>
+        <v>4.02</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
@@ -34595,25 +34597,25 @@
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Kaja Carlsen-Brown</t>
+          <t>Kristine Moland Leiknes</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O90" s="15" t="n">
-        <v>5.47</v>
+        <v>5.46</v>
       </c>
       <c r="P90" s="7" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -34648,30 +34650,30 @@
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Kristine Moland Leiknes</t>
+          <t>Camilla Dahl Kristiansen</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>5.46</v>
+        <v>12.73</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>4.05</v>
+        <v>1.06</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
@@ -35015,7 +35017,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11024</v>
+        <v>10967</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -35055,7 +35057,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23045</v>
+        <v>23136</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -42075,7 +42077,7 @@
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>4.06</v>
+        <v>2.06</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -42145,17 +42147,17 @@
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Elisabeth Slettum</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>1986</v>
+        <v>2006</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>54.03</v>
+        <v>53.87</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
@@ -42163,7 +42165,7 @@
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>30.05</v>
+        <v>18.07</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -42860,7 +42862,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>10460</v>
+        <v>10466</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -42980,24 +42982,22 @@
     <row r="290" ht="13" customHeight="1">
       <c r="B290" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C290" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Elisabeth Slettum</t>
         </is>
       </c>
       <c r="D290" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E290" s="17" t="inlineStr">
-        <is>
-          <t>2,07,03</t>
-        </is>
+        <v>1986</v>
+      </c>
+      <c r="E290" s="15" t="n">
+        <v>54.03</v>
       </c>
       <c r="F290" s="7" t="n">
-        <v>848</v>
+        <v>893</v>
       </c>
       <c r="G290" s="7" t="inlineStr">
         <is>
@@ -43040,7 +43040,7 @@
     <row r="291" ht="13" customHeight="1">
       <c r="B291" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C291" s="7" t="inlineStr">
@@ -43051,19 +43051,21 @@
       <c r="D291" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E291" s="15" t="n">
-        <v>55.27</v>
+      <c r="E291" s="17" t="inlineStr">
+        <is>
+          <t>2,07,03</t>
+        </is>
       </c>
       <c r="F291" s="7" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="G291" s="7" t="inlineStr">
         <is>
-          <t>Mannheim/GER</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H291" s="16" t="n">
-        <v>22.06</v>
+        <v>30.05</v>
       </c>
       <c r="J291" s="5" t="n"/>
       <c r="L291" s="14" t="inlineStr">
@@ -43267,7 +43269,7 @@
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>4.06</v>
+        <v>1.06</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
@@ -43868,7 +43870,7 @@
         </is>
       </c>
       <c r="F306" s="20" t="n">
-        <v>8846</v>
+        <v>8894</v>
       </c>
       <c r="J306" s="5" t="n"/>
       <c r="L306" s="19" t="inlineStr">
@@ -43908,7 +43910,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>19306</v>
+        <v>19360</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -44815,25 +44817,25 @@
       </c>
       <c r="C332" s="7" t="inlineStr">
         <is>
-          <t>Lene Berger</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="D332" s="7" t="n">
-        <v>1981</v>
+        <v>1992</v>
       </c>
       <c r="E332" s="15" t="n">
-        <v>8.890000000000001</v>
+        <v>10</v>
       </c>
       <c r="F332" s="7" t="n">
-        <v>505</v>
+        <v>593</v>
       </c>
       <c r="G332" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Dubai/UAE</t>
         </is>
       </c>
       <c r="H332" s="16" t="n">
-        <v>25.05</v>
+        <v>14.02</v>
       </c>
       <c r="J332" s="5" t="n"/>
       <c r="L332" s="14" t="inlineStr">
@@ -44873,25 +44875,25 @@
       </c>
       <c r="C333" s="7" t="inlineStr">
         <is>
-          <t>Nicole Bente Marie Minker</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="D333" s="7" t="n">
-        <v>1969</v>
+        <v>1992</v>
       </c>
       <c r="E333" s="15" t="n">
-        <v>29.25</v>
+        <v>34.44</v>
       </c>
       <c r="F333" s="7" t="n">
-        <v>569</v>
+        <v>648</v>
       </c>
       <c r="G333" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H333" s="16" t="n">
-        <v>25.05</v>
+        <v>20.04</v>
       </c>
       <c r="J333" s="5" t="n"/>
       <c r="L333" s="14" t="inlineStr">
@@ -44931,17 +44933,17 @@
       </c>
       <c r="C334" s="7" t="inlineStr">
         <is>
-          <t>Ida Petersen Amble</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="D334" s="7" t="n">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="E334" s="15" t="n">
-        <v>31.61</v>
+        <v>32.78</v>
       </c>
       <c r="F334" s="7" t="n">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="G334" s="7" t="inlineStr">
         <is>
@@ -44949,7 +44951,7 @@
         </is>
       </c>
       <c r="H334" s="16" t="n">
-        <v>14.04</v>
+        <v>21.04</v>
       </c>
       <c r="J334" s="5" t="n"/>
       <c r="L334" s="14" t="inlineStr">
@@ -44996,18 +44998,18 @@
         <v>1981</v>
       </c>
       <c r="E335" s="15" t="n">
-        <v>27.48</v>
+        <v>27.77</v>
       </c>
       <c r="F335" s="7" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="G335" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H335" s="16" t="n">
-        <v>26.05</v>
+        <v>18.07</v>
       </c>
       <c r="J335" s="5" t="n"/>
       <c r="L335" s="14" t="n"/>
@@ -45052,7 +45054,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>8922</v>
+        <v>9111</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -45823,25 +45825,25 @@
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Ida Petersen Amble</t>
+          <t>Nicole Bente Marie Minker</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
-        <v>2006</v>
+        <v>1969</v>
       </c>
       <c r="E353" s="15" t="n">
-        <v>28.7</v>
+        <v>29.25</v>
       </c>
       <c r="F353" s="7" t="n">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H353" s="16" t="n">
-        <v>20.04</v>
+        <v>25.05</v>
       </c>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
@@ -45876,22 +45878,22 @@
     <row r="354" ht="13" customHeight="1">
       <c r="B354" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>Mi Helen Sar</t>
+          <t>Ida Petersen Amble</t>
         </is>
       </c>
       <c r="D354" s="7" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="E354" s="15" t="n">
-        <v>1.35</v>
+        <v>31.61</v>
       </c>
       <c r="F354" s="7" t="n">
-        <v>470</v>
+        <v>564</v>
       </c>
       <c r="G354" s="7" t="inlineStr">
         <is>
@@ -45899,7 +45901,7 @@
         </is>
       </c>
       <c r="H354" s="16" t="n">
-        <v>14.06</v>
+        <v>14.04</v>
       </c>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
@@ -45934,22 +45936,22 @@
     <row r="355" ht="13" customHeight="1">
       <c r="B355" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>Mia Laache-Nygaard</t>
+          <t>Ida Petersen Amble</t>
         </is>
       </c>
       <c r="D355" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E355" s="15" t="n">
-        <v>4.32</v>
+        <v>28.7</v>
       </c>
       <c r="F355" s="7" t="n">
-        <v>466</v>
+        <v>560</v>
       </c>
       <c r="G355" s="7" t="inlineStr">
         <is>
@@ -45957,7 +45959,7 @@
         </is>
       </c>
       <c r="H355" s="16" t="n">
-        <v>9.02</v>
+        <v>20.04</v>
       </c>
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="inlineStr">
@@ -45992,30 +45994,30 @@
     <row r="356" ht="13" customHeight="1">
       <c r="B356" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
         <is>
-          <t>Maiken Fjeld Halvorsen</t>
+          <t>Lene Berger</t>
         </is>
       </c>
       <c r="D356" s="7" t="n">
-        <v>2012</v>
+        <v>1981</v>
       </c>
       <c r="E356" s="15" t="n">
-        <v>1.33</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F356" s="7" t="n">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="G356" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H356" s="16" t="n">
-        <v>6.07</v>
+        <v>25.05</v>
       </c>
       <c r="J356" s="5" t="n"/>
       <c r="L356" s="14" t="inlineStr">
@@ -46080,7 +46082,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>8600</v>
+        <v>8852</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -46120,7 +46122,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17522</v>
+        <v>17963</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -46152,7 +46154,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -46277,7 +46279,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>21188</v>
+        <v>21199</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -46548,25 +46550,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Nittedal IL</t>
+          <t>Bergens Turnforening</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(24/14)</t>
+          <t>(23/8)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>13342</v>
+        <v>13425</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -46576,25 +46578,25 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Bergens Turnforening</t>
+          <t>Nittedal IL</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(22/8)</t>
+          <t>(24/14)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>12805</v>
+        <v>13342</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -47547,18 +47549,18 @@
         <v>2001</v>
       </c>
       <c r="E20" s="15" t="n">
-        <v>12.81</v>
+        <v>12.92</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="G20" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H20" s="16" t="n">
-        <v>29.06</v>
+        <v>18.07</v>
       </c>
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
@@ -47681,7 +47683,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>11589</v>
+        <v>11600</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -48581,7 +48583,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>21188</v>
+        <v>21199</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -53670,7 +53672,7 @@
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>4.06</v>
+        <v>1.06</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -56374,7 +56376,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -56388,7 +56390,7 @@
       </c>
       <c r="M237" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="P237" s="8" t="n">
@@ -56404,7 +56406,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Nittedal IL</t>
+          <t>Bergens Turnforening</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -56415,7 +56417,7 @@
       </c>
       <c r="M238" s="7" t="inlineStr">
         <is>
-          <t>Bergens Turnforening</t>
+          <t>Nittedal IL</t>
         </is>
       </c>
       <c r="T238" s="5" t="n"/>
@@ -56544,25 +56546,25 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>8.109999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>16.03</v>
+        <v>24.02</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -56572,636 +56574,656 @@
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>8.220000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>24.02</v>
+        <v>16.03</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
     <row r="245" ht="13" customHeight="1">
       <c r="B245" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Julianna Henden</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>12.94</v>
+        <v>29.34</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>681</v>
+        <v>491</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>27.04</v>
+        <v>20.01</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M245" s="7" t="inlineStr">
         <is>
-          <t>Julianna Henden</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="N245" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O245" s="15" t="n">
-        <v>29.34</v>
+        <v>12.94</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>491</v>
+        <v>681</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>20.01</v>
+        <v>27.04</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
     <row r="246" ht="13" customHeight="1">
       <c r="B246" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Amalie Husebø</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E246" s="15" t="n">
-        <v>26.47</v>
+        <v>2011</v>
+      </c>
+      <c r="E246" s="17" t="inlineStr">
+        <is>
+          <t>1,24,39</t>
+        </is>
       </c>
       <c r="F246" s="7" t="n">
-        <v>689</v>
+        <v>183</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>25.05</v>
+        <v>18.06</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Amalie Husebø</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O246" s="17" t="inlineStr">
-        <is>
-          <t>1,24,39</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O246" s="15" t="n">
+        <v>26.47</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>183</v>
+        <v>689</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>18.06</v>
+        <v>25.05</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
     <row r="247" ht="13" customHeight="1">
       <c r="B247" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Amalie Husebø</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E247" s="17" t="inlineStr">
-        <is>
-          <t>1,05,00</t>
-        </is>
+        <v>2011</v>
+      </c>
+      <c r="E247" s="15" t="n">
+        <v>1.45</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>1.06</v>
+        <v>14.06</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M247" s="7" t="inlineStr">
         <is>
-          <t>Amalie Husebø</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="N247" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O247" s="15" t="n">
-        <v>1.45</v>
+        <v>2007</v>
+      </c>
+      <c r="O247" s="17" t="inlineStr">
+        <is>
+          <t>1,05,00</t>
+        </is>
       </c>
       <c r="P247" s="7" t="n">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="Q247" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R247" s="16" t="n">
-        <v>14.06</v>
+        <v>1.06</v>
       </c>
       <c r="T247" s="5" t="n"/>
     </row>
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Eira Jacobsen-Sjue</t>
+          <t>Embla Njerve</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E248" s="17" t="inlineStr">
-        <is>
-          <t>2,35,62</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E248" s="15" t="n">
+        <v>4.15</v>
       </c>
       <c r="F248" s="7" t="n">
-        <v>504</v>
+        <v>935</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Banská Bystrica/SVK</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>20.06</v>
+        <v>21.07</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M248" s="7" t="inlineStr">
         <is>
-          <t>Embla Njerve</t>
+          <t>Eira Jacobsen-Sjue</t>
         </is>
       </c>
       <c r="N248" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O248" s="15" t="n">
-        <v>4.1</v>
+        <v>2011</v>
+      </c>
+      <c r="O248" s="17" t="inlineStr">
+        <is>
+          <t>2,35,62</t>
+        </is>
       </c>
       <c r="P248" s="7" t="n">
-        <v>923</v>
+        <v>504</v>
       </c>
       <c r="Q248" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R248" s="16" t="n">
-        <v>15.06</v>
+        <v>20.06</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E249" s="17" t="inlineStr">
-        <is>
-          <t>4,41,31</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E249" s="15" t="n">
+        <v>5.09</v>
       </c>
       <c r="F249" s="7" t="n">
-        <v>717</v>
+        <v>638</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>21.06</v>
+        <v>21.01</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M249" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="N249" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O249" s="15" t="n">
-        <v>5.09</v>
+        <v>2007</v>
+      </c>
+      <c r="O249" s="17" t="inlineStr">
+        <is>
+          <t>4,41,31</t>
+        </is>
       </c>
       <c r="P249" s="7" t="n">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R249" s="16" t="n">
-        <v>21.01</v>
+        <v>21.06</v>
       </c>
       <c r="T249" s="5" t="n"/>
     </row>
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E250" s="17" t="inlineStr">
-        <is>
-          <t>10,11,91</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E250" s="15" t="n">
+        <v>11.01</v>
       </c>
       <c r="F250" s="7" t="n">
-        <v>709</v>
+        <v>662</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>20.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M250" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="N250" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O250" s="15" t="n">
-        <v>11.01</v>
+        <v>2007</v>
+      </c>
+      <c r="O250" s="17" t="inlineStr">
+        <is>
+          <t>10,11,91</t>
+        </is>
       </c>
       <c r="P250" s="7" t="n">
-        <v>662</v>
+        <v>709</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>20.06</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E251" s="17" t="inlineStr">
-        <is>
-          <t>1,10,12</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E251" s="15" t="n">
+        <v>2.36</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>587</v>
+        <v>540</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bergen/Hø</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>5.07</v>
+        <v>4.02</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M251" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="N251" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O251" s="15" t="n">
-        <v>2.36</v>
+        <v>2007</v>
+      </c>
+      <c r="O251" s="17" t="inlineStr">
+        <is>
+          <t>1,10,12</t>
+        </is>
       </c>
       <c r="P251" s="7" t="n">
-        <v>540</v>
+        <v>587</v>
       </c>
       <c r="Q251" s="7" t="inlineStr">
         <is>
-          <t>Bergen/Hø</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R251" s="16" t="n">
-        <v>4.02</v>
+        <v>5.07</v>
       </c>
       <c r="T251" s="5" t="n"/>
     </row>
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Sanne Hesselink Cornelissen</t>
+          <t>Oda Marie Myklebust</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>1.43</v>
+        <v>9.91</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gloppen</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>2.06</v>
+        <v>21.07</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Oda Marie Myklebust</t>
+          <t>Sanne Hesselink Cornelissen</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>34.15</v>
+        <v>1.43</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>644</v>
+        <v>547</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>12.05</v>
+        <v>2.06</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Oda Marie Myklebust</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>4.58</v>
+        <v>35.75</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>526</v>
+        <v>666</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Gloppen</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>26.05</v>
+        <v>21.07</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M253" s="7" t="inlineStr">
         <is>
-          <t>Oda Marie Myklebust</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="N253" s="7" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="O253" s="15" t="n">
-        <v>54.85</v>
+        <v>4.58</v>
       </c>
       <c r="P253" s="7" t="n">
-        <v>866</v>
+        <v>526</v>
       </c>
       <c r="Q253" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="R253" s="16" t="n">
-        <v>23.06</v>
+        <v>26.05</v>
       </c>
       <c r="T253" s="5" t="n"/>
     </row>
     <row r="254" ht="13" customHeight="1">
       <c r="B254" s="14" t="inlineStr">
         <is>
+          <t>Slegge</t>
+        </is>
+      </c>
+      <c r="C254" s="7" t="inlineStr">
+        <is>
+          <t>Oda Marie Myklebust</t>
+        </is>
+      </c>
+      <c r="D254" s="7" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E254" s="15" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="F254" s="7" t="n">
+        <v>866</v>
+      </c>
+      <c r="G254" s="7" t="inlineStr">
+        <is>
+          <t>Fana</t>
+        </is>
+      </c>
+      <c r="H254" s="16" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="J254" s="5" t="n"/>
+      <c r="L254" s="14" t="inlineStr">
+        <is>
           <t>Tresteg</t>
         </is>
       </c>
-      <c r="C254" s="7" t="inlineStr">
+      <c r="M254" s="7" t="inlineStr">
         <is>
           <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
-      <c r="D254" s="7" t="n">
+      <c r="N254" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E254" s="15" t="n">
+      <c r="O254" s="15" t="n">
         <v>9.35</v>
       </c>
-      <c r="F254" s="7" t="n">
+      <c r="P254" s="7" t="n">
         <v>489</v>
       </c>
-      <c r="G254" s="7" t="inlineStr">
+      <c r="Q254" s="7" t="inlineStr">
         <is>
           <t>Sandnes</t>
         </is>
       </c>
-      <c r="H254" s="16" t="n">
+      <c r="R254" s="16" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="J254" s="5" t="n"/>
-      <c r="L254" s="14" t="n"/>
-      <c r="M254" s="7" t="n"/>
-      <c r="N254" s="7" t="n"/>
-      <c r="O254" s="7" t="n"/>
-      <c r="P254" s="7" t="n"/>
-      <c r="Q254" s="7" t="n"/>
-      <c r="R254" s="21" t="n"/>
       <c r="T254" s="5" t="n"/>
     </row>
     <row r="255" ht="13" customHeight="1">
-      <c r="B255" s="14" t="inlineStr">
+      <c r="B255" s="14" t="n"/>
+      <c r="C255" s="7" t="n"/>
+      <c r="D255" s="7" t="n"/>
+      <c r="E255" s="7" t="n"/>
+      <c r="F255" s="7" t="n"/>
+      <c r="G255" s="7" t="n"/>
+      <c r="H255" s="21" t="n"/>
+      <c r="J255" s="5" t="n"/>
+      <c r="L255" s="14" t="inlineStr">
         <is>
           <t>Slegge</t>
         </is>
       </c>
-      <c r="C255" s="7" t="inlineStr">
+      <c r="M255" s="7" t="inlineStr">
         <is>
           <t>Tiril Lappegård</t>
         </is>
       </c>
-      <c r="D255" s="7" t="n">
+      <c r="N255" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E255" s="15" t="n">
+      <c r="O255" s="15" t="n">
         <v>53.78</v>
       </c>
-      <c r="F255" s="7" t="n">
+      <c r="P255" s="7" t="n">
         <v>854</v>
       </c>
-      <c r="G255" s="7" t="inlineStr">
+      <c r="Q255" s="7" t="inlineStr">
         <is>
           <t>Bærum</t>
         </is>
       </c>
-      <c r="H255" s="16" t="n">
+      <c r="R255" s="16" t="n">
         <v>14.06</v>
       </c>
-      <c r="J255" s="5" t="n"/>
-      <c r="L255" s="14" t="n"/>
-      <c r="M255" s="7" t="n"/>
-      <c r="N255" s="7" t="n"/>
-      <c r="O255" s="7" t="n"/>
-      <c r="P255" s="7" t="n"/>
-      <c r="Q255" s="7" t="n"/>
-      <c r="R255" s="21" t="n"/>
       <c r="T255" s="5" t="n"/>
     </row>
     <row r="256" ht="13" customHeight="1">
@@ -57247,7 +57269,7 @@
         </is>
       </c>
       <c r="C258" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E258" s="19" t="inlineStr">
         <is>
@@ -57255,7 +57277,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>7541</v>
+        <v>6801</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -57264,7 +57286,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O258" s="19" t="inlineStr">
         <is>
@@ -57272,7 +57294,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>6181</v>
+        <v>7541</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -57375,436 +57397,434 @@
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Skaar</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E263" s="17" t="inlineStr">
-        <is>
-          <t>4,53,52</t>
-        </is>
+      <c r="E263" s="15" t="n">
+        <v>3.26</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>646</v>
+        <v>730</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>8.06</v>
+        <v>10.02</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Ingrid Skaar</t>
         </is>
       </c>
       <c r="N263" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="O263" s="15" t="n">
-        <v>3.26</v>
+      <c r="O263" s="17" t="inlineStr">
+        <is>
+          <t>4,53,52</t>
+        </is>
       </c>
       <c r="P263" s="7" t="n">
-        <v>730</v>
+        <v>646</v>
       </c>
       <c r="Q263" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R263" s="16" t="n">
-        <v>10.02</v>
+        <v>8.06</v>
       </c>
       <c r="T263" s="5" t="n"/>
     </row>
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E264" s="17" t="inlineStr">
-        <is>
-          <t>5,04,99</t>
-        </is>
+      <c r="E264" s="15" t="n">
+        <v>3.11</v>
       </c>
       <c r="F264" s="7" t="n">
-        <v>586</v>
+        <v>697</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>24.05</v>
+        <v>10.03</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="O264" s="15" t="n">
-        <v>3.11</v>
+      <c r="O264" s="17" t="inlineStr">
+        <is>
+          <t>5,04,99</t>
+        </is>
       </c>
       <c r="P264" s="7" t="n">
-        <v>697</v>
+        <v>586</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>10.03</v>
+        <v>24.05</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E265" s="15" t="n">
-        <v>13.64</v>
+        <v>10.72</v>
       </c>
       <c r="F265" s="7" t="n">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>6.07</v>
+        <v>25.02</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O265" s="15" t="n">
-        <v>10.72</v>
+        <v>13.64</v>
       </c>
       <c r="P265" s="7" t="n">
-        <v>632</v>
+        <v>566</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>25.02</v>
+        <v>6.07</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E266" s="15" t="n">
-        <v>8.640000000000001</v>
+        <v>5</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>16.03</v>
+        <v>21.01</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O266" s="15" t="n">
-        <v>5</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="P266" s="7" t="n">
-        <v>618</v>
+        <v>558</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>21.01</v>
+        <v>16.03</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Julianna Henden</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E267" s="17" t="inlineStr">
-        <is>
-          <t>11,17,26</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E267" s="15" t="n">
+        <v>10.43</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>20.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Julianna Henden</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O267" s="15" t="n">
-        <v>10.43</v>
+        <v>2009</v>
+      </c>
+      <c r="O267" s="17" t="inlineStr">
+        <is>
+          <t>11,17,26</t>
+        </is>
       </c>
       <c r="P267" s="7" t="n">
-        <v>603</v>
+        <v>552</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>20.06</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Julianna Henden</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>29.08</v>
+        <v>8.59</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>17.03</v>
+        <v>10.02</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Julianna Henden</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O268" s="15" t="n">
-        <v>8.59</v>
+        <v>29.08</v>
       </c>
       <c r="P268" s="7" t="n">
-        <v>570</v>
+        <v>507</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>10.02</v>
+        <v>17.03</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Julianna Henden</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>29.11</v>
+        <v>4.68</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>18.04</v>
+        <v>10.02</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Julianna Henden</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>4.68</v>
+        <v>29.11</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>10.02</v>
+        <v>18.04</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Tone Elise Holm</t>
+          <t>Signe Njerve</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
         <v>2011</v>
       </c>
-      <c r="E270" s="17" t="inlineStr">
-        <is>
-          <t>5,22,00</t>
-        </is>
+      <c r="E270" s="15" t="n">
+        <v>2.4</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
@@ -57812,27 +57832,29 @@
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>14.06</v>
+        <v>15.06</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Signe Njerve</t>
+          <t>Tone Elise Holm</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
         <v>2011</v>
       </c>
-      <c r="O270" s="15" t="n">
-        <v>2.4</v>
+      <c r="O270" s="17" t="inlineStr">
+        <is>
+          <t>5,22,00</t>
+        </is>
       </c>
       <c r="P270" s="7" t="n">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
@@ -57840,33 +57862,33 @@
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>15.06</v>
+        <v>14.06</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Tuva Helene Rugsveen</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>4.27</v>
+        <v>2.29</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Bergen/Hø</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
@@ -57875,26 +57897,26 @@
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Tuva Helene Rugsveen</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>2.29</v>
+        <v>4.27</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Bergen/Hø</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
@@ -57905,116 +57927,116 @@
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Johanne Otelie Schønheyder</t>
+          <t>Celine Sandanger</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>11.05</v>
+        <v>25.05</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Celine Sandanger</t>
+          <t>Johanne Otelie Schønheyder</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>25.05</v>
+        <v>11.05</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Florez Trælvik</t>
+          <t>Amalie Husebø</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>27.04</v>
+        <v>15.06</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Amalie Husebø</t>
+          <t>Florez Trælvik</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="O273" s="15" t="n">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="P273" s="7" t="n">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>15.06</v>
+        <v>27.04</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -58026,25 +58048,25 @@
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Signe Bjonge</t>
+          <t>Signe Njerve</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>14.06</v>
+        <v>2.06</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
@@ -58054,25 +58076,25 @@
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Signe Njerve</t>
+          <t>Signe Bjonge</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="O274" s="15" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="P274" s="7" t="n">
-        <v>351</v>
+        <v>240</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>2.06</v>
+        <v>14.06</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -58109,7 +58131,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>5801</v>
+        <v>6624</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -58126,7 +58148,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>6624</v>
+        <v>5801</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58141,7 +58163,7 @@
         </is>
       </c>
       <c r="C278" s="20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E278" s="19" t="inlineStr">
         <is>
@@ -58149,7 +58171,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>13342</v>
+        <v>13425</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -58158,7 +58180,7 @@
         </is>
       </c>
       <c r="M278" s="20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O278" s="19" t="inlineStr">
         <is>
@@ -58166,7 +58188,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>12805</v>
+        <v>13342</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -58181,7 +58203,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -58190,7 +58212,7 @@
         </is>
       </c>
       <c r="M280" s="20" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -824,11 +824,11 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(29/18)</t>
+          <t>(29/19)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>23106</v>
+        <v>23140</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -11714,30 +11714,30 @@
     <row r="247" ht="13" customHeight="1">
       <c r="B247" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Andreas Dixon</t>
+          <t>Oscar Stuhr</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E247" s="15" t="n">
-        <v>8.84</v>
+        <v>13.8</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>18.02</v>
+        <v>24.07</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -11772,7 +11772,7 @@
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
@@ -11784,18 +11784,18 @@
         <v>2001</v>
       </c>
       <c r="E248" s="15" t="n">
-        <v>23.07</v>
+        <v>8.84</v>
       </c>
       <c r="F248" s="7" t="n">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>20.01</v>
+        <v>18.02</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -11830,22 +11830,22 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Tobias Heldal</t>
+          <t>Andreas Dixon</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E249" s="15" t="n">
-        <v>13.65</v>
+        <v>23.07</v>
       </c>
       <c r="F249" s="7" t="n">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>11.02</v>
+        <v>20.01</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -11888,30 +11888,30 @@
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Vetle Raa Ellingsen</t>
+          <t>Tobias Heldal</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E250" s="15" t="n">
-        <v>1.9</v>
+        <v>13.65</v>
       </c>
       <c r="F250" s="7" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>1.06</v>
+        <v>11.02</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -11946,30 +11946,30 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Kjell Augustin Kubon</t>
+          <t>Vetle Raa Ellingsen</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>4.06</v>
+        <v>1.9</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>22.02</v>
+        <v>1.06</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -12004,30 +12004,30 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Moen</t>
+          <t>Kjell Augustin Kubon</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>7.34</v>
+        <v>4.06</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>10.05</v>
+        <v>22.02</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="F254" s="20" t="n">
-        <v>11974</v>
+        <v>12008</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="19" t="inlineStr">
@@ -12132,7 +12132,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>23106</v>
+        <v>23140</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -12164,7 +12164,7 @@
         </is>
       </c>
       <c r="C258" s="20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -16609,11 +16609,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(25/13)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15984</v>
+        <v>16170</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -22928,17 +22928,17 @@
       </c>
       <c r="M151" s="7" t="inlineStr">
         <is>
-          <t>Christopher Sandvik</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N151" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O151" s="15" t="n">
-        <v>11.46</v>
+        <v>11.39</v>
       </c>
       <c r="P151" s="7" t="n">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="Q151" s="7" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="R151" s="16" t="n">
-        <v>25.05</v>
+        <v>24.07</v>
       </c>
       <c r="T151" s="5" t="n"/>
     </row>
@@ -23349,30 +23349,30 @@
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Marius Aarset Lilleskog</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="N158" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O158" s="15" t="n">
-        <v>1.6</v>
+        <v>5.42</v>
       </c>
       <c r="P158" s="7" t="n">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="Q158" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R158" s="16" t="n">
-        <v>4.02</v>
+        <v>21.01</v>
       </c>
       <c r="T158" s="5" t="n"/>
     </row>
@@ -23407,7 +23407,7 @@
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M159" s="7" t="inlineStr">
@@ -23419,18 +23419,18 @@
         <v>2008</v>
       </c>
       <c r="O159" s="15" t="n">
-        <v>5.42</v>
+        <v>1.35</v>
       </c>
       <c r="P159" s="7" t="n">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="Q159" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R159" s="16" t="n">
-        <v>21.01</v>
+        <v>4.02</v>
       </c>
       <c r="T159" s="5" t="n"/>
     </row>
@@ -23465,22 +23465,22 @@
       <c r="J160" s="5" t="n"/>
       <c r="L160" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M160" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Bjørn Gunnar Husby</t>
         </is>
       </c>
       <c r="N160" s="7" t="n">
-        <v>2008</v>
+        <v>1975</v>
       </c>
       <c r="O160" s="15" t="n">
-        <v>1.35</v>
+        <v>2.64</v>
       </c>
       <c r="P160" s="7" t="n">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="Q160" s="7" t="inlineStr">
         <is>
@@ -23523,22 +23523,22 @@
       <c r="J161" s="5" t="n"/>
       <c r="L161" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M161" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Gunnar Husby</t>
+          <t>Henrik Snemyr Langesæter</t>
         </is>
       </c>
       <c r="N161" s="7" t="n">
-        <v>1975</v>
+        <v>1999</v>
       </c>
       <c r="O161" s="15" t="n">
-        <v>2.64</v>
+        <v>11.25</v>
       </c>
       <c r="P161" s="7" t="n">
-        <v>466</v>
+        <v>542</v>
       </c>
       <c r="Q161" s="7" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="R161" s="16" t="n">
-        <v>4.02</v>
+        <v>24.07</v>
       </c>
       <c r="T161" s="5" t="n"/>
     </row>
@@ -23581,7 +23581,7 @@
       <c r="J162" s="5" t="n"/>
       <c r="L162" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M162" s="7" t="inlineStr">
@@ -23593,10 +23593,10 @@
         <v>1999</v>
       </c>
       <c r="O162" s="15" t="n">
-        <v>11.04</v>
+        <v>30.33</v>
       </c>
       <c r="P162" s="7" t="n">
-        <v>527</v>
+        <v>486</v>
       </c>
       <c r="Q162" s="7" t="inlineStr">
         <is>
@@ -23604,7 +23604,7 @@
         </is>
       </c>
       <c r="R162" s="16" t="n">
-        <v>17.03</v>
+        <v>24.07</v>
       </c>
       <c r="T162" s="5" t="n"/>
     </row>
@@ -23658,7 +23658,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8591</v>
+        <v>8648</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -23913,32 +23913,30 @@
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Christopher Sandvik</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O171" s="17" t="inlineStr">
-        <is>
-          <t>8,54,08</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O171" s="15" t="n">
+        <v>11.46</v>
       </c>
       <c r="P171" s="7" t="n">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>14.06</v>
+        <v>25.05</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
@@ -23973,30 +23971,32 @@
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Sondre F. Eilertsen</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O172" s="15" t="n">
-        <v>23.63</v>
+        <v>1995</v>
+      </c>
+      <c r="O172" s="17" t="inlineStr">
+        <is>
+          <t>8,54,08</t>
+        </is>
       </c>
       <c r="P172" s="7" t="n">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>25.02</v>
+        <v>14.06</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
@@ -24044,19 +24044,19 @@
       </c>
       <c r="O173" s="17" t="inlineStr">
         <is>
-          <t>9,01,14</t>
+          <t>8,59,4</t>
         </is>
       </c>
       <c r="P173" s="7" t="n">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>24.02</v>
+        <v>24.07</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
@@ -24091,24 +24091,22 @@
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Elias Landøy Rasmussen</t>
+          <t>Sondre F. Eilertsen</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O174" s="17" t="inlineStr">
-        <is>
-          <t>4,12,27</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O174" s="15" t="n">
+        <v>23.63</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>653</v>
+        <v>684</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
@@ -24116,7 +24114,7 @@
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>25.02</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
@@ -24153,30 +24151,32 @@
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Sondre F. Eilertsen</t>
+          <t>Elias Landøy Rasmussen</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O175" s="15" t="n">
-        <v>11.81</v>
+        <v>2009</v>
+      </c>
+      <c r="O175" s="17" t="inlineStr">
+        <is>
+          <t>4,12,27</t>
+        </is>
       </c>
       <c r="P175" s="7" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>16.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
@@ -24211,24 +24211,22 @@
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Marius Pedersen</t>
+          <t>Sondre F. Eilertsen</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O176" s="17" t="inlineStr">
-        <is>
-          <t>2,02,18</t>
-        </is>
+      <c r="O176" s="15" t="n">
+        <v>11.81</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
@@ -24236,7 +24234,7 @@
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>15.06</v>
+        <v>16.06</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -24271,22 +24269,22 @@
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Marius Aarset Lilleskog</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>2.61</v>
+        <v>1.6</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
@@ -24329,30 +24327,30 @@
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Herman Urnes Hahn</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>31.05</v>
+        <v>4.02</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -24387,30 +24385,30 @@
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Christopher Sandvik</t>
+          <t>Herman Urnes Hahn</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>4.02</v>
+        <v>31.05</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -24445,22 +24443,22 @@
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Sander Sjøen Hjelmervik</t>
+          <t>Christopher Sandvik</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O180" s="15" t="n">
-        <v>5.21</v>
+        <v>2.58</v>
       </c>
       <c r="P180" s="7" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
@@ -24468,7 +24466,7 @@
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>26.05</v>
+        <v>4.02</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
@@ -24522,7 +24520,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>7393</v>
+        <v>7522</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -24562,7 +24560,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15984</v>
+        <v>16170</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24586,7 +24584,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -30474,7 +30472,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>19850</v>
+        <v>19866</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -35955,7 +35953,7 @@
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>0</v>
+        <v>1955</v>
       </c>
       <c r="E124" s="15" t="n">
         <v>1.15</v>
@@ -40496,30 +40494,30 @@
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M229" s="7" t="inlineStr">
         <is>
-          <t>Kanutte Baade Eiken</t>
+          <t>Maria Elvestuen</t>
         </is>
       </c>
       <c r="N229" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O229" s="15" t="n">
-        <v>2.44</v>
+        <v>10.23</v>
       </c>
       <c r="P229" s="7" t="n">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="Q229" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R229" s="16" t="n">
-        <v>14.01</v>
+        <v>18.07</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -40669,7 +40667,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>10951</v>
+        <v>10967</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -41094,30 +41092,30 @@
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M243" s="7" t="inlineStr">
         <is>
-          <t>Maria Elvestuen</t>
+          <t>Kanutte Baade Eiken</t>
         </is>
       </c>
       <c r="N243" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O243" s="15" t="n">
-        <v>10</v>
+        <v>2.44</v>
       </c>
       <c r="P243" s="7" t="n">
         <v>593</v>
       </c>
       <c r="Q243" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R243" s="16" t="n">
-        <v>1.06</v>
+        <v>14.01</v>
       </c>
       <c r="T243" s="5" t="n"/>
     </row>
@@ -41737,7 +41735,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>19850</v>
+        <v>19866</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -46307,7 +46305,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>18298</v>
+        <v>18305</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -46494,7 +46492,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb</t>
+          <t>Nittedal IL</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -46503,16 +46501,16 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>14109</v>
+        <v>14264</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -46522,25 +46520,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL Tromsø</t>
+          <t>Tønsberg Friidrettsklubb</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/13)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>13869</v>
+        <v>14109</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -46550,25 +46548,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Bergens Turnforening</t>
+          <t>IL i BUL Tromsø</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(23/8)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>13425</v>
+        <v>13869</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -46578,25 +46576,25 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Nittedal IL</t>
+          <t>Bergens Turnforening</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(24/14)</t>
+          <t>(23/8)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>13342</v>
+        <v>13425</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -47577,18 +47575,18 @@
         <v>2005</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>40.23</v>
+        <v>40.72</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>23.06</v>
+        <v>24.07</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -47700,7 +47698,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>10111</v>
+        <v>10118</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -48600,7 +48598,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>18298</v>
+        <v>18305</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -54444,7 +54442,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="F190" s="8" t="n">
@@ -54458,7 +54456,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Vestfold</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -54474,7 +54472,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb</t>
+          <t>Nittedal IL</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -54485,7 +54483,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL Tromsø</t>
+          <t>Tønsberg Friidrettsklubb</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -54614,25 +54612,25 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>7.73</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>821</v>
+        <v>701</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>16.03</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -54642,25 +54640,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>8.4</v>
+        <v>7.73</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>619</v>
+        <v>821</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>3.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -54672,25 +54670,25 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>12.33</v>
+        <v>12.94</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>791</v>
+        <v>681</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>1.06</v>
+        <v>27.04</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -54700,25 +54698,25 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>12.99</v>
+        <v>12.33</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>8.06</v>
+        <v>1.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -54730,25 +54728,25 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>26.33</v>
+        <v>26.47</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>2.03</v>
+        <v>25.05</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -54758,25 +54756,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Martine Inderberg</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>27.95</v>
+        <v>26.33</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>582</v>
+        <v>700</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>9.06</v>
+        <v>2.03</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -54788,27 +54786,27 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E200" s="17" t="inlineStr">
         <is>
-          <t>1,01,22</t>
+          <t>1,05,00</t>
         </is>
       </c>
       <c r="F200" s="7" t="n">
-        <v>641</v>
+        <v>537</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>11.02</v>
+        <v>1.06</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -54818,27 +54816,27 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O200" s="17" t="inlineStr">
         <is>
-          <t>1,03,63</t>
+          <t>1,01,22</t>
         </is>
       </c>
       <c r="P200" s="7" t="n">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>8.06</v>
+        <v>11.02</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -54850,57 +54848,57 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Malin Gallis</t>
+          <t>Eira Jacobsen-Sjue</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>2,38,86</t>
+          <t>2,35,62</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>20.06</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Vesna Itkin</t>
+          <t>Malin Gallis</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>5,31,42</t>
+          <t>2,38,86</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>23.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -54912,7 +54910,7 @@
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Malin Gallis</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
@@ -54920,47 +54918,49 @@
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>5,35,06</t>
+          <t>4,41,31</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>447</v>
+        <v>717</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>6.01</v>
+        <v>21.06</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Malin Gallis</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O202" s="15" t="n">
-        <v>1.58</v>
+        <v>2007</v>
+      </c>
+      <c r="O202" s="17" t="inlineStr">
+        <is>
+          <t>5,35,06</t>
+        </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>675</v>
+        <v>447</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>9.06</v>
+        <v>6.01</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -54972,7 +54972,7 @@
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Anna Knapstad Dehli</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
@@ -54980,251 +54980,255 @@
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>11,28,15</t>
+          <t>10,11,91</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>529</v>
+        <v>709</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>22.06</v>
+        <v>20.06</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Julianne Allern Brose</t>
+          <t>Anna Knapstad Dehli</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O203" s="15" t="n">
-        <v>1.8</v>
+        <v>2007</v>
+      </c>
+      <c r="O203" s="17" t="inlineStr">
+        <is>
+          <t>11,28,15</t>
+        </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>366</v>
+        <v>529</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>9.06</v>
+        <v>22.06</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
     <row r="204" ht="13" customHeight="1">
       <c r="B204" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Isabella Neves Strand</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E204" s="15" t="n">
-        <v>1.5</v>
+        <v>2007</v>
+      </c>
+      <c r="E204" s="17" t="inlineStr">
+        <is>
+          <t>1,10,12</t>
+        </is>
       </c>
       <c r="F204" s="7" t="n">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>25.05</v>
+        <v>5.07</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Isabella Neves Strand</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O204" s="15" t="n">
-        <v>4.85</v>
+        <v>1.5</v>
       </c>
       <c r="P204" s="7" t="n">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>25.05</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
     <row r="205" ht="13" customHeight="1">
       <c r="B205" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Sanne Hesselink Cornelissen</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="E205" s="15" t="n">
-        <v>4.65</v>
+        <v>1.43</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>6.01</v>
+        <v>2.06</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Aurora Molund Tangen</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>9.039999999999999</v>
+        <v>4.65</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>454</v>
+        <v>542</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>9.06</v>
+        <v>6.01</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
     <row r="206" ht="13" customHeight="1">
       <c r="B206" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Marit Huflåtten</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>1953</v>
+        <v>2009</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>7.89</v>
+        <v>4.58</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>316</v>
+        <v>526</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Torun/POL</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>19.03</v>
+        <v>26.05</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Marit Huflåtten</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2008</v>
+        <v>1953</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>1.25</v>
+        <v>7.89</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>609</v>
+        <v>316</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Torun/POL</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>2.02</v>
+        <v>19.03</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
     <row r="207" ht="13" customHeight="1">
       <c r="B207" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Marit Huflåtten</t>
+          <t>Tiril Lappegård</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>1953</v>
+        <v>2003</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>2.11</v>
+        <v>9.92</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>345</v>
+        <v>586</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Tønsberg</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>16.01</v>
+        <v>23.07</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
@@ -55234,141 +55238,141 @@
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Marit Huflåtten</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2007</v>
+        <v>1953</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>451</v>
+        <v>345</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Tønsberg</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>2.02</v>
+        <v>16.01</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
     <row r="208" ht="13" customHeight="1">
       <c r="B208" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>Leah Hong Sørebø</t>
+          <t>Tiril Lappegård</t>
         </is>
       </c>
       <c r="D208" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E208" s="15" t="n">
-        <v>6.71</v>
+        <v>29.72</v>
       </c>
       <c r="F208" s="7" t="n">
-        <v>315</v>
+        <v>576</v>
       </c>
       <c r="G208" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H208" s="16" t="n">
-        <v>2.03</v>
+        <v>23.07</v>
       </c>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Pernille Allern Brose</t>
+          <t>Leah Hong Sørebø</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>19.05</v>
+        <v>6.71</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>15.06</v>
+        <v>2.03</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
       <c r="B209" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>Marit Huflåtten</t>
+          <t>Tiril Lappegård</t>
         </is>
       </c>
       <c r="D209" s="7" t="n">
-        <v>1953</v>
+        <v>2003</v>
       </c>
       <c r="E209" s="15" t="n">
-        <v>19.48</v>
+        <v>53.78</v>
       </c>
       <c r="F209" s="7" t="n">
-        <v>371</v>
+        <v>854</v>
       </c>
       <c r="G209" s="7" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H209" s="16" t="n">
-        <v>10.05</v>
+        <v>14.06</v>
       </c>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Aurora Fremnesvik</t>
+          <t>Marit Huflåtten</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>2003</v>
+        <v>1953</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>57.89</v>
+        <v>19.48</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>901</v>
+        <v>371</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>9.06</v>
+        <v>10.05</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -55405,7 +55409,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>6901</v>
+        <v>8214</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -55422,7 +55426,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7310</v>
+        <v>6901</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -55525,204 +55529,208 @@
     <row r="216" ht="13" customHeight="1">
       <c r="B216" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Claudia Maria Hastie Foss</t>
+          <t>Ingrid Skaar</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E216" s="15" t="n">
-        <v>7.75</v>
+        <v>2009</v>
+      </c>
+      <c r="E216" s="17" t="inlineStr">
+        <is>
+          <t>4,53,52</t>
+        </is>
       </c>
       <c r="F216" s="7" t="n">
-        <v>814</v>
+        <v>646</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>9.02</v>
+        <v>8.06</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Aurelia Fremnesvik</t>
+          <t>Claudia Maria Hastie Foss</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O216" s="15" t="n">
-        <v>41.88</v>
+        <v>7.75</v>
       </c>
       <c r="P216" s="7" t="n">
-        <v>708</v>
+        <v>814</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Brandbu</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>4.05</v>
+        <v>9.02</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E217" s="15" t="n">
-        <v>12.83</v>
+        <v>2009</v>
+      </c>
+      <c r="E217" s="17" t="inlineStr">
+        <is>
+          <t>5,04,99</t>
+        </is>
       </c>
       <c r="F217" s="7" t="n">
-        <v>700</v>
+        <v>586</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>6.07</v>
+        <v>24.05</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O217" s="15" t="n">
-        <v>1.55</v>
+        <v>12.83</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>651</v>
+        <v>700</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>9.06</v>
+        <v>6.07</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Claudia Maria Hastie Foss</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E218" s="15" t="n">
-        <v>26.45</v>
+        <v>13.64</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>691</v>
+        <v>566</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>10.03</v>
+        <v>6.07</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Claudia Maria Hastie Foss</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O218" s="15" t="n">
-        <v>13.67</v>
+        <v>26.45</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>561</v>
+        <v>691</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>8.06</v>
+        <v>10.03</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Tuva Sofie Sollid</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>26.66</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>675</v>
+        <v>558</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>10.02</v>
+        <v>16.03</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
@@ -55732,83 +55740,85 @@
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Tuva Sofie Sollid</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O219" s="15" t="n">
-        <v>28.38</v>
+        <v>26.66</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>553</v>
+        <v>675</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>2.06</v>
+        <v>10.02</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E220" s="15" t="n">
-        <v>13</v>
+        <v>2009</v>
+      </c>
+      <c r="E220" s="17" t="inlineStr">
+        <is>
+          <t>11,17,26</t>
+        </is>
       </c>
       <c r="F220" s="7" t="n">
-        <v>671</v>
+        <v>552</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>16.06</v>
+        <v>20.06</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Elsa Mækelæ Lindblad</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>1.43</v>
+        <v>13</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>547</v>
+        <v>671</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>2.06</v>
+        <v>16.06</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -55820,133 +55830,135 @@
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E221" s="15" t="n">
-        <v>26.84</v>
+        <v>29.08</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>662</v>
+        <v>507</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>2.06</v>
+        <v>17.03</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Nora Tvete</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>8.710000000000001</v>
+        <v>26.84</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>540</v>
+        <v>662</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>3.02</v>
+        <v>2.06</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E222" s="15" t="n">
-        <v>8.289999999999999</v>
+        <v>29.11</v>
       </c>
       <c r="F222" s="7" t="n">
-        <v>649</v>
+        <v>505</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>9.02</v>
+        <v>18.04</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Martine Inderberg</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>13.84</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>535</v>
+        <v>649</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>1.06</v>
+        <v>9.02</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Tone Elise Holm</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E223" s="15" t="n">
-        <v>8.289999999999999</v>
+        <v>2011</v>
+      </c>
+      <c r="E223" s="17" t="inlineStr">
+        <is>
+          <t>5,22,00</t>
+        </is>
       </c>
       <c r="F223" s="7" t="n">
-        <v>649</v>
+        <v>504</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
@@ -55954,7 +55966,7 @@
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>20.01</v>
+        <v>14.06</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
@@ -55964,85 +55976,83 @@
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Martine Inderberg</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>8.81</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>517</v>
+        <v>649</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>22.01</v>
+        <v>20.01</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>4.33</v>
+        <v>9.35</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>6.01</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Martine Inderberg</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O224" s="17" t="inlineStr">
-        <is>
-          <t>1,06,07</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O224" s="15" t="n">
+        <v>4.33</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>8.06</v>
+        <v>6.01</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -56054,17 +56064,17 @@
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Henrikke Nyheim</t>
+          <t>Tuva Helene Rugsveen</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
@@ -56072,123 +56082,123 @@
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>16.03</v>
+        <v>17.03</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Aurora Molund Tangen</t>
+          <t>Henrikke Nyheim</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>1.15</v>
+        <v>4.24</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>2.02</v>
+        <v>16.03</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Isabella Neves Strand</t>
+          <t>Johanne Otelie Schønheyder</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>4.13</v>
+        <v>1.25</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>17.03</v>
+        <v>11.05</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Ylva Martedatter Grammeltvedt</t>
+          <t>Isabella Neves Strand</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>9</v>
+        <v>4.13</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>473</v>
+        <v>420</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>8.06</v>
+        <v>17.03</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
     <row r="227" ht="13" customHeight="1">
       <c r="B227" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Slettemeås</t>
+          <t>Florez Trælvik</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>25.05</v>
+        <v>27.04</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
@@ -56198,25 +56208,25 @@
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Julianne Allern Brose</t>
+          <t>Ingrid Slettemeås</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>470</v>
+        <v>362</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>2.06</v>
+        <v>25.05</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -56253,7 +56263,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>7208</v>
+        <v>6050</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -56270,7 +56280,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6559</v>
+        <v>7208</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -56293,7 +56303,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>14109</v>
+        <v>14264</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -56310,7 +56320,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>13869</v>
+        <v>14109</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -56334,7 +56344,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -56376,7 +56386,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Troms</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -56390,7 +56400,7 @@
       </c>
       <c r="M237" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P237" s="8" t="n">
@@ -56406,7 +56416,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Bergens Turnforening</t>
+          <t>IL i BUL Tromsø</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -56417,7 +56427,7 @@
       </c>
       <c r="M238" s="7" t="inlineStr">
         <is>
-          <t>Nittedal IL</t>
+          <t>Bergens Turnforening</t>
         </is>
       </c>
       <c r="T238" s="5" t="n"/>
@@ -56546,25 +56556,25 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>8.220000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>24.02</v>
+        <v>3.02</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -56574,666 +56584,680 @@
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>8.109999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>16.03</v>
+        <v>24.02</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
     <row r="245" ht="13" customHeight="1">
       <c r="B245" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Julianna Henden</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>29.34</v>
+        <v>12.99</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>491</v>
+        <v>672</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>20.01</v>
+        <v>8.06</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M245" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Julianna Henden</t>
         </is>
       </c>
       <c r="N245" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O245" s="15" t="n">
-        <v>12.94</v>
+        <v>29.34</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>681</v>
+        <v>491</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>27.04</v>
+        <v>20.01</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
     <row r="246" ht="13" customHeight="1">
       <c r="B246" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Amalie Husebø</t>
+          <t>Martine Inderberg</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E246" s="17" t="inlineStr">
-        <is>
-          <t>1,24,39</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E246" s="15" t="n">
+        <v>27.95</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>183</v>
+        <v>582</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>18.06</v>
+        <v>9.06</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Amalie Husebø</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O246" s="15" t="n">
-        <v>26.47</v>
+        <v>2011</v>
+      </c>
+      <c r="O246" s="17" t="inlineStr">
+        <is>
+          <t>1,24,39</t>
+        </is>
       </c>
       <c r="P246" s="7" t="n">
-        <v>689</v>
+        <v>183</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>25.05</v>
+        <v>18.06</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
     <row r="247" ht="13" customHeight="1">
       <c r="B247" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Amalie Husebø</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E247" s="15" t="n">
-        <v>1.45</v>
+        <v>2007</v>
+      </c>
+      <c r="E247" s="17" t="inlineStr">
+        <is>
+          <t>1,03,63</t>
+        </is>
       </c>
       <c r="F247" s="7" t="n">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>14.06</v>
+        <v>8.06</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M247" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Amalie Husebø</t>
         </is>
       </c>
       <c r="N247" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O247" s="17" t="inlineStr">
-        <is>
-          <t>1,05,00</t>
-        </is>
+        <v>2011</v>
+      </c>
+      <c r="O247" s="15" t="n">
+        <v>1.45</v>
       </c>
       <c r="P247" s="7" t="n">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="Q247" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R247" s="16" t="n">
-        <v>1.06</v>
+        <v>14.06</v>
       </c>
       <c r="T247" s="5" t="n"/>
     </row>
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Embla Njerve</t>
+          <t>Vesna Itkin</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E248" s="15" t="n">
-        <v>4.15</v>
+        <v>2011</v>
+      </c>
+      <c r="E248" s="17" t="inlineStr">
+        <is>
+          <t>5,31,42</t>
+        </is>
       </c>
       <c r="F248" s="7" t="n">
-        <v>935</v>
+        <v>462</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Banská Bystrica/SVK</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>21.07</v>
+        <v>23.06</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M248" s="7" t="inlineStr">
         <is>
-          <t>Eira Jacobsen-Sjue</t>
+          <t>Embla Njerve</t>
         </is>
       </c>
       <c r="N248" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O248" s="17" t="inlineStr">
-        <is>
-          <t>2,35,62</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O248" s="15" t="n">
+        <v>4.15</v>
       </c>
       <c r="P248" s="7" t="n">
-        <v>504</v>
+        <v>935</v>
       </c>
       <c r="Q248" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Banská Bystrica/SVK</t>
         </is>
       </c>
       <c r="R248" s="16" t="n">
-        <v>20.06</v>
+        <v>21.07</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E249" s="15" t="n">
-        <v>5.09</v>
+        <v>1.58</v>
       </c>
       <c r="F249" s="7" t="n">
-        <v>638</v>
+        <v>675</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>21.01</v>
+        <v>9.06</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M249" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="N249" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O249" s="17" t="inlineStr">
-        <is>
-          <t>4,41,31</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O249" s="15" t="n">
+        <v>5.09</v>
       </c>
       <c r="P249" s="7" t="n">
-        <v>717</v>
+        <v>638</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R249" s="16" t="n">
-        <v>21.06</v>
+        <v>21.01</v>
       </c>
       <c r="T249" s="5" t="n"/>
     </row>
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Julianne Allern Brose</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E250" s="15" t="n">
-        <v>11.01</v>
+        <v>1.8</v>
       </c>
       <c r="F250" s="7" t="n">
-        <v>662</v>
+        <v>366</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M250" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N250" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O250" s="17" t="inlineStr">
-        <is>
-          <t>10,11,91</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O250" s="15" t="n">
+        <v>11.01</v>
       </c>
       <c r="P250" s="7" t="n">
-        <v>709</v>
+        <v>662</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>20.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>2.36</v>
+        <v>4.85</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>540</v>
+        <v>586</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Bergen/Hø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>4.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M251" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N251" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O251" s="17" t="inlineStr">
-        <is>
-          <t>1,10,12</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O251" s="15" t="n">
+        <v>2.36</v>
       </c>
       <c r="P251" s="7" t="n">
-        <v>587</v>
+        <v>540</v>
       </c>
       <c r="Q251" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bergen/Hø</t>
         </is>
       </c>
       <c r="R251" s="16" t="n">
-        <v>5.07</v>
+        <v>4.02</v>
       </c>
       <c r="T251" s="5" t="n"/>
     </row>
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Oda Marie Myklebust</t>
+          <t>Aurora Molund Tangen</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>9.91</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>586</v>
+        <v>454</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Gloppen</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>21.07</v>
+        <v>9.06</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Sanne Hesselink Cornelissen</t>
+          <t>Oda Marie Myklebust</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>1.43</v>
+        <v>9.91</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gloppen</t>
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>2.06</v>
+        <v>21.07</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Oda Marie Myklebust</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>35.75</v>
+        <v>1.25</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>666</v>
+        <v>609</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Gloppen</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>21.07</v>
+        <v>2.02</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M253" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Oda Marie Myklebust</t>
         </is>
       </c>
       <c r="N253" s="7" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="O253" s="15" t="n">
-        <v>4.58</v>
+        <v>35.75</v>
       </c>
       <c r="P253" s="7" t="n">
-        <v>526</v>
+        <v>666</v>
       </c>
       <c r="Q253" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Gloppen</t>
         </is>
       </c>
       <c r="R253" s="16" t="n">
-        <v>26.05</v>
+        <v>21.07</v>
       </c>
       <c r="T253" s="5" t="n"/>
     </row>
     <row r="254" ht="13" customHeight="1">
       <c r="B254" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Oda Marie Myklebust</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>54.85</v>
+        <v>2.24</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>866</v>
+        <v>451</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H254" s="16" t="n">
-        <v>23.06</v>
+        <v>2.02</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M254" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Oda Marie Myklebust</t>
         </is>
       </c>
       <c r="N254" s="7" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="O254" s="15" t="n">
-        <v>9.35</v>
+        <v>54.85</v>
       </c>
       <c r="P254" s="7" t="n">
-        <v>489</v>
+        <v>866</v>
       </c>
       <c r="Q254" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R254" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>23.06</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
     <row r="255" ht="13" customHeight="1">
-      <c r="B255" s="14" t="n"/>
-      <c r="C255" s="7" t="n"/>
-      <c r="D255" s="7" t="n"/>
-      <c r="E255" s="7" t="n"/>
-      <c r="F255" s="7" t="n"/>
-      <c r="G255" s="7" t="n"/>
-      <c r="H255" s="21" t="n"/>
+      <c r="B255" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C255" s="7" t="inlineStr">
+        <is>
+          <t>Pernille Allern Brose</t>
+        </is>
+      </c>
+      <c r="D255" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E255" s="15" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="F255" s="7" t="n">
+        <v>360</v>
+      </c>
+      <c r="G255" s="7" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="H255" s="16" t="n">
+        <v>15.06</v>
+      </c>
       <c r="J255" s="5" t="n"/>
-      <c r="L255" s="14" t="inlineStr">
+      <c r="L255" s="14" t="n"/>
+      <c r="M255" s="7" t="n"/>
+      <c r="N255" s="7" t="n"/>
+      <c r="O255" s="7" t="n"/>
+      <c r="P255" s="7" t="n"/>
+      <c r="Q255" s="7" t="n"/>
+      <c r="R255" s="21" t="n"/>
+      <c r="T255" s="5" t="n"/>
+    </row>
+    <row r="256" ht="13" customHeight="1">
+      <c r="B256" s="14" t="inlineStr">
         <is>
           <t>Slegge</t>
         </is>
       </c>
-      <c r="M255" s="7" t="inlineStr">
-        <is>
-          <t>Tiril Lappegård</t>
-        </is>
-      </c>
-      <c r="N255" s="7" t="n">
+      <c r="C256" s="7" t="inlineStr">
+        <is>
+          <t>Aurora Fremnesvik</t>
+        </is>
+      </c>
+      <c r="D256" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="O255" s="15" t="n">
-        <v>53.78</v>
-      </c>
-      <c r="P255" s="7" t="n">
-        <v>854</v>
-      </c>
-      <c r="Q255" s="7" t="inlineStr">
-        <is>
-          <t>Bærum</t>
-        </is>
-      </c>
-      <c r="R255" s="16" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="T255" s="5" t="n"/>
-    </row>
-    <row r="256" ht="13" customHeight="1">
-      <c r="B256" s="14" t="n"/>
-      <c r="C256" s="7" t="n"/>
-      <c r="D256" s="7" t="n"/>
-      <c r="E256" s="7" t="n"/>
-      <c r="F256" s="7" t="n"/>
-      <c r="G256" s="7" t="n"/>
-      <c r="H256" s="21" t="n"/>
+      <c r="E256" s="15" t="n">
+        <v>57.89</v>
+      </c>
+      <c r="F256" s="7" t="n">
+        <v>901</v>
+      </c>
+      <c r="G256" s="7" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="H256" s="16" t="n">
+        <v>9.06</v>
+      </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="14" t="n"/>
       <c r="M256" s="7" t="n"/>
@@ -57269,7 +57293,7 @@
         </is>
       </c>
       <c r="C258" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E258" s="19" t="inlineStr">
         <is>
@@ -57277,7 +57301,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>6801</v>
+        <v>7310</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -57286,7 +57310,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O258" s="19" t="inlineStr">
         <is>
@@ -57294,7 +57318,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>7541</v>
+        <v>6801</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -57397,296 +57421,290 @@
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Aurelia Fremnesvik</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E263" s="15" t="n">
-        <v>3.26</v>
+        <v>41.88</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>10.02</v>
+        <v>4.05</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Skaar</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N263" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="O263" s="17" t="inlineStr">
-        <is>
-          <t>4,53,52</t>
-        </is>
+      <c r="O263" s="15" t="n">
+        <v>3.26</v>
       </c>
       <c r="P263" s="7" t="n">
-        <v>646</v>
+        <v>730</v>
       </c>
       <c r="Q263" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R263" s="16" t="n">
-        <v>8.06</v>
+        <v>10.02</v>
       </c>
       <c r="T263" s="5" t="n"/>
     </row>
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E264" s="15" t="n">
-        <v>3.11</v>
+        <v>1.55</v>
       </c>
       <c r="F264" s="7" t="n">
-        <v>697</v>
+        <v>651</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>10.03</v>
+        <v>9.06</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="O264" s="17" t="inlineStr">
-        <is>
-          <t>5,04,99</t>
-        </is>
+      <c r="O264" s="15" t="n">
+        <v>3.11</v>
       </c>
       <c r="P264" s="7" t="n">
-        <v>586</v>
+        <v>697</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>24.05</v>
+        <v>10.03</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E265" s="15" t="n">
-        <v>10.72</v>
+        <v>13.67</v>
       </c>
       <c r="F265" s="7" t="n">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>25.02</v>
+        <v>8.06</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O265" s="15" t="n">
-        <v>13.64</v>
+        <v>10.72</v>
       </c>
       <c r="P265" s="7" t="n">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>6.07</v>
+        <v>25.02</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E266" s="15" t="n">
-        <v>5</v>
+        <v>28.38</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>618</v>
+        <v>553</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>21.01</v>
+        <v>2.06</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O266" s="15" t="n">
-        <v>8.640000000000001</v>
+        <v>5</v>
       </c>
       <c r="P266" s="7" t="n">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>16.03</v>
+        <v>21.01</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Julianna Henden</t>
+          <t>Elsa Mækelæ Lindblad</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="E267" s="15" t="n">
-        <v>10.43</v>
+        <v>1.43</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>603</v>
+        <v>547</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Julianna Henden</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O267" s="17" t="inlineStr">
-        <is>
-          <t>11,17,26</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O267" s="15" t="n">
+        <v>10.43</v>
       </c>
       <c r="P267" s="7" t="n">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>20.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -57698,163 +57716,161 @@
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Julianna Henden</t>
+          <t>Nora Tvete</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>8.59</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>10.02</v>
+        <v>3.02</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Julianna Henden</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O268" s="15" t="n">
-        <v>29.08</v>
+        <v>8.59</v>
       </c>
       <c r="P268" s="7" t="n">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>17.03</v>
+        <v>10.02</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Julianna Henden</t>
+          <t>Martine Inderberg</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>4.68</v>
+        <v>13.84</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>10.02</v>
+        <v>1.06</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Julianna Henden</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>29.11</v>
+        <v>4.68</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>18.04</v>
+        <v>10.02</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Signe Njerve</t>
+          <t>Martine Inderberg</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E270" s="15" t="n">
-        <v>2.4</v>
+        <v>8.81</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>15.06</v>
+        <v>22.01</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Tone Elise Holm</t>
+          <t>Signe Njerve</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
         <v>2011</v>
       </c>
-      <c r="O270" s="17" t="inlineStr">
-        <is>
-          <t>5,22,00</t>
-        </is>
+      <c r="O270" s="15" t="n">
+        <v>2.4</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
@@ -57862,61 +57878,63 @@
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>14.06</v>
+        <v>15.06</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Martine Inderberg</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E271" s="15" t="n">
-        <v>2.29</v>
+      <c r="E271" s="17" t="inlineStr">
+        <is>
+          <t>1,06,07</t>
+        </is>
       </c>
       <c r="F271" s="7" t="n">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Bergen/Hø</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>17.03</v>
+        <v>8.06</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Tuva Helene Rugsveen</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>4.27</v>
+        <v>2.29</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Bergen/Hø</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
@@ -57927,58 +57945,58 @@
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Celine Sandanger</t>
+          <t>Aurora Molund Tangen</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>2.2</v>
+        <v>1.15</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>25.05</v>
+        <v>2.02</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Johanne Otelie Schønheyder</t>
+          <t>Celine Sandanger</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>11.05</v>
+        <v>25.05</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -57990,53 +58008,53 @@
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Amalie Husebø</t>
+          <t>Ylva Martedatter Grammeltvedt</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>367</v>
+        <v>473</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>15.06</v>
+        <v>8.06</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Florez Trælvik</t>
+          <t>Amalie Husebø</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="O273" s="15" t="n">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="P273" s="7" t="n">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>27.04</v>
+        <v>15.06</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -58048,21 +58066,21 @@
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Signe Njerve</t>
+          <t>Julianne Allern Brose</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
         <v>2011</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>351</v>
+        <v>470</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
@@ -58076,25 +58094,25 @@
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Signe Bjonge</t>
+          <t>Signe Njerve</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="O274" s="15" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="P274" s="7" t="n">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>14.06</v>
+        <v>2.06</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -58131,7 +58149,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>6624</v>
+        <v>6559</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -58148,7 +58166,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>5801</v>
+        <v>6624</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58163,7 +58181,7 @@
         </is>
       </c>
       <c r="C278" s="20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E278" s="19" t="inlineStr">
         <is>
@@ -58171,7 +58189,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>13425</v>
+        <v>13869</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -58180,7 +58198,7 @@
         </is>
       </c>
       <c r="M278" s="20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O278" s="19" t="inlineStr">
         <is>
@@ -58188,7 +58206,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>13342</v>
+        <v>13425</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -58203,7 +58221,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -58212,7 +58230,7 @@
         </is>
       </c>
       <c r="M280" s="20" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -23,8 +23,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="##,##00.00"/>
+    <numFmt numFmtId="165" formatCode="#,#0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -145,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -180,6 +181,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -684,11 +686,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>25094</v>
+        <v>25107</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -716,7 +718,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>24620</v>
+        <v>24673</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -912,7 +914,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>18504</v>
+        <v>18519</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -931,25 +933,25 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>Moelven IL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(26/11)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17269</v>
+        <v>18089</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>(1/2d)</t>
+          <t>(3/2d)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -959,25 +961,25 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Moelven IL</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(24/12)</t>
+          <t>(26/11)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>17169</v>
+        <v>17269</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>(3/2d)</t>
+          <t>(1/2d)</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -4998,30 +5000,30 @@
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Jonas Berggård Skåden</t>
+          <t>Soban Mortaza Inayat</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="O90" s="15" t="n">
-        <v>6.99</v>
+        <v>21.94</v>
       </c>
       <c r="P90" s="7" t="n">
         <v>868</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
-          <t>Wroclaw/POL</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>4.02</v>
+        <v>28.07</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -5056,30 +5058,30 @@
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Eskild Gjesdal Hillesund</t>
+          <t>Jonas Berggård Skåden</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>22.05</v>
+        <v>6.99</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>855</v>
+        <v>868</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Wroclaw/POL</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>9.06</v>
+        <v>4.02</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
@@ -5423,7 +5425,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>12366</v>
+        <v>12379</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5463,7 +5465,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>25094</v>
+        <v>25107</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5487,7 +5489,7 @@
         </is>
       </c>
       <c r="M102" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T102" s="5" t="n"/>
     </row>
@@ -6974,7 +6976,7 @@
     <row r="138" ht="13" customHeight="1">
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
@@ -6987,7 +6989,7 @@
       </c>
       <c r="E138" s="17" t="inlineStr">
         <is>
-          <t>7,59,77</t>
+          <t>3,42,25</t>
         </is>
       </c>
       <c r="F138" s="7" t="n">
@@ -6995,11 +6997,11 @@
       </c>
       <c r="G138" s="7" t="inlineStr">
         <is>
-          <t>Gent/BEL</t>
+          <t>Kessel-Louvain/BEL</t>
         </is>
       </c>
       <c r="H138" s="16" t="n">
-        <v>3.02</v>
+        <v>27.07</v>
       </c>
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
@@ -7036,32 +7038,32 @@
     <row r="139" ht="13" customHeight="1">
       <c r="B139" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Kristian Bråthen Børve</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="E139" s="17" t="inlineStr">
         <is>
-          <t>13,52,44</t>
+          <t>7,59,77</t>
         </is>
       </c>
       <c r="F139" s="7" t="n">
-        <v>941</v>
+        <v>956</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gent/BEL</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>18.06</v>
+        <v>3.02</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
@@ -7096,7 +7098,7 @@
     <row r="140" ht="13" customHeight="1">
       <c r="B140" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
@@ -7109,19 +7111,19 @@
       </c>
       <c r="E140" s="17" t="inlineStr">
         <is>
-          <t>8,04,21</t>
+          <t>13,52,44</t>
         </is>
       </c>
       <c r="F140" s="7" t="n">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>15.05</v>
+        <v>18.06</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
@@ -7161,27 +7163,27 @@
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sandvik</t>
+          <t>Kristian Bråthen Børve</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="E141" s="17" t="inlineStr">
         <is>
-          <t>8,04,88</t>
+          <t>8,04,21</t>
         </is>
       </c>
       <c r="F141" s="7" t="n">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>14.06</v>
+        <v>15.05</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
@@ -7218,32 +7220,32 @@
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Senay Amlesom Fissehatsion</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="E142" s="17" t="inlineStr">
         <is>
-          <t>29,24,94</t>
+          <t>8,04,88</t>
         </is>
       </c>
       <c r="F142" s="7" t="n">
-        <v>907</v>
+        <v>931</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>27.06</v>
+        <v>14.06</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
@@ -7278,7 +7280,7 @@
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
@@ -7291,19 +7293,19 @@
       </c>
       <c r="E143" s="17" t="inlineStr">
         <is>
-          <t>3,46,58</t>
+          <t>29,24,94</t>
         </is>
       </c>
       <c r="F143" s="7" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>24.05</v>
+        <v>27.06</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
@@ -7658,7 +7660,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>12614</v>
+        <v>12667</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -7698,7 +7700,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>24620</v>
+        <v>24673</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -13598,30 +13600,30 @@
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M294" s="7" t="inlineStr">
         <is>
-          <t>Aleksander Aarestrup</t>
+          <t>Sergejs Kononovs</t>
         </is>
       </c>
       <c r="N294" s="7" t="n">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="O294" s="15" t="n">
-        <v>11.31</v>
+        <v>22.83</v>
       </c>
       <c r="P294" s="7" t="n">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>11.05</v>
+        <v>28.07</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
@@ -13661,25 +13663,25 @@
       </c>
       <c r="M295" s="7" t="inlineStr">
         <is>
-          <t>Sergejs Kononovs</t>
+          <t>Aleksander Aarestrup</t>
         </is>
       </c>
       <c r="N295" s="7" t="n">
-        <v>1989</v>
+        <v>2008</v>
       </c>
       <c r="O295" s="15" t="n">
-        <v>11.32</v>
+        <v>11.31</v>
       </c>
       <c r="P295" s="7" t="n">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="Q295" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R295" s="16" t="n">
-        <v>6.05</v>
+        <v>11.05</v>
       </c>
       <c r="T295" s="5" t="n"/>
     </row>
@@ -13714,22 +13716,22 @@
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Daniel Surdal</t>
+          <t>Sergejs Kononovs</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="O296" s="15" t="n">
-        <v>7.25</v>
+        <v>11.32</v>
       </c>
       <c r="P296" s="7" t="n">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
@@ -13737,7 +13739,7 @@
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>24.02</v>
+        <v>6.05</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -13772,30 +13774,30 @@
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Maxime Louis Christian Bombart</t>
+          <t>Daniel Surdal</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="O297" s="15" t="n">
-        <v>11.36</v>
+        <v>7.25</v>
       </c>
       <c r="P297" s="7" t="n">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>14.06</v>
+        <v>24.02</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
@@ -13830,30 +13832,30 @@
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Aleksander Aarestrup</t>
+          <t>Maxime Louis Christian Bombart</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="O298" s="15" t="n">
-        <v>22.97</v>
+        <v>11.36</v>
       </c>
       <c r="P298" s="7" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>12.05</v>
+        <v>14.06</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -14215,7 +14217,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>9210</v>
+        <v>9225</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -14255,7 +14257,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>18504</v>
+        <v>18519</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -14321,7 +14323,7 @@
       </c>
       <c r="C314" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="F314" s="8" t="n">
@@ -14335,7 +14337,7 @@
       </c>
       <c r="M314" s="7" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="P314" s="8" t="n">
@@ -14351,7 +14353,7 @@
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>Moelven IL</t>
         </is>
       </c>
       <c r="J315" s="5" t="n"/>
@@ -14362,7 +14364,7 @@
       </c>
       <c r="M315" s="7" t="inlineStr">
         <is>
-          <t>Moelven IL</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="T315" s="5" t="n"/>
@@ -14491,17 +14493,17 @@
       </c>
       <c r="C321" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Håvard Bentdal Ingvaldsen</t>
         </is>
       </c>
       <c r="D321" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E321" s="15" t="n">
-        <v>7.12</v>
+        <v>6.95</v>
       </c>
       <c r="F321" s="7" t="n">
-        <v>810</v>
+        <v>886</v>
       </c>
       <c r="G321" s="7" t="inlineStr">
         <is>
@@ -14509,7 +14511,7 @@
         </is>
       </c>
       <c r="H321" s="16" t="n">
-        <v>20.01</v>
+        <v>9.02</v>
       </c>
       <c r="J321" s="5" t="n"/>
       <c r="L321" s="14" t="inlineStr">
@@ -14519,17 +14521,17 @@
       </c>
       <c r="M321" s="7" t="inlineStr">
         <is>
-          <t>Håvard Bentdal Ingvaldsen</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N321" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O321" s="15" t="n">
-        <v>6.95</v>
+        <v>7.12</v>
       </c>
       <c r="P321" s="7" t="n">
-        <v>886</v>
+        <v>810</v>
       </c>
       <c r="Q321" s="7" t="inlineStr">
         <is>
@@ -14537,7 +14539,7 @@
         </is>
       </c>
       <c r="R321" s="16" t="n">
-        <v>9.02</v>
+        <v>20.01</v>
       </c>
       <c r="T321" s="5" t="n"/>
     </row>
@@ -14549,17 +14551,17 @@
       </c>
       <c r="C322" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Sondre Matias Rudi</t>
         </is>
       </c>
       <c r="D322" s="7" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E322" s="15" t="n">
-        <v>10.39</v>
+        <v>10.97</v>
       </c>
       <c r="F322" s="7" t="n">
-        <v>1009</v>
+        <v>849</v>
       </c>
       <c r="G322" s="7" t="inlineStr">
         <is>
@@ -14567,7 +14569,7 @@
         </is>
       </c>
       <c r="H322" s="16" t="n">
-        <v>18.07</v>
+        <v>18.06</v>
       </c>
       <c r="J322" s="5" t="n"/>
       <c r="L322" s="14" t="inlineStr">
@@ -14577,17 +14579,17 @@
       </c>
       <c r="M322" s="7" t="inlineStr">
         <is>
-          <t>Sondre Matias Rudi</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="N322" s="7" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="O322" s="15" t="n">
-        <v>10.97</v>
+        <v>10.39</v>
       </c>
       <c r="P322" s="7" t="n">
-        <v>849</v>
+        <v>1009</v>
       </c>
       <c r="Q322" s="7" t="inlineStr">
         <is>
@@ -14595,7 +14597,7 @@
         </is>
       </c>
       <c r="R322" s="16" t="n">
-        <v>18.06</v>
+        <v>18.07</v>
       </c>
       <c r="T322" s="5" t="n"/>
     </row>
@@ -14607,25 +14609,25 @@
       </c>
       <c r="C323" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Håvard Bentdal Ingvaldsen</t>
         </is>
       </c>
       <c r="D323" s="7" t="n">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="E323" s="15" t="n">
-        <v>21.45</v>
+        <v>21.07</v>
       </c>
       <c r="F323" s="7" t="n">
-        <v>927</v>
+        <v>976</v>
       </c>
       <c r="G323" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H323" s="16" t="n">
-        <v>2.06</v>
+        <v>21.06</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="14" t="inlineStr">
@@ -14635,25 +14637,25 @@
       </c>
       <c r="M323" s="7" t="inlineStr">
         <is>
-          <t>Håvard Bentdal Ingvaldsen</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="N323" s="7" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="O323" s="15" t="n">
-        <v>21.07</v>
+        <v>21.45</v>
       </c>
       <c r="P323" s="7" t="n">
-        <v>976</v>
+        <v>927</v>
       </c>
       <c r="Q323" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R323" s="16" t="n">
-        <v>21.06</v>
+        <v>2.06</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -14665,25 +14667,25 @@
       </c>
       <c r="C324" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Håvard Bentdal Ingvaldsen</t>
         </is>
       </c>
       <c r="D324" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E324" s="15" t="n">
-        <v>49.42</v>
+        <v>45.22</v>
       </c>
       <c r="F324" s="7" t="n">
-        <v>814</v>
+        <v>1062</v>
       </c>
       <c r="G324" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H324" s="16" t="n">
-        <v>27.06</v>
+        <v>18.07</v>
       </c>
       <c r="J324" s="5" t="n"/>
       <c r="L324" s="14" t="inlineStr">
@@ -14693,25 +14695,25 @@
       </c>
       <c r="M324" s="7" t="inlineStr">
         <is>
-          <t>Håvard Bentdal Ingvaldsen</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N324" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O324" s="15" t="n">
-        <v>45.22</v>
+        <v>49.42</v>
       </c>
       <c r="P324" s="7" t="n">
-        <v>1062</v>
+        <v>814</v>
       </c>
       <c r="Q324" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R324" s="16" t="n">
-        <v>18.07</v>
+        <v>27.06</v>
       </c>
       <c r="T324" s="5" t="n"/>
     </row>
@@ -14723,27 +14725,27 @@
       </c>
       <c r="C325" s="7" t="inlineStr">
         <is>
-          <t>Dennis Bergstrøm-Bendixen</t>
+          <t>Tesfay Brhane</t>
         </is>
       </c>
       <c r="D325" s="7" t="n">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E325" s="17" t="inlineStr">
         <is>
-          <t>2,02,00</t>
+          <t>2,00,16</t>
         </is>
       </c>
       <c r="F325" s="7" t="n">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="G325" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H325" s="16" t="n">
-        <v>16.07</v>
+        <v>18.02</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="14" t="inlineStr">
@@ -14753,27 +14755,27 @@
       </c>
       <c r="M325" s="7" t="inlineStr">
         <is>
-          <t>Tesfay Brhane</t>
+          <t>Dennis Bergstrøm-Bendixen</t>
         </is>
       </c>
       <c r="N325" s="7" t="n">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="O325" s="17" t="inlineStr">
         <is>
-          <t>2,00,16</t>
+          <t>2,02,00</t>
         </is>
       </c>
       <c r="P325" s="7" t="n">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="Q325" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R325" s="16" t="n">
-        <v>18.02</v>
+        <v>16.07</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -14785,27 +14787,27 @@
       </c>
       <c r="C326" s="7" t="inlineStr">
         <is>
-          <t>Dennis Bergstrøm-Bendixen</t>
+          <t>Tesfay Brhane</t>
         </is>
       </c>
       <c r="D326" s="7" t="n">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E326" s="17" t="inlineStr">
         <is>
-          <t>4,07,72</t>
+          <t>4,12,64</t>
         </is>
       </c>
       <c r="F326" s="7" t="n">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="G326" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H326" s="16" t="n">
-        <v>6.06</v>
+        <v>21.06</v>
       </c>
       <c r="J326" s="5" t="n"/>
       <c r="L326" s="14" t="inlineStr">
@@ -14815,27 +14817,27 @@
       </c>
       <c r="M326" s="7" t="inlineStr">
         <is>
-          <t>Tesfay Brhane</t>
+          <t>Dennis Bergstrøm-Bendixen</t>
         </is>
       </c>
       <c r="N326" s="7" t="n">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="O326" s="17" t="inlineStr">
         <is>
-          <t>4,12,64</t>
+          <t>4,07,72</t>
         </is>
       </c>
       <c r="P326" s="7" t="n">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="Q326" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R326" s="16" t="n">
-        <v>21.06</v>
+        <v>6.06</v>
       </c>
       <c r="T326" s="5" t="n"/>
     </row>
@@ -14847,27 +14849,27 @@
       </c>
       <c r="C327" s="7" t="inlineStr">
         <is>
-          <t>Stian Flo</t>
+          <t>Tesfay Brhane</t>
         </is>
       </c>
       <c r="D327" s="7" t="n">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="E327" s="17" t="inlineStr">
         <is>
-          <t>8,59,28</t>
+          <t>9,19,04</t>
         </is>
       </c>
       <c r="F327" s="7" t="n">
-        <v>691</v>
+        <v>619</v>
       </c>
       <c r="G327" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H327" s="16" t="n">
-        <v>12.05</v>
+        <v>22.06</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="14" t="inlineStr">
@@ -14877,145 +14879,145 @@
       </c>
       <c r="M327" s="7" t="inlineStr">
         <is>
-          <t>Tesfay Brhane</t>
+          <t>Stian Flo</t>
         </is>
       </c>
       <c r="N327" s="7" t="n">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="O327" s="17" t="inlineStr">
         <is>
-          <t>9,19,04</t>
+          <t>8,59,28</t>
         </is>
       </c>
       <c r="P327" s="7" t="n">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="Q327" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R327" s="16" t="n">
-        <v>22.06</v>
+        <v>12.05</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>
     <row r="328" ht="13" customHeight="1">
       <c r="B328" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>Stian Flo</t>
+          <t>Andreas Grimerud</t>
         </is>
       </c>
       <c r="D328" s="7" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E328" s="17" t="inlineStr">
-        <is>
-          <t>15,51,8</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E328" s="15" t="n">
+        <v>51.59</v>
       </c>
       <c r="F328" s="7" t="n">
-        <v>662</v>
+        <v>920</v>
       </c>
       <c r="G328" s="7" t="inlineStr">
         <is>
-          <t>Fevik</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H328" s="16" t="n">
-        <v>5.05</v>
+        <v>29.07</v>
       </c>
       <c r="J328" s="5" t="n"/>
       <c r="L328" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M328" s="7" t="inlineStr">
         <is>
-          <t>Marius Kalseth</t>
+          <t>Stian Flo</t>
         </is>
       </c>
       <c r="N328" s="7" t="n">
-        <v>1980</v>
-      </c>
-      <c r="O328" s="15" t="n">
-        <v>2.8</v>
+        <v>1985</v>
+      </c>
+      <c r="O328" s="17" t="inlineStr">
+        <is>
+          <t>15,51,8</t>
+        </is>
       </c>
       <c r="P328" s="7" t="n">
-        <v>447</v>
+        <v>662</v>
       </c>
       <c r="Q328" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Fevik</t>
         </is>
       </c>
       <c r="R328" s="16" t="n">
-        <v>27.01</v>
+        <v>5.05</v>
       </c>
       <c r="T328" s="5" t="n"/>
     </row>
     <row r="329" ht="13" customHeight="1">
       <c r="B329" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C329" s="7" t="inlineStr">
         <is>
-          <t>Vetle Pedersen Jamvold</t>
+          <t>Marius Kalseth</t>
         </is>
       </c>
       <c r="D329" s="7" t="n">
-        <v>2011</v>
+        <v>1980</v>
       </c>
       <c r="E329" s="15" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="F329" s="7" t="n">
-        <v>233</v>
+        <v>447</v>
       </c>
       <c r="G329" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H329" s="16" t="n">
-        <v>24.05</v>
+        <v>27.01</v>
       </c>
       <c r="J329" s="5" t="n"/>
       <c r="L329" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M329" s="7" t="inlineStr">
         <is>
-          <t>Dag Eivind Kåshagen</t>
+          <t>Vetle Pedersen Jamvold</t>
         </is>
       </c>
       <c r="N329" s="7" t="n">
-        <v>1960</v>
+        <v>2011</v>
       </c>
       <c r="O329" s="15" t="n">
-        <v>4.17</v>
+        <v>1.4</v>
       </c>
       <c r="P329" s="7" t="n">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="Q329" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R329" s="16" t="n">
-        <v>21.06</v>
+        <v>24.05</v>
       </c>
       <c r="T329" s="5" t="n"/>
     </row>
@@ -15027,206 +15029,226 @@
       </c>
       <c r="C330" s="7" t="inlineStr">
         <is>
-          <t>Johan Magnus Bjørgan</t>
+          <t>Dag Eivind Kåshagen</t>
         </is>
       </c>
       <c r="D330" s="7" t="n">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="E330" s="15" t="n">
-        <v>6.15</v>
+        <v>4.17</v>
       </c>
       <c r="F330" s="7" t="n">
-        <v>640</v>
+        <v>163</v>
       </c>
       <c r="G330" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H330" s="16" t="n">
-        <v>12.05</v>
+        <v>21.06</v>
       </c>
       <c r="J330" s="5" t="n"/>
       <c r="L330" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M330" s="7" t="inlineStr">
         <is>
-          <t>Magnus Bentdal Ingvaldsen</t>
+          <t>Johan Magnus Bjørgan</t>
         </is>
       </c>
       <c r="N330" s="7" t="n">
         <v>2000</v>
       </c>
       <c r="O330" s="15" t="n">
-        <v>2.79</v>
+        <v>6.15</v>
       </c>
       <c r="P330" s="7" t="n">
-        <v>555</v>
+        <v>640</v>
       </c>
       <c r="Q330" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R330" s="16" t="n">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="T330" s="5" t="n"/>
     </row>
     <row r="331" ht="13" customHeight="1">
       <c r="B331" s="14" t="inlineStr">
         <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C331" s="7" t="inlineStr">
+        <is>
+          <t>Magnus Bentdal Ingvaldsen</t>
+        </is>
+      </c>
+      <c r="D331" s="7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E331" s="15" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F331" s="7" t="n">
+        <v>555</v>
+      </c>
+      <c r="G331" s="7" t="inlineStr">
+        <is>
+          <t>Moelv</t>
+        </is>
+      </c>
+      <c r="H331" s="16" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="J331" s="5" t="n"/>
+      <c r="L331" s="14" t="inlineStr">
+        <is>
           <t>Høyde u.t</t>
         </is>
       </c>
-      <c r="C331" s="7" t="inlineStr">
+      <c r="M331" s="7" t="inlineStr">
         <is>
           <t>Jonathan Askeland</t>
         </is>
       </c>
-      <c r="D331" s="7" t="n">
+      <c r="N331" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E331" s="15" t="n">
+      <c r="O331" s="15" t="n">
         <v>1.64</v>
       </c>
-      <c r="F331" s="7" t="n">
+      <c r="P331" s="7" t="n">
         <v>826</v>
       </c>
-      <c r="G331" s="7" t="inlineStr">
+      <c r="Q331" s="7" t="inlineStr">
         <is>
           <t>Steinkjer</t>
         </is>
       </c>
-      <c r="H331" s="16" t="n">
+      <c r="R331" s="16" t="n">
         <v>18.02</v>
       </c>
-      <c r="J331" s="5" t="n"/>
-      <c r="L331" s="14" t="n"/>
-      <c r="M331" s="7" t="n"/>
-      <c r="N331" s="7" t="n"/>
-      <c r="O331" s="7" t="n"/>
-      <c r="P331" s="7" t="n"/>
-      <c r="Q331" s="7" t="n"/>
-      <c r="R331" s="21" t="n"/>
       <c r="T331" s="5" t="n"/>
     </row>
     <row r="332" ht="13" customHeight="1">
-      <c r="B332" s="14" t="inlineStr">
+      <c r="B332" s="14" t="n"/>
+      <c r="C332" s="7" t="n"/>
+      <c r="D332" s="7" t="n"/>
+      <c r="E332" s="7" t="n"/>
+      <c r="F332" s="7" t="n"/>
+      <c r="G332" s="7" t="n"/>
+      <c r="H332" s="21" t="n"/>
+      <c r="J332" s="5" t="n"/>
+      <c r="L332" s="14" t="inlineStr">
         <is>
           <t>Lengde u.t</t>
         </is>
       </c>
-      <c r="C332" s="7" t="inlineStr">
+      <c r="M332" s="7" t="inlineStr">
         <is>
           <t>Jonathan Askeland</t>
         </is>
       </c>
-      <c r="D332" s="7" t="n">
+      <c r="N332" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E332" s="15" t="n">
+      <c r="O332" s="15" t="n">
         <v>3.04</v>
       </c>
-      <c r="F332" s="7" t="n">
+      <c r="P332" s="7" t="n">
         <v>694</v>
       </c>
-      <c r="G332" s="7" t="inlineStr">
+      <c r="Q332" s="7" t="inlineStr">
         <is>
           <t>Steinkjer</t>
         </is>
       </c>
-      <c r="H332" s="16" t="n">
+      <c r="R332" s="16" t="n">
         <v>17.02</v>
       </c>
-      <c r="J332" s="5" t="n"/>
-      <c r="L332" s="14" t="n"/>
-      <c r="M332" s="7" t="n"/>
-      <c r="N332" s="7" t="n"/>
-      <c r="O332" s="7" t="n"/>
-      <c r="P332" s="7" t="n"/>
-      <c r="Q332" s="7" t="n"/>
-      <c r="R332" s="21" t="n"/>
       <c r="T332" s="5" t="n"/>
     </row>
     <row r="333" ht="13" customHeight="1">
-      <c r="B333" s="14" t="inlineStr">
+      <c r="B333" s="14" t="n"/>
+      <c r="C333" s="7" t="n"/>
+      <c r="D333" s="7" t="n"/>
+      <c r="E333" s="7" t="n"/>
+      <c r="F333" s="7" t="n"/>
+      <c r="G333" s="7" t="n"/>
+      <c r="H333" s="21" t="n"/>
+      <c r="J333" s="5" t="n"/>
+      <c r="L333" s="14" t="inlineStr">
         <is>
           <t>Kule</t>
         </is>
       </c>
-      <c r="C333" s="7" t="inlineStr">
+      <c r="M333" s="7" t="inlineStr">
         <is>
           <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
-      <c r="D333" s="7" t="n">
+      <c r="N333" s="7" t="n">
         <v>1999</v>
       </c>
-      <c r="E333" s="15" t="n">
+      <c r="O333" s="15" t="n">
         <v>9.76</v>
       </c>
-      <c r="F333" s="7" t="n">
+      <c r="P333" s="7" t="n">
         <v>431</v>
       </c>
-      <c r="G333" s="7" t="inlineStr">
+      <c r="Q333" s="7" t="inlineStr">
         <is>
           <t>Grimstad</t>
         </is>
       </c>
-      <c r="H333" s="16" t="n">
+      <c r="R333" s="16" t="n">
         <v>12.05</v>
       </c>
-      <c r="J333" s="5" t="n"/>
-      <c r="L333" s="14" t="n"/>
-      <c r="M333" s="7" t="n"/>
-      <c r="N333" s="7" t="n"/>
-      <c r="O333" s="7" t="n"/>
-      <c r="P333" s="7" t="n"/>
-      <c r="Q333" s="7" t="n"/>
-      <c r="R333" s="21" t="n"/>
       <c r="T333" s="5" t="n"/>
     </row>
     <row r="334" ht="13" customHeight="1">
-      <c r="B334" s="14" t="inlineStr">
+      <c r="B334" s="14" t="n"/>
+      <c r="C334" s="7" t="n"/>
+      <c r="D334" s="7" t="n"/>
+      <c r="E334" s="7" t="n"/>
+      <c r="F334" s="7" t="n"/>
+      <c r="G334" s="7" t="n"/>
+      <c r="H334" s="21" t="n"/>
+      <c r="J334" s="5" t="n"/>
+      <c r="L334" s="14" t="inlineStr">
         <is>
           <t>Spyd</t>
         </is>
       </c>
-      <c r="C334" s="7" t="inlineStr">
+      <c r="M334" s="7" t="inlineStr">
         <is>
           <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
-      <c r="D334" s="7" t="n">
+      <c r="N334" s="7" t="n">
         <v>1999</v>
       </c>
-      <c r="E334" s="15" t="n">
+      <c r="O334" s="15" t="n">
         <v>33.23</v>
       </c>
-      <c r="F334" s="7" t="n">
+      <c r="P334" s="7" t="n">
         <v>383</v>
       </c>
-      <c r="G334" s="7" t="inlineStr">
+      <c r="Q334" s="7" t="inlineStr">
         <is>
           <t>Larvik</t>
         </is>
       </c>
-      <c r="H334" s="16" t="n">
+      <c r="R334" s="16" t="n">
         <v>15.05</v>
       </c>
-      <c r="J334" s="5" t="n"/>
-      <c r="L334" s="14" t="n"/>
-      <c r="M334" s="7" t="n"/>
-      <c r="N334" s="7" t="n"/>
-      <c r="O334" s="7" t="n"/>
-      <c r="P334" s="7" t="n"/>
-      <c r="Q334" s="7" t="n"/>
-      <c r="R334" s="21" t="n"/>
       <c r="T334" s="5" t="n"/>
     </row>
     <row r="335" ht="13" customHeight="1">
@@ -15272,7 +15294,7 @@
         </is>
       </c>
       <c r="C337" s="20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E337" s="19" t="inlineStr">
         <is>
@@ -15280,7 +15302,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>9459</v>
+        <v>7811</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -15289,7 +15311,7 @@
         </is>
       </c>
       <c r="M337" s="20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O337" s="19" t="inlineStr">
         <is>
@@ -15297,7 +15319,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>6891</v>
+        <v>9459</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -15400,116 +15422,116 @@
     <row r="342" ht="13" customHeight="1">
       <c r="B342" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Andreas Grimerud</t>
         </is>
       </c>
       <c r="D342" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E342" s="15" t="n">
-        <v>22.08</v>
+        <v>45.9</v>
       </c>
       <c r="F342" s="7" t="n">
-        <v>851</v>
+        <v>1018</v>
       </c>
       <c r="G342" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H342" s="16" t="n">
-        <v>2.06</v>
+        <v>18.05</v>
       </c>
       <c r="J342" s="5" t="n"/>
       <c r="L342" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M342" s="7" t="inlineStr">
         <is>
-          <t>Andreas Grimerud</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N342" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O342" s="15" t="n">
-        <v>45.9</v>
+        <v>22.08</v>
       </c>
       <c r="P342" s="7" t="n">
-        <v>1018</v>
+        <v>851</v>
       </c>
       <c r="Q342" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R342" s="16" t="n">
-        <v>18.05</v>
+        <v>2.06</v>
       </c>
       <c r="T342" s="5" t="n"/>
     </row>
     <row r="343" ht="13" customHeight="1">
       <c r="B343" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Andreas Grimerud</t>
         </is>
       </c>
       <c r="D343" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E343" s="15" t="n">
-        <v>11.03</v>
+        <v>21.2</v>
       </c>
       <c r="F343" s="7" t="n">
-        <v>834</v>
+        <v>959</v>
       </c>
       <c r="G343" s="7" t="inlineStr">
         <is>
-          <t>Skara/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H343" s="16" t="n">
-        <v>6.06</v>
+        <v>30.05</v>
       </c>
       <c r="J343" s="5" t="n"/>
       <c r="L343" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M343" s="7" t="inlineStr">
         <is>
-          <t>Andreas Grimerud</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N343" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O343" s="15" t="n">
-        <v>21.2</v>
+        <v>11.03</v>
       </c>
       <c r="P343" s="7" t="n">
-        <v>959</v>
+        <v>834</v>
       </c>
       <c r="Q343" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Skara/SWE</t>
         </is>
       </c>
       <c r="R343" s="16" t="n">
-        <v>30.05</v>
+        <v>6.06</v>
       </c>
       <c r="T343" s="5" t="n"/>
     </row>
@@ -15521,25 +15543,25 @@
       </c>
       <c r="C344" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Alexander Løvik Nyheim</t>
         </is>
       </c>
       <c r="D344" s="7" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="E344" s="15" t="n">
-        <v>22.28</v>
+        <v>21.98</v>
       </c>
       <c r="F344" s="7" t="n">
-        <v>828</v>
+        <v>863</v>
       </c>
       <c r="G344" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H344" s="16" t="n">
-        <v>20.01</v>
+        <v>21.06</v>
       </c>
       <c r="J344" s="5" t="n"/>
       <c r="L344" s="14" t="inlineStr">
@@ -15549,373 +15571,373 @@
       </c>
       <c r="M344" s="7" t="inlineStr">
         <is>
-          <t>Alexander Løvik Nyheim</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N344" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O344" s="15" t="n">
-        <v>21.98</v>
+        <v>22.28</v>
       </c>
       <c r="P344" s="7" t="n">
-        <v>863</v>
+        <v>828</v>
       </c>
       <c r="Q344" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R344" s="16" t="n">
-        <v>21.06</v>
+        <v>20.01</v>
       </c>
       <c r="T344" s="5" t="n"/>
     </row>
     <row r="345" ht="13" customHeight="1">
       <c r="B345" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Sjur Grung Thallaug</t>
         </is>
       </c>
       <c r="D345" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E345" s="15" t="n">
-        <v>49.84</v>
+        <v>22.1</v>
       </c>
       <c r="F345" s="7" t="n">
-        <v>792</v>
+        <v>849</v>
       </c>
       <c r="G345" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H345" s="16" t="n">
-        <v>14.01</v>
+        <v>26.05</v>
       </c>
       <c r="J345" s="5" t="n"/>
       <c r="L345" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M345" s="7" t="inlineStr">
         <is>
-          <t>Sjur Grung Thallaug</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N345" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O345" s="15" t="n">
-        <v>22.1</v>
+        <v>49.84</v>
       </c>
       <c r="P345" s="7" t="n">
-        <v>849</v>
+        <v>792</v>
       </c>
       <c r="Q345" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R345" s="16" t="n">
-        <v>26.05</v>
+        <v>14.01</v>
       </c>
       <c r="T345" s="5" t="n"/>
     </row>
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Fredrik Sveen Schonhowd</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E346" s="15" t="n">
-        <v>11.25</v>
+        <v>7.09</v>
       </c>
       <c r="F346" s="7" t="n">
-        <v>779</v>
+        <v>823</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>1.06</v>
+        <v>17.02</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M346" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sveen Schonhowd</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N346" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O346" s="15" t="n">
-        <v>7.09</v>
+        <v>11.25</v>
       </c>
       <c r="P346" s="7" t="n">
-        <v>823</v>
+        <v>779</v>
       </c>
       <c r="Q346" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R346" s="16" t="n">
-        <v>17.02</v>
+        <v>1.06</v>
       </c>
       <c r="T346" s="5" t="n"/>
     </row>
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Sjur Grung Thallaug</t>
         </is>
       </c>
       <c r="D347" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>11.38</v>
+        <v>49.29</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>748</v>
+        <v>821</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>15.05</v>
+        <v>21.05</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M347" s="7" t="inlineStr">
         <is>
-          <t>Sjur Grung Thallaug</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="N347" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="O347" s="15" t="n">
-        <v>49.29</v>
+        <v>11.38</v>
       </c>
       <c r="P347" s="7" t="n">
-        <v>821</v>
+        <v>748</v>
       </c>
       <c r="Q347" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R347" s="16" t="n">
-        <v>21.05</v>
+        <v>15.05</v>
       </c>
       <c r="T347" s="5" t="n"/>
     </row>
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Sondre Matias Rudi</t>
         </is>
       </c>
       <c r="D348" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>7.29</v>
+        <v>22.38</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>740</v>
+        <v>817</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>20.01</v>
+        <v>21.06</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M348" s="7" t="inlineStr">
         <is>
-          <t>Sondre Matias Rudi</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="N348" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O348" s="15" t="n">
-        <v>22.38</v>
+        <v>7.29</v>
       </c>
       <c r="P348" s="7" t="n">
-        <v>817</v>
+        <v>740</v>
       </c>
       <c r="Q348" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R348" s="16" t="n">
-        <v>21.06</v>
+        <v>20.01</v>
       </c>
       <c r="T348" s="5" t="n"/>
     </row>
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Alexander Løvik Nyheim</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="E349" s="15" t="n">
-        <v>7.32</v>
+        <v>49.53</v>
       </c>
       <c r="F349" s="7" t="n">
-        <v>728</v>
+        <v>808</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>20.01</v>
+        <v>5.05</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M349" s="7" t="inlineStr">
         <is>
-          <t>Alexander Løvik Nyheim</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="N349" s="7" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="O349" s="15" t="n">
-        <v>49.53</v>
+        <v>7.32</v>
       </c>
       <c r="P349" s="7" t="n">
-        <v>808</v>
+        <v>728</v>
       </c>
       <c r="Q349" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R349" s="16" t="n">
-        <v>5.05</v>
+        <v>20.01</v>
       </c>
       <c r="T349" s="5" t="n"/>
     </row>
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Fredrik Sveen Schonhowd</t>
         </is>
       </c>
       <c r="D350" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="E350" s="15" t="n">
-        <v>23.49</v>
+        <v>11.21</v>
       </c>
       <c r="F350" s="7" t="n">
-        <v>698</v>
+        <v>789</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H350" s="16" t="n">
-        <v>20.01</v>
+        <v>21.05</v>
       </c>
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M350" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sveen Schonhowd</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="N350" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="O350" s="15" t="n">
-        <v>11.21</v>
+        <v>23.49</v>
       </c>
       <c r="P350" s="7" t="n">
-        <v>789</v>
+        <v>698</v>
       </c>
       <c r="Q350" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R350" s="16" t="n">
-        <v>21.05</v>
+        <v>20.01</v>
       </c>
       <c r="T350" s="5" t="n"/>
     </row>
@@ -15927,25 +15949,25 @@
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Anders Kvesetberget</t>
         </is>
       </c>
       <c r="D351" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E351" s="15" t="n">
-        <v>23.5</v>
+        <v>22.69</v>
       </c>
       <c r="F351" s="7" t="n">
-        <v>697</v>
+        <v>782</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>20.01</v>
+        <v>26.05</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
@@ -15955,218 +15977,218 @@
       </c>
       <c r="M351" s="7" t="inlineStr">
         <is>
-          <t>Anders Kvesetberget</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="N351" s="7" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="O351" s="15" t="n">
-        <v>22.69</v>
+        <v>23.5</v>
       </c>
       <c r="P351" s="7" t="n">
-        <v>782</v>
+        <v>697</v>
       </c>
       <c r="Q351" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R351" s="16" t="n">
-        <v>26.05</v>
+        <v>20.01</v>
       </c>
       <c r="T351" s="5" t="n"/>
     </row>
     <row r="352" ht="13" customHeight="1">
       <c r="B352" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>Brage Henriksen</t>
+          <t>Sjur Grung Thallaug</t>
         </is>
       </c>
       <c r="D352" s="7" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E352" s="15" t="n">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>96</v>
+        <v>532</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>21.01</v>
+        <v>12.04</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M352" s="7" t="inlineStr">
         <is>
-          <t>Sjur Grung Thallaug</t>
+          <t>Brage Henriksen</t>
         </is>
       </c>
       <c r="N352" s="7" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="O352" s="15" t="n">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="P352" s="7" t="n">
-        <v>532</v>
+        <v>96</v>
       </c>
       <c r="Q352" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R352" s="16" t="n">
-        <v>12.04</v>
+        <v>21.01</v>
       </c>
       <c r="T352" s="5" t="n"/>
     </row>
     <row r="353" ht="13" customHeight="1">
       <c r="B353" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Adam Torp Kvasjord</t>
+          <t>Elias Tveitane Furuseth</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E353" s="15" t="n">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="F353" s="7" t="n">
-        <v>19</v>
+        <v>503</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H353" s="16" t="n">
-        <v>24.05</v>
+        <v>18.02</v>
       </c>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
         <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M353" s="7" t="inlineStr">
+        <is>
+          <t>Adam Torp Kvasjord</t>
+        </is>
+      </c>
+      <c r="N353" s="7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O353" s="15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P353" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q353" s="7" t="inlineStr">
+        <is>
+          <t>Kristiansand</t>
+        </is>
+      </c>
+      <c r="R353" s="16" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="T353" s="5" t="n"/>
+    </row>
+    <row r="354" ht="13" customHeight="1">
+      <c r="B354" s="14" t="inlineStr">
+        <is>
           <t>Lengde u.t</t>
         </is>
       </c>
-      <c r="M353" s="7" t="inlineStr">
-        <is>
-          <t>Elias Tveitane Furuseth</t>
-        </is>
-      </c>
-      <c r="N353" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O353" s="15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P353" s="7" t="n">
-        <v>503</v>
-      </c>
-      <c r="Q353" s="7" t="inlineStr">
-        <is>
-          <t>Steinkjer</t>
-        </is>
-      </c>
-      <c r="R353" s="16" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="T353" s="5" t="n"/>
-    </row>
-    <row r="354" ht="13" customHeight="1">
-      <c r="B354" s="14" t="n"/>
-      <c r="C354" s="7" t="n"/>
-      <c r="D354" s="7" t="n"/>
-      <c r="E354" s="7" t="n"/>
-      <c r="F354" s="7" t="n"/>
-      <c r="G354" s="7" t="n"/>
-      <c r="H354" s="21" t="n"/>
+      <c r="C354" s="7" t="inlineStr">
+        <is>
+          <t>Sondre Matias Rudi</t>
+        </is>
+      </c>
+      <c r="D354" s="7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E354" s="15" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F354" s="7" t="n">
+        <v>398</v>
+      </c>
+      <c r="G354" s="7" t="inlineStr">
+        <is>
+          <t>Moelv</t>
+        </is>
+      </c>
+      <c r="H354" s="16" t="n">
+        <v>12.04</v>
+      </c>
       <c r="J354" s="5" t="n"/>
-      <c r="L354" s="14" t="inlineStr">
+      <c r="L354" s="14" t="n"/>
+      <c r="M354" s="7" t="n"/>
+      <c r="N354" s="7" t="n"/>
+      <c r="O354" s="7" t="n"/>
+      <c r="P354" s="7" t="n"/>
+      <c r="Q354" s="7" t="n"/>
+      <c r="R354" s="21" t="n"/>
+      <c r="T354" s="5" t="n"/>
+    </row>
+    <row r="355" ht="13" customHeight="1">
+      <c r="B355" s="14" t="inlineStr">
         <is>
           <t>Lengde u.t</t>
         </is>
       </c>
-      <c r="M354" s="7" t="inlineStr">
-        <is>
-          <t>Sondre Matias Rudi</t>
-        </is>
-      </c>
-      <c r="N354" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O354" s="15" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="P354" s="7" t="n">
-        <v>398</v>
-      </c>
-      <c r="Q354" s="7" t="inlineStr">
+      <c r="C355" s="7" t="inlineStr">
+        <is>
+          <t>Dag Eivind Kåshagen</t>
+        </is>
+      </c>
+      <c r="D355" s="7" t="n">
+        <v>1960</v>
+      </c>
+      <c r="E355" s="15" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F355" s="7" t="n">
+        <v>316</v>
+      </c>
+      <c r="G355" s="7" t="inlineStr">
         <is>
           <t>Moelv</t>
         </is>
       </c>
-      <c r="R354" s="16" t="n">
+      <c r="H355" s="16" t="n">
         <v>12.04</v>
       </c>
-      <c r="T354" s="5" t="n"/>
-    </row>
-    <row r="355" ht="13" customHeight="1">
-      <c r="B355" s="14" t="n"/>
-      <c r="C355" s="7" t="n"/>
-      <c r="D355" s="7" t="n"/>
-      <c r="E355" s="7" t="n"/>
-      <c r="F355" s="7" t="n"/>
-      <c r="G355" s="7" t="n"/>
-      <c r="H355" s="21" t="n"/>
       <c r="J355" s="5" t="n"/>
-      <c r="L355" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="M355" s="7" t="inlineStr">
-        <is>
-          <t>Dag Eivind Kåshagen</t>
-        </is>
-      </c>
-      <c r="N355" s="7" t="n">
-        <v>1960</v>
-      </c>
-      <c r="O355" s="15" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="P355" s="7" t="n">
-        <v>316</v>
-      </c>
-      <c r="Q355" s="7" t="inlineStr">
-        <is>
-          <t>Moelv</t>
-        </is>
-      </c>
-      <c r="R355" s="16" t="n">
-        <v>12.04</v>
-      </c>
+      <c r="L355" s="14" t="n"/>
+      <c r="M355" s="7" t="n"/>
+      <c r="N355" s="7" t="n"/>
+      <c r="O355" s="7" t="n"/>
+      <c r="P355" s="7" t="n"/>
+      <c r="Q355" s="7" t="n"/>
+      <c r="R355" s="21" t="n"/>
       <c r="T355" s="5" t="n"/>
     </row>
     <row r="356" ht="13" customHeight="1">
@@ -16212,7 +16234,7 @@
         </is>
       </c>
       <c r="C358" s="20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E358" s="19" t="inlineStr">
         <is>
@@ -16220,7 +16242,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>7810</v>
+        <v>10278</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16229,7 +16251,7 @@
         </is>
       </c>
       <c r="M358" s="20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O358" s="19" t="inlineStr">
         <is>
@@ -16237,7 +16259,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>10278</v>
+        <v>7810</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -16252,7 +16274,7 @@
         </is>
       </c>
       <c r="C360" s="20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E360" s="19" t="inlineStr">
         <is>
@@ -16260,7 +16282,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17269</v>
+        <v>18089</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16269,7 +16291,7 @@
         </is>
       </c>
       <c r="M360" s="20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O360" s="19" t="inlineStr">
         <is>
@@ -16277,7 +16299,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>17169</v>
+        <v>17269</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -16292,7 +16314,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -16301,7 +16323,7 @@
         </is>
       </c>
       <c r="M362" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T362" s="5" t="n"/>
     </row>
@@ -16501,7 +16523,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17239</v>
+        <v>17241</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -16557,7 +16579,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>16776</v>
+        <v>16815</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -16585,7 +16607,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>16279</v>
+        <v>16392</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -16613,7 +16635,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>16170</v>
+        <v>16172</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -19913,18 +19935,18 @@
         <v>2005</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>7.41</v>
+        <v>7.42</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Mannheim/GER</t>
+          <t>Arvika/SWE</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>23.06</v>
+        <v>27.07</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -20616,7 +20638,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>8331</v>
+        <v>8333</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -20656,7 +20678,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17239</v>
+        <v>17241</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -21043,18 +21065,18 @@
         <v>2006</v>
       </c>
       <c r="O105" s="15" t="n">
-        <v>23.18</v>
+        <v>22.81</v>
       </c>
       <c r="P105" s="7" t="n">
-        <v>730</v>
+        <v>769</v>
       </c>
       <c r="Q105" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R105" s="16" t="n">
-        <v>26.05</v>
+        <v>28.07</v>
       </c>
       <c r="T105" s="5" t="n"/>
     </row>
@@ -21708,7 +21730,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>9470</v>
+        <v>9509</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -22606,7 +22628,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>16776</v>
+        <v>16815</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -22935,18 +22957,18 @@
         <v>2004</v>
       </c>
       <c r="O151" s="15" t="n">
-        <v>11.39</v>
+        <v>11.38</v>
       </c>
       <c r="P151" s="7" t="n">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Q151" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R151" s="16" t="n">
-        <v>24.07</v>
+        <v>28.07</v>
       </c>
       <c r="T151" s="5" t="n"/>
     </row>
@@ -23565,18 +23587,18 @@
         <v>2002</v>
       </c>
       <c r="E162" s="15" t="n">
-        <v>48.75</v>
+        <v>50.32</v>
       </c>
       <c r="F162" s="7" t="n">
-        <v>837</v>
+        <v>863</v>
       </c>
       <c r="G162" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="H162" s="16" t="n">
-        <v>12.05</v>
+        <v>27.07</v>
       </c>
       <c r="J162" s="5" t="n"/>
       <c r="L162" s="14" t="inlineStr">
@@ -23641,7 +23663,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>9025</v>
+        <v>9051</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -23658,7 +23680,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8648</v>
+        <v>8650</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -23761,32 +23783,30 @@
     <row r="169" ht="13" customHeight="1">
       <c r="B169" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lillebø</t>
+          <t>Elias Bergheim</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E169" s="17" t="inlineStr">
-        <is>
-          <t>1,58,96</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E169" s="22" t="n">
+        <v>11.3</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>22.05</v>
+        <v>25.07</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -23823,30 +23843,32 @@
     <row r="170" ht="13" customHeight="1">
       <c r="B170" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Sigve Lillebø</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E170" s="15" t="n">
-        <v>23.71</v>
+        <v>2006</v>
+      </c>
+      <c r="E170" s="17" t="inlineStr">
+        <is>
+          <t>1,58,96</t>
+        </is>
       </c>
       <c r="F170" s="7" t="n">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>17.07</v>
+        <v>22.05</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -23883,32 +23905,30 @@
     <row r="171" ht="13" customHeight="1">
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Jan-Olav Gullbrå Hilleren</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E171" s="17" t="inlineStr">
-        <is>
-          <t>2,01,42</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E171" s="15" t="n">
+        <v>23.71</v>
       </c>
       <c r="F171" s="7" t="n">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>22.05</v>
+        <v>17.07</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -23943,30 +23963,32 @@
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Jan-Olav Gullbrå Hilleren</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E172" s="15" t="n">
-        <v>11.79</v>
+        <v>2008</v>
+      </c>
+      <c r="E172" s="17" t="inlineStr">
+        <is>
+          <t>2,01,42</t>
+        </is>
       </c>
       <c r="F172" s="7" t="n">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>19.05</v>
+        <v>22.05</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -24003,30 +24025,30 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Elias Bergheim</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E173" s="15" t="n">
-        <v>7.57</v>
+        <v>11.79</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Austevoll</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>9.02</v>
+        <v>19.05</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -24063,30 +24085,30 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Elias Bergheim</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>53.27</v>
+        <v>7.57</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>2.06</v>
+        <v>9.02</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -24121,32 +24143,30 @@
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Jan-Olav Gullbrå Hilleren</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E175" s="17" t="inlineStr">
-        <is>
-          <t>4,14,95</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E175" s="15" t="n">
+        <v>53.27</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>9.06</v>
+        <v>2.06</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -24183,30 +24203,32 @@
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Brede Bergheim</t>
+          <t>Jan-Olav Gullbrå Hilleren</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="E176" s="15" t="n">
-        <v>24.24</v>
+      <c r="E176" s="17" t="inlineStr">
+        <is>
+          <t>4,14,95</t>
+        </is>
       </c>
       <c r="F176" s="7" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>15.06</v>
+        <v>9.06</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -24503,7 +24525,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>7254</v>
+        <v>7341</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24543,7 +24565,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>16279</v>
+        <v>16392</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24560,7 +24582,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>16170</v>
+        <v>16172</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -30276,7 +30298,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>23997</v>
+        <v>24017</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -30388,7 +30410,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>20954</v>
+        <v>21140</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -30556,7 +30578,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17963</v>
+        <v>17976</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -33842,18 +33864,18 @@
         <v>2005</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>40.8</v>
+        <v>42.25</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>736</v>
+        <v>756</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H74" s="16" t="n">
-        <v>12.05</v>
+        <v>28.07</v>
       </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
@@ -33976,7 +33998,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12443</v>
+        <v>12463</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -35038,7 +35060,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>23997</v>
+        <v>24017</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -37888,30 +37910,32 @@
     <row r="171" ht="13" customHeight="1">
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Julie Marie Haabeth Brox</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E171" s="15" t="n">
-        <v>8.59</v>
+        <v>1988</v>
+      </c>
+      <c r="E171" s="17" t="inlineStr">
+        <is>
+          <t>10,38,33mx</t>
+        </is>
       </c>
       <c r="F171" s="7" t="n">
-        <v>864</v>
+        <v>642</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Vik</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>2.02</v>
+        <v>25.07</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -37948,30 +37972,30 @@
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="E172" s="15" t="n">
-        <v>14.28</v>
+        <v>8.59</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>25.05</v>
+        <v>2.02</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -38008,30 +38032,30 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>1993</v>
+        <v>2005</v>
       </c>
       <c r="E173" s="15" t="n">
-        <v>58.27</v>
+        <v>14.28</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>18.06</v>
+        <v>25.05</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -38066,30 +38090,30 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>1.72</v>
+        <v>58.27</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>790</v>
+        <v>899</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Reykjavik/ISL</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>15.06</v>
+        <v>18.06</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -38124,26 +38148,26 @@
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Eva M. Stefou-Lund</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>456</v>
+        <v>790</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Reykjavik/ISL</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
@@ -38444,7 +38468,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11025</v>
+        <v>11211</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -39506,7 +39530,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>20954</v>
+        <v>21140</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -45823,25 +45847,25 @@
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Nicole Bente Marie Minker</t>
+          <t>Ida Petersen Amble</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
-        <v>1969</v>
+        <v>2006</v>
       </c>
       <c r="E353" s="15" t="n">
-        <v>29.25</v>
+        <v>29.5</v>
       </c>
       <c r="F353" s="7" t="n">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="H353" s="16" t="n">
-        <v>25.05</v>
+        <v>27.07</v>
       </c>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
@@ -45876,30 +45900,30 @@
     <row r="354" ht="13" customHeight="1">
       <c r="B354" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>Ida Petersen Amble</t>
+          <t>Nicole Bente Marie Minker</t>
         </is>
       </c>
       <c r="D354" s="7" t="n">
-        <v>2006</v>
+        <v>1969</v>
       </c>
       <c r="E354" s="15" t="n">
-        <v>31.61</v>
+        <v>29.25</v>
       </c>
       <c r="F354" s="7" t="n">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="G354" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H354" s="16" t="n">
-        <v>14.04</v>
+        <v>25.05</v>
       </c>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
@@ -45934,7 +45958,7 @@
     <row r="355" ht="13" customHeight="1">
       <c r="B355" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
@@ -45946,10 +45970,10 @@
         <v>2006</v>
       </c>
       <c r="E355" s="15" t="n">
-        <v>28.7</v>
+        <v>31.61</v>
       </c>
       <c r="F355" s="7" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G355" s="7" t="inlineStr">
         <is>
@@ -45957,7 +45981,7 @@
         </is>
       </c>
       <c r="H355" s="16" t="n">
-        <v>20.04</v>
+        <v>14.04</v>
       </c>
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="inlineStr">
@@ -46080,7 +46104,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>8852</v>
+        <v>8865</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -46120,7 +46144,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17963</v>
+        <v>17976</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -46296,25 +46320,25 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/15)</t>
+          <t>(25/8)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>18305</v>
+        <v>18336</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(14/1d)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -46324,25 +46348,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/8)</t>
+          <t>(25/15)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>18189</v>
+        <v>18305</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(14/1d)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -46473,7 +46497,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15233</v>
+        <v>15247</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -46730,7 +46754,7 @@
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P2" s="8" t="n">
@@ -46757,7 +46781,7 @@
       </c>
       <c r="M3" s="7" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -46914,25 +46938,25 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Lavinia Wågen Husby</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>8.18</v>
+        <v>7.84</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>681</v>
+        <v>785</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>4.02</v>
+        <v>17.02</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -46972,25 +46996,25 @@
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Lavinia Wågen Husby</t>
+          <t>Live Haugstad Hilton</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>12.85</v>
+        <v>12.08</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>696</v>
+        <v>838</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>2.06</v>
+        <v>28.07</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -47030,25 +47054,25 @@
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstø Jensen</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>26.28</v>
+        <v>25.12</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>704</v>
+        <v>797</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Madison/SD/USA</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>23.04</v>
+        <v>9.02</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -47090,25 +47114,25 @@
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstø Jensen</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>59.97</v>
+        <v>57.19</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Mankato/MN/USA</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>1.05</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -47150,27 +47174,27 @@
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>2,13,61</t>
+          <t>2,13,43</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>4.02</v>
+        <v>15.05</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -47207,32 +47231,30 @@
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Lilli Margaret Gulbrandsen</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O14" s="17" t="inlineStr">
-        <is>
-          <t>4,17,36</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O14" s="15" t="n">
+        <v>8.960000000000001</v>
       </c>
       <c r="P14" s="7" t="n">
-        <v>885</v>
+        <v>787</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>30.05</v>
+        <v>11.02</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -47267,32 +47289,30 @@
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O15" s="17" t="inlineStr">
-        <is>
-          <t>9,08,29</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O15" s="15" t="n">
+        <v>14.62</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>908</v>
+        <v>804</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>18.02</v>
+        <v>22.06</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -47327,24 +47347,22 @@
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O16" s="17" t="inlineStr">
-        <is>
-          <t>16,38,14</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O16" s="15" t="n">
+        <v>59.69</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
@@ -47387,32 +47405,30 @@
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O17" s="17" t="inlineStr">
-        <is>
-          <t>10,03,43</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O17" s="15" t="n">
+        <v>1.47</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>897</v>
+        <v>583</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Winston-Salem/NC/USA</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>19.04</v>
+        <v>25.05</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -47447,30 +47463,30 @@
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>Kaja Kleppe Salemonsen</t>
+          <t>Live Haugstad Hilton</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>12.85</v>
+        <v>6.04</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Mankato/MN/USA</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>11.05</v>
+        <v>2.06</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -47505,30 +47521,30 @@
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Maria Døske</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>11.61</v>
+        <v>11.79</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>692</v>
+        <v>744</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>12.05</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
@@ -47563,30 +47579,30 @@
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>40.72</v>
+        <v>1.33</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>735</v>
+        <v>692</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>24.07</v>
+        <v>17.02</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -47621,30 +47637,30 @@
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Thea Dahl</t>
+          <t>Lilli Margaret Gulbrandsen</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>50.2</v>
+        <v>2.43</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>812</v>
+        <v>586</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Sydney/AUS</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>14.03</v>
+        <v>9.02</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -47698,7 +47714,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>10118</v>
+        <v>9846</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -47829,32 +47845,30 @@
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O28" s="17" t="inlineStr">
-        <is>
-          <t>9,13,62</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O28" s="15" t="n">
+        <v>9.01</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>889</v>
+        <v>777</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Boston/MA/USA</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>9.02</v>
+        <v>4.02</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -47889,32 +47903,30 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O29" s="17" t="inlineStr">
-        <is>
-          <t>4,18,75</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O29" s="15" t="n">
+        <v>25.47</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>874</v>
+        <v>768</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Lewisburg/PA/USA</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>13.04</v>
+        <v>17.02</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -47949,32 +47961,30 @@
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Linea Helgevold Fjelldalselv</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O30" s="17" t="inlineStr">
-        <is>
-          <t>4,45,55</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O30" s="15" t="n">
+        <v>12.48</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>691</v>
+        <v>763</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R30" s="16" t="n">
-        <v>14.06</v>
+        <v>27.06</v>
       </c>
       <c r="T30" s="5" t="n"/>
     </row>
@@ -48011,22 +48021,24 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O31" s="15" t="n">
-        <v>11.33</v>
+        <v>2003</v>
+      </c>
+      <c r="O31" s="17" t="inlineStr">
+        <is>
+          <t>1,03,05</t>
+        </is>
       </c>
       <c r="P31" s="7" t="n">
-        <v>677</v>
+        <v>752</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
@@ -48034,7 +48046,7 @@
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>27.06</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -48069,30 +48081,30 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Lavinia Wågen Husby</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>26.75</v>
+        <v>12.6</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>668</v>
+        <v>741</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>4.02</v>
+        <v>11.05</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -48127,32 +48139,30 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Tiril Børø Opsøen</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O33" s="17" t="inlineStr">
-        <is>
-          <t>4,51,58</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O33" s="15" t="n">
+        <v>5.52</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>14.06</v>
+        <v>10.02</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -48187,30 +48197,30 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Maren Storaas Alsaker</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>13.09</v>
+        <v>26.12</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>655</v>
+        <v>716</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>25.05</v>
+        <v>31.05</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -48247,32 +48257,30 @@
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Frøyland</t>
+          <t>Isabella Essilfie</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2012</v>
-      </c>
-      <c r="O35" s="17" t="inlineStr">
-        <is>
-          <t>4,53,87</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O35" s="15" t="n">
+        <v>8.140000000000001</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>644</v>
+        <v>692</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>14.06</v>
+        <v>10.02</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -48307,30 +48315,30 @@
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Nikol Roman Andersen</t>
+          <t>Isabella Essilfie</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>27.14</v>
+        <v>12.88</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>640</v>
+        <v>691</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>25.02</v>
+        <v>11.05</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -48370,25 +48378,25 @@
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Emilie Høyland Schou</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>4.92</v>
+        <v>5.31</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>601</v>
+        <v>686</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>24.02</v>
+        <v>10.02</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -48423,30 +48431,30 @@
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Emilie Høyland Schou</t>
+          <t>Lilli Margaret Gulbrandsen</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>2.45</v>
+        <v>4.95</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>4.02</v>
+        <v>10.02</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -48481,30 +48489,30 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Oda Luggenes By</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>1.48</v>
+        <v>4.75</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>2.06</v>
+        <v>10.02</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -48558,7 +48566,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>8187</v>
+        <v>8490</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -48598,7 +48606,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>18305</v>
+        <v>18336</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -48622,7 +48630,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -48664,7 +48672,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -48694,7 +48702,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -48834,25 +48842,25 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Lavinia Wågen Husby</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>7.84</v>
+        <v>8.18</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>785</v>
+        <v>681</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>17.02</v>
+        <v>4.02</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -48892,25 +48900,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Lavinia Wågen Husby</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>12.48</v>
+        <v>12.85</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>763</v>
+        <v>696</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>27.06</v>
+        <v>2.06</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -48950,25 +48958,25 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Anna Kolstø Jensen</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>25.12</v>
+        <v>26.28</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>797</v>
+        <v>704</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Madison/SD/USA</t>
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>9.02</v>
+        <v>23.04</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -49008,25 +49016,25 @@
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Anna Kolstø Jensen</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E59" s="15" t="n">
-        <v>57.19</v>
+        <v>59.97</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>775</v>
+        <v>680</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Mankato/MN/USA</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
@@ -49066,27 +49074,27 @@
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>2,13,43</t>
+          <t>2,13,61</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>15.05</v>
+        <v>4.02</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -49123,30 +49131,32 @@
     <row r="61" ht="13" customHeight="1">
       <c r="B61" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Lilli Margaret Gulbrandsen</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E61" s="15" t="n">
-        <v>8.960000000000001</v>
+        <v>1999</v>
+      </c>
+      <c r="E61" s="17" t="inlineStr">
+        <is>
+          <t>4,17,36</t>
+        </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>787</v>
+        <v>885</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>11.02</v>
+        <v>30.05</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -49183,30 +49193,32 @@
     <row r="62" ht="13" customHeight="1">
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E62" s="15" t="n">
-        <v>14.62</v>
+        <v>1999</v>
+      </c>
+      <c r="E62" s="17" t="inlineStr">
+        <is>
+          <t>9,08,29</t>
+        </is>
       </c>
       <c r="F62" s="7" t="n">
-        <v>804</v>
+        <v>908</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>22.06</v>
+        <v>18.02</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
@@ -49243,22 +49255,24 @@
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E63" s="15" t="n">
-        <v>59.69</v>
+        <v>1999</v>
+      </c>
+      <c r="E63" s="17" t="inlineStr">
+        <is>
+          <t>16,38,14</t>
+        </is>
       </c>
       <c r="F63" s="7" t="n">
-        <v>853</v>
+        <v>821</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
@@ -49301,30 +49315,32 @@
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E64" s="15" t="n">
-        <v>1.47</v>
+        <v>2000</v>
+      </c>
+      <c r="E64" s="17" t="inlineStr">
+        <is>
+          <t>10,03,43</t>
+        </is>
       </c>
       <c r="F64" s="7" t="n">
-        <v>583</v>
+        <v>897</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Winston-Salem/NC/USA</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>25.05</v>
+        <v>19.04</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -49359,30 +49375,30 @@
     <row r="65" ht="13" customHeight="1">
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Live Haugstad Hilton</t>
+          <t>Kaja Kleppe Salemonsen</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>6.04</v>
+        <v>12.85</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Mankato/MN/USA</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>2.06</v>
+        <v>11.05</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -49417,30 +49433,30 @@
     <row r="66" ht="13" customHeight="1">
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>11.79</v>
+        <v>11.61</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>744</v>
+        <v>692</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Byrkjelo</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>12.05</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -49475,30 +49491,30 @@
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>1.33</v>
+        <v>40.72</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>692</v>
+        <v>735</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>17.02</v>
+        <v>24.07</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -49533,30 +49549,30 @@
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Lilli Margaret Gulbrandsen</t>
+          <t>Thea Dahl</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>2.43</v>
+        <v>50.2</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>586</v>
+        <v>812</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sydney/AUS</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>9.02</v>
+        <v>14.03</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -49621,7 +49637,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>9771</v>
+        <v>10118</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -49741,30 +49757,32 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E75" s="15" t="n">
-        <v>9.01</v>
+        <v>2000</v>
+      </c>
+      <c r="E75" s="17" t="inlineStr">
+        <is>
+          <t>9,13,62</t>
+        </is>
       </c>
       <c r="F75" s="7" t="n">
-        <v>777</v>
+        <v>889</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Boston/MA/USA</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>4.02</v>
+        <v>9.02</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -49799,30 +49817,32 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E76" s="15" t="n">
-        <v>25.47</v>
+        <v>2000</v>
+      </c>
+      <c r="E76" s="17" t="inlineStr">
+        <is>
+          <t>4,18,75</t>
+        </is>
       </c>
       <c r="F76" s="7" t="n">
-        <v>768</v>
+        <v>874</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lewisburg/PA/USA</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>17.02</v>
+        <v>13.04</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
@@ -49859,32 +49879,32 @@
     <row r="77" ht="13" customHeight="1">
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Linea Helgevold Fjelldalselv</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="E77" s="17" t="inlineStr">
         <is>
-          <t>1,03,05</t>
+          <t>4,45,55</t>
         </is>
       </c>
       <c r="F77" s="7" t="n">
-        <v>752</v>
+        <v>691</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H77" s="16" t="n">
-        <v>27.06</v>
+        <v>14.06</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
@@ -49921,30 +49941,30 @@
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E78" s="15" t="n">
-        <v>12.6</v>
+        <v>11.33</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>741</v>
+        <v>677</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>11.05</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
@@ -49979,30 +49999,30 @@
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Lavinia Wågen Husby</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="E79" s="15" t="n">
-        <v>5.52</v>
+        <v>26.75</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>733</v>
+        <v>668</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>10.02</v>
+        <v>4.02</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -50037,30 +50057,32 @@
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Tiril Børø Opsøen</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E80" s="15" t="n">
-        <v>26.12</v>
+        <v>2011</v>
+      </c>
+      <c r="E80" s="17" t="inlineStr">
+        <is>
+          <t>4,51,58</t>
+        </is>
       </c>
       <c r="F80" s="7" t="n">
-        <v>716</v>
+        <v>657</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>31.05</v>
+        <v>14.06</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -50095,30 +50117,30 @@
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Isabella Essilfie</t>
+          <t>Maren Storaas Alsaker</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E81" s="15" t="n">
-        <v>8.140000000000001</v>
+        <v>13.09</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>692</v>
+        <v>655</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>10.02</v>
+        <v>25.05</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
@@ -50153,30 +50175,32 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Isabella Essilfie</t>
+          <t>Ingrid Frøyland</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E82" s="15" t="n">
-        <v>26.45</v>
+        <v>2012</v>
+      </c>
+      <c r="E82" s="17" t="inlineStr">
+        <is>
+          <t>4,53,87</t>
+        </is>
       </c>
       <c r="F82" s="7" t="n">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>31.05</v>
+        <v>14.06</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -50211,30 +50235,30 @@
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Isabella Essilfie</t>
+          <t>Nikol Roman Andersen</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>12.88</v>
+        <v>27.14</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>691</v>
+        <v>640</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>11.05</v>
+        <v>25.02</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -50274,25 +50298,25 @@
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Emilie Høyland Schou</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>5.31</v>
+        <v>4.92</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>686</v>
+        <v>601</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>10.02</v>
+        <v>24.02</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -50327,30 +50351,30 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Lilli Margaret Gulbrandsen</t>
+          <t>Emilie Høyland Schou</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>4.95</v>
+        <v>2.45</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>10.02</v>
+        <v>4.02</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -50385,30 +50409,30 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Oda Luggenes By</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>4.75</v>
+        <v>1.48</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>10.02</v>
+        <v>2.06</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -50473,7 +50497,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>8418</v>
+        <v>8187</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -50513,7 +50537,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>18189</v>
+        <v>18305</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -50545,7 +50569,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -53629,18 +53653,18 @@
         <v>2007</v>
       </c>
       <c r="O169" s="15" t="n">
-        <v>34.52</v>
+        <v>35.53</v>
       </c>
       <c r="P169" s="7" t="n">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>22.06</v>
+        <v>27.07</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
@@ -54336,7 +54360,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>6764</v>
+        <v>6778</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -54376,7 +54400,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15233</v>
+        <v>15247</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>28486</v>
+        <v>28787</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>25696</v>
+        <v>25819</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>25245</v>
+        <v>25331</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>25127</v>
+        <v>25139</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>24688</v>
+        <v>24892</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>24323</v>
+        <v>24375</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>23650</v>
+        <v>23663</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>23301</v>
+        <v>23316</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>23210</v>
+        <v>23251</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>21786</v>
+        <v>21960</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -910,11 +910,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(27/16)</t>
+          <t>(27/15)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>19150</v>
+        <v>19366</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -1389,25 +1389,25 @@
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Tobias Grønstad</t>
+          <t>Sander Aae Skotheim</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
         <v>2002</v>
       </c>
       <c r="E12" s="15" t="n">
-        <v>47.55</v>
+        <v>47.02</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>917</v>
+        <v>949</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
-        <v>11.02</v>
+        <v>2.08</v>
       </c>
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
@@ -1457,19 +1457,19 @@
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>1,44,67</t>
+          <t>1,44,57</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H13" s="16" t="n">
-        <v>30.05</v>
+        <v>8.08</v>
       </c>
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
@@ -1479,27 +1479,27 @@
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Theodor Berre Jacobsen</t>
+          <t>Sander Dybwad Mathiesen</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>3,47,48</t>
+          <t>3,45,95</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bury/GBR</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>24.05</v>
+        <v>10.08</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -1541,59 +1541,59 @@
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Bakr Ettayebi</t>
+          <t>Sjur Prestsæter</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>8,23,21</t>
+          <t>8,11,89</t>
         </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>844</v>
+        <v>897</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>4.07</v>
+        <v>10.08</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
     <row r="15" ht="13" customHeight="1">
       <c r="B15" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>Ferdinand Kvan Edman</t>
+          <t>Mikkel Blikstad Thomassen</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="E15" s="17" t="inlineStr">
         <is>
-          <t>13,23,66</t>
+          <t>7,56,11</t>
         </is>
       </c>
       <c r="F15" s="7" t="n">
-        <v>1031</v>
+        <v>974</v>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H15" s="16" t="n">
-        <v>30.05</v>
+        <v>10.08</v>
       </c>
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
@@ -1630,30 +1630,32 @@
     <row r="16" ht="13" customHeight="1">
       <c r="B16" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>Sander Aae Skotheim</t>
+          <t>Ferdinand Kvan Edman</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E16" s="15" t="n">
-        <v>7.93</v>
+        <v>1993</v>
+      </c>
+      <c r="E16" s="17" t="inlineStr">
+        <is>
+          <t>13,23,66</t>
+        </is>
       </c>
       <c r="F16" s="7" t="n">
-        <v>964</v>
+        <v>1031</v>
       </c>
       <c r="G16" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H16" s="16" t="n">
-        <v>11.02</v>
+        <v>30.05</v>
       </c>
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
@@ -1690,7 +1692,7 @@
     <row r="17" ht="13" customHeight="1">
       <c r="B17" s="14" t="inlineStr">
         <is>
-          <t>110m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
@@ -1702,18 +1704,18 @@
         <v>2002</v>
       </c>
       <c r="E17" s="15" t="n">
-        <v>14.3</v>
+        <v>7.93</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>918</v>
+        <v>964</v>
       </c>
       <c r="G17" s="7" t="inlineStr">
         <is>
-          <t>Roma/ITA</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H17" s="16" t="n">
-        <v>11.06</v>
+        <v>11.02</v>
       </c>
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
@@ -1748,30 +1750,30 @@
     <row r="18" ht="13" customHeight="1">
       <c r="B18" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>110m hekk</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>Sander Aae Skotheim</t>
+          <t>Markus Rooth</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E18" s="15" t="n">
-        <v>2.17</v>
+        <v>14.25</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>960</v>
+        <v>926</v>
       </c>
       <c r="G18" s="7" t="inlineStr">
         <is>
-          <t>Roma/ITA</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>10.06</v>
+        <v>3.08</v>
       </c>
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
@@ -1806,7 +1808,7 @@
     <row r="19" ht="13" customHeight="1">
       <c r="B19" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
@@ -1818,18 +1820,18 @@
         <v>2002</v>
       </c>
       <c r="E19" s="15" t="n">
-        <v>5.11</v>
+        <v>2.17</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>930</v>
+        <v>960</v>
       </c>
       <c r="G19" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Roma/ITA</t>
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>20.01</v>
+        <v>10.06</v>
       </c>
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
@@ -1864,7 +1866,7 @@
     <row r="20" ht="13" customHeight="1">
       <c r="B20" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
@@ -1876,18 +1878,18 @@
         <v>2001</v>
       </c>
       <c r="E20" s="15" t="n">
-        <v>8.01</v>
+        <v>5.3</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>1032</v>
+        <v>969</v>
       </c>
       <c r="G20" s="7" t="inlineStr">
         <is>
-          <t>Roma/ITA</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H20" s="16" t="n">
-        <v>10.06</v>
+        <v>3.08</v>
       </c>
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
@@ -1904,48 +1906,48 @@
         <v>1999</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>1076</v>
+        <v>1089</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Austin/TX/USA</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>30.03</v>
+        <v>5.08</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
     <row r="21" ht="13" customHeight="1">
       <c r="B21" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Jander Heil</t>
+          <t>Sander Aae Skotheim</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E21" s="15" t="n">
-        <v>19.46</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G21" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H21" s="16" t="n">
-        <v>22.05</v>
+        <v>2.08</v>
       </c>
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
@@ -1980,30 +1982,30 @@
     <row r="22" ht="13" customHeight="1">
       <c r="B22" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>Markus Rooth</t>
+          <t>Jander Heil</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="E22" s="15" t="n">
-        <v>52.2</v>
+        <v>19.46</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>893</v>
+        <v>1037</v>
       </c>
       <c r="G22" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H22" s="16" t="n">
-        <v>7.04</v>
+        <v>22.05</v>
       </c>
       <c r="J22" s="5" t="n"/>
       <c r="L22" s="14" t="inlineStr">
@@ -2050,18 +2052,18 @@
         <v>1990</v>
       </c>
       <c r="E23" s="15" t="n">
-        <v>76.51000000000001</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>1076</v>
+        <v>1107</v>
       </c>
       <c r="G23" s="7" t="inlineStr">
         <is>
-          <t>Roma/ITA</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H23" s="16" t="n">
-        <v>9.06</v>
+        <v>4.08</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="14" t="inlineStr">
@@ -2126,7 +2128,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>14702</v>
+        <v>14900</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -2143,7 +2145,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>13173</v>
+        <v>13257</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -2251,25 +2253,25 @@
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Sander Aae Skotheim</t>
+          <t>Markus Rooth</t>
         </is>
       </c>
       <c r="D30" s="7" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E30" s="15" t="n">
-        <v>7.94</v>
+        <v>8.01</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Roma/ITA</t>
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>27.06</v>
+        <v>10.06</v>
       </c>
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
@@ -2334,20 +2336,20 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Trond Einar Moen Pedersli</t>
+          <t>Theodor Berre Jacobsen</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="O31" s="17" t="inlineStr">
         <is>
-          <t>14,09,96</t>
+          <t>3,47,48</t>
         </is>
       </c>
       <c r="P31" s="7" t="n">
@@ -2355,11 +2357,11 @@
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>17.06</v>
+        <v>24.05</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -2396,32 +2398,32 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Sander Dybwad Mathiesen</t>
+          <t>Trond Einar Moen Pedersli</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="O32" s="17" t="inlineStr">
         <is>
-          <t>3,48,08</t>
+          <t>14,09,96</t>
         </is>
       </c>
       <c r="P32" s="7" t="n">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>3.08</v>
+        <v>17.06</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -2551,25 +2553,25 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Markus Rooth</t>
+          <t>Sander Aae Skotheim</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E35" s="15" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Glasgow/GBR</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>3.03</v>
+        <v>20.01</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -2666,30 +2668,30 @@
     <row r="37" ht="13" customHeight="1">
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Andreas Ofstad Kulseng</t>
+          <t>Markus Rooth</t>
         </is>
       </c>
       <c r="D37" s="7" t="n">
         <v>2001</v>
       </c>
       <c r="E37" s="15" t="n">
-        <v>47.67</v>
+        <v>10.71</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H37" s="16" t="n">
-        <v>18.06</v>
+        <v>2.08</v>
       </c>
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
@@ -2699,57 +2701,57 @@
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Theodor Berre Jacobsen</t>
+          <t>Bakr Ettayebi</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="O37" s="17" t="inlineStr">
         <is>
-          <t>8,23,65</t>
+          <t>8,23,21</t>
         </is>
       </c>
       <c r="P37" s="7" t="n">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>18.02</v>
+        <v>4.07</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
     <row r="38" ht="13" customHeight="1">
       <c r="B38" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Even Pettersen</t>
+          <t>Tobias Grønstad</t>
         </is>
       </c>
       <c r="D38" s="7" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="E38" s="15" t="n">
-        <v>10.77</v>
+        <v>47.55</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H38" s="16" t="n">
-        <v>18.06</v>
+        <v>11.02</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
@@ -2759,117 +2761,117 @@
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Mathias Moen</t>
+          <t>Theodor Berre Jacobsen</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>1988</v>
+        <v>2001</v>
       </c>
       <c r="O38" s="17" t="inlineStr">
         <is>
-          <t>8,24,69</t>
+          <t>8,23,65</t>
         </is>
       </c>
       <c r="P38" s="7" t="n">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>14.06</v>
+        <v>18.02</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
     <row r="39" ht="13" customHeight="1">
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Eivind Prestegård Henriksen</t>
+          <t>Andreas Ofstad Kulseng</t>
         </is>
       </c>
       <c r="D39" s="7" t="n">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="E39" s="15" t="n">
-        <v>52.19</v>
+        <v>47.67</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>Oslo/NIH</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H39" s="16" t="n">
-        <v>5.07</v>
+        <v>18.06</v>
       </c>
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Bakr Ettayebi</t>
+          <t>Mathias Moen</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="O39" s="17" t="inlineStr">
         <is>
-          <t>3,53,33</t>
+          <t>8,24,69</t>
         </is>
       </c>
       <c r="P39" s="7" t="n">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>6.07</v>
+        <v>14.06</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
     <row r="40" ht="13" customHeight="1">
       <c r="B40" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>Markus Rooth</t>
+          <t>Even Pettersen</t>
         </is>
       </c>
       <c r="D40" s="7" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E40" s="15" t="n">
-        <v>48.03</v>
+        <v>10.77</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="G40" s="7" t="inlineStr">
         <is>
-          <t>Roma/ITA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H40" s="16" t="n">
-        <v>10.06</v>
+        <v>18.06</v>
       </c>
       <c r="J40" s="5" t="n"/>
       <c r="L40" s="14" t="inlineStr">
@@ -2879,57 +2881,57 @@
       </c>
       <c r="M40" s="7" t="inlineStr">
         <is>
-          <t>Trond Einar Moen Pedersli</t>
+          <t>Bakr Ettayebi</t>
         </is>
       </c>
       <c r="N40" s="7" t="n">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="O40" s="17" t="inlineStr">
         <is>
-          <t>3,54,85</t>
+          <t>3,53,33</t>
         </is>
       </c>
       <c r="P40" s="7" t="n">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="Q40" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R40" s="16" t="n">
-        <v>24.05</v>
+        <v>6.07</v>
       </c>
       <c r="T40" s="5" t="n"/>
     </row>
     <row r="41" ht="13" customHeight="1">
       <c r="B41" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>Even Pettersen</t>
+          <t>Marius Bull Hjeltnes</t>
         </is>
       </c>
       <c r="D41" s="7" t="n">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="E41" s="15" t="n">
-        <v>6.95</v>
+        <v>21.68</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="G41" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H41" s="16" t="n">
-        <v>11.01</v>
+        <v>9.08</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="14" t="inlineStr">
@@ -2966,30 +2968,30 @@
     <row r="42" ht="13" customHeight="1">
       <c r="B42" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C42" s="7" t="inlineStr">
         <is>
-          <t>Marius Bull Hjeltnes</t>
+          <t>Eivind Prestegård Henriksen</t>
         </is>
       </c>
       <c r="D42" s="7" t="n">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="E42" s="15" t="n">
-        <v>21.84</v>
+        <v>52.19</v>
       </c>
       <c r="F42" s="7" t="n">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="G42" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/NIH</t>
         </is>
       </c>
       <c r="H42" s="16" t="n">
-        <v>28.06</v>
+        <v>5.07</v>
       </c>
       <c r="J42" s="5" t="n"/>
       <c r="L42" s="14" t="inlineStr">
@@ -3024,30 +3026,30 @@
     <row r="43" ht="13" customHeight="1">
       <c r="B43" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C43" s="7" t="inlineStr">
         <is>
-          <t>Sondre Jahren</t>
+          <t>Even Pettersen</t>
         </is>
       </c>
       <c r="D43" s="7" t="n">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E43" s="15" t="n">
-        <v>2.07</v>
+        <v>6.95</v>
       </c>
       <c r="F43" s="7" t="n">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="G43" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H43" s="16" t="n">
-        <v>25.05</v>
+        <v>11.01</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="14" t="inlineStr">
@@ -3082,30 +3084,30 @@
     <row r="44" ht="13" customHeight="1">
       <c r="B44" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C44" s="7" t="inlineStr">
         <is>
-          <t>Even Pettersen</t>
+          <t>Sondre Jahren</t>
         </is>
       </c>
       <c r="D44" s="7" t="n">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="E44" s="15" t="n">
-        <v>21.87</v>
+        <v>2.07</v>
       </c>
       <c r="F44" s="7" t="n">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G44" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H44" s="16" t="n">
-        <v>18.06</v>
+        <v>25.05</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="14" t="inlineStr">
@@ -3170,7 +3172,7 @@
         </is>
       </c>
       <c r="F46" s="20" t="n">
-        <v>13784</v>
+        <v>13887</v>
       </c>
       <c r="J46" s="5" t="n"/>
       <c r="L46" s="19" t="inlineStr">
@@ -3187,7 +3189,7 @@
         </is>
       </c>
       <c r="P46" s="20" t="n">
-        <v>12523</v>
+        <v>12562</v>
       </c>
       <c r="T46" s="5" t="n"/>
     </row>
@@ -3210,7 +3212,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>28486</v>
+        <v>28787</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -3227,7 +3229,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>25696</v>
+        <v>25819</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -3757,11 +3759,11 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Vetle Farbu-Solbakken</t>
+          <t>Simon Steinshamn</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E66" s="17" t="inlineStr">
         <is>
@@ -3827,19 +3829,19 @@
       </c>
       <c r="E67" s="17" t="inlineStr">
         <is>
-          <t>8,08,02</t>
+          <t>7,50,53</t>
         </is>
       </c>
       <c r="F67" s="7" t="n">
-        <v>916</v>
+        <v>1002</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>18.02</v>
+        <v>10.08</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -3857,19 +3859,19 @@
       </c>
       <c r="O67" s="17" t="inlineStr">
         <is>
-          <t>13,14,36</t>
+          <t>13,13,66</t>
         </is>
       </c>
       <c r="P67" s="7" t="n">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>29.06</v>
+        <v>10.08</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -4374,7 +4376,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12711</v>
+        <v>12797</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -4391,7 +4393,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12748</v>
+        <v>12750</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -4535,19 +4537,19 @@
       </c>
       <c r="O82" s="17" t="inlineStr">
         <is>
-          <t>3,31,06</t>
+          <t>3,30,46</t>
         </is>
       </c>
       <c r="P82" s="7" t="n">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Monaco/MON</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>12.07</v>
+        <v>6.08</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -4679,11 +4681,11 @@
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Simon Steinshamn</t>
+          <t>Vetle Farbu-Solbakken</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E85" s="17" t="inlineStr">
         <is>
@@ -5425,7 +5427,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>12379</v>
+        <v>12389</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5448,7 +5450,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>25245</v>
+        <v>25331</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5465,7 +5467,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>25127</v>
+        <v>25139</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5766,18 +5768,18 @@
         <v>2008</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>11.62</v>
+        <v>11.5</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>693</v>
+        <v>720</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>23.06</v>
+        <v>11.08</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -5973,19 +5975,19 @@
       </c>
       <c r="O117" s="17" t="inlineStr">
         <is>
-          <t>1,53,83</t>
+          <t>1,53,05</t>
         </is>
       </c>
       <c r="P117" s="7" t="n">
-        <v>820</v>
+        <v>839</v>
       </c>
       <c r="Q117" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R117" s="16" t="n">
-        <v>22.06</v>
+        <v>9.08</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -5997,27 +5999,27 @@
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Andreas Fjeld Halvorsen</t>
+          <t>Senay Amlesom Fissehatsion</t>
         </is>
       </c>
       <c r="D118" s="7" t="n">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="E118" s="17" t="inlineStr">
         <is>
-          <t>7,51,43</t>
+          <t>7,48,29</t>
         </is>
       </c>
       <c r="F118" s="7" t="n">
-        <v>998</v>
+        <v>1015</v>
       </c>
       <c r="G118" s="7" t="inlineStr">
         <is>
-          <t>Nembro/ITA</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H118" s="16" t="n">
-        <v>19.06</v>
+        <v>10.08</v>
       </c>
       <c r="J118" s="5" t="n"/>
       <c r="L118" s="14" t="inlineStr">
@@ -6616,7 +6618,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>12021</v>
+        <v>12065</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -6633,7 +6635,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12711</v>
+        <v>12730</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -6736,120 +6738,120 @@
     <row r="134" ht="13" customHeight="1">
       <c r="B134" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>Senay Amlesom Fissehatsion</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="D134" s="7" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="E134" s="17" t="inlineStr">
         <is>
-          <t>13,33,51</t>
+          <t>7,48,42</t>
         </is>
       </c>
       <c r="F134" s="7" t="n">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="G134" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H134" s="16" t="n">
-        <v>29.06</v>
+        <v>10.08</v>
       </c>
       <c r="J134" s="5" t="n"/>
       <c r="L134" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M134" s="7" t="inlineStr">
         <is>
-          <t>Gjert Høie Sjursen</t>
+          <t>Sindre Strønstad-Løseth</t>
         </is>
       </c>
       <c r="N134" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O134" s="15" t="n">
-        <v>8.199999999999999</v>
+        <v>48.34</v>
       </c>
       <c r="P134" s="7" t="n">
-        <v>891</v>
+        <v>873</v>
       </c>
       <c r="Q134" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R134" s="16" t="n">
-        <v>20.01</v>
+        <v>6.07</v>
       </c>
       <c r="T134" s="5" t="n"/>
     </row>
     <row r="135" ht="13" customHeight="1">
       <c r="B135" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sandvik</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="D135" s="7" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E135" s="17" t="inlineStr">
         <is>
-          <t>8,28,47</t>
+          <t>7,49,87</t>
         </is>
       </c>
       <c r="F135" s="7" t="n">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="G135" s="7" t="inlineStr">
         <is>
-          <t>Roma/ITA</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H135" s="16" t="n">
-        <v>8.06</v>
+        <v>10.08</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M135" s="7" t="inlineStr">
         <is>
-          <t>Sindre Strønstad-Løseth</t>
+          <t>Nicolai Holdhus</t>
         </is>
       </c>
       <c r="N135" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O135" s="15" t="n">
-        <v>48.34</v>
+        <v>21.99</v>
       </c>
       <c r="P135" s="7" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>6.07</v>
+        <v>17.02</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -6861,27 +6863,27 @@
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Senay Amlesom Fissehatsion</t>
+          <t>Andreas Fjeld Halvorsen</t>
         </is>
       </c>
       <c r="D136" s="7" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="E136" s="17" t="inlineStr">
         <is>
-          <t>7,56,81</t>
+          <t>7,51,43</t>
         </is>
       </c>
       <c r="F136" s="7" t="n">
-        <v>971</v>
+        <v>998</v>
       </c>
       <c r="G136" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Nembro/ITA</t>
         </is>
       </c>
       <c r="H136" s="16" t="n">
-        <v>4.07</v>
+        <v>19.06</v>
       </c>
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
@@ -6891,167 +6893,167 @@
       </c>
       <c r="M136" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Holdhus</t>
+          <t>Thomas Strønstad-Løseth</t>
         </is>
       </c>
       <c r="N136" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O136" s="15" t="n">
-        <v>21.99</v>
+        <v>22.07</v>
       </c>
       <c r="P136" s="7" t="n">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="Q136" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R136" s="16" t="n">
-        <v>17.02</v>
+        <v>15.05</v>
       </c>
       <c r="T136" s="5" t="n"/>
     </row>
     <row r="137" ht="13" customHeight="1">
       <c r="B137" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kramer</t>
+          <t>Senay Amlesom Fissehatsion</t>
         </is>
       </c>
       <c r="D137" s="7" t="n">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E137" s="17" t="inlineStr">
         <is>
-          <t>3,42,24</t>
+          <t>13,33,51</t>
         </is>
       </c>
       <c r="F137" s="7" t="n">
-        <v>956</v>
+        <v>998</v>
       </c>
       <c r="G137" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H137" s="16" t="n">
-        <v>18.02</v>
+        <v>29.06</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M137" s="7" t="inlineStr">
         <is>
-          <t>Thomas Strønstad-Løseth</t>
+          <t>Andreas Iden</t>
         </is>
       </c>
       <c r="N137" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O137" s="15" t="n">
-        <v>22.07</v>
+        <v>1995</v>
+      </c>
+      <c r="O137" s="17" t="inlineStr">
+        <is>
+          <t>8,23,91</t>
+        </is>
       </c>
       <c r="P137" s="7" t="n">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>15.05</v>
+        <v>14.06</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
     <row r="138" ht="13" customHeight="1">
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="D138" s="7" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="E138" s="17" t="inlineStr">
         <is>
-          <t>3,42,25</t>
+          <t>8,28,47</t>
         </is>
       </c>
       <c r="F138" s="7" t="n">
-        <v>956</v>
+        <v>994</v>
       </c>
       <c r="G138" s="7" t="inlineStr">
         <is>
-          <t>Kessel-Louvain/BEL</t>
+          <t>Roma/ITA</t>
         </is>
       </c>
       <c r="H138" s="16" t="n">
-        <v>27.07</v>
+        <v>8.06</v>
       </c>
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Andreas Iden</t>
+          <t>Oscar Ellingsen</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O138" s="17" t="inlineStr">
-        <is>
-          <t>8,23,91</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O138" s="15" t="n">
+        <v>8.44</v>
       </c>
       <c r="P138" s="7" t="n">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R138" s="16" t="n">
-        <v>14.06</v>
+        <v>18.02</v>
       </c>
       <c r="T138" s="5" t="n"/>
     </row>
     <row r="139" ht="13" customHeight="1">
       <c r="B139" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E139" s="17" t="inlineStr">
         <is>
-          <t>7,59,77</t>
+          <t>3,42,24</t>
         </is>
       </c>
       <c r="F139" s="7" t="n">
@@ -7059,106 +7061,108 @@
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Gent/BEL</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>3.02</v>
+        <v>18.02</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Oscar Ellingsen</t>
+          <t>Sindre Strønstad-Løseth</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O139" s="15" t="n">
-        <v>8.44</v>
+        <v>22.33</v>
       </c>
       <c r="P139" s="7" t="n">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>18.02</v>
+        <v>16.07</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
     <row r="140" ht="13" customHeight="1">
       <c r="B140" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Kristian Bråthen Børve</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="D140" s="7" t="n">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="E140" s="17" t="inlineStr">
         <is>
-          <t>13,52,44</t>
+          <t>3,42,25</t>
         </is>
       </c>
       <c r="F140" s="7" t="n">
-        <v>941</v>
+        <v>956</v>
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Kessel-Louvain/BEL</t>
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>18.06</v>
+        <v>27.07</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Sindre Strønstad-Løseth</t>
+          <t>Aleksander Hauge Øyen</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O140" s="15" t="n">
-        <v>22.33</v>
+        <v>2006</v>
+      </c>
+      <c r="O140" s="17" t="inlineStr">
+        <is>
+          <t>3,54,98</t>
+        </is>
       </c>
       <c r="P140" s="7" t="n">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>16.07</v>
+        <v>1.06</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
     <row r="141" ht="13" customHeight="1">
       <c r="B141" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
@@ -7171,49 +7175,47 @@
       </c>
       <c r="E141" s="17" t="inlineStr">
         <is>
-          <t>8,04,21</t>
+          <t>13,52,44</t>
         </is>
       </c>
       <c r="F141" s="7" t="n">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>15.05</v>
+        <v>18.06</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Aleksander Hauge Øyen</t>
+          <t>Filip Holdhus</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O141" s="17" t="inlineStr">
-        <is>
-          <t>3,54,98</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O141" s="15" t="n">
+        <v>22.48</v>
       </c>
       <c r="P141" s="7" t="n">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Helsingborg/SWE</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>1.06</v>
+        <v>13.07</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
@@ -7225,27 +7227,27 @@
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sandvik</t>
+          <t>Kristian Bråthen Børve</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="E142" s="17" t="inlineStr">
         <is>
-          <t>8,04,88</t>
+          <t>8,04,21</t>
         </is>
       </c>
       <c r="F142" s="7" t="n">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>14.06</v>
+        <v>15.05</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
@@ -7310,7 +7312,7 @@
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
@@ -7322,18 +7324,18 @@
         <v>2004</v>
       </c>
       <c r="O143" s="15" t="n">
-        <v>22.48</v>
+        <v>11.17</v>
       </c>
       <c r="P143" s="7" t="n">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Helsingborg/SWE</t>
+          <t>Austevoll</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>13.07</v>
+        <v>19.05</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
@@ -7484,30 +7486,30 @@
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Kirill Eikanger</t>
+          <t>Gjert Høie Sjursen</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>6</v>
+        <v>13.66</v>
       </c>
       <c r="P146" s="7" t="n">
-        <v>606</v>
+        <v>711</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sollentuna/SWE</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>2.06</v>
+        <v>10.08</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
@@ -7542,7 +7544,7 @@
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M147" s="7" t="inlineStr">
@@ -7554,10 +7556,10 @@
         <v>2008</v>
       </c>
       <c r="O147" s="15" t="n">
-        <v>1.73</v>
+        <v>6</v>
       </c>
       <c r="P147" s="7" t="n">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="Q147" s="7" t="inlineStr">
         <is>
@@ -7565,7 +7567,7 @@
         </is>
       </c>
       <c r="R147" s="16" t="n">
-        <v>1.06</v>
+        <v>2.06</v>
       </c>
       <c r="T147" s="5" t="n"/>
     </row>
@@ -7600,30 +7602,30 @@
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Oscar Ellingsen</t>
+          <t>Kirill Eikanger</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>5.91</v>
+        <v>1.73</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Bergen/Hø</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>4.02</v>
+        <v>1.06</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -7660,7 +7662,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>12667</v>
+        <v>12827</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -7677,7 +7679,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11612</v>
+        <v>11645</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7700,7 +7702,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>24688</v>
+        <v>24892</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -7717,7 +7719,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>24323</v>
+        <v>24375</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -9428,90 +9430,90 @@
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M193" s="7" t="inlineStr">
         <is>
-          <t>Franz Philip Pap Holmen</t>
+          <t>Simen Gimnes</t>
         </is>
       </c>
       <c r="N193" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O193" s="15" t="n">
-        <v>22.31</v>
+        <v>11.01</v>
       </c>
       <c r="P193" s="7" t="n">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="Q193" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R193" s="16" t="n">
-        <v>8.06</v>
+        <v>11.08</v>
       </c>
       <c r="T193" s="5" t="n"/>
     </row>
     <row r="194" ht="13" customHeight="1">
       <c r="B194" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>Karl Oraug Rygh</t>
+          <t>Axel Wold Møller</t>
         </is>
       </c>
       <c r="D194" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E194" s="17" t="inlineStr">
         <is>
-          <t>3,59,25</t>
+          <t>8,38,03</t>
         </is>
       </c>
       <c r="F194" s="7" t="n">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>21.05</v>
+        <v>9.08</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M194" s="7" t="inlineStr">
         <is>
-          <t>Simen Gimnes</t>
+          <t>Franz Philip Pap Holmen</t>
         </is>
       </c>
       <c r="N194" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O194" s="15" t="n">
-        <v>11.07</v>
+        <v>22.31</v>
       </c>
       <c r="P194" s="7" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="Q194" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R194" s="16" t="n">
-        <v>2.08</v>
+        <v>8.06</v>
       </c>
       <c r="T194" s="5" t="n"/>
     </row>
@@ -9523,27 +9525,27 @@
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Nikolai Solum</t>
+          <t>Karl Oraug Rygh</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E195" s="17" t="inlineStr">
         <is>
-          <t>3,59,44</t>
+          <t>3,59,25</t>
         </is>
       </c>
       <c r="F195" s="7" t="n">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>2.08</v>
+        <v>21.05</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
@@ -9583,27 +9585,27 @@
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Jonas Riseth</t>
+          <t>Nikolai Solum</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="E196" s="17" t="inlineStr">
         <is>
-          <t>3,59,57</t>
+          <t>3,59,44</t>
         </is>
       </c>
       <c r="F196" s="7" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>24.05</v>
+        <v>2.08</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
@@ -9900,7 +9902,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>11319</v>
+        <v>11332</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -9917,7 +9919,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>12077</v>
+        <v>12092</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -9940,7 +9942,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>23650</v>
+        <v>23663</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -9957,7 +9959,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>23301</v>
+        <v>23316</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -10453,27 +10455,27 @@
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Aleksander Bøen Flygansvær</t>
+          <t>Phillip Morken</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O221" s="17" t="inlineStr">
         <is>
-          <t>2,01,59</t>
+          <t>1,53,37</t>
         </is>
       </c>
       <c r="P221" s="7" t="n">
-        <v>657</v>
+        <v>831</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>31.05</v>
+        <v>9.08</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
@@ -11093,7 +11095,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>12552</v>
+        <v>12726</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -11375,25 +11377,25 @@
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>Teodor Heldal</t>
+          <t>Tobias Heldal</t>
         </is>
       </c>
       <c r="D241" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E241" s="15" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="F241" s="7" t="n">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="G241" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Tårnby/DEN</t>
         </is>
       </c>
       <c r="H241" s="16" t="n">
-        <v>23.06</v>
+        <v>11.08</v>
       </c>
       <c r="J241" s="5" t="n"/>
       <c r="L241" s="14" t="inlineStr">
@@ -11433,25 +11435,25 @@
       </c>
       <c r="C242" s="7" t="inlineStr">
         <is>
-          <t>Tobias Heldal</t>
+          <t>Teodor Heldal</t>
         </is>
       </c>
       <c r="D242" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E242" s="15" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="F242" s="7" t="n">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="G242" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H242" s="16" t="n">
-        <v>1.06</v>
+        <v>23.06</v>
       </c>
       <c r="J242" s="5" t="n"/>
       <c r="L242" s="14" t="inlineStr">
@@ -11718,30 +11720,30 @@
     <row r="247" ht="13" customHeight="1">
       <c r="B247" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Oliver Solsvik</t>
+          <t>Oscar Stuhr</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E247" s="15" t="n">
-        <v>22.92</v>
+        <v>13.88</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Tårnby/DEN</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>20.01</v>
+        <v>11.08</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -11776,30 +11778,30 @@
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Oscar Stuhr</t>
+          <t>Oliver Solsvik</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E248" s="15" t="n">
-        <v>13.8</v>
+        <v>22.92</v>
       </c>
       <c r="F248" s="7" t="n">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>24.07</v>
+        <v>20.01</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -12096,7 +12098,7 @@
         </is>
       </c>
       <c r="F254" s="20" t="n">
-        <v>12078</v>
+        <v>12119</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="19" t="inlineStr">
@@ -12136,7 +12138,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>23210</v>
+        <v>23251</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -12153,7 +12155,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>21786</v>
+        <v>21960</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -12713,27 +12715,27 @@
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Alfred Lauvsnes Hovdet</t>
+          <t>Erik Tangen Gundersen</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="O274" s="17" t="inlineStr">
         <is>
-          <t>4,28,78</t>
+          <t>4,01,21</t>
         </is>
       </c>
       <c r="P274" s="7" t="n">
-        <v>533</v>
+        <v>749</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>26.05</v>
+        <v>10.08</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -13257,7 +13259,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>9925</v>
+        <v>10141</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -14279,7 +14281,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>19150</v>
+        <v>19366</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -14303,7 +14305,7 @@
         </is>
       </c>
       <c r="M310" s="20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
@@ -16461,7 +16463,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18276</v>
+        <v>18313</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -16517,7 +16519,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>17744</v>
+        <v>17807</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -16657,7 +16659,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>16172</v>
+        <v>16220</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -16676,25 +16678,25 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Osterøy IL</t>
+          <t>Steinkjer Friidrettsklubb</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(24/10)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15577</v>
+        <v>15707</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(12/1d)</t>
+          <t>(14/1d)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -16704,25 +16706,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Steinkjer Friidrettsklubb</t>
+          <t>Osterøy IL</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(24/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>15505</v>
+        <v>15577</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(14/1d)</t>
+          <t>(12/1d)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16769,7 +16771,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>15029</v>
+        <v>15037</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -16797,7 +16799,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>14843</v>
+        <v>14865</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -16825,7 +16827,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>11673</v>
+        <v>11683</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -17990,25 +17992,25 @@
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Bjørn Einar Kjønstad-Prestvik</t>
         </is>
       </c>
       <c r="D28" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E28" s="15" t="n">
-        <v>22.97</v>
+        <v>22.89</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H28" s="16" t="n">
-        <v>21.06</v>
+        <v>9.08</v>
       </c>
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
@@ -18043,22 +18045,22 @@
     <row r="29" ht="13" customHeight="1">
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>Emil Vestre</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="D29" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E29" s="15" t="n">
-        <v>11.39</v>
+        <v>22.97</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="G29" s="7" t="inlineStr">
         <is>
@@ -18066,7 +18068,7 @@
         </is>
       </c>
       <c r="H29" s="16" t="n">
-        <v>23.06</v>
+        <v>21.06</v>
       </c>
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
@@ -18101,22 +18103,22 @@
     <row r="30" ht="13" customHeight="1">
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="D30" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E30" s="15" t="n">
-        <v>50.91</v>
+        <v>11.39</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
@@ -18124,7 +18126,7 @@
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>22.06</v>
+        <v>23.06</v>
       </c>
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
@@ -18159,30 +18161,30 @@
     <row r="31" ht="13" customHeight="1">
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Emil Vestre</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E31" s="15" t="n">
-        <v>7.3</v>
+        <v>50.91</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>9.02</v>
+        <v>22.06</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
@@ -18217,30 +18219,30 @@
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Arne Røstad</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E32" s="15" t="n">
-        <v>11.46</v>
+        <v>7.3</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>23.06</v>
+        <v>9.02</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -18282,17 +18284,17 @@
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Arne Røstad</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="E33" s="15" t="n">
-        <v>11.47</v>
+        <v>11.46</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
@@ -18335,30 +18337,30 @@
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Einar Kjønstad-Prestvik</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>23.24</v>
+        <v>11.47</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>26.05</v>
+        <v>23.06</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -18713,7 +18715,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>8528</v>
+        <v>8565</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -18753,7 +18755,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18276</v>
+        <v>18313</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -20388,25 +20390,25 @@
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Radin Kalbasi</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>5.66</v>
+        <v>5.74</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Ås</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>1.05</v>
+        <v>11.08</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -20441,30 +20443,30 @@
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>2.71</v>
+        <v>5.66</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Ås</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>26.02</v>
+        <v>1.05</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -20499,30 +20501,30 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Radin Kalbasi</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>5.47</v>
+        <v>2.71</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Oslo/Bk</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>21.05</v>
+        <v>26.02</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -20645,7 +20647,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>8827</v>
+        <v>8890</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -20685,7 +20687,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>17744</v>
+        <v>17807</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -23224,19 +23226,19 @@
       </c>
       <c r="O155" s="17" t="inlineStr">
         <is>
-          <t>8,22,55</t>
+          <t>8,12,36</t>
         </is>
       </c>
       <c r="P155" s="7" t="n">
-        <v>847</v>
+        <v>895</v>
       </c>
       <c r="Q155" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R155" s="16" t="n">
-        <v>15.05</v>
+        <v>10.08</v>
       </c>
       <c r="T155" s="5" t="n"/>
     </row>
@@ -23704,7 +23706,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8650</v>
+        <v>8698</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -24606,7 +24608,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>16172</v>
+        <v>16220</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24672,7 +24674,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
       <c r="F190" s="8" t="n">
@@ -24686,7 +24688,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -24702,7 +24704,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Osterøy IL</t>
+          <t>Steinkjer Friidrettsklubb</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -24713,7 +24715,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer Friidrettsklubb</t>
+          <t>Osterøy IL</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -24842,25 +24844,25 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Kiran Brattaker Melbø</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>7.58</v>
+        <v>7.75</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>21.01</v>
+        <v>20.01</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -24870,25 +24872,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Kiran Brattaker Melbø</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.75</v>
+        <v>7.58</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>20.01</v>
+        <v>21.01</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -24900,7 +24902,7 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Kiran Brattaker Melbø</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
@@ -24914,11 +24916,11 @@
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>19.06</v>
+        <v>2.06</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -24928,7 +24930,7 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Kiran Brattaker Melbø</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
@@ -24942,11 +24944,11 @@
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>2.06</v>
+        <v>19.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -24958,25 +24960,25 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Vegard Trefall</t>
+          <t>Sivert Wist Moen</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>23.27</v>
+        <v>23.57</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>31.05</v>
+        <v>21.01</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -24986,25 +24988,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Sivert Wist Moen</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>23.57</v>
+        <v>23.27</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>21.01</v>
+        <v>31.05</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -25016,25 +25018,25 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Vegard Trefall</t>
+          <t>Bastian Elnan Aurstad</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>49.42</v>
+        <v>47.49</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>814</v>
+        <v>921</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>3.07</v>
+        <v>17.02</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -25044,25 +25046,25 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Bastian Elnan Aurstad</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>47.49</v>
+        <v>49.42</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>921</v>
+        <v>814</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>17.02</v>
+        <v>3.07</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -25074,27 +25076,27 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Vegard Trefall</t>
+          <t>Christian Bredesen</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>1,52,86</t>
+          <t>1,57,82</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>844</v>
+        <v>731</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>4.08</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
@@ -25104,27 +25106,27 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Christian Bredesen</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>1,57,82</t>
+          <t>1,52,86</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>731</v>
+        <v>844</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>4.08</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -25136,19 +25138,19 @@
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Trygve Feidje Mjelde</t>
+          <t>Christian Bredesen</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>3,59,77</t>
+          <t>4,08,09</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>763</v>
+        <v>687</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
@@ -25156,7 +25158,7 @@
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>27.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
@@ -25166,19 +25168,19 @@
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Christian Bredesen</t>
+          <t>Trygve Feidje Mjelde</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>4,08,09</t>
+          <t>3,59,77</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>687</v>
+        <v>763</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
@@ -25186,7 +25188,7 @@
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>27.06</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -25198,27 +25200,27 @@
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Trygve Feidje Mjelde</t>
+          <t>Mathias Flak</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>8,10,67</t>
+          <t>8,34,90</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>903</v>
+        <v>791</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>15.05</v>
+        <v>10.08</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
@@ -25228,27 +25230,27 @@
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Simen Holen</t>
+          <t>Trygve Feidje Mjelde</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="O203" s="17" t="inlineStr">
         <is>
-          <t>8,56,21</t>
+          <t>8,10,67</t>
         </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>703</v>
+        <v>903</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>18.02</v>
+        <v>15.05</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
@@ -25260,27 +25262,27 @@
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Trygve Feidje Mjelde</t>
+          <t>Mathias Flak</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="E204" s="17" t="inlineStr">
         <is>
-          <t>14,25,60</t>
+          <t>14,25,99</t>
         </is>
       </c>
       <c r="F204" s="7" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>29.06</v>
+        <v>10.05</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
@@ -25290,27 +25292,27 @@
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Mathias Flak</t>
+          <t>Trygve Feidje Mjelde</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="O204" s="17" t="inlineStr">
         <is>
-          <t>14,25,99</t>
+          <t>14,25,60</t>
         </is>
       </c>
       <c r="P204" s="7" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>10.05</v>
+        <v>29.06</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -25322,19 +25324,19 @@
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Jonas Lillejord</t>
+          <t>Mathias Flak</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E205" s="17" t="inlineStr">
         <is>
-          <t>31,55,83</t>
+          <t>30,07,24</t>
         </is>
       </c>
       <c r="F205" s="7" t="n">
-        <v>742</v>
+        <v>857</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
@@ -25342,7 +25344,7 @@
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>6.05</v>
+        <v>27.06</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
@@ -25352,19 +25354,19 @@
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Mathias Flak</t>
+          <t>Jonas Lillejord</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O205" s="17" t="inlineStr">
         <is>
-          <t>30,07,24</t>
+          <t>31,55,83</t>
         </is>
       </c>
       <c r="P205" s="7" t="n">
-        <v>857</v>
+        <v>742</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
@@ -25372,239 +25374,239 @@
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>27.06</v>
+        <v>6.05</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
     <row r="206" ht="13" customHeight="1">
       <c r="B206" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Bastian Elnan Aurstad</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>1.8</v>
+        <v>54.1</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>652</v>
+        <v>810</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>14.06</v>
+        <v>3.08</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Bastian Elnan Aurstad</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>54.1</v>
+        <v>1.8</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>810</v>
+        <v>652</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>3.08</v>
+        <v>14.06</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
     <row r="207" ht="13" customHeight="1">
       <c r="B207" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Jesper Dypvik Kvaale</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>6.77</v>
+        <v>1.55</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>777</v>
+        <v>408</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>2.08</v>
+        <v>27.01</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Jesper Dypvik Kvaale</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>1.55</v>
+        <v>6.77</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>408</v>
+        <v>777</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>27.01</v>
+        <v>2.08</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
     <row r="208" ht="13" customHeight="1">
       <c r="B208" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>Vegard Trefall</t>
+          <t>Jesper Dypvik Kvaale</t>
         </is>
       </c>
       <c r="D208" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E208" s="15" t="n">
-        <v>2.67</v>
+        <v>2.25</v>
       </c>
       <c r="F208" s="7" t="n">
-        <v>485</v>
+        <v>283</v>
       </c>
       <c r="G208" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H208" s="16" t="n">
-        <v>19.02</v>
+        <v>28.01</v>
       </c>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Jesper Dypvik Kvaale</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>2.25</v>
+        <v>2.67</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>283</v>
+        <v>485</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>28.01</v>
+        <v>19.02</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
       <c r="B209" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>Kjetil Stokke</t>
+          <t>Kiran Brattaker Melbø</t>
         </is>
       </c>
       <c r="D209" s="7" t="n">
-        <v>1991</v>
+        <v>2007</v>
       </c>
       <c r="E209" s="15" t="n">
-        <v>43.75</v>
+        <v>6.31</v>
       </c>
       <c r="F209" s="7" t="n">
-        <v>540</v>
+        <v>676</v>
       </c>
       <c r="G209" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H209" s="16" t="n">
-        <v>27.05</v>
+        <v>2.06</v>
       </c>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Kiran Brattaker Melbø</t>
+          <t>Kjetil Stokke</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>6.31</v>
+        <v>43.75</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>676</v>
+        <v>540</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>2.06</v>
+        <v>27.05</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -25641,7 +25643,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>9373</v>
+        <v>8928</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -25658,7 +25660,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8840</v>
+        <v>9373</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25761,326 +25763,328 @@
     <row r="216" ht="13" customHeight="1">
       <c r="B216" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Jonas Lillejord</t>
+          <t>Alexander Kirkeberg</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E216" s="17" t="inlineStr">
         <is>
-          <t>8,46,19</t>
+          <t>31,30,16</t>
         </is>
       </c>
       <c r="F216" s="7" t="n">
-        <v>743</v>
+        <v>768</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>15.05</v>
+        <v>17.05</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Alexander Kirkeberg</t>
+          <t>Jonas Lillejord</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="O216" s="17" t="inlineStr">
         <is>
-          <t>31,30,16</t>
+          <t>8,46,19</t>
         </is>
       </c>
       <c r="P216" s="7" t="n">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>17.05</v>
+        <v>15.05</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Simen Holen</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E217" s="15" t="n">
-        <v>6.25</v>
+        <v>2001</v>
+      </c>
+      <c r="E217" s="17" t="inlineStr">
+        <is>
+          <t>8,56,21</t>
+        </is>
       </c>
       <c r="F217" s="7" t="n">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>16.06</v>
+        <v>18.02</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Jesper Dypvik Kvaale</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O217" s="17" t="inlineStr">
-        <is>
-          <t>1,59,35</t>
-        </is>
+      <c r="O217" s="15" t="n">
+        <v>6.25</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>700</v>
+        <v>663</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>23.06</v>
+        <v>16.06</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Daniel Bruvik</t>
+          <t>Jesper Dypvik Kvaale</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="E218" s="17" t="inlineStr">
         <is>
-          <t>17,01,03</t>
+          <t>1,59,35</t>
         </is>
       </c>
       <c r="F218" s="7" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>5.06</v>
+        <v>23.06</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Jesper Dypvik Kvaale</t>
+          <t>Daniel Bruvik</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O218" s="15" t="n">
-        <v>51.79</v>
+        <v>1996</v>
+      </c>
+      <c r="O218" s="17" t="inlineStr">
+        <is>
+          <t>17,01,03</t>
+        </is>
       </c>
       <c r="P218" s="7" t="n">
-        <v>697</v>
+        <v>533</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>20.01</v>
+        <v>5.06</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Strand Blichfeldt</t>
+          <t>Jesper Dypvik Kvaale</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>7.92</v>
+        <v>51.79</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>520</v>
+        <v>697</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>20.01</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Alexander Kirkeberg</t>
+          <t>Benjamin Strand Blichfeldt</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O219" s="17" t="inlineStr">
-        <is>
-          <t>8,58,09</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O219" s="15" t="n">
+        <v>7.92</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>696</v>
+        <v>520</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>20.01</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Strand Blichfeldt</t>
+          <t>Alexander Kirkeberg</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E220" s="15" t="n">
-        <v>12.53</v>
+        <v>1996</v>
+      </c>
+      <c r="E220" s="17" t="inlineStr">
+        <is>
+          <t>8,58,09</t>
+        </is>
       </c>
       <c r="F220" s="7" t="n">
-        <v>505</v>
+        <v>696</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>19.06</v>
+        <v>20.01</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Kiran Brattaker Melbø</t>
+          <t>Benjamin Strand Blichfeldt</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>24.06</v>
+        <v>12.53</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>641</v>
+        <v>505</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>21.01</v>
+        <v>19.06</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Strand Blichfeldt</t>
+          <t>Kiran Brattaker Melbø</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E221" s="15" t="n">
-        <v>5.46</v>
+        <v>24.06</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>481</v>
+        <v>641</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
@@ -26089,365 +26093,363 @@
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Simen Holen</t>
+          <t>Benjamin Strand Blichfeldt</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O221" s="17" t="inlineStr">
-        <is>
-          <t>4,17,81</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O221" s="15" t="n">
+        <v>5.46</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>17.02</v>
+        <v>21.01</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Sander Solberg Hopsdal</t>
+          <t>Simen Holen</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E222" s="15" t="n">
-        <v>1.33</v>
+        <v>2001</v>
+      </c>
+      <c r="E222" s="17" t="inlineStr">
+        <is>
+          <t>4,17,81</t>
+        </is>
       </c>
       <c r="F222" s="7" t="n">
-        <v>478</v>
+        <v>610</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>15.01</v>
+        <v>17.02</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Christian Bredesen</t>
+          <t>Sander Solberg Hopsdal</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>53.91</v>
+        <v>1.33</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>607</v>
+        <v>478</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>20.01</v>
+        <v>15.01</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Christian Bredesen</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E223" s="15" t="n">
-        <v>2.65</v>
+        <v>53.91</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>472</v>
+        <v>607</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>15.01</v>
+        <v>20.01</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Tom Kenneth Ilagsmoen</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>1978</v>
-      </c>
-      <c r="O223" s="17" t="inlineStr">
-        <is>
-          <t>16,29,37</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O223" s="15" t="n">
+        <v>2.65</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>589</v>
+        <v>472</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>21.06</v>
+        <v>15.01</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Sander Solberg Hopsdal</t>
+          <t>Petter O. Fuglestrand</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>1.6</v>
+        <v>5.92</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>461</v>
+        <v>588</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>11.02</v>
+        <v>28.01</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Petter O. Fuglestrand</t>
+          <t>Sander Solberg Hopsdal</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>5.92</v>
+        <v>1.6</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>588</v>
+        <v>461</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>28.01</v>
+        <v>11.02</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Baard Raknes</t>
+          <t>Jesper Dypvik Kvaale</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>1978</v>
-      </c>
-      <c r="E225" s="17" t="inlineStr">
-        <is>
-          <t>17,48,06</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E225" s="15" t="n">
+        <v>5.48</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>3.07</v>
+        <v>27.01</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Jesper Dypvik Kvaale</t>
+          <t>Baard Raknes</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O225" s="15" t="n">
-        <v>5.48</v>
+        <v>1978</v>
+      </c>
+      <c r="O225" s="17" t="inlineStr">
+        <is>
+          <t>17,48,06</t>
+        </is>
       </c>
       <c r="P225" s="7" t="n">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>27.01</v>
+        <v>3.07</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Harald Hustad</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>2003</v>
+        <v>1966</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>2.62</v>
+        <v>4.64</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>453</v>
+        <v>283</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>19.02</v>
+        <v>6.07</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Harald Hustad</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>1966</v>
+        <v>2003</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>4.64</v>
+        <v>2.62</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>283</v>
+        <v>453</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>6.07</v>
+        <v>19.02</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
     <row r="227" ht="13" customHeight="1">
-      <c r="B227" s="14" t="inlineStr">
+      <c r="B227" s="14" t="n"/>
+      <c r="C227" s="7" t="n"/>
+      <c r="D227" s="7" t="n"/>
+      <c r="E227" s="7" t="n"/>
+      <c r="F227" s="7" t="n"/>
+      <c r="G227" s="7" t="n"/>
+      <c r="H227" s="21" t="n"/>
+      <c r="J227" s="5" t="n"/>
+      <c r="L227" s="14" t="inlineStr">
         <is>
           <t>Høyde u.t</t>
         </is>
       </c>
-      <c r="C227" s="7" t="inlineStr">
+      <c r="M227" s="7" t="inlineStr">
         <is>
           <t>Benjamin Strand Blichfeldt</t>
         </is>
       </c>
-      <c r="D227" s="7" t="n">
+      <c r="N227" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E227" s="15" t="n">
+      <c r="O227" s="15" t="n">
         <v>1.3</v>
       </c>
-      <c r="F227" s="7" t="n">
+      <c r="P227" s="7" t="n">
         <v>440</v>
       </c>
-      <c r="G227" s="7" t="inlineStr">
+      <c r="Q227" s="7" t="inlineStr">
         <is>
           <t>Osterøy</t>
         </is>
       </c>
-      <c r="H227" s="16" t="n">
+      <c r="R227" s="16" t="n">
         <v>15.01</v>
       </c>
-      <c r="J227" s="5" t="n"/>
-      <c r="L227" s="14" t="n"/>
-      <c r="M227" s="7" t="n"/>
-      <c r="N227" s="7" t="n"/>
-      <c r="O227" s="7" t="n"/>
-      <c r="P227" s="7" t="n"/>
-      <c r="Q227" s="7" t="n"/>
-      <c r="R227" s="21" t="n"/>
       <c r="T227" s="5" t="n"/>
     </row>
     <row r="228" ht="13" customHeight="1">
@@ -26475,7 +26477,7 @@
         </is>
       </c>
       <c r="C229" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E229" s="19" t="inlineStr">
         <is>
@@ -26483,7 +26485,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>6204</v>
+        <v>6779</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26492,7 +26494,7 @@
         </is>
       </c>
       <c r="M229" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O229" s="19" t="inlineStr">
         <is>
@@ -26500,7 +26502,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6665</v>
+        <v>6204</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26515,7 +26517,7 @@
         </is>
       </c>
       <c r="C231" s="20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E231" s="19" t="inlineStr">
         <is>
@@ -26523,7 +26525,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15577</v>
+        <v>15707</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26532,7 +26534,7 @@
         </is>
       </c>
       <c r="M231" s="20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O231" s="19" t="inlineStr">
         <is>
@@ -26540,7 +26542,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>15505</v>
+        <v>15577</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26564,7 +26566,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -26869,18 +26871,18 @@
         <v>2005</v>
       </c>
       <c r="O245" s="15" t="n">
-        <v>11.13</v>
+        <v>11.12</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>23.06</v>
+        <v>11.08</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
@@ -27540,7 +27542,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>7329</v>
+        <v>7331</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -27683,18 +27685,18 @@
         <v>2001</v>
       </c>
       <c r="O263" s="15" t="n">
-        <v>22.58</v>
+        <v>22.53</v>
       </c>
       <c r="P263" s="7" t="n">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="Q263" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R263" s="16" t="n">
-        <v>2.06</v>
+        <v>9.08</v>
       </c>
       <c r="T263" s="5" t="n"/>
     </row>
@@ -28372,7 +28374,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>7700</v>
+        <v>7706</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -28412,7 +28414,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>15029</v>
+        <v>15037</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -28771,18 +28773,18 @@
         <v>2004</v>
       </c>
       <c r="E293" s="15" t="n">
-        <v>21.96</v>
+        <v>21.78</v>
       </c>
       <c r="F293" s="7" t="n">
-        <v>865</v>
+        <v>887</v>
       </c>
       <c r="G293" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H293" s="16" t="n">
-        <v>21.06</v>
+        <v>9.08</v>
       </c>
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
@@ -28799,18 +28801,18 @@
         <v>2004</v>
       </c>
       <c r="O293" s="15" t="n">
-        <v>22.78</v>
+        <v>22.74</v>
       </c>
       <c r="P293" s="7" t="n">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>13.07</v>
+        <v>9.08</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
@@ -29323,7 +29325,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>7435</v>
+        <v>7457</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -29340,7 +29342,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>6096</v>
+        <v>6101</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -29471,7 +29473,7 @@
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M310" s="7" t="inlineStr">
@@ -29483,18 +29485,18 @@
         <v>2006</v>
       </c>
       <c r="O310" s="15" t="n">
-        <v>7.28</v>
+        <v>23</v>
       </c>
       <c r="P310" s="7" t="n">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="Q310" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R310" s="16" t="n">
-        <v>20.01</v>
+        <v>9.08</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
@@ -29529,7 +29531,7 @@
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M311" s="7" t="inlineStr">
@@ -29541,18 +29543,18 @@
         <v>2006</v>
       </c>
       <c r="O311" s="15" t="n">
-        <v>11.4</v>
+        <v>7.28</v>
       </c>
       <c r="P311" s="7" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Q311" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R311" s="16" t="n">
-        <v>21.05</v>
+        <v>20.01</v>
       </c>
       <c r="T311" s="5" t="n"/>
     </row>
@@ -29587,7 +29589,7 @@
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M312" s="7" t="inlineStr">
@@ -29599,18 +29601,18 @@
         <v>2006</v>
       </c>
       <c r="O312" s="15" t="n">
-        <v>23.05</v>
+        <v>11.4</v>
       </c>
       <c r="P312" s="7" t="n">
         <v>743</v>
       </c>
       <c r="Q312" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R312" s="16" t="n">
-        <v>8.06</v>
+        <v>21.05</v>
       </c>
       <c r="T312" s="5" t="n"/>
     </row>
@@ -30106,7 +30108,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>5577</v>
+        <v>5582</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -30129,7 +30131,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>14843</v>
+        <v>14865</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -30146,7 +30148,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>11673</v>
+        <v>11683</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30282,11 +30284,11 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>(30/20)</t>
+          <t>(30/19)</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>27767</v>
+        <v>27802</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30342,7 +30344,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>24081</v>
+        <v>24087</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -30394,11 +30396,11 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>22448</v>
+        <v>22803</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -30426,7 +30428,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>22359</v>
+        <v>22382</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -30450,11 +30452,11 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(30/15)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21659</v>
+        <v>22246</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -31440,18 +31442,18 @@
         <v>1994</v>
       </c>
       <c r="E18" s="15" t="n">
-        <v>54.89</v>
+        <v>54.82</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="G18" s="7" t="inlineStr">
         <is>
-          <t>Nairobi/KEN</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>20.04</v>
+        <v>4.08</v>
       </c>
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
@@ -31806,7 +31808,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>14436</v>
+        <v>14439</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -32044,32 +32046,32 @@
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Malin Edland</t>
+          <t>Ingeborg Østgård</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E32" s="17" t="inlineStr">
         <is>
-          <t>4,14,84</t>
+          <t>9,07,38</t>
         </is>
       </c>
       <c r="F32" s="7" t="n">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>30.05</v>
+        <v>9.08</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -32104,24 +32106,24 @@
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Anne Gine Løvnes</t>
+          <t>Malin Edland</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E33" s="17" t="inlineStr">
         <is>
-          <t>2,04,37</t>
+          <t>4,14,84</t>
         </is>
       </c>
       <c r="F33" s="7" t="n">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
@@ -32129,7 +32131,7 @@
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>18.06</v>
+        <v>30.05</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -32164,30 +32166,32 @@
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Vilde Humstad Aasmo</t>
+          <t>Anne Gine Løvnes</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E34" s="15" t="n">
-        <v>11.8</v>
+        <v>2003</v>
+      </c>
+      <c r="E34" s="17" t="inlineStr">
+        <is>
+          <t>2,04,37</t>
+        </is>
       </c>
       <c r="F34" s="7" t="n">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>27.06</v>
+        <v>18.06</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -32224,30 +32228,30 @@
     <row r="35" ht="13" customHeight="1">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Laura Tietje Johanna Van Der Veen</t>
+          <t>Vilde Humstad Aasmo</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E35" s="15" t="n">
-        <v>54.09</v>
+        <v>11.8</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>18.05</v>
+        <v>27.06</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -32282,32 +32286,30 @@
     <row r="36" ht="13" customHeight="1">
       <c r="B36" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>Ingeborg Østgård</t>
+          <t>Laura Tietje Johanna Van Der Veen</t>
         </is>
       </c>
       <c r="D36" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E36" s="17" t="inlineStr">
-        <is>
-          <t>2,04,82</t>
-        </is>
+      <c r="E36" s="15" t="n">
+        <v>54.09</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H36" s="16" t="n">
-        <v>10.05</v>
+        <v>18.05</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
@@ -32342,20 +32344,20 @@
     <row r="37" ht="13" customHeight="1">
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Malin Edland</t>
+          <t>Ingeborg Østgård</t>
         </is>
       </c>
       <c r="D37" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E37" s="17" t="inlineStr">
         <is>
-          <t>16,01,88</t>
+          <t>2,04,82</t>
         </is>
       </c>
       <c r="F37" s="7" t="n">
@@ -32363,11 +32365,11 @@
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H37" s="16" t="n">
-        <v>19.05</v>
+        <v>10.05</v>
       </c>
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
@@ -32402,12 +32404,12 @@
     <row r="38" ht="13" customHeight="1">
       <c r="B38" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Solveig Hernandez Vråle</t>
+          <t>Malin Edland</t>
         </is>
       </c>
       <c r="D38" s="7" t="n">
@@ -32415,19 +32417,19 @@
       </c>
       <c r="E38" s="17" t="inlineStr">
         <is>
-          <t>2,05,20</t>
+          <t>16,01,88</t>
         </is>
       </c>
       <c r="F38" s="7" t="n">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H38" s="16" t="n">
-        <v>18.06</v>
+        <v>19.05</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
@@ -32462,30 +32464,32 @@
     <row r="39" ht="13" customHeight="1">
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Ida Eikeng</t>
+          <t>Solveig Hernandez Vråle</t>
         </is>
       </c>
       <c r="D39" s="7" t="n">
         <v>1999</v>
       </c>
-      <c r="E39" s="15" t="n">
-        <v>51.62</v>
+      <c r="E39" s="17" t="inlineStr">
+        <is>
+          <t>2,05,20</t>
+        </is>
       </c>
       <c r="F39" s="7" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>Brescia/ITA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H39" s="16" t="n">
-        <v>28.04</v>
+        <v>18.06</v>
       </c>
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
@@ -32520,30 +32524,30 @@
     <row r="40" ht="13" customHeight="1">
       <c r="B40" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>Maren Bakke Amundsen</t>
+          <t>Ida Eikeng</t>
         </is>
       </c>
       <c r="D40" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E40" s="15" t="n">
-        <v>24.16</v>
+        <v>51.62</v>
       </c>
       <c r="F40" s="7" t="n">
         <v>880</v>
       </c>
       <c r="G40" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Brescia/ITA</t>
         </is>
       </c>
       <c r="H40" s="16" t="n">
-        <v>18.06</v>
+        <v>28.04</v>
       </c>
       <c r="J40" s="5" t="n"/>
       <c r="L40" s="14" t="inlineStr">
@@ -32583,11 +32587,11 @@
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>Marte Pettersen</t>
+          <t>Maren Bakke Amundsen</t>
         </is>
       </c>
       <c r="D41" s="7" t="n">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="E41" s="15" t="n">
         <v>24.16</v>
@@ -32597,11 +32601,11 @@
       </c>
       <c r="G41" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H41" s="16" t="n">
-        <v>18.02</v>
+        <v>18.06</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="14" t="inlineStr">
@@ -32840,7 +32844,7 @@
         </is>
       </c>
       <c r="F46" s="20" t="n">
-        <v>13331</v>
+        <v>13363</v>
       </c>
       <c r="J46" s="5" t="n"/>
       <c r="L46" s="19" t="inlineStr">
@@ -32880,7 +32884,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>27767</v>
+        <v>27802</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -32912,7 +32916,7 @@
         </is>
       </c>
       <c r="C50" s="20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J50" s="5" t="n"/>
       <c r="L50" s="19" t="inlineStr">
@@ -33968,18 +33972,18 @@
         <v>2005</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Tårnby/DEN</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>26.05</v>
+        <v>11.08</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -34044,7 +34048,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12502</v>
+        <v>12508</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -35106,7 +35110,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>24081</v>
+        <v>24087</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -35715,27 +35719,27 @@
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>Wilma Anna Bekkemoen Torbiörnsson</t>
+          <t>Amalie M. Sæten</t>
         </is>
       </c>
       <c r="D119" s="7" t="n">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="E119" s="17" t="inlineStr">
         <is>
-          <t>9,14,61</t>
+          <t>8,59,59</t>
         </is>
       </c>
       <c r="F119" s="7" t="n">
-        <v>885</v>
+        <v>942</v>
       </c>
       <c r="G119" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H119" s="16" t="n">
-        <v>18.02</v>
+        <v>9.08</v>
       </c>
       <c r="J119" s="5" t="n"/>
       <c r="L119" s="14" t="inlineStr">
@@ -35875,19 +35879,19 @@
       </c>
       <c r="O121" s="17" t="inlineStr">
         <is>
-          <t>10,00,89</t>
+          <t>9,58,92</t>
         </is>
       </c>
       <c r="P121" s="7" t="n">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="Q121" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bury/GBR</t>
         </is>
       </c>
       <c r="R121" s="16" t="n">
-        <v>28.06</v>
+        <v>10.08</v>
       </c>
       <c r="T121" s="5" t="n"/>
     </row>
@@ -36274,7 +36278,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11642</v>
+        <v>11699</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -36291,7 +36295,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12100</v>
+        <v>12106</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -36459,27 +36463,27 @@
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>Venus Abraham Teffera</t>
+          <t>Wilma Anna Bekkemoen Torbiörnsson</t>
         </is>
       </c>
       <c r="D135" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E135" s="17" t="inlineStr">
         <is>
-          <t>9,29,33</t>
+          <t>9,03,17</t>
         </is>
       </c>
       <c r="F135" s="7" t="n">
-        <v>835</v>
+        <v>928</v>
       </c>
       <c r="G135" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H135" s="16" t="n">
-        <v>14.06</v>
+        <v>9.08</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
@@ -36514,30 +36518,32 @@
     <row r="136" ht="13" customHeight="1">
       <c r="B136" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Hanna Emilie Hjeltnes</t>
+          <t>Venus Abraham Teffera</t>
         </is>
       </c>
       <c r="D136" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E136" s="15" t="n">
-        <v>13.99</v>
+        <v>2008</v>
+      </c>
+      <c r="E136" s="17" t="inlineStr">
+        <is>
+          <t>9,29,33</t>
+        </is>
       </c>
       <c r="F136" s="7" t="n">
-        <v>810</v>
+        <v>835</v>
       </c>
       <c r="G136" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H136" s="16" t="n">
-        <v>28.06</v>
+        <v>14.06</v>
       </c>
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
@@ -36574,24 +36580,22 @@
     <row r="137" ht="13" customHeight="1">
       <c r="B137" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Venus Abraham Teffera</t>
+          <t>Hanna Emilie Hjeltnes</t>
         </is>
       </c>
       <c r="D137" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E137" s="17" t="inlineStr">
-        <is>
-          <t>16,48,79</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E137" s="15" t="n">
+        <v>13.99</v>
       </c>
       <c r="F137" s="7" t="n">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="G137" s="7" t="inlineStr">
         <is>
@@ -36599,7 +36603,7 @@
         </is>
       </c>
       <c r="H137" s="16" t="n">
-        <v>27.06</v>
+        <v>28.06</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
@@ -36634,7 +36638,7 @@
     <row r="138" ht="13" customHeight="1">
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
@@ -36647,19 +36651,19 @@
       </c>
       <c r="E138" s="17" t="inlineStr">
         <is>
-          <t>4,29,69</t>
+          <t>16,48,79</t>
         </is>
       </c>
       <c r="F138" s="7" t="n">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="G138" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H138" s="16" t="n">
-        <v>3.08</v>
+        <v>27.06</v>
       </c>
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
@@ -36694,32 +36698,32 @@
     <row r="139" ht="13" customHeight="1">
       <c r="B139" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Josefin Heier</t>
+          <t>Venus Abraham Teffera</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="E139" s="17" t="inlineStr">
         <is>
-          <t>2,12,19</t>
+          <t>4,29,69</t>
         </is>
       </c>
       <c r="F139" s="7" t="n">
-        <v>769</v>
+        <v>792</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>2.06</v>
+        <v>3.08</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
@@ -36759,27 +36763,27 @@
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Tuva Forsbacka</t>
+          <t>Josefin Heier</t>
         </is>
       </c>
       <c r="D140" s="7" t="n">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="E140" s="17" t="inlineStr">
         <is>
-          <t>2,15,12</t>
+          <t>2,12,19</t>
         </is>
       </c>
       <c r="F140" s="7" t="n">
-        <v>729</v>
+        <v>769</v>
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>5.07</v>
+        <v>2.06</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
@@ -36814,22 +36818,24 @@
     <row r="141" ht="13" customHeight="1">
       <c r="B141" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Hanna Rimstad</t>
+          <t>Tuva Forsbacka</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E141" s="15" t="n">
-        <v>3.1</v>
+        <v>2009</v>
+      </c>
+      <c r="E141" s="17" t="inlineStr">
+        <is>
+          <t>2,15,12</t>
+        </is>
       </c>
       <c r="F141" s="7" t="n">
-        <v>695</v>
+        <v>729</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
@@ -36837,7 +36843,7 @@
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>6.07</v>
+        <v>5.07</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
@@ -36872,32 +36878,30 @@
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Oda Bråten Richenberg</t>
+          <t>Hanna Rimstad</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E142" s="17" t="inlineStr">
-        <is>
-          <t>10,26,34</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E142" s="15" t="n">
+        <v>3.1</v>
       </c>
       <c r="F142" s="7" t="n">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>13.07</v>
+        <v>6.07</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
@@ -36932,12 +36936,12 @@
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Elén Linchausen Skar</t>
+          <t>Oda Bråten Richenberg</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
@@ -36945,112 +36949,114 @@
       </c>
       <c r="E143" s="17" t="inlineStr">
         <is>
-          <t>1,00,27</t>
+          <t>10,26,34</t>
         </is>
       </c>
       <c r="F143" s="7" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>26.05</v>
+        <v>13.07</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Angelica Okparaebo</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="O143" s="15" t="n">
-        <v>8.130000000000001</v>
+        <v>12.81</v>
       </c>
       <c r="P143" s="7" t="n">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>20.01</v>
+        <v>11.08</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
     <row r="144" ht="13" customHeight="1">
       <c r="B144" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Marie Øverli</t>
+          <t>Elén Linchausen Skar</t>
         </is>
       </c>
       <c r="D144" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E144" s="15" t="n">
-        <v>2.9</v>
+        <v>2006</v>
+      </c>
+      <c r="E144" s="17" t="inlineStr">
+        <is>
+          <t>1,00,27</t>
+        </is>
       </c>
       <c r="F144" s="7" t="n">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>6.01</v>
+        <v>26.05</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Falck</t>
+          <t>Angelica Okparaebo</t>
         </is>
       </c>
       <c r="N144" s="7" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="O144" s="15" t="n">
-        <v>26.52</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="P144" s="7" t="n">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>3.08</v>
+        <v>20.01</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
     <row r="145" ht="13" customHeight="1">
       <c r="B145" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
@@ -37062,18 +37068,18 @@
         <v>2008</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>8.32</v>
+        <v>2.9</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>11.02</v>
+        <v>6.01</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
@@ -37108,30 +37114,32 @@
     <row r="146" ht="13" customHeight="1">
       <c r="B146" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Natalie Norbeck Jøransen</t>
+          <t>Oda Bråten Richenberg</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E146" s="15" t="n">
-        <v>27.14</v>
+        <v>2006</v>
+      </c>
+      <c r="E146" s="17" t="inlineStr">
+        <is>
+          <t>4,52,62</t>
+        </is>
       </c>
       <c r="F146" s="7" t="n">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>11.05</v>
+        <v>10.08</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
@@ -37312,7 +37320,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>10806</v>
+        <v>11104</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -37329,7 +37337,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>10259</v>
+        <v>10276</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -37352,7 +37360,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>22448</v>
+        <v>22803</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -37369,7 +37377,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>22359</v>
+        <v>22382</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -37384,7 +37392,7 @@
         </is>
       </c>
       <c r="C154" s="20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="19" t="inlineStr">
@@ -37605,25 +37613,25 @@
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>Kajsa Rooth</t>
+          <t>Marte Pettersen</t>
         </is>
       </c>
       <c r="D165" s="7" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="E165" s="15" t="n">
-        <v>8.02</v>
+        <v>7.64</v>
       </c>
       <c r="F165" s="7" t="n">
-        <v>728</v>
+        <v>851</v>
       </c>
       <c r="G165" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H165" s="16" t="n">
-        <v>9.02</v>
+        <v>3.02</v>
       </c>
       <c r="J165" s="5" t="n"/>
       <c r="L165" s="14" t="inlineStr">
@@ -37663,25 +37671,25 @@
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>Oda Lier</t>
+          <t>Marte Pettersen</t>
         </is>
       </c>
       <c r="D166" s="7" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E166" s="15" t="n">
-        <v>12.56</v>
+        <v>11.96</v>
       </c>
       <c r="F166" s="7" t="n">
-        <v>748</v>
+        <v>862</v>
       </c>
       <c r="G166" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H166" s="16" t="n">
-        <v>6.07</v>
+        <v>11.08</v>
       </c>
       <c r="J166" s="5" t="n"/>
       <c r="L166" s="14" t="inlineStr">
@@ -37721,25 +37729,25 @@
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Kongssund Amlie</t>
+          <t>Marte Pettersen</t>
         </is>
       </c>
       <c r="D167" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E167" s="15" t="n">
-        <v>25.31</v>
+        <v>24.16</v>
       </c>
       <c r="F167" s="7" t="n">
-        <v>781</v>
+        <v>880</v>
       </c>
       <c r="G167" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H167" s="16" t="n">
-        <v>10.02</v>
+        <v>18.02</v>
       </c>
       <c r="J167" s="5" t="n"/>
       <c r="L167" s="14" t="inlineStr">
@@ -38516,7 +38524,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11321</v>
+        <v>11657</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -38696,32 +38704,30 @@
     <row r="187" ht="13" customHeight="1">
       <c r="B187" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>Sara Yasmin Abid</t>
+          <t>Sigrid Kongssund Amlie</t>
         </is>
       </c>
       <c r="D187" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E187" s="17" t="inlineStr">
-        <is>
-          <t>9,46,98</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="E187" s="15" t="n">
+        <v>25.31</v>
       </c>
       <c r="F187" s="7" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G187" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H187" s="16" t="n">
-        <v>4.08</v>
+        <v>10.02</v>
       </c>
       <c r="J187" s="5" t="n"/>
       <c r="L187" s="14" t="inlineStr">
@@ -38756,30 +38762,32 @@
     <row r="188" ht="13" customHeight="1">
       <c r="B188" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>Nora Pauline Helm</t>
+          <t>Sara Yasmin Abid</t>
         </is>
       </c>
       <c r="D188" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E188" s="15" t="n">
-        <v>5.58</v>
+        <v>2006</v>
+      </c>
+      <c r="E188" s="17" t="inlineStr">
+        <is>
+          <t>9,46,98</t>
+        </is>
       </c>
       <c r="F188" s="7" t="n">
-        <v>746</v>
+        <v>780</v>
       </c>
       <c r="G188" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H188" s="16" t="n">
-        <v>5.05</v>
+        <v>4.08</v>
       </c>
       <c r="J188" s="5" t="n"/>
       <c r="L188" s="14" t="inlineStr">
@@ -38819,25 +38827,25 @@
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>Isabella Alida Indrebø</t>
+          <t>Oda Lier</t>
         </is>
       </c>
       <c r="D189" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E189" s="15" t="n">
-        <v>12.68</v>
+        <v>12.56</v>
       </c>
       <c r="F189" s="7" t="n">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="G189" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H189" s="16" t="n">
-        <v>18.06</v>
+        <v>6.07</v>
       </c>
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
@@ -38872,30 +38880,30 @@
     <row r="190" ht="13" customHeight="1">
       <c r="B190" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Oda Lier</t>
+          <t>Nora Pauline Helm</t>
         </is>
       </c>
       <c r="D190" s="7" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="E190" s="15" t="n">
-        <v>8.029999999999999</v>
+        <v>5.58</v>
       </c>
       <c r="F190" s="7" t="n">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="G190" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H190" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>5.05</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="14" t="inlineStr">
@@ -38930,30 +38938,30 @@
     <row r="191" ht="13" customHeight="1">
       <c r="B191" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Kongssund Amlie</t>
+          <t>Kajsa Rooth</t>
         </is>
       </c>
       <c r="D191" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E191" s="15" t="n">
-        <v>12.8</v>
+        <v>8.02</v>
       </c>
       <c r="F191" s="7" t="n">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="G191" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H191" s="16" t="n">
-        <v>2.08</v>
+        <v>9.02</v>
       </c>
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
@@ -38988,7 +38996,7 @@
     <row r="192" ht="13" customHeight="1">
       <c r="B192" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
@@ -39000,10 +39008,10 @@
         <v>2004</v>
       </c>
       <c r="E192" s="15" t="n">
-        <v>26.3</v>
+        <v>12.68</v>
       </c>
       <c r="F192" s="7" t="n">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="G192" s="7" t="inlineStr">
         <is>
@@ -39046,32 +39054,30 @@
     <row r="193" ht="13" customHeight="1">
       <c r="B193" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>Sara Yasmin Abid</t>
+          <t>Oda Lier</t>
         </is>
       </c>
       <c r="D193" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E193" s="17" t="inlineStr">
-        <is>
-          <t>4,46,03</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E193" s="15" t="n">
+        <v>8.029999999999999</v>
       </c>
       <c r="F193" s="7" t="n">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="G193" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H193" s="16" t="n">
-        <v>6.07</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
@@ -39111,25 +39117,25 @@
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>Mina Mikkelsen Sørensen</t>
+          <t>Sigrid Kongssund Amlie</t>
         </is>
       </c>
       <c r="D194" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E194" s="15" t="n">
-        <v>12.95</v>
+        <v>12.8</v>
       </c>
       <c r="F194" s="7" t="n">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>18.06</v>
+        <v>2.08</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
@@ -39169,17 +39175,17 @@
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Mina Mikkelsen Sørensen</t>
+          <t>Isabella Alida Indrebø</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E195" s="15" t="n">
-        <v>26.78</v>
+        <v>26.3</v>
       </c>
       <c r="F195" s="7" t="n">
-        <v>666</v>
+        <v>702</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
@@ -39222,30 +39228,32 @@
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Frida Johanna Valstad Elsness</t>
+          <t>Sara Yasmin Abid</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E196" s="15" t="n">
-        <v>26.85</v>
+        <v>2006</v>
+      </c>
+      <c r="E196" s="17" t="inlineStr">
+        <is>
+          <t>4,46,03</t>
+        </is>
       </c>
       <c r="F196" s="7" t="n">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>11.05</v>
+        <v>6.07</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
@@ -39542,7 +39550,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>10338</v>
+        <v>10589</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -39582,7 +39590,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21659</v>
+        <v>22246</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -39614,7 +39622,7 @@
         </is>
       </c>
       <c r="C206" s="20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="19" t="inlineStr">
@@ -46369,7 +46377,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>21199</v>
+        <v>21411</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -46397,7 +46405,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>18336</v>
+        <v>18363</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -46425,7 +46433,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>18305</v>
+        <v>18333</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -46481,7 +46489,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16132</v>
+        <v>16170</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -46565,7 +46573,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15530</v>
+        <v>15537</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -46621,7 +46629,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14487</v>
+        <v>14492</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -46645,11 +46653,11 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>13981</v>
+        <v>14031</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -46673,11 +46681,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(24/12)</t>
+          <t>(24/13)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>13457</v>
+        <v>13565</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -46705,7 +46713,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>13425</v>
+        <v>13428</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -46733,7 +46741,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>11507</v>
+        <v>11533</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -47207,7 +47215,7 @@
     <row r="13" ht="13" customHeight="1">
       <c r="B13" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
@@ -47220,19 +47228,19 @@
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>16,25,22</t>
+          <t>9,30,17</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H13" s="16" t="n">
-        <v>18.06</v>
+        <v>9.08</v>
       </c>
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
@@ -47269,32 +47277,32 @@
     <row r="14" ht="13" customHeight="1">
       <c r="B14" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>Madelène Holum</t>
+          <t>Anna Marie Nordengen Sirevåg</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>1994</v>
+        <v>2004</v>
       </c>
       <c r="E14" s="17" t="inlineStr">
         <is>
-          <t>35,05,91</t>
+          <t>16,17,32</t>
         </is>
       </c>
       <c r="F14" s="7" t="n">
-        <v>818</v>
+        <v>858</v>
       </c>
       <c r="G14" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bury/GBR</t>
         </is>
       </c>
       <c r="H14" s="16" t="n">
-        <v>29.06</v>
+        <v>10.08</v>
       </c>
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
@@ -47543,18 +47551,18 @@
         <v>1999</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>6.04</v>
+        <v>6.16</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>851</v>
+        <v>878</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>2.06</v>
+        <v>10.08</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -47573,18 +47581,18 @@
         <v>2007</v>
       </c>
       <c r="E19" s="15" t="n">
-        <v>5.74</v>
+        <v>6.06</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>783</v>
+        <v>855</v>
       </c>
       <c r="G19" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Tårnby/DEN</t>
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>4.05</v>
+        <v>10.08</v>
       </c>
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
@@ -47765,7 +47773,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -47782,7 +47790,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>9846</v>
+        <v>9873</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -48064,19 +48072,19 @@
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Kristine Meinert Rød</t>
+          <t>Madelène Holum</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="E31" s="17" t="inlineStr">
         <is>
-          <t>16,34,10</t>
+          <t>16,25,22</t>
         </is>
       </c>
       <c r="F31" s="7" t="n">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
@@ -48121,30 +48129,32 @@
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Elea Jørstad Bock</t>
+          <t>Kristine Meinert Rød</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E32" s="15" t="n">
-        <v>12.14</v>
+        <v>2001</v>
+      </c>
+      <c r="E32" s="17" t="inlineStr">
+        <is>
+          <t>16,34,10</t>
+        </is>
       </c>
       <c r="F32" s="7" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>6.07</v>
+        <v>18.06</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -48184,25 +48194,25 @@
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Pernille Rismark</t>
+          <t>Elea Jørstad Bock</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E33" s="15" t="n">
-        <v>12.16</v>
+        <v>12.14</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>Gainesville/FL/USA</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>13.04</v>
+        <v>6.07</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -48242,25 +48252,25 @@
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Ingrid Pernille Rismark</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>12.17</v>
+        <v>12.16</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Gainesville/FL/USA</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>27.06</v>
+        <v>13.04</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -48295,24 +48305,22 @@
     <row r="35" ht="13" customHeight="1">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Anna Marie Nordengen Sirevåg</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E35" s="17" t="inlineStr">
-        <is>
-          <t>35,06,63</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E35" s="15" t="n">
+        <v>12.17</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
@@ -48320,7 +48328,7 @@
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>29.06</v>
+        <v>27.06</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -48413,30 +48421,30 @@
     <row r="37" ht="13" customHeight="1">
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Cassandra Ødegård Nilsen</t>
+          <t>Rachel Ombeni</t>
         </is>
       </c>
       <c r="D37" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E37" s="15" t="n">
-        <v>11.44</v>
+        <v>5.57</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>683</v>
+        <v>744</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H37" s="16" t="n">
-        <v>12.05</v>
+        <v>10.08</v>
       </c>
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
@@ -48471,7 +48479,7 @@
     <row r="38" ht="13" customHeight="1">
       <c r="B38" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
@@ -48483,10 +48491,10 @@
         <v>2006</v>
       </c>
       <c r="E38" s="15" t="n">
-        <v>5.25</v>
+        <v>11.44</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
@@ -48529,30 +48537,30 @@
     <row r="39" ht="13" customHeight="1">
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Cassandra Ødegård Nilsen</t>
         </is>
       </c>
       <c r="D39" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E39" s="15" t="n">
-        <v>1.56</v>
+        <v>5.25</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H39" s="16" t="n">
-        <v>25.05</v>
+        <v>12.05</v>
       </c>
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
@@ -48617,7 +48625,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>9599</v>
+        <v>9711</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -48657,7 +48665,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>21199</v>
+        <v>21411</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -48674,7 +48682,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>18336</v>
+        <v>18363</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -49571,18 +49579,18 @@
         <v>2005</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>40.72</v>
+        <v>42.76</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>735</v>
+        <v>763</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Tårnby/DEN</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>24.07</v>
+        <v>10.08</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -49705,7 +49713,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>10118</v>
+        <v>10146</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -50605,7 +50613,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>18305</v>
+        <v>18333</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -50923,18 +50931,18 @@
         <v>2001</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>12.24</v>
+        <v>12.04</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>808</v>
+        <v>846</v>
       </c>
       <c r="G104" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H104" s="16" t="n">
-        <v>12.05</v>
+        <v>11.08</v>
       </c>
       <c r="J104" s="5" t="n"/>
       <c r="L104" s="14" t="inlineStr">
@@ -51625,7 +51633,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>8008</v>
+        <v>8046</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -52513,7 +52521,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16132</v>
+        <v>16170</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -53399,18 +53407,18 @@
         <v>2007</v>
       </c>
       <c r="O160" s="15" t="n">
-        <v>11.74</v>
+        <v>11.88</v>
       </c>
       <c r="P160" s="7" t="n">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="Q160" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R160" s="16" t="n">
-        <v>2.08</v>
+        <v>11.08</v>
       </c>
       <c r="T160" s="5" t="n"/>
     </row>
@@ -53580,7 +53588,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8637</v>
+        <v>8644</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -54470,7 +54478,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15530</v>
+        <v>15537</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -54799,18 +54807,18 @@
         <v>2009</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>12.94</v>
+        <v>12.93</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>27.04</v>
+        <v>11.08</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -54857,18 +54865,18 @@
         <v>2009</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>26.47</v>
+        <v>26.43</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>25.05</v>
+        <v>9.08</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -55520,7 +55528,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8229</v>
+        <v>8234</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -56414,7 +56422,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14487</v>
+        <v>14492</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -57065,30 +57073,30 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Julianne Allern Brose</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>1.8</v>
+        <v>4.85</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>366</v>
+        <v>586</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>9.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -57123,30 +57131,30 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Aurora Molund Tangen</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>4.85</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>586</v>
+        <v>454</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -57181,22 +57189,22 @@
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Aurora Molund Tangen</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>9.039999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>454</v>
+        <v>609</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
@@ -57204,7 +57212,7 @@
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>9.06</v>
+        <v>2.02</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
@@ -57239,22 +57247,22 @@
     <row r="254" ht="13" customHeight="1">
       <c r="B254" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>1.25</v>
+        <v>2.24</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>609</v>
+        <v>451</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
@@ -57297,30 +57305,30 @@
     <row r="255" ht="13" customHeight="1">
       <c r="B255" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Pernille Allern Brose</t>
         </is>
       </c>
       <c r="D255" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E255" s="15" t="n">
-        <v>2.24</v>
+        <v>21.26</v>
       </c>
       <c r="F255" s="7" t="n">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="G255" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H255" s="16" t="n">
-        <v>2.02</v>
+        <v>11.08</v>
       </c>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
@@ -57423,7 +57431,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>7505</v>
+        <v>7555</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -57749,32 +57757,32 @@
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Marie Oraug</t>
+          <t>Ingrid Elise Kullerud</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="O266" s="17" t="inlineStr">
         <is>
-          <t>5,07,51</t>
+          <t>2,24,52</t>
         </is>
       </c>
       <c r="P266" s="7" t="n">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>14.06</v>
+        <v>9.08</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
@@ -57809,22 +57817,24 @@
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Matea Anne Sommerfeldt</t>
+          <t>Marie Oraug</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
         <v>2011</v>
       </c>
-      <c r="O267" s="15" t="n">
-        <v>8.6</v>
+      <c r="O267" s="17" t="inlineStr">
+        <is>
+          <t>5,07,51</t>
+        </is>
       </c>
       <c r="P267" s="7" t="n">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
@@ -57832,7 +57842,7 @@
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>15.06</v>
+        <v>14.06</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -57867,7 +57877,7 @@
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
@@ -57879,18 +57889,18 @@
         <v>2011</v>
       </c>
       <c r="O268" s="15" t="n">
-        <v>28.62</v>
+        <v>8.6</v>
       </c>
       <c r="P268" s="7" t="n">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>7.07</v>
+        <v>15.06</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
@@ -57925,30 +57935,30 @@
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Celine Clausen Azyrov</t>
+          <t>Matea Anne Sommerfeldt</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
         <v>2011</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>8.800000000000001</v>
+        <v>28.62</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Askim</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>4.05</v>
+        <v>7.07</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -57985,30 +57995,30 @@
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Mæland Andersen</t>
+          <t>Celine Clausen Azyrov</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>1.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Askim</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>6.01</v>
+        <v>4.05</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -58043,30 +58053,30 @@
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Celine Clausen Azyrov</t>
+          <t>Ingrid Mæland Andersen</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>29.08</v>
+        <v>1.4</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>26.05</v>
+        <v>6.01</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -58294,7 +58304,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>6236</v>
+        <v>6344</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58317,7 +58327,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>13981</v>
+        <v>14031</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -58334,7 +58344,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>13457</v>
+        <v>13565</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -58349,7 +58359,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -58358,7 +58368,7 @@
         </is>
       </c>
       <c r="M280" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
@@ -58813,18 +58823,18 @@
         <v>2007</v>
       </c>
       <c r="E295" s="15" t="n">
-        <v>4.15</v>
+        <v>4.16</v>
       </c>
       <c r="F295" s="7" t="n">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="G295" s="7" t="inlineStr">
         <is>
-          <t>Banská Bystrica/SVK</t>
+          <t>Tårnby/DEN</t>
         </is>
       </c>
       <c r="H295" s="16" t="n">
-        <v>21.07</v>
+        <v>10.08</v>
       </c>
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
@@ -59275,7 +59285,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>6801</v>
+        <v>6804</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -59423,30 +59433,30 @@
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M310" s="7" t="inlineStr">
         <is>
-          <t>Matilda Leonora Moen Kasin</t>
+          <t>Maja Gundersen Palmgren</t>
         </is>
       </c>
       <c r="N310" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O310" s="15" t="n">
-        <v>1.4</v>
+        <v>13.91</v>
       </c>
       <c r="P310" s="7" t="n">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="Q310" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R310" s="16" t="n">
-        <v>5.06</v>
+        <v>11.08</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
@@ -59481,32 +59491,30 @@
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M311" s="7" t="inlineStr">
         <is>
-          <t>Violet Victoria Diderique Nijenhuis-Stanchenko</t>
+          <t>Matilda Leonora Moen Kasin</t>
         </is>
       </c>
       <c r="N311" s="7" t="n">
-        <v>2012</v>
-      </c>
-      <c r="O311" s="17" t="inlineStr">
-        <is>
-          <t>5,19,20</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="O311" s="15" t="n">
+        <v>1.4</v>
       </c>
       <c r="P311" s="7" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q311" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R311" s="16" t="n">
-        <v>21.06</v>
+        <v>5.06</v>
       </c>
       <c r="T311" s="5" t="n"/>
     </row>
@@ -59541,30 +59549,32 @@
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M312" s="7" t="inlineStr">
         <is>
-          <t>Maja Gundersen Palmgren</t>
+          <t>Violet Victoria Diderique Nijenhuis-Stanchenko</t>
         </is>
       </c>
       <c r="N312" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O312" s="15" t="n">
-        <v>14.08</v>
+        <v>2012</v>
+      </c>
+      <c r="O312" s="17" t="inlineStr">
+        <is>
+          <t>5,19,20</t>
+        </is>
       </c>
       <c r="P312" s="7" t="n">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="Q312" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R312" s="16" t="n">
-        <v>5.06</v>
+        <v>21.06</v>
       </c>
       <c r="T312" s="5" t="n"/>
     </row>
@@ -60140,7 +60150,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>5049</v>
+        <v>5075</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -60163,7 +60173,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>13425</v>
+        <v>13428</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -60180,7 +60190,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>11507</v>
+        <v>11533</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -46653,11 +46653,11 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>14031</v>
+        <v>14041</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -57078,25 +57078,25 @@
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Aurora Molund Tangen</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>4.85</v>
+        <v>4.36</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>586</v>
+        <v>475</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>7.08</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -57252,17 +57252,17 @@
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>2.24</v>
+        <v>2.29</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
@@ -57431,7 +57431,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>7555</v>
+        <v>7482</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -57729,22 +57729,22 @@
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Elsa Mækelæ Lindblad</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E266" s="15" t="n">
-        <v>1.43</v>
+        <v>28.38</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
@@ -57789,30 +57789,30 @@
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Nora Tvete</t>
+          <t>Elsa Mækelæ Lindblad</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E267" s="15" t="n">
-        <v>8.710000000000001</v>
+        <v>1.43</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>3.02</v>
+        <v>2.06</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
@@ -57849,30 +57849,30 @@
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Martine Inderberg</t>
+          <t>Nora Tvete</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>13.84</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>1.06</v>
+        <v>3.02</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
@@ -57907,7 +57907,7 @@
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
@@ -57919,18 +57919,18 @@
         <v>2009</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>8.81</v>
+        <v>13.84</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>22.01</v>
+        <v>1.06</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
@@ -57965,7 +57965,7 @@
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
@@ -57976,13 +57976,11 @@
       <c r="D270" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E270" s="17" t="inlineStr">
-        <is>
-          <t>1,06,07</t>
-        </is>
+      <c r="E270" s="15" t="n">
+        <v>8.81</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
@@ -57990,7 +57988,7 @@
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>8.06</v>
+        <v>22.01</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
@@ -58025,22 +58023,24 @@
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Aurora Molund Tangen</t>
+          <t>Martine Inderberg</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="E271" s="15" t="n">
-        <v>1.15</v>
+      <c r="E271" s="17" t="inlineStr">
+        <is>
+          <t>1,06,07</t>
+        </is>
       </c>
       <c r="F271" s="7" t="n">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
@@ -58048,7 +58048,7 @@
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>2.02</v>
+        <v>8.06</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -58083,22 +58083,22 @@
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Ylva Martedatter Grammeltvedt</t>
+          <t>Aurora Molund Tangen</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
@@ -58106,7 +58106,7 @@
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>8.06</v>
+        <v>2.02</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -58141,22 +58141,22 @@
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Aurora Molund Tangen</t>
+          <t>Ylva Martedatter Grammeltvedt</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>1.35</v>
+        <v>9</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
@@ -58164,7 +58164,7 @@
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>9.06</v>
+        <v>8.06</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
@@ -58204,11 +58204,11 @@
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Julianne Allern Brose</t>
+          <t>Aurora Molund Tangen</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E274" s="15" t="n">
         <v>1.35</v>
@@ -58218,11 +58218,11 @@
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>2.06</v>
+        <v>9.06</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
@@ -58287,7 +58287,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>6476</v>
+        <v>6559</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>14031</v>
+        <v>14041</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -58359,7 +58359,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -742,11 +742,11 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>24375</v>
+        <v>24443</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>23251</v>
+        <v>23270</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>21960</v>
+        <v>22044</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -7370,30 +7370,30 @@
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Oskar Gjertsen Trumpy</t>
+          <t>Gjert Høie Sjursen</t>
         </is>
       </c>
       <c r="N144" s="7" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="O144" s="15" t="n">
-        <v>1.88</v>
+        <v>13.82</v>
       </c>
       <c r="P144" s="7" t="n">
         <v>722</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>6.07</v>
+        <v>18.08</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
@@ -7428,30 +7428,30 @@
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M145" s="7" t="inlineStr">
         <is>
-          <t>Ilunga Josue Kongolo</t>
+          <t>Oskar Gjertsen Trumpy</t>
         </is>
       </c>
       <c r="N145" s="7" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="O145" s="15" t="n">
-        <v>3.08</v>
+        <v>1.88</v>
       </c>
       <c r="P145" s="7" t="n">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R145" s="16" t="n">
-        <v>17.02</v>
+        <v>6.07</v>
       </c>
       <c r="T145" s="5" t="n"/>
     </row>
@@ -7486,30 +7486,30 @@
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Gjert Høie Sjursen</t>
+          <t>Ilunga Josue Kongolo</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>13.66</v>
+        <v>3.08</v>
       </c>
       <c r="P146" s="7" t="n">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Sollentuna/SWE</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>10.08</v>
+        <v>17.02</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
@@ -7544,22 +7544,22 @@
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M147" s="7" t="inlineStr">
         <is>
-          <t>Kirill Eikanger</t>
+          <t>Thomas Brattaule</t>
         </is>
       </c>
       <c r="N147" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O147" s="15" t="n">
-        <v>6</v>
+        <v>51.39</v>
       </c>
       <c r="P147" s="7" t="n">
-        <v>606</v>
+        <v>645</v>
       </c>
       <c r="Q147" s="7" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="R147" s="16" t="n">
-        <v>2.06</v>
+        <v>17.08</v>
       </c>
       <c r="T147" s="5" t="n"/>
     </row>
@@ -7602,7 +7602,7 @@
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M148" s="7" t="inlineStr">
@@ -7614,10 +7614,10 @@
         <v>2008</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>1.73</v>
+        <v>6</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>1.06</v>
+        <v>2.06</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11645</v>
+        <v>11713</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7719,7 +7719,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>24375</v>
+        <v>24443</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -7743,7 +7743,7 @@
         </is>
       </c>
       <c r="M154" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -10318,18 +10318,18 @@
         <v>2006</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>22.88</v>
+        <v>22.71</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>4.02</v>
+        <v>18.08</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
@@ -11078,7 +11078,7 @@
         </is>
       </c>
       <c r="F233" s="20" t="n">
-        <v>11132</v>
+        <v>11151</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -11405,17 +11405,17 @@
       </c>
       <c r="M241" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Andreas Langhelle</t>
         </is>
       </c>
       <c r="N241" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O241" s="15" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="P241" s="7" t="n">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="Q241" s="7" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         </is>
       </c>
       <c r="R241" s="16" t="n">
-        <v>2.06</v>
+        <v>17.08</v>
       </c>
       <c r="T241" s="5" t="n"/>
     </row>
@@ -11463,25 +11463,25 @@
       </c>
       <c r="M242" s="7" t="inlineStr">
         <is>
-          <t>Jakob H. Holmelid</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="N242" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O242" s="15" t="n">
-        <v>11.4</v>
+        <v>11.29</v>
       </c>
       <c r="P242" s="7" t="n">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="Q242" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R242" s="16" t="n">
-        <v>25.05</v>
+        <v>2.06</v>
       </c>
       <c r="T242" s="5" t="n"/>
     </row>
@@ -11521,25 +11521,25 @@
       </c>
       <c r="M243" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Andreas Langhelle</t>
         </is>
       </c>
       <c r="N243" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O243" s="15" t="n">
-        <v>23.13</v>
+        <v>22.82</v>
       </c>
       <c r="P243" s="7" t="n">
-        <v>735</v>
+        <v>768</v>
       </c>
       <c r="Q243" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R243" s="16" t="n">
-        <v>20.01</v>
+        <v>18.08</v>
       </c>
       <c r="T243" s="5" t="n"/>
     </row>
@@ -11574,30 +11574,30 @@
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Jone Alsaker Løken</t>
+          <t>Jakob H. Holmelid</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>51.04</v>
+        <v>11.4</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>22.05</v>
+        <v>25.05</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
@@ -11637,25 +11637,25 @@
       </c>
       <c r="M245" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="N245" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O245" s="15" t="n">
-        <v>23.17</v>
+        <v>23.13</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>31.05</v>
+        <v>20.01</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
@@ -11690,30 +11690,30 @@
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Jone Alsaker Løken</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O246" s="15" t="n">
-        <v>11.48</v>
+        <v>51.04</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>2.08</v>
+        <v>22.05</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>9234</v>
+        <v>9318</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -12138,7 +12138,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>23251</v>
+        <v>23270</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>21960</v>
+        <v>22044</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -16463,7 +16463,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18313</v>
+        <v>18316</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -16627,11 +16627,11 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>16842</v>
+        <v>16946</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>16220</v>
+        <v>16297</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -16795,11 +16795,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(21/9)</t>
+          <t>(21/8)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>14865</v>
+        <v>14974</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -17312,19 +17312,19 @@
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>1,54,21</t>
+          <t>1,54,1</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H13" s="16" t="n">
-        <v>18.06</v>
+        <v>14.08</v>
       </c>
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
@@ -17867,7 +17867,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>9748</v>
+        <v>9751</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -18755,7 +18755,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18313</v>
+        <v>18316</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -23993,22 +23993,22 @@
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Alf Kristian Hollund</t>
+          <t>Andreas Kringeland</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E172" s="15" t="n">
-        <v>7.6</v>
+        <v>11.9</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>1.06</v>
+        <v>17.08</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -24053,22 +24053,22 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kringeland</t>
+          <t>Alf Kristian Hollund</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E173" s="15" t="n">
-        <v>24.59</v>
+        <v>7.6</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>592</v>
+        <v>625</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
@@ -24076,12 +24076,12 @@
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>31.05</v>
+        <v>1.06</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
@@ -24094,107 +24094,111 @@
       </c>
       <c r="O173" s="17" t="inlineStr">
         <is>
-          <t>8,59,4</t>
+          <t>4,07,17</t>
         </is>
       </c>
       <c r="P173" s="7" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>24.07</v>
+        <v>11.08</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kringeland</t>
+          <t>Vegard Havn</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E174" s="15" t="n">
-        <v>7.73</v>
+        <v>1997</v>
+      </c>
+      <c r="E174" s="17" t="inlineStr">
+        <is>
+          <t>4,18,41</t>
+        </is>
       </c>
       <c r="F174" s="7" t="n">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>1.06</v>
+        <v>11.08</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Sondre F. Eilertsen</t>
+          <t>Elias Landøy Rasmussen</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O174" s="15" t="n">
-        <v>23.63</v>
+        <v>2009</v>
+      </c>
+      <c r="O174" s="17" t="inlineStr">
+        <is>
+          <t>8,59,4</t>
+        </is>
       </c>
       <c r="P174" s="7" t="n">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>25.02</v>
+        <v>24.07</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Alf Kristian Hollund</t>
+          <t>Andreas Kringeland</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>12.19</v>
+        <v>24.5</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>2.06</v>
+        <v>11.08</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -24204,34 +24208,34 @@
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Elias Landøy Rasmussen</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>2009</v>
+        <v>1995</v>
       </c>
       <c r="O175" s="17" t="inlineStr">
         <is>
-          <t>4,12,27</t>
+          <t>4,08,20</t>
         </is>
       </c>
       <c r="P175" s="7" t="n">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>11.08</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
@@ -24243,23 +24247,23 @@
         <v>2008</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>12.2</v>
+        <v>7.73</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>25.05</v>
+        <v>1.06</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
@@ -24271,18 +24275,18 @@
         <v>2007</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>11.81</v>
+        <v>23.63</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>651</v>
+        <v>684</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>16.06</v>
+        <v>25.02</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -24468,11 +24472,11 @@
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Andreas Kringeland</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E180" s="15" t="n">
         <v>5.29</v>
@@ -24482,11 +24486,11 @@
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>18.04</v>
+        <v>11.08</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
@@ -24551,7 +24555,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>7333</v>
+        <v>7437</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24568,7 +24572,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>7522</v>
+        <v>7599</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -24591,7 +24595,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>16842</v>
+        <v>16946</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24608,7 +24612,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>16220</v>
+        <v>16297</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24623,7 +24627,7 @@
         </is>
       </c>
       <c r="C186" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="19" t="inlineStr">
@@ -28773,18 +28777,18 @@
         <v>2004</v>
       </c>
       <c r="E293" s="15" t="n">
-        <v>21.78</v>
+        <v>21.75</v>
       </c>
       <c r="F293" s="7" t="n">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="G293" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H293" s="16" t="n">
-        <v>9.08</v>
+        <v>18.08</v>
       </c>
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
@@ -28824,17 +28828,17 @@
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>Leonid Raiets</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D294" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="E294" s="15" t="n">
-        <v>52.38</v>
+        <v>50.15</v>
       </c>
       <c r="F294" s="7" t="n">
-        <v>671</v>
+        <v>777</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
@@ -28842,7 +28846,7 @@
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>2.06</v>
+        <v>17.08</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
@@ -29325,7 +29329,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>7457</v>
+        <v>7566</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -30131,7 +30135,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>14865</v>
+        <v>14974</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -30163,7 +30167,7 @@
         </is>
       </c>
       <c r="C327" s="20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="19" t="inlineStr">
@@ -30316,7 +30320,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>25371</v>
+        <v>25383</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -30400,7 +30404,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>22803</v>
+        <v>22813</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -31108,10 +31112,10 @@
         <v>2007</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>59.31</v>
+        <v>58.98</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
@@ -31119,7 +31123,7 @@
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>2.06</v>
+        <v>17.08</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -31825,7 +31829,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>13301</v>
+        <v>13313</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -32901,7 +32905,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>25371</v>
+        <v>25383</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -35910,18 +35914,18 @@
         <v>1999</v>
       </c>
       <c r="E122" s="15" t="n">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>20.01</v>
+        <v>17.08</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
@@ -36278,7 +36282,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11699</v>
+        <v>11709</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -37360,7 +37364,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>22803</v>
+        <v>22813</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -46517,7 +46521,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>15842</v>
+        <v>15856</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -46545,7 +46549,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15635</v>
+        <v>15652</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -51070,27 +51074,27 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="N106" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O106" s="17" t="inlineStr">
         <is>
-          <t>1,01,10</t>
+          <t>1,00,99</t>
         </is>
       </c>
       <c r="P106" s="7" t="n">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="Q106" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R106" s="16" t="n">
-        <v>3.07</v>
+        <v>17.08</v>
       </c>
       <c r="T106" s="5" t="n"/>
     </row>
@@ -51650,7 +51654,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>8509</v>
+        <v>8513</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -52134,27 +52138,27 @@
       </c>
       <c r="M128" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="N128" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O128" s="17" t="inlineStr">
         <is>
-          <t>1,01,46</t>
+          <t>1,01,10</t>
         </is>
       </c>
       <c r="P128" s="7" t="n">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>2.06</v>
+        <v>3.07</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -52498,7 +52502,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7333</v>
+        <v>7343</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -52538,7 +52542,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>15842</v>
+        <v>15856</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -53865,30 +53869,30 @@
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Birgitte Langeland Birkeland</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E172" s="15" t="n">
-        <v>8.18</v>
+        <v>12.91</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>10.02</v>
+        <v>17.08</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -53925,22 +53929,22 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Birgitte Langeland Birkeland</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E173" s="15" t="n">
-        <v>26.7</v>
+        <v>8.18</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
@@ -53948,7 +53952,7 @@
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>20.01</v>
+        <v>10.02</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -53983,30 +53987,30 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>13.01</v>
+        <v>26.7</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>2.06</v>
+        <v>20.01</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -54421,7 +54425,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>6960</v>
+        <v>6977</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -54461,7 +54465,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15635</v>
+        <v>15652</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>28787</v>
+        <v>28845</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>25819</v>
+        <v>25879</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -658,11 +658,11 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(30/18)</t>
+          <t>(30/17)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>25331</v>
+        <v>25341</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -686,11 +686,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>25139</v>
+        <v>25237</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>24892</v>
+        <v>25007</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>22044</v>
+        <v>22050</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18089</v>
+        <v>18113</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -1487,19 +1487,19 @@
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>3,45,95</t>
+          <t>3,42,12</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>911</v>
+        <v>958</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Bury/GBR</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>10.08</v>
+        <v>21.08</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -1808,30 +1808,30 @@
     <row r="19" ht="13" customHeight="1">
       <c r="B19" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>Sander Aae Skotheim</t>
+          <t>Markus Rooth</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E19" s="15" t="n">
-        <v>2.17</v>
+        <v>5.3</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="G19" s="7" t="inlineStr">
         <is>
-          <t>Roma/ITA</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>10.06</v>
+        <v>3.08</v>
       </c>
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
@@ -1866,22 +1866,22 @@
     <row r="20" ht="13" customHeight="1">
       <c r="B20" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>Markus Rooth</t>
+          <t>Sander Aae Skotheim</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E20" s="15" t="n">
-        <v>5.3</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>969</v>
+        <v>1036</v>
       </c>
       <c r="G20" s="7" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="H20" s="16" t="n">
-        <v>3.08</v>
+        <v>2.08</v>
       </c>
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
@@ -1906,25 +1906,25 @@
         <v>1999</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>5.8</v>
+        <v>5.82</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Paris/FRA</t>
+          <t>Lausanne/SUI</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>5.08</v>
+        <v>21.08</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
     <row r="21" ht="13" customHeight="1">
       <c r="B21" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
@@ -1936,18 +1936,18 @@
         <v>2002</v>
       </c>
       <c r="E21" s="15" t="n">
-        <v>8.029999999999999</v>
+        <v>16.07</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>1036</v>
+        <v>984</v>
       </c>
       <c r="G21" s="7" t="inlineStr">
         <is>
-          <t>Paris/FRA</t>
+          <t>Borås/SWE</t>
         </is>
       </c>
       <c r="H21" s="16" t="n">
-        <v>2.08</v>
+        <v>21.08</v>
       </c>
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>14900</v>
+        <v>14924</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>13257</v>
+        <v>13309</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -2306,32 +2306,30 @@
     <row r="31" ht="13" customHeight="1">
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Mikkel Blikstad Thomassen</t>
+          <t>Sander Aae Skotheim</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E31" s="17" t="inlineStr">
-        <is>
-          <t>3,41,95</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="E31" s="15" t="n">
+        <v>2.17</v>
       </c>
       <c r="F31" s="7" t="n">
         <v>960</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Roma/ITA</t>
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>30.05</v>
+        <v>10.06</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
@@ -2368,7 +2366,7 @@
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
@@ -2381,11 +2379,11 @@
       </c>
       <c r="E32" s="17" t="inlineStr">
         <is>
-          <t>13,47,63</t>
+          <t>3,41,95</t>
         </is>
       </c>
       <c r="F32" s="7" t="n">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
@@ -2393,7 +2391,7 @@
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>18.06</v>
+        <v>30.05</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -2430,30 +2428,32 @@
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Markus Rooth</t>
+          <t>Mikkel Blikstad Thomassen</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E33" s="15" t="n">
-        <v>8.01</v>
+        <v>2003</v>
+      </c>
+      <c r="E33" s="17" t="inlineStr">
+        <is>
+          <t>13,47,63</t>
+        </is>
       </c>
       <c r="F33" s="7" t="n">
-        <v>941</v>
+        <v>955</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>Glasgow/GBR</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>3.03</v>
+        <v>18.06</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -2502,18 +2502,18 @@
         <v>1996</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>7.54</v>
+        <v>7.56</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>19.05</v>
+        <v>17.08</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -2548,60 +2548,60 @@
     <row r="35" ht="13" customHeight="1">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Sander Aae Skotheim</t>
+          <t>Markus Rooth</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E35" s="15" t="n">
-        <v>5.11</v>
+        <v>8.01</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>930</v>
+        <v>941</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Glasgow/GBR</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>20.01</v>
+        <v>3.03</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Trond Einar Moen Pedersli</t>
+          <t>Lars Johansson Hauge</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="O35" s="17" t="inlineStr">
         <is>
-          <t>30,13,86</t>
+          <t>1,52,45</t>
         </is>
       </c>
       <c r="P35" s="7" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>27.06</v>
+        <v>17.08</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -2636,32 +2636,32 @@
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Lars Johansson Hauge</t>
+          <t>Trond Einar Moen Pedersli</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2007</v>
+        <v>1994</v>
       </c>
       <c r="O36" s="17" t="inlineStr">
         <is>
-          <t>1,52,76</t>
+          <t>30,13,86</t>
         </is>
       </c>
       <c r="P36" s="7" t="n">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>18.06</v>
+        <v>27.06</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="F46" s="20" t="n">
-        <v>13887</v>
+        <v>13921</v>
       </c>
       <c r="J46" s="5" t="n"/>
       <c r="L46" s="19" t="inlineStr">
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="P46" s="20" t="n">
-        <v>12562</v>
+        <v>12570</v>
       </c>
       <c r="T46" s="5" t="n"/>
     </row>
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>28787</v>
+        <v>28845</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>25819</v>
+        <v>25879</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -3588,18 +3588,18 @@
         <v>1999</v>
       </c>
       <c r="E63" s="15" t="n">
-        <v>21.27</v>
+        <v>21.23</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>La Chaux-de-Fonds/SUI</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>14.07</v>
+        <v>21.08</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -3759,11 +3759,11 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Simon Steinshamn</t>
+          <t>Vetle Farbu-Solbakken</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E66" s="17" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12797</v>
+        <v>12802</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -4681,11 +4681,11 @@
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Vetle Farbu-Solbakken</t>
+          <t>Simon Steinshamn</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E85" s="17" t="inlineStr">
         <is>
@@ -4914,32 +4914,32 @@
     <row r="89" ht="13" customHeight="1">
       <c r="B89" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>Håkon Stavik</t>
+          <t>Abdullahi Dahir Rabi</t>
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E89" s="17" t="inlineStr">
         <is>
-          <t>8,12,30</t>
+          <t>3,46,89</t>
         </is>
       </c>
       <c r="F89" s="7" t="n">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="G89" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H89" s="16" t="n">
-        <v>14.06</v>
+        <v>21.08</v>
       </c>
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
@@ -4974,30 +4974,32 @@
     <row r="90" ht="13" customHeight="1">
       <c r="B90" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Håkon Stavik</t>
         </is>
       </c>
       <c r="D90" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E90" s="15" t="n">
-        <v>21.72</v>
+        <v>2000</v>
+      </c>
+      <c r="E90" s="17" t="inlineStr">
+        <is>
+          <t>8,12,30</t>
+        </is>
       </c>
       <c r="F90" s="7" t="n">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G90" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H90" s="16" t="n">
-        <v>21.06</v>
+        <v>14.06</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
@@ -5032,30 +5034,30 @@
     <row r="91" ht="13" customHeight="1">
       <c r="B91" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>Erik Hagen</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="D91" s="7" t="n">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="E91" s="15" t="n">
-        <v>10.8</v>
+        <v>21.72</v>
       </c>
       <c r="F91" s="7" t="n">
         <v>894</v>
       </c>
       <c r="G91" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H91" s="16" t="n">
-        <v>27.06</v>
+        <v>21.06</v>
       </c>
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
@@ -5176,30 +5178,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Håvard Haugen</t>
+          <t>Peder Hennestad Skjevrak</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>1.72</v>
+        <v>48.68</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Reykjavik/ISL</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>15.06</v>
+        <v>15.08</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -5239,25 +5241,25 @@
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Adrian Bolsøy</t>
+          <t>Håvard Haugen</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Reykjavik/ISL</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>25.05</v>
+        <v>15.06</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -5292,22 +5294,22 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Håvard Haugen</t>
+          <t>Adrian Bolsøy</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>45.61</v>
+        <v>1.71</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
@@ -5315,7 +5317,7 @@
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>26.05</v>
+        <v>25.05</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -5350,30 +5352,30 @@
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Adrian Bolsøy</t>
+          <t>Håvard Haugen</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>3.05</v>
+        <v>45.61</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>15.06</v>
+        <v>26.05</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -5410,7 +5412,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>12534</v>
+        <v>12539</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -5427,7 +5429,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>12389</v>
+        <v>12487</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5450,7 +5452,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>25331</v>
+        <v>25341</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5467,7 +5469,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>25139</v>
+        <v>25237</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5482,7 +5484,7 @@
         </is>
       </c>
       <c r="C102" s="20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J102" s="5" t="n"/>
       <c r="L102" s="19" t="inlineStr">
@@ -5491,7 +5493,7 @@
         </is>
       </c>
       <c r="M102" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T102" s="5" t="n"/>
     </row>
@@ -7045,27 +7047,27 @@
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kramer</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E139" s="17" t="inlineStr">
         <is>
-          <t>3,42,24</t>
+          <t>3,40,43</t>
         </is>
       </c>
       <c r="F139" s="7" t="n">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>18.02</v>
+        <v>21.08</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
@@ -7105,15 +7107,15 @@
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="D140" s="7" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E140" s="17" t="inlineStr">
         <is>
-          <t>3,42,25</t>
+          <t>3,42,24</t>
         </is>
       </c>
       <c r="F140" s="7" t="n">
@@ -7121,11 +7123,11 @@
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
-          <t>Kessel-Louvain/BEL</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>27.07</v>
+        <v>18.02</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
@@ -7162,32 +7164,32 @@
     <row r="141" ht="13" customHeight="1">
       <c r="B141" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Kristian Bråthen Børve</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="E141" s="17" t="inlineStr">
         <is>
-          <t>13,52,44</t>
+          <t>3,42,25</t>
         </is>
       </c>
       <c r="F141" s="7" t="n">
-        <v>941</v>
+        <v>956</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Kessel-Louvain/BEL</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>18.06</v>
+        <v>27.07</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
@@ -7222,7 +7224,7 @@
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
@@ -7235,19 +7237,19 @@
       </c>
       <c r="E142" s="17" t="inlineStr">
         <is>
-          <t>8,04,21</t>
+          <t>13,52,44</t>
         </is>
       </c>
       <c r="F142" s="7" t="n">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>15.05</v>
+        <v>18.06</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
@@ -7282,7 +7284,7 @@
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
@@ -7295,19 +7297,19 @@
       </c>
       <c r="E143" s="17" t="inlineStr">
         <is>
-          <t>3,46,22</t>
+          <t>8,04,21</t>
         </is>
       </c>
       <c r="F143" s="7" t="n">
-        <v>907</v>
+        <v>934</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>3.08</v>
+        <v>15.05</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
@@ -7412,18 +7414,18 @@
         <v>1985</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>696</v>
+        <v>738</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>3.02</v>
+        <v>18.08</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
@@ -7662,7 +7664,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>12827</v>
+        <v>12942</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -7702,7 +7704,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>24892</v>
+        <v>25007</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -10818,18 +10820,18 @@
         <v>2000</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>15.24</v>
+        <v>15.3</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Borås/SWE</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>3.02</v>
+        <v>21.08</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -11095,7 +11097,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>12726</v>
+        <v>12732</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -12155,7 +12157,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>22044</v>
+        <v>22050</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -15678,30 +15680,30 @@
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sveen Schonhowd</t>
+          <t>Alexander Løvik Nyheim</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="E346" s="15" t="n">
-        <v>7.09</v>
+        <v>49.09</v>
       </c>
       <c r="F346" s="7" t="n">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>17.02</v>
+        <v>21.08</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
@@ -15736,30 +15738,30 @@
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>Sjur Grung Thallaug</t>
+          <t>Fredrik Sveen Schonhowd</t>
         </is>
       </c>
       <c r="D347" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>49.29</v>
+        <v>7.09</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>21.05</v>
+        <v>17.02</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -15794,30 +15796,30 @@
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>Sondre Matias Rudi</t>
+          <t>Sjur Grung Thallaug</t>
         </is>
       </c>
       <c r="D348" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>22.38</v>
+        <v>49.29</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>21.06</v>
+        <v>21.05</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -15852,30 +15854,30 @@
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>Alexander Løvik Nyheim</t>
+          <t>Sondre Matias Rudi</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E349" s="15" t="n">
-        <v>49.53</v>
+        <v>22.38</v>
       </c>
       <c r="F349" s="7" t="n">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>5.05</v>
+        <v>21.06</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
@@ -16266,7 +16268,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>10278</v>
+        <v>10302</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16306,7 +16308,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18089</v>
+        <v>18113</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16463,7 +16465,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18316</v>
+        <v>18319</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -16515,11 +16517,11 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/17)</t>
+          <t>(25/18)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>17807</v>
+        <v>17857</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -16566,25 +16568,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Ask Friidrett</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>17092</v>
+        <v>17113</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -16594,25 +16596,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>Ask Friidrett</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>17033</v>
+        <v>17092</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16734,25 +16736,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Dimna IL</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(23/11)</t>
+          <t>(22/9)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>15093</v>
+        <v>15519</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(2/3d)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16767,11 +16769,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(24/15)</t>
+          <t>(25/15)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>15037</v>
+        <v>15388</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -16790,25 +16792,25 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Dimna IL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(21/8)</t>
+          <t>(23/11)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>14974</v>
+        <v>15093</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(2/3d)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -18407,10 +18409,10 @@
         <v>2006</v>
       </c>
       <c r="E35" s="15" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
@@ -18418,7 +18420,7 @@
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>9.06</v>
+        <v>21.08</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -18715,7 +18717,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>8565</v>
+        <v>8568</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -18755,7 +18757,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18316</v>
+        <v>18319</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -19066,25 +19068,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Mats Hjørnevik</t>
+          <t>Erik Hagen</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>10.92</v>
+        <v>10.8</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>862</v>
+        <v>894</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>19.06</v>
+        <v>27.06</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -19799,7 +19801,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>8917</v>
+        <v>8949</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -19924,25 +19926,25 @@
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Josh Anthony Bjerke</t>
+          <t>Mats Hjørnevik</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>10.93</v>
+        <v>10.92</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>23.06</v>
+        <v>19.06</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -19977,30 +19979,30 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Mats Hjørnevik</t>
+          <t>Josh Anthony Bjerke</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E76" s="15" t="n">
-        <v>22</v>
+        <v>10.93</v>
       </c>
       <c r="F76" s="7" t="n">
         <v>860</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>17.02</v>
+        <v>23.06</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
@@ -20035,30 +20037,30 @@
     <row r="77" ht="13" customHeight="1">
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Christian Wright</t>
+          <t>Mats Hjørnevik</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E77" s="15" t="n">
-        <v>10.94</v>
+        <v>22</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H77" s="16" t="n">
-        <v>27.06</v>
+        <v>17.02</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
@@ -20093,7 +20095,7 @@
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
@@ -20105,18 +20107,18 @@
         <v>2006</v>
       </c>
       <c r="E78" s="15" t="n">
-        <v>22.05</v>
+        <v>10.94</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>21.06</v>
+        <v>27.06</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
@@ -20151,32 +20153,30 @@
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Sebastian van der Veen</t>
+          <t>Christian Wright</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E79" s="17" t="inlineStr">
-        <is>
-          <t>3,51,00</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E79" s="15" t="n">
+        <v>22.05</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>24.05</v>
+        <v>21.06</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -20211,30 +20211,32 @@
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Mads Hjort-Larsen</t>
+          <t>Sebastian van der Veen</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E80" s="15" t="n">
-        <v>22.08</v>
+        <v>2002</v>
+      </c>
+      <c r="E80" s="17" t="inlineStr">
+        <is>
+          <t>3,51,00</t>
+        </is>
       </c>
       <c r="F80" s="7" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>2.06</v>
+        <v>24.05</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -20269,30 +20271,30 @@
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Holen</t>
+          <t>Mads Hjort-Larsen</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E81" s="15" t="n">
-        <v>10.97</v>
+        <v>22.08</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>27.06</v>
+        <v>2.06</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
@@ -20332,17 +20334,17 @@
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Jonathan Holen</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="E82" s="15" t="n">
-        <v>10.99</v>
+        <v>10.97</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
@@ -20647,7 +20649,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>8890</v>
+        <v>8908</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -20687,7 +20689,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>17807</v>
+        <v>17857</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -20719,7 +20721,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -20770,7 +20772,7 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Troms</t>
         </is>
       </c>
       <c r="F96" s="8" t="n">
@@ -20784,7 +20786,7 @@
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P96" s="8" t="n">
@@ -20800,7 +20802,7 @@
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>Ask Friidrett</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="J97" s="5" t="n"/>
@@ -20811,7 +20813,7 @@
       </c>
       <c r="M97" s="7" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>Ask Friidrett</t>
         </is>
       </c>
       <c r="T97" s="5" t="n"/>
@@ -20940,25 +20942,25 @@
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Johnsen</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="D103" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="E103" s="15" t="n">
-        <v>6.92</v>
+        <v>7.27</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>900</v>
+        <v>748</v>
       </c>
       <c r="G103" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H103" s="16" t="n">
-        <v>9.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J103" s="5" t="n"/>
       <c r="L103" s="14" t="inlineStr">
@@ -20968,25 +20970,25 @@
       </c>
       <c r="M103" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Daniel Alejandro Johnsen</t>
         </is>
       </c>
       <c r="N103" s="7" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="O103" s="15" t="n">
-        <v>7.27</v>
+        <v>6.92</v>
       </c>
       <c r="P103" s="7" t="n">
-        <v>748</v>
+        <v>900</v>
       </c>
       <c r="Q103" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R103" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="T103" s="5" t="n"/>
     </row>
@@ -20998,25 +21000,25 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Johnsen</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="D104" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>10.84</v>
+        <v>11.26</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>883</v>
+        <v>777</v>
       </c>
       <c r="G104" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H104" s="16" t="n">
-        <v>16.06</v>
+        <v>21.05</v>
       </c>
       <c r="J104" s="5" t="n"/>
       <c r="L104" s="14" t="inlineStr">
@@ -21026,25 +21028,25 @@
       </c>
       <c r="M104" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Daniel Alejandro Johnsen</t>
         </is>
       </c>
       <c r="N104" s="7" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="O104" s="15" t="n">
-        <v>11.26</v>
+        <v>10.84</v>
       </c>
       <c r="P104" s="7" t="n">
-        <v>777</v>
+        <v>883</v>
       </c>
       <c r="Q104" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R104" s="16" t="n">
-        <v>21.05</v>
+        <v>16.06</v>
       </c>
       <c r="T104" s="5" t="n"/>
     </row>
@@ -21056,25 +21058,25 @@
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Elias Bergheim</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="D105" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>23.47</v>
+        <v>22.01</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>700</v>
+        <v>859</v>
       </c>
       <c r="G105" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H105" s="16" t="n">
-        <v>21.06</v>
+        <v>10.02</v>
       </c>
       <c r="J105" s="5" t="n"/>
       <c r="L105" s="14" t="inlineStr">
@@ -21084,25 +21086,25 @@
       </c>
       <c r="M105" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Elias Bergheim</t>
         </is>
       </c>
       <c r="N105" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="O105" s="15" t="n">
-        <v>22.01</v>
+        <v>23.47</v>
       </c>
       <c r="P105" s="7" t="n">
-        <v>859</v>
+        <v>700</v>
       </c>
       <c r="Q105" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R105" s="16" t="n">
-        <v>10.02</v>
+        <v>21.06</v>
       </c>
       <c r="T105" s="5" t="n"/>
     </row>
@@ -21114,25 +21116,25 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Jon-Henning Hilleren</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="D106" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E106" s="15" t="n">
-        <v>50.59</v>
+        <v>48.56</v>
       </c>
       <c r="F106" s="7" t="n">
-        <v>754</v>
+        <v>860</v>
       </c>
       <c r="G106" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H106" s="16" t="n">
-        <v>11.05</v>
+        <v>21.05</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="14" t="inlineStr">
@@ -21142,25 +21144,25 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Jon-Henning Hilleren</t>
         </is>
       </c>
       <c r="N106" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="O106" s="15" t="n">
-        <v>48.56</v>
+        <v>50.59</v>
       </c>
       <c r="P106" s="7" t="n">
-        <v>860</v>
+        <v>754</v>
       </c>
       <c r="Q106" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R106" s="16" t="n">
-        <v>21.05</v>
+        <v>11.05</v>
       </c>
       <c r="T106" s="5" t="n"/>
     </row>
@@ -21172,27 +21174,27 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Jon-Henning Hilleren</t>
+          <t>Leif-Andreas Borgersen</t>
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>1,58,29</t>
+          <t>2,00,29</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>722</v>
+        <v>682</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>15.05</v>
+        <v>22.07</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
@@ -21202,27 +21204,27 @@
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>Leif-Andreas Borgersen</t>
+          <t>Jon-Henning Hilleren</t>
         </is>
       </c>
       <c r="N107" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="O107" s="17" t="inlineStr">
         <is>
-          <t>2,00,29</t>
+          <t>1,58,29</t>
         </is>
       </c>
       <c r="P107" s="7" t="n">
-        <v>682</v>
+        <v>722</v>
       </c>
       <c r="Q107" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R107" s="16" t="n">
-        <v>22.07</v>
+        <v>15.05</v>
       </c>
       <c r="T107" s="5" t="n"/>
     </row>
@@ -21234,27 +21236,27 @@
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lillebø</t>
+          <t>Stian Markussen Eilertsen</t>
         </is>
       </c>
       <c r="D108" s="7" t="n">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="E108" s="17" t="inlineStr">
         <is>
-          <t>4,12,96</t>
+          <t>4,06,52</t>
         </is>
       </c>
       <c r="F108" s="7" t="n">
-        <v>647</v>
+        <v>700</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>22.06</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
@@ -21264,27 +21266,27 @@
       </c>
       <c r="M108" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Sigve Lillebø</t>
         </is>
       </c>
       <c r="N108" s="7" t="n">
-        <v>1986</v>
+        <v>2006</v>
       </c>
       <c r="O108" s="17" t="inlineStr">
         <is>
-          <t>4,06,52</t>
+          <t>4,12,96</t>
         </is>
       </c>
       <c r="P108" s="7" t="n">
-        <v>700</v>
+        <v>647</v>
       </c>
       <c r="Q108" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R108" s="16" t="n">
-        <v>22.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T108" s="5" t="n"/>
     </row>
@@ -21296,27 +21298,27 @@
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Jan-Olav Gullbrå Hilleren</t>
+          <t>Stian Markussen Eilertsen</t>
         </is>
       </c>
       <c r="D109" s="7" t="n">
-        <v>2008</v>
+        <v>1986</v>
       </c>
       <c r="E109" s="17" t="inlineStr">
         <is>
-          <t>9,10,47</t>
+          <t>8,54,57</t>
         </is>
       </c>
       <c r="F109" s="7" t="n">
-        <v>649</v>
+        <v>709</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>14.06</v>
+        <v>15.06</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
@@ -21326,383 +21328,383 @@
       </c>
       <c r="M109" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Jan-Olav Gullbrå Hilleren</t>
         </is>
       </c>
       <c r="N109" s="7" t="n">
-        <v>1986</v>
+        <v>2008</v>
       </c>
       <c r="O109" s="17" t="inlineStr">
         <is>
-          <t>8,54,57</t>
+          <t>9,10,47</t>
         </is>
       </c>
       <c r="P109" s="7" t="n">
-        <v>709</v>
+        <v>649</v>
       </c>
       <c r="Q109" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R109" s="16" t="n">
-        <v>15.06</v>
+        <v>14.06</v>
       </c>
       <c r="T109" s="5" t="n"/>
     </row>
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Marius Garmann Sørli</t>
+          <t>Kim-Roger Trøite</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E110" s="17" t="inlineStr">
         <is>
-          <t>14,48,97</t>
+          <t>31,56,10</t>
         </is>
       </c>
       <c r="F110" s="7" t="n">
-        <v>797</v>
+        <v>742</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>29.06</v>
+        <v>17.06</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M110" s="7" t="inlineStr">
         <is>
-          <t>Kim-Roger Trøite</t>
+          <t>Marius Garmann Sørli</t>
         </is>
       </c>
       <c r="N110" s="7" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="O110" s="17" t="inlineStr">
         <is>
-          <t>31,56,10</t>
+          <t>14,48,97</t>
         </is>
       </c>
       <c r="P110" s="7" t="n">
-        <v>742</v>
+        <v>797</v>
       </c>
       <c r="Q110" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R110" s="16" t="n">
-        <v>17.06</v>
+        <v>29.06</v>
       </c>
       <c r="T110" s="5" t="n"/>
     </row>
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Marius Garmann Sørli</t>
+          <t>Viktor Stattin</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E111" s="17" t="inlineStr">
         <is>
-          <t>30,44,05</t>
+          <t>1,01,55</t>
         </is>
       </c>
       <c r="F111" s="7" t="n">
-        <v>817</v>
+        <v>584</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>27.06</v>
+        <v>13.08</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M111" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Marius Garmann Sørli</t>
         </is>
       </c>
       <c r="N111" s="7" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="O111" s="17" t="inlineStr">
         <is>
-          <t>1,01,93</t>
+          <t>30,44,05</t>
         </is>
       </c>
       <c r="P111" s="7" t="n">
-        <v>576</v>
+        <v>817</v>
       </c>
       <c r="Q111" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R111" s="16" t="n">
-        <v>3.08</v>
+        <v>27.06</v>
       </c>
       <c r="T111" s="5" t="n"/>
     </row>
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Johnsen</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>2.82</v>
+        <v>1.77</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>572</v>
+        <v>625</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>12.02</v>
+        <v>19.02</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Daniel Alejandro Johnsen</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>1.77</v>
+        <v>2.82</v>
       </c>
       <c r="P112" s="7" t="n">
-        <v>625</v>
+        <v>572</v>
       </c>
       <c r="Q112" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="R112" s="16" t="n">
-        <v>19.02</v>
+        <v>12.02</v>
       </c>
       <c r="T112" s="5" t="n"/>
     </row>
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bergfjord Næss</t>
+          <t>Karl-Henrik Borgersen</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>13.92</v>
+        <v>3.4</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>728</v>
+        <v>593</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>4.08</v>
+        <v>22.07</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Karl-Henrik Borgersen</t>
+          <t>Erlend Bergfjord Næss</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>3.4</v>
+        <v>13.92</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>593</v>
+        <v>728</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>22.07</v>
+        <v>4.08</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
     <row r="114" ht="13" customHeight="1">
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bergfjord Næss</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>50.32</v>
+        <v>12.31</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>863</v>
+        <v>594</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Spikkestad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>27.07</v>
+        <v>11.02</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Erlend Bergfjord Næss</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>12.31</v>
+        <v>50.32</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>594</v>
+        <v>863</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>11.02</v>
+        <v>27.07</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
     <row r="115" ht="13" customHeight="1">
       <c r="B115" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bergfjord Næss</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>47.52</v>
+        <v>1.61</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>719</v>
+        <v>793</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>3.08</v>
+        <v>17.02</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Erlend Bergfjord Næss</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>1.61</v>
+        <v>47.52</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>793</v>
+        <v>719</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>17.02</v>
+        <v>3.08</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -21739,7 +21741,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9751</v>
+        <v>9266</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -21756,7 +21758,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>9258</v>
+        <v>9751</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -21859,298 +21861,298 @@
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Elias Bergheim</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E122" s="22" t="n">
-        <v>11.3</v>
+        <v>2006</v>
+      </c>
+      <c r="E122" s="15" t="n">
+        <v>22.73</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>711</v>
+        <v>778</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>25.07</v>
+        <v>5.06</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Elias Bergheim</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O122" s="15" t="n">
-        <v>22.73</v>
+        <v>2003</v>
+      </c>
+      <c r="O122" s="22" t="n">
+        <v>11.3</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>5.06</v>
+        <v>25.07</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lillebø</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E123" s="17" t="inlineStr">
-        <is>
-          <t>1,58,96</t>
-        </is>
+      <c r="E123" s="15" t="n">
+        <v>50.53</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>708</v>
+        <v>757</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>22.05</v>
+        <v>1.06</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Sigve Lillebø</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O123" s="15" t="n">
-        <v>50.53</v>
+      <c r="O123" s="17" t="inlineStr">
+        <is>
+          <t>1,58,96</t>
+        </is>
       </c>
       <c r="P123" s="7" t="n">
-        <v>757</v>
+        <v>708</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>1.06</v>
+        <v>22.05</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Stian Markussen Eilertsen</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E124" s="15" t="n">
-        <v>23.71</v>
+        <v>1986</v>
+      </c>
+      <c r="E124" s="17" t="inlineStr">
+        <is>
+          <t>31,58,21</t>
+        </is>
       </c>
       <c r="F124" s="7" t="n">
-        <v>676</v>
+        <v>740</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>17.07</v>
+        <v>25.05</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="O124" s="17" t="inlineStr">
-        <is>
-          <t>31,58,21</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O124" s="15" t="n">
+        <v>23.71</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>740</v>
+        <v>676</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>25.05</v>
+        <v>17.07</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Jan-Olav Gullbrå Hilleren</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E125" s="17" t="inlineStr">
-        <is>
-          <t>2,01,42</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E125" s="15" t="n">
+        <v>11.46</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>660</v>
+        <v>729</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>22.05</v>
+        <v>13.08</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Per-Christian Myrnes Pedersen</t>
+          <t>Jan-Olav Gullbrå Hilleren</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>1986</v>
+        <v>2008</v>
       </c>
       <c r="O125" s="17" t="inlineStr">
         <is>
-          <t>32,26,17</t>
+          <t>2,01,42</t>
         </is>
       </c>
       <c r="P125" s="7" t="n">
-        <v>713</v>
+        <v>660</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>25.05</v>
+        <v>22.05</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Per-Christian Myrnes Pedersen</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E126" s="15" t="n">
-        <v>11.79</v>
+        <v>1986</v>
+      </c>
+      <c r="E126" s="17" t="inlineStr">
+        <is>
+          <t>32,26,17</t>
+        </is>
       </c>
       <c r="F126" s="7" t="n">
-        <v>655</v>
+        <v>713</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>19.05</v>
+        <v>25.05</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Simon Kaarbø</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>7.37</v>
+        <v>11.79</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>709</v>
+        <v>655</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Austevoll</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>3.02</v>
+        <v>19.05</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
@@ -22162,405 +22164,405 @@
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Elias Bergheim</t>
+          <t>Simon Kaarbø</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>7.57</v>
+        <v>7.37</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>635</v>
+        <v>709</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>9.02</v>
+        <v>3.02</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Kim-Roger Trøite</t>
+          <t>Elias Bergheim</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O127" s="17" t="inlineStr">
-        <is>
-          <t>8,59,37</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O127" s="15" t="n">
+        <v>7.57</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>691</v>
+        <v>635</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>29.05</v>
+        <v>9.02</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Kim-Roger Trøite</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E128" s="15" t="n">
-        <v>53.27</v>
+        <v>1996</v>
+      </c>
+      <c r="E128" s="17" t="inlineStr">
+        <is>
+          <t>8,59,37</t>
+        </is>
       </c>
       <c r="F128" s="7" t="n">
-        <v>633</v>
+        <v>691</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>2.06</v>
+        <v>29.05</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M128" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N128" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O128" s="15" t="n">
-        <v>7.49</v>
+        <v>53.27</v>
       </c>
       <c r="P128" s="7" t="n">
-        <v>664</v>
+        <v>633</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>27.01</v>
+        <v>2.06</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
     <row r="129" ht="13" customHeight="1">
       <c r="B129" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Jan-Olav Gullbrå Hilleren</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E129" s="17" t="inlineStr">
-        <is>
-          <t>4,14,95</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="E129" s="15" t="n">
+        <v>7.49</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>9.06</v>
+        <v>27.01</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Simon Kaarbø</t>
+          <t>Jan-Olav Gullbrå Hilleren</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="O129" s="15" t="n">
-        <v>11.78</v>
+      <c r="O129" s="17" t="inlineStr">
+        <is>
+          <t>4,14,95</t>
+        </is>
       </c>
       <c r="P129" s="7" t="n">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>8.06</v>
+        <v>9.06</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Ole Magnus Villanger</t>
+          <t>Leif-Andreas Borgersen</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>2.77</v>
+        <v>5.75</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>14.03</v>
+        <v>27.01</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M130" s="7" t="inlineStr">
         <is>
-          <t>Leif-Andreas Borgersen</t>
+          <t>Ole Magnus Villanger</t>
         </is>
       </c>
       <c r="N130" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O130" s="15" t="n">
-        <v>5.75</v>
+        <v>2.77</v>
       </c>
       <c r="P130" s="7" t="n">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="Q130" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="R130" s="16" t="n">
-        <v>27.01</v>
+        <v>14.03</v>
       </c>
       <c r="T130" s="5" t="n"/>
     </row>
     <row r="131" ht="13" customHeight="1">
       <c r="B131" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Leif-Andreas Borgersen</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>2.77</v>
+        <v>1.65</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>14.03</v>
+        <v>23.06</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M131" s="7" t="inlineStr">
         <is>
-          <t>Leif-Andreas Borgersen</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N131" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O131" s="15" t="n">
-        <v>1.65</v>
+        <v>2.77</v>
       </c>
       <c r="P131" s="7" t="n">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="Q131" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="R131" s="16" t="n">
-        <v>23.06</v>
+        <v>14.03</v>
       </c>
       <c r="T131" s="5" t="n"/>
     </row>
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Brede Bergheim</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>2.7</v>
+        <v>10.72</v>
       </c>
       <c r="F132" s="7" t="n">
         <v>503</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>9.02</v>
+        <v>10.02</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M132" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Brede Bergheim</t>
         </is>
       </c>
       <c r="N132" s="7" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="O132" s="15" t="n">
-        <v>10.72</v>
+        <v>2.7</v>
       </c>
       <c r="P132" s="7" t="n">
         <v>503</v>
       </c>
       <c r="Q132" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R132" s="16" t="n">
-        <v>10.02</v>
+        <v>9.02</v>
       </c>
       <c r="T132" s="5" t="n"/>
     </row>
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Øyvind Kolstad Silseth</t>
+          <t>Fredrik Gudheim Haraldstad</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>2.6</v>
+        <v>5.55</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>9.02</v>
+        <v>10.02</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M133" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Gudheim Haraldstad</t>
+          <t>Øyvind Kolstad Silseth</t>
         </is>
       </c>
       <c r="N133" s="7" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="O133" s="15" t="n">
-        <v>5.55</v>
+        <v>2.6</v>
       </c>
       <c r="P133" s="7" t="n">
-        <v>503</v>
+        <v>440</v>
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>10.02</v>
+        <v>9.02</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -22597,7 +22599,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7341</v>
+        <v>7847</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -22614,7 +22616,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7775</v>
+        <v>7341</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -22637,7 +22639,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>17092</v>
+        <v>17113</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -22654,7 +22656,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>17033</v>
+        <v>17092</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -22669,7 +22671,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -22678,7 +22680,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -26612,7 +26614,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -26642,7 +26644,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Dimna IL</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -26782,17 +26784,17 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Hagen Skoge</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>7.27</v>
+        <v>6.96</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>748</v>
+        <v>882</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
@@ -26840,25 +26842,25 @@
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Snorre Sliper Bonesmo</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>11.03</v>
+        <v>10.77</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>834</v>
+        <v>902</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Hareid</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>26.05</v>
+        <v>27.06</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -26898,25 +26900,25 @@
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Snorre Sliper Bonesmo</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>22.46</v>
+        <v>21.75</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>808</v>
+        <v>890</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Hareid</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>26.05</v>
+        <v>18.08</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -26956,25 +26958,25 @@
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Karsten Warholm</t>
+          <t>Emil Gundersen</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="E247" s="15" t="n">
-        <v>45.34</v>
+        <v>50.15</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>1054</v>
+        <v>777</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Glasgow/GBR</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>2.03</v>
+        <v>17.08</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -27014,7 +27016,7 @@
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Tandberg Gyllensten</t>
+          <t>Endre Hartvedt Haugen</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
@@ -27022,19 +27024,19 @@
       </c>
       <c r="E248" s="17" t="inlineStr">
         <is>
-          <t>2,09,96</t>
+          <t>1,59,04</t>
         </is>
       </c>
       <c r="F248" s="7" t="n">
-        <v>525</v>
+        <v>706</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>15.06</v>
+        <v>20.01</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -27071,30 +27073,32 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Jakob Slåtten</t>
+          <t>Endre Hartvedt Haugen</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E249" s="15" t="n">
-        <v>8.720000000000001</v>
+        <v>2008</v>
+      </c>
+      <c r="E249" s="17" t="inlineStr">
+        <is>
+          <t>3,58,74</t>
+        </is>
       </c>
       <c r="F249" s="7" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>18.02</v>
+        <v>10.02</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -27131,30 +27135,32 @@
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Karsten Warholm</t>
+          <t>Endre Hartvedt Haugen</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E250" s="15" t="n">
-        <v>46.7</v>
+        <v>2008</v>
+      </c>
+      <c r="E250" s="17" t="inlineStr">
+        <is>
+          <t>8,48,57</t>
+        </is>
       </c>
       <c r="F250" s="7" t="n">
-        <v>1201</v>
+        <v>734</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>30.05</v>
+        <v>18.02</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -27191,30 +27197,32 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Tandberg Gyllensten</t>
+          <t>Sebastian Skoge-Nilsen</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E251" s="15" t="n">
-        <v>1.55</v>
+        <v>2006</v>
+      </c>
+      <c r="E251" s="17" t="inlineStr">
+        <is>
+          <t>16,53,87</t>
+        </is>
       </c>
       <c r="F251" s="7" t="n">
-        <v>408</v>
+        <v>545</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>14.01</v>
+        <v>3.07</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -27249,30 +27257,32 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Tandberg Gyllensten</t>
+          <t>Johannes Ottemo Reimers</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E252" s="15" t="n">
-        <v>5.85</v>
+        <v>2006</v>
+      </c>
+      <c r="E252" s="17" t="inlineStr">
+        <is>
+          <t>1,01,90</t>
+        </is>
       </c>
       <c r="F252" s="7" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Hareid</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>26.05</v>
+        <v>1.06</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -27307,30 +27317,30 @@
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lundberg</t>
+          <t>Viljar Totland</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>2.46</v>
+        <v>1.27</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>333</v>
+        <v>51</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>14.01</v>
+        <v>11.05</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
@@ -27365,30 +27375,30 @@
     <row r="254" ht="13" customHeight="1">
       <c r="B254" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Gabriel Overvåg</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>8.970000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>371</v>
+        <v>696</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H254" s="16" t="n">
-        <v>1.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
@@ -27423,30 +27433,30 @@
     <row r="255" ht="13" customHeight="1">
       <c r="B255" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>Gabriel Overvåg</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D255" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E255" s="15" t="n">
-        <v>18.84</v>
+        <v>12.17</v>
       </c>
       <c r="F255" s="7" t="n">
-        <v>180</v>
+        <v>579</v>
       </c>
       <c r="G255" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H255" s="16" t="n">
-        <v>12.05</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
@@ -27487,13 +27497,33 @@
       <c r="G256" s="7" t="n"/>
       <c r="H256" s="21" t="n"/>
       <c r="J256" s="5" t="n"/>
-      <c r="L256" s="14" t="n"/>
-      <c r="M256" s="7" t="n"/>
-      <c r="N256" s="7" t="n"/>
-      <c r="O256" s="7" t="n"/>
-      <c r="P256" s="7" t="n"/>
-      <c r="Q256" s="7" t="n"/>
-      <c r="R256" s="21" t="n"/>
+      <c r="L256" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="M256" s="7" t="inlineStr">
+        <is>
+          <t>Nicolas Alexander Baranyi Eriksen</t>
+        </is>
+      </c>
+      <c r="N256" s="7" t="n">
+        <v>2005</v>
+      </c>
+      <c r="O256" s="15" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="P256" s="7" t="n">
+        <v>351</v>
+      </c>
+      <c r="Q256" s="7" t="inlineStr">
+        <is>
+          <t>Oslo/NIH</t>
+        </is>
+      </c>
+      <c r="R256" s="16" t="n">
+        <v>13.08</v>
+      </c>
       <c r="T256" s="5" t="n"/>
     </row>
     <row r="257" ht="13" customHeight="1">
@@ -27529,7 +27559,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>7804</v>
+        <v>8111</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -27538,7 +27568,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O258" s="19" t="inlineStr">
         <is>
@@ -27546,7 +27576,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>7331</v>
+        <v>7682</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -27649,30 +27679,30 @@
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Noah Digernes Merheb</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E263" s="15" t="n">
-        <v>49.33</v>
+        <v>10.84</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>819</v>
+        <v>883</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>3.08</v>
+        <v>27.06</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
@@ -27707,30 +27737,30 @@
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Snorre Sliper Bonesmo</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E264" s="15" t="n">
-        <v>50.1</v>
+        <v>22.26</v>
       </c>
       <c r="F264" s="7" t="n">
-        <v>779</v>
+        <v>830</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>27.06</v>
+        <v>17.02</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
@@ -27765,30 +27795,30 @@
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Noah Digernes Merheb</t>
+          <t>Remark Rrozhani</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E265" s="15" t="n">
-        <v>22.78</v>
+        <v>7.08</v>
       </c>
       <c r="F265" s="7" t="n">
-        <v>772</v>
+        <v>828</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>2.06</v>
+        <v>17.02</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
@@ -27825,30 +27855,30 @@
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Runar Soriano Ervik</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E266" s="15" t="n">
-        <v>22.79</v>
+        <v>11.26</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>2.06</v>
+        <v>23.06</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
@@ -27883,30 +27913,30 @@
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Runar Soriano Ervik</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E267" s="15" t="n">
-        <v>11.37</v>
+        <v>22.86</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>16.06</v>
+        <v>21.06</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
@@ -27941,30 +27971,30 @@
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Runar Soriano Ervik</t>
+          <t>Linus August Rygh</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>50.71</v>
+        <v>7.25</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>1.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
@@ -28006,25 +28036,25 @@
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Hagen Skoge</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>11.43</v>
+        <v>11.39</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Hareid</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>26.05</v>
+        <v>11.05</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
@@ -28061,30 +28091,30 @@
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Jakob Slåtten</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E270" s="15" t="n">
-        <v>7.32</v>
+        <v>23.27</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>31.05</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
@@ -28119,30 +28149,30 @@
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Hagen Skoge</t>
+          <t>Johannes Ottemo Reimers</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>5.53</v>
+        <v>12.08</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>498</v>
+        <v>569</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>10.03</v>
+        <v>22.02</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -28182,25 +28212,25 @@
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Marley Delvyn-Thomas Leader</t>
+          <t>Oliver Taule Lindgren</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>5.09</v>
+        <v>5.69</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>393</v>
+        <v>535</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>13.01</v>
+        <v>10.02</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -28233,33 +28263,13 @@
       <c r="T272" s="5" t="n"/>
     </row>
     <row r="273" ht="13" customHeight="1">
-      <c r="B273" s="14" t="inlineStr">
-        <is>
-          <t>Høyde</t>
-        </is>
-      </c>
-      <c r="C273" s="7" t="inlineStr">
-        <is>
-          <t>Oliver Kvalsund Sellereite</t>
-        </is>
-      </c>
-      <c r="D273" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E273" s="15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="F273" s="7" t="n">
-        <v>295</v>
-      </c>
-      <c r="G273" s="7" t="inlineStr">
-        <is>
-          <t>Ulsteinvik</t>
-        </is>
-      </c>
-      <c r="H273" s="16" t="n">
-        <v>14.01</v>
-      </c>
+      <c r="B273" s="14" t="n"/>
+      <c r="C273" s="7" t="n"/>
+      <c r="D273" s="7" t="n"/>
+      <c r="E273" s="7" t="n"/>
+      <c r="F273" s="7" t="n"/>
+      <c r="G273" s="7" t="n"/>
+      <c r="H273" s="21" t="n"/>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
@@ -28353,7 +28363,7 @@
         </is>
       </c>
       <c r="C276" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E276" s="19" t="inlineStr">
         <is>
@@ -28361,7 +28371,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>7289</v>
+        <v>7408</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -28393,7 +28403,7 @@
         </is>
       </c>
       <c r="C278" s="20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E278" s="19" t="inlineStr">
         <is>
@@ -28401,7 +28411,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>15093</v>
+        <v>15519</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -28410,7 +28420,7 @@
         </is>
       </c>
       <c r="M278" s="20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O278" s="19" t="inlineStr">
         <is>
@@ -28418,7 +28428,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>15037</v>
+        <v>15388</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -28433,7 +28443,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -28484,7 +28494,7 @@
       </c>
       <c r="C284" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
       <c r="F284" s="8" t="n">
@@ -28514,7 +28524,7 @@
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Dimna IL</t>
         </is>
       </c>
       <c r="J285" s="5" t="n"/>
@@ -28654,17 +28664,17 @@
       </c>
       <c r="C291" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Kristoffer Hagen Skoge</t>
         </is>
       </c>
       <c r="D291" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E291" s="15" t="n">
-        <v>6.96</v>
+        <v>7.27</v>
       </c>
       <c r="F291" s="7" t="n">
-        <v>882</v>
+        <v>748</v>
       </c>
       <c r="G291" s="7" t="inlineStr">
         <is>
@@ -28712,25 +28722,25 @@
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Snorre Sliper Bonesmo</t>
         </is>
       </c>
       <c r="D292" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E292" s="15" t="n">
-        <v>10.77</v>
+        <v>11.03</v>
       </c>
       <c r="F292" s="7" t="n">
-        <v>902</v>
+        <v>834</v>
       </c>
       <c r="G292" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Hareid</t>
         </is>
       </c>
       <c r="H292" s="16" t="n">
-        <v>27.06</v>
+        <v>26.05</v>
       </c>
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="14" t="inlineStr">
@@ -28770,25 +28780,25 @@
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Snorre Sliper Bonesmo</t>
         </is>
       </c>
       <c r="D293" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E293" s="15" t="n">
-        <v>21.75</v>
+        <v>22.46</v>
       </c>
       <c r="F293" s="7" t="n">
-        <v>890</v>
+        <v>808</v>
       </c>
       <c r="G293" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Hareid</t>
         </is>
       </c>
       <c r="H293" s="16" t="n">
-        <v>18.08</v>
+        <v>26.05</v>
       </c>
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
@@ -28828,25 +28838,25 @@
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>Emil Gundersen</t>
+          <t>Karsten Warholm</t>
         </is>
       </c>
       <c r="D294" s="7" t="n">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="E294" s="15" t="n">
-        <v>50.15</v>
+        <v>45.34</v>
       </c>
       <c r="F294" s="7" t="n">
-        <v>777</v>
+        <v>1054</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Glasgow/GBR</t>
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>17.08</v>
+        <v>2.03</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
@@ -28886,7 +28896,7 @@
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>Endre Hartvedt Haugen</t>
+          <t>Sebastian Tandberg Gyllensten</t>
         </is>
       </c>
       <c r="D295" s="7" t="n">
@@ -28894,19 +28904,19 @@
       </c>
       <c r="E295" s="17" t="inlineStr">
         <is>
-          <t>1,59,04</t>
+          <t>2,09,96</t>
         </is>
       </c>
       <c r="F295" s="7" t="n">
-        <v>706</v>
+        <v>525</v>
       </c>
       <c r="G295" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H295" s="16" t="n">
-        <v>20.01</v>
+        <v>15.06</v>
       </c>
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
@@ -28943,32 +28953,30 @@
     <row r="296" ht="13" customHeight="1">
       <c r="B296" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>Endre Hartvedt Haugen</t>
+          <t>Jakob Slåtten</t>
         </is>
       </c>
       <c r="D296" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E296" s="17" t="inlineStr">
-        <is>
-          <t>3,58,74</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E296" s="15" t="n">
+        <v>8.720000000000001</v>
       </c>
       <c r="F296" s="7" t="n">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G296" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H296" s="16" t="n">
-        <v>10.02</v>
+        <v>18.02</v>
       </c>
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
@@ -29005,32 +29013,30 @@
     <row r="297" ht="13" customHeight="1">
       <c r="B297" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>Endre Hartvedt Haugen</t>
+          <t>Karsten Warholm</t>
         </is>
       </c>
       <c r="D297" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E297" s="17" t="inlineStr">
-        <is>
-          <t>8,48,57</t>
-        </is>
+        <v>1996</v>
+      </c>
+      <c r="E297" s="15" t="n">
+        <v>46.7</v>
       </c>
       <c r="F297" s="7" t="n">
-        <v>734</v>
+        <v>1201</v>
       </c>
       <c r="G297" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H297" s="16" t="n">
-        <v>18.02</v>
+        <v>30.05</v>
       </c>
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
@@ -29067,32 +29073,30 @@
     <row r="298" ht="13" customHeight="1">
       <c r="B298" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>Johannes Ottemo Reimers</t>
+          <t>Sebastian Tandberg Gyllensten</t>
         </is>
       </c>
       <c r="D298" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E298" s="17" t="inlineStr">
-        <is>
-          <t>1,01,90</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E298" s="15" t="n">
+        <v>1.55</v>
       </c>
       <c r="F298" s="7" t="n">
-        <v>576</v>
+        <v>408</v>
       </c>
       <c r="G298" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H298" s="16" t="n">
-        <v>1.06</v>
+        <v>14.01</v>
       </c>
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
@@ -29129,30 +29133,30 @@
     <row r="299" ht="13" customHeight="1">
       <c r="B299" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>Viljar Totland</t>
+          <t>Sebastian Tandberg Gyllensten</t>
         </is>
       </c>
       <c r="D299" s="7" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="E299" s="15" t="n">
-        <v>1.27</v>
+        <v>5.85</v>
       </c>
       <c r="F299" s="7" t="n">
-        <v>51</v>
+        <v>572</v>
       </c>
       <c r="G299" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Hareid</t>
         </is>
       </c>
       <c r="H299" s="16" t="n">
-        <v>11.05</v>
+        <v>26.05</v>
       </c>
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
@@ -29187,30 +29191,30 @@
     <row r="300" ht="13" customHeight="1">
       <c r="B300" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Sigve Lundberg</t>
         </is>
       </c>
       <c r="D300" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E300" s="15" t="n">
-        <v>6.4</v>
+        <v>2.46</v>
       </c>
       <c r="F300" s="7" t="n">
-        <v>696</v>
+        <v>333</v>
       </c>
       <c r="G300" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H300" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>14.01</v>
       </c>
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="n"/>
@@ -29225,30 +29229,30 @@
     <row r="301" ht="13" customHeight="1">
       <c r="B301" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Gabriel Overvåg</t>
         </is>
       </c>
       <c r="D301" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E301" s="15" t="n">
-        <v>12.17</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="F301" s="7" t="n">
-        <v>579</v>
+        <v>371</v>
       </c>
       <c r="G301" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H301" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="n"/>
@@ -29261,13 +29265,33 @@
       <c r="T301" s="5" t="n"/>
     </row>
     <row r="302" ht="13" customHeight="1">
-      <c r="B302" s="14" t="n"/>
-      <c r="C302" s="7" t="n"/>
-      <c r="D302" s="7" t="n"/>
-      <c r="E302" s="7" t="n"/>
-      <c r="F302" s="7" t="n"/>
-      <c r="G302" s="7" t="n"/>
-      <c r="H302" s="21" t="n"/>
+      <c r="B302" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C302" s="7" t="inlineStr">
+        <is>
+          <t>Gabriel Overvåg</t>
+        </is>
+      </c>
+      <c r="D302" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E302" s="15" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="F302" s="7" t="n">
+        <v>180</v>
+      </c>
+      <c r="G302" s="7" t="inlineStr">
+        <is>
+          <t>Fana</t>
+        </is>
+      </c>
+      <c r="H302" s="16" t="n">
+        <v>12.05</v>
+      </c>
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="n"/>
       <c r="M302" s="7" t="n"/>
@@ -29321,7 +29345,7 @@
         </is>
       </c>
       <c r="C305" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E305" s="19" t="inlineStr">
         <is>
@@ -29329,7 +29353,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>7566</v>
+        <v>7804</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -29449,30 +29473,30 @@
     <row r="310" ht="13" customHeight="1">
       <c r="B310" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Noah Digernes Merheb</t>
         </is>
       </c>
       <c r="D310" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E310" s="15" t="n">
-        <v>10.84</v>
+        <v>49.33</v>
       </c>
       <c r="F310" s="7" t="n">
-        <v>883</v>
+        <v>819</v>
       </c>
       <c r="G310" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H310" s="16" t="n">
-        <v>27.06</v>
+        <v>3.08</v>
       </c>
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="14" t="inlineStr">
@@ -29507,30 +29531,30 @@
     <row r="311" ht="13" customHeight="1">
       <c r="B311" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Snorre Sliper Bonesmo</t>
         </is>
       </c>
       <c r="D311" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E311" s="15" t="n">
-        <v>22.26</v>
+        <v>50.1</v>
       </c>
       <c r="F311" s="7" t="n">
-        <v>830</v>
+        <v>779</v>
       </c>
       <c r="G311" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H311" s="16" t="n">
-        <v>17.02</v>
+        <v>27.06</v>
       </c>
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
@@ -29565,30 +29589,30 @@
     <row r="312" ht="13" customHeight="1">
       <c r="B312" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
         <is>
-          <t>Remark Rrozhani</t>
+          <t>Noah Digernes Merheb</t>
         </is>
       </c>
       <c r="D312" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E312" s="15" t="n">
-        <v>7.08</v>
+        <v>22.78</v>
       </c>
       <c r="F312" s="7" t="n">
-        <v>828</v>
+        <v>772</v>
       </c>
       <c r="G312" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H312" s="16" t="n">
-        <v>17.02</v>
+        <v>2.06</v>
       </c>
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
@@ -29623,30 +29647,30 @@
     <row r="313" ht="13" customHeight="1">
       <c r="B313" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Runar Soriano Ervik</t>
         </is>
       </c>
       <c r="D313" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E313" s="15" t="n">
-        <v>11.26</v>
+        <v>22.79</v>
       </c>
       <c r="F313" s="7" t="n">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="G313" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H313" s="16" t="n">
-        <v>23.06</v>
+        <v>2.06</v>
       </c>
       <c r="J313" s="5" t="n"/>
       <c r="L313" s="14" t="inlineStr">
@@ -29681,30 +29705,30 @@
     <row r="314" ht="13" customHeight="1">
       <c r="B314" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Runar Soriano Ervik</t>
         </is>
       </c>
       <c r="D314" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E314" s="15" t="n">
-        <v>22.86</v>
+        <v>11.37</v>
       </c>
       <c r="F314" s="7" t="n">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="G314" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H314" s="16" t="n">
-        <v>21.06</v>
+        <v>16.06</v>
       </c>
       <c r="J314" s="5" t="n"/>
       <c r="L314" s="14" t="inlineStr">
@@ -29739,30 +29763,30 @@
     <row r="315" ht="13" customHeight="1">
       <c r="B315" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>Linus August Rygh</t>
+          <t>Runar Soriano Ervik</t>
         </is>
       </c>
       <c r="D315" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E315" s="15" t="n">
-        <v>7.25</v>
+        <v>50.71</v>
       </c>
       <c r="F315" s="7" t="n">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G315" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H315" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="J315" s="5" t="n"/>
       <c r="L315" s="14" t="inlineStr">
@@ -29802,25 +29826,25 @@
       </c>
       <c r="C316" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Kristoffer Hagen Skoge</t>
         </is>
       </c>
       <c r="D316" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E316" s="15" t="n">
-        <v>11.39</v>
+        <v>11.43</v>
       </c>
       <c r="F316" s="7" t="n">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G316" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Hareid</t>
         </is>
       </c>
       <c r="H316" s="16" t="n">
-        <v>11.05</v>
+        <v>26.05</v>
       </c>
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
@@ -29855,30 +29879,30 @@
     <row r="317" ht="13" customHeight="1">
       <c r="B317" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Jakob Slåtten</t>
         </is>
       </c>
       <c r="D317" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E317" s="15" t="n">
-        <v>23.27</v>
+        <v>7.32</v>
       </c>
       <c r="F317" s="7" t="n">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G317" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H317" s="16" t="n">
-        <v>31.05</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">
@@ -29913,30 +29937,30 @@
     <row r="318" ht="13" customHeight="1">
       <c r="B318" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>Johannes Ottemo Reimers</t>
+          <t>Kristoffer Hagen Skoge</t>
         </is>
       </c>
       <c r="D318" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E318" s="15" t="n">
-        <v>12.08</v>
+        <v>5.53</v>
       </c>
       <c r="F318" s="7" t="n">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="G318" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H318" s="16" t="n">
-        <v>22.02</v>
+        <v>10.03</v>
       </c>
       <c r="J318" s="5" t="n"/>
       <c r="L318" s="14" t="inlineStr">
@@ -29976,25 +30000,25 @@
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>Oliver Taule Lindgren</t>
+          <t>Marley Delvyn-Thomas Leader</t>
         </is>
       </c>
       <c r="D319" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E319" s="15" t="n">
-        <v>5.69</v>
+        <v>5.09</v>
       </c>
       <c r="F319" s="7" t="n">
-        <v>535</v>
+        <v>393</v>
       </c>
       <c r="G319" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H319" s="16" t="n">
-        <v>10.02</v>
+        <v>13.01</v>
       </c>
       <c r="J319" s="5" t="n"/>
       <c r="L319" s="14" t="inlineStr">
@@ -30027,13 +30051,33 @@
       <c r="T319" s="5" t="n"/>
     </row>
     <row r="320" ht="13" customHeight="1">
-      <c r="B320" s="14" t="n"/>
-      <c r="C320" s="7" t="n"/>
-      <c r="D320" s="7" t="n"/>
-      <c r="E320" s="7" t="n"/>
-      <c r="F320" s="7" t="n"/>
-      <c r="G320" s="7" t="n"/>
-      <c r="H320" s="21" t="n"/>
+      <c r="B320" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="C320" s="7" t="inlineStr">
+        <is>
+          <t>Oliver Kvalsund Sellereite</t>
+        </is>
+      </c>
+      <c r="D320" s="7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E320" s="15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F320" s="7" t="n">
+        <v>295</v>
+      </c>
+      <c r="G320" s="7" t="inlineStr">
+        <is>
+          <t>Ulsteinvik</t>
+        </is>
+      </c>
+      <c r="H320" s="16" t="n">
+        <v>14.01</v>
+      </c>
       <c r="J320" s="5" t="n"/>
       <c r="L320" s="14" t="n"/>
       <c r="M320" s="7" t="n"/>
@@ -30087,7 +30131,7 @@
         </is>
       </c>
       <c r="C323" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E323" s="19" t="inlineStr">
         <is>
@@ -30095,7 +30139,7 @@
         </is>
       </c>
       <c r="F323" s="20" t="n">
-        <v>7408</v>
+        <v>7289</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="19" t="inlineStr">
@@ -30127,7 +30171,7 @@
         </is>
       </c>
       <c r="C325" s="20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E325" s="19" t="inlineStr">
         <is>
@@ -30135,7 +30179,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>14974</v>
+        <v>15093</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -30167,7 +30211,7 @@
         </is>
       </c>
       <c r="C327" s="20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="19" t="inlineStr">
@@ -30432,7 +30476,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>22382</v>
+        <v>22384</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -30516,7 +30560,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>20919</v>
+        <v>20932</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -30628,7 +30672,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18019</v>
+        <v>18020</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -35576,18 +35620,18 @@
         <v>2007</v>
       </c>
       <c r="O116" s="15" t="n">
-        <v>54.18</v>
+        <v>54.12</v>
       </c>
       <c r="P116" s="7" t="n">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="Q116" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Borås/SWE</t>
         </is>
       </c>
       <c r="R116" s="16" t="n">
-        <v>3.08</v>
+        <v>21.08</v>
       </c>
       <c r="T116" s="5" t="n"/>
     </row>
@@ -36299,7 +36343,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12106</v>
+        <v>12108</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -37381,7 +37425,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>22382</v>
+        <v>22384</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -41523,25 +41567,25 @@
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Lotta Elfenbein</t>
+          <t>Sophie Sund</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E249" s="15" t="n">
-        <v>4.83</v>
+        <v>4.84</v>
       </c>
       <c r="F249" s="7" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>22.06</v>
+        <v>21.08</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -41583,25 +41627,25 @@
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Sophie Sund</t>
+          <t>Lotta Elfenbein</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E250" s="15" t="n">
-        <v>4.78</v>
+        <v>4.83</v>
       </c>
       <c r="F250" s="7" t="n">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>8.050000000000001</v>
+        <v>22.06</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -41782,7 +41826,7 @@
         </is>
       </c>
       <c r="F254" s="20" t="n">
-        <v>9918</v>
+        <v>9931</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="19" t="inlineStr">
@@ -41822,7 +41866,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>20919</v>
+        <v>20932</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -45630,30 +45674,30 @@
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>Ida Petersen Amble</t>
+          <t>Lene Berger</t>
         </is>
       </c>
       <c r="D348" s="7" t="n">
-        <v>2006</v>
+        <v>1981</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>31.37</v>
+        <v>27.63</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>4.08</v>
+        <v>25.05</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -45688,30 +45732,30 @@
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>Sophia Borgen</t>
+          <t>Ida Petersen Amble</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E349" s="15" t="n">
-        <v>8.460000000000001</v>
+        <v>31.37</v>
       </c>
       <c r="F349" s="7" t="n">
         <v>603</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>20.01</v>
+        <v>4.08</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
@@ -45746,32 +45790,30 @@
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>Mia Mathilda Andersen</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="D350" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E350" s="17" t="inlineStr">
-        <is>
-          <t>5,01,63</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E350" s="15" t="n">
+        <v>8.460000000000001</v>
       </c>
       <c r="F350" s="7" t="n">
         <v>603</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H350" s="16" t="n">
-        <v>10.05</v>
+        <v>20.01</v>
       </c>
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
@@ -45806,30 +45848,32 @@
     <row r="351" ht="13" customHeight="1">
       <c r="B351" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>Alma Iben Graver Kolseth</t>
+          <t>Mia Mathilda Andersen</t>
         </is>
       </c>
       <c r="D351" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E351" s="15" t="n">
-        <v>27.67</v>
+        <v>2009</v>
+      </c>
+      <c r="E351" s="17" t="inlineStr">
+        <is>
+          <t>5,01,63</t>
+        </is>
       </c>
       <c r="F351" s="7" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>10.03</v>
+        <v>10.05</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
@@ -45869,25 +45913,25 @@
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>Maria Elisabet M. Damhaug</t>
+          <t>Alma Iben Graver Kolseth</t>
         </is>
       </c>
       <c r="D352" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E352" s="15" t="n">
-        <v>27.74</v>
+        <v>27.67</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>15.06</v>
+        <v>10.03</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
@@ -45922,22 +45966,22 @@
     <row r="353" ht="13" customHeight="1">
       <c r="B353" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Sabrina Bergersen</t>
+          <t>Maria Elisabet M. Damhaug</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E353" s="15" t="n">
-        <v>8.52</v>
+        <v>27.74</v>
       </c>
       <c r="F353" s="7" t="n">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
@@ -46096,30 +46140,30 @@
     <row r="356" ht="13" customHeight="1">
       <c r="B356" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
         <is>
-          <t>Lene Berger</t>
+          <t>Clara Viola Almén-Moe</t>
         </is>
       </c>
       <c r="D356" s="7" t="n">
-        <v>1981</v>
+        <v>2011</v>
       </c>
       <c r="E356" s="15" t="n">
-        <v>8.890000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="F356" s="7" t="n">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="G356" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H356" s="16" t="n">
-        <v>25.05</v>
+        <v>17.08</v>
       </c>
       <c r="J356" s="5" t="n"/>
       <c r="L356" s="14" t="inlineStr">
@@ -46184,7 +46228,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>8908</v>
+        <v>8909</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -46224,7 +46268,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18019</v>
+        <v>18020</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -46381,7 +46425,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>21411</v>
+        <v>21418</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -46596,25 +46640,25 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb</t>
+          <t>Nittedal IL</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>14565</v>
+        <v>14839</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -46624,7 +46668,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Nittedal IL</t>
+          <t>Tønsberg Friidrettsklubb</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -46633,16 +46677,16 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14492</v>
+        <v>14565</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -46741,11 +46785,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(23/8)</t>
+          <t>(23/9)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>11533</v>
+        <v>11729</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -48133,32 +48177,30 @@
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Kristine Meinert Rød</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E32" s="17" t="inlineStr">
-        <is>
-          <t>16,34,10</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E32" s="15" t="n">
+        <v>24.75</v>
       </c>
       <c r="F32" s="7" t="n">
         <v>828</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>18.06</v>
+        <v>21.08</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -48193,30 +48235,32 @@
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Elea Jørstad Bock</t>
+          <t>Kristine Meinert Rød</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E33" s="15" t="n">
-        <v>12.14</v>
+        <v>2001</v>
+      </c>
+      <c r="E33" s="17" t="inlineStr">
+        <is>
+          <t>16,34,10</t>
+        </is>
       </c>
       <c r="F33" s="7" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>6.07</v>
+        <v>18.06</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -48256,25 +48300,25 @@
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Pernille Rismark</t>
+          <t>Elea Jørstad Bock</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>12.16</v>
+        <v>12.14</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Gainesville/FL/USA</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>13.04</v>
+        <v>6.07</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -48314,25 +48358,25 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Ingrid Pernille Rismark</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E35" s="15" t="n">
-        <v>12.17</v>
+        <v>12.16</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Gainesville/FL/USA</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>27.06</v>
+        <v>13.04</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -48629,7 +48673,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>9711</v>
+        <v>9718</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -48669,7 +48713,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>21411</v>
+        <v>21418</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -54548,7 +54592,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="F190" s="8" t="n">
@@ -54562,7 +54606,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Vestfold</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -54578,7 +54622,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb</t>
+          <t>Nittedal IL</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -54589,7 +54633,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Nittedal IL</t>
+          <t>Tønsberg Friidrettsklubb</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -54718,25 +54762,25 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>7.73</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>821</v>
+        <v>701</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>16.03</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -54746,25 +54790,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>8.109999999999999</v>
+        <v>7.73</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>701</v>
+        <v>821</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>16.03</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -54776,25 +54820,25 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>12.33</v>
+        <v>12.93</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>791</v>
+        <v>683</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>1.06</v>
+        <v>11.08</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -54804,25 +54848,25 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>12.93</v>
+        <v>12.33</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>683</v>
+        <v>791</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>11.08</v>
+        <v>1.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -54834,25 +54878,25 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Kerine Sherice Stephenson</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>26.33</v>
+        <v>26.43</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>2.03</v>
+        <v>9.08</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -54862,25 +54906,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Kerine Sherice Stephenson</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>26.43</v>
+        <v>26.33</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>9.08</v>
+        <v>2.03</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -54892,27 +54936,27 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E200" s="17" t="inlineStr">
         <is>
-          <t>1,01,22</t>
+          <t>1,05,00</t>
         </is>
       </c>
       <c r="F200" s="7" t="n">
-        <v>641</v>
+        <v>537</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>11.02</v>
+        <v>1.06</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -54922,27 +54966,27 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O200" s="17" t="inlineStr">
         <is>
-          <t>1,05,00</t>
+          <t>1,01,22</t>
         </is>
       </c>
       <c r="P200" s="7" t="n">
-        <v>537</v>
+        <v>641</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>1.06</v>
+        <v>11.02</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -54954,27 +54998,27 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Malin Gallis</t>
+          <t>Ingrid Skaar</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>2,38,86</t>
+          <t>2,19,85</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>474</v>
+        <v>669</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>17.08</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
@@ -54984,27 +55028,27 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Eira Jacobsen-Sjue</t>
+          <t>Malin Gallis</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>2,35,62</t>
+          <t>2,38,86</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>20.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -55016,7 +55060,7 @@
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Malin Gallis</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
@@ -55024,19 +55068,19 @@
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>5,35,06</t>
+          <t>4,38,92</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>447</v>
+        <v>732</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>6.01</v>
+        <v>3.08</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
@@ -55046,7 +55090,7 @@
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Malin Gallis</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
@@ -55054,19 +55098,19 @@
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>4,38,92</t>
+          <t>5,35,06</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>732</v>
+        <v>447</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>3.08</v>
+        <v>6.01</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -55078,7 +55122,7 @@
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Anna Knapstad Dehli</t>
+          <t>Eline Skaar</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
@@ -55086,19 +55130,19 @@
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>11,28,15</t>
+          <t>10,11,91</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>529</v>
+        <v>709</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>22.06</v>
+        <v>20.06</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
@@ -55108,7 +55152,7 @@
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Eline Skaar</t>
+          <t>Anna Knapstad Dehli</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
@@ -55116,79 +55160,79 @@
       </c>
       <c r="O203" s="17" t="inlineStr">
         <is>
-          <t>10,11,91</t>
+          <t>11,28,15</t>
         </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>709</v>
+        <v>529</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>20.06</v>
+        <v>22.06</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
     <row r="204" ht="13" customHeight="1">
       <c r="B204" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E204" s="15" t="n">
-        <v>14.95</v>
+      <c r="E204" s="17" t="inlineStr">
+        <is>
+          <t>1,10,12</t>
+        </is>
       </c>
       <c r="F204" s="7" t="n">
-        <v>771</v>
+        <v>587</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>4.08</v>
+        <v>5.07</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O204" s="17" t="inlineStr">
-        <is>
-          <t>1,10,12</t>
-        </is>
+      <c r="O204" s="15" t="n">
+        <v>14.95</v>
       </c>
       <c r="P204" s="7" t="n">
-        <v>587</v>
+        <v>771</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>5.07</v>
+        <v>4.08</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -55200,25 +55244,25 @@
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Isabella Neves Strand</t>
+          <t>Sanne Hesselink Cornelissen</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E205" s="15" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>25.05</v>
+        <v>2.06</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
@@ -55228,25 +55272,25 @@
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Sanne Hesselink Cornelissen</t>
+          <t>Isabella Neves Strand</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>2.06</v>
+        <v>25.05</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
@@ -55258,25 +55302,25 @@
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>6.01</v>
+        <v>26.05</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
@@ -55286,199 +55330,199 @@
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>4.58</v>
+        <v>4.65</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>26.05</v>
+        <v>6.01</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
     <row r="207" ht="13" customHeight="1">
       <c r="B207" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Marit Huflåtten</t>
+          <t>Tiril Lappegård</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>1953</v>
+        <v>2003</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>7.89</v>
+        <v>9.92</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>316</v>
+        <v>586</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Torun/POL</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>19.03</v>
+        <v>23.07</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Tiril Lappegård</t>
+          <t>Marit Huflåtten</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2003</v>
+        <v>1953</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>9.92</v>
+        <v>7.89</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>586</v>
+        <v>316</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Torun/POL</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>23.07</v>
+        <v>19.03</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
     <row r="208" ht="13" customHeight="1">
       <c r="B208" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>Marit Huflåtten</t>
+          <t>Tiril Lappegård</t>
         </is>
       </c>
       <c r="D208" s="7" t="n">
-        <v>1953</v>
+        <v>2003</v>
       </c>
       <c r="E208" s="15" t="n">
-        <v>2.11</v>
+        <v>29.72</v>
       </c>
       <c r="F208" s="7" t="n">
-        <v>345</v>
+        <v>576</v>
       </c>
       <c r="G208" s="7" t="inlineStr">
         <is>
-          <t>Tønsberg</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H208" s="16" t="n">
-        <v>16.01</v>
+        <v>23.07</v>
       </c>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Tiril Lappegård</t>
+          <t>Marit Huflåtten</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>2003</v>
+        <v>1953</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>29.72</v>
+        <v>2.11</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>576</v>
+        <v>345</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Tønsberg</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>23.07</v>
+        <v>16.01</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
       <c r="B209" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>Marit Huflåtten</t>
+          <t>Tiril Lappegård</t>
         </is>
       </c>
       <c r="D209" s="7" t="n">
-        <v>1953</v>
+        <v>2003</v>
       </c>
       <c r="E209" s="15" t="n">
-        <v>19.48</v>
+        <v>53.78</v>
       </c>
       <c r="F209" s="7" t="n">
-        <v>371</v>
+        <v>854</v>
       </c>
       <c r="G209" s="7" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H209" s="16" t="n">
-        <v>10.05</v>
+        <v>14.06</v>
       </c>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Tiril Lappegård</t>
+          <t>Marit Huflåtten</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>2003</v>
+        <v>1953</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>53.78</v>
+        <v>19.48</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>854</v>
+        <v>371</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>14.06</v>
+        <v>10.05</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -55515,7 +55559,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>7357</v>
+        <v>8399</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -55532,7 +55576,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8234</v>
+        <v>7357</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -55635,530 +55679,532 @@
     <row r="216" ht="13" customHeight="1">
       <c r="B216" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Claudia Maria Hastie Foss</t>
+          <t>Ingrid Skaar</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E216" s="15" t="n">
-        <v>7.75</v>
+        <v>2009</v>
+      </c>
+      <c r="E216" s="17" t="inlineStr">
+        <is>
+          <t>4,41,80</t>
+        </is>
       </c>
       <c r="F216" s="7" t="n">
-        <v>814</v>
+        <v>714</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>9.02</v>
+        <v>3.08</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Skaar</t>
+          <t>Claudia Maria Hastie Foss</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O216" s="17" t="inlineStr">
-        <is>
-          <t>4,41,80</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O216" s="15" t="n">
+        <v>7.75</v>
       </c>
       <c r="P216" s="7" t="n">
-        <v>714</v>
+        <v>814</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>3.08</v>
+        <v>9.02</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Ingrid Skaar</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E217" s="15" t="n">
-        <v>12.83</v>
+        <v>2009</v>
+      </c>
+      <c r="E217" s="17" t="inlineStr">
+        <is>
+          <t>10,37,35</t>
+        </is>
       </c>
       <c r="F217" s="7" t="n">
-        <v>700</v>
+        <v>644</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>6.07</v>
+        <v>4.08</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Skaar</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O217" s="17" t="inlineStr">
-        <is>
-          <t>10,37,35</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O217" s="15" t="n">
+        <v>12.83</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>644</v>
+        <v>700</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>4.08</v>
+        <v>6.07</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Claudia Maria Hastie Foss</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E218" s="15" t="n">
-        <v>26.45</v>
+        <v>2009</v>
+      </c>
+      <c r="E218" s="17" t="inlineStr">
+        <is>
+          <t>5,01,21</t>
+        </is>
       </c>
       <c r="F218" s="7" t="n">
-        <v>691</v>
+        <v>605</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>10.03</v>
+        <v>18.08</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Claudia Maria Hastie Foss</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O218" s="17" t="inlineStr">
-        <is>
-          <t>5,04,99</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O218" s="15" t="n">
+        <v>26.45</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>586</v>
+        <v>691</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>24.05</v>
+        <v>10.03</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Tuva Sofie Sollid</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>26.66</v>
+        <v>13.64</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>675</v>
+        <v>566</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>10.02</v>
+        <v>6.07</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Tuva Sofie Sollid</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O219" s="15" t="n">
-        <v>13.64</v>
+        <v>26.66</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>566</v>
+        <v>675</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>6.07</v>
+        <v>10.02</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E220" s="15" t="n">
-        <v>13</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>671</v>
+        <v>558</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>16.06</v>
+        <v>16.03</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>8.640000000000001</v>
+        <v>13</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>558</v>
+        <v>671</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>16.03</v>
+        <v>16.06</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E221" s="15" t="n">
-        <v>26.84</v>
+        <v>2009</v>
+      </c>
+      <c r="E221" s="17" t="inlineStr">
+        <is>
+          <t>11,17,26</t>
+        </is>
       </c>
       <c r="F221" s="7" t="n">
-        <v>662</v>
+        <v>552</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>2.06</v>
+        <v>20.06</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O221" s="17" t="inlineStr">
-        <is>
-          <t>11,17,26</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O221" s="15" t="n">
+        <v>26.84</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>552</v>
+        <v>662</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>20.06</v>
+        <v>2.06</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E222" s="15" t="n">
-        <v>8.289999999999999</v>
+        <v>28.64</v>
       </c>
       <c r="F222" s="7" t="n">
-        <v>649</v>
+        <v>536</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>9.02</v>
+        <v>18.08</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>29.08</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>507</v>
+        <v>649</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>17.03</v>
+        <v>9.02</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Anna Sølvberg Tjelle</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E223" s="15" t="n">
-        <v>8.289999999999999</v>
+        <v>2010</v>
+      </c>
+      <c r="E223" s="17" t="inlineStr">
+        <is>
+          <t>5,19,43</t>
+        </is>
       </c>
       <c r="F223" s="7" t="n">
-        <v>649</v>
+        <v>516</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>20.01</v>
+        <v>18.08</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>29.11</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>505</v>
+        <v>649</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>18.04</v>
+        <v>20.01</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>4.33</v>
+        <v>9.35</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>6.01</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>9.35</v>
+        <v>4.33</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>6.01</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -56170,17 +56216,17 @@
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Henrikke Nyheim</t>
+          <t>Tuva Helene Rugsveen</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
@@ -56188,7 +56234,7 @@
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>16.03</v>
+        <v>17.03</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
@@ -56198,17 +56244,17 @@
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Tuva Helene Rugsveen</t>
+          <t>Henrikke Nyheim</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
@@ -56216,65 +56262,65 @@
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>17.03</v>
+        <v>16.03</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Isabella Neves Strand</t>
+          <t>Tuva Helene Rugsveen</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>4.13</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>17.03</v>
+        <v>17.08</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Johanne Otelie Schønheyder</t>
+          <t>Isabella Neves Strand</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>1.25</v>
+        <v>4.13</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>11.05</v>
+        <v>17.03</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -56286,11 +56332,11 @@
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Slettemeås</t>
+          <t>Johanne Otelie Schønheyder</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E227" s="15" t="n">
         <v>1.25</v>
@@ -56300,39 +56346,39 @@
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>25.05</v>
+        <v>11.05</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Florez Trælvik</t>
+          <t>Ingrid Slettemeås</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>27.04</v>
+        <v>25.05</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -56369,7 +56415,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>7208</v>
+        <v>6440</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -56386,7 +56432,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6258</v>
+        <v>7208</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -56409,7 +56455,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>14565</v>
+        <v>14839</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -56426,7 +56472,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14492</v>
+        <v>14565</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -56441,7 +56487,7 @@
         </is>
       </c>
       <c r="C233" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -59140,17 +59186,17 @@
       </c>
       <c r="M300" s="7" t="inlineStr">
         <is>
-          <t>Viktoria Rebekka Tornholm</t>
+          <t>Matilda Leonora Moen Kasin</t>
         </is>
       </c>
       <c r="N300" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
@@ -59306,7 +59352,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>6458</v>
+        <v>6536</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -59613,7 +59659,7 @@
       <c r="J313" s="5" t="n"/>
       <c r="L313" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M313" s="7" t="inlineStr">
@@ -59624,19 +59670,21 @@
       <c r="N313" s="7" t="n">
         <v>2012</v>
       </c>
-      <c r="O313" s="15" t="n">
-        <v>29.62</v>
+      <c r="O313" s="17" t="inlineStr">
+        <is>
+          <t>2,38,16</t>
+        </is>
       </c>
       <c r="P313" s="7" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="Q313" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R313" s="16" t="n">
-        <v>21.06</v>
+        <v>18.08</v>
       </c>
       <c r="T313" s="5" t="n"/>
     </row>
@@ -59671,30 +59719,30 @@
       <c r="J314" s="5" t="n"/>
       <c r="L314" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M314" s="7" t="inlineStr">
         <is>
-          <t>Matilda Leonora Moen Kasin</t>
+          <t>Violet Victoria Diderique Nijenhuis-Stanchenko</t>
         </is>
       </c>
       <c r="N314" s="7" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="O314" s="15" t="n">
-        <v>9.19</v>
+        <v>29.62</v>
       </c>
       <c r="P314" s="7" t="n">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="Q314" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R314" s="16" t="n">
-        <v>8.050000000000001</v>
+        <v>21.06</v>
       </c>
       <c r="T314" s="5" t="n"/>
     </row>
@@ -59729,22 +59777,22 @@
       <c r="J315" s="5" t="n"/>
       <c r="L315" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M315" s="7" t="inlineStr">
         <is>
-          <t>Viktoria Rebekka Tornholm</t>
+          <t>Matilda Leonora Moen Kasin</t>
         </is>
       </c>
       <c r="N315" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O315" s="15" t="n">
-        <v>4.14</v>
+        <v>9.19</v>
       </c>
       <c r="P315" s="7" t="n">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="Q315" s="7" t="inlineStr">
         <is>
@@ -59752,7 +59800,7 @@
         </is>
       </c>
       <c r="R315" s="16" t="n">
-        <v>9.06</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="T315" s="5" t="n"/>
     </row>
@@ -59787,30 +59835,30 @@
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M316" s="7" t="inlineStr">
         <is>
-          <t>Violet Victoria Diderique Nijenhuis-Stanchenko</t>
+          <t>Viktoria Rebekka Tornholm</t>
         </is>
       </c>
       <c r="N316" s="7" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="O316" s="15" t="n">
-        <v>9.24</v>
+        <v>4.14</v>
       </c>
       <c r="P316" s="7" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q316" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="R316" s="16" t="n">
-        <v>22.06</v>
+        <v>9.06</v>
       </c>
       <c r="T316" s="5" t="n"/>
     </row>
@@ -59850,25 +59898,25 @@
       </c>
       <c r="M317" s="7" t="inlineStr">
         <is>
-          <t>Viktoria Rebekka Tornholm</t>
+          <t>Violet Victoria Diderique Nijenhuis-Stanchenko</t>
         </is>
       </c>
       <c r="N317" s="7" t="n">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="O317" s="15" t="n">
-        <v>9.26</v>
+        <v>9.24</v>
       </c>
       <c r="P317" s="7" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q317" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R317" s="16" t="n">
-        <v>28.01</v>
+        <v>22.06</v>
       </c>
       <c r="T317" s="5" t="n"/>
     </row>
@@ -59903,30 +59951,30 @@
       <c r="J318" s="5" t="n"/>
       <c r="L318" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M318" s="7" t="inlineStr">
         <is>
-          <t>Matilda Leonora Moen Kasin</t>
+          <t>Viktoria Rebekka Tornholm</t>
         </is>
       </c>
       <c r="N318" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="O318" s="15" t="n">
-        <v>4.01</v>
+        <v>9.26</v>
       </c>
       <c r="P318" s="7" t="n">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="Q318" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="R318" s="16" t="n">
-        <v>5.06</v>
+        <v>28.01</v>
       </c>
       <c r="T318" s="5" t="n"/>
     </row>
@@ -59961,7 +60009,7 @@
       <c r="J319" s="5" t="n"/>
       <c r="L319" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M319" s="7" t="inlineStr">
@@ -59973,18 +60021,18 @@
         <v>2010</v>
       </c>
       <c r="O319" s="15" t="n">
-        <v>31.35</v>
+        <v>4.01</v>
       </c>
       <c r="P319" s="7" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="Q319" s="7" t="inlineStr">
         <is>
-          <t>Skien</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R319" s="16" t="n">
-        <v>8.06</v>
+        <v>5.06</v>
       </c>
       <c r="T319" s="5" t="n"/>
     </row>
@@ -60019,30 +60067,32 @@
       <c r="J320" s="5" t="n"/>
       <c r="L320" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M320" s="7" t="inlineStr">
         <is>
-          <t>Violet Victoria Diderique Nijenhuis-Stanchenko</t>
+          <t>Vilma Holte Fjeldstad</t>
         </is>
       </c>
       <c r="N320" s="7" t="n">
-        <v>2012</v>
-      </c>
-      <c r="O320" s="15" t="n">
-        <v>15.29</v>
+        <v>2013</v>
+      </c>
+      <c r="O320" s="17" t="inlineStr">
+        <is>
+          <t>2,54,49</t>
+        </is>
       </c>
       <c r="P320" s="7" t="n">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="Q320" s="7" t="inlineStr">
         <is>
-          <t>Notodden</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R320" s="16" t="n">
-        <v>15.05</v>
+        <v>18.08</v>
       </c>
       <c r="T320" s="5" t="n"/>
     </row>
@@ -60154,7 +60204,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>5075</v>
+        <v>5193</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -60194,7 +60244,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>11533</v>
+        <v>11729</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -60218,7 +60268,7 @@
         </is>
       </c>
       <c r="M327" s="20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -976,11 +976,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(26/11)</t>
+          <t>(28/12)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>17660</v>
+        <v>18354</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -15079,25 +15079,25 @@
       </c>
       <c r="M329" s="7" t="inlineStr">
         <is>
-          <t>Vetle Pedersen Jamvold</t>
+          <t>Brage Henriksen</t>
         </is>
       </c>
       <c r="N329" s="7" t="n">
         <v>2011</v>
       </c>
       <c r="O329" s="15" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="P329" s="7" t="n">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="Q329" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R329" s="16" t="n">
-        <v>24.05</v>
+        <v>8.09</v>
       </c>
       <c r="T329" s="5" t="n"/>
     </row>
@@ -15399,7 +15399,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>9597</v>
+        <v>9670</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -16112,30 +16112,30 @@
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M352" s="7" t="inlineStr">
         <is>
-          <t>Brage Henriksen</t>
+          <t>Stian Flo</t>
         </is>
       </c>
       <c r="N352" s="7" t="n">
-        <v>2011</v>
+        <v>1985</v>
       </c>
       <c r="O352" s="15" t="n">
-        <v>1.4</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="P352" s="7" t="n">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="Q352" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="R352" s="16" t="n">
-        <v>5.09</v>
+        <v>31.08</v>
       </c>
       <c r="T352" s="5" t="n"/>
     </row>
@@ -16170,30 +16170,30 @@
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M353" s="7" t="inlineStr">
         <is>
-          <t>Adam Torp Kvasjord</t>
+          <t>Andreas Fløystad</t>
         </is>
       </c>
       <c r="N353" s="7" t="n">
-        <v>2011</v>
+        <v>1986</v>
       </c>
       <c r="O353" s="15" t="n">
-        <v>1.25</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="P353" s="7" t="n">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="Q353" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="R353" s="16" t="n">
-        <v>24.05</v>
+        <v>31.08</v>
       </c>
       <c r="T353" s="5" t="n"/>
     </row>
@@ -16226,13 +16226,33 @@
         <v>12.04</v>
       </c>
       <c r="J354" s="5" t="n"/>
-      <c r="L354" s="14" t="n"/>
-      <c r="M354" s="7" t="n"/>
-      <c r="N354" s="7" t="n"/>
-      <c r="O354" s="7" t="n"/>
-      <c r="P354" s="7" t="n"/>
-      <c r="Q354" s="7" t="n"/>
-      <c r="R354" s="21" t="n"/>
+      <c r="L354" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M354" s="7" t="inlineStr">
+        <is>
+          <t>Vetle Pedersen Jamvold</t>
+        </is>
+      </c>
+      <c r="N354" s="7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O354" s="15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P354" s="7" t="n">
+        <v>233</v>
+      </c>
+      <c r="Q354" s="7" t="inlineStr">
+        <is>
+          <t>Kristiansand</t>
+        </is>
+      </c>
+      <c r="R354" s="16" t="n">
+        <v>24.05</v>
+      </c>
       <c r="T354" s="5" t="n"/>
     </row>
     <row r="355" ht="13" customHeight="1">
@@ -16264,13 +16284,33 @@
         <v>12.04</v>
       </c>
       <c r="J355" s="5" t="n"/>
-      <c r="L355" s="14" t="n"/>
-      <c r="M355" s="7" t="n"/>
-      <c r="N355" s="7" t="n"/>
-      <c r="O355" s="7" t="n"/>
-      <c r="P355" s="7" t="n"/>
-      <c r="Q355" s="7" t="n"/>
-      <c r="R355" s="21" t="n"/>
+      <c r="L355" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M355" s="7" t="inlineStr">
+        <is>
+          <t>Adam Torp Kvasjord</t>
+        </is>
+      </c>
+      <c r="N355" s="7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O355" s="15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P355" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q355" s="7" t="inlineStr">
+        <is>
+          <t>Ålgård</t>
+        </is>
+      </c>
+      <c r="R355" s="16" t="n">
+        <v>8.09</v>
+      </c>
       <c r="T355" s="5" t="n"/>
     </row>
     <row r="356" ht="13" customHeight="1">
@@ -16333,7 +16373,7 @@
         </is>
       </c>
       <c r="M358" s="20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O358" s="19" t="inlineStr">
         <is>
@@ -16341,7 +16381,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>8063</v>
+        <v>8684</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -16373,7 +16413,7 @@
         </is>
       </c>
       <c r="M360" s="20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O360" s="19" t="inlineStr">
         <is>
@@ -16381,7 +16421,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>17660</v>
+        <v>18354</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -16405,7 +16445,7 @@
         </is>
       </c>
       <c r="M362" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T362" s="5" t="n"/>
     </row>
@@ -16517,11 +16557,11 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>(25/18)</t>
+          <t>(25/17)</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18436</v>
+        <v>18507</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -16769,11 +16809,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/15)</t>
+          <t>(25/16)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>16294</v>
+        <v>16439</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -17728,25 +17768,25 @@
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>Sondre Audahl Vik</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E19" s="15" t="n">
-        <v>11.33</v>
+        <v>11.97</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="G19" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>3.09</v>
       </c>
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
@@ -17927,7 +17967,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>9382</v>
+        <v>9453</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -18817,7 +18857,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18436</v>
+        <v>18507</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -18849,7 +18889,7 @@
         </is>
       </c>
       <c r="C45" s="20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J45" s="5" t="n"/>
       <c r="L45" s="19" t="inlineStr">
@@ -25381,22 +25421,22 @@
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Nicholas von Jakitsch Garvik</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>2.55</v>
+        <v>5.44</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>376</v>
+        <v>477</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
@@ -25404,7 +25444,7 @@
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>9.02</v>
+        <v>27.01</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
@@ -25439,30 +25479,30 @@
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Sondre Audahl Vik</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>5.44</v>
+        <v>11.33</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>27.01</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -25497,30 +25537,30 @@
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Aleksander Christian Moen</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>10.63</v>
+        <v>1.3</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bk</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>16.06</v>
+        <v>26.02</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
@@ -25555,22 +25595,22 @@
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Ariand Shegani</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>1.3</v>
+        <v>2.74</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>440</v>
+        <v>526</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
@@ -25613,30 +25653,30 @@
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Noah Ruben</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>2.74</v>
+        <v>36.9</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>526</v>
+        <v>440</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>26.02</v>
+        <v>3.09</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -25690,7 +25730,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8205</v>
+        <v>8350</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -26592,7 +26632,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>16294</v>
+        <v>16439</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26616,7 +26656,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -30766,7 +30806,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>19222</v>
+        <v>19259</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -30818,11 +30858,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(29/14)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>17221</v>
+        <v>17548</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -43686,30 +43726,30 @@
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Frida Sætrum</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="O297" s="15" t="n">
-        <v>5.03</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="P297" s="7" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>21.01</v>
+        <v>8.09</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
@@ -43744,22 +43784,22 @@
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Frida Sætrum</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="O298" s="15" t="n">
-        <v>1.51</v>
+        <v>5.03</v>
       </c>
       <c r="P298" s="7" t="n">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
@@ -43767,7 +43807,7 @@
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>22.02</v>
+        <v>21.01</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -43802,30 +43842,30 @@
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M299" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N299" s="7" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="O299" s="15" t="n">
-        <v>10.49</v>
+        <v>1.51</v>
       </c>
       <c r="P299" s="7" t="n">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="Q299" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R299" s="16" t="n">
-        <v>18.06</v>
+        <v>22.02</v>
       </c>
       <c r="T299" s="5" t="n"/>
     </row>
@@ -43860,30 +43900,30 @@
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M300" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Handeland</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N300" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>4.95</v>
+        <v>10.49</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R300" s="16" t="n">
-        <v>11.05</v>
+        <v>18.06</v>
       </c>
       <c r="T300" s="5" t="n"/>
     </row>
@@ -43920,22 +43960,22 @@
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M301" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Mathilde Handeland</t>
         </is>
       </c>
       <c r="N301" s="7" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="O301" s="15" t="n">
-        <v>8.470000000000001</v>
+        <v>4.95</v>
       </c>
       <c r="P301" s="7" t="n">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="Q301" s="7" t="inlineStr">
         <is>
@@ -43943,7 +43983,7 @@
         </is>
       </c>
       <c r="R301" s="16" t="n">
-        <v>1.06</v>
+        <v>11.05</v>
       </c>
       <c r="T301" s="5" t="n"/>
     </row>
@@ -44048,18 +44088,18 @@
         <v>2011</v>
       </c>
       <c r="O303" s="15" t="n">
-        <v>28.2</v>
+        <v>28.08</v>
       </c>
       <c r="P303" s="7" t="n">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="Q303" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R303" s="16" t="n">
-        <v>25.08</v>
+        <v>7.09</v>
       </c>
       <c r="T303" s="5" t="n"/>
     </row>
@@ -44171,7 +44211,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>9457</v>
+        <v>9494</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -44211,7 +44251,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>19222</v>
+        <v>19259</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -44768,32 +44808,32 @@
       <c r="J326" s="5" t="n"/>
       <c r="L326" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M326" s="7" t="inlineStr">
         <is>
-          <t>Trine Mjåland</t>
+          <t>Ingrid Heskestad Mykland</t>
         </is>
       </c>
       <c r="N326" s="7" t="n">
-        <v>1990</v>
+        <v>2011</v>
       </c>
       <c r="O326" s="17" t="inlineStr">
         <is>
-          <t>9,43,74</t>
+          <t>6,13,20</t>
         </is>
       </c>
       <c r="P326" s="7" t="n">
-        <v>789</v>
+        <v>296</v>
       </c>
       <c r="Q326" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="R326" s="16" t="n">
-        <v>12.05</v>
+        <v>31.08</v>
       </c>
       <c r="T326" s="5" t="n"/>
     </row>
@@ -44830,32 +44870,32 @@
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M327" s="7" t="inlineStr">
         <is>
-          <t>Siren Amelia Seiler</t>
+          <t>Trine Mjåland</t>
         </is>
       </c>
       <c r="N327" s="7" t="n">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="O327" s="17" t="inlineStr">
         <is>
-          <t>17,43,41</t>
+          <t>9,43,74</t>
         </is>
       </c>
       <c r="P327" s="7" t="n">
-        <v>714</v>
+        <v>789</v>
       </c>
       <c r="Q327" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R327" s="16" t="n">
-        <v>28.04</v>
+        <v>12.05</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>
@@ -44890,30 +44930,32 @@
       <c r="J328" s="5" t="n"/>
       <c r="L328" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M328" s="7" t="inlineStr">
         <is>
-          <t>Emma Frigstad-Thorkildsen</t>
+          <t>Siren Amelia Seiler</t>
         </is>
       </c>
       <c r="N328" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O328" s="15" t="n">
-        <v>11.67</v>
+        <v>1998</v>
+      </c>
+      <c r="O328" s="17" t="inlineStr">
+        <is>
+          <t>17,43,41</t>
+        </is>
       </c>
       <c r="P328" s="7" t="n">
-        <v>368</v>
+        <v>714</v>
       </c>
       <c r="Q328" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R328" s="16" t="n">
-        <v>2.03</v>
+        <v>28.04</v>
       </c>
       <c r="T328" s="5" t="n"/>
     </row>
@@ -44948,32 +44990,30 @@
       <c r="J329" s="5" t="n"/>
       <c r="L329" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M329" s="7" t="inlineStr">
         <is>
-          <t>Tina Helen Bergem</t>
+          <t>Emma Frigstad-Thorkildsen</t>
         </is>
       </c>
       <c r="N329" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="O329" s="17" t="inlineStr">
-        <is>
-          <t>1,06,52</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O329" s="15" t="n">
+        <v>11.67</v>
       </c>
       <c r="P329" s="7" t="n">
-        <v>662</v>
+        <v>368</v>
       </c>
       <c r="Q329" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R329" s="16" t="n">
-        <v>14.06</v>
+        <v>2.03</v>
       </c>
       <c r="T329" s="5" t="n"/>
     </row>
@@ -45008,30 +45048,32 @@
       <c r="J330" s="5" t="n"/>
       <c r="L330" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M330" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Heskestad Mykland</t>
+          <t>Tina Helen Bergem</t>
         </is>
       </c>
       <c r="N330" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O330" s="15" t="n">
-        <v>1.25</v>
+        <v>1994</v>
+      </c>
+      <c r="O330" s="17" t="inlineStr">
+        <is>
+          <t>1,06,52</t>
+        </is>
       </c>
       <c r="P330" s="7" t="n">
-        <v>362</v>
+        <v>662</v>
       </c>
       <c r="Q330" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R330" s="16" t="n">
-        <v>24.05</v>
+        <v>14.06</v>
       </c>
       <c r="T330" s="5" t="n"/>
     </row>
@@ -45066,30 +45108,30 @@
       <c r="J331" s="5" t="n"/>
       <c r="L331" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M331" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Ingrid Heskestad Mykland</t>
         </is>
       </c>
       <c r="N331" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="O331" s="15" t="n">
-        <v>5.19</v>
+        <v>1.25</v>
       </c>
       <c r="P331" s="7" t="n">
-        <v>660</v>
+        <v>362</v>
       </c>
       <c r="Q331" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R331" s="16" t="n">
-        <v>31.08</v>
+        <v>24.05</v>
       </c>
       <c r="T331" s="5" t="n"/>
     </row>
@@ -45124,30 +45166,30 @@
       <c r="J332" s="5" t="n"/>
       <c r="L332" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M332" s="7" t="inlineStr">
         <is>
-          <t>Julie Lunde</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N332" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O332" s="15" t="n">
-        <v>10.62</v>
+        <v>5.19</v>
       </c>
       <c r="P332" s="7" t="n">
-        <v>622</v>
+        <v>660</v>
       </c>
       <c r="Q332" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R332" s="16" t="n">
-        <v>15.06</v>
+        <v>31.08</v>
       </c>
       <c r="T332" s="5" t="n"/>
     </row>
@@ -45182,30 +45224,30 @@
       <c r="J333" s="5" t="n"/>
       <c r="L333" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M333" s="7" t="inlineStr">
         <is>
-          <t>Eline Heia</t>
+          <t>Julie Lunde</t>
         </is>
       </c>
       <c r="N333" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O333" s="15" t="n">
-        <v>2.52</v>
+        <v>10.62</v>
       </c>
       <c r="P333" s="7" t="n">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="Q333" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R333" s="16" t="n">
-        <v>17.02</v>
+        <v>15.06</v>
       </c>
       <c r="T333" s="5" t="n"/>
     </row>
@@ -45240,30 +45282,30 @@
       <c r="J334" s="5" t="n"/>
       <c r="L334" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M334" s="7" t="inlineStr">
         <is>
-          <t>Christine Gulbrandsen</t>
+          <t>Eline Heia</t>
         </is>
       </c>
       <c r="N334" s="7" t="n">
-        <v>1977</v>
+        <v>2003</v>
       </c>
       <c r="O334" s="15" t="n">
-        <v>7.72</v>
+        <v>2.52</v>
       </c>
       <c r="P334" s="7" t="n">
-        <v>406</v>
+        <v>643</v>
       </c>
       <c r="Q334" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R334" s="16" t="n">
-        <v>24.05</v>
+        <v>17.02</v>
       </c>
       <c r="T334" s="5" t="n"/>
     </row>
@@ -45296,13 +45338,33 @@
         <v>10.08</v>
       </c>
       <c r="J335" s="5" t="n"/>
-      <c r="L335" s="14" t="n"/>
-      <c r="M335" s="7" t="n"/>
-      <c r="N335" s="7" t="n"/>
-      <c r="O335" s="7" t="n"/>
-      <c r="P335" s="7" t="n"/>
-      <c r="Q335" s="7" t="n"/>
-      <c r="R335" s="21" t="n"/>
+      <c r="L335" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M335" s="7" t="inlineStr">
+        <is>
+          <t>Christine Gulbrandsen</t>
+        </is>
+      </c>
+      <c r="N335" s="7" t="n">
+        <v>1977</v>
+      </c>
+      <c r="O335" s="15" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="P335" s="7" t="n">
+        <v>406</v>
+      </c>
+      <c r="Q335" s="7" t="inlineStr">
+        <is>
+          <t>Kristiansand</t>
+        </is>
+      </c>
+      <c r="R335" s="16" t="n">
+        <v>24.05</v>
+      </c>
       <c r="T335" s="5" t="n"/>
     </row>
     <row r="336" ht="13" customHeight="1">
@@ -45347,7 +45409,7 @@
         </is>
       </c>
       <c r="M337" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O337" s="19" t="inlineStr">
         <is>
@@ -45355,7 +45417,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>8763</v>
+        <v>9059</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -45722,30 +45784,30 @@
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M346" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Hedda Naalsund</t>
         </is>
       </c>
       <c r="N346" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="O346" s="15" t="n">
-        <v>10.49</v>
+        <v>27.42</v>
       </c>
       <c r="P346" s="7" t="n">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="Q346" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R346" s="16" t="n">
-        <v>15.06</v>
+        <v>7.09</v>
       </c>
       <c r="T346" s="5" t="n"/>
     </row>
@@ -45780,22 +45842,22 @@
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M347" s="7" t="inlineStr">
         <is>
-          <t>Julie Lunde</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N347" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O347" s="15" t="n">
-        <v>4.86</v>
+        <v>10.49</v>
       </c>
       <c r="P347" s="7" t="n">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="Q347" s="7" t="inlineStr">
         <is>
@@ -45803,7 +45865,7 @@
         </is>
       </c>
       <c r="R347" s="16" t="n">
-        <v>14.06</v>
+        <v>15.06</v>
       </c>
       <c r="T347" s="5" t="n"/>
     </row>
@@ -45840,19 +45902,19 @@
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M348" s="7" t="inlineStr">
         <is>
-          <t>Hedda Naalsund</t>
+          <t>Julie Lunde</t>
         </is>
       </c>
       <c r="N348" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="O348" s="15" t="n">
-        <v>27.87</v>
+        <v>4.86</v>
       </c>
       <c r="P348" s="7" t="n">
         <v>588</v>
@@ -45863,7 +45925,7 @@
         </is>
       </c>
       <c r="R348" s="16" t="n">
-        <v>16.06</v>
+        <v>14.06</v>
       </c>
       <c r="T348" s="5" t="n"/>
     </row>
@@ -46383,7 +46445,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>8458</v>
+        <v>8489</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -46415,7 +46477,7 @@
         </is>
       </c>
       <c r="M360" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O360" s="19" t="inlineStr">
         <is>
@@ -46423,7 +46485,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>17221</v>
+        <v>17548</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -46582,25 +46644,25 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/8)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>18414</v>
+        <v>18531</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>(14/1d)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -46610,25 +46672,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/14)</t>
+          <t>(25/8)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>18392</v>
+        <v>18414</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(14/1d)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -46643,11 +46705,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17631</v>
+        <v>17666</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -46671,11 +46733,11 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/8)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16489</v>
+        <v>16519</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -46787,7 +46849,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15044</v>
+        <v>15085</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -46895,11 +46957,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(24/8)</t>
+          <t>(24/9)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>13761</v>
+        <v>14011</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -46923,11 +46985,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(23/9)</t>
+          <t>(24/9)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>11768</v>
+        <v>12267</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -47016,7 +47078,7 @@
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="P2" s="8" t="n">
@@ -47043,7 +47105,7 @@
       </c>
       <c r="M3" s="7" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -47200,25 +47262,25 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Lavinia Wågen Husby</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>7.84</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>785</v>
+        <v>692</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>17.02</v>
+        <v>4.09</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -47258,25 +47320,25 @@
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Live Haugstad Hilton</t>
+          <t>Lavinia Wågen Husby</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>12.08</v>
+        <v>12.85</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>838</v>
+        <v>696</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>28.07</v>
+        <v>2.06</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -47316,25 +47378,25 @@
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Anna Kolstø Jensen</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>25.12</v>
+        <v>26.28</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>797</v>
+        <v>704</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Madison/SD/USA</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>9.02</v>
+        <v>23.04</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -47376,25 +47438,25 @@
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Anna Kolstø Jensen</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>57.19</v>
+        <v>59.97</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>775</v>
+        <v>680</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Mankato/MN/USA</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -47436,27 +47498,27 @@
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>2,13,43</t>
+          <t>2,13,61</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>15.05</v>
+        <v>4.02</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -47493,30 +47555,32 @@
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Lilli Margaret Gulbrandsen</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O14" s="15" t="n">
-        <v>8.960000000000001</v>
+        <v>1999</v>
+      </c>
+      <c r="O14" s="17" t="inlineStr">
+        <is>
+          <t>4,17,36</t>
+        </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>787</v>
+        <v>885</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>11.02</v>
+        <v>30.05</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -47551,30 +47615,32 @@
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O15" s="15" t="n">
-        <v>14.62</v>
+        <v>1999</v>
+      </c>
+      <c r="O15" s="17" t="inlineStr">
+        <is>
+          <t>9,08,29</t>
+        </is>
       </c>
       <c r="P15" s="7" t="n">
-        <v>804</v>
+        <v>908</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>22.06</v>
+        <v>18.02</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -47609,22 +47675,24 @@
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O16" s="15" t="n">
-        <v>59.69</v>
+        <v>1999</v>
+      </c>
+      <c r="O16" s="17" t="inlineStr">
+        <is>
+          <t>16,38,14</t>
+        </is>
       </c>
       <c r="P16" s="7" t="n">
-        <v>853</v>
+        <v>821</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
@@ -47667,30 +47735,32 @@
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O17" s="15" t="n">
-        <v>1.47</v>
+        <v>2000</v>
+      </c>
+      <c r="O17" s="17" t="inlineStr">
+        <is>
+          <t>10,03,43</t>
+        </is>
       </c>
       <c r="P17" s="7" t="n">
-        <v>583</v>
+        <v>897</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Winston-Salem/NC/USA</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>25.05</v>
+        <v>19.04</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -47725,30 +47795,30 @@
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>Live Haugstad Hilton</t>
+          <t>Kaja Kleppe Salemonsen</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>6.16</v>
+        <v>12.85</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Mankato/MN/USA</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>10.08</v>
+        <v>11.05</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -47783,30 +47853,30 @@
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>11.81</v>
+        <v>11.61</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>746</v>
+        <v>692</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Byrkjelo</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>30.08</v>
+        <v>12.05</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
@@ -47841,30 +47911,30 @@
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>1.33</v>
+        <v>42.76</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>692</v>
+        <v>763</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Tårnby/DEN</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>17.02</v>
+        <v>10.08</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -47899,30 +47969,30 @@
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Lilli Margaret Gulbrandsen</t>
+          <t>Thea Dahl</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>2.43</v>
+        <v>50.2</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>586</v>
+        <v>812</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sydney/AUS</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>9.02</v>
+        <v>14.03</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -47976,7 +48046,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>9875</v>
+        <v>10157</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -48107,30 +48177,32 @@
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O28" s="15" t="n">
-        <v>14.76</v>
+        <v>2000</v>
+      </c>
+      <c r="O28" s="17" t="inlineStr">
+        <is>
+          <t>9,13,62</t>
+        </is>
       </c>
       <c r="P28" s="7" t="n">
-        <v>790</v>
+        <v>889</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Boston/MA/USA</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>31.08</v>
+        <v>9.02</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -48165,30 +48237,32 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O29" s="15" t="n">
-        <v>9.01</v>
+        <v>2000</v>
+      </c>
+      <c r="O29" s="17" t="inlineStr">
+        <is>
+          <t>4,18,75</t>
+        </is>
       </c>
       <c r="P29" s="7" t="n">
-        <v>777</v>
+        <v>874</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Lewisburg/PA/USA</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>4.02</v>
+        <v>13.04</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -48223,30 +48297,32 @@
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Othelie Stave-Wigene</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O30" s="15" t="n">
-        <v>25.47</v>
+        <v>2011</v>
+      </c>
+      <c r="O30" s="17" t="inlineStr">
+        <is>
+          <t>4,37,96</t>
+        </is>
       </c>
       <c r="P30" s="7" t="n">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R30" s="16" t="n">
-        <v>17.02</v>
+        <v>8.09</v>
       </c>
       <c r="T30" s="5" t="n"/>
     </row>
@@ -48283,30 +48359,32 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Linea Helgevold Fjelldalselv</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O31" s="15" t="n">
-        <v>12.48</v>
+        <v>2011</v>
+      </c>
+      <c r="O31" s="17" t="inlineStr">
+        <is>
+          <t>4,40,89</t>
+        </is>
       </c>
       <c r="P31" s="7" t="n">
-        <v>763</v>
+        <v>719</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>27.06</v>
+        <v>8.09</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -48343,32 +48421,30 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Lavinia Wågen Husby</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O32" s="17" t="inlineStr">
-        <is>
-          <t>1,03,05</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="O32" s="15" t="n">
+        <v>26.34</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>752</v>
+        <v>699</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>27.06</v>
+        <v>7.09</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -48403,30 +48479,30 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>5.52</v>
+        <v>11.49</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>733</v>
+        <v>686</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>10.02</v>
+        <v>31.08</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -48461,30 +48537,32 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Linea Helgevold Fjelldalselv</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O34" s="15" t="n">
-        <v>26.12</v>
+        <v>2011</v>
+      </c>
+      <c r="O34" s="17" t="inlineStr">
+        <is>
+          <t>2,20,20</t>
+        </is>
       </c>
       <c r="P34" s="7" t="n">
-        <v>716</v>
+        <v>665</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>31.05</v>
+        <v>24.08</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -48519,30 +48597,32 @@
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Isabella Essilfie</t>
+          <t>Tiril Børø Opsøen</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O35" s="15" t="n">
-        <v>8.140000000000001</v>
+        <v>2011</v>
+      </c>
+      <c r="O35" s="17" t="inlineStr">
+        <is>
+          <t>4,51,58</t>
+        </is>
       </c>
       <c r="P35" s="7" t="n">
-        <v>692</v>
+        <v>657</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>10.02</v>
+        <v>14.06</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -48582,25 +48662,25 @@
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Isabella Essilfie</t>
+          <t>Maren Storaas Alsaker</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>12.88</v>
+        <v>13.09</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>11.05</v>
+        <v>25.05</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -48640,25 +48720,25 @@
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Emilie Høyland Schou</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>5.31</v>
+        <v>4.92</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>686</v>
+        <v>601</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>10.02</v>
+        <v>24.02</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -48693,30 +48773,30 @@
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Lilli Margaret Gulbrandsen</t>
+          <t>Emilie Høyland Schou</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>4.95</v>
+        <v>2.45</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>10.02</v>
+        <v>4.02</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -48751,30 +48831,30 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Oda Luggenes By</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>4.75</v>
+        <v>1.48</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>10.02</v>
+        <v>2.06</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -48828,7 +48908,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>8539</v>
+        <v>8374</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -48868,7 +48948,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>18414</v>
+        <v>18531</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -48892,7 +48972,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -48934,7 +49014,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -48964,7 +49044,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -49104,25 +49184,25 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Lavinia Wågen Husby</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>8.140000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>692</v>
+        <v>785</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>4.09</v>
+        <v>17.02</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -49162,25 +49242,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Lavinia Wågen Husby</t>
+          <t>Live Haugstad Hilton</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>12.85</v>
+        <v>12.08</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>696</v>
+        <v>838</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>2.06</v>
+        <v>28.07</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -49220,25 +49300,25 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstø Jensen</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>26.28</v>
+        <v>25.12</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>704</v>
+        <v>797</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Madison/SD/USA</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>23.04</v>
+        <v>9.02</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -49278,25 +49358,25 @@
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstø Jensen</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E59" s="15" t="n">
-        <v>59.97</v>
+        <v>57.19</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Mankato/MN/USA</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>1.05</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
@@ -49336,27 +49416,27 @@
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>2,13,61</t>
+          <t>2,13,43</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>4.02</v>
+        <v>15.05</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -49393,32 +49473,30 @@
     <row r="61" ht="13" customHeight="1">
       <c r="B61" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Lilli Margaret Gulbrandsen</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E61" s="17" t="inlineStr">
-        <is>
-          <t>4,17,36</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E61" s="15" t="n">
+        <v>8.960000000000001</v>
       </c>
       <c r="F61" s="7" t="n">
-        <v>885</v>
+        <v>787</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>30.05</v>
+        <v>11.02</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -49455,32 +49533,30 @@
     <row r="62" ht="13" customHeight="1">
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E62" s="17" t="inlineStr">
-        <is>
-          <t>9,08,29</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E62" s="15" t="n">
+        <v>14.62</v>
       </c>
       <c r="F62" s="7" t="n">
-        <v>908</v>
+        <v>804</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>18.02</v>
+        <v>22.06</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
@@ -49517,24 +49593,22 @@
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E63" s="17" t="inlineStr">
-        <is>
-          <t>16,38,14</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E63" s="15" t="n">
+        <v>59.69</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
@@ -49579,32 +49653,30 @@
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E64" s="17" t="inlineStr">
-        <is>
-          <t>10,03,43</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E64" s="15" t="n">
+        <v>1.47</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>897</v>
+        <v>583</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Winston-Salem/NC/USA</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>19.04</v>
+        <v>25.05</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -49639,30 +49711,30 @@
     <row r="65" ht="13" customHeight="1">
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Kaja Kleppe Salemonsen</t>
+          <t>Live Haugstad Hilton</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>12.85</v>
+        <v>6.16</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>858</v>
+        <v>878</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Mankato/MN/USA</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>11.05</v>
+        <v>10.08</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -49697,30 +49769,30 @@
     <row r="66" ht="13" customHeight="1">
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Maria Døske</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>11.61</v>
+        <v>11.81</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>692</v>
+        <v>746</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>12.05</v>
+        <v>30.08</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -49755,30 +49827,30 @@
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>42.76</v>
+        <v>1.33</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>763</v>
+        <v>692</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Tårnby/DEN</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>10.08</v>
+        <v>17.02</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -49813,30 +49885,30 @@
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Thea Dahl</t>
+          <t>Lilli Margaret Gulbrandsen</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>50.2</v>
+        <v>2.43</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>812</v>
+        <v>586</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Sydney/AUS</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>14.03</v>
+        <v>9.02</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -49901,7 +49973,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>10157</v>
+        <v>9875</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -50021,32 +50093,30 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E75" s="17" t="inlineStr">
-        <is>
-          <t>9,13,62</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E75" s="15" t="n">
+        <v>14.76</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>889</v>
+        <v>790</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Boston/MA/USA</t>
+          <t>Austevoll</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>9.02</v>
+        <v>31.08</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -50081,32 +50151,30 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E76" s="17" t="inlineStr">
-        <is>
-          <t>4,18,75</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E76" s="15" t="n">
+        <v>9.01</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>874</v>
+        <v>777</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Lewisburg/PA/USA</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>13.04</v>
+        <v>4.02</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
@@ -50143,32 +50211,30 @@
     <row r="77" ht="13" customHeight="1">
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Linea Helgevold Fjelldalselv</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E77" s="17" t="inlineStr">
-        <is>
-          <t>4,43,17</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E77" s="15" t="n">
+        <v>25.47</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>705</v>
+        <v>768</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H77" s="16" t="n">
-        <v>25.08</v>
+        <v>17.02</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
@@ -50205,30 +50271,30 @@
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E78" s="15" t="n">
-        <v>11.49</v>
+        <v>12.48</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>686</v>
+        <v>763</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>31.08</v>
+        <v>27.06</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
@@ -50263,30 +50329,32 @@
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Lavinia Wågen Husby</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E79" s="15" t="n">
-        <v>26.75</v>
+        <v>2003</v>
+      </c>
+      <c r="E79" s="17" t="inlineStr">
+        <is>
+          <t>1,03,05</t>
+        </is>
       </c>
       <c r="F79" s="7" t="n">
-        <v>668</v>
+        <v>752</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>4.02</v>
+        <v>27.06</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -50321,32 +50389,30 @@
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Linea Helgevold Fjelldalselv</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E80" s="17" t="inlineStr">
-        <is>
-          <t>2,20,20</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E80" s="15" t="n">
+        <v>5.52</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>665</v>
+        <v>733</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>24.08</v>
+        <v>10.02</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -50381,32 +50447,30 @@
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Tiril Børø Opsøen</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E81" s="17" t="inlineStr">
-        <is>
-          <t>4,51,58</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E81" s="15" t="n">
+        <v>26.12</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>657</v>
+        <v>716</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>14.06</v>
+        <v>31.05</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
@@ -50441,30 +50505,30 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Maren Storaas Alsaker</t>
+          <t>Isabella Essilfie</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E82" s="15" t="n">
-        <v>13.09</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>25.05</v>
+        <v>10.02</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -50499,32 +50563,30 @@
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Frøyland</t>
+          <t>Isabella Essilfie</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E83" s="17" t="inlineStr">
-        <is>
-          <t>4,53,87</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E83" s="15" t="n">
+        <v>12.88</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>644</v>
+        <v>691</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>14.06</v>
+        <v>11.05</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -50564,25 +50626,25 @@
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Emilie Høyland Schou</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>4.92</v>
+        <v>5.31</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>601</v>
+        <v>686</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>24.02</v>
+        <v>10.02</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -50617,116 +50679,116 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Emilie Høyland Schou</t>
+          <t>Lilli Margaret Gulbrandsen</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>2.45</v>
+        <v>4.95</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>4.02</v>
+        <v>10.02</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Helena Lauvdal Myhren</t>
+          <t>Tomine Tjomsland Johansson</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>4.88</v>
+        <v>1.49</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>1.06</v>
+        <v>8.09</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Oda Luggenes By</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>1.48</v>
+        <v>4.75</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>2.06</v>
+        <v>10.02</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Helena Lauvdal Myhren</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>1.45</v>
+        <v>4.88</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>21.01</v>
+        <v>1.06</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -50763,7 +50825,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>8235</v>
+        <v>8539</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -50780,7 +50842,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>7958</v>
+        <v>7993</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -50803,7 +50865,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>18392</v>
+        <v>18414</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -50820,7 +50882,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17631</v>
+        <v>17666</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -50835,7 +50897,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -50844,7 +50906,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -51349,30 +51411,32 @@
     <row r="108" ht="13" customHeight="1">
       <c r="B108" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Tuva Paulsdatter Sandlund</t>
         </is>
       </c>
       <c r="D108" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E108" s="15" t="n">
-        <v>8.49</v>
+        <v>2010</v>
+      </c>
+      <c r="E108" s="17" t="inlineStr">
+        <is>
+          <t>5,49,79</t>
+        </is>
       </c>
       <c r="F108" s="7" t="n">
-        <v>886</v>
+        <v>386</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
@@ -51409,7 +51473,7 @@
     <row r="109" ht="13" customHeight="1">
       <c r="B109" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
@@ -51421,18 +51485,18 @@
         <v>2006</v>
       </c>
       <c r="E109" s="15" t="n">
-        <v>14.13</v>
+        <v>8.49</v>
       </c>
       <c r="F109" s="7" t="n">
-        <v>856</v>
+        <v>886</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>4.08</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
@@ -51469,32 +51533,30 @@
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E110" s="17" t="inlineStr">
-        <is>
-          <t>1,07,80</t>
-        </is>
+      <c r="E110" s="15" t="n">
+        <v>14.13</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>633</v>
+        <v>856</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>31.08</v>
+        <v>4.08</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
@@ -51529,30 +51591,32 @@
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Kira Chan Sobolowski</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E111" s="15" t="n">
-        <v>1.4</v>
+        <v>2006</v>
+      </c>
+      <c r="E111" s="17" t="inlineStr">
+        <is>
+          <t>1,07,80</t>
+        </is>
       </c>
       <c r="F111" s="7" t="n">
-        <v>518</v>
+        <v>633</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>11.05</v>
+        <v>31.08</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
@@ -51587,30 +51651,30 @@
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Kira Chan Sobolowski</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>5.76</v>
+        <v>1.41</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>787</v>
+        <v>528</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>2.08</v>
+        <v>8.09</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
@@ -51645,30 +51709,30 @@
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Selma Persen Haltbakk</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>8.800000000000001</v>
+        <v>5.76</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>427</v>
+        <v>787</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>31.05</v>
+        <v>2.08</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -51849,7 +51913,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9146</v>
+        <v>9115</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -52447,18 +52511,18 @@
         <v>2010</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>8.970000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>5.06</v>
+        <v>8.09</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
@@ -52551,7 +52615,7 @@
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
@@ -52563,18 +52627,18 @@
         <v>2010</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>3.96</v>
+        <v>8.83</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>5.06</v>
+        <v>8.09</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
@@ -52609,30 +52673,30 @@
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Pernille Nøkleby</t>
+          <t>Selma Persen Haltbakk</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
         <v>2010</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>8.33</v>
+        <v>3.96</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>10.02</v>
+        <v>5.06</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
@@ -52697,7 +52761,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7343</v>
+        <v>7404</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -52737,7 +52801,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16489</v>
+        <v>16519</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -52769,7 +52833,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -55589,10 +55653,10 @@
         <v>1953</v>
       </c>
       <c r="E208" s="15" t="n">
-        <v>19.48</v>
+        <v>21.11</v>
       </c>
       <c r="F208" s="7" t="n">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="G208" s="7" t="inlineStr">
         <is>
@@ -55600,7 +55664,7 @@
         </is>
       </c>
       <c r="H208" s="16" t="n">
-        <v>10.05</v>
+        <v>6.09</v>
       </c>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
@@ -55723,7 +55787,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>7685</v>
+        <v>7726</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -56619,7 +56683,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15044</v>
+        <v>15085</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -58997,32 +59061,32 @@
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M294" s="7" t="inlineStr">
         <is>
-          <t>Kaja Holte Fjeldstad</t>
+          <t>Violet Victoria Diderique Nijenhuis-Stanchenko</t>
         </is>
       </c>
       <c r="N294" s="7" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="O294" s="17" t="inlineStr">
         <is>
-          <t>2,15,17</t>
+          <t>1,07,70</t>
         </is>
       </c>
       <c r="P294" s="7" t="n">
-        <v>728</v>
+        <v>475</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>5.07</v>
+        <v>31.08</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
@@ -59057,7 +59121,7 @@
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M295" s="7" t="inlineStr">
@@ -59070,19 +59134,19 @@
       </c>
       <c r="O295" s="17" t="inlineStr">
         <is>
-          <t>4,37,97</t>
+          <t>2,15,17</t>
         </is>
       </c>
       <c r="P295" s="7" t="n">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="Q295" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R295" s="16" t="n">
-        <v>9.06</v>
+        <v>5.07</v>
       </c>
       <c r="T295" s="5" t="n"/>
     </row>
@@ -59117,30 +59181,32 @@
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Maja Gundersen Palmgren</t>
+          <t>Kaja Holte Fjeldstad</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O296" s="15" t="n">
-        <v>1.44</v>
+        <v>2010</v>
+      </c>
+      <c r="O296" s="17" t="inlineStr">
+        <is>
+          <t>4,37,97</t>
+        </is>
       </c>
       <c r="P296" s="7" t="n">
-        <v>556</v>
+        <v>737</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>25.05</v>
+        <v>9.06</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -59175,30 +59241,30 @@
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Nora Eikeng</t>
+          <t>Maja Gundersen Palmgren</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O297" s="15" t="n">
-        <v>4</v>
+        <v>1.44</v>
       </c>
       <c r="P297" s="7" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>2.06</v>
+        <v>25.05</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
@@ -59233,30 +59299,30 @@
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Maja Gundersen Palmgren</t>
+          <t>Nora Eikeng</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O298" s="15" t="n">
-        <v>5.05</v>
+        <v>4</v>
       </c>
       <c r="P298" s="7" t="n">
-        <v>629</v>
+        <v>900</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>25.08</v>
+        <v>2.06</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -59291,30 +59357,30 @@
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M299" s="7" t="inlineStr">
         <is>
-          <t>Matilda Leonora Moen Kasin</t>
+          <t>Maja Gundersen Palmgren</t>
         </is>
       </c>
       <c r="N299" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O299" s="15" t="n">
-        <v>1.05</v>
+        <v>5.05</v>
       </c>
       <c r="P299" s="7" t="n">
-        <v>357</v>
+        <v>629</v>
       </c>
       <c r="Q299" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R299" s="16" t="n">
-        <v>27.01</v>
+        <v>25.08</v>
       </c>
       <c r="T299" s="5" t="n"/>
     </row>
@@ -59349,7 +59415,7 @@
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M300" s="7" t="inlineStr">
@@ -59361,10 +59427,10 @@
         <v>2010</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>2.03</v>
+        <v>1.05</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
@@ -59407,30 +59473,30 @@
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M301" s="7" t="inlineStr">
         <is>
-          <t>Nora Eikeng</t>
+          <t>Matilda Leonora Moen Kasin</t>
         </is>
       </c>
       <c r="N301" s="7" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="O301" s="15" t="n">
-        <v>9.49</v>
+        <v>2.03</v>
       </c>
       <c r="P301" s="7" t="n">
-        <v>553</v>
+        <v>274</v>
       </c>
       <c r="Q301" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="R301" s="16" t="n">
-        <v>2.03</v>
+        <v>27.01</v>
       </c>
       <c r="T301" s="5" t="n"/>
     </row>
@@ -59463,13 +59529,33 @@
         <v>23.06</v>
       </c>
       <c r="J302" s="5" t="n"/>
-      <c r="L302" s="14" t="n"/>
-      <c r="M302" s="7" t="n"/>
-      <c r="N302" s="7" t="n"/>
-      <c r="O302" s="7" t="n"/>
-      <c r="P302" s="7" t="n"/>
-      <c r="Q302" s="7" t="n"/>
-      <c r="R302" s="21" t="n"/>
+      <c r="L302" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M302" s="7" t="inlineStr">
+        <is>
+          <t>Nora Eikeng</t>
+        </is>
+      </c>
+      <c r="N302" s="7" t="n">
+        <v>2006</v>
+      </c>
+      <c r="O302" s="15" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="P302" s="7" t="n">
+        <v>553</v>
+      </c>
+      <c r="Q302" s="7" t="inlineStr">
+        <is>
+          <t>Grimstad</t>
+        </is>
+      </c>
+      <c r="R302" s="16" t="n">
+        <v>2.03</v>
+      </c>
       <c r="T302" s="5" t="n"/>
     </row>
     <row r="303" ht="13" customHeight="1">
@@ -59532,7 +59618,7 @@
         </is>
       </c>
       <c r="M305" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O305" s="19" t="inlineStr">
         <is>
@@ -59540,7 +59626,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>6575</v>
+        <v>7050</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -59671,30 +59757,32 @@
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M310" s="7" t="inlineStr">
         <is>
-          <t>Maja Gundersen Palmgren</t>
+          <t>Violet Victoria Diderique Nijenhuis-Stanchenko</t>
         </is>
       </c>
       <c r="N310" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O310" s="15" t="n">
-        <v>13.91</v>
+        <v>2012</v>
+      </c>
+      <c r="O310" s="17" t="inlineStr">
+        <is>
+          <t>5,14,12</t>
+        </is>
       </c>
       <c r="P310" s="7" t="n">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="Q310" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="R310" s="16" t="n">
-        <v>11.08</v>
+        <v>31.08</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
@@ -59729,30 +59817,30 @@
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M311" s="7" t="inlineStr">
         <is>
-          <t>Matilda Leonora Moen Kasin</t>
+          <t>Maja Gundersen Palmgren</t>
         </is>
       </c>
       <c r="N311" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O311" s="15" t="n">
-        <v>1.4</v>
+        <v>13.91</v>
       </c>
       <c r="P311" s="7" t="n">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="Q311" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R311" s="16" t="n">
-        <v>5.06</v>
+        <v>11.08</v>
       </c>
       <c r="T311" s="5" t="n"/>
     </row>
@@ -59787,32 +59875,30 @@
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M312" s="7" t="inlineStr">
         <is>
-          <t>Violet Victoria Diderique Nijenhuis-Stanchenko</t>
+          <t>Matilda Leonora Moen Kasin</t>
         </is>
       </c>
       <c r="N312" s="7" t="n">
-        <v>2012</v>
-      </c>
-      <c r="O312" s="17" t="inlineStr">
-        <is>
-          <t>5,19,20</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="O312" s="15" t="n">
+        <v>1.4</v>
       </c>
       <c r="P312" s="7" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q312" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R312" s="16" t="n">
-        <v>21.06</v>
+        <v>5.06</v>
       </c>
       <c r="T312" s="5" t="n"/>
     </row>
@@ -60111,30 +60197,30 @@
     <row r="318" ht="13" customHeight="1">
       <c r="B318" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Sonja Elise Engebretsen</t>
         </is>
       </c>
       <c r="D318" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E318" s="15" t="n">
-        <v>2.29</v>
+        <v>8.82</v>
       </c>
       <c r="F318" s="7" t="n">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="G318" s="7" t="inlineStr">
         <is>
-          <t>Bergen/Hø</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H318" s="16" t="n">
-        <v>17.03</v>
+        <v>8.09</v>
       </c>
       <c r="J318" s="5" t="n"/>
       <c r="L318" s="14" t="inlineStr">
@@ -60169,30 +60255,30 @@
     <row r="319" ht="13" customHeight="1">
       <c r="B319" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>Celine Sandanger</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="D319" s="7" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E319" s="15" t="n">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="F319" s="7" t="n">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="G319" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bergen/Hø</t>
         </is>
       </c>
       <c r="H319" s="16" t="n">
-        <v>25.05</v>
+        <v>17.03</v>
       </c>
       <c r="J319" s="5" t="n"/>
       <c r="L319" s="14" t="inlineStr">
@@ -60227,30 +60313,30 @@
     <row r="320" ht="13" customHeight="1">
       <c r="B320" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C320" s="7" t="inlineStr">
         <is>
-          <t>Signe Njerve</t>
+          <t>Celine Sandanger</t>
         </is>
       </c>
       <c r="D320" s="7" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E320" s="15" t="n">
-        <v>9.460000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="F320" s="7" t="n">
-        <v>375</v>
+        <v>483</v>
       </c>
       <c r="G320" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H320" s="16" t="n">
-        <v>3.09</v>
+        <v>25.05</v>
       </c>
       <c r="J320" s="5" t="n"/>
       <c r="L320" s="14" t="inlineStr">
@@ -60287,30 +60373,30 @@
     <row r="321" ht="13" customHeight="1">
       <c r="B321" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C321" s="7" t="inlineStr">
         <is>
-          <t>Amalie Husebø</t>
+          <t>Sonja Elise Engebretsen</t>
         </is>
       </c>
       <c r="D321" s="7" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E321" s="15" t="n">
-        <v>9.5</v>
+        <v>29.56</v>
       </c>
       <c r="F321" s="7" t="n">
-        <v>367</v>
+        <v>478</v>
       </c>
       <c r="G321" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H321" s="16" t="n">
-        <v>15.06</v>
+        <v>7.09</v>
       </c>
       <c r="J321" s="5" t="n"/>
       <c r="L321" s="14" t="inlineStr">
@@ -60375,7 +60461,7 @@
         </is>
       </c>
       <c r="F323" s="20" t="n">
-        <v>6648</v>
+        <v>6898</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="19" t="inlineStr">
@@ -60392,7 +60478,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>5193</v>
+        <v>5217</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -60415,7 +60501,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>13761</v>
+        <v>14011</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -60424,7 +60510,7 @@
         </is>
       </c>
       <c r="M325" s="20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O325" s="19" t="inlineStr">
         <is>
@@ -60432,7 +60518,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>11768</v>
+        <v>12267</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -60447,7 +60533,7 @@
         </is>
       </c>
       <c r="C327" s="20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="19" t="inlineStr">

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>25452</v>
+        <v>25454</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>21455</v>
+        <v>21596</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18385</v>
+        <v>18387</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -3807,19 +3807,19 @@
       </c>
       <c r="O66" s="17" t="inlineStr">
         <is>
-          <t>3,45,99</t>
+          <t>3,45,82</t>
         </is>
       </c>
       <c r="P66" s="7" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Watford/GBR</t>
+          <t>Ostrava/CZE</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>8.06</v>
+        <v>10.09</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -4403,7 +4403,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12841</v>
+        <v>12843</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>25452</v>
+        <v>25454</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -12639,7 +12639,7 @@
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Hans Øyvind Sundve</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
@@ -12647,19 +12647,19 @@
       </c>
       <c r="E273" s="17" t="inlineStr">
         <is>
-          <t>2,21,84</t>
+          <t>2,14,57</t>
         </is>
       </c>
       <c r="F273" s="7" t="n">
-        <v>380</v>
+        <v>464</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>28.01</v>
+        <v>15.09</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
@@ -13298,7 +13298,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>10886</v>
+        <v>10970</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -13826,30 +13826,30 @@
     <row r="297" ht="13" customHeight="1">
       <c r="B297" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D297" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E297" s="15" t="n">
-        <v>11.67</v>
+        <v>6.39</v>
       </c>
       <c r="F297" s="7" t="n">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G297" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H297" s="16" t="n">
-        <v>1.06</v>
+        <v>14.09</v>
       </c>
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
@@ -13884,30 +13884,30 @@
     <row r="298" ht="13" customHeight="1">
       <c r="B298" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D298" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E298" s="15" t="n">
-        <v>7.51</v>
+        <v>11.67</v>
       </c>
       <c r="F298" s="7" t="n">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="G298" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H298" s="16" t="n">
-        <v>20.01</v>
+        <v>1.06</v>
       </c>
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
@@ -13942,7 +13942,7 @@
     <row r="299" ht="13" customHeight="1">
       <c r="B299" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
@@ -13954,18 +13954,18 @@
         <v>2008</v>
       </c>
       <c r="E299" s="15" t="n">
-        <v>6.22</v>
+        <v>23.86</v>
       </c>
       <c r="F299" s="7" t="n">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="G299" s="7" t="inlineStr">
         <is>
-          <t>Reykjavik/ISL</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H299" s="16" t="n">
-        <v>15.06</v>
+        <v>15.09</v>
       </c>
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
@@ -14000,30 +14000,30 @@
     <row r="300" ht="13" customHeight="1">
       <c r="B300" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin  Giörtz</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D300" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E300" s="15" t="n">
-        <v>11.8</v>
+        <v>7.51</v>
       </c>
       <c r="F300" s="7" t="n">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="G300" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H300" s="16" t="n">
-        <v>2.08</v>
+        <v>20.01</v>
       </c>
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
@@ -14058,30 +14058,30 @@
     <row r="301" ht="13" customHeight="1">
       <c r="B301" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Marcus Valentin  Giörtz</t>
         </is>
       </c>
       <c r="D301" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E301" s="15" t="n">
-        <v>1.8</v>
+        <v>11.8</v>
       </c>
       <c r="F301" s="7" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G301" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H301" s="16" t="n">
-        <v>25.05</v>
+        <v>2.08</v>
       </c>
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="inlineStr">
@@ -14116,30 +14116,30 @@
     <row r="302" ht="13" customHeight="1">
       <c r="B302" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin  Giörtz</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D302" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E302" s="15" t="n">
-        <v>24.05</v>
+        <v>1.8</v>
       </c>
       <c r="F302" s="7" t="n">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="G302" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H302" s="16" t="n">
-        <v>21.06</v>
+        <v>25.05</v>
       </c>
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="inlineStr">
@@ -14280,7 +14280,7 @@
         </is>
       </c>
       <c r="F306" s="20" t="n">
-        <v>10569</v>
+        <v>10626</v>
       </c>
       <c r="J306" s="5" t="n"/>
       <c r="L306" s="19" t="inlineStr">
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>21455</v>
+        <v>21596</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -14754,18 +14754,18 @@
         <v>2002</v>
       </c>
       <c r="E324" s="15" t="n">
-        <v>45.22</v>
+        <v>45.19</v>
       </c>
       <c r="F324" s="7" t="n">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G324" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H324" s="16" t="n">
-        <v>18.07</v>
+        <v>13.09</v>
       </c>
       <c r="J324" s="5" t="n"/>
       <c r="L324" s="14" t="inlineStr">
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>7965</v>
+        <v>7967</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -16404,7 +16404,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18385</v>
+        <v>18387</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16580,25 +16580,25 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>18371</v>
+        <v>18423</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -16608,25 +16608,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>18335</v>
+        <v>18371</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -16641,11 +16641,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17702</v>
+        <v>17720</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -16669,11 +16669,11 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>17296</v>
+        <v>17413</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
       <c r="P2" s="8" t="n">
@@ -17041,7 +17041,7 @@
       </c>
       <c r="M3" s="7" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -17198,17 +17198,17 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Magnus Birk Johnsen</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>7.26</v>
+        <v>7.17</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>752</v>
+        <v>789</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
@@ -17256,25 +17256,25 @@
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Magnus Birk Johnsen</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>767</v>
+        <v>816</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>25.08</v>
+        <v>2.08</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -17314,17 +17314,17 @@
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Magnus Birk Johnsen</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>22.82</v>
+        <v>22.66</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>25.08</v>
+        <v>21.06</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -17372,25 +17372,25 @@
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Ole Sivert Røyrhus</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>53.21</v>
+        <v>50.24</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>636</v>
+        <v>772</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>11.02</v>
+        <v>2.08</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -17432,27 +17432,27 @@
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Ole Sivert Røyrhus</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>1,46,70</t>
+          <t>1,54,1</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>1011</v>
+        <v>814</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>30.05</v>
+        <v>14.08</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -17494,27 +17494,27 @@
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Ole Sivert Røyrhus</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>3,38,73</t>
+          <t>3,58,48</t>
         </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>1003</v>
+        <v>776</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>22.05</v>
+        <v>24.08</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Oliver Sund</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
@@ -17564,11 +17564,11 @@
       </c>
       <c r="O15" s="17" t="inlineStr">
         <is>
-          <t>8,50,01</t>
+          <t>9,09,28</t>
         </is>
       </c>
       <c r="P15" s="7" t="n">
-        <v>728</v>
+        <v>653</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
@@ -17613,32 +17613,30 @@
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O16" s="17" t="inlineStr">
-        <is>
-          <t>15,01,78</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O16" s="15" t="n">
+        <v>8.81</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>29.06</v>
+        <v>28.01</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
@@ -17673,24 +17671,22 @@
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O17" s="17" t="inlineStr">
-        <is>
-          <t>32,21,52</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O17" s="15" t="n">
+        <v>54.97</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>717</v>
+        <v>777</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
@@ -17733,30 +17729,30 @@
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>6.64</v>
+        <v>4.05</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>31.08</v>
+        <v>28.01</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -17791,30 +17787,30 @@
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Aksel Wormdahl</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>13.34</v>
+        <v>6.64</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>706</v>
+        <v>749</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>3.08</v>
+        <v>4.05</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
@@ -17849,30 +17845,30 @@
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>Åsmund Frøyen</t>
+          <t>Aksel Wormdahl</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>36.13</v>
+        <v>13.51</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>611</v>
+        <v>724</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>23.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -17907,30 +17903,30 @@
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Sverre Ranes Olstad</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>75.08</v>
+        <v>47.58</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>974</v>
+        <v>720</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>16.06</v>
+        <v>4.06</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -17984,7 +17980,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>10190</v>
+        <v>9855</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -18120,25 +18116,25 @@
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Bjørn Einar Kjønstad-Prestvik</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>22.9</v>
+        <v>22.89</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>10.02</v>
+        <v>9.08</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -18173,30 +18169,30 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="O29" s="15" t="n">
-        <v>7.29</v>
+        <v>22.97</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>21.06</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -18236,17 +18232,17 @@
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>11.51</v>
+        <v>11.39</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
@@ -18289,30 +18285,30 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O31" s="15" t="n">
-        <v>11.56</v>
+        <v>50.91</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>706</v>
+        <v>739</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>30.08</v>
+        <v>22.06</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -18347,22 +18343,22 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Hans Horn Tønnessen</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>11.58</v>
+        <v>7.3</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>702</v>
+        <v>736</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
@@ -18370,7 +18366,7 @@
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>16.06</v>
+        <v>9.02</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -18407,30 +18403,30 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Hans Horn Tønnessen</t>
+          <t>Arne Røstad</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>23.59</v>
+        <v>11.46</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>688</v>
+        <v>729</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>15.06</v>
+        <v>23.06</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -18465,30 +18461,30 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>6.36</v>
+        <v>11.47</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>687</v>
+        <v>727</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>28.01</v>
+        <v>23.06</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -18523,32 +18519,30 @@
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Jonas Ramstad</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O35" s="17" t="inlineStr">
-        <is>
-          <t>4,09,57</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O35" s="15" t="n">
+        <v>11.48</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>2.08</v>
+        <v>21.08</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -18583,30 +18577,30 @@
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Bjørn Einar Kjønstad-Prestvik</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>12.96</v>
+        <v>6.36</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>30.08</v>
+        <v>2.08</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -18641,30 +18635,30 @@
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Sverre Ranes Olstad</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>24.18</v>
+        <v>3.01</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>630</v>
+        <v>677</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>15.06</v>
+        <v>18.02</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -18704,17 +18698,17 @@
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Theodor Gutvik</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>6.07</v>
+        <v>6.3</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>622</v>
+        <v>674</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
@@ -18722,7 +18716,7 @@
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>14.06</v>
+        <v>27.01</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -18757,22 +18751,22 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Åsmund Frøyen</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>11.89</v>
+        <v>1.76</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
@@ -18780,7 +18774,7 @@
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>16.06</v>
+        <v>27.01</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -18834,7 +18828,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>8181</v>
+        <v>8568</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -18874,7 +18868,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>18371</v>
+        <v>18423</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -18898,7 +18892,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -18940,7 +18934,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -18970,7 +18964,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -19110,17 +19104,17 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Magnus Birk Johnsen</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>7.17</v>
+        <v>7.26</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>789</v>
+        <v>752</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
@@ -19168,25 +19162,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Magnus Birk Johnsen</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>816</v>
+        <v>767</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>2.08</v>
+        <v>25.08</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -19226,17 +19220,17 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Magnus Birk Johnsen</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>22.66</v>
+        <v>22.82</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
@@ -19244,7 +19238,7 @@
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>21.06</v>
+        <v>25.08</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -19284,25 +19278,25 @@
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Ole Sivert Røyrhus</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E59" s="15" t="n">
-        <v>50.24</v>
+        <v>53.21</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>772</v>
+        <v>636</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>2.08</v>
+        <v>11.02</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
@@ -19342,27 +19336,27 @@
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Ole Sivert Røyrhus</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>1,54,1</t>
+          <t>1,46,70</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>814</v>
+        <v>1011</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>14.08</v>
+        <v>30.05</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -19404,27 +19398,27 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Oliver Sund</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="E61" s="17" t="inlineStr">
         <is>
-          <t>4,08,05</t>
+          <t>3,38,73</t>
         </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>688</v>
+        <v>1003</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>17.05</v>
+        <v>22.05</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -19466,7 +19460,7 @@
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Oliver Sund</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
@@ -19474,11 +19468,11 @@
       </c>
       <c r="E62" s="17" t="inlineStr">
         <is>
-          <t>9,09,28</t>
+          <t>8,50,01</t>
         </is>
       </c>
       <c r="F62" s="7" t="n">
-        <v>653</v>
+        <v>728</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
@@ -19521,30 +19515,32 @@
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E63" s="15" t="n">
-        <v>8.81</v>
+        <v>2005</v>
+      </c>
+      <c r="E63" s="17" t="inlineStr">
+        <is>
+          <t>15,01,78</t>
+        </is>
       </c>
       <c r="F63" s="7" t="n">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>28.01</v>
+        <v>29.06</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -19579,22 +19575,24 @@
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E64" s="15" t="n">
-        <v>54.97</v>
+        <v>2005</v>
+      </c>
+      <c r="E64" s="17" t="inlineStr">
+        <is>
+          <t>32,21,52</t>
+        </is>
       </c>
       <c r="F64" s="7" t="n">
-        <v>777</v>
+        <v>717</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
@@ -19637,30 +19635,30 @@
     <row r="65" ht="13" customHeight="1">
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>4.05</v>
+        <v>6.64</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>28.01</v>
+        <v>31.08</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -19695,30 +19693,30 @@
     <row r="66" ht="13" customHeight="1">
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Aksel Wormdahl</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>6.64</v>
+        <v>13.34</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>749</v>
+        <v>706</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>4.05</v>
+        <v>3.08</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -19753,30 +19751,30 @@
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Aksel Wormdahl</t>
+          <t>Åsmund Frøyen</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>13.51</v>
+        <v>36.13</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>724</v>
+        <v>611</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>23.06</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -19811,30 +19809,30 @@
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Sverre Ranes Olstad</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>47.58</v>
+        <v>75.08</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>720</v>
+        <v>974</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>4.06</v>
+        <v>16.06</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -19899,7 +19897,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>9767</v>
+        <v>10190</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -20024,25 +20022,25 @@
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Einar Kjønstad-Prestvik</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>22.89</v>
+        <v>22.9</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>9.08</v>
+        <v>10.02</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -20077,30 +20075,30 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="E76" s="15" t="n">
-        <v>22.97</v>
+        <v>7.29</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>21.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
@@ -20140,17 +20138,17 @@
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Emil Vestre</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E77" s="15" t="n">
-        <v>11.39</v>
+        <v>11.51</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
@@ -20193,30 +20191,30 @@
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E78" s="15" t="n">
-        <v>50.91</v>
+        <v>11.56</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>739</v>
+        <v>706</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>22.06</v>
+        <v>30.08</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
@@ -20251,22 +20249,22 @@
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Emil Vestre</t>
+          <t>Hans Horn Tønnessen</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E79" s="15" t="n">
-        <v>7.3</v>
+        <v>11.58</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
@@ -20274,7 +20272,7 @@
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>9.02</v>
+        <v>16.06</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -20309,30 +20307,30 @@
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Arne Røstad</t>
+          <t>Hans Horn Tønnessen</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E80" s="15" t="n">
-        <v>11.46</v>
+        <v>23.59</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>729</v>
+        <v>688</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>23.06</v>
+        <v>15.06</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -20367,30 +20365,30 @@
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E81" s="15" t="n">
-        <v>11.47</v>
+        <v>6.36</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>727</v>
+        <v>687</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>23.06</v>
+        <v>28.01</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
@@ -20425,30 +20423,32 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Jonas Ramstad</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E82" s="15" t="n">
-        <v>11.48</v>
+        <v>2005</v>
+      </c>
+      <c r="E82" s="17" t="inlineStr">
+        <is>
+          <t>4,09,57</t>
+        </is>
       </c>
       <c r="F82" s="7" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>21.08</v>
+        <v>2.08</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -20483,30 +20483,30 @@
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Einar Kjønstad-Prestvik</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>6.36</v>
+        <v>12.96</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>2.08</v>
+        <v>30.08</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -20541,30 +20541,30 @@
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Sverre Ranes Olstad</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>3.01</v>
+        <v>24.18</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>677</v>
+        <v>630</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>18.02</v>
+        <v>15.06</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -20604,17 +20604,17 @@
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Theodor Gutvik</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>6.3</v>
+        <v>6.07</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>674</v>
+        <v>622</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>27.01</v>
+        <v>14.06</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -20657,22 +20657,22 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Åsmund Frøyen</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>1.76</v>
+        <v>11.89</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
@@ -20680,35 +20680,35 @@
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>27.01</v>
+        <v>16.06</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Morten Husebø Hestnes</t>
+          <t>Oddvar Viulsrød</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2007</v>
+        <v>1964</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>1.65</v>
+        <v>11.72</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>6.01</v>
+        <v>24.08</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -20745,7 +20745,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>8568</v>
+        <v>8181</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -20762,7 +20762,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>8370</v>
+        <v>8388</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -20785,7 +20785,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>18335</v>
+        <v>18371</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17702</v>
+        <v>17720</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -20817,7 +20817,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -20826,7 +20826,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -21645,18 +21645,18 @@
         <v>2006</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>6.08</v>
+        <v>6.1</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>15.02</v>
+        <v>15.09</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -21837,7 +21837,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9726</v>
+        <v>9731</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -22199,30 +22199,30 @@
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kringeland</t>
+          <t>Alf Kristian Hollund</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>11.9</v>
+        <v>7.49</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>17.08</v>
+        <v>5.09</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
@@ -22271,18 +22271,18 @@
         <v>2008</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>30.08</v>
+        <v>5.09</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -22317,22 +22317,22 @@
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Alf Kristian Hollund</t>
+          <t>Andreas Kringeland</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E128" s="15" t="n">
-        <v>7.6</v>
+        <v>11.9</v>
       </c>
       <c r="F128" s="7" t="n">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>1.06</v>
+        <v>17.08</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
@@ -22377,32 +22377,30 @@
     <row r="129" ht="13" customHeight="1">
       <c r="B129" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Vegard Havn</t>
+          <t>Alf Kristian Hollund</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E129" s="17" t="inlineStr">
-        <is>
-          <t>4,18,41</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E129" s="15" t="n">
+        <v>24.34</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>11.08</v>
+        <v>15.09</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
@@ -22497,30 +22495,30 @@
     <row r="131" ht="13" customHeight="1">
       <c r="B131" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kringeland</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>1.61</v>
+        <v>5.55</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>15.09</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
@@ -22555,30 +22553,30 @@
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Per Gregersen</t>
+          <t>Andreas Kringeland</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>1970</v>
+        <v>2008</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>28.8</v>
+        <v>1.61</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>26.04</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
@@ -22613,22 +22611,22 @@
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kringeland</t>
+          <t>Per Gregersen</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
-        <v>2008</v>
+        <v>1970</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>5.29</v>
+        <v>28.8</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
@@ -22636,7 +22634,7 @@
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>11.08</v>
+        <v>26.04</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
@@ -22701,7 +22699,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7570</v>
+        <v>7682</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -22741,7 +22739,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>17296</v>
+        <v>17413</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -22773,7 +22771,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -30638,7 +30636,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>22488</v>
+        <v>22575</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -30834,7 +30832,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18384</v>
+        <v>18488</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -36698,30 +36696,32 @@
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M135" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Kongssund Amlie</t>
+          <t>Maiken Homlung Prøitz</t>
         </is>
       </c>
       <c r="N135" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O135" s="15" t="n">
-        <v>25.31</v>
+        <v>2004</v>
+      </c>
+      <c r="O135" s="17" t="inlineStr">
+        <is>
+          <t>9,44,00</t>
+        </is>
       </c>
       <c r="P135" s="7" t="n">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>10.02</v>
+        <v>12.09</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -36758,32 +36758,30 @@
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M136" s="7" t="inlineStr">
         <is>
-          <t>Sara Yasmin Abid</t>
+          <t>Sigrid Kongssund Amlie</t>
         </is>
       </c>
       <c r="N136" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O136" s="17" t="inlineStr">
-        <is>
-          <t>9,46,98</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="O136" s="15" t="n">
+        <v>25.31</v>
       </c>
       <c r="P136" s="7" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="Q136" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R136" s="16" t="n">
-        <v>4.08</v>
+        <v>10.02</v>
       </c>
       <c r="T136" s="5" t="n"/>
     </row>
@@ -36818,30 +36816,32 @@
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M137" s="7" t="inlineStr">
         <is>
-          <t>Oda Lier</t>
+          <t>Sara Yasmin Abid</t>
         </is>
       </c>
       <c r="N137" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O137" s="15" t="n">
-        <v>12.56</v>
+        <v>2006</v>
+      </c>
+      <c r="O137" s="17" t="inlineStr">
+        <is>
+          <t>9,46,98</t>
+        </is>
       </c>
       <c r="P137" s="7" t="n">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>6.07</v>
+        <v>4.08</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -36878,30 +36878,30 @@
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Nora Pauline Helm</t>
+          <t>Oda Lier</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="O138" s="15" t="n">
-        <v>5.58</v>
+        <v>12.56</v>
       </c>
       <c r="P138" s="7" t="n">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R138" s="16" t="n">
-        <v>5.05</v>
+        <v>6.07</v>
       </c>
       <c r="T138" s="5" t="n"/>
     </row>
@@ -36938,30 +36938,30 @@
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Solveig Hernandez Vråle</t>
+          <t>Nora Pauline Helm</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
         <v>1999</v>
       </c>
       <c r="O139" s="15" t="n">
-        <v>58.48</v>
+        <v>5.58</v>
       </c>
       <c r="P139" s="7" t="n">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>11.02</v>
+        <v>5.05</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -36998,22 +36998,22 @@
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Kajsa Rooth</t>
+          <t>Solveig Hernandez Vråle</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O140" s="15" t="n">
-        <v>8.02</v>
+        <v>58.48</v>
       </c>
       <c r="P140" s="7" t="n">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
@@ -37021,7 +37021,7 @@
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>9.02</v>
+        <v>11.02</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
@@ -37058,30 +37058,30 @@
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Isabella Alida Indrebø</t>
+          <t>Kajsa Rooth</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O141" s="15" t="n">
-        <v>12.68</v>
+        <v>8.02</v>
       </c>
       <c r="P141" s="7" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>18.06</v>
+        <v>9.02</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
@@ -37116,24 +37116,22 @@
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M142" s="7" t="inlineStr">
         <is>
-          <t>Aurora Kanutte Brandt Sande</t>
+          <t>Isabella Alida Indrebø</t>
         </is>
       </c>
       <c r="N142" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O142" s="17" t="inlineStr">
-        <is>
-          <t>2,16,11</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O142" s="15" t="n">
+        <v>12.68</v>
       </c>
       <c r="P142" s="7" t="n">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
@@ -37178,30 +37176,32 @@
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Kongssund Amlie</t>
+          <t>Aurora Kanutte Brandt Sande</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O143" s="15" t="n">
-        <v>12.8</v>
+        <v>2008</v>
+      </c>
+      <c r="O143" s="17" t="inlineStr">
+        <is>
+          <t>2,16,11</t>
+        </is>
       </c>
       <c r="P143" s="7" t="n">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>2.08</v>
+        <v>18.06</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
@@ -37238,30 +37238,30 @@
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Isabella Alida Indrebø</t>
+          <t>Sigrid Kongssund Amlie</t>
         </is>
       </c>
       <c r="N144" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="O144" s="15" t="n">
-        <v>26.3</v>
+        <v>12.8</v>
       </c>
       <c r="P144" s="7" t="n">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>18.06</v>
+        <v>2.08</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
@@ -37549,7 +37549,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>10627</v>
+        <v>10714</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -37589,7 +37589,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>22488</v>
+        <v>22575</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -44967,25 +44967,25 @@
       </c>
       <c r="C329" s="7" t="inlineStr">
         <is>
-          <t>Sophia Borgen</t>
+          <t>Lene Berger</t>
         </is>
       </c>
       <c r="D329" s="7" t="n">
-        <v>2004</v>
+        <v>1981</v>
       </c>
       <c r="E329" s="15" t="n">
-        <v>5.09</v>
+        <v>5.15</v>
       </c>
       <c r="F329" s="7" t="n">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="G329" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Björlanda/SWE</t>
         </is>
       </c>
       <c r="H329" s="16" t="n">
-        <v>4.02</v>
+        <v>14.08</v>
       </c>
       <c r="J329" s="5" t="n"/>
       <c r="L329" s="14" t="inlineStr">
@@ -45317,25 +45317,25 @@
       </c>
       <c r="C335" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Lene Berger</t>
         </is>
       </c>
       <c r="D335" s="7" t="n">
-        <v>1992</v>
+        <v>1981</v>
       </c>
       <c r="E335" s="15" t="n">
-        <v>29.11</v>
+        <v>30.78</v>
       </c>
       <c r="F335" s="7" t="n">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="G335" s="7" t="inlineStr">
         <is>
-          <t>Bollnäs/SWE</t>
+          <t>Björlanda/SWE</t>
         </is>
       </c>
       <c r="H335" s="16" t="n">
-        <v>10.08</v>
+        <v>14.08</v>
       </c>
       <c r="J335" s="5" t="n"/>
       <c r="L335" s="14" t="inlineStr">
@@ -45400,7 +45400,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>9303</v>
+        <v>9342</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -45520,32 +45520,30 @@
     <row r="342" ht="13" customHeight="1">
       <c r="B342" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
         <is>
-          <t>Mia Mathilda Andersen</t>
+          <t>Lene Berger</t>
         </is>
       </c>
       <c r="D342" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E342" s="17" t="inlineStr">
-        <is>
-          <t>2,23,77</t>
-        </is>
+        <v>1981</v>
+      </c>
+      <c r="E342" s="15" t="n">
+        <v>1.54</v>
       </c>
       <c r="F342" s="7" t="n">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="G342" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Björlanda/SWE</t>
         </is>
       </c>
       <c r="H342" s="16" t="n">
-        <v>31.08</v>
+        <v>13.08</v>
       </c>
       <c r="J342" s="5" t="n"/>
       <c r="L342" s="14" t="inlineStr">
@@ -45580,32 +45578,30 @@
     <row r="343" ht="13" customHeight="1">
       <c r="B343" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
         <is>
-          <t>Vilde Kjetilsdatter Grønhaug</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="D343" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E343" s="17" t="inlineStr">
-        <is>
-          <t>4,58,64</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E343" s="15" t="n">
+        <v>5.09</v>
       </c>
       <c r="F343" s="7" t="n">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="G343" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H343" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>4.02</v>
       </c>
       <c r="J343" s="5" t="n"/>
       <c r="L343" s="14" t="inlineStr">
@@ -45640,30 +45636,32 @@
     <row r="344" ht="13" customHeight="1">
       <c r="B344" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
         <is>
-          <t>Alma Iben Graver Kolseth</t>
+          <t>Mia Mathilda Andersen</t>
         </is>
       </c>
       <c r="D344" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E344" s="15" t="n">
-        <v>8.42</v>
+        <v>2009</v>
+      </c>
+      <c r="E344" s="17" t="inlineStr">
+        <is>
+          <t>2,23,77</t>
+        </is>
       </c>
       <c r="F344" s="7" t="n">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="G344" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H344" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>31.08</v>
       </c>
       <c r="J344" s="5" t="n"/>
       <c r="L344" s="14" t="inlineStr">
@@ -45698,30 +45696,32 @@
     <row r="345" ht="13" customHeight="1">
       <c r="B345" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>Lene Berger</t>
+          <t>Vilde Kjetilsdatter Grønhaug</t>
         </is>
       </c>
       <c r="D345" s="7" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E345" s="15" t="n">
-        <v>1.5</v>
+        <v>2008</v>
+      </c>
+      <c r="E345" s="17" t="inlineStr">
+        <is>
+          <t>4,58,64</t>
+        </is>
       </c>
       <c r="F345" s="7" t="n">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="G345" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H345" s="16" t="n">
-        <v>25.05</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J345" s="5" t="n"/>
       <c r="L345" s="14" t="inlineStr">
@@ -45756,30 +45756,30 @@
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Lene Berger</t>
+          <t>Alma Iben Graver Kolseth</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>1981</v>
+        <v>2005</v>
       </c>
       <c r="E346" s="15" t="n">
-        <v>13.37</v>
+        <v>8.42</v>
       </c>
       <c r="F346" s="7" t="n">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>2.05</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
@@ -45814,7 +45814,7 @@
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
@@ -45826,18 +45826,18 @@
         <v>1981</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>4.95</v>
+        <v>13.37</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>7.05</v>
+        <v>2.05</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -46428,7 +46428,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>9081</v>
+        <v>9146</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -46468,7 +46468,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18384</v>
+        <v>18488</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -46793,7 +46793,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>16188</v>
+        <v>16205</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15542</v>
+        <v>15660</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -46877,7 +46877,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14903</v>
+        <v>14904</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -46933,7 +46933,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14060</v>
+        <v>14074</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -53380,27 +53380,27 @@
       </c>
       <c r="M155" s="7" t="inlineStr">
         <is>
-          <t>Filippa Ramdahl-Gamst</t>
+          <t>Vienna Skinnes</t>
         </is>
       </c>
       <c r="N155" s="7" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="O155" s="17" t="inlineStr">
         <is>
-          <t>5,16,52</t>
+          <t>4,55,24</t>
         </is>
       </c>
       <c r="P155" s="7" t="n">
-        <v>530</v>
+        <v>637</v>
       </c>
       <c r="Q155" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R155" s="16" t="n">
-        <v>10.05</v>
+        <v>8.09</v>
       </c>
       <c r="T155" s="5" t="n"/>
     </row>
@@ -53477,18 +53477,18 @@
         <v>2010</v>
       </c>
       <c r="E157" s="15" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="F157" s="7" t="n">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="G157" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H157" s="16" t="n">
-        <v>15.06</v>
+        <v>7.09</v>
       </c>
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>8064</v>
+        <v>8081</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -53864,7 +53864,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8644</v>
+        <v>8751</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -54065,18 +54065,18 @@
         <v>2010</v>
       </c>
       <c r="O170" s="15" t="n">
-        <v>5.09</v>
+        <v>5.12</v>
       </c>
       <c r="P170" s="7" t="n">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R170" s="16" t="n">
-        <v>17.08</v>
+        <v>15.09</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -54123,18 +54123,18 @@
         <v>2010</v>
       </c>
       <c r="O171" s="15" t="n">
-        <v>10.55</v>
+        <v>10.6</v>
       </c>
       <c r="P171" s="7" t="n">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>26.05</v>
+        <v>8.09</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
@@ -54714,7 +54714,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>6898</v>
+        <v>6909</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -54737,7 +54737,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>16188</v>
+        <v>16205</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -54754,7 +54754,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15542</v>
+        <v>15660</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -56354,27 +56354,27 @@
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Anna Sølvberg Tjelle</t>
+          <t>Eira Jacobsen-Sjue</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="O223" s="17" t="inlineStr">
         <is>
-          <t>5,19,43</t>
+          <t>5,19,29</t>
         </is>
       </c>
       <c r="P223" s="7" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>18.08</v>
+        <v>8.09</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
@@ -56660,7 +56660,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6440</v>
+        <v>6441</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -56700,7 +56700,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14903</v>
+        <v>14904</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -58095,32 +58095,32 @@
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Elise Kullerud</t>
+          <t>Marie Oraug</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="O267" s="17" t="inlineStr">
         <is>
-          <t>2,24,52</t>
+          <t>4,59,25</t>
         </is>
       </c>
       <c r="P267" s="7" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>9.08</v>
+        <v>8.09</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -58155,32 +58155,32 @@
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Marie Oraug</t>
+          <t>Ingrid Elise Kullerud</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="O268" s="17" t="inlineStr">
         <is>
-          <t>5,01,87</t>
+          <t>2,24,52</t>
         </is>
       </c>
       <c r="P268" s="7" t="n">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>18.08</v>
+        <v>9.08</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
@@ -58586,7 +58586,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>6540</v>
+        <v>6554</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>14060</v>
+        <v>14074</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -16601,7 +16601,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18692</v>
+        <v>18823</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -16844,25 +16844,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Osterøy IL</t>
+          <t>IL i BUL 3. lag</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/16)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>16424</v>
+        <v>16455</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(12/1d)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -16872,25 +16872,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL 3. lag</t>
+          <t>Osterøy IL</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(25/16)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>16380</v>
+        <v>16424</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(12/1d)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>12230</v>
+        <v>12237</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -17915,30 +17915,30 @@
     <row r="21" ht="13" customHeight="1">
       <c r="B21" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Sigurd Smitt-Ingebretsen</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E21" s="15" t="n">
-        <v>10.66</v>
+        <v>37.12</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>499</v>
+        <v>630</v>
       </c>
       <c r="G21" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="H21" s="16" t="n">
-        <v>10.03</v>
+        <v>22.09</v>
       </c>
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
@@ -18003,7 +18003,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>9550</v>
+        <v>9681</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -18891,7 +18891,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18692</v>
+        <v>18823</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -24798,7 +24798,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -24825,7 +24825,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Osterøy IL</t>
+          <t>IL i BUL 3. lag</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -24982,25 +24982,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Nicolas Alexander Baranyi Eriksen</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.58</v>
+        <v>7.15</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>632</v>
+        <v>797</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>21.01</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -25040,25 +25040,25 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Nicolas Alexander Baranyi Eriksen</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>11.82</v>
+        <v>10.99</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>648</v>
+        <v>844</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>19.06</v>
+        <v>30.08</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -25098,25 +25098,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Vegard Trefall</t>
+          <t>Nicolas Alexander Baranyi Eriksen</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>23.27</v>
+        <v>22.44</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>31.05</v>
+        <v>14.06</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -25156,25 +25156,25 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Vegard Trefall</t>
+          <t>Jonas Grüner-Mørck</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>49.42</v>
+        <v>52.04</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>814</v>
+        <v>686</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>3.07</v>
+        <v>30.08</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -25216,27 +25216,27 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Vegard Trefall</t>
+          <t>Johannes Dalland</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>1,52,86</t>
+          <t>1,56,24</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>844</v>
+        <v>765</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>4.08</v>
+        <v>15.06</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -25278,27 +25278,27 @@
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Trygve Feidje Mjelde</t>
+          <t>Halvard Grape Fladby</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>3,59,77</t>
+          <t>3,53,98</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>763</v>
+        <v>821</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>27.06</v>
+        <v>10.05</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -25340,27 +25340,27 @@
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Trygve Feidje Mjelde</t>
+          <t>Halvard Grape Fladby</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="O203" s="17" t="inlineStr">
         <is>
-          <t>8,10,67</t>
+          <t>8,44,76</t>
         </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>903</v>
+        <v>749</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Ås</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>15.05</v>
+        <v>19.09</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
@@ -25402,27 +25402,27 @@
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Trygve Feidje Mjelde</t>
+          <t>Endre Wigaard</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="O204" s="17" t="inlineStr">
         <is>
-          <t>14,25,60</t>
+          <t>16,24,18</t>
         </is>
       </c>
       <c r="P204" s="7" t="n">
-        <v>853</v>
+        <v>599</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>29.06</v>
+        <v>5.06</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -25459,32 +25459,30 @@
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Jonas Lillejord</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O205" s="17" t="inlineStr">
-        <is>
-          <t>31,55,83</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O205" s="15" t="n">
+        <v>5.44</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>742</v>
+        <v>477</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>6.05</v>
+        <v>27.01</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
@@ -25519,30 +25517,30 @@
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Sondre Audahl Vik</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>1.8</v>
+        <v>11.33</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>652</v>
+        <v>485</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>14.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -25577,30 +25575,30 @@
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>6.77</v>
+        <v>1.3</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>777</v>
+        <v>440</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Oslo/Bk</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>2.08</v>
+        <v>26.02</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
@@ -25640,25 +25638,25 @@
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Vegard Trefall</t>
+          <t>Elijah Ramirez</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>2.67</v>
+        <v>2.74</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>19.02</v>
+        <v>17.08</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
@@ -25693,30 +25691,30 @@
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Kjetil Stokke</t>
+          <t>Eirik Halfdansen-Aspen</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>43.75</v>
+        <v>10.66</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>27.05</v>
+        <v>10.03</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -25770,7 +25768,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>9373</v>
+        <v>8498</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25903,32 +25901,30 @@
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Jonas Lillejord</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O216" s="17" t="inlineStr">
-        <is>
-          <t>8,46,19</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O216" s="15" t="n">
+        <v>22.53</v>
       </c>
       <c r="P216" s="7" t="n">
-        <v>743</v>
+        <v>800</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>15.05</v>
+        <v>9.08</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
@@ -25965,32 +25961,30 @@
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Dagfinn Gjerstad</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O217" s="17" t="inlineStr">
-        <is>
-          <t>1,59,36</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O217" s="15" t="n">
+        <v>11.24</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>699</v>
+        <v>782</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>1.09</v>
+        <v>27.06</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
@@ -26025,32 +26019,32 @@
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Dagfinn Gjerstad</t>
+          <t>Adrian Stene Olsen</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O218" s="17" t="inlineStr">
         <is>
-          <t>8,58,15</t>
+          <t>3,58,51</t>
         </is>
       </c>
       <c r="P218" s="7" t="n">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>30.08</v>
+        <v>10.05</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
@@ -26087,30 +26081,30 @@
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Thomas Graftås</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="O219" s="15" t="n">
-        <v>6.25</v>
+        <v>11.27</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>663</v>
+        <v>774</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>16.06</v>
+        <v>27.06</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -26147,30 +26141,32 @@
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Johannes Dalland</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="O220" s="15" t="n">
-        <v>11.82</v>
+      <c r="O220" s="17" t="inlineStr">
+        <is>
+          <t>3,58,90</t>
+        </is>
       </c>
       <c r="P220" s="7" t="n">
-        <v>648</v>
+        <v>771</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>18.09</v>
+        <v>27.08</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -26212,25 +26208,25 @@
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>7.63</v>
+        <v>7.24</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>614</v>
+        <v>760</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>18.09</v>
+        <v>9.02</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
@@ -26267,32 +26263,32 @@
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Daniel Bruvik</t>
+          <t>Adrian Stene Olsen</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="O222" s="17" t="inlineStr">
         <is>
-          <t>17,01,03</t>
+          <t>1,56,57</t>
         </is>
       </c>
       <c r="P222" s="7" t="n">
-        <v>533</v>
+        <v>758</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>5.06</v>
+        <v>18.06</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -26327,30 +26323,30 @@
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Strand Blichfeldt</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>7.92</v>
+        <v>11.36</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>520</v>
+        <v>753</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>25.05</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
@@ -26385,30 +26381,30 @@
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Strand Blichfeldt</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>12.53</v>
+        <v>2.66</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>19.06</v>
+        <v>17.08</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -26443,30 +26439,30 @@
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Strand Blichfeldt</t>
+          <t>Jan Hermann Hordvik</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2009</v>
+        <v>1966</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>5.46</v>
+        <v>1.3</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bk</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>21.01</v>
+        <v>26.02</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
@@ -26501,30 +26497,30 @@
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Sander Solberg Hopsdal</t>
+          <t>Noah Ruben</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>1.33</v>
+        <v>36.9</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>15.01</v>
+        <v>3.09</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -26564,25 +26560,25 @@
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Kasper Vinje Engvik</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Oslo/Bk</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>15.01</v>
+        <v>26.02</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26636,7 +26632,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>7051</v>
+        <v>7957</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26676,7 +26672,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>16424</v>
+        <v>16455</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26700,7 +26696,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -26742,7 +26738,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -26772,7 +26768,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL 3. lag</t>
+          <t>Osterøy IL</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -26912,25 +26908,25 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Nicolas Alexander Baranyi Eriksen</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>7.15</v>
+        <v>7.58</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>797</v>
+        <v>632</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>21.01</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -26970,25 +26966,25 @@
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Nicolas Alexander Baranyi Eriksen</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>10.99</v>
+        <v>11.82</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>844</v>
+        <v>648</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>30.08</v>
+        <v>19.06</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -27028,25 +27024,25 @@
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Nicolas Alexander Baranyi Eriksen</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>22.44</v>
+        <v>23.27</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>810</v>
+        <v>720</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>14.06</v>
+        <v>31.05</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -27086,25 +27082,25 @@
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Jonas Grüner-Mørck</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E247" s="15" t="n">
-        <v>52.04</v>
+        <v>49.42</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>686</v>
+        <v>814</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>30.08</v>
+        <v>3.07</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -27144,27 +27140,27 @@
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Johannes Dalland</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E248" s="17" t="inlineStr">
         <is>
-          <t>1,56,24</t>
+          <t>1,52,86</t>
         </is>
       </c>
       <c r="F248" s="7" t="n">
-        <v>765</v>
+        <v>844</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>15.06</v>
+        <v>4.08</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -27206,27 +27202,27 @@
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Halvard Grape Fladby</t>
+          <t>Trygve Feidje Mjelde</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E249" s="17" t="inlineStr">
         <is>
-          <t>3,53,98</t>
+          <t>3,59,77</t>
         </is>
       </c>
       <c r="F249" s="7" t="n">
-        <v>821</v>
+        <v>763</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>10.05</v>
+        <v>27.06</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -27266,27 +27262,27 @@
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Halvard Grape Fladby</t>
+          <t>Trygve Feidje Mjelde</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E250" s="17" t="inlineStr">
         <is>
-          <t>8,44,76</t>
+          <t>8,10,67</t>
         </is>
       </c>
       <c r="F250" s="7" t="n">
-        <v>749</v>
+        <v>903</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Ås</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>19.09</v>
+        <v>15.05</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -27326,27 +27322,27 @@
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Endre Wigaard</t>
+          <t>Trygve Feidje Mjelde</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E251" s="17" t="inlineStr">
         <is>
-          <t>16,24,18</t>
+          <t>14,25,60</t>
         </is>
       </c>
       <c r="F251" s="7" t="n">
-        <v>599</v>
+        <v>853</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>5.06</v>
+        <v>29.06</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -27381,30 +27377,32 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Jonas Lillejord</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E252" s="15" t="n">
-        <v>5.44</v>
+        <v>1998</v>
+      </c>
+      <c r="E252" s="17" t="inlineStr">
+        <is>
+          <t>31,55,83</t>
+        </is>
       </c>
       <c r="F252" s="7" t="n">
-        <v>477</v>
+        <v>742</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>27.01</v>
+        <v>6.05</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -27439,30 +27437,30 @@
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Sondre Audahl Vik</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>11.33</v>
+        <v>1.8</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>485</v>
+        <v>652</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
@@ -27497,30 +27495,30 @@
     <row r="254" ht="13" customHeight="1">
       <c r="B254" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>1.3</v>
+        <v>6.77</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>440</v>
+        <v>777</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H254" s="16" t="n">
-        <v>26.02</v>
+        <v>2.08</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
@@ -27560,25 +27558,25 @@
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>Elijah Ramirez</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="D255" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E255" s="15" t="n">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
       <c r="F255" s="7" t="n">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="G255" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H255" s="16" t="n">
-        <v>17.08</v>
+        <v>19.02</v>
       </c>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
@@ -27618,25 +27616,25 @@
       </c>
       <c r="C256" s="7" t="inlineStr">
         <is>
-          <t>Noah Ruben</t>
+          <t>Kjetil Stokke</t>
         </is>
       </c>
       <c r="D256" s="7" t="n">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="E256" s="15" t="n">
-        <v>36.9</v>
+        <v>43.75</v>
       </c>
       <c r="F256" s="7" t="n">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="G256" s="7" t="inlineStr">
         <is>
-          <t>Lambertseter</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H256" s="16" t="n">
-        <v>3.09</v>
+        <v>27.05</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="14" t="inlineStr">
@@ -27701,7 +27699,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>8439</v>
+        <v>9373</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -27821,30 +27819,32 @@
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Jonas Lillejord</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E263" s="15" t="n">
-        <v>22.53</v>
+        <v>1998</v>
+      </c>
+      <c r="E263" s="17" t="inlineStr">
+        <is>
+          <t>8,46,19</t>
+        </is>
       </c>
       <c r="F263" s="7" t="n">
-        <v>800</v>
+        <v>743</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>9.08</v>
+        <v>15.05</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
@@ -27879,30 +27879,32 @@
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Dagfinn Gjerstad</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E264" s="15" t="n">
-        <v>11.24</v>
+        <v>2006</v>
+      </c>
+      <c r="E264" s="17" t="inlineStr">
+        <is>
+          <t>1,59,36</t>
+        </is>
       </c>
       <c r="F264" s="7" t="n">
-        <v>782</v>
+        <v>699</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>27.06</v>
+        <v>1.09</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
@@ -27937,32 +27939,32 @@
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Adrian Stene Olsen</t>
+          <t>Dagfinn Gjerstad</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E265" s="17" t="inlineStr">
         <is>
-          <t>3,58,51</t>
+          <t>8,58,15</t>
         </is>
       </c>
       <c r="F265" s="7" t="n">
-        <v>775</v>
+        <v>695</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>10.05</v>
+        <v>30.08</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
@@ -27997,30 +27999,30 @@
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Thomas Graftås</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E266" s="15" t="n">
-        <v>11.27</v>
+        <v>6.25</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>774</v>
+        <v>663</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>27.06</v>
+        <v>16.06</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
@@ -28055,32 +28057,30 @@
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Johannes Dalland</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E267" s="17" t="inlineStr">
-        <is>
-          <t>3,58,90</t>
-        </is>
+      <c r="E267" s="15" t="n">
+        <v>11.82</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>771</v>
+        <v>648</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>27.08</v>
+        <v>18.09</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
@@ -28120,25 +28120,25 @@
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>7.24</v>
+        <v>7.63</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>760</v>
+        <v>614</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>9.02</v>
+        <v>18.09</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
@@ -28173,32 +28173,32 @@
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Adrian Stene Olsen</t>
+          <t>Daniel Bruvik</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="E269" s="17" t="inlineStr">
         <is>
-          <t>1,56,57</t>
+          <t>17,01,03</t>
         </is>
       </c>
       <c r="F269" s="7" t="n">
-        <v>758</v>
+        <v>533</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>18.06</v>
+        <v>5.06</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
@@ -28233,30 +28233,30 @@
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Benjamin Strand Blichfeldt</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E270" s="15" t="n">
-        <v>11.36</v>
+        <v>7.92</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>753</v>
+        <v>520</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>25.05</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
@@ -28291,30 +28291,30 @@
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Benjamin Strand Blichfeldt</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>2.66</v>
+        <v>12.53</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>17.08</v>
+        <v>19.06</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -28349,30 +28349,30 @@
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Jan Hermann Hordvik</t>
+          <t>Benjamin Strand Blichfeldt</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>1966</v>
+        <v>2009</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>1.3</v>
+        <v>5.46</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>26.02</v>
+        <v>21.01</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -28407,30 +28407,30 @@
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Kasper Vinje Engvik</t>
+          <t>Sander Solberg Hopsdal</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>2.58</v>
+        <v>1.33</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>26.02</v>
+        <v>15.01</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
@@ -28465,30 +28465,30 @@
     <row r="274" ht="13" customHeight="1">
       <c r="B274" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Aleksander Christian Moen</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>5.22</v>
+        <v>2.65</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>14.06</v>
+        <v>15.01</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="n"/>
@@ -28533,7 +28533,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>7941</v>
+        <v>7051</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -28573,7 +28573,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>16380</v>
+        <v>16424</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -28605,7 +28605,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -28919,18 +28919,18 @@
         <v>2004</v>
       </c>
       <c r="O292" s="15" t="n">
-        <v>11.11</v>
+        <v>11.08</v>
       </c>
       <c r="P292" s="7" t="n">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="Q292" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="R292" s="16" t="n">
-        <v>2.05</v>
+        <v>22.09</v>
       </c>
       <c r="T292" s="5" t="n"/>
     </row>
@@ -29580,7 +29580,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>6572</v>
+        <v>6579</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -30416,7 +30416,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>12230</v>
+        <v>12237</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30752,7 +30752,7 @@
         </is>
       </c>
       <c r="D10" s="23" t="n">
-        <v>21375</v>
+        <v>21399</v>
       </c>
       <c r="E10" s="24" t="inlineStr">
         <is>
@@ -30888,11 +30888,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18507</v>
+        <v>18512</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -38569,21 +38569,21 @@
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>0</v>
+        <v>1993</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>26.08</v>
+        <v>21.09</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -38811,7 +38811,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11151</v>
+        <v>11175</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -39879,7 +39879,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>21375</v>
+        <v>21399</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -46402,30 +46402,30 @@
     <row r="356" ht="13" customHeight="1">
       <c r="B356" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Nicole Bente Marie Minker</t>
         </is>
       </c>
       <c r="D356" s="7" t="n">
-        <v>1992</v>
+        <v>1969</v>
       </c>
       <c r="E356" s="15" t="n">
-        <v>32.78</v>
+        <v>30.34</v>
       </c>
       <c r="F356" s="7" t="n">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G356" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="H356" s="16" t="n">
-        <v>21.04</v>
+        <v>22.09</v>
       </c>
       <c r="J356" s="5" t="n"/>
       <c r="L356" s="14" t="inlineStr">
@@ -46490,7 +46490,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>9146</v>
+        <v>9151</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -46530,7 +46530,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18507</v>
+        <v>18512</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -46562,7 +46562,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -46939,7 +46939,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14957</v>
+        <v>15287</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -46958,25 +46958,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL Tromsø</t>
+          <t>Sarpsborg IL</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>14420</v>
+        <v>14619</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -46986,25 +46986,25 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Sarpsborg IL</t>
+          <t>IL i BUL Tromsø</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(24/12)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14130</v>
+        <v>14420</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -55615,30 +55615,30 @@
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Helene Korsmo Walskrå</t>
+          <t>Tiril Lappegård</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>4.58</v>
+        <v>9.92</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>26.05</v>
+        <v>23.07</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -55673,7 +55673,7 @@
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
@@ -55685,10 +55685,10 @@
         <v>2003</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>9.92</v>
+        <v>29.72</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
@@ -55731,7 +55731,7 @@
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
@@ -55743,18 +55743,18 @@
         <v>2003</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>29.72</v>
+        <v>53.78</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>576</v>
+        <v>854</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>23.07</v>
+        <v>14.06</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
@@ -55789,30 +55789,30 @@
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Tiril Lappegård</t>
+          <t>Sonia Elisabeth Fearnley</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>53.78</v>
+        <v>38.53</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>854</v>
+        <v>678</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>14.06</v>
+        <v>21.09</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -55866,7 +55866,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8480</v>
+        <v>8632</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -56411,7 +56411,7 @@
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
@@ -56424,19 +56424,19 @@
       </c>
       <c r="O223" s="17" t="inlineStr">
         <is>
-          <t>5,19,29</t>
+          <t>2,32,79</t>
         </is>
       </c>
       <c r="P223" s="7" t="n">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>8.09</v>
+        <v>21.09</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
@@ -56471,7 +56471,7 @@
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
@@ -56483,18 +56483,18 @@
         <v>2009</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>9.35</v>
+        <v>4.58</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>26.05</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -56529,30 +56529,30 @@
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Tuva Helene Rugsveen</t>
+          <t>Helene Korsmo Walskrå</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>4.27</v>
+        <v>9.35</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>17.03</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
@@ -56587,7 +56587,7 @@
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
@@ -56599,18 +56599,18 @@
         <v>2009</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>8.949999999999999</v>
+        <v>4.27</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>17.08</v>
+        <v>17.03</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -56645,30 +56645,30 @@
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Johanne Otelie Schønheyder</t>
+          <t>Tuva Helene Rugsveen</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>1.25</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>11.05</v>
+        <v>17.08</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -56722,7 +56722,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6477</v>
+        <v>6655</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -56762,7 +56762,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14957</v>
+        <v>15287</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -56828,7 +56828,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Østfold</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -56842,7 +56842,7 @@
       </c>
       <c r="M237" s="7" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Troms</t>
         </is>
       </c>
       <c r="P237" s="8" t="n">
@@ -56858,7 +56858,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL Tromsø</t>
+          <t>Sarpsborg IL</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -56869,7 +56869,7 @@
       </c>
       <c r="M238" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg IL</t>
+          <t>IL i BUL Tromsø</t>
         </is>
       </c>
       <c r="T238" s="5" t="n"/>
@@ -56998,25 +56998,25 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Ingrid Mæland Andersen</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>8.4</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>3.02</v>
+        <v>9.02</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -57026,25 +57026,25 @@
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Mæland Andersen</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>8.279999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>9.02</v>
+        <v>3.02</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
@@ -57056,25 +57056,25 @@
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Ingrid Mæland Andersen</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>12.99</v>
+        <v>13.04</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>8.06</v>
+        <v>1.06</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -57084,25 +57084,25 @@
       </c>
       <c r="M245" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Mæland Andersen</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="N245" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O245" s="15" t="n">
-        <v>13.04</v>
+        <v>12.99</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>1.06</v>
+        <v>8.06</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
@@ -57114,25 +57114,25 @@
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Martine Inderberg</t>
+          <t>Magdeli Støten</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>27.23</v>
+        <v>26.5</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>633</v>
+        <v>687</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>31.08</v>
+        <v>25.05</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -57142,25 +57142,25 @@
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Magdeli Støten</t>
+          <t>Martine Inderberg</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="O246" s="15" t="n">
-        <v>26.5</v>
+        <v>27.23</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>687</v>
+        <v>633</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>25.05</v>
+        <v>31.08</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -57172,27 +57172,27 @@
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Klara Helen Homlung Prøitz</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E247" s="17" t="inlineStr">
         <is>
-          <t>1,03,63</t>
+          <t>1,03,36</t>
         </is>
       </c>
       <c r="F247" s="7" t="n">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>8.06</v>
+        <v>18.08</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -57202,385 +57202,385 @@
       </c>
       <c r="M247" s="7" t="inlineStr">
         <is>
-          <t>Klara Helen Homlung Prøitz</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="N247" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="O247" s="17" t="inlineStr">
         <is>
-          <t>1,03,36</t>
+          <t>1,03,63</t>
         </is>
       </c>
       <c r="P247" s="7" t="n">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="Q247" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R247" s="16" t="n">
-        <v>18.08</v>
+        <v>8.06</v>
       </c>
       <c r="T247" s="5" t="n"/>
     </row>
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Vesna Itkin</t>
+          <t>Klara Helen Homlung Prøitz</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E248" s="17" t="inlineStr">
         <is>
-          <t>5,31,42</t>
+          <t>2,16,21</t>
         </is>
       </c>
       <c r="F248" s="7" t="n">
-        <v>462</v>
+        <v>715</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>23.06</v>
+        <v>5.07</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M248" s="7" t="inlineStr">
         <is>
-          <t>Klara Helen Homlung Prøitz</t>
+          <t>Vesna Itkin</t>
         </is>
       </c>
       <c r="N248" s="7" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="O248" s="17" t="inlineStr">
         <is>
-          <t>2,16,21</t>
+          <t>5,31,42</t>
         </is>
       </c>
       <c r="P248" s="7" t="n">
-        <v>715</v>
+        <v>462</v>
       </c>
       <c r="Q248" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R248" s="16" t="n">
-        <v>5.07</v>
+        <v>23.06</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Malin Søtorp Solberg</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E249" s="17" t="inlineStr">
         <is>
-          <t>1,10,62</t>
+          <t>4,45,33</t>
         </is>
       </c>
       <c r="F249" s="7" t="n">
-        <v>579</v>
+        <v>693</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Kemi/FIN</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>24.08</v>
+        <v>10.02</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M249" s="7" t="inlineStr">
         <is>
-          <t>Malin Søtorp Solberg</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="N249" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O249" s="17" t="inlineStr">
         <is>
-          <t>4,45,33</t>
+          <t>1,10,62</t>
         </is>
       </c>
       <c r="P249" s="7" t="n">
-        <v>693</v>
+        <v>579</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Kemi/FIN</t>
         </is>
       </c>
       <c r="R249" s="16" t="n">
-        <v>10.02</v>
+        <v>24.08</v>
       </c>
       <c r="T249" s="5" t="n"/>
     </row>
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Astrid Bakkevik Finnestad</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E250" s="15" t="n">
-        <v>1.58</v>
+        <v>2006</v>
+      </c>
+      <c r="E250" s="17" t="inlineStr">
+        <is>
+          <t>10,47,90</t>
+        </is>
       </c>
       <c r="F250" s="7" t="n">
-        <v>675</v>
+        <v>619</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>9.06</v>
+        <v>14.06</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M250" s="7" t="inlineStr">
         <is>
-          <t>Astrid Bakkevik Finnestad</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="N250" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O250" s="17" t="inlineStr">
-        <is>
-          <t>10,47,90</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O250" s="15" t="n">
+        <v>1.58</v>
       </c>
       <c r="P250" s="7" t="n">
-        <v>619</v>
+        <v>675</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>14.06</v>
+        <v>9.06</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Ylva Martedatter Grammeltvedt</t>
+          <t>Magdeli Støten</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>2</v>
+        <v>14.67</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>427</v>
+        <v>799</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>4.09</v>
+        <v>22.06</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M251" s="7" t="inlineStr">
         <is>
-          <t>Magdeli Støten</t>
+          <t>Ylva Martedatter Grammeltvedt</t>
         </is>
       </c>
       <c r="N251" s="7" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="O251" s="15" t="n">
-        <v>14.67</v>
+        <v>2</v>
       </c>
       <c r="P251" s="7" t="n">
-        <v>799</v>
+        <v>427</v>
       </c>
       <c r="Q251" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R251" s="16" t="n">
-        <v>22.06</v>
+        <v>4.09</v>
       </c>
       <c r="T251" s="5" t="n"/>
     </row>
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Matea Anne Sommerfeldt</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>4.85</v>
+        <v>1.48</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>15.09</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Matea Anne Sommerfeldt</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>1.48</v>
+        <v>4.85</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>15.09</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Aurora Molund Tangen</t>
+          <t>Emma Sofie Klausen</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>9.859999999999999</v>
+        <v>4.42</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>15.09</v>
+        <v>21.09</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M253" s="7" t="inlineStr">
         <is>
-          <t>Matea Anne Sommerfeldt</t>
+          <t>Aurora Molund Tangen</t>
         </is>
       </c>
       <c r="N253" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="O253" s="15" t="n">
-        <v>1.2</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="P253" s="7" t="n">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="Q253" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R253" s="16" t="n">
-        <v>16.01</v>
+        <v>15.09</v>
       </c>
       <c r="T253" s="5" t="n"/>
     </row>
@@ -57592,150 +57592,170 @@
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Tilde Edvardsen Mosli</t>
+          <t>Matea Anne Sommerfeldt</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>609</v>
+        <v>553</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="H254" s="16" t="n">
-        <v>2.02</v>
+        <v>16.01</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M254" s="7" t="inlineStr">
         <is>
-          <t>Matea Anne Sommerfeldt</t>
+          <t>Tilde Edvardsen Mosli</t>
         </is>
       </c>
       <c r="N254" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="O254" s="15" t="n">
-        <v>2.07</v>
+        <v>1.25</v>
       </c>
       <c r="P254" s="7" t="n">
-        <v>310</v>
+        <v>609</v>
       </c>
       <c r="Q254" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R254" s="16" t="n">
-        <v>16.01</v>
+        <v>2.02</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
     <row r="255" ht="13" customHeight="1">
       <c r="B255" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>Pernille Allern Brose</t>
+          <t>Matea Anne Sommerfeldt</t>
         </is>
       </c>
       <c r="D255" s="7" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E255" s="15" t="n">
-        <v>21.42</v>
+        <v>2.07</v>
       </c>
       <c r="F255" s="7" t="n">
-        <v>419</v>
+        <v>310</v>
       </c>
       <c r="G255" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="H255" s="16" t="n">
-        <v>15.09</v>
+        <v>16.01</v>
       </c>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M255" s="7" t="inlineStr">
         <is>
-          <t>Emma Sofie Klausen</t>
+          <t>Pernille Allern Brose</t>
         </is>
       </c>
       <c r="N255" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O255" s="15" t="n">
-        <v>37.66</v>
+        <v>21.42</v>
       </c>
       <c r="P255" s="7" t="n">
-        <v>665</v>
+        <v>419</v>
       </c>
       <c r="Q255" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R255" s="16" t="n">
-        <v>3.08</v>
+        <v>15.09</v>
       </c>
       <c r="T255" s="5" t="n"/>
     </row>
     <row r="256" ht="13" customHeight="1">
       <c r="B256" s="14" t="inlineStr">
         <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C256" s="7" t="inlineStr">
+        <is>
+          <t>Emma Sofie Klausen</t>
+        </is>
+      </c>
+      <c r="D256" s="7" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E256" s="15" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="F256" s="7" t="n">
+        <v>665</v>
+      </c>
+      <c r="G256" s="7" t="inlineStr">
+        <is>
+          <t>Bodø</t>
+        </is>
+      </c>
+      <c r="H256" s="16" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="J256" s="5" t="n"/>
+      <c r="L256" s="14" t="inlineStr">
+        <is>
           <t>Slegge</t>
         </is>
       </c>
-      <c r="C256" s="7" t="inlineStr">
+      <c r="M256" s="7" t="inlineStr">
         <is>
           <t>Aurora Fremnesvik</t>
         </is>
       </c>
-      <c r="D256" s="7" t="n">
+      <c r="N256" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E256" s="15" t="n">
+      <c r="O256" s="15" t="n">
         <v>57.89</v>
       </c>
-      <c r="F256" s="7" t="n">
+      <c r="P256" s="7" t="n">
         <v>901</v>
       </c>
-      <c r="G256" s="7" t="inlineStr">
+      <c r="Q256" s="7" t="inlineStr">
         <is>
           <t>Tromsø</t>
         </is>
       </c>
-      <c r="H256" s="16" t="n">
+      <c r="R256" s="16" t="n">
         <v>9.06</v>
       </c>
-      <c r="J256" s="5" t="n"/>
-      <c r="L256" s="14" t="n"/>
-      <c r="M256" s="7" t="n"/>
-      <c r="N256" s="7" t="n"/>
-      <c r="O256" s="7" t="n"/>
-      <c r="P256" s="7" t="n"/>
-      <c r="Q256" s="7" t="n"/>
-      <c r="R256" s="21" t="n"/>
       <c r="T256" s="5" t="n"/>
     </row>
     <row r="257" ht="13" customHeight="1">
@@ -57771,7 +57791,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>7699</v>
+        <v>8017</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -57780,7 +57800,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O258" s="19" t="inlineStr">
         <is>
@@ -57788,7 +57808,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>7528</v>
+        <v>7699</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -57891,476 +57911,476 @@
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Aurelia Fremnesvik</t>
+          <t>Ingrid Mæland Andersen</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E263" s="15" t="n">
-        <v>41.88</v>
+        <v>26.53</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Brandbu</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>4.05</v>
+        <v>2.06</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Mæland Andersen</t>
+          <t>Aurelia Fremnesvik</t>
         </is>
       </c>
       <c r="N263" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O263" s="15" t="n">
-        <v>26.53</v>
+        <v>41.88</v>
       </c>
       <c r="P263" s="7" t="n">
-        <v>685</v>
+        <v>708</v>
       </c>
       <c r="Q263" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="R263" s="16" t="n">
-        <v>2.06</v>
+        <v>4.05</v>
       </c>
       <c r="T263" s="5" t="n"/>
     </row>
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Malin Søtorp Solberg</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E264" s="15" t="n">
-        <v>1.55</v>
+        <v>2006</v>
+      </c>
+      <c r="E264" s="17" t="inlineStr">
+        <is>
+          <t>2,18,62</t>
+        </is>
       </c>
       <c r="F264" s="7" t="n">
-        <v>651</v>
+        <v>684</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>9.06</v>
+        <v>17.08</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Malin Søtorp Solberg</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O264" s="17" t="inlineStr">
-        <is>
-          <t>2,18,62</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O264" s="15" t="n">
+        <v>1.55</v>
       </c>
       <c r="P264" s="7" t="n">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>17.08</v>
+        <v>9.06</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Martine Inderberg</t>
+          <t>Klara Helen Homlung Prøitz</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E265" s="15" t="n">
-        <v>13.43</v>
+        <v>2010</v>
+      </c>
+      <c r="E265" s="17" t="inlineStr">
+        <is>
+          <t>4,49,77</t>
+        </is>
       </c>
       <c r="F265" s="7" t="n">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>21.08</v>
+        <v>24.05</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Klara Helen Homlung Prøitz</t>
+          <t>Martine Inderberg</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O265" s="17" t="inlineStr">
-        <is>
-          <t>4,49,77</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O265" s="15" t="n">
+        <v>13.43</v>
       </c>
       <c r="P265" s="7" t="n">
-        <v>667</v>
+        <v>599</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>24.05</v>
+        <v>21.08</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Martine Inderberg</t>
+          <t>Astrid Bakkevik Finnestad</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E266" s="15" t="n">
-        <v>8.609999999999999</v>
+        <v>2006</v>
+      </c>
+      <c r="E266" s="17" t="inlineStr">
+        <is>
+          <t>4,55,11</t>
+        </is>
       </c>
       <c r="F266" s="7" t="n">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>4.09</v>
+        <v>24.05</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Astrid Bakkevik Finnestad</t>
+          <t>Martine Inderberg</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O266" s="17" t="inlineStr">
-        <is>
-          <t>4,55,11</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O266" s="15" t="n">
+        <v>8.609999999999999</v>
       </c>
       <c r="P266" s="7" t="n">
-        <v>638</v>
+        <v>565</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>24.05</v>
+        <v>4.09</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Marie Oraug</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E267" s="15" t="n">
-        <v>13.67</v>
+        <v>2011</v>
+      </c>
+      <c r="E267" s="17" t="inlineStr">
+        <is>
+          <t>4,59,25</t>
+        </is>
       </c>
       <c r="F267" s="7" t="n">
-        <v>561</v>
+        <v>616</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Marie Oraug</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O267" s="17" t="inlineStr">
-        <is>
-          <t>4,59,25</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O267" s="15" t="n">
+        <v>13.67</v>
       </c>
       <c r="P267" s="7" t="n">
-        <v>616</v>
+        <v>561</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Ingrid Elise Kullerud</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E268" s="15" t="n">
-        <v>28.38</v>
+        <v>2005</v>
+      </c>
+      <c r="E268" s="17" t="inlineStr">
+        <is>
+          <t>2,24,52</t>
+        </is>
       </c>
       <c r="F268" s="7" t="n">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>2.06</v>
+        <v>9.08</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Elise Kullerud</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O268" s="17" t="inlineStr">
-        <is>
-          <t>2,24,52</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O268" s="15" t="n">
+        <v>28.38</v>
       </c>
       <c r="P268" s="7" t="n">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>9.08</v>
+        <v>2.06</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Elsa Mækelæ Lindblad</t>
+          <t>Matea Anne Sommerfeldt</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
         <v>2011</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>1.43</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>2.06</v>
+        <v>14.09</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Matea Anne Sommerfeldt</t>
+          <t>Elsa Mækelæ Lindblad</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
         <v>2011</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>8.550000000000001</v>
+        <v>1.43</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>14.09</v>
+        <v>2.06</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Nora Tvete</t>
+          <t>Marie Oraug</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E270" s="15" t="n">
-        <v>8.710000000000001</v>
+        <v>2011</v>
+      </c>
+      <c r="E270" s="17" t="inlineStr">
+        <is>
+          <t>2,31,90</t>
+        </is>
       </c>
       <c r="F270" s="7" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>3.02</v>
+        <v>26.08</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Marie Oraug</t>
+          <t>Nora Tvete</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O270" s="17" t="inlineStr">
-        <is>
-          <t>2,31,90</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O270" s="15" t="n">
+        <v>8.710000000000001</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>26.08</v>
+        <v>3.02</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -58372,11 +58392,11 @@
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Aurora Molund Tangen</t>
+          <t>Ingrid Mæland Andersen</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E271" s="15" t="n">
         <v>1.4</v>
@@ -58386,11 +58406,11 @@
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>15.09</v>
+        <v>6.01</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -58400,11 +58420,11 @@
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Mæland Andersen</t>
+          <t>Aurora Molund Tangen</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O271" s="15" t="n">
         <v>1.4</v>
@@ -58414,187 +58434,187 @@
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>6.01</v>
+        <v>15.09</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Martine Inderberg</t>
+          <t>Eli Skorstad Grønsberg</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E272" s="17" t="inlineStr">
-        <is>
-          <t>1,06,07</t>
-        </is>
+        <v>2013</v>
+      </c>
+      <c r="E272" s="15" t="n">
+        <v>1.3</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>512</v>
+        <v>418</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>8.06</v>
+        <v>4.02</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Eli Skorstad Grønsberg</t>
+          <t>Martine Inderberg</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>2013</v>
-      </c>
-      <c r="O272" s="15" t="n">
-        <v>1.3</v>
+        <v>2009</v>
+      </c>
+      <c r="O272" s="17" t="inlineStr">
+        <is>
+          <t>1,06,07</t>
+        </is>
       </c>
       <c r="P272" s="7" t="n">
-        <v>418</v>
+        <v>512</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>4.02</v>
+        <v>8.06</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Aurora Molund Tangen</t>
+          <t>Mathilde Bones</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>492</v>
+        <v>339</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>2.02</v>
+        <v>15.09</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Bones</t>
+          <t>Aurora Molund Tangen</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="O273" s="15" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="P273" s="7" t="n">
-        <v>339</v>
+        <v>492</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>15.09</v>
+        <v>2.02</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
     <row r="274" ht="13" customHeight="1">
       <c r="B274" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Aurora Molund Tangen</t>
+          <t>Timea Yasmin Dahle</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>4.36</v>
+        <v>1.2</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>475</v>
+        <v>303</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>7.08</v>
+        <v>4.02</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Timea Yasmin Dahle</t>
+          <t>Aurora Molund Tangen</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="O274" s="15" t="n">
-        <v>1.2</v>
+        <v>4.36</v>
       </c>
       <c r="P274" s="7" t="n">
-        <v>303</v>
+        <v>475</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>4.02</v>
+        <v>7.08</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -58631,7 +58651,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>6721</v>
+        <v>6602</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -58648,7 +58668,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>6602</v>
+        <v>6721</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58671,7 +58691,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>14420</v>
+        <v>14619</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -58680,7 +58700,7 @@
         </is>
       </c>
       <c r="M278" s="20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O278" s="19" t="inlineStr">
         <is>
@@ -58688,7 +58708,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>14130</v>
+        <v>14420</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -58703,7 +58723,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -58712,7 +58732,7 @@
         </is>
       </c>
       <c r="M280" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>23185</v>
+        <v>23188</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -10304,18 +10304,18 @@
         <v>1993</v>
       </c>
       <c r="O218" s="15" t="n">
-        <v>10.48</v>
+        <v>10.47</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>18.07</v>
+        <v>1.09</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
@@ -11111,7 +11111,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>12824</v>
+        <v>12827</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>23185</v>
+        <v>23188</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -16685,7 +16685,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17720</v>
+        <v>17990</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>17210</v>
+        <v>17220</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -16793,11 +16793,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(24/9)</t>
+          <t>(24/8)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>16975</v>
+        <v>17124</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -19463,32 +19463,30 @@
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Jacob Bergmann Abusdal</t>
+          <t>August Høgvold</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O61" s="17" t="inlineStr">
-        <is>
-          <t>4,48,50</t>
-        </is>
+      <c r="O61" s="15" t="n">
+        <v>1.82</v>
       </c>
       <c r="P61" s="7" t="n">
-        <v>413</v>
+        <v>670</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Arendal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>17.08</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -19525,30 +19523,30 @@
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>August Høgvold</t>
+          <t>Morten Husebø Hestnes</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>1.82</v>
+        <v>3.5</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>670</v>
+        <v>615</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>6.01</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -19585,30 +19583,30 @@
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Morten Husebø Hestnes</t>
+          <t>Henrik Flåtnes</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>3.5</v>
+        <v>7.9</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>615</v>
+        <v>1011</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>6.01</v>
+        <v>19.05</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -19645,7 +19643,7 @@
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M64" s="7" t="inlineStr">
@@ -19657,18 +19655,18 @@
         <v>2001</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>7.9</v>
+        <v>15.47</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>1011</v>
+        <v>925</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>19.05</v>
+        <v>28.06</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -19703,30 +19701,30 @@
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Henrik Flåtnes</t>
+          <t>Henrik Duncan</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>15.47</v>
+        <v>3.02</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>925</v>
+        <v>683</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>28.06</v>
+        <v>23.09</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -19954,7 +19952,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>9332</v>
+        <v>9602</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -20842,7 +20840,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17720</v>
+        <v>17990</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -23480,27 +23478,27 @@
       </c>
       <c r="M157" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Skoge-Nilsen</t>
+          <t>Endre Hartvedt Haugen</t>
         </is>
       </c>
       <c r="N157" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O157" s="17" t="inlineStr">
         <is>
-          <t>16,53,87</t>
+          <t>15,39,30</t>
         </is>
       </c>
       <c r="P157" s="7" t="n">
-        <v>545</v>
+        <v>687</v>
       </c>
       <c r="Q157" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R157" s="16" t="n">
-        <v>3.07</v>
+        <v>22.09</v>
       </c>
       <c r="T157" s="5" t="n"/>
     </row>
@@ -23665,18 +23663,18 @@
         <v>2005</v>
       </c>
       <c r="O160" s="15" t="n">
-        <v>6.4</v>
+        <v>6.43</v>
       </c>
       <c r="P160" s="7" t="n">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="Q160" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R160" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>14.09</v>
       </c>
       <c r="T160" s="5" t="n"/>
     </row>
@@ -23846,7 +23844,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8934</v>
+        <v>9083</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -24185,30 +24183,32 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Oskar Natland</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="E173" s="15" t="n">
-        <v>11.79</v>
+      <c r="E173" s="17" t="inlineStr">
+        <is>
+          <t>2,01,49</t>
+        </is>
       </c>
       <c r="F173" s="7" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>19.05</v>
+        <v>14.09</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -24243,32 +24243,30 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Oskar Natland</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="E174" s="17" t="inlineStr">
-        <is>
-          <t>2,02,02</t>
-        </is>
+      <c r="E174" s="15" t="n">
+        <v>11.79</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Austevoll</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>1.09</v>
+        <v>19.05</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -24661,7 +24659,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>7450</v>
+        <v>7460</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24701,7 +24699,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>17210</v>
+        <v>17220</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24718,7 +24716,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>16975</v>
+        <v>17124</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24742,7 +24740,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -30748,11 +30746,11 @@
       </c>
       <c r="C10" s="23" t="inlineStr">
         <is>
-          <t>(30/12)</t>
+          <t>(30/11)</t>
         </is>
       </c>
       <c r="D10" s="23" t="n">
-        <v>21399</v>
+        <v>21334</v>
       </c>
       <c r="E10" s="24" t="inlineStr">
         <is>
@@ -30864,7 +30862,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>19259</v>
+        <v>19347</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -38565,7 +38563,7 @@
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Valentina Pauna</t>
+          <t>Valentina Helen Pauna</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
@@ -38676,30 +38674,30 @@
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Linn Røen Skjermo</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>2.38</v>
+        <v>11.6</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>553</v>
+        <v>692</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Reykjavik/ISL</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>4.02</v>
+        <v>15.06</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -38734,7 +38732,7 @@
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
@@ -38746,18 +38744,18 @@
         <v>2005</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>11.6</v>
+        <v>37.84</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Reykjavik/ISL</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>15.06</v>
+        <v>3.08</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -38811,7 +38809,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11175</v>
+        <v>11290</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -39062,30 +39060,30 @@
       <c r="J188" s="5" t="n"/>
       <c r="L188" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M188" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Freia Haraldsen Skaset</t>
         </is>
       </c>
       <c r="N188" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O188" s="15" t="n">
-        <v>8.800000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="P188" s="7" t="n">
-        <v>819</v>
+        <v>785</v>
       </c>
       <c r="Q188" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R188" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="T188" s="5" t="n"/>
     </row>
@@ -39122,7 +39120,7 @@
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M189" s="7" t="inlineStr">
@@ -39134,18 +39132,18 @@
         <v>2007</v>
       </c>
       <c r="O189" s="15" t="n">
-        <v>7.84</v>
+        <v>12.5</v>
       </c>
       <c r="P189" s="7" t="n">
-        <v>785</v>
+        <v>759</v>
       </c>
       <c r="Q189" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R189" s="16" t="n">
-        <v>9.02</v>
+        <v>2.08</v>
       </c>
       <c r="T189" s="5" t="n"/>
     </row>
@@ -39180,7 +39178,7 @@
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M190" s="7" t="inlineStr">
@@ -39192,18 +39190,18 @@
         <v>2007</v>
       </c>
       <c r="O190" s="15" t="n">
-        <v>12.5</v>
+        <v>59.46</v>
       </c>
       <c r="P190" s="7" t="n">
-        <v>759</v>
+        <v>697</v>
       </c>
       <c r="Q190" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R190" s="16" t="n">
-        <v>2.08</v>
+        <v>11.02</v>
       </c>
       <c r="T190" s="5" t="n"/>
     </row>
@@ -39238,22 +39236,22 @@
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Freia Haraldsen Skaset</t>
+          <t>Luna Andrine Stang</t>
         </is>
       </c>
       <c r="N191" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O191" s="15" t="n">
-        <v>59.46</v>
+        <v>12.89</v>
       </c>
       <c r="P191" s="7" t="n">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="Q191" s="7" t="inlineStr">
         <is>
@@ -39261,7 +39259,7 @@
         </is>
       </c>
       <c r="R191" s="16" t="n">
-        <v>11.02</v>
+        <v>16.06</v>
       </c>
       <c r="T191" s="5" t="n"/>
     </row>
@@ -39296,7 +39294,7 @@
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M192" s="7" t="inlineStr">
@@ -39308,10 +39306,10 @@
         <v>2009</v>
       </c>
       <c r="O192" s="15" t="n">
-        <v>12.89</v>
+        <v>26.66</v>
       </c>
       <c r="P192" s="7" t="n">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="Q192" s="7" t="inlineStr">
         <is>
@@ -39319,7 +39317,7 @@
         </is>
       </c>
       <c r="R192" s="16" t="n">
-        <v>16.06</v>
+        <v>15.06</v>
       </c>
       <c r="T192" s="5" t="n"/>
     </row>
@@ -39354,30 +39352,30 @@
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M193" s="7" t="inlineStr">
         <is>
-          <t>Luna Andrine Stang</t>
+          <t>Linn Røen Skjermo</t>
         </is>
       </c>
       <c r="N193" s="7" t="n">
-        <v>2009</v>
+        <v>1995</v>
       </c>
       <c r="O193" s="15" t="n">
-        <v>26.66</v>
+        <v>13</v>
       </c>
       <c r="P193" s="7" t="n">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="Q193" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R193" s="16" t="n">
-        <v>15.06</v>
+        <v>18.06</v>
       </c>
       <c r="T193" s="5" t="n"/>
     </row>
@@ -39412,30 +39410,30 @@
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M194" s="7" t="inlineStr">
         <is>
-          <t>Linn Røen Skjermo</t>
+          <t>Luna Andrine Stang</t>
         </is>
       </c>
       <c r="N194" s="7" t="n">
-        <v>1995</v>
+        <v>2009</v>
       </c>
       <c r="O194" s="15" t="n">
-        <v>13</v>
+        <v>8.24</v>
       </c>
       <c r="P194" s="7" t="n">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="Q194" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R194" s="16" t="n">
-        <v>18.06</v>
+        <v>11.02</v>
       </c>
       <c r="T194" s="5" t="n"/>
     </row>
@@ -39472,30 +39470,30 @@
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Luna Andrine Stang</t>
+          <t>Linn Røen Skjermo</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>2009</v>
+        <v>1995</v>
       </c>
       <c r="O195" s="15" t="n">
-        <v>8.24</v>
+        <v>27.07</v>
       </c>
       <c r="P195" s="7" t="n">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>11.02</v>
+        <v>2.06</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
@@ -39646,30 +39644,30 @@
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Helen Pauna</t>
+          <t>Linn Røen Skjermo</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>15.09</v>
+        <v>4.02</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -39839,7 +39837,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>10224</v>
+        <v>10044</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -39879,7 +39877,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>21399</v>
+        <v>21334</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -39903,7 +39901,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -43500,22 +43498,22 @@
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M292" s="7" t="inlineStr">
         <is>
-          <t>Frida Sætrum</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N292" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O292" s="15" t="n">
-        <v>10.91</v>
+        <v>3</v>
       </c>
       <c r="P292" s="7" t="n">
-        <v>652</v>
+        <v>673</v>
       </c>
       <c r="Q292" s="7" t="inlineStr">
         <is>
@@ -43523,7 +43521,7 @@
         </is>
       </c>
       <c r="R292" s="16" t="n">
-        <v>11.02</v>
+        <v>13.09</v>
       </c>
       <c r="T292" s="5" t="n"/>
     </row>
@@ -43558,30 +43556,30 @@
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M293" s="7" t="inlineStr">
         <is>
-          <t>Embla Adele Østreim Øina</t>
+          <t>Frida Sætrum</t>
         </is>
       </c>
       <c r="N293" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O293" s="15" t="n">
-        <v>1.55</v>
+        <v>10.91</v>
       </c>
       <c r="P293" s="7" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>1.06</v>
+        <v>11.02</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
@@ -43616,22 +43614,22 @@
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M294" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Handeland</t>
+          <t>Embla Adele Østreim Øina</t>
         </is>
       </c>
       <c r="N294" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O294" s="15" t="n">
-        <v>8.289999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="P294" s="7" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
@@ -43674,22 +43672,22 @@
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M295" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Mathilde Handeland</t>
         </is>
       </c>
       <c r="N295" s="7" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="O295" s="15" t="n">
-        <v>13.23</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="P295" s="7" t="n">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="Q295" s="7" t="inlineStr">
         <is>
@@ -43697,7 +43695,7 @@
         </is>
       </c>
       <c r="R295" s="16" t="n">
-        <v>11.05</v>
+        <v>1.06</v>
       </c>
       <c r="T295" s="5" t="n"/>
     </row>
@@ -43737,11 +43735,11 @@
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Lea Noor Golis</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="O296" s="15" t="n">
         <v>13.23</v>
@@ -43755,7 +43753,7 @@
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>2.06</v>
+        <v>11.05</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -43790,30 +43788,30 @@
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Lea Noor Golis</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="O297" s="15" t="n">
-        <v>8.359999999999999</v>
+        <v>13.23</v>
       </c>
       <c r="P297" s="7" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>8.09</v>
+        <v>2.06</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
@@ -43848,30 +43846,30 @@
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Frida Sætrum</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="O298" s="15" t="n">
-        <v>5.03</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="P298" s="7" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>21.01</v>
+        <v>8.09</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -43906,22 +43904,22 @@
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M299" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Frida Sætrum</t>
         </is>
       </c>
       <c r="N299" s="7" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="O299" s="15" t="n">
-        <v>1.51</v>
+        <v>5.03</v>
       </c>
       <c r="P299" s="7" t="n">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="Q299" s="7" t="inlineStr">
         <is>
@@ -43929,7 +43927,7 @@
         </is>
       </c>
       <c r="R299" s="16" t="n">
-        <v>22.02</v>
+        <v>21.01</v>
       </c>
       <c r="T299" s="5" t="n"/>
     </row>
@@ -43964,30 +43962,30 @@
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M300" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N300" s="7" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>10.49</v>
+        <v>1.51</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R300" s="16" t="n">
-        <v>18.06</v>
+        <v>22.02</v>
       </c>
       <c r="T300" s="5" t="n"/>
     </row>
@@ -44022,30 +44020,30 @@
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M301" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Handeland</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N301" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O301" s="15" t="n">
-        <v>4.95</v>
+        <v>10.49</v>
       </c>
       <c r="P301" s="7" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Q301" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R301" s="16" t="n">
-        <v>11.05</v>
+        <v>18.06</v>
       </c>
       <c r="T301" s="5" t="n"/>
     </row>
@@ -44080,30 +44078,30 @@
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M302" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Mathilde Handeland</t>
         </is>
       </c>
       <c r="N302" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O302" s="15" t="n">
-        <v>2.61</v>
+        <v>4.95</v>
       </c>
       <c r="P302" s="7" t="n">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="Q302" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R302" s="16" t="n">
-        <v>10.03</v>
+        <v>11.05</v>
       </c>
       <c r="T302" s="5" t="n"/>
     </row>
@@ -44273,7 +44271,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>9494</v>
+        <v>9582</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -44313,7 +44311,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>19259</v>
+        <v>19347</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -46799,7 +46797,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16519</v>
+        <v>16663</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -46911,7 +46909,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15322</v>
+        <v>15352</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -47023,7 +47021,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>14073</v>
+        <v>14272</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -47047,11 +47045,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(25/8)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>12769</v>
+        <v>12831</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -52515,18 +52513,18 @@
         <v>2006</v>
       </c>
       <c r="E129" s="15" t="n">
-        <v>27.94</v>
+        <v>27.6</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>15.05</v>
+        <v>15.09</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
@@ -52561,30 +52559,30 @@
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Selma Persen Haltbakk</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>8.960000000000001</v>
+        <v>13.41</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>482</v>
+        <v>602</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>8.09</v>
+        <v>14.09</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
@@ -52823,7 +52821,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7404</v>
+        <v>7548</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -52863,7 +52861,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16519</v>
+        <v>16663</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -56501,30 +56499,30 @@
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Isabella Neves Strand</t>
+          <t>Ingrid Slettemeås</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>4.42</v>
+        <v>1.38</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>15.09</v>
+        <v>23.09</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
@@ -56564,25 +56562,25 @@
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Silje Maria Gondim-Roås</t>
+          <t>Isabella Neves Strand</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>4.34</v>
+        <v>4.42</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>25.08</v>
+        <v>15.09</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
@@ -56617,30 +56615,30 @@
     <row r="227" ht="13" customHeight="1">
       <c r="B227" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Slettemeås</t>
+          <t>Silje Maria Gondim-Roås</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
         <v>2010</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>1.35</v>
+        <v>4.34</v>
       </c>
       <c r="F227" s="7" t="n">
         <v>470</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>14.09</v>
+        <v>25.08</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
@@ -56705,7 +56703,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>7501</v>
+        <v>7531</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -56745,7 +56743,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15322</v>
+        <v>15352</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -58972,17 +58970,17 @@
       </c>
       <c r="M291" s="7" t="inlineStr">
         <is>
-          <t>Maja Gundersen Palmgren</t>
+          <t>Matilda Leonora Moen Kasin</t>
         </is>
       </c>
       <c r="N291" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O291" s="15" t="n">
-        <v>8.880000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="P291" s="7" t="n">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="Q291" s="7" t="inlineStr">
         <is>
@@ -58990,7 +58988,7 @@
         </is>
       </c>
       <c r="R291" s="16" t="n">
-        <v>20.03</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="T291" s="5" t="n"/>
     </row>
@@ -59002,25 +59000,25 @@
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>Signe Njerve</t>
+          <t>Solveig T. Haugland</t>
         </is>
       </c>
       <c r="D292" s="7" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E292" s="15" t="n">
-        <v>15.77</v>
+        <v>14.29</v>
       </c>
       <c r="F292" s="7" t="n">
-        <v>276</v>
+        <v>468</v>
       </c>
       <c r="G292" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H292" s="16" t="n">
-        <v>3.09</v>
+        <v>14.09</v>
       </c>
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="14" t="inlineStr">
@@ -59095,18 +59093,18 @@
         <v>2009</v>
       </c>
       <c r="O293" s="15" t="n">
-        <v>29.25</v>
+        <v>28.82</v>
       </c>
       <c r="P293" s="7" t="n">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Skien</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>25.05</v>
+        <v>21.09</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
@@ -59618,17 +59616,17 @@
       </c>
       <c r="M302" s="7" t="inlineStr">
         <is>
-          <t>Matilda Leonora Moen Kasin</t>
+          <t>Maja Gundersen Palmgren</t>
         </is>
       </c>
       <c r="N302" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O302" s="15" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="P302" s="7" t="n">
-        <v>274</v>
+        <v>395</v>
       </c>
       <c r="Q302" s="7" t="inlineStr">
         <is>
@@ -59636,7 +59634,7 @@
         </is>
       </c>
       <c r="R302" s="16" t="n">
-        <v>27.01</v>
+        <v>20.03</v>
       </c>
       <c r="T302" s="5" t="n"/>
     </row>
@@ -59711,7 +59709,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>7113</v>
+        <v>7305</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -59728,7 +59726,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>7447</v>
+        <v>7526</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -60153,22 +60151,22 @@
       <c r="J315" s="5" t="n"/>
       <c r="L315" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M315" s="7" t="inlineStr">
         <is>
-          <t>Matilda Leonora Moen Kasin</t>
+          <t>Viktoria Rebekka Tornholm</t>
         </is>
       </c>
       <c r="N315" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="O315" s="15" t="n">
-        <v>9.19</v>
+        <v>4.14</v>
       </c>
       <c r="P315" s="7" t="n">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="Q315" s="7" t="inlineStr">
         <is>
@@ -60176,7 +60174,7 @@
         </is>
       </c>
       <c r="R315" s="16" t="n">
-        <v>8.050000000000001</v>
+        <v>9.06</v>
       </c>
       <c r="T315" s="5" t="n"/>
     </row>
@@ -60211,60 +60209,60 @@
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M316" s="7" t="inlineStr">
         <is>
-          <t>Viktoria Rebekka Tornholm</t>
+          <t>Violet Victoria Diderique Nijenhuis-Stanchenko</t>
         </is>
       </c>
       <c r="N316" s="7" t="n">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="O316" s="15" t="n">
-        <v>4.14</v>
+        <v>9.24</v>
       </c>
       <c r="P316" s="7" t="n">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q316" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R316" s="16" t="n">
-        <v>9.06</v>
+        <v>22.06</v>
       </c>
       <c r="T316" s="5" t="n"/>
     </row>
     <row r="317" ht="13" customHeight="1">
       <c r="B317" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>Solveig T. Haugland</t>
+          <t>Signe Njerve</t>
         </is>
       </c>
       <c r="D317" s="7" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E317" s="15" t="n">
-        <v>8.710000000000001</v>
+        <v>2.43</v>
       </c>
       <c r="F317" s="7" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G317" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H317" s="16" t="n">
-        <v>16.09</v>
+        <v>13.09</v>
       </c>
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">
@@ -60274,83 +60272,83 @@
       </c>
       <c r="M317" s="7" t="inlineStr">
         <is>
-          <t>Violet Victoria Diderique Nijenhuis-Stanchenko</t>
+          <t>Viktoria Rebekka Tornholm</t>
         </is>
       </c>
       <c r="N317" s="7" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="O317" s="15" t="n">
-        <v>9.24</v>
+        <v>9.26</v>
       </c>
       <c r="P317" s="7" t="n">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q317" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="R317" s="16" t="n">
-        <v>22.06</v>
+        <v>28.01</v>
       </c>
       <c r="T317" s="5" t="n"/>
     </row>
     <row r="318" ht="13" customHeight="1">
       <c r="B318" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>Signe Njerve</t>
+          <t>Solveig T. Haugland</t>
         </is>
       </c>
       <c r="D318" s="7" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E318" s="15" t="n">
-        <v>2.4</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F318" s="7" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G318" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H318" s="16" t="n">
-        <v>15.06</v>
+        <v>16.09</v>
       </c>
       <c r="J318" s="5" t="n"/>
       <c r="L318" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M318" s="7" t="inlineStr">
         <is>
-          <t>Viktoria Rebekka Tornholm</t>
+          <t>Matilda Leonora Moen Kasin</t>
         </is>
       </c>
       <c r="N318" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O318" s="15" t="n">
-        <v>9.26</v>
+        <v>30.8</v>
       </c>
       <c r="P318" s="7" t="n">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="Q318" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Skien</t>
         </is>
       </c>
       <c r="R318" s="16" t="n">
-        <v>28.01</v>
+        <v>21.09</v>
       </c>
       <c r="T318" s="5" t="n"/>
     </row>
@@ -60503,30 +60501,30 @@
       <c r="J321" s="5" t="n"/>
       <c r="L321" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M321" s="7" t="inlineStr">
         <is>
-          <t>Kaja Holte Fjeldstad</t>
+          <t>Anna Martine Ose Vinnstad</t>
         </is>
       </c>
       <c r="N321" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O321" s="15" t="n">
-        <v>3.65</v>
+        <v>1.2</v>
       </c>
       <c r="P321" s="7" t="n">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q321" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Skien</t>
         </is>
       </c>
       <c r="R321" s="16" t="n">
-        <v>15.09</v>
+        <v>21.09</v>
       </c>
       <c r="T321" s="5" t="n"/>
     </row>
@@ -60563,7 +60561,7 @@
         </is>
       </c>
       <c r="F323" s="20" t="n">
-        <v>6960</v>
+        <v>6967</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="19" t="inlineStr">
@@ -60580,7 +60578,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>5322</v>
+        <v>5305</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -60603,7 +60601,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>14073</v>
+        <v>14272</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -60620,7 +60618,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>12769</v>
+        <v>12831</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -60644,7 +60642,7 @@
         </is>
       </c>
       <c r="M327" s="20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -16557,20 +16557,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P262:Q263"/>
-    <mergeCell ref="F210:G211"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F54:G55"/>
-    <mergeCell ref="P314:Q315"/>
-    <mergeCell ref="F314:G315"/>
     <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F106:G107"/>
+    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F158:G159"/>
     <mergeCell ref="P158:Q159"/>
+    <mergeCell ref="F210:G211"/>
     <mergeCell ref="P210:Q211"/>
-    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F262:G263"/>
+    <mergeCell ref="P262:Q263"/>
+    <mergeCell ref="F314:G315"/>
+    <mergeCell ref="P314:Q315"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16641,7 +16641,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18848</v>
+        <v>18877</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -16945,11 +16945,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(24/11)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>15911</v>
+        <v>16399</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -17676,11 +17676,11 @@
       </c>
       <c r="E16" s="17" t="inlineStr">
         <is>
-          <t>15,09,33</t>
+          <t>14,56,57</t>
         </is>
       </c>
       <c r="F16" s="7" t="n">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="G16" s="7" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         </is>
       </c>
       <c r="H16" s="16" t="n">
-        <v>23.08</v>
+        <v>28.09</v>
       </c>
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
@@ -18043,7 +18043,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>9697</v>
+        <v>9726</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -18931,7 +18931,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18848</v>
+        <v>18877</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -28442,25 +28442,25 @@
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Marley Delvyn-Thomas Leader</t>
+          <t>Noah Digernes Merheb</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>5.09</v>
+        <v>5.49</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>393</v>
+        <v>488</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>13.01</v>
+        <v>15.09</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -28495,22 +28495,22 @@
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Oliver Kvalsund Sellereite</t>
+          <t>Marley Delvyn-Thomas Leader</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O273" s="15" t="n">
-        <v>1.45</v>
+        <v>5.09</v>
       </c>
       <c r="P273" s="7" t="n">
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>14.01</v>
+        <v>13.01</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -28551,13 +28551,33 @@
         <v>15.01</v>
       </c>
       <c r="J274" s="5" t="n"/>
-      <c r="L274" s="14" t="n"/>
-      <c r="M274" s="7" t="n"/>
-      <c r="N274" s="7" t="n"/>
-      <c r="O274" s="7" t="n"/>
-      <c r="P274" s="7" t="n"/>
-      <c r="Q274" s="7" t="n"/>
-      <c r="R274" s="21" t="n"/>
+      <c r="L274" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M274" s="7" t="inlineStr">
+        <is>
+          <t>Oliver Kvalsund Sellereite</t>
+        </is>
+      </c>
+      <c r="N274" s="7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="O274" s="15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P274" s="7" t="n">
+        <v>295</v>
+      </c>
+      <c r="Q274" s="7" t="inlineStr">
+        <is>
+          <t>Ulsteinvik</t>
+        </is>
+      </c>
+      <c r="R274" s="16" t="n">
+        <v>14.01</v>
+      </c>
       <c r="T274" s="5" t="n"/>
     </row>
     <row r="275" ht="13" customHeight="1">
@@ -28602,7 +28622,7 @@
         </is>
       </c>
       <c r="M276" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O276" s="19" t="inlineStr">
         <is>
@@ -28610,7 +28630,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>7429</v>
+        <v>7917</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -28642,7 +28662,7 @@
         </is>
       </c>
       <c r="M278" s="20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O278" s="19" t="inlineStr">
         <is>
@@ -28650,7 +28670,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>15911</v>
+        <v>16399</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -30532,20 +30552,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F284:G285"/>
-    <mergeCell ref="P96:Q97"/>
-    <mergeCell ref="P143:Q144"/>
-    <mergeCell ref="P284:Q285"/>
-    <mergeCell ref="F143:G144"/>
     <mergeCell ref="F2:G3"/>
-    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F49:G50"/>
+    <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="F96:G97"/>
+    <mergeCell ref="P96:Q97"/>
+    <mergeCell ref="F143:G144"/>
+    <mergeCell ref="P143:Q144"/>
     <mergeCell ref="F190:G191"/>
+    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="F237:G238"/>
-    <mergeCell ref="P49:Q50"/>
     <mergeCell ref="P237:Q238"/>
-    <mergeCell ref="F96:G97"/>
+    <mergeCell ref="F284:G285"/>
+    <mergeCell ref="P284:Q285"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30980,7 +31000,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>17548</v>
+        <v>17876</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -45237,25 +45257,25 @@
       </c>
       <c r="M331" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Heskestad Mykland</t>
+          <t>Julie Lunde</t>
         </is>
       </c>
       <c r="N331" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="O331" s="15" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="P331" s="7" t="n">
-        <v>362</v>
+        <v>565</v>
       </c>
       <c r="Q331" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R331" s="16" t="n">
-        <v>24.05</v>
+        <v>14.09</v>
       </c>
       <c r="T331" s="5" t="n"/>
     </row>
@@ -45541,7 +45561,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>9059</v>
+        <v>9262</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -46260,30 +46280,30 @@
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M352" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Vilde Sofie Fiskvik</t>
         </is>
       </c>
       <c r="N352" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O352" s="15" t="n">
-        <v>28.76</v>
+        <v>13.85</v>
       </c>
       <c r="P352" s="7" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="Q352" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R352" s="16" t="n">
-        <v>2.03</v>
+        <v>14.09</v>
       </c>
       <c r="T352" s="5" t="n"/>
     </row>
@@ -46318,30 +46338,30 @@
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M353" s="7" t="inlineStr">
         <is>
-          <t>Ea Sofie Trollnes Strømsvåg</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="N353" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O353" s="15" t="n">
-        <v>9.02</v>
+        <v>28.76</v>
       </c>
       <c r="P353" s="7" t="n">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="Q353" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R353" s="16" t="n">
-        <v>28.01</v>
+        <v>2.03</v>
       </c>
       <c r="T353" s="5" t="n"/>
     </row>
@@ -46376,30 +46396,32 @@
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M354" s="7" t="inlineStr">
         <is>
-          <t>Ea Sofie Trollnes Strømsvåg</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N354" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O354" s="15" t="n">
-        <v>29.82</v>
+        <v>2007</v>
+      </c>
+      <c r="O354" s="17" t="inlineStr">
+        <is>
+          <t>1,05,66</t>
+        </is>
       </c>
       <c r="P354" s="7" t="n">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="Q354" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R354" s="16" t="n">
-        <v>15.06</v>
+        <v>14.09</v>
       </c>
       <c r="T354" s="5" t="n"/>
     </row>
@@ -46569,7 +46591,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>8489</v>
+        <v>8614</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -46609,7 +46631,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>17548</v>
+        <v>17876</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -46665,20 +46687,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P262:Q263"/>
-    <mergeCell ref="F210:G211"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F54:G55"/>
-    <mergeCell ref="P314:Q315"/>
-    <mergeCell ref="F314:G315"/>
     <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F106:G107"/>
+    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F158:G159"/>
     <mergeCell ref="P158:Q159"/>
+    <mergeCell ref="F210:G211"/>
     <mergeCell ref="P210:Q211"/>
-    <mergeCell ref="P106:Q107"/>
     <mergeCell ref="F262:G263"/>
+    <mergeCell ref="P262:Q263"/>
+    <mergeCell ref="F314:G315"/>
+    <mergeCell ref="P314:Q315"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -46768,25 +46790,25 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/14)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>18546</v>
+        <v>18579</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(14/1d)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -46796,25 +46818,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/8)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>18414</v>
+        <v>18546</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(14/1d)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -46917,7 +46939,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15761</v>
+        <v>15790</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -46945,7 +46967,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15660</v>
+        <v>15683</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -47202,7 +47224,7 @@
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P2" s="8" t="n">
@@ -47229,7 +47251,7 @@
       </c>
       <c r="M3" s="7" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -47386,25 +47408,25 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Lavinia Wågen Husby</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>8.140000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>692</v>
+        <v>785</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>4.09</v>
+        <v>17.02</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -47444,25 +47466,25 @@
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Lavinia Wågen Husby</t>
+          <t>Live Haugstad Hilton</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>12.85</v>
+        <v>12.08</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>696</v>
+        <v>838</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>2.06</v>
+        <v>28.07</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -47502,25 +47524,25 @@
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstø Jensen</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>26.28</v>
+        <v>25.12</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>704</v>
+        <v>797</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Madison/SD/USA</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>23.04</v>
+        <v>9.02</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -47562,25 +47584,25 @@
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstø Jensen</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>59.97</v>
+        <v>57.19</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Mankato/MN/USA</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>1.05</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -47622,27 +47644,27 @@
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>2,13,61</t>
+          <t>2,13,43</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>4.02</v>
+        <v>15.05</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -47679,32 +47701,30 @@
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Lilli Margaret Gulbrandsen</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O14" s="17" t="inlineStr">
-        <is>
-          <t>4,17,36</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O14" s="15" t="n">
+        <v>8.960000000000001</v>
       </c>
       <c r="P14" s="7" t="n">
-        <v>885</v>
+        <v>787</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>30.05</v>
+        <v>11.02</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -47739,32 +47759,30 @@
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O15" s="17" t="inlineStr">
-        <is>
-          <t>9,08,29</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O15" s="15" t="n">
+        <v>14.62</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>908</v>
+        <v>804</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>18.02</v>
+        <v>22.06</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -47799,24 +47817,22 @@
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O16" s="17" t="inlineStr">
-        <is>
-          <t>16,38,14</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O16" s="15" t="n">
+        <v>59.69</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
@@ -47859,32 +47875,30 @@
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Live Haugstad Hilton</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O17" s="17" t="inlineStr">
-        <is>
-          <t>10,03,43</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O17" s="15" t="n">
+        <v>6.16</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Winston-Salem/NC/USA</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>19.04</v>
+        <v>10.08</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -47924,25 +47938,25 @@
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>Kaja Kleppe Salemonsen</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>12.85</v>
+        <v>11.81</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>858</v>
+        <v>746</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Mankato/MN/USA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>11.05</v>
+        <v>30.08</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -47977,30 +47991,30 @@
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Maria Døske</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>11.61</v>
+        <v>1.33</v>
       </c>
       <c r="P19" s="7" t="n">
         <v>692</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>12.05</v>
+        <v>17.02</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
@@ -48035,30 +48049,30 @@
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Brita Mehl Lode</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>42.76</v>
+        <v>10.92</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>763</v>
+        <v>654</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Tårnby/DEN</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>10.08</v>
+        <v>3.1</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -48093,30 +48107,30 @@
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Thea Dahl</t>
+          <t>Brita Mehl Lode</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>50.2</v>
+        <v>36.64</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>812</v>
+        <v>649</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Sydney/AUS</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>14.03</v>
+        <v>3.1</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -48170,7 +48184,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>10157</v>
+        <v>10009</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -48301,32 +48315,30 @@
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O28" s="17" t="inlineStr">
-        <is>
-          <t>9,13,62</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O28" s="15" t="n">
+        <v>14.76</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>889</v>
+        <v>790</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Boston/MA/USA</t>
+          <t>Austevoll</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>9.02</v>
+        <v>31.08</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -48361,32 +48373,30 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O29" s="17" t="inlineStr">
-        <is>
-          <t>4,18,75</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O29" s="15" t="n">
+        <v>9.01</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>874</v>
+        <v>777</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Lewisburg/PA/USA</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>13.04</v>
+        <v>4.02</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -48421,32 +48431,30 @@
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Othelie Stave-Wigene</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O30" s="17" t="inlineStr">
-        <is>
-          <t>4,35,53</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O30" s="15" t="n">
+        <v>25.47</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R30" s="16" t="n">
-        <v>15.09</v>
+        <v>17.02</v>
       </c>
       <c r="T30" s="5" t="n"/>
     </row>
@@ -48483,32 +48491,30 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Linea Helgevold Fjelldalselv</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O31" s="17" t="inlineStr">
-        <is>
-          <t>4,40,89</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O31" s="15" t="n">
+        <v>12.48</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>719</v>
+        <v>763</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>8.09</v>
+        <v>27.06</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -48545,30 +48551,32 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Lavinia Wågen Husby</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O32" s="15" t="n">
-        <v>26.34</v>
+        <v>2003</v>
+      </c>
+      <c r="O32" s="17" t="inlineStr">
+        <is>
+          <t>1,03,05</t>
+        </is>
       </c>
       <c r="P32" s="7" t="n">
-        <v>699</v>
+        <v>752</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>7.09</v>
+        <v>27.06</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -48603,30 +48611,30 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>11.49</v>
+        <v>5.52</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>686</v>
+        <v>733</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>31.08</v>
+        <v>10.02</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -48661,32 +48669,30 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Linea Helgevold Fjelldalselv</t>
+          <t>Anna Solheim</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O34" s="17" t="inlineStr">
-        <is>
-          <t>2,20,20</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O34" s="15" t="n">
+        <v>26.12</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>665</v>
+        <v>716</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>24.08</v>
+        <v>31.05</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -48721,32 +48727,30 @@
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Tiril Børø Opsøen</t>
+          <t>Isabella Essilfie</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O35" s="17" t="inlineStr">
-        <is>
-          <t>4,51,58</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O35" s="15" t="n">
+        <v>8.140000000000001</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>14.06</v>
+        <v>10.02</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -48786,25 +48790,25 @@
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Maren Storaas Alsaker</t>
+          <t>Isabella Essilfie</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>13.09</v>
+        <v>12.88</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>25.05</v>
+        <v>11.05</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -48844,25 +48848,25 @@
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Emilie Høyland Schou</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>4.92</v>
+        <v>5.31</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>601</v>
+        <v>686</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>24.02</v>
+        <v>10.02</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -48897,30 +48901,30 @@
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Emilie Høyland Schou</t>
+          <t>Lilli Margaret Gulbrandsen</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>2.45</v>
+        <v>4.95</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>4.02</v>
+        <v>10.02</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -48955,22 +48959,22 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Oda Luggenes By</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>1.48</v>
+        <v>30.89</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
@@ -48978,7 +48982,7 @@
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -49032,7 +49036,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>8389</v>
+        <v>8570</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -49072,7 +49076,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>18546</v>
+        <v>18579</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -49096,7 +49100,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -49138,7 +49142,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -49168,7 +49172,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -49308,25 +49312,25 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Lavinia Wågen Husby</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>7.84</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>785</v>
+        <v>692</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>17.02</v>
+        <v>4.09</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -49366,25 +49370,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Live Haugstad Hilton</t>
+          <t>Lavinia Wågen Husby</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>12.08</v>
+        <v>12.85</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>838</v>
+        <v>696</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>28.07</v>
+        <v>2.06</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -49424,25 +49428,25 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Anna Kolstø Jensen</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>25.12</v>
+        <v>26.28</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>797</v>
+        <v>704</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Madison/SD/USA</t>
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>9.02</v>
+        <v>23.04</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -49482,25 +49486,25 @@
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Anna Kolstø Jensen</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E59" s="15" t="n">
-        <v>57.19</v>
+        <v>59.97</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>775</v>
+        <v>680</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Mankato/MN/USA</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
@@ -49540,27 +49544,27 @@
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>2,13,43</t>
+          <t>2,13,61</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>15.05</v>
+        <v>4.02</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -49597,30 +49601,32 @@
     <row r="61" ht="13" customHeight="1">
       <c r="B61" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Lilli Margaret Gulbrandsen</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E61" s="15" t="n">
-        <v>8.960000000000001</v>
+        <v>1999</v>
+      </c>
+      <c r="E61" s="17" t="inlineStr">
+        <is>
+          <t>4,17,36</t>
+        </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>787</v>
+        <v>885</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>11.02</v>
+        <v>30.05</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -49657,30 +49663,32 @@
     <row r="62" ht="13" customHeight="1">
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E62" s="15" t="n">
-        <v>14.62</v>
+        <v>1999</v>
+      </c>
+      <c r="E62" s="17" t="inlineStr">
+        <is>
+          <t>9,08,29</t>
+        </is>
       </c>
       <c r="F62" s="7" t="n">
-        <v>804</v>
+        <v>908</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>22.06</v>
+        <v>18.02</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
@@ -49717,22 +49725,24 @@
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E63" s="15" t="n">
-        <v>59.69</v>
+        <v>1999</v>
+      </c>
+      <c r="E63" s="17" t="inlineStr">
+        <is>
+          <t>16,38,14</t>
+        </is>
       </c>
       <c r="F63" s="7" t="n">
-        <v>853</v>
+        <v>821</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
@@ -49777,30 +49787,32 @@
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E64" s="15" t="n">
-        <v>1.47</v>
+        <v>2000</v>
+      </c>
+      <c r="E64" s="17" t="inlineStr">
+        <is>
+          <t>10,03,43</t>
+        </is>
       </c>
       <c r="F64" s="7" t="n">
-        <v>583</v>
+        <v>897</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Winston-Salem/NC/USA</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>25.05</v>
+        <v>19.04</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -49835,30 +49847,30 @@
     <row r="65" ht="13" customHeight="1">
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Live Haugstad Hilton</t>
+          <t>Kaja Kleppe Salemonsen</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>6.16</v>
+        <v>12.85</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Mankato/MN/USA</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>10.08</v>
+        <v>11.05</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -49893,30 +49905,30 @@
     <row r="66" ht="13" customHeight="1">
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>11.81</v>
+        <v>11.61</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>746</v>
+        <v>692</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Byrkjelo</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>30.08</v>
+        <v>12.05</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -49951,30 +49963,30 @@
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>1.33</v>
+        <v>42.76</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>692</v>
+        <v>763</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Tårnby/DEN</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>17.02</v>
+        <v>10.08</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -50009,30 +50021,30 @@
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Lilli Margaret Gulbrandsen</t>
+          <t>Thea Dahl</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>2.43</v>
+        <v>50.2</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>586</v>
+        <v>812</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sydney/AUS</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>9.02</v>
+        <v>14.03</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -50097,7 +50109,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>9875</v>
+        <v>10157</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -50217,30 +50229,32 @@
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E75" s="15" t="n">
-        <v>14.76</v>
+        <v>2000</v>
+      </c>
+      <c r="E75" s="17" t="inlineStr">
+        <is>
+          <t>9,13,62</t>
+        </is>
       </c>
       <c r="F75" s="7" t="n">
-        <v>790</v>
+        <v>889</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Austevoll</t>
+          <t>Boston/MA/USA</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>31.08</v>
+        <v>9.02</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -50275,30 +50289,32 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E76" s="15" t="n">
-        <v>9.01</v>
+        <v>2000</v>
+      </c>
+      <c r="E76" s="17" t="inlineStr">
+        <is>
+          <t>4,18,75</t>
+        </is>
       </c>
       <c r="F76" s="7" t="n">
-        <v>777</v>
+        <v>874</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Lewisburg/PA/USA</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>4.02</v>
+        <v>13.04</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
@@ -50335,30 +50351,32 @@
     <row r="77" ht="13" customHeight="1">
       <c r="B77" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Othelie Stave-Wigene</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E77" s="15" t="n">
-        <v>25.47</v>
+        <v>2011</v>
+      </c>
+      <c r="E77" s="17" t="inlineStr">
+        <is>
+          <t>4,35,53</t>
+        </is>
       </c>
       <c r="F77" s="7" t="n">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H77" s="16" t="n">
-        <v>17.02</v>
+        <v>15.09</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
@@ -50395,30 +50413,32 @@
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Linea Helgevold Fjelldalselv</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E78" s="15" t="n">
-        <v>12.48</v>
+        <v>2011</v>
+      </c>
+      <c r="E78" s="17" t="inlineStr">
+        <is>
+          <t>4,40,89</t>
+        </is>
       </c>
       <c r="F78" s="7" t="n">
-        <v>763</v>
+        <v>719</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>27.06</v>
+        <v>8.09</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
@@ -50453,32 +50473,30 @@
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Lavinia Wågen Husby</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E79" s="17" t="inlineStr">
-        <is>
-          <t>1,03,05</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E79" s="15" t="n">
+        <v>26.34</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>752</v>
+        <v>699</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>27.06</v>
+        <v>7.09</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -50513,30 +50531,30 @@
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E80" s="15" t="n">
-        <v>5.52</v>
+        <v>11.49</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>733</v>
+        <v>686</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>10.02</v>
+        <v>31.08</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -50571,30 +50589,32 @@
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Anna Solheim</t>
+          <t>Linea Helgevold Fjelldalselv</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E81" s="15" t="n">
-        <v>26.12</v>
+        <v>2011</v>
+      </c>
+      <c r="E81" s="17" t="inlineStr">
+        <is>
+          <t>2,20,20</t>
+        </is>
       </c>
       <c r="F81" s="7" t="n">
-        <v>716</v>
+        <v>665</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>31.05</v>
+        <v>24.08</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
@@ -50629,30 +50649,32 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Isabella Essilfie</t>
+          <t>Tiril Børø Opsøen</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E82" s="15" t="n">
-        <v>8.140000000000001</v>
+        <v>2011</v>
+      </c>
+      <c r="E82" s="17" t="inlineStr">
+        <is>
+          <t>4,51,58</t>
+        </is>
       </c>
       <c r="F82" s="7" t="n">
-        <v>692</v>
+        <v>657</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>10.02</v>
+        <v>14.06</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -50692,25 +50714,25 @@
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Isabella Essilfie</t>
+          <t>Maren Storaas Alsaker</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>12.88</v>
+        <v>13.09</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>691</v>
+        <v>655</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>11.05</v>
+        <v>25.05</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -50750,25 +50772,25 @@
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Emilie Høyland Schou</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>5.31</v>
+        <v>4.92</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>686</v>
+        <v>601</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>10.02</v>
+        <v>24.02</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -50803,30 +50825,30 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Lilli Margaret Gulbrandsen</t>
+          <t>Emilie Høyland Schou</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>4.95</v>
+        <v>2.45</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>10.02</v>
+        <v>4.02</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -50861,30 +50883,30 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Oda Luggenes By</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>4.75</v>
+        <v>1.48</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>10.02</v>
+        <v>2.06</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -50949,7 +50971,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>8539</v>
+        <v>8389</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -50989,7 +51011,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>18414</v>
+        <v>18546</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -51021,7 +51043,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -53376,27 +53398,27 @@
       </c>
       <c r="M153" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Lindland Turner</t>
+          <t>Sofie Engeset</t>
         </is>
       </c>
       <c r="N153" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O153" s="17" t="inlineStr">
         <is>
-          <t>1,02,53</t>
+          <t>1,02,29</t>
         </is>
       </c>
       <c r="P153" s="7" t="n">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="Q153" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R153" s="16" t="n">
-        <v>16.06</v>
+        <v>18.09</v>
       </c>
       <c r="T153" s="5" t="n"/>
     </row>
@@ -53540,19 +53562,19 @@
       </c>
       <c r="E156" s="17" t="inlineStr">
         <is>
-          <t>18,51,67mx</t>
+          <t>18,30,13mx</t>
         </is>
       </c>
       <c r="F156" s="7" t="n">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="G156" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="H156" s="16" t="n">
-        <v>19.06</v>
+        <v>28.09</v>
       </c>
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
@@ -53969,7 +53991,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>8985</v>
+        <v>9014</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -53986,7 +54008,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8751</v>
+        <v>8758</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -54296,27 +54318,27 @@
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Sofie Engeset</t>
+          <t>Charlotte Lindland Turner</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="O172" s="17" t="inlineStr">
         <is>
-          <t>1,03,13</t>
+          <t>1,02,53</t>
         </is>
       </c>
       <c r="P172" s="7" t="n">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>26.05</v>
+        <v>16.06</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
@@ -54836,7 +54858,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>6909</v>
+        <v>6925</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -54859,7 +54881,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15761</v>
+        <v>15790</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -54876,7 +54898,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15660</v>
+        <v>15683</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -59062,7 +59084,7 @@
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>Solveig T. Haugland</t>
+          <t>Solveig Tveit Haugland</t>
         </is>
       </c>
       <c r="D292" s="7" t="n">
@@ -60364,7 +60386,7 @@
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>Solveig T. Haugland</t>
+          <t>Solveig Tveit Haugland</t>
         </is>
       </c>
       <c r="D318" s="7" t="n">
@@ -60736,20 +60758,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F284:G285"/>
-    <mergeCell ref="P96:Q97"/>
-    <mergeCell ref="P143:Q144"/>
-    <mergeCell ref="P284:Q285"/>
-    <mergeCell ref="F143:G144"/>
     <mergeCell ref="F2:G3"/>
-    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="F49:G50"/>
+    <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="F96:G97"/>
+    <mergeCell ref="P96:Q97"/>
+    <mergeCell ref="F143:G144"/>
+    <mergeCell ref="P143:Q144"/>
     <mergeCell ref="F190:G191"/>
+    <mergeCell ref="P190:Q191"/>
     <mergeCell ref="F237:G238"/>
-    <mergeCell ref="P49:Q50"/>
     <mergeCell ref="P237:Q238"/>
-    <mergeCell ref="F96:G97"/>
+    <mergeCell ref="F284:G285"/>
+    <mergeCell ref="P284:Q285"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -808,11 +808,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>23704</v>
+        <v>23798</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -915,25 +915,25 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>Moelven IL</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(30/10)</t>
+          <t>(30/12)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>21596</v>
+        <v>21618</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>(4/2d)</t>
+          <t>(3/2d)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -943,25 +943,25 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(29/12)</t>
+          <t>(30/10)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18908</v>
+        <v>21596</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>(1/2d)</t>
+          <t>(4/2d)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -971,25 +971,25 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Moelven IL</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(29/12)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>18387</v>
+        <v>18908</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>(3/2d)</t>
+          <t>(1/2d)</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -8709,25 +8709,25 @@
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Sondre Thorvik</t>
+          <t>Sondre Alexander Høyland</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>10.28</v>
+        <v>11.29</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>470</v>
+        <v>545</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>25.05</v>
+        <v>20.1</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
@@ -8767,25 +8767,25 @@
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Sondre Thorvik</t>
+          <t>Sondre Alexander Høyland</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>31.68</v>
+        <v>32.52</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>25.05</v>
+        <v>20.1</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -8897,7 +8897,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11568</v>
+        <v>11662</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -9961,7 +9961,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>23704</v>
+        <v>23798</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -9985,7 +9985,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="M262" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="P262" s="8" t="n">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>Moelven IL</t>
         </is>
       </c>
       <c r="T263" s="5" t="n"/>
@@ -12435,25 +12435,25 @@
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Håvard Bentdal Ingvaldsen</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>6.86</v>
+        <v>6.95</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>929</v>
+        <v>886</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>17.02</v>
+        <v>9.02</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -12493,25 +12493,25 @@
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Håvard Bentdal Ingvaldsen</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>10.41</v>
+        <v>10.61</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>1003</v>
+        <v>946</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>27.06</v>
+        <v>25.08</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -12551,25 +12551,25 @@
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Håvard Bentdal Ingvaldsen</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>21.74</v>
+        <v>20.64</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>891</v>
+        <v>1033</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>2.06</v>
+        <v>25.08</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -12609,25 +12609,25 @@
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Håvard Bentdal Ingvaldsen</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>50.81</v>
+        <v>45.19</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>744</v>
+        <v>1064</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>25.05</v>
+        <v>13.09</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -12669,27 +12669,27 @@
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Hans Øyvind Sundve</t>
+          <t>Tesfay Brhane</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="O273" s="17" t="inlineStr">
         <is>
-          <t>2,14,57</t>
+          <t>2,00,16</t>
         </is>
       </c>
       <c r="P273" s="7" t="n">
-        <v>464</v>
+        <v>684</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>15.09</v>
+        <v>18.02</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -12731,27 +12731,27 @@
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Hans Øyvind Sundve</t>
+          <t>Tesfay Brhane</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="O274" s="17" t="inlineStr">
         <is>
-          <t>4,36,36</t>
+          <t>4,12,64</t>
         </is>
       </c>
       <c r="P274" s="7" t="n">
-        <v>485</v>
+        <v>650</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>26.05</v>
+        <v>21.06</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -12793,27 +12793,27 @@
       </c>
       <c r="M275" s="7" t="inlineStr">
         <is>
-          <t>Hans Øyvind Sundve</t>
+          <t>Tesfay Brhane</t>
         </is>
       </c>
       <c r="N275" s="7" t="n">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="O275" s="17" t="inlineStr">
         <is>
-          <t>9,37,31</t>
+          <t>9,19,04</t>
         </is>
       </c>
       <c r="P275" s="7" t="n">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="Q275" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R275" s="16" t="n">
-        <v>14.06</v>
+        <v>22.06</v>
       </c>
       <c r="T275" s="5" t="n"/>
     </row>
@@ -12850,30 +12850,30 @@
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>110m hekk</t>
         </is>
       </c>
       <c r="M276" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Andreas Grimerud</t>
         </is>
       </c>
       <c r="N276" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O276" s="15" t="n">
-        <v>8.56</v>
+        <v>16</v>
       </c>
       <c r="P276" s="7" t="n">
-        <v>805</v>
+        <v>701</v>
       </c>
       <c r="Q276" s="7" t="inlineStr">
         <is>
-          <t>Wroclaw/POL</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R276" s="16" t="n">
-        <v>4.02</v>
+        <v>14.09</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -12910,30 +12910,30 @@
       <c r="J277" s="5" t="n"/>
       <c r="L277" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M277" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin  Giörtz</t>
+          <t>Andreas Grimerud</t>
         </is>
       </c>
       <c r="N277" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O277" s="15" t="n">
-        <v>2</v>
+        <v>51.59</v>
       </c>
       <c r="P277" s="7" t="n">
-        <v>821</v>
+        <v>920</v>
       </c>
       <c r="Q277" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R277" s="16" t="n">
-        <v>29.06</v>
+        <v>29.07</v>
       </c>
       <c r="T277" s="5" t="n"/>
     </row>
@@ -12968,30 +12968,30 @@
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M278" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Carl Emil Kåshagen</t>
         </is>
       </c>
       <c r="N278" s="7" t="n">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="O278" s="15" t="n">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="P278" s="7" t="n">
-        <v>861</v>
+        <v>511</v>
       </c>
       <c r="Q278" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R278" s="16" t="n">
-        <v>18.02</v>
+        <v>13.09</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -13026,30 +13026,30 @@
       <c r="J279" s="5" t="n"/>
       <c r="L279" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M279" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin  Giörtz</t>
+          <t>Carl Emil Kåshagen</t>
         </is>
       </c>
       <c r="N279" s="7" t="n">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="O279" s="15" t="n">
-        <v>6.79</v>
+        <v>3</v>
       </c>
       <c r="P279" s="7" t="n">
-        <v>782</v>
+        <v>500</v>
       </c>
       <c r="Q279" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R279" s="16" t="n">
-        <v>31.08</v>
+        <v>14.09</v>
       </c>
       <c r="T279" s="5" t="n"/>
     </row>
@@ -13084,30 +13084,30 @@
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M280" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin  Giörtz</t>
+          <t>Andreas Grimerud</t>
         </is>
       </c>
       <c r="N280" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O280" s="15" t="n">
-        <v>14.11</v>
+        <v>5.92</v>
       </c>
       <c r="P280" s="7" t="n">
-        <v>787</v>
+        <v>588</v>
       </c>
       <c r="Q280" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R280" s="16" t="n">
-        <v>30.08</v>
+        <v>13.09</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
@@ -13142,30 +13142,30 @@
       <c r="J281" s="5" t="n"/>
       <c r="L281" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M281" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Simensen</t>
+          <t>Magnus Bentdal Ingvaldsen</t>
         </is>
       </c>
       <c r="N281" s="7" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="O281" s="15" t="n">
-        <v>12.86</v>
+        <v>2.79</v>
       </c>
       <c r="P281" s="7" t="n">
-        <v>657</v>
+        <v>555</v>
       </c>
       <c r="Q281" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R281" s="16" t="n">
-        <v>24.08</v>
+        <v>12.04</v>
       </c>
       <c r="T281" s="5" t="n"/>
     </row>
@@ -13200,30 +13200,30 @@
       <c r="J282" s="5" t="n"/>
       <c r="L282" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M282" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Simensen</t>
+          <t>Carl Emil Kåshagen</t>
         </is>
       </c>
       <c r="N282" s="7" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="O282" s="15" t="n">
-        <v>34.15</v>
+        <v>8.99</v>
       </c>
       <c r="P282" s="7" t="n">
-        <v>570</v>
+        <v>372</v>
       </c>
       <c r="Q282" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R282" s="16" t="n">
-        <v>24.08</v>
+        <v>13.09</v>
       </c>
       <c r="T282" s="5" t="n"/>
     </row>
@@ -13263,25 +13263,25 @@
       </c>
       <c r="M283" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Mauritz Kåshagen</t>
         </is>
       </c>
       <c r="N283" s="7" t="n">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="O283" s="15" t="n">
-        <v>49.02</v>
+        <v>32.41</v>
       </c>
       <c r="P283" s="7" t="n">
-        <v>613</v>
+        <v>370</v>
       </c>
       <c r="Q283" s="7" t="inlineStr">
         <is>
-          <t>Reykjavik/ISL</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R283" s="16" t="n">
-        <v>16.06</v>
+        <v>14.09</v>
       </c>
       <c r="T283" s="5" t="n"/>
     </row>
@@ -13335,7 +13335,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>10970</v>
+        <v>10399</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -13468,30 +13468,30 @@
       <c r="J290" s="5" t="n"/>
       <c r="L290" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M290" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Andreas Grimerud</t>
         </is>
       </c>
       <c r="N290" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O290" s="15" t="n">
-        <v>22.11</v>
+        <v>45.9</v>
       </c>
       <c r="P290" s="7" t="n">
-        <v>847</v>
+        <v>1018</v>
       </c>
       <c r="Q290" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="R290" s="16" t="n">
-        <v>7.07</v>
+        <v>18.05</v>
       </c>
       <c r="T290" s="5" t="n"/>
     </row>
@@ -13526,30 +13526,30 @@
       <c r="J291" s="5" t="n"/>
       <c r="L291" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M291" s="7" t="inlineStr">
         <is>
-          <t>Siver Olavsbråten Ebbestad</t>
+          <t>Andreas Grimerud</t>
         </is>
       </c>
       <c r="N291" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O291" s="15" t="n">
-        <v>4.63</v>
+        <v>21.2</v>
       </c>
       <c r="P291" s="7" t="n">
-        <v>838</v>
+        <v>959</v>
       </c>
       <c r="Q291" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R291" s="16" t="n">
-        <v>25.05</v>
+        <v>30.05</v>
       </c>
       <c r="T291" s="5" t="n"/>
     </row>
@@ -13584,30 +13584,30 @@
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M292" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Alexander Løvik Nyheim</t>
         </is>
       </c>
       <c r="N292" s="7" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="O292" s="15" t="n">
-        <v>11.2</v>
+        <v>21.98</v>
       </c>
       <c r="P292" s="7" t="n">
-        <v>791</v>
+        <v>863</v>
       </c>
       <c r="Q292" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R292" s="16" t="n">
-        <v>30.08</v>
+        <v>21.06</v>
       </c>
       <c r="T292" s="5" t="n"/>
     </row>
@@ -13642,30 +13642,30 @@
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M293" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Sjur Grung Thallaug</t>
         </is>
       </c>
       <c r="N293" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O293" s="15" t="n">
-        <v>11.31</v>
+        <v>48.73</v>
       </c>
       <c r="P293" s="7" t="n">
-        <v>765</v>
+        <v>851</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Reykjavik/ISL</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>15.06</v>
+        <v>30.08</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
@@ -13700,30 +13700,30 @@
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M294" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Sondre Matias Rudi</t>
         </is>
       </c>
       <c r="N294" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O294" s="15" t="n">
-        <v>23.41</v>
+        <v>10.97</v>
       </c>
       <c r="P294" s="7" t="n">
-        <v>706</v>
+        <v>849</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Wroclaw/POL</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>4.02</v>
+        <v>18.06</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
@@ -13758,30 +13758,30 @@
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M295" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Sjur Grung Thallaug</t>
         </is>
       </c>
       <c r="N295" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O295" s="15" t="n">
-        <v>7.38</v>
+        <v>22.1</v>
       </c>
       <c r="P295" s="7" t="n">
-        <v>705</v>
+        <v>849</v>
       </c>
       <c r="Q295" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R295" s="16" t="n">
-        <v>9.02</v>
+        <v>26.05</v>
       </c>
       <c r="T295" s="5" t="n"/>
     </row>
@@ -13816,30 +13816,30 @@
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Alexander Løvik Nyheim</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="O296" s="15" t="n">
-        <v>7.38</v>
+        <v>49.09</v>
       </c>
       <c r="P296" s="7" t="n">
-        <v>705</v>
+        <v>832</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>2.03</v>
+        <v>21.08</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -13874,30 +13874,30 @@
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Fredrik Sveen Schonhowd</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O297" s="15" t="n">
-        <v>6.39</v>
+        <v>7.09</v>
       </c>
       <c r="P297" s="7" t="n">
-        <v>694</v>
+        <v>823</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>14.09</v>
+        <v>17.02</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
@@ -13932,30 +13932,30 @@
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Sondre Matias Rudi</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O298" s="15" t="n">
-        <v>11.67</v>
+        <v>22.38</v>
       </c>
       <c r="P298" s="7" t="n">
-        <v>682</v>
+        <v>817</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>1.06</v>
+        <v>21.06</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -13990,30 +13990,30 @@
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M299" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Johannes Eiksund</t>
         </is>
       </c>
       <c r="N299" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O299" s="15" t="n">
-        <v>23.86</v>
+        <v>7.12</v>
       </c>
       <c r="P299" s="7" t="n">
-        <v>661</v>
+        <v>810</v>
       </c>
       <c r="Q299" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R299" s="16" t="n">
-        <v>15.09</v>
+        <v>24.08</v>
       </c>
       <c r="T299" s="5" t="n"/>
     </row>
@@ -14048,30 +14048,30 @@
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M300" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Carl Emil Kåshagen</t>
         </is>
       </c>
       <c r="N300" s="7" t="n">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>7.51</v>
+        <v>5.81</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>657</v>
+        <v>563</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R300" s="16" t="n">
-        <v>20.01</v>
+        <v>13.09</v>
       </c>
       <c r="T300" s="5" t="n"/>
     </row>
@@ -14106,30 +14106,30 @@
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M301" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin  Giörtz</t>
+          <t>Sjur Grung Thallaug</t>
         </is>
       </c>
       <c r="N301" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O301" s="15" t="n">
-        <v>11.8</v>
+        <v>2.75</v>
       </c>
       <c r="P301" s="7" t="n">
-        <v>653</v>
+        <v>532</v>
       </c>
       <c r="Q301" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R301" s="16" t="n">
-        <v>2.08</v>
+        <v>12.04</v>
       </c>
       <c r="T301" s="5" t="n"/>
     </row>
@@ -14164,30 +14164,30 @@
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M302" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Alexander Løvik Nyheim</t>
         </is>
       </c>
       <c r="N302" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="O302" s="15" t="n">
-        <v>1.8</v>
+        <v>5.55</v>
       </c>
       <c r="P302" s="7" t="n">
-        <v>652</v>
+        <v>503</v>
       </c>
       <c r="Q302" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R302" s="16" t="n">
-        <v>25.05</v>
+        <v>13.09</v>
       </c>
       <c r="T302" s="5" t="n"/>
     </row>
@@ -14222,30 +14222,30 @@
       <c r="J303" s="5" t="n"/>
       <c r="L303" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M303" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Elias Tveitane Furuseth</t>
         </is>
       </c>
       <c r="N303" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O303" s="15" t="n">
-        <v>3.61</v>
+        <v>2.7</v>
       </c>
       <c r="P303" s="7" t="n">
-        <v>639</v>
+        <v>503</v>
       </c>
       <c r="Q303" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R303" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>18.02</v>
       </c>
       <c r="T303" s="5" t="n"/>
     </row>
@@ -14280,30 +14280,30 @@
       <c r="J304" s="5" t="n"/>
       <c r="L304" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M304" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Alexander Løvik Nyheim</t>
         </is>
       </c>
       <c r="N304" s="7" t="n">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="O304" s="15" t="n">
-        <v>12.65</v>
+        <v>2.8</v>
       </c>
       <c r="P304" s="7" t="n">
-        <v>631</v>
+        <v>447</v>
       </c>
       <c r="Q304" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R304" s="16" t="n">
-        <v>31.08</v>
+        <v>14.09</v>
       </c>
       <c r="T304" s="5" t="n"/>
     </row>
@@ -14357,7 +14357,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>10626</v>
+        <v>11219</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>21596</v>
+        <v>21618</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="M310" s="20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="C314" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="F314" s="8" t="n">
@@ -14477,7 +14477,7 @@
       </c>
       <c r="M314" s="7" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="P314" s="8" t="n">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>Sørild FIK</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="J315" s="5" t="n"/>
@@ -14504,7 +14504,7 @@
       </c>
       <c r="M315" s="7" t="inlineStr">
         <is>
-          <t>Moelven IL</t>
+          <t>Sørild FIK</t>
         </is>
       </c>
       <c r="T315" s="5" t="n"/>
@@ -14633,25 +14633,25 @@
       </c>
       <c r="C321" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D321" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E321" s="15" t="n">
-        <v>7.06</v>
+        <v>6.86</v>
       </c>
       <c r="F321" s="7" t="n">
-        <v>836</v>
+        <v>929</v>
       </c>
       <c r="G321" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H321" s="16" t="n">
-        <v>24.08</v>
+        <v>17.02</v>
       </c>
       <c r="J321" s="5" t="n"/>
       <c r="L321" s="14" t="inlineStr">
@@ -14661,25 +14661,25 @@
       </c>
       <c r="M321" s="7" t="inlineStr">
         <is>
-          <t>Håvard Bentdal Ingvaldsen</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N321" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O321" s="15" t="n">
-        <v>6.95</v>
+        <v>7.06</v>
       </c>
       <c r="P321" s="7" t="n">
-        <v>886</v>
+        <v>836</v>
       </c>
       <c r="Q321" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R321" s="16" t="n">
-        <v>9.02</v>
+        <v>24.08</v>
       </c>
       <c r="T321" s="5" t="n"/>
     </row>
@@ -14691,25 +14691,25 @@
       </c>
       <c r="C322" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D322" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="E322" s="15" t="n">
-        <v>10.39</v>
+        <v>10.41</v>
       </c>
       <c r="F322" s="7" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="G322" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H322" s="16" t="n">
-        <v>18.07</v>
+        <v>27.06</v>
       </c>
       <c r="J322" s="5" t="n"/>
       <c r="L322" s="14" t="inlineStr">
@@ -14719,25 +14719,25 @@
       </c>
       <c r="M322" s="7" t="inlineStr">
         <is>
-          <t>Håvard Bentdal Ingvaldsen</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="N322" s="7" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="O322" s="15" t="n">
-        <v>10.61</v>
+        <v>10.39</v>
       </c>
       <c r="P322" s="7" t="n">
-        <v>946</v>
+        <v>1009</v>
       </c>
       <c r="Q322" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R322" s="16" t="n">
-        <v>25.08</v>
+        <v>18.07</v>
       </c>
       <c r="T322" s="5" t="n"/>
     </row>
@@ -14749,17 +14749,17 @@
       </c>
       <c r="C323" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D323" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="E323" s="15" t="n">
-        <v>21.45</v>
+        <v>21.74</v>
       </c>
       <c r="F323" s="7" t="n">
-        <v>927</v>
+        <v>891</v>
       </c>
       <c r="G323" s="7" t="inlineStr">
         <is>
@@ -14777,25 +14777,25 @@
       </c>
       <c r="M323" s="7" t="inlineStr">
         <is>
-          <t>Håvard Bentdal Ingvaldsen</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="N323" s="7" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="O323" s="15" t="n">
-        <v>20.64</v>
+        <v>21.45</v>
       </c>
       <c r="P323" s="7" t="n">
-        <v>1033</v>
+        <v>927</v>
       </c>
       <c r="Q323" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R323" s="16" t="n">
-        <v>25.08</v>
+        <v>2.06</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -14807,25 +14807,25 @@
       </c>
       <c r="C324" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D324" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E324" s="15" t="n">
-        <v>49.42</v>
+        <v>50.81</v>
       </c>
       <c r="F324" s="7" t="n">
-        <v>814</v>
+        <v>744</v>
       </c>
       <c r="G324" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H324" s="16" t="n">
-        <v>27.06</v>
+        <v>25.05</v>
       </c>
       <c r="J324" s="5" t="n"/>
       <c r="L324" s="14" t="inlineStr">
@@ -14835,25 +14835,25 @@
       </c>
       <c r="M324" s="7" t="inlineStr">
         <is>
-          <t>Håvard Bentdal Ingvaldsen</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N324" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O324" s="15" t="n">
-        <v>45.19</v>
+        <v>49.42</v>
       </c>
       <c r="P324" s="7" t="n">
-        <v>1064</v>
+        <v>814</v>
       </c>
       <c r="Q324" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R324" s="16" t="n">
-        <v>13.09</v>
+        <v>27.06</v>
       </c>
       <c r="T324" s="5" t="n"/>
     </row>
@@ -14865,27 +14865,27 @@
       </c>
       <c r="C325" s="7" t="inlineStr">
         <is>
-          <t>Stian Flo</t>
+          <t>Hans Øyvind Sundve</t>
         </is>
       </c>
       <c r="D325" s="7" t="n">
-        <v>1985</v>
+        <v>2008</v>
       </c>
       <c r="E325" s="17" t="inlineStr">
         <is>
-          <t>1,59,19</t>
+          <t>2,14,57</t>
         </is>
       </c>
       <c r="F325" s="7" t="n">
-        <v>703</v>
+        <v>464</v>
       </c>
       <c r="G325" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H325" s="16" t="n">
-        <v>22.08</v>
+        <v>15.09</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="14" t="inlineStr">
@@ -14895,27 +14895,27 @@
       </c>
       <c r="M325" s="7" t="inlineStr">
         <is>
-          <t>Tesfay Brhane</t>
+          <t>Stian Flo</t>
         </is>
       </c>
       <c r="N325" s="7" t="n">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="O325" s="17" t="inlineStr">
         <is>
-          <t>2,00,16</t>
+          <t>1,59,19</t>
         </is>
       </c>
       <c r="P325" s="7" t="n">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="Q325" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R325" s="16" t="n">
-        <v>18.02</v>
+        <v>22.08</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -14927,27 +14927,27 @@
       </c>
       <c r="C326" s="7" t="inlineStr">
         <is>
-          <t>Dennis Bergstrøm-Bendixen</t>
+          <t>Hans Øyvind Sundve</t>
         </is>
       </c>
       <c r="D326" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E326" s="17" t="inlineStr">
         <is>
-          <t>4,06,14</t>
+          <t>4,36,36</t>
         </is>
       </c>
       <c r="F326" s="7" t="n">
-        <v>704</v>
+        <v>485</v>
       </c>
       <c r="G326" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H326" s="16" t="n">
-        <v>2.08</v>
+        <v>26.05</v>
       </c>
       <c r="J326" s="5" t="n"/>
       <c r="L326" s="14" t="inlineStr">
@@ -14957,27 +14957,27 @@
       </c>
       <c r="M326" s="7" t="inlineStr">
         <is>
-          <t>Tesfay Brhane</t>
+          <t>Dennis Bergstrøm-Bendixen</t>
         </is>
       </c>
       <c r="N326" s="7" t="n">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="O326" s="17" t="inlineStr">
         <is>
-          <t>4,12,64</t>
+          <t>4,06,14</t>
         </is>
       </c>
       <c r="P326" s="7" t="n">
-        <v>650</v>
+        <v>704</v>
       </c>
       <c r="Q326" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R326" s="16" t="n">
-        <v>21.06</v>
+        <v>2.08</v>
       </c>
       <c r="T326" s="5" t="n"/>
     </row>
@@ -14989,27 +14989,27 @@
       </c>
       <c r="C327" s="7" t="inlineStr">
         <is>
-          <t>Dennis Bergstrøm-Bendixen</t>
+          <t>Hans Øyvind Sundve</t>
         </is>
       </c>
       <c r="D327" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E327" s="17" t="inlineStr">
         <is>
-          <t>8,48,14</t>
+          <t>9,37,31</t>
         </is>
       </c>
       <c r="F327" s="7" t="n">
-        <v>735</v>
+        <v>558</v>
       </c>
       <c r="G327" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H327" s="16" t="n">
-        <v>30.08</v>
+        <v>14.06</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="14" t="inlineStr">
@@ -15019,87 +15019,87 @@
       </c>
       <c r="M327" s="7" t="inlineStr">
         <is>
-          <t>Tesfay Brhane</t>
+          <t>Dennis Bergstrøm-Bendixen</t>
         </is>
       </c>
       <c r="N327" s="7" t="n">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="O327" s="17" t="inlineStr">
         <is>
-          <t>9,19,04</t>
+          <t>8,48,14</t>
         </is>
       </c>
       <c r="P327" s="7" t="n">
-        <v>619</v>
+        <v>735</v>
       </c>
       <c r="Q327" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R327" s="16" t="n">
-        <v>22.06</v>
+        <v>30.08</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>
     <row r="328" ht="13" customHeight="1">
       <c r="B328" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>Stian Flo</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D328" s="7" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E328" s="17" t="inlineStr">
-        <is>
-          <t>15,51,8</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E328" s="15" t="n">
+        <v>8.56</v>
       </c>
       <c r="F328" s="7" t="n">
-        <v>662</v>
+        <v>805</v>
       </c>
       <c r="G328" s="7" t="inlineStr">
         <is>
-          <t>Fevik</t>
+          <t>Wroclaw/POL</t>
         </is>
       </c>
       <c r="H328" s="16" t="n">
-        <v>5.05</v>
+        <v>4.02</v>
       </c>
       <c r="J328" s="5" t="n"/>
       <c r="L328" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M328" s="7" t="inlineStr">
         <is>
-          <t>Andreas Grimerud</t>
+          <t>Stian Flo</t>
         </is>
       </c>
       <c r="N328" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O328" s="15" t="n">
-        <v>51.59</v>
+        <v>1985</v>
+      </c>
+      <c r="O328" s="17" t="inlineStr">
+        <is>
+          <t>15,51,8</t>
+        </is>
       </c>
       <c r="P328" s="7" t="n">
-        <v>920</v>
+        <v>662</v>
       </c>
       <c r="Q328" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Fevik</t>
         </is>
       </c>
       <c r="R328" s="16" t="n">
-        <v>29.07</v>
+        <v>5.05</v>
       </c>
       <c r="T328" s="5" t="n"/>
     </row>
@@ -15111,83 +15111,83 @@
       </c>
       <c r="C329" s="7" t="inlineStr">
         <is>
-          <t>Brage Henriksen</t>
+          <t>Marcus Valentin  Giörtz</t>
         </is>
       </c>
       <c r="D329" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E329" s="15" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="F329" s="7" t="n">
-        <v>306</v>
+        <v>821</v>
       </c>
       <c r="G329" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H329" s="16" t="n">
-        <v>8.09</v>
+        <v>29.06</v>
       </c>
       <c r="J329" s="5" t="n"/>
       <c r="L329" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M329" s="7" t="inlineStr">
         <is>
-          <t>Marius Kalseth</t>
+          <t>Brage Henriksen</t>
         </is>
       </c>
       <c r="N329" s="7" t="n">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="O329" s="15" t="n">
-        <v>2.8</v>
+        <v>1.46</v>
       </c>
       <c r="P329" s="7" t="n">
-        <v>447</v>
+        <v>306</v>
       </c>
       <c r="Q329" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R329" s="16" t="n">
-        <v>27.01</v>
+        <v>8.09</v>
       </c>
       <c r="T329" s="5" t="n"/>
     </row>
     <row r="330" ht="13" customHeight="1">
       <c r="B330" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C330" s="7" t="inlineStr">
         <is>
-          <t>Johan Magnus Bjørgan</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D330" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E330" s="15" t="n">
-        <v>6.15</v>
+        <v>4.75</v>
       </c>
       <c r="F330" s="7" t="n">
-        <v>640</v>
+        <v>861</v>
       </c>
       <c r="G330" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H330" s="16" t="n">
-        <v>12.05</v>
+        <v>18.02</v>
       </c>
       <c r="J330" s="5" t="n"/>
       <c r="L330" s="14" t="inlineStr">
@@ -15197,122 +15197,142 @@
       </c>
       <c r="M330" s="7" t="inlineStr">
         <is>
-          <t>Dag Eivind Kåshagen</t>
+          <t>Johan Magnus Bjørgan</t>
         </is>
       </c>
       <c r="N330" s="7" t="n">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="O330" s="15" t="n">
-        <v>4.17</v>
+        <v>6.15</v>
       </c>
       <c r="P330" s="7" t="n">
-        <v>163</v>
+        <v>640</v>
       </c>
       <c r="Q330" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R330" s="16" t="n">
-        <v>21.06</v>
+        <v>12.05</v>
       </c>
       <c r="T330" s="5" t="n"/>
     </row>
     <row r="331" ht="13" customHeight="1">
       <c r="B331" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C331" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Marcus Valentin  Giörtz</t>
         </is>
       </c>
       <c r="D331" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E331" s="15" t="n">
-        <v>1.64</v>
+        <v>6.79</v>
       </c>
       <c r="F331" s="7" t="n">
-        <v>826</v>
+        <v>782</v>
       </c>
       <c r="G331" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H331" s="16" t="n">
-        <v>18.02</v>
+        <v>31.08</v>
       </c>
       <c r="J331" s="5" t="n"/>
       <c r="L331" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M331" s="7" t="inlineStr">
         <is>
-          <t>Magnus Bentdal Ingvaldsen</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="N331" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O331" s="15" t="n">
-        <v>2.79</v>
+        <v>1.64</v>
       </c>
       <c r="P331" s="7" t="n">
-        <v>555</v>
+        <v>826</v>
       </c>
       <c r="Q331" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R331" s="16" t="n">
-        <v>12.04</v>
+        <v>18.02</v>
       </c>
       <c r="T331" s="5" t="n"/>
     </row>
     <row r="332" ht="13" customHeight="1">
       <c r="B332" s="14" t="inlineStr">
         <is>
+          <t>Tresteg</t>
+        </is>
+      </c>
+      <c r="C332" s="7" t="inlineStr">
+        <is>
+          <t>Marcus Valentin  Giörtz</t>
+        </is>
+      </c>
+      <c r="D332" s="7" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E332" s="15" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="F332" s="7" t="n">
+        <v>787</v>
+      </c>
+      <c r="G332" s="7" t="inlineStr">
+        <is>
+          <t>Oslo/Bi</t>
+        </is>
+      </c>
+      <c r="H332" s="16" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="J332" s="5" t="n"/>
+      <c r="L332" s="14" t="inlineStr">
+        <is>
           <t>Lengde u.t</t>
         </is>
       </c>
-      <c r="C332" s="7" t="inlineStr">
+      <c r="M332" s="7" t="inlineStr">
         <is>
           <t>Jonathan Askeland</t>
         </is>
       </c>
-      <c r="D332" s="7" t="n">
+      <c r="N332" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E332" s="15" t="n">
+      <c r="O332" s="15" t="n">
         <v>3.04</v>
       </c>
-      <c r="F332" s="7" t="n">
+      <c r="P332" s="7" t="n">
         <v>694</v>
       </c>
-      <c r="G332" s="7" t="inlineStr">
+      <c r="Q332" s="7" t="inlineStr">
         <is>
           <t>Steinkjer</t>
         </is>
       </c>
-      <c r="H332" s="16" t="n">
+      <c r="R332" s="16" t="n">
         <v>17.02</v>
       </c>
-      <c r="J332" s="5" t="n"/>
-      <c r="L332" s="14" t="n"/>
-      <c r="M332" s="7" t="n"/>
-      <c r="N332" s="7" t="n"/>
-      <c r="O332" s="7" t="n"/>
-      <c r="P332" s="7" t="n"/>
-      <c r="Q332" s="7" t="n"/>
-      <c r="R332" s="21" t="n"/>
       <c r="T332" s="5" t="n"/>
     </row>
     <row r="333" ht="13" customHeight="1">
@@ -15323,82 +15343,142 @@
       </c>
       <c r="C333" s="7" t="inlineStr">
         <is>
+          <t>Fredrik Simensen</t>
+        </is>
+      </c>
+      <c r="D333" s="7" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E333" s="15" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="F333" s="7" t="n">
+        <v>657</v>
+      </c>
+      <c r="G333" s="7" t="inlineStr">
+        <is>
+          <t>Sande</t>
+        </is>
+      </c>
+      <c r="H333" s="16" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="J333" s="5" t="n"/>
+      <c r="L333" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M333" s="7" t="inlineStr">
+        <is>
           <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
-      <c r="D333" s="7" t="n">
+      <c r="N333" s="7" t="n">
         <v>1999</v>
       </c>
-      <c r="E333" s="15" t="n">
+      <c r="O333" s="15" t="n">
         <v>9.76</v>
       </c>
-      <c r="F333" s="7" t="n">
+      <c r="P333" s="7" t="n">
         <v>431</v>
       </c>
-      <c r="G333" s="7" t="inlineStr">
+      <c r="Q333" s="7" t="inlineStr">
         <is>
           <t>Grimstad</t>
         </is>
       </c>
-      <c r="H333" s="16" t="n">
+      <c r="R333" s="16" t="n">
         <v>12.05</v>
       </c>
-      <c r="J333" s="5" t="n"/>
-      <c r="L333" s="14" t="n"/>
-      <c r="M333" s="7" t="n"/>
-      <c r="N333" s="7" t="n"/>
-      <c r="O333" s="7" t="n"/>
-      <c r="P333" s="7" t="n"/>
-      <c r="Q333" s="7" t="n"/>
-      <c r="R333" s="21" t="n"/>
       <c r="T333" s="5" t="n"/>
     </row>
     <row r="334" ht="13" customHeight="1">
       <c r="B334" s="14" t="inlineStr">
         <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C334" s="7" t="inlineStr">
+        <is>
+          <t>Fredrik Simensen</t>
+        </is>
+      </c>
+      <c r="D334" s="7" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E334" s="15" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="F334" s="7" t="n">
+        <v>570</v>
+      </c>
+      <c r="G334" s="7" t="inlineStr">
+        <is>
+          <t>Sande</t>
+        </is>
+      </c>
+      <c r="H334" s="16" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="J334" s="5" t="n"/>
+      <c r="L334" s="14" t="inlineStr">
+        <is>
           <t>Spyd</t>
         </is>
       </c>
-      <c r="C334" s="7" t="inlineStr">
+      <c r="M334" s="7" t="inlineStr">
         <is>
           <t>Sander N. H. Rønning</t>
         </is>
       </c>
-      <c r="D334" s="7" t="n">
+      <c r="N334" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E334" s="15" t="n">
+      <c r="O334" s="15" t="n">
         <v>33.7</v>
       </c>
-      <c r="F334" s="7" t="n">
+      <c r="P334" s="7" t="n">
         <v>391</v>
       </c>
-      <c r="G334" s="7" t="inlineStr">
+      <c r="Q334" s="7" t="inlineStr">
         <is>
           <t>Grimstad</t>
         </is>
       </c>
-      <c r="H334" s="16" t="n">
+      <c r="R334" s="16" t="n">
         <v>18.09</v>
       </c>
-      <c r="J334" s="5" t="n"/>
-      <c r="L334" s="14" t="n"/>
-      <c r="M334" s="7" t="n"/>
-      <c r="N334" s="7" t="n"/>
-      <c r="O334" s="7" t="n"/>
-      <c r="P334" s="7" t="n"/>
-      <c r="Q334" s="7" t="n"/>
-      <c r="R334" s="21" t="n"/>
       <c r="T334" s="5" t="n"/>
     </row>
     <row r="335" ht="13" customHeight="1">
-      <c r="B335" s="14" t="n"/>
-      <c r="C335" s="7" t="n"/>
-      <c r="D335" s="7" t="n"/>
-      <c r="E335" s="7" t="n"/>
-      <c r="F335" s="7" t="n"/>
-      <c r="G335" s="7" t="n"/>
-      <c r="H335" s="21" t="n"/>
+      <c r="B335" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C335" s="7" t="inlineStr">
+        <is>
+          <t>Simen Johan Teigstad</t>
+        </is>
+      </c>
+      <c r="D335" s="7" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E335" s="15" t="n">
+        <v>49.02</v>
+      </c>
+      <c r="F335" s="7" t="n">
+        <v>613</v>
+      </c>
+      <c r="G335" s="7" t="inlineStr">
+        <is>
+          <t>Reykjavik/ISL</t>
+        </is>
+      </c>
+      <c r="H335" s="16" t="n">
+        <v>16.06</v>
+      </c>
       <c r="J335" s="5" t="n"/>
       <c r="L335" s="14" t="n"/>
       <c r="M335" s="7" t="n"/>
@@ -15434,7 +15514,7 @@
         </is>
       </c>
       <c r="C337" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E337" s="19" t="inlineStr">
         <is>
@@ -15442,7 +15522,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>9678</v>
+        <v>10970</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -15451,7 +15531,7 @@
         </is>
       </c>
       <c r="M337" s="20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O337" s="19" t="inlineStr">
         <is>
@@ -15459,7 +15539,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>7967</v>
+        <v>9678</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -15567,141 +15647,141 @@
       </c>
       <c r="C342" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D342" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E342" s="15" t="n">
-        <v>22.07</v>
+        <v>22.11</v>
       </c>
       <c r="F342" s="7" t="n">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G342" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H342" s="16" t="n">
-        <v>1.09</v>
+        <v>7.07</v>
       </c>
       <c r="J342" s="5" t="n"/>
       <c r="L342" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M342" s="7" t="inlineStr">
         <is>
-          <t>Andreas Grimerud</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N342" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O342" s="15" t="n">
-        <v>45.9</v>
+        <v>22.07</v>
       </c>
       <c r="P342" s="7" t="n">
-        <v>1018</v>
+        <v>852</v>
       </c>
       <c r="Q342" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R342" s="16" t="n">
-        <v>18.05</v>
+        <v>1.09</v>
       </c>
       <c r="T342" s="5" t="n"/>
     </row>
     <row r="343" ht="13" customHeight="1">
       <c r="B343" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
         <is>
-          <t>Elias Solheim Sollid</t>
+          <t>Siver Olavsbråten Ebbestad</t>
         </is>
       </c>
       <c r="D343" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E343" s="15" t="n">
-        <v>11.03</v>
+        <v>4.63</v>
       </c>
       <c r="F343" s="7" t="n">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="G343" s="7" t="inlineStr">
         <is>
-          <t>Skara/SWE</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="H343" s="16" t="n">
-        <v>6.06</v>
+        <v>25.05</v>
       </c>
       <c r="J343" s="5" t="n"/>
       <c r="L343" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M343" s="7" t="inlineStr">
         <is>
-          <t>Andreas Grimerud</t>
+          <t>Elias Solheim Sollid</t>
         </is>
       </c>
       <c r="N343" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O343" s="15" t="n">
-        <v>21.2</v>
+        <v>11.03</v>
       </c>
       <c r="P343" s="7" t="n">
-        <v>959</v>
+        <v>834</v>
       </c>
       <c r="Q343" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Skara/SWE</t>
         </is>
       </c>
       <c r="R343" s="16" t="n">
-        <v>30.05</v>
+        <v>6.06</v>
       </c>
       <c r="T343" s="5" t="n"/>
     </row>
     <row r="344" ht="13" customHeight="1">
       <c r="B344" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D344" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E344" s="15" t="n">
-        <v>22.28</v>
+        <v>11.2</v>
       </c>
       <c r="F344" s="7" t="n">
-        <v>828</v>
+        <v>791</v>
       </c>
       <c r="G344" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H344" s="16" t="n">
-        <v>20.01</v>
+        <v>30.08</v>
       </c>
       <c r="J344" s="5" t="n"/>
       <c r="L344" s="14" t="inlineStr">
@@ -15711,287 +15791,287 @@
       </c>
       <c r="M344" s="7" t="inlineStr">
         <is>
-          <t>Alexander Løvik Nyheim</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N344" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O344" s="15" t="n">
-        <v>21.98</v>
+        <v>22.28</v>
       </c>
       <c r="P344" s="7" t="n">
-        <v>863</v>
+        <v>828</v>
       </c>
       <c r="Q344" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R344" s="16" t="n">
-        <v>21.06</v>
+        <v>20.01</v>
       </c>
       <c r="T344" s="5" t="n"/>
     </row>
     <row r="345" ht="13" customHeight="1">
       <c r="B345" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D345" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E345" s="15" t="n">
-        <v>7.12</v>
+        <v>11.31</v>
       </c>
       <c r="F345" s="7" t="n">
-        <v>810</v>
+        <v>765</v>
       </c>
       <c r="G345" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Reykjavik/ISL</t>
         </is>
       </c>
       <c r="H345" s="16" t="n">
-        <v>20.01</v>
+        <v>15.06</v>
       </c>
       <c r="J345" s="5" t="n"/>
       <c r="L345" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M345" s="7" t="inlineStr">
         <is>
-          <t>Sjur Grung Thallaug</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N345" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O345" s="15" t="n">
-        <v>48.73</v>
+        <v>7.12</v>
       </c>
       <c r="P345" s="7" t="n">
-        <v>851</v>
+        <v>810</v>
       </c>
       <c r="Q345" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R345" s="16" t="n">
-        <v>30.08</v>
+        <v>20.01</v>
       </c>
       <c r="T345" s="5" t="n"/>
     </row>
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E346" s="15" t="n">
-        <v>49.84</v>
+        <v>23.41</v>
       </c>
       <c r="F346" s="7" t="n">
-        <v>792</v>
+        <v>706</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Wroclaw/POL</t>
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>14.01</v>
+        <v>4.02</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M346" s="7" t="inlineStr">
         <is>
-          <t>Sondre Matias Rudi</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N346" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="O346" s="15" t="n">
-        <v>10.97</v>
+        <v>49.84</v>
       </c>
       <c r="P346" s="7" t="n">
-        <v>849</v>
+        <v>792</v>
       </c>
       <c r="Q346" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R346" s="16" t="n">
-        <v>18.06</v>
+        <v>14.01</v>
       </c>
       <c r="T346" s="5" t="n"/>
     </row>
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>Andreas Solheim Sollid</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D347" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>11.25</v>
+        <v>7.38</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>779</v>
+        <v>705</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>1.06</v>
+        <v>9.02</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M347" s="7" t="inlineStr">
         <is>
-          <t>Sjur Grung Thallaug</t>
+          <t>Andreas Solheim Sollid</t>
         </is>
       </c>
       <c r="N347" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O347" s="15" t="n">
-        <v>22.1</v>
+        <v>11.25</v>
       </c>
       <c r="P347" s="7" t="n">
-        <v>849</v>
+        <v>779</v>
       </c>
       <c r="Q347" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R347" s="16" t="n">
-        <v>26.05</v>
+        <v>1.06</v>
       </c>
       <c r="T347" s="5" t="n"/>
     </row>
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D348" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>11.38</v>
+        <v>7.38</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>748</v>
+        <v>705</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>15.05</v>
+        <v>2.03</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M348" s="7" t="inlineStr">
         <is>
-          <t>Alexander Løvik Nyheim</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="N348" s="7" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="O348" s="15" t="n">
-        <v>49.09</v>
+        <v>11.38</v>
       </c>
       <c r="P348" s="7" t="n">
-        <v>832</v>
+        <v>748</v>
       </c>
       <c r="Q348" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R348" s="16" t="n">
-        <v>21.08</v>
+        <v>15.05</v>
       </c>
       <c r="T348" s="5" t="n"/>
     </row>
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Askeland</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E349" s="15" t="n">
-        <v>7.29</v>
+        <v>6.39</v>
       </c>
       <c r="F349" s="7" t="n">
-        <v>740</v>
+        <v>694</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>20.01</v>
+        <v>14.09</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
@@ -16001,414 +16081,434 @@
       </c>
       <c r="M349" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sveen Schonhowd</t>
+          <t>Jonathan Askeland</t>
         </is>
       </c>
       <c r="N349" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="O349" s="15" t="n">
-        <v>7.09</v>
+        <v>7.29</v>
       </c>
       <c r="P349" s="7" t="n">
-        <v>823</v>
+        <v>740</v>
       </c>
       <c r="Q349" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R349" s="16" t="n">
-        <v>17.02</v>
+        <v>20.01</v>
       </c>
       <c r="T349" s="5" t="n"/>
     </row>
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D350" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="E350" s="15" t="n">
-        <v>7.32</v>
+        <v>11.67</v>
       </c>
       <c r="F350" s="7" t="n">
-        <v>728</v>
+        <v>682</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H350" s="16" t="n">
-        <v>20.01</v>
+        <v>1.06</v>
       </c>
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M350" s="7" t="inlineStr">
         <is>
-          <t>Sondre Matias Rudi</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="N350" s="7" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="O350" s="15" t="n">
-        <v>22.38</v>
+        <v>7.32</v>
       </c>
       <c r="P350" s="7" t="n">
-        <v>817</v>
+        <v>728</v>
       </c>
       <c r="Q350" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R350" s="16" t="n">
-        <v>21.06</v>
+        <v>20.01</v>
       </c>
       <c r="T350" s="5" t="n"/>
     </row>
     <row r="351" ht="13" customHeight="1">
       <c r="B351" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>Dennis Bergstrøm-Bendixen</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D351" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E351" s="17" t="inlineStr">
-        <is>
-          <t>1,59,35</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E351" s="15" t="n">
+        <v>23.86</v>
       </c>
       <c r="F351" s="7" t="n">
-        <v>700</v>
+        <v>661</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>1.09</v>
+        <v>15.09</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M351" s="7" t="inlineStr">
         <is>
-          <t>Johannes Eiksund</t>
+          <t>Dennis Bergstrøm-Bendixen</t>
         </is>
       </c>
       <c r="N351" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O351" s="15" t="n">
-        <v>7.12</v>
+        <v>2006</v>
+      </c>
+      <c r="O351" s="17" t="inlineStr">
+        <is>
+          <t>1,59,35</t>
+        </is>
       </c>
       <c r="P351" s="7" t="n">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="Q351" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R351" s="16" t="n">
-        <v>24.08</v>
+        <v>1.09</v>
       </c>
       <c r="T351" s="5" t="n"/>
     </row>
     <row r="352" ht="13" customHeight="1">
       <c r="B352" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>Marc  Christian Legayada Berntsen</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D352" s="7" t="n">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="E352" s="15" t="n">
-        <v>33.23</v>
+        <v>7.51</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>383</v>
+        <v>657</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>15.05</v>
+        <v>20.01</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M352" s="7" t="inlineStr">
         <is>
-          <t>Sjur Grung Thallaug</t>
+          <t>Marc  Christian Legayada Berntsen</t>
         </is>
       </c>
       <c r="N352" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="O352" s="15" t="n">
-        <v>2.75</v>
+        <v>33.23</v>
       </c>
       <c r="P352" s="7" t="n">
-        <v>532</v>
+        <v>383</v>
       </c>
       <c r="Q352" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R352" s="16" t="n">
-        <v>12.04</v>
+        <v>15.05</v>
       </c>
       <c r="T352" s="5" t="n"/>
     </row>
     <row r="353" ht="13" customHeight="1">
       <c r="B353" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Stian Flo</t>
+          <t>Marcus Valentin  Giörtz</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
-        <v>1985</v>
+        <v>2007</v>
       </c>
       <c r="E353" s="15" t="n">
-        <v>8.210000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="F353" s="7" t="n">
-        <v>310</v>
+        <v>653</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
-          <t>Arendal</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H353" s="16" t="n">
-        <v>31.08</v>
+        <v>2.08</v>
       </c>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M353" s="7" t="inlineStr">
         <is>
-          <t>Elias Tveitane Furuseth</t>
+          <t>Stian Flo</t>
         </is>
       </c>
       <c r="N353" s="7" t="n">
-        <v>2007</v>
+        <v>1985</v>
       </c>
       <c r="O353" s="15" t="n">
-        <v>2.7</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="P353" s="7" t="n">
-        <v>503</v>
+        <v>310</v>
       </c>
       <c r="Q353" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="R353" s="16" t="n">
-        <v>18.02</v>
+        <v>31.08</v>
       </c>
       <c r="T353" s="5" t="n"/>
     </row>
     <row r="354" ht="13" customHeight="1">
       <c r="B354" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>Andreas Fløystad</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D354" s="7" t="n">
-        <v>1986</v>
+        <v>2008</v>
       </c>
       <c r="E354" s="15" t="n">
-        <v>8.029999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="F354" s="7" t="n">
-        <v>295</v>
+        <v>652</v>
       </c>
       <c r="G354" s="7" t="inlineStr">
         <is>
-          <t>Arendal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H354" s="16" t="n">
-        <v>31.08</v>
+        <v>25.05</v>
       </c>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M354" s="7" t="inlineStr">
         <is>
-          <t>Sondre Matias Rudi</t>
+          <t>Andreas Fløystad</t>
         </is>
       </c>
       <c r="N354" s="7" t="n">
-        <v>2000</v>
+        <v>1986</v>
       </c>
       <c r="O354" s="15" t="n">
-        <v>2.54</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="P354" s="7" t="n">
-        <v>398</v>
+        <v>295</v>
       </c>
       <c r="Q354" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="R354" s="16" t="n">
-        <v>12.04</v>
+        <v>31.08</v>
       </c>
       <c r="T354" s="5" t="n"/>
     </row>
     <row r="355" ht="13" customHeight="1">
       <c r="B355" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>Vetle Pedersen Jamvold</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="D355" s="7" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E355" s="15" t="n">
-        <v>1.4</v>
+        <v>3.61</v>
       </c>
       <c r="F355" s="7" t="n">
-        <v>233</v>
+        <v>639</v>
       </c>
       <c r="G355" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H355" s="16" t="n">
-        <v>24.05</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M355" s="7" t="inlineStr">
         <is>
-          <t>Dag Eivind Kåshagen</t>
+          <t>Vetle Pedersen Jamvold</t>
         </is>
       </c>
       <c r="N355" s="7" t="n">
-        <v>1960</v>
+        <v>2011</v>
       </c>
       <c r="O355" s="15" t="n">
-        <v>2.44</v>
+        <v>1.4</v>
       </c>
       <c r="P355" s="7" t="n">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="Q355" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R355" s="16" t="n">
-        <v>12.04</v>
+        <v>24.05</v>
       </c>
       <c r="T355" s="5" t="n"/>
     </row>
     <row r="356" ht="13" customHeight="1">
       <c r="B356" s="14" t="inlineStr">
         <is>
+          <t>Tresteg</t>
+        </is>
+      </c>
+      <c r="C356" s="7" t="inlineStr">
+        <is>
+          <t>Lucas Bricot</t>
+        </is>
+      </c>
+      <c r="D356" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E356" s="15" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="F356" s="7" t="n">
+        <v>631</v>
+      </c>
+      <c r="G356" s="7" t="inlineStr">
+        <is>
+          <t>Oslo/Bi</t>
+        </is>
+      </c>
+      <c r="H356" s="16" t="n">
+        <v>31.08</v>
+      </c>
+      <c r="J356" s="5" t="n"/>
+      <c r="L356" s="14" t="inlineStr">
+        <is>
           <t>Spyd</t>
         </is>
       </c>
-      <c r="C356" s="7" t="inlineStr">
+      <c r="M356" s="7" t="inlineStr">
         <is>
           <t>Andreas Solheim Sollid</t>
         </is>
       </c>
-      <c r="D356" s="7" t="n">
+      <c r="N356" s="7" t="n">
         <v>2004</v>
       </c>
-      <c r="E356" s="15" t="n">
+      <c r="O356" s="15" t="n">
         <v>22.74</v>
       </c>
-      <c r="F356" s="7" t="n">
+      <c r="P356" s="7" t="n">
         <v>198</v>
       </c>
-      <c r="G356" s="7" t="inlineStr">
+      <c r="Q356" s="7" t="inlineStr">
         <is>
           <t>Grimstad</t>
         </is>
       </c>
-      <c r="H356" s="16" t="n">
+      <c r="R356" s="16" t="n">
         <v>18.09</v>
       </c>
-      <c r="J356" s="5" t="n"/>
-      <c r="L356" s="14" t="n"/>
-      <c r="M356" s="7" t="n"/>
-      <c r="N356" s="7" t="n"/>
-      <c r="O356" s="7" t="n"/>
-      <c r="P356" s="7" t="n"/>
-      <c r="Q356" s="7" t="n"/>
-      <c r="R356" s="21" t="n"/>
       <c r="T356" s="5" t="n"/>
     </row>
     <row r="357" ht="13" customHeight="1">
@@ -16444,7 +16544,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>9230</v>
+        <v>10626</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16453,7 +16553,7 @@
         </is>
       </c>
       <c r="M358" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O358" s="19" t="inlineStr">
         <is>
@@ -16461,7 +16561,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>10420</v>
+        <v>9230</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -16476,7 +16576,7 @@
         </is>
       </c>
       <c r="C360" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E360" s="19" t="inlineStr">
         <is>
@@ -16484,7 +16584,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18908</v>
+        <v>21596</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16493,7 +16593,7 @@
         </is>
       </c>
       <c r="M360" s="20" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O360" s="19" t="inlineStr">
         <is>
@@ -16501,7 +16601,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>18387</v>
+        <v>18908</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -16516,7 +16616,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -46869,11 +46969,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17743</v>
+        <v>17680</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -49711,32 +49811,32 @@
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Karoline Daland</t>
+          <t>Line Myrestøl Johansson</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O62" s="17" t="inlineStr">
         <is>
-          <t>37,56,0mx</t>
+          <t>10,29,60</t>
         </is>
       </c>
       <c r="P62" s="7" t="n">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Fevik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>13.1</v>
+        <v>5.09</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -50144,7 +50244,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>9704</v>
+        <v>9673</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -50697,32 +50797,30 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Line Myrestøl Johansson</t>
+          <t>Helena Lauvdal Myhren</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O82" s="17" t="inlineStr">
-        <is>
-          <t>10,29,60</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O82" s="15" t="n">
+        <v>13.17</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>5.09</v>
+        <v>1.06</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -50757,30 +50855,30 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Helena Lauvdal Myhren</t>
+          <t>Charlotte Celine Thorjussen</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>13.17</v>
+        <v>5.08</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>1.06</v>
+        <v>10.02</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -50815,30 +50913,32 @@
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Celine Thorjussen</t>
+          <t>Tonje Helle Flo</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O84" s="15" t="n">
-        <v>5.08</v>
+        <v>1987</v>
+      </c>
+      <c r="O84" s="17" t="inlineStr">
+        <is>
+          <t>39,34,3mx</t>
+        </is>
       </c>
       <c r="P84" s="7" t="n">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fevik</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>10.02</v>
+        <v>13.1</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -51008,7 +51108,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>8039</v>
+        <v>8007</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -51048,7 +51148,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17743</v>
+        <v>17680</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -51072,7 +51172,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -30948,11 +30948,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/12)</t>
+          <t>(30/11)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>22243</v>
+        <v>22341</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>17876</v>
+        <v>17939</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
@@ -38716,18 +38716,18 @@
         <v>2007</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>1.4</v>
+        <v>5.48</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>518</v>
+        <v>724</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>18.09</v>
+        <v>31.08</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
@@ -38762,30 +38762,30 @@
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Lucille Chevalier</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>5.48</v>
+        <v>1.19</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>724</v>
+        <v>541</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>31.08</v>
+        <v>28.1</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -39013,7 +39013,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11510</v>
+        <v>11533</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -39796,22 +39796,22 @@
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Lilly Sunde Johansen</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>25.9</v>
+        <v>1.4</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
@@ -39819,7 +39819,7 @@
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>24.09</v>
+        <v>18.09</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -39854,30 +39854,30 @@
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Lucille Chevalier</t>
+          <t>Lilly Sunde Johansen</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>1.35</v>
+        <v>25.9</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>8.06</v>
+        <v>24.09</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -39912,30 +39912,30 @@
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Ylva Bergeslien Malmo</t>
+          <t>Lucille Chevalier</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>4.29</v>
+        <v>2.27</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>23.05</v>
+        <v>28.1</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -39970,30 +39970,30 @@
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Live Hjelle</t>
+          <t>Lucille Chevalier</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>25.17</v>
+        <v>1.35</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>24.09</v>
+        <v>8.06</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -40047,7 +40047,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>10733</v>
+        <v>10808</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>22243</v>
+        <v>22341</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -40111,7 +40111,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -45375,7 +45375,7 @@
       </c>
       <c r="M331" s="7" t="inlineStr">
         <is>
-          <t>Julie Lunde</t>
+          <t>Julie Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N331" s="7" t="n">
@@ -45491,7 +45491,7 @@
       </c>
       <c r="M333" s="7" t="inlineStr">
         <is>
-          <t>Julie Lunde</t>
+          <t>Julie Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N333" s="7" t="n">
@@ -46169,7 +46169,7 @@
       </c>
       <c r="M348" s="7" t="inlineStr">
         <is>
-          <t>Julie Lunde</t>
+          <t>Julie Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N348" s="7" t="n">
@@ -46574,22 +46574,22 @@
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M355" s="7" t="inlineStr">
         <is>
-          <t>Hannah Olin Andersen</t>
+          <t>Vilde Sofie Fiskvik</t>
         </is>
       </c>
       <c r="N355" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O355" s="15" t="n">
-        <v>9.02</v>
+        <v>4.34</v>
       </c>
       <c r="P355" s="7" t="n">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="Q355" s="7" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         </is>
       </c>
       <c r="R355" s="16" t="n">
-        <v>5.09</v>
+        <v>13.08</v>
       </c>
       <c r="T355" s="5" t="n"/>
     </row>
@@ -46632,7 +46632,7 @@
       <c r="J356" s="5" t="n"/>
       <c r="L356" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M356" s="7" t="inlineStr">
@@ -46644,18 +46644,18 @@
         <v>2010</v>
       </c>
       <c r="O356" s="15" t="n">
-        <v>4.08</v>
+        <v>9.02</v>
       </c>
       <c r="P356" s="7" t="n">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="Q356" s="7" t="inlineStr">
         <is>
-          <t>Arendal</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R356" s="16" t="n">
-        <v>17.08</v>
+        <v>5.09</v>
       </c>
       <c r="T356" s="5" t="n"/>
     </row>
@@ -46709,7 +46709,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>8614</v>
+        <v>8677</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -46749,7 +46749,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>17876</v>
+        <v>17939</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>24779</v>
+        <v>25104</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -7024,22 +7024,22 @@
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Halvard Martin Melsås</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="O138" s="15" t="n">
-        <v>14.8</v>
+        <v>53.57</v>
       </c>
       <c r="P138" s="7" t="n">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="R138" s="16" t="n">
-        <v>26.09</v>
+        <v>3.11</v>
       </c>
       <c r="T138" s="5" t="n"/>
     </row>
@@ -7084,22 +7084,22 @@
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="O139" s="15" t="n">
-        <v>11.28</v>
+        <v>14.8</v>
       </c>
       <c r="P139" s="7" t="n">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>17.08</v>
+        <v>26.09</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -7149,17 +7149,17 @@
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Andreas Langhelle</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O140" s="15" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="P140" s="7" t="n">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>2.06</v>
+        <v>17.08</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
@@ -7204,22 +7204,22 @@
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O141" s="15" t="n">
-        <v>22.82</v>
+        <v>11.29</v>
       </c>
       <c r="P141" s="7" t="n">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>18.08</v>
+        <v>2.06</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
@@ -7264,7 +7264,7 @@
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M142" s="7" t="inlineStr">
@@ -7276,18 +7276,18 @@
         <v>2007</v>
       </c>
       <c r="O142" s="15" t="n">
-        <v>50.68</v>
+        <v>22.82</v>
       </c>
       <c r="P142" s="7" t="n">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R142" s="16" t="n">
-        <v>30.08</v>
+        <v>18.08</v>
       </c>
       <c r="T142" s="5" t="n"/>
     </row>
@@ -7324,30 +7324,30 @@
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Jakob H. Holmelid</t>
+          <t>Andreas Langhelle</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O143" s="15" t="n">
-        <v>11.4</v>
+        <v>50.68</v>
       </c>
       <c r="P143" s="7" t="n">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>25.05</v>
+        <v>30.08</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
@@ -7382,30 +7382,30 @@
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Jakob H. Holmelid</t>
         </is>
       </c>
       <c r="N144" s="7" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="O144" s="15" t="n">
-        <v>6.61</v>
+        <v>11.4</v>
       </c>
       <c r="P144" s="7" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>25.08</v>
+        <v>25.05</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
@@ -7440,30 +7440,30 @@
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M145" s="7" t="inlineStr">
         <is>
-          <t>Theodor With</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="N145" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="O145" s="15" t="n">
-        <v>23.13</v>
+        <v>6.61</v>
       </c>
       <c r="P145" s="7" t="n">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R145" s="16" t="n">
-        <v>20.01</v>
+        <v>25.08</v>
       </c>
       <c r="T145" s="5" t="n"/>
     </row>
@@ -7498,30 +7498,30 @@
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Jone Alsaker Løken</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>51.04</v>
+        <v>23.13</v>
       </c>
       <c r="P146" s="7" t="n">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>22.05</v>
+        <v>20.01</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
@@ -7556,30 +7556,30 @@
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M147" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Seland Haugen</t>
+          <t>Jone Alsaker Løken</t>
         </is>
       </c>
       <c r="N147" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O147" s="15" t="n">
-        <v>1.75</v>
+        <v>51.04</v>
       </c>
       <c r="P147" s="7" t="n">
-        <v>607</v>
+        <v>733</v>
       </c>
       <c r="Q147" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R147" s="16" t="n">
-        <v>31.08</v>
+        <v>22.05</v>
       </c>
       <c r="T147" s="5" t="n"/>
     </row>
@@ -7614,30 +7614,30 @@
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Leon Victor Sandvik</t>
+          <t>Tristan Nøtvedt</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>5.44</v>
+        <v>2.89</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>477</v>
+        <v>611</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>3.07</v>
+        <v>3.11</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11260</v>
+        <v>11585</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>24779</v>
+        <v>25104</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -16877,11 +16877,11 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>17527</v>
+        <v>17584</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>12237</v>
+        <v>12292</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -22403,30 +22403,32 @@
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Alf Kristian Hollund</t>
+          <t>Jacob Hystad</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O126" s="15" t="n">
-        <v>7.49</v>
+        <v>1990</v>
+      </c>
+      <c r="O126" s="17" t="inlineStr">
+        <is>
+          <t>9,04,31</t>
+        </is>
       </c>
       <c r="P126" s="7" t="n">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>5.09</v>
+        <v>29.1</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
@@ -22461,7 +22463,7 @@
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
@@ -22473,10 +22475,10 @@
         <v>2008</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>11.89</v>
+        <v>7.49</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
@@ -22524,25 +22526,25 @@
       </c>
       <c r="M128" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kringeland</t>
+          <t>Alf Kristian Hollund</t>
         </is>
       </c>
       <c r="N128" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O128" s="15" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="P128" s="7" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>17.08</v>
+        <v>5.09</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -22577,30 +22579,30 @@
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Alf Kristian Hollund</t>
+          <t>Andreas Kringeland</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O129" s="15" t="n">
-        <v>24.34</v>
+        <v>11.9</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>15.09</v>
+        <v>17.08</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -22886,7 +22888,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7724</v>
+        <v>7781</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -22926,7 +22928,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>17527</v>
+        <v>17584</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -22950,7 +22952,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -30071,30 +30073,30 @@
       <c r="J313" s="5" t="n"/>
       <c r="L313" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M313" s="7" t="inlineStr">
         <is>
-          <t>Emil Kristoffer Viddal Sætre</t>
+          <t>August Østbø Johansen</t>
         </is>
       </c>
       <c r="N313" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O313" s="15" t="n">
-        <v>24.57</v>
+        <v>7.66</v>
       </c>
       <c r="P313" s="7" t="n">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="Q313" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R313" s="16" t="n">
-        <v>15.06</v>
+        <v>21.08</v>
       </c>
       <c r="T313" s="5" t="n"/>
     </row>
@@ -30131,30 +30133,30 @@
       <c r="J314" s="5" t="n"/>
       <c r="L314" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M314" s="7" t="inlineStr">
         <is>
-          <t>August Østbø Johansen</t>
+          <t>Emil Kristoffer Viddal Sætre</t>
         </is>
       </c>
       <c r="N314" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O314" s="15" t="n">
-        <v>12.11</v>
+        <v>24.57</v>
       </c>
       <c r="P314" s="7" t="n">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="Q314" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R314" s="16" t="n">
-        <v>27.08</v>
+        <v>15.06</v>
       </c>
       <c r="T314" s="5" t="n"/>
     </row>
@@ -30189,7 +30191,7 @@
       <c r="J315" s="5" t="n"/>
       <c r="L315" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M315" s="7" t="inlineStr">
@@ -30201,10 +30203,10 @@
         <v>2004</v>
       </c>
       <c r="O315" s="15" t="n">
-        <v>24.82</v>
+        <v>12.11</v>
       </c>
       <c r="P315" s="7" t="n">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="Q315" s="7" t="inlineStr">
         <is>
@@ -30249,30 +30251,30 @@
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M316" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Letnes Østensen</t>
+          <t>August Østbø Johansen</t>
         </is>
       </c>
       <c r="N316" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O316" s="15" t="n">
-        <v>7.76</v>
+        <v>24.64</v>
       </c>
       <c r="P316" s="7" t="n">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="Q316" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R316" s="16" t="n">
-        <v>6.01</v>
+        <v>21.08</v>
       </c>
       <c r="T316" s="5" t="n"/>
     </row>
@@ -30312,25 +30314,25 @@
       </c>
       <c r="M317" s="7" t="inlineStr">
         <is>
-          <t>Emil Kristoffer Viddal Sætre</t>
+          <t>Sigurd Letnes Østensen</t>
         </is>
       </c>
       <c r="N317" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O317" s="15" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="P317" s="7" t="n">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="Q317" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R317" s="16" t="n">
-        <v>11.01</v>
+        <v>6.01</v>
       </c>
       <c r="T317" s="5" t="n"/>
     </row>
@@ -30576,7 +30578,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>5658</v>
+        <v>5713</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -30616,7 +30618,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>12237</v>
+        <v>12292</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -47081,11 +47083,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15743</v>
+        <v>15781</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -47141,7 +47143,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>15352</v>
+        <v>15268</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -53530,19 +53532,19 @@
       </c>
       <c r="O153" s="17" t="inlineStr">
         <is>
-          <t>1,03,88</t>
+          <t>1,03,33</t>
         </is>
       </c>
       <c r="P153" s="7" t="n">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="Q153" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R153" s="16" t="n">
-        <v>30.08</v>
+        <v>21.08</v>
       </c>
       <c r="T153" s="5" t="n"/>
     </row>
@@ -54128,7 +54130,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8655</v>
+        <v>8669</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -54787,32 +54789,30 @@
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O178" s="17" t="inlineStr">
-        <is>
-          <t>11,17,26</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O178" s="15" t="n">
+        <v>8.65</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>20.06</v>
+        <v>21.08</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -54847,24 +54847,24 @@
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Eira Jacobsen-Sjue</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="O179" s="17" t="inlineStr">
         <is>
-          <t>2,32,79</t>
+          <t>11,17,26</t>
         </is>
       </c>
       <c r="P179" s="7" t="n">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
@@ -54872,7 +54872,7 @@
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>21.09</v>
+        <v>20.06</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -54984,7 +54984,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>7088</v>
+        <v>7112</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -55024,7 +55024,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15743</v>
+        <v>15781</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -55048,7 +55048,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -55823,30 +55823,30 @@
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Marie Fallrø</t>
+          <t>Ingrid Louise Selseth</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>2</v>
+        <v>4.65</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>427</v>
+        <v>542</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>15.09</v>
+        <v>6.01</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -55881,30 +55881,30 @@
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Silje Maria Gondim-Roås</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>4.65</v>
+        <v>8.51</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>542</v>
+        <v>393</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>6.01</v>
+        <v>14.09</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
@@ -56074,7 +56074,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7821</v>
+        <v>7787</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -56678,25 +56678,25 @@
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Marie Fallrø</t>
+          <t>Ingrid Slettemeås</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
         <v>2010</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>14.09</v>
+        <v>23.09</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -56731,30 +56731,30 @@
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Slettemeås</t>
+          <t>Isabella Neves Strand</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>1.38</v>
+        <v>4.42</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>23.09</v>
+        <v>15.09</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
@@ -56794,25 +56794,25 @@
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Isabella Neves Strand</t>
+          <t>Silje Maria Gondim-Roås</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>4.42</v>
+        <v>4.34</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>15.09</v>
+        <v>25.08</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -56852,25 +56852,25 @@
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Silje Maria Gondim-Roås</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>25.08</v>
+        <v>6.01</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -56924,7 +56924,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>7531</v>
+        <v>7481</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -56964,7 +56964,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>15352</v>
+        <v>15268</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -7619,7 +7619,7 @@
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Tristan Nøtvedt</t>
+          <t>Tristan Emil Brekke Nøttveit</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bergen/Hø</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
@@ -24594,11 +24594,11 @@
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Ole Magnus Villanger</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O177" s="15" t="n">
         <v>2.77</v>
@@ -24652,11 +24652,11 @@
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Ole Magnus Villanger</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O178" s="15" t="n">
         <v>2.77</v>
@@ -31038,7 +31038,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>20392</v>
+        <v>20403</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -43324,10 +43324,10 @@
         <v>2003</v>
       </c>
       <c r="E282" s="15" t="n">
-        <v>47.29</v>
+        <v>48.12</v>
       </c>
       <c r="F282" s="7" t="n">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="G282" s="7" t="inlineStr">
         <is>
@@ -43335,7 +43335,7 @@
         </is>
       </c>
       <c r="H282" s="16" t="n">
-        <v>24.05</v>
+        <v>26.1</v>
       </c>
       <c r="J282" s="5" t="n"/>
       <c r="L282" s="14" t="inlineStr">
@@ -43438,7 +43438,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>11221</v>
+        <v>11232</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -44498,7 +44498,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>20392</v>
+        <v>20403</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -752,11 +752,11 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>25104</v>
+        <v>25143</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>21618</v>
+        <v>21895</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -7619,25 +7619,25 @@
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Tristan Emil Brekke Nøttveit</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>2.89</v>
+        <v>2.96</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Bergen/Hø</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>3.11</v>
+        <v>24.11</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11585</v>
+        <v>11624</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>25104</v>
+        <v>25143</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -7755,7 +7755,7 @@
         </is>
       </c>
       <c r="M154" s="20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -13089,17 +13089,17 @@
       </c>
       <c r="M280" s="7" t="inlineStr">
         <is>
-          <t>Andreas Grimerud</t>
+          <t>Carl Emil Kåshagen</t>
         </is>
       </c>
       <c r="N280" s="7" t="n">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="O280" s="15" t="n">
-        <v>5.92</v>
+        <v>5.81</v>
       </c>
       <c r="P280" s="7" t="n">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="Q280" s="7" t="inlineStr">
         <is>
@@ -13147,17 +13147,17 @@
       </c>
       <c r="M281" s="7" t="inlineStr">
         <is>
-          <t>Magnus Bentdal Ingvaldsen</t>
+          <t>Andreas Grimerud</t>
         </is>
       </c>
       <c r="N281" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O281" s="15" t="n">
-        <v>2.79</v>
+        <v>3.09</v>
       </c>
       <c r="P281" s="7" t="n">
-        <v>555</v>
+        <v>722</v>
       </c>
       <c r="Q281" s="7" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         </is>
       </c>
       <c r="R281" s="16" t="n">
-        <v>12.04</v>
+        <v>4.11</v>
       </c>
       <c r="T281" s="5" t="n"/>
     </row>
@@ -13335,7 +13335,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>10399</v>
+        <v>10541</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -14048,22 +14048,22 @@
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M300" s="7" t="inlineStr">
         <is>
-          <t>Carl Emil Kåshagen</t>
+          <t>Sjur Grung Thallaug</t>
         </is>
       </c>
       <c r="N300" s="7" t="n">
-        <v>1991</v>
+        <v>2006</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>5.81</v>
+        <v>2.8</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="R300" s="16" t="n">
-        <v>13.09</v>
+        <v>4.11</v>
       </c>
       <c r="T300" s="5" t="n"/>
     </row>
@@ -14111,17 +14111,17 @@
       </c>
       <c r="M301" s="7" t="inlineStr">
         <is>
-          <t>Sjur Grung Thallaug</t>
+          <t>Magnus Bentdal Ingvaldsen</t>
         </is>
       </c>
       <c r="N301" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="O301" s="15" t="n">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="P301" s="7" t="n">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="Q301" s="7" t="inlineStr">
         <is>
@@ -14164,22 +14164,22 @@
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M302" s="7" t="inlineStr">
         <is>
-          <t>Alexander Løvik Nyheim</t>
+          <t>Johannes Eiksund</t>
         </is>
       </c>
       <c r="N302" s="7" t="n">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="O302" s="15" t="n">
-        <v>5.55</v>
+        <v>2.75</v>
       </c>
       <c r="P302" s="7" t="n">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="Q302" s="7" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         </is>
       </c>
       <c r="R302" s="16" t="n">
-        <v>13.09</v>
+        <v>4.11</v>
       </c>
       <c r="T302" s="5" t="n"/>
     </row>
@@ -14227,25 +14227,25 @@
       </c>
       <c r="M303" s="7" t="inlineStr">
         <is>
-          <t>Elias Tveitane Furuseth</t>
+          <t>Sondre Matias Rudi</t>
         </is>
       </c>
       <c r="N303" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="O303" s="15" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="P303" s="7" t="n">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="Q303" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R303" s="16" t="n">
-        <v>18.02</v>
+        <v>4.11</v>
       </c>
       <c r="T303" s="5" t="n"/>
     </row>
@@ -14280,22 +14280,22 @@
       <c r="J304" s="5" t="n"/>
       <c r="L304" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M304" s="7" t="inlineStr">
         <is>
-          <t>Alexander Løvik Nyheim</t>
+          <t>Elias Tveitane Furuseth</t>
         </is>
       </c>
       <c r="N304" s="7" t="n">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="O304" s="15" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="P304" s="7" t="n">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="Q304" s="7" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         </is>
       </c>
       <c r="R304" s="16" t="n">
-        <v>14.09</v>
+        <v>4.11</v>
       </c>
       <c r="T304" s="5" t="n"/>
     </row>
@@ -14357,7 +14357,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>11219</v>
+        <v>11354</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>21618</v>
+        <v>21895</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -46994,20 +46994,20 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Norna-Salhus IL 2. lag</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/8)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16941</v>
+        <v>17000</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(3/3d)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -47022,20 +47022,20 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL 2. lag</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/8)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>16914</v>
+        <v>16941</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(3/3d)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -51246,7 +51246,7 @@
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Norna-Salhus IL 2. lag</t>
         </is>
       </c>
       <c r="J97" s="5" t="n"/>
@@ -51257,7 +51257,7 @@
       </c>
       <c r="M97" s="7" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL 2. lag</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="T97" s="5" t="n"/>
@@ -51386,25 +51386,25 @@
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="D103" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E103" s="15" t="n">
-        <v>7.78</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>804</v>
+        <v>725</v>
       </c>
       <c r="G103" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H103" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="J103" s="5" t="n"/>
       <c r="L103" s="14" t="inlineStr">
@@ -51414,25 +51414,25 @@
       </c>
       <c r="M103" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="N103" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="O103" s="15" t="n">
-        <v>8.029999999999999</v>
+        <v>7.78</v>
       </c>
       <c r="P103" s="7" t="n">
-        <v>725</v>
+        <v>804</v>
       </c>
       <c r="Q103" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R103" s="16" t="n">
-        <v>10.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T103" s="5" t="n"/>
     </row>
@@ -51444,25 +51444,25 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Martine Lundberg Espetvedt</t>
         </is>
       </c>
       <c r="D104" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>12.25</v>
+        <v>12.82</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>806</v>
+        <v>702</v>
       </c>
       <c r="G104" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H104" s="16" t="n">
-        <v>2.08</v>
+        <v>8.06</v>
       </c>
       <c r="J104" s="5" t="n"/>
       <c r="L104" s="14" t="inlineStr">
@@ -51472,25 +51472,25 @@
       </c>
       <c r="M104" s="7" t="inlineStr">
         <is>
-          <t>Martine Lundberg Espetvedt</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="N104" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O104" s="15" t="n">
-        <v>12.82</v>
+        <v>12.25</v>
       </c>
       <c r="P104" s="7" t="n">
-        <v>702</v>
+        <v>806</v>
       </c>
       <c r="Q104" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R104" s="16" t="n">
-        <v>8.06</v>
+        <v>2.08</v>
       </c>
       <c r="T104" s="5" t="n"/>
     </row>
@@ -51502,25 +51502,25 @@
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Martine Lundberg Espetvedt</t>
         </is>
       </c>
       <c r="D105" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>25.41</v>
+        <v>26.6</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>773</v>
+        <v>680</v>
       </c>
       <c r="G105" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H105" s="16" t="n">
-        <v>21.06</v>
+        <v>12.05</v>
       </c>
       <c r="J105" s="5" t="n"/>
       <c r="L105" s="14" t="inlineStr">
@@ -51530,471 +51530,471 @@
       </c>
       <c r="M105" s="7" t="inlineStr">
         <is>
-          <t>Martine Lundberg Espetvedt</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="N105" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O105" s="15" t="n">
-        <v>26.6</v>
+        <v>25.41</v>
       </c>
       <c r="P105" s="7" t="n">
-        <v>680</v>
+        <v>773</v>
       </c>
       <c r="Q105" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R105" s="16" t="n">
-        <v>12.05</v>
+        <v>21.06</v>
       </c>
       <c r="T105" s="5" t="n"/>
     </row>
     <row r="106" ht="13" customHeight="1">
       <c r="B106" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Alexandra Tunes Lund</t>
         </is>
       </c>
       <c r="D106" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E106" s="17" t="inlineStr">
         <is>
-          <t>1,00,99</t>
+          <t>2,21,20</t>
         </is>
       </c>
       <c r="F106" s="7" t="n">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G106" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H106" s="16" t="n">
-        <v>17.08</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Tunes Lund</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="N106" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O106" s="17" t="inlineStr">
         <is>
-          <t>2,21,20</t>
+          <t>1,00,99</t>
         </is>
       </c>
       <c r="P106" s="7" t="n">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="Q106" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R106" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>17.08</v>
       </c>
       <c r="T106" s="5" t="n"/>
     </row>
     <row r="107" ht="13" customHeight="1">
       <c r="B107" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Aurora Veen Torkildsen</t>
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>2,25,04</t>
+          <t>4,56,92</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>31.05</v>
+        <v>10.02</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>Aurora Veen Torkildsen</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="N107" s="7" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="O107" s="17" t="inlineStr">
         <is>
-          <t>4,56,92</t>
+          <t>2,25,04</t>
         </is>
       </c>
       <c r="P107" s="7" t="n">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="Q107" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R107" s="16" t="n">
-        <v>10.02</v>
+        <v>31.05</v>
       </c>
       <c r="T107" s="5" t="n"/>
     </row>
     <row r="108" ht="13" customHeight="1">
       <c r="B108" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Nellie Cecilia Taule</t>
         </is>
       </c>
       <c r="D108" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E108" s="15" t="n">
-        <v>8.49</v>
+        <v>2008</v>
+      </c>
+      <c r="E108" s="17" t="inlineStr">
+        <is>
+          <t>10,49,47</t>
+        </is>
       </c>
       <c r="F108" s="7" t="n">
-        <v>886</v>
+        <v>615</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M108" s="7" t="inlineStr">
         <is>
-          <t>Nellie Cecilia Taule</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="N108" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O108" s="17" t="inlineStr">
-        <is>
-          <t>10,49,47</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O108" s="15" t="n">
+        <v>8.49</v>
       </c>
       <c r="P108" s="7" t="n">
-        <v>615</v>
+        <v>886</v>
       </c>
       <c r="Q108" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R108" s="16" t="n">
-        <v>1.09</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T108" s="5" t="n"/>
     </row>
     <row r="109" ht="13" customHeight="1">
       <c r="B109" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Nellie Cecilia Taule</t>
         </is>
       </c>
       <c r="D109" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E109" s="15" t="n">
-        <v>14.13</v>
+        <v>2008</v>
+      </c>
+      <c r="E109" s="17" t="inlineStr">
+        <is>
+          <t>18,30,13mx</t>
+        </is>
       </c>
       <c r="F109" s="7" t="n">
-        <v>856</v>
+        <v>647</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>4.08</v>
+        <v>28.09</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M109" s="7" t="inlineStr">
         <is>
-          <t>Nellie Cecilia Taule</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="N109" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O109" s="17" t="inlineStr">
-        <is>
-          <t>18,30,13mx</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O109" s="15" t="n">
+        <v>14.13</v>
       </c>
       <c r="P109" s="7" t="n">
-        <v>647</v>
+        <v>856</v>
       </c>
       <c r="Q109" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R109" s="16" t="n">
-        <v>28.09</v>
+        <v>4.08</v>
       </c>
       <c r="T109" s="5" t="n"/>
     </row>
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E110" s="17" t="inlineStr">
-        <is>
-          <t>1,07,80</t>
-        </is>
+      <c r="E110" s="15" t="n">
+        <v>9.15</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>633</v>
+        <v>749</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>31.08</v>
+        <v>11.02</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M110" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="N110" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O110" s="15" t="n">
-        <v>9.15</v>
+      <c r="O110" s="17" t="inlineStr">
+        <is>
+          <t>1,07,80</t>
+        </is>
       </c>
       <c r="P110" s="7" t="n">
-        <v>749</v>
+        <v>633</v>
       </c>
       <c r="Q110" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R110" s="16" t="n">
-        <v>11.02</v>
+        <v>31.08</v>
       </c>
       <c r="T110" s="5" t="n"/>
     </row>
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Kira Chan Sobolowski</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E111" s="15" t="n">
-        <v>1.41</v>
+        <v>15.03</v>
       </c>
       <c r="F111" s="7" t="n">
-        <v>528</v>
+        <v>763</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>8.09</v>
+        <v>30.08</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M111" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Kira Chan Sobolowski</t>
         </is>
       </c>
       <c r="N111" s="7" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="O111" s="15" t="n">
-        <v>15.03</v>
+        <v>1.41</v>
       </c>
       <c r="P111" s="7" t="n">
-        <v>763</v>
+        <v>528</v>
       </c>
       <c r="Q111" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R111" s="16" t="n">
-        <v>30.08</v>
+        <v>8.09</v>
       </c>
       <c r="T111" s="5" t="n"/>
     </row>
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>5.76</v>
+        <v>11.54</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>787</v>
+        <v>717</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>2.08</v>
+        <v>31.05</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>11.54</v>
+        <v>5.76</v>
       </c>
       <c r="P112" s="7" t="n">
-        <v>717</v>
+        <v>787</v>
       </c>
       <c r="Q112" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R112" s="16" t="n">
-        <v>31.05</v>
+        <v>2.08</v>
       </c>
       <c r="T112" s="5" t="n"/>
     </row>
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Solveig Fredriksen</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>2.38</v>
+        <v>10.74</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>553</v>
+        <v>642</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
@@ -52003,26 +52003,26 @@
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Solveig Fredriksen</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>1992</v>
+        <v>2004</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>10.74</v>
+        <v>2.38</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>642</v>
+        <v>553</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
@@ -52033,22 +52033,22 @@
     <row r="114" ht="13" customHeight="1">
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Kateryna Retiva</t>
+          <t>Solveig Fredriksen</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>10.58</v>
+        <v>40.48</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>632</v>
+        <v>731</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
@@ -52056,27 +52056,27 @@
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>12.05</v>
+        <v>29.09</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Solveig Fredriksen</t>
+          <t>Kateryna Retiva</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>40.48</v>
+        <v>10.58</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>731</v>
+        <v>632</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
@@ -52084,65 +52084,65 @@
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>29.09</v>
+        <v>12.05</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
     <row r="115" ht="13" customHeight="1">
       <c r="B115" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Kateryna Retiva</t>
+          <t>Mari Hytten Skyvang</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>1989</v>
+        <v>2003</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>44.22</v>
+        <v>46.1</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>28.06</v>
+        <v>10.05</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Mari Hytten Skyvang</t>
+          <t>Kateryna Retiva</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>2003</v>
+        <v>1989</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>46.1</v>
+        <v>44.22</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>10.05</v>
+        <v>28.06</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -52179,7 +52179,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9282</v>
+        <v>9014</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -52196,7 +52196,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>9014</v>
+        <v>9282</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -52299,174 +52299,174 @@
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E122" s="15" t="n">
-        <v>12.37</v>
+        <v>9.25</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>783</v>
+        <v>731</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>27.06</v>
+        <v>11.02</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O122" s="15" t="n">
-        <v>9.25</v>
+        <v>12.37</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>731</v>
+        <v>783</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>11.02</v>
+        <v>27.06</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Nora Ekroll Jaidi</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>25.5</v>
+        <v>43.2</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>21.06</v>
+        <v>26.09</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Nora Ekroll Jaidi</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>43.2</v>
+        <v>25.5</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>725</v>
+        <v>766</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>26.09</v>
+        <v>21.06</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>12.48</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>763</v>
+        <v>719</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>23.06</v>
+        <v>1.06</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>8.050000000000001</v>
+        <v>12.48</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>719</v>
+        <v>763</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>1.06</v>
+        <v>23.06</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
@@ -52478,25 +52478,25 @@
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>8.039999999999999</v>
+        <v>8.16</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>24.02</v>
+        <v>21.01</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -52506,47 +52506,47 @@
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>8.16</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>21.01</v>
+        <v>24.02</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>8.06</v>
+        <v>12.91</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
@@ -52554,27 +52554,27 @@
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>10.05</v>
+        <v>17.08</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>12.91</v>
+        <v>8.06</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
@@ -52582,125 +52582,125 @@
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>17.08</v>
+        <v>10.05</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Birgitte Langeland Birkeland</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>5.23</v>
+        <v>8.18</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>3.07</v>
+        <v>10.02</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Birgitte Langeland Birkeland</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>8.18</v>
+        <v>5.23</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>10.02</v>
+        <v>3.07</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E128" s="17" t="inlineStr">
-        <is>
-          <t>1,01,10</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E128" s="15" t="n">
+        <v>26.7</v>
       </c>
       <c r="F128" s="7" t="n">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>3.07</v>
+        <v>20.01</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M128" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="N128" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O128" s="15" t="n">
-        <v>26.7</v>
+        <v>2004</v>
+      </c>
+      <c r="O128" s="17" t="inlineStr">
+        <is>
+          <t>1,01,10</t>
+        </is>
       </c>
       <c r="P128" s="7" t="n">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>20.01</v>
+        <v>3.07</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -52712,25 +52712,25 @@
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E129" s="15" t="n">
-        <v>27.6</v>
+        <v>26.94</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>607</v>
+        <v>654</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>15.09</v>
+        <v>12.05</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
@@ -52740,47 +52740,47 @@
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O129" s="15" t="n">
-        <v>26.94</v>
+        <v>27.6</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>654</v>
+        <v>607</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>12.05</v>
+        <v>15.09</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>13.41</v>
+        <v>27.05</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
@@ -52788,27 +52788,27 @@
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>14.09</v>
+        <v>20.01</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M130" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="N130" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="O130" s="15" t="n">
-        <v>27.05</v>
+        <v>13.41</v>
       </c>
       <c r="P130" s="7" t="n">
-        <v>646</v>
+        <v>602</v>
       </c>
       <c r="Q130" s="7" t="inlineStr">
         <is>
@@ -52816,123 +52816,123 @@
         </is>
       </c>
       <c r="R130" s="16" t="n">
-        <v>20.01</v>
+        <v>14.09</v>
       </c>
       <c r="T130" s="5" t="n"/>
     </row>
     <row r="131" ht="13" customHeight="1">
       <c r="B131" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Tuva Paulsdatter Sandlund</t>
+          <t>Nora Ekroll Jaidi</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>4.34</v>
+        <v>33.48</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>470</v>
+        <v>634</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>11.02</v>
+        <v>23.06</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M131" s="7" t="inlineStr">
         <is>
-          <t>Nora Ekroll Jaidi</t>
+          <t>Tuva Paulsdatter Sandlund</t>
         </is>
       </c>
       <c r="N131" s="7" t="n">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="O131" s="15" t="n">
-        <v>33.48</v>
+        <v>4.34</v>
       </c>
       <c r="P131" s="7" t="n">
-        <v>634</v>
+        <v>470</v>
       </c>
       <c r="Q131" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R131" s="16" t="n">
-        <v>23.06</v>
+        <v>11.02</v>
       </c>
       <c r="T131" s="5" t="n"/>
     </row>
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Hilde Stokvold Gundersen</t>
+          <t>Nora Ekroll Jaidi</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>1974</v>
+        <v>2005</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>2.25</v>
+        <v>33.38</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>459</v>
+        <v>599</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>29.09</v>
+        <v>31.08</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M132" s="7" t="inlineStr">
         <is>
-          <t>Nora Ekroll Jaidi</t>
+          <t>Hilde Stokvold Gundersen</t>
         </is>
       </c>
       <c r="N132" s="7" t="n">
-        <v>2005</v>
+        <v>1974</v>
       </c>
       <c r="O132" s="15" t="n">
-        <v>33.38</v>
+        <v>2.25</v>
       </c>
       <c r="P132" s="7" t="n">
-        <v>599</v>
+        <v>459</v>
       </c>
       <c r="Q132" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R132" s="16" t="n">
-        <v>31.08</v>
+        <v>29.09</v>
       </c>
       <c r="T132" s="5" t="n"/>
     </row>
@@ -52944,17 +52944,17 @@
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Tone Sandtorv Brakedal</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>459</v>
+        <v>553</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
@@ -52962,35 +52962,35 @@
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>29.09</v>
+        <v>24.11</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M133" s="7" t="inlineStr">
         <is>
-          <t>Nora Ekroll Jaidi</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="N133" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O133" s="15" t="n">
-        <v>8.44</v>
+        <v>2.25</v>
       </c>
       <c r="P133" s="7" t="n">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>1.06</v>
+        <v>29.09</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -53027,7 +53027,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7659</v>
+        <v>7986</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -53044,7 +53044,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7900</v>
+        <v>7659</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -53067,7 +53067,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16941</v>
+        <v>17000</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -53084,7 +53084,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>16914</v>
+        <v>16941</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -53099,7 +53099,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -53108,7 +53108,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -16732,25 +16732,25 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL 2. lag</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>(25/16)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18932</v>
+        <v>20511</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -16760,25 +16760,25 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>IL i BUL 2. lag</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/16)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>18456</v>
+        <v>18932</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -16788,25 +16788,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>18371</v>
+        <v>18456</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -17180,7 +17180,7 @@
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="F2" s="8" t="n">
@@ -17194,7 +17194,7 @@
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="P2" s="8" t="n">
@@ -17210,7 +17210,7 @@
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL 2. lag</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="J3" s="5" t="n"/>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="M3" s="7" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>IL i BUL 2. lag</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -17350,25 +17350,25 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>Mats Hjørnevik</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>7.02</v>
+        <v>7.26</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>854</v>
+        <v>752</v>
       </c>
       <c r="G9" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H9" s="16" t="n">
-        <v>17.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J9" s="5" t="n"/>
       <c r="L9" s="14" t="inlineStr">
@@ -17378,25 +17378,25 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Magnus Birk Johnsen</t>
+          <t>Mats Hjørnevik</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>7.17</v>
+        <v>7.02</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>789</v>
+        <v>854</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>17.02</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -17408,25 +17408,25 @@
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>Erik Hagen</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>894</v>
+        <v>767</v>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H10" s="16" t="n">
-        <v>27.06</v>
+        <v>25.08</v>
       </c>
       <c r="J10" s="5" t="n"/>
       <c r="L10" s="14" t="inlineStr">
@@ -17436,25 +17436,25 @@
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Magnus Birk Johnsen</t>
+          <t>Erik Hagen</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>816</v>
+        <v>894</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>2.08</v>
+        <v>27.06</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -17466,25 +17466,25 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Tobias Bang Gulbrandsen</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>21.96</v>
+        <v>22.82</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>865</v>
+        <v>768</v>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H11" s="16" t="n">
-        <v>28.01</v>
+        <v>25.08</v>
       </c>
       <c r="J11" s="5" t="n"/>
       <c r="L11" s="14" t="inlineStr">
@@ -17494,25 +17494,25 @@
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Magnus Birk Johnsen</t>
+          <t>Tobias Bang Gulbrandsen</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>22.37</v>
+        <v>21.96</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>818</v>
+        <v>865</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Pombal/POR</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>21.09</v>
+        <v>28.01</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -17524,25 +17524,25 @@
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Tobias Bang Gulbrandsen</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E12" s="15" t="n">
-        <v>47.93</v>
+        <v>53.21</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>895</v>
+        <v>636</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
-        <v>30.08</v>
+        <v>11.02</v>
       </c>
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
@@ -17552,25 +17552,25 @@
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Ole Sivert Røyrhus</t>
+          <t>Tobias Bang Gulbrandsen</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>50.24</v>
+        <v>47.93</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>772</v>
+        <v>895</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>2.08</v>
+        <v>30.08</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -17582,19 +17582,19 @@
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Sebastian van der Veen</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>1,55,51</t>
+          <t>1,46,70</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>782</v>
+        <v>1011</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="H13" s="16" t="n">
-        <v>18.06</v>
+        <v>30.05</v>
       </c>
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
@@ -17612,27 +17612,27 @@
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Ole Sivert Røyrhus</t>
+          <t>Sebastian van der Veen</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>1,54,1</t>
+          <t>1,55,51</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>814</v>
+        <v>782</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>14.08</v>
+        <v>18.06</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -17644,27 +17644,27 @@
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>Mats Hauge</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="17" t="inlineStr">
         <is>
-          <t>3,50,54</t>
+          <t>3,38,73</t>
         </is>
       </c>
       <c r="F14" s="7" t="n">
-        <v>858</v>
+        <v>1003</v>
       </c>
       <c r="G14" s="7" t="inlineStr">
         <is>
-          <t>Watford/GBR</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H14" s="16" t="n">
-        <v>8.06</v>
+        <v>22.05</v>
       </c>
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
@@ -17674,27 +17674,27 @@
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Ole Sivert Røyrhus</t>
+          <t>Mats Hauge</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>3,58,48</t>
+          <t>3,50,54</t>
         </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>776</v>
+        <v>858</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Watford/GBR</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>24.08</v>
+        <v>8.06</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -17706,27 +17706,27 @@
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>Sebastian van der Veen</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E15" s="17" t="inlineStr">
         <is>
-          <t>8,24,21</t>
+          <t>8,50,01</t>
         </is>
       </c>
       <c r="F15" s="7" t="n">
-        <v>840</v>
+        <v>728</v>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H15" s="16" t="n">
-        <v>14.06</v>
+        <v>30.08</v>
       </c>
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
@@ -17736,27 +17736,27 @@
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Oliver Sund</t>
+          <t>Sebastian van der Veen</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O15" s="17" t="inlineStr">
         <is>
-          <t>9,09,28</t>
+          <t>8,24,21</t>
         </is>
       </c>
       <c r="P15" s="7" t="n">
-        <v>653</v>
+        <v>840</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>30.08</v>
+        <v>14.06</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -17768,309 +17768,313 @@
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>Simen Hernes Ellingsdalen</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="E16" s="17" t="inlineStr">
         <is>
-          <t>14,56,57</t>
+          <t>15,01,78</t>
         </is>
       </c>
       <c r="F16" s="7" t="n">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="G16" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H16" s="16" t="n">
-        <v>28.09</v>
+        <v>29.06</v>
       </c>
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Simen Hernes Ellingsdalen</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O16" s="15" t="n">
-        <v>8.81</v>
+        <v>1996</v>
+      </c>
+      <c r="O16" s="17" t="inlineStr">
+        <is>
+          <t>14,56,57</t>
+        </is>
       </c>
       <c r="P16" s="7" t="n">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>28.01</v>
+        <v>28.09</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
     <row r="17" ht="13" customHeight="1">
       <c r="B17" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="E17" s="15" t="n">
-        <v>6.11</v>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>32,21,52</t>
+        </is>
       </c>
       <c r="F17" s="7" t="n">
-        <v>631</v>
+        <v>717</v>
       </c>
       <c r="G17" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H17" s="16" t="n">
-        <v>15.09</v>
+        <v>27.06</v>
       </c>
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Ariand Shegani</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O17" s="15" t="n">
-        <v>54.97</v>
+        <v>6.11</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>777</v>
+        <v>631</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>27.06</v>
+        <v>15.09</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
     <row r="18" ht="13" customHeight="1">
       <c r="B18" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E18" s="15" t="n">
-        <v>12.11</v>
+        <v>6.64</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>572</v>
+        <v>749</v>
       </c>
       <c r="G18" s="7" t="inlineStr">
         <is>
-          <t>Nesodden</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>22.09</v>
+        <v>31.08</v>
       </c>
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Ariand Shegani</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>4.05</v>
+        <v>12.11</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>730</v>
+        <v>572</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nesodden</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>28.01</v>
+        <v>22.09</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
     <row r="19" ht="13" customHeight="1">
       <c r="B19" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>Zion Ramirez</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E19" s="15" t="n">
-        <v>2.86</v>
+        <v>13.34</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>594</v>
+        <v>706</v>
       </c>
       <c r="G19" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>17.08</v>
+        <v>3.08</v>
       </c>
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Aksel Wormdahl</t>
+          <t>Zion Ramirez</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>6.64</v>
+        <v>2.86</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>749</v>
+        <v>594</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>4.05</v>
+        <v>17.08</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
     <row r="20" ht="13" customHeight="1">
       <c r="B20" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Smitt-Ingebretsen</t>
+          <t>Theodor Gutvik</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E20" s="15" t="n">
-        <v>37.12</v>
+        <v>7.68</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>630</v>
+        <v>2679</v>
       </c>
       <c r="G20" s="7" t="inlineStr">
         <is>
-          <t>Spikkestad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H20" s="16" t="n">
-        <v>22.09</v>
+        <v>15.11</v>
       </c>
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>Aksel Wormdahl</t>
+          <t>Sigurd Smitt-Ingebretsen</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>13.51</v>
+        <v>37.12</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>724</v>
+        <v>630</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>22.09</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
     <row r="21" ht="13" customHeight="1">
       <c r="B21" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Smitt-Ingebretsen</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E21" s="15" t="n">
-        <v>38.06</v>
+        <v>75.08</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>586</v>
+        <v>974</v>
       </c>
       <c r="G21" s="7" t="inlineStr">
         <is>
@@ -18078,7 +18082,7 @@
         </is>
       </c>
       <c r="H21" s="16" t="n">
-        <v>19.1</v>
+        <v>16.06</v>
       </c>
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
@@ -18088,25 +18092,25 @@
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Sverre Ranes Olstad</t>
+          <t>Sigurd Smitt-Ingebretsen</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>47.58</v>
+        <v>38.06</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>720</v>
+        <v>586</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>4.06</v>
+        <v>19.1</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -18143,7 +18147,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>9781</v>
+        <v>12258</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -18160,7 +18164,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>9888</v>
+        <v>9781</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -18263,116 +18267,116 @@
     <row r="28" ht="13" customHeight="1">
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>Christian Wright</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D28" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E28" s="15" t="n">
-        <v>10.87</v>
+        <v>22.9</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>875</v>
+        <v>759</v>
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H28" s="16" t="n">
-        <v>30.08</v>
+        <v>10.02</v>
       </c>
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Einar Kjønstad-Prestvik</t>
+          <t>Christian Wright</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>22.89</v>
+        <v>10.87</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>760</v>
+        <v>875</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>9.08</v>
+        <v>30.08</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
     <row r="29" ht="13" customHeight="1">
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>Mats Hjørnevik</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D29" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E29" s="15" t="n">
-        <v>10.92</v>
+        <v>7.29</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>862</v>
+        <v>740</v>
       </c>
       <c r="G29" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H29" s="16" t="n">
-        <v>19.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Mats Hjørnevik</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O29" s="15" t="n">
-        <v>22.97</v>
+        <v>10.92</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>752</v>
+        <v>862</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>21.06</v>
+        <v>19.06</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -18384,17 +18388,17 @@
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Josh Anthony Bjerke</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D30" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E30" s="15" t="n">
-        <v>10.93</v>
+        <v>11.51</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>860</v>
+        <v>718</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
@@ -18412,17 +18416,17 @@
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Emil Vestre</t>
+          <t>Josh Anthony Bjerke</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>11.39</v>
+        <v>10.93</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>746</v>
+        <v>860</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
@@ -18437,264 +18441,266 @@
     <row r="31" ht="13" customHeight="1">
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Mats Hjørnevik</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E31" s="15" t="n">
-        <v>22</v>
+        <v>11.56</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>860</v>
+        <v>706</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>17.02</v>
+        <v>30.08</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Mats Hjørnevik</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O31" s="15" t="n">
-        <v>50.91</v>
+        <v>22</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>22.06</v>
+        <v>17.02</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Christian Wright</t>
+          <t>Hans Horn Tønnessen</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E32" s="15" t="n">
-        <v>22.05</v>
+        <v>11.58</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>855</v>
+        <v>702</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>21.06</v>
+        <v>16.06</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Emil Vestre</t>
+          <t>Christian Wright</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>7.3</v>
+        <v>22.05</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>736</v>
+        <v>855</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>9.02</v>
+        <v>21.06</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Sebastian van der Veen</t>
+          <t>Hans Horn Tønnessen</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E33" s="17" t="inlineStr">
-        <is>
-          <t>3,51,00</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E33" s="15" t="n">
+        <v>23.59</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>853</v>
+        <v>688</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>24.05</v>
+        <v>15.06</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Arne Røstad</t>
+          <t>Sebastian van der Veen</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
         <v>2002</v>
       </c>
-      <c r="O33" s="15" t="n">
-        <v>11.46</v>
+      <c r="O33" s="17" t="inlineStr">
+        <is>
+          <t>3,51,00</t>
+        </is>
       </c>
       <c r="P33" s="7" t="n">
-        <v>729</v>
+        <v>853</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>23.06</v>
+        <v>24.05</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Mads Hjort-Larsen</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>22.08</v>
+        <v>6.36</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>851</v>
+        <v>687</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>2.06</v>
+        <v>28.01</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Mads Hjort-Larsen</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>11.47</v>
+        <v>22.08</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>727</v>
+        <v>851</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>23.06</v>
+        <v>2.06</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
     <row r="35" ht="13" customHeight="1">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Holen</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E35" s="15" t="n">
-        <v>10.97</v>
+        <v>2005</v>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>4,09,57</t>
+        </is>
       </c>
       <c r="F35" s="7" t="n">
-        <v>849</v>
+        <v>675</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>27.06</v>
+        <v>2.08</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -18704,55 +18710,55 @@
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Jonas Ramstad</t>
+          <t>Jonathan Holen</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="O35" s="15" t="n">
-        <v>11.48</v>
+        <v>10.97</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>725</v>
+        <v>849</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>21.08</v>
+        <v>27.06</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
     <row r="36" ht="13" customHeight="1">
       <c r="B36" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Petersen Fergestad</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D36" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E36" s="15" t="n">
-        <v>5.94</v>
+        <v>12.96</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H36" s="16" t="n">
-        <v>10.02</v>
+        <v>30.08</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
@@ -18762,141 +18768,141 @@
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Einar Kjønstad-Prestvik</t>
+          <t>Sigurd Petersen Fergestad</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>6.36</v>
+        <v>5.94</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>687</v>
+        <v>593</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>2.08</v>
+        <v>10.02</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
     <row r="37" ht="13" customHeight="1">
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="D37" s="7" t="n">
         <v>2002</v>
       </c>
       <c r="E37" s="15" t="n">
-        <v>5.92</v>
+        <v>2.98</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H37" s="16" t="n">
-        <v>27.08</v>
+        <v>15.11</v>
       </c>
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Sverre Ranes Olstad</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>3.01</v>
+        <v>5.92</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>677</v>
+        <v>588</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>18.02</v>
+        <v>27.08</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
     <row r="38" ht="13" customHeight="1">
       <c r="B38" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D38" s="7" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="E38" s="15" t="n">
-        <v>11.97</v>
+        <v>24.18</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>Lambertseter</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H38" s="16" t="n">
-        <v>3.09</v>
+        <v>15.06</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>6.3</v>
+        <v>11.97</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>674</v>
+        <v>556</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>27.01</v>
+        <v>3.09</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -18908,53 +18914,53 @@
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Theodor Gutvik</t>
         </is>
       </c>
       <c r="D39" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E39" s="15" t="n">
-        <v>5.75</v>
+        <v>6.07</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H39" s="16" t="n">
-        <v>15.09</v>
+        <v>14.06</v>
       </c>
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>1.76</v>
+        <v>5.75</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>616</v>
+        <v>549</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>27.01</v>
+        <v>15.09</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -18991,7 +18997,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>9151</v>
+        <v>8253</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -19008,7 +19014,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>8568</v>
+        <v>9151</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -19031,7 +19037,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18932</v>
+        <v>20511</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -19048,7 +19054,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>18456</v>
+        <v>18932</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -19063,7 +19069,7 @@
         </is>
       </c>
       <c r="C45" s="20" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J45" s="5" t="n"/>
       <c r="L45" s="19" t="inlineStr">
@@ -19072,7 +19078,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -19114,7 +19120,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -19144,7 +19150,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -19284,17 +19290,17 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Magnus Birk Johnsen</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>7.26</v>
+        <v>7.17</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>752</v>
+        <v>789</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
@@ -19342,25 +19348,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Magnus Birk Johnsen</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>767</v>
+        <v>816</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>25.08</v>
+        <v>2.08</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -19400,25 +19406,25 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Magnus Birk Johnsen</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>22.82</v>
+        <v>22.37</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>768</v>
+        <v>818</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Pombal/POR</t>
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>25.08</v>
+        <v>21.09</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -19458,25 +19464,25 @@
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Ole Sivert Røyrhus</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E59" s="15" t="n">
-        <v>53.21</v>
+        <v>50.24</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>636</v>
+        <v>772</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>11.02</v>
+        <v>2.08</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
@@ -19516,27 +19522,27 @@
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Ole Sivert Røyrhus</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>1,46,70</t>
+          <t>1,54,1</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>1011</v>
+        <v>814</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>30.05</v>
+        <v>14.08</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -19578,27 +19584,27 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Ole Sivert Røyrhus</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E61" s="17" t="inlineStr">
         <is>
-          <t>3,38,73</t>
+          <t>3,58,48</t>
         </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>1003</v>
+        <v>776</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>22.05</v>
+        <v>24.08</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -19640,7 +19646,7 @@
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Oliver Sund</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
@@ -19648,11 +19654,11 @@
       </c>
       <c r="E62" s="17" t="inlineStr">
         <is>
-          <t>8,50,01</t>
+          <t>9,09,28</t>
         </is>
       </c>
       <c r="F62" s="7" t="n">
-        <v>728</v>
+        <v>653</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
@@ -19697,32 +19703,30 @@
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E63" s="17" t="inlineStr">
-        <is>
-          <t>15,01,78</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="E63" s="15" t="n">
+        <v>8.81</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>29.06</v>
+        <v>28.01</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -19759,24 +19763,22 @@
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E64" s="17" t="inlineStr">
-        <is>
-          <t>32,21,52</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="E64" s="15" t="n">
+        <v>54.97</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>717</v>
+        <v>777</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
@@ -19819,30 +19821,30 @@
     <row r="65" ht="13" customHeight="1">
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>6.64</v>
+        <v>4.05</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>31.08</v>
+        <v>28.01</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -19877,30 +19879,30 @@
     <row r="66" ht="13" customHeight="1">
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Aksel Wormdahl</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>13.34</v>
+        <v>6.64</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>706</v>
+        <v>749</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>3.08</v>
+        <v>4.05</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -19935,30 +19937,30 @@
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Åsmund Frøyen</t>
+          <t>Aksel Wormdahl</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>36.13</v>
+        <v>13.51</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>611</v>
+        <v>724</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>23.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -19993,30 +19995,30 @@
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Sverre Ranes Olstad</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>75.08</v>
+        <v>47.58</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>974</v>
+        <v>720</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>16.06</v>
+        <v>4.06</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -20081,7 +20083,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>10190</v>
+        <v>9888</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -20206,25 +20208,25 @@
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Bjørn Einar Kjønstad-Prestvik</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>22.9</v>
+        <v>22.89</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>10.02</v>
+        <v>9.08</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -20259,30 +20261,30 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E76" s="15" t="n">
-        <v>7.29</v>
+        <v>22.97</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>21.06</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
@@ -20322,17 +20324,17 @@
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E77" s="15" t="n">
-        <v>11.51</v>
+        <v>11.39</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
@@ -20375,30 +20377,30 @@
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E78" s="15" t="n">
-        <v>11.56</v>
+        <v>50.91</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>706</v>
+        <v>739</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>30.08</v>
+        <v>22.06</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
@@ -20433,22 +20435,22 @@
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Hans Horn Tønnessen</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E79" s="15" t="n">
-        <v>11.58</v>
+        <v>7.3</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>702</v>
+        <v>736</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
@@ -20456,7 +20458,7 @@
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>16.06</v>
+        <v>9.02</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -20491,30 +20493,30 @@
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Hans Horn Tønnessen</t>
+          <t>Arne Røstad</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="E80" s="15" t="n">
-        <v>23.59</v>
+        <v>11.46</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>688</v>
+        <v>729</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>15.06</v>
+        <v>23.06</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -20549,30 +20551,30 @@
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E81" s="15" t="n">
-        <v>6.36</v>
+        <v>11.47</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>687</v>
+        <v>727</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>28.01</v>
+        <v>23.06</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
@@ -20607,32 +20609,30 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Jonas Ramstad</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E82" s="17" t="inlineStr">
-        <is>
-          <t>4,09,57</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E82" s="15" t="n">
+        <v>11.48</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>2.08</v>
+        <v>21.08</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -20669,30 +20669,30 @@
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Bjørn Einar Kjønstad-Prestvik</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>12.96</v>
+        <v>6.36</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>30.08</v>
+        <v>2.08</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -20727,30 +20727,30 @@
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Sverre Ranes Olstad</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>24.18</v>
+        <v>3.01</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>630</v>
+        <v>677</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>15.06</v>
+        <v>18.02</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -20790,17 +20790,17 @@
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Theodor Gutvik</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>6.07</v>
+        <v>6.3</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>622</v>
+        <v>674</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>14.06</v>
+        <v>27.01</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -20843,22 +20843,22 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Åsmund Frøyen</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>11.89</v>
+        <v>1.76</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>16.06</v>
+        <v>27.01</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -20931,7 +20931,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>8181</v>
+        <v>8568</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>18371</v>
+        <v>18456</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -21003,7 +21003,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -31118,11 +31118,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>17939</v>
+        <v>18087</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Mia Bø</t>
+          <t>Mia Austevik Bø</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
@@ -46166,30 +46166,30 @@
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M348" s="7" t="inlineStr">
         <is>
-          <t>Julie Gulbrandsen Lunde</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N348" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O348" s="15" t="n">
-        <v>4.86</v>
+        <v>2.45</v>
       </c>
       <c r="P348" s="7" t="n">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="Q348" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R348" s="16" t="n">
-        <v>14.06</v>
+        <v>15.11</v>
       </c>
       <c r="T348" s="5" t="n"/>
     </row>
@@ -46224,22 +46224,22 @@
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M349" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Julie Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="N349" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O349" s="15" t="n">
-        <v>13.52</v>
+        <v>4.86</v>
       </c>
       <c r="P349" s="7" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="Q349" s="7" t="inlineStr">
         <is>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="R349" s="16" t="n">
-        <v>16.06</v>
+        <v>14.06</v>
       </c>
       <c r="T349" s="5" t="n"/>
     </row>
@@ -46287,25 +46287,25 @@
       </c>
       <c r="M350" s="7" t="inlineStr">
         <is>
-          <t>Hedda Naalsund</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N350" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="O350" s="15" t="n">
-        <v>13.6</v>
+        <v>13.52</v>
       </c>
       <c r="P350" s="7" t="n">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="Q350" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R350" s="16" t="n">
-        <v>24.05</v>
+        <v>16.06</v>
       </c>
       <c r="T350" s="5" t="n"/>
     </row>
@@ -46340,22 +46340,22 @@
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M351" s="7" t="inlineStr">
         <is>
-          <t>Eline Heia</t>
+          <t>Hedda Naalsund</t>
         </is>
       </c>
       <c r="N351" s="7" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="O351" s="15" t="n">
-        <v>4.68</v>
+        <v>13.6</v>
       </c>
       <c r="P351" s="7" t="n">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="Q351" s="7" t="inlineStr">
         <is>
@@ -46363,7 +46363,7 @@
         </is>
       </c>
       <c r="R351" s="16" t="n">
-        <v>28.01</v>
+        <v>24.05</v>
       </c>
       <c r="T351" s="5" t="n"/>
     </row>
@@ -46400,30 +46400,30 @@
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M352" s="7" t="inlineStr">
         <is>
-          <t>Vilde Sofie Fiskvik</t>
+          <t>Eline Heia</t>
         </is>
       </c>
       <c r="N352" s="7" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="O352" s="15" t="n">
-        <v>13.85</v>
+        <v>4.68</v>
       </c>
       <c r="P352" s="7" t="n">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="Q352" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R352" s="16" t="n">
-        <v>14.09</v>
+        <v>28.01</v>
       </c>
       <c r="T352" s="5" t="n"/>
     </row>
@@ -46458,30 +46458,30 @@
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M353" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Vilde Sofie Fiskvik</t>
         </is>
       </c>
       <c r="N353" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O353" s="15" t="n">
-        <v>28.76</v>
+        <v>13.85</v>
       </c>
       <c r="P353" s="7" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="Q353" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R353" s="16" t="n">
-        <v>2.03</v>
+        <v>14.09</v>
       </c>
       <c r="T353" s="5" t="n"/>
     </row>
@@ -46516,32 +46516,30 @@
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M354" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="N354" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O354" s="17" t="inlineStr">
-        <is>
-          <t>1,05,66</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O354" s="15" t="n">
+        <v>28.76</v>
       </c>
       <c r="P354" s="7" t="n">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="Q354" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R354" s="16" t="n">
-        <v>14.09</v>
+        <v>2.03</v>
       </c>
       <c r="T354" s="5" t="n"/>
     </row>
@@ -46576,30 +46574,32 @@
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M355" s="7" t="inlineStr">
         <is>
-          <t>Vilde Sofie Fiskvik</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N355" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O355" s="15" t="n">
-        <v>4.34</v>
+        <v>2007</v>
+      </c>
+      <c r="O355" s="17" t="inlineStr">
+        <is>
+          <t>1,05,66</t>
+        </is>
       </c>
       <c r="P355" s="7" t="n">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="Q355" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R355" s="16" t="n">
-        <v>13.08</v>
+        <v>14.09</v>
       </c>
       <c r="T355" s="5" t="n"/>
     </row>
@@ -46634,22 +46634,22 @@
       <c r="J356" s="5" t="n"/>
       <c r="L356" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M356" s="7" t="inlineStr">
         <is>
-          <t>Hannah Olin Andersen</t>
+          <t>Vilde Sofie Fiskvik</t>
         </is>
       </c>
       <c r="N356" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O356" s="15" t="n">
-        <v>9.02</v>
+        <v>4.34</v>
       </c>
       <c r="P356" s="7" t="n">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="Q356" s="7" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         </is>
       </c>
       <c r="R356" s="16" t="n">
-        <v>5.09</v>
+        <v>13.08</v>
       </c>
       <c r="T356" s="5" t="n"/>
     </row>
@@ -46711,7 +46711,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>8677</v>
+        <v>8825</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -46751,7 +46751,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>17939</v>
+        <v>18087</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -46775,7 +46775,7 @@
         </is>
       </c>
       <c r="M362" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T362" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>23675</v>
+        <v>23729</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>21596</v>
+        <v>21727</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -11852,30 +11852,30 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Aiden Vincent</t>
+          <t>Daniel Thomas Ryan</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E249" s="15" t="n">
-        <v>54</v>
+        <v>13.5</v>
       </c>
       <c r="F249" s="7" t="n">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>1.06</v>
+        <v>30.11</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -11910,30 +11910,30 @@
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Even Bogen Nørjordet</t>
+          <t>Aiden Vincent</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E250" s="15" t="n">
-        <v>3.72</v>
+        <v>54</v>
       </c>
       <c r="F250" s="7" t="n">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>10.02</v>
+        <v>1.06</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -11968,7 +11968,7 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
@@ -11980,10 +11980,10 @@
         <v>2008</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>12.81</v>
+        <v>3.72</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>15.06</v>
+        <v>10.02</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -12026,30 +12026,30 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Aiden Vincent</t>
+          <t>Even Bogen Nørjordet</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>6.18</v>
+        <v>12.81</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>15.06</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -12114,7 +12114,7 @@
         </is>
       </c>
       <c r="F254" s="20" t="n">
-        <v>11344</v>
+        <v>11398</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="19" t="inlineStr">
@@ -12154,7 +12154,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>23675</v>
+        <v>23729</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -15874,30 +15874,30 @@
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E346" s="15" t="n">
-        <v>23.41</v>
+        <v>7.3</v>
       </c>
       <c r="F346" s="7" t="n">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
-          <t>Wroclaw/POL</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>4.02</v>
+        <v>30.11</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
@@ -15932,30 +15932,30 @@
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D347" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>7.38</v>
+        <v>23.41</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Wroclaw/POL</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>9.02</v>
+        <v>4.02</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -15995,11 +15995,11 @@
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D348" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E348" s="15" t="n">
         <v>7.38</v>
@@ -16009,11 +16009,11 @@
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>2.03</v>
+        <v>9.02</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -16048,30 +16048,30 @@
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E349" s="15" t="n">
-        <v>6.39</v>
+        <v>7.38</v>
       </c>
       <c r="F349" s="7" t="n">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>14.09</v>
+        <v>2.03</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
@@ -16106,30 +16106,30 @@
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D350" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E350" s="15" t="n">
-        <v>11.67</v>
+        <v>6.39</v>
       </c>
       <c r="F350" s="7" t="n">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H350" s="16" t="n">
-        <v>1.06</v>
+        <v>14.09</v>
       </c>
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
@@ -16164,30 +16164,30 @@
     <row r="351" ht="13" customHeight="1">
       <c r="B351" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Siver Olavsbråten Ebbestad</t>
         </is>
       </c>
       <c r="D351" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E351" s="15" t="n">
-        <v>23.86</v>
+        <v>7.43</v>
       </c>
       <c r="F351" s="7" t="n">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>15.09</v>
+        <v>30.11</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
@@ -16224,30 +16224,30 @@
     <row r="352" ht="13" customHeight="1">
       <c r="B352" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D352" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E352" s="15" t="n">
-        <v>7.51</v>
+        <v>11.67</v>
       </c>
       <c r="F352" s="7" t="n">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="G352" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H352" s="16" t="n">
-        <v>20.01</v>
+        <v>1.06</v>
       </c>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
@@ -16282,30 +16282,30 @@
     <row r="353" ht="13" customHeight="1">
       <c r="B353" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>Marcus Valentin  Giörtz</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D353" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E353" s="15" t="n">
-        <v>11.8</v>
+        <v>23.86</v>
       </c>
       <c r="F353" s="7" t="n">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="G353" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H353" s="16" t="n">
-        <v>2.08</v>
+        <v>15.09</v>
       </c>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
@@ -16340,30 +16340,30 @@
     <row r="354" ht="13" customHeight="1">
       <c r="B354" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="D354" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E354" s="15" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="F354" s="7" t="n">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="G354" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H354" s="16" t="n">
-        <v>25.05</v>
+        <v>30.11</v>
       </c>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
@@ -16398,30 +16398,30 @@
     <row r="355" ht="13" customHeight="1">
       <c r="B355" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D355" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E355" s="15" t="n">
-        <v>3.61</v>
+        <v>1.8</v>
       </c>
       <c r="F355" s="7" t="n">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="G355" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H355" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>25.05</v>
       </c>
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="inlineStr">
@@ -16544,7 +16544,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>10626</v>
+        <v>10757</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16584,7 +16584,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>21596</v>
+        <v>21727</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16853,7 +16853,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>17990</v>
+        <v>18011</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>12292</v>
+        <v>12322</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -21585,18 +21585,18 @@
         <v>2007</v>
       </c>
       <c r="E109" s="15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F109" s="7" t="n">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>6.01</v>
+        <v>30.11</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
@@ -22015,7 +22015,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9602</v>
+        <v>9623</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -22911,7 +22911,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>17990</v>
+        <v>18011</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -29043,10 +29043,10 @@
         <v>2004</v>
       </c>
       <c r="O291" s="15" t="n">
-        <v>7.13</v>
+        <v>7.06</v>
       </c>
       <c r="P291" s="7" t="n">
-        <v>806</v>
+        <v>836</v>
       </c>
       <c r="Q291" s="7" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         </is>
       </c>
       <c r="R291" s="16" t="n">
-        <v>20.01</v>
+        <v>30.11</v>
       </c>
       <c r="T291" s="5" t="n"/>
     </row>
@@ -29762,7 +29762,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>6579</v>
+        <v>6609</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -30618,7 +30618,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>12292</v>
+        <v>12322</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30842,7 +30842,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23146</v>
+        <v>23202</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -30894,11 +30894,11 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(30/12)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>22834</v>
+        <v>22860</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>21076</v>
+        <v>21252</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18512</v>
+        <v>18516</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>18087</v>
+        <v>18093</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -35018,22 +35018,22 @@
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M88" s="7" t="inlineStr">
         <is>
-          <t>Elise Sandvik Tornberg</t>
+          <t>Lina Svarlien</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>25.94</v>
+        <v>7.99</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
@@ -35041,7 +35041,7 @@
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>15.06</v>
+        <v>30.11</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -35076,30 +35076,30 @@
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M89" s="7" t="inlineStr">
         <is>
-          <t>Kaja Carlsen-Brown</t>
+          <t>Elise Sandvik Tornberg</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>5.47</v>
+        <v>25.94</v>
       </c>
       <c r="P89" s="7" t="n">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>4.02</v>
+        <v>15.06</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
@@ -35139,25 +35139,25 @@
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Kristine Moland Leiknes</t>
+          <t>Kaja Carlsen-Brown</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O90" s="15" t="n">
-        <v>5.46</v>
+        <v>5.47</v>
       </c>
       <c r="P90" s="7" t="n">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -35192,30 +35192,30 @@
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Camilla Dahl Kristiansen</t>
+          <t>Kristine Moland Leiknes</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>12.73</v>
+        <v>5.46</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>1.06</v>
+        <v>4.05</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
@@ -35250,30 +35250,30 @@
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Anastasia Schnell</t>
+          <t>Camilla Dahl Kristiansen</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>15.79</v>
+        <v>12.73</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Halle/GER</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>18.05</v>
+        <v>1.06</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -35308,30 +35308,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Kaja Carlsen-Brown</t>
+          <t>Anastasia Schnell</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>11.29</v>
+        <v>15.79</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Halle/GER</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>11.02</v>
+        <v>18.05</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -35366,30 +35366,30 @@
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Anastasia Schnell</t>
+          <t>Kaja Carlsen-Brown</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>1.6</v>
+        <v>11.29</v>
       </c>
       <c r="P94" s="7" t="n">
         <v>691</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Halle/GER</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>6.01</v>
+        <v>11.02</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -35424,30 +35424,30 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Lina Svarlien</t>
+          <t>Anastasia Schnell</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>12.94</v>
+        <v>1.6</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Halle/GER</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>2.05</v>
+        <v>6.01</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -35559,7 +35559,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>10971</v>
+        <v>11027</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -35599,7 +35599,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23146</v>
+        <v>23202</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -37200,30 +37200,30 @@
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Elizabeth Pettersen Turk</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="O139" s="15" t="n">
-        <v>12.74</v>
+        <v>7.94</v>
       </c>
       <c r="P139" s="7" t="n">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
-          <t>Valencia/ESP</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>4.05</v>
+        <v>30.11</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -37260,30 +37260,30 @@
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Elizabeth Pettersen Turk</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="O140" s="15" t="n">
-        <v>12.62</v>
+        <v>12.74</v>
       </c>
       <c r="P140" s="7" t="n">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Valencia/ESP</t>
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>14.09</v>
+        <v>4.05</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
@@ -37320,30 +37320,30 @@
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Edel Halle</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O141" s="15" t="n">
-        <v>8.01</v>
+        <v>12.62</v>
       </c>
       <c r="P141" s="7" t="n">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>9.02</v>
+        <v>14.09</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
@@ -37383,17 +37383,17 @@
       </c>
       <c r="M142" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Edel Halle</t>
         </is>
       </c>
       <c r="N142" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O142" s="15" t="n">
-        <v>8.02</v>
+        <v>8.01</v>
       </c>
       <c r="P142" s="7" t="n">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
@@ -37732,30 +37732,30 @@
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Ida Krogh Langøy</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>10.19</v>
+        <v>4.82</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>13.09</v>
+        <v>30.11</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -37809,7 +37809,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>10609</v>
+        <v>10635</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -37849,7 +37849,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>22834</v>
+        <v>22860</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -37873,7 +37873,7 @@
         </is>
       </c>
       <c r="M154" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -40826,7 +40826,7 @@
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
@@ -40838,18 +40838,18 @@
         <v>2005</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>16.33</v>
+        <v>9.4</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>648</v>
+        <v>703</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Pombal/POR</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>21.09</v>
+        <v>1.12</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
@@ -40884,30 +40884,30 @@
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Mia Guldteig Lien</t>
+          <t>Sophie Sund</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>1.7</v>
+        <v>16.33</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>773</v>
+        <v>648</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Pombal/POR</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>27.06</v>
+        <v>21.09</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -40942,7 +40942,7 @@
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
@@ -40954,18 +40954,18 @@
         <v>2003</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>6.21</v>
+        <v>1.7</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>890</v>
+        <v>773</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Flagstaff/AZ/USA</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>19.01</v>
+        <v>27.06</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -41000,30 +41000,30 @@
       <c r="J228" s="5" t="n"/>
       <c r="L228" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M228" s="7" t="inlineStr">
         <is>
-          <t>Lotta Elfenbein</t>
+          <t>Mia Guldteig Lien</t>
         </is>
       </c>
       <c r="N228" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O228" s="15" t="n">
-        <v>10.49</v>
+        <v>6.21</v>
       </c>
       <c r="P228" s="7" t="n">
-        <v>609</v>
+        <v>890</v>
       </c>
       <c r="Q228" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Flagstaff/AZ/USA</t>
         </is>
       </c>
       <c r="R228" s="16" t="n">
-        <v>25.05</v>
+        <v>19.01</v>
       </c>
       <c r="T228" s="5" t="n"/>
     </row>
@@ -41251,7 +41251,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>11145</v>
+        <v>11239</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -41788,32 +41788,30 @@
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M245" s="7" t="inlineStr">
         <is>
-          <t>Wilma Hollås Hamborg</t>
+          <t>Sophie Sund</t>
         </is>
       </c>
       <c r="N245" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O245" s="17" t="inlineStr">
-        <is>
-          <t>2,21,21</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O245" s="15" t="n">
+        <v>8.220000000000001</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
@@ -41848,30 +41846,32 @@
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Ella Njaastad Skjesol</t>
+          <t>Wilma Hollås Hamborg</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O246" s="15" t="n">
-        <v>13.11</v>
+        <v>2008</v>
+      </c>
+      <c r="O246" s="17" t="inlineStr">
+        <is>
+          <t>2,21,21</t>
+        </is>
       </c>
       <c r="P246" s="7" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>23.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -41906,30 +41906,30 @@
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M247" s="7" t="inlineStr">
         <is>
-          <t>Thea Haugen Skårild</t>
+          <t>Ella Njaastad Skjesol</t>
         </is>
       </c>
       <c r="N247" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O247" s="15" t="n">
-        <v>8.289999999999999</v>
+        <v>13.11</v>
       </c>
       <c r="P247" s="7" t="n">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="Q247" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R247" s="16" t="n">
-        <v>11.02</v>
+        <v>23.06</v>
       </c>
       <c r="T247" s="5" t="n"/>
     </row>
@@ -42022,30 +42022,30 @@
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M249" s="7" t="inlineStr">
         <is>
-          <t>Sophie Sund</t>
+          <t>Lotta Elfenbein</t>
         </is>
       </c>
       <c r="N249" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O249" s="15" t="n">
-        <v>4.84</v>
+        <v>10.49</v>
       </c>
       <c r="P249" s="7" t="n">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R249" s="16" t="n">
-        <v>21.08</v>
+        <v>25.05</v>
       </c>
       <c r="T249" s="5" t="n"/>
     </row>
@@ -42085,25 +42085,25 @@
       </c>
       <c r="M250" s="7" t="inlineStr">
         <is>
-          <t>Lotta Elfenbein</t>
+          <t>Sophie Sund</t>
         </is>
       </c>
       <c r="N250" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O250" s="15" t="n">
-        <v>4.83</v>
+        <v>4.84</v>
       </c>
       <c r="P250" s="7" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>22.06</v>
+        <v>21.08</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
@@ -42138,30 +42138,30 @@
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M251" s="7" t="inlineStr">
         <is>
-          <t>Ane Skjetne</t>
+          <t>Lotta Elfenbein</t>
         </is>
       </c>
       <c r="N251" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O251" s="15" t="n">
-        <v>2.4</v>
+        <v>4.83</v>
       </c>
       <c r="P251" s="7" t="n">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="Q251" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R251" s="16" t="n">
-        <v>28.01</v>
+        <v>22.06</v>
       </c>
       <c r="T251" s="5" t="n"/>
     </row>
@@ -42201,17 +42201,17 @@
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Ella Njaastad Skjesol</t>
+          <t>Ane Skjetne</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>9931</v>
+        <v>10013</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -42313,7 +42313,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>21076</v>
+        <v>21252</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -44786,18 +44786,18 @@
         <v>2003</v>
       </c>
       <c r="O321" s="15" t="n">
-        <v>8.01</v>
+        <v>7.99</v>
       </c>
       <c r="P321" s="7" t="n">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="Q321" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R321" s="16" t="n">
-        <v>21.01</v>
+        <v>30.11</v>
       </c>
       <c r="T321" s="5" t="n"/>
     </row>
@@ -45681,7 +45681,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>9262</v>
+        <v>9268</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -46546,22 +46546,22 @@
     <row r="355" ht="13" customHeight="1">
       <c r="B355" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>Maria Elisabet M. Damhaug</t>
+          <t>Sophia Belstad</t>
         </is>
       </c>
       <c r="D355" s="7" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="E355" s="15" t="n">
-        <v>27.74</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="F355" s="7" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="G355" s="7" t="inlineStr">
         <is>
@@ -46569,7 +46569,7 @@
         </is>
       </c>
       <c r="H355" s="16" t="n">
-        <v>15.06</v>
+        <v>30.11</v>
       </c>
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="inlineStr">
@@ -46694,7 +46694,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>9151</v>
+        <v>9155</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -46734,7 +46734,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18512</v>
+        <v>18516</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -46751,7 +46751,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>18087</v>
+        <v>18093</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -16732,25 +16732,25 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>IL i BUL 2. lag</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/16)</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>20511</v>
+        <v>18932</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -16760,25 +16760,25 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL 2. lag</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/16)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>18932</v>
+        <v>18456</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -16788,25 +16788,25 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>18456</v>
+        <v>18443</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -17180,7 +17180,7 @@
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="F2" s="8" t="n">
@@ -17194,7 +17194,7 @@
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
       <c r="P2" s="8" t="n">
@@ -17210,7 +17210,7 @@
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>IL i BUL 2. lag</t>
         </is>
       </c>
       <c r="J3" s="5" t="n"/>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="M3" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL 2. lag</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -17350,25 +17350,25 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Mats Hjørnevik</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>7.26</v>
+        <v>7.02</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>752</v>
+        <v>854</v>
       </c>
       <c r="G9" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H9" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>17.02</v>
       </c>
       <c r="J9" s="5" t="n"/>
       <c r="L9" s="14" t="inlineStr">
@@ -17378,25 +17378,25 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Mats Hjørnevik</t>
+          <t>Magnus Birk Johnsen</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>7.02</v>
+        <v>7.17</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>854</v>
+        <v>789</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>17.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -17408,25 +17408,25 @@
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Erik Hagen</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>767</v>
+        <v>894</v>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H10" s="16" t="n">
-        <v>25.08</v>
+        <v>27.06</v>
       </c>
       <c r="J10" s="5" t="n"/>
       <c r="L10" s="14" t="inlineStr">
@@ -17436,25 +17436,25 @@
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Erik Hagen</t>
+          <t>Magnus Birk Johnsen</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>894</v>
+        <v>816</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>27.06</v>
+        <v>2.08</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -17466,25 +17466,25 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Tobias Bang Gulbrandsen</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>22.82</v>
+        <v>21.96</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>768</v>
+        <v>865</v>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H11" s="16" t="n">
-        <v>25.08</v>
+        <v>28.01</v>
       </c>
       <c r="J11" s="5" t="n"/>
       <c r="L11" s="14" t="inlineStr">
@@ -17494,25 +17494,25 @@
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Tobias Bang Gulbrandsen</t>
+          <t>Magnus Birk Johnsen</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>21.96</v>
+        <v>22.37</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>865</v>
+        <v>818</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Pombal/POR</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>28.01</v>
+        <v>21.09</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -17524,25 +17524,25 @@
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Tobias Bang Gulbrandsen</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E12" s="15" t="n">
-        <v>53.21</v>
+        <v>47.93</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>636</v>
+        <v>895</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
-        <v>11.02</v>
+        <v>30.08</v>
       </c>
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
@@ -17552,25 +17552,25 @@
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Tobias Bang Gulbrandsen</t>
+          <t>Ole Sivert Røyrhus</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>47.93</v>
+        <v>50.24</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>895</v>
+        <v>772</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>30.08</v>
+        <v>2.08</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -17582,19 +17582,19 @@
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Sebastian van der Veen</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>1,46,70</t>
+          <t>1,55,51</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>1011</v>
+        <v>782</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="H13" s="16" t="n">
-        <v>30.05</v>
+        <v>18.06</v>
       </c>
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
@@ -17612,27 +17612,27 @@
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Sebastian van der Veen</t>
+          <t>Ole Sivert Røyrhus</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>1,55,51</t>
+          <t>1,54,1</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>782</v>
+        <v>814</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>18.06</v>
+        <v>14.08</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -17644,27 +17644,27 @@
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Tveit</t>
+          <t>Mats Hauge</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E14" s="17" t="inlineStr">
         <is>
-          <t>3,38,73</t>
+          <t>3,50,54</t>
         </is>
       </c>
       <c r="F14" s="7" t="n">
-        <v>1003</v>
+        <v>858</v>
       </c>
       <c r="G14" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Watford/GBR</t>
         </is>
       </c>
       <c r="H14" s="16" t="n">
-        <v>22.05</v>
+        <v>8.06</v>
       </c>
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
@@ -17674,27 +17674,27 @@
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Mats Hauge</t>
+          <t>Ole Sivert Røyrhus</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>3,50,54</t>
+          <t>3,58,48</t>
         </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>858</v>
+        <v>776</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Watford/GBR</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>8.06</v>
+        <v>24.08</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -17706,27 +17706,27 @@
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Sebastian van der Veen</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E15" s="17" t="inlineStr">
         <is>
-          <t>8,50,01</t>
+          <t>8,24,21</t>
         </is>
       </c>
       <c r="F15" s="7" t="n">
-        <v>728</v>
+        <v>840</v>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H15" s="16" t="n">
-        <v>30.08</v>
+        <v>14.06</v>
       </c>
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
@@ -17736,27 +17736,27 @@
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Sebastian van der Veen</t>
+          <t>Oliver Sund</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O15" s="17" t="inlineStr">
         <is>
-          <t>8,24,21</t>
+          <t>9,09,28</t>
         </is>
       </c>
       <c r="P15" s="7" t="n">
-        <v>840</v>
+        <v>653</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>14.06</v>
+        <v>30.08</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -17768,313 +17768,309 @@
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Simen Hernes Ellingsdalen</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="E16" s="17" t="inlineStr">
         <is>
-          <t>15,01,78</t>
+          <t>14,56,57</t>
         </is>
       </c>
       <c r="F16" s="7" t="n">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="G16" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H16" s="16" t="n">
-        <v>29.06</v>
+        <v>28.09</v>
       </c>
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Simen Hernes Ellingsdalen</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O16" s="17" t="inlineStr">
-        <is>
-          <t>14,56,57</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O16" s="15" t="n">
+        <v>8.81</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>28.09</v>
+        <v>28.01</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
     <row r="17" ht="13" customHeight="1">
       <c r="B17" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Ariand Shegani</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="E17" s="17" t="inlineStr">
-        <is>
-          <t>32,21,52</t>
-        </is>
+      <c r="E17" s="15" t="n">
+        <v>6.11</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>717</v>
+        <v>631</v>
       </c>
       <c r="G17" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H17" s="16" t="n">
-        <v>27.06</v>
+        <v>15.09</v>
       </c>
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O17" s="15" t="n">
-        <v>6.11</v>
+        <v>54.97</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>631</v>
+        <v>777</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>15.09</v>
+        <v>27.06</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
     <row r="18" ht="13" customHeight="1">
       <c r="B18" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Ariand Shegani</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E18" s="15" t="n">
-        <v>6.64</v>
+        <v>12.11</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>749</v>
+        <v>572</v>
       </c>
       <c r="G18" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nesodden</t>
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>31.08</v>
+        <v>22.09</v>
       </c>
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>12.11</v>
+        <v>4.05</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>572</v>
+        <v>730</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Nesodden</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>22.09</v>
+        <v>28.01</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
     <row r="19" ht="13" customHeight="1">
       <c r="B19" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Zion Ramirez</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E19" s="15" t="n">
-        <v>13.34</v>
+        <v>2.86</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>706</v>
+        <v>594</v>
       </c>
       <c r="G19" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>3.08</v>
+        <v>17.08</v>
       </c>
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Zion Ramirez</t>
+          <t>Aksel Wormdahl</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>2.86</v>
+        <v>6.64</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>594</v>
+        <v>749</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>17.08</v>
+        <v>4.05</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
     <row r="20" ht="13" customHeight="1">
       <c r="B20" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>Theodor Gutvik</t>
+          <t>Sigurd Smitt-Ingebretsen</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E20" s="15" t="n">
-        <v>7.68</v>
+        <v>37.12</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>2679</v>
+        <v>630</v>
       </c>
       <c r="G20" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Spikkestad</t>
         </is>
       </c>
       <c r="H20" s="16" t="n">
-        <v>15.11</v>
+        <v>22.09</v>
       </c>
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Smitt-Ingebretsen</t>
+          <t>Aksel Wormdahl</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>37.12</v>
+        <v>13.51</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>630</v>
+        <v>724</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Spikkestad</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>22.09</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
     <row r="21" ht="13" customHeight="1">
       <c r="B21" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Sigurd Smitt-Ingebretsen</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E21" s="15" t="n">
-        <v>75.08</v>
+        <v>38.06</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>974</v>
+        <v>586</v>
       </c>
       <c r="G21" s="7" t="inlineStr">
         <is>
@@ -18082,7 +18078,7 @@
         </is>
       </c>
       <c r="H21" s="16" t="n">
-        <v>16.06</v>
+        <v>19.1</v>
       </c>
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
@@ -18092,25 +18088,25 @@
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Smitt-Ingebretsen</t>
+          <t>Sverre Ranes Olstad</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>38.06</v>
+        <v>47.58</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>586</v>
+        <v>720</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>19.1</v>
+        <v>4.06</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -18147,7 +18143,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>12258</v>
+        <v>9781</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -18164,7 +18160,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>9781</v>
+        <v>9888</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -18267,116 +18263,116 @@
     <row r="28" ht="13" customHeight="1">
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Christian Wright</t>
         </is>
       </c>
       <c r="D28" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E28" s="15" t="n">
-        <v>22.9</v>
+        <v>10.87</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>759</v>
+        <v>875</v>
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H28" s="16" t="n">
-        <v>10.02</v>
+        <v>30.08</v>
       </c>
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Christian Wright</t>
+          <t>Bjørn Einar Kjønstad-Prestvik</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>10.87</v>
+        <v>22.89</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>875</v>
+        <v>760</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>30.08</v>
+        <v>9.08</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
     <row r="29" ht="13" customHeight="1">
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Mats Hjørnevik</t>
         </is>
       </c>
       <c r="D29" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E29" s="15" t="n">
-        <v>7.29</v>
+        <v>10.92</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>740</v>
+        <v>862</v>
       </c>
       <c r="G29" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H29" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>19.06</v>
       </c>
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Mats Hjørnevik</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O29" s="15" t="n">
-        <v>10.92</v>
+        <v>22.97</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>19.06</v>
+        <v>21.06</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -18388,17 +18384,17 @@
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Tobias Dybos Larsson</t>
+          <t>Josh Anthony Bjerke</t>
         </is>
       </c>
       <c r="D30" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E30" s="15" t="n">
-        <v>11.51</v>
+        <v>10.93</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>718</v>
+        <v>860</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
@@ -18416,17 +18412,17 @@
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Josh Anthony Bjerke</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>10.93</v>
+        <v>11.39</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>860</v>
+        <v>746</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
@@ -18441,266 +18437,264 @@
     <row r="31" ht="13" customHeight="1">
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Snorre Cornelius Sund</t>
+          <t>Mats Hjørnevik</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E31" s="15" t="n">
-        <v>11.56</v>
+        <v>22</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>706</v>
+        <v>860</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>30.08</v>
+        <v>17.02</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Mats Hjørnevik</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O31" s="15" t="n">
-        <v>22</v>
+        <v>50.91</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>860</v>
+        <v>739</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>17.02</v>
+        <v>22.06</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Hans Horn Tønnessen</t>
+          <t>Christian Wright</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E32" s="15" t="n">
-        <v>11.58</v>
+        <v>22.05</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>702</v>
+        <v>855</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>16.06</v>
+        <v>21.06</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Christian Wright</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>22.05</v>
+        <v>7.3</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>855</v>
+        <v>736</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>21.06</v>
+        <v>9.02</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Hans Horn Tønnessen</t>
+          <t>Sebastian van der Veen</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E33" s="15" t="n">
-        <v>23.59</v>
+        <v>2002</v>
+      </c>
+      <c r="E33" s="17" t="inlineStr">
+        <is>
+          <t>3,51,00</t>
+        </is>
       </c>
       <c r="F33" s="7" t="n">
-        <v>688</v>
+        <v>853</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>15.06</v>
+        <v>24.05</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Sebastian van der Veen</t>
+          <t>Arne Røstad</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
         <v>2002</v>
       </c>
-      <c r="O33" s="17" t="inlineStr">
-        <is>
-          <t>3,51,00</t>
-        </is>
+      <c r="O33" s="15" t="n">
+        <v>11.46</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>853</v>
+        <v>729</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>24.05</v>
+        <v>23.06</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Johannes Steinsland Gulbrandsen Lunde</t>
+          <t>Mads Hjort-Larsen</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>6.36</v>
+        <v>22.08</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>687</v>
+        <v>851</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>28.01</v>
+        <v>2.06</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Mads Hjort-Larsen</t>
+          <t>Tomas Digernes Heltne</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>22.08</v>
+        <v>11.47</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>851</v>
+        <v>727</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>2.06</v>
+        <v>23.06</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
     <row r="35" ht="13" customHeight="1">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Martin Ukkelberg Sløgedal</t>
+          <t>Jonathan Holen</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E35" s="17" t="inlineStr">
-        <is>
-          <t>4,09,57</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E35" s="15" t="n">
+        <v>10.97</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>675</v>
+        <v>849</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>2.08</v>
+        <v>27.06</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -18710,55 +18704,55 @@
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Holen</t>
+          <t>Jonas Ramstad</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="O35" s="15" t="n">
-        <v>10.97</v>
+        <v>11.48</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>849</v>
+        <v>725</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>27.06</v>
+        <v>21.08</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
     <row r="36" ht="13" customHeight="1">
       <c r="B36" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Sigurd Petersen Fergestad</t>
         </is>
       </c>
       <c r="D36" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E36" s="15" t="n">
-        <v>12.96</v>
+        <v>5.94</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>665</v>
+        <v>593</v>
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H36" s="16" t="n">
-        <v>30.08</v>
+        <v>10.02</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
@@ -18768,141 +18762,141 @@
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Petersen Fergestad</t>
+          <t>Bjørn Einar Kjønstad-Prestvik</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>5.94</v>
+        <v>6.36</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>593</v>
+        <v>687</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>10.02</v>
+        <v>2.08</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
     <row r="37" ht="13" customHeight="1">
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Daniel Thrana</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D37" s="7" t="n">
         <v>2002</v>
       </c>
       <c r="E37" s="15" t="n">
-        <v>2.98</v>
+        <v>5.92</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>661</v>
+        <v>588</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H37" s="16" t="n">
-        <v>15.11</v>
+        <v>27.08</v>
       </c>
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Sverre Ranes Olstad</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="O37" s="15" t="n">
-        <v>5.92</v>
+        <v>3.01</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>588</v>
+        <v>677</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>27.08</v>
+        <v>18.02</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
     <row r="38" ht="13" customHeight="1">
       <c r="B38" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Olai Stav Graasvoll</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D38" s="7" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="E38" s="15" t="n">
-        <v>24.18</v>
+        <v>11.97</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>630</v>
+        <v>556</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="H38" s="16" t="n">
-        <v>15.06</v>
+        <v>3.09</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>11.97</v>
+        <v>6.3</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>556</v>
+        <v>674</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Lambertseter</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>3.09</v>
+        <v>27.01</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -18914,53 +18908,53 @@
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Theodor Gutvik</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="D39" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E39" s="15" t="n">
-        <v>6.07</v>
+        <v>5.75</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>622</v>
+        <v>549</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H39" s="16" t="n">
-        <v>14.06</v>
+        <v>15.09</v>
       </c>
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>5.75</v>
+        <v>1.76</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>15.09</v>
+        <v>27.01</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -18997,7 +18991,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>8253</v>
+        <v>9151</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -19014,7 +19008,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>9151</v>
+        <v>8568</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -19037,7 +19031,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>20511</v>
+        <v>18932</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -19054,7 +19048,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>18932</v>
+        <v>18456</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -19069,7 +19063,7 @@
         </is>
       </c>
       <c r="C45" s="20" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J45" s="5" t="n"/>
       <c r="L45" s="19" t="inlineStr">
@@ -19078,7 +19072,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -19120,7 +19114,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="F49" s="8" t="n">
@@ -19150,7 +19144,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="J50" s="5" t="n"/>
@@ -19290,17 +19284,17 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Magnus Birk Johnsen</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>7.17</v>
+        <v>7.26</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>789</v>
+        <v>752</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
@@ -19348,25 +19342,25 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Magnus Birk Johnsen</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>816</v>
+        <v>767</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>2.08</v>
+        <v>25.08</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -19406,25 +19400,25 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Magnus Birk Johnsen</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>22.37</v>
+        <v>22.82</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>818</v>
+        <v>768</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Pombal/POR</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>21.09</v>
+        <v>25.08</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -19464,25 +19458,25 @@
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Ole Sivert Røyrhus</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E59" s="15" t="n">
-        <v>50.24</v>
+        <v>53.21</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>772</v>
+        <v>636</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>2.08</v>
+        <v>11.02</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
@@ -19522,27 +19516,27 @@
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Ole Sivert Røyrhus</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>1,54,1</t>
+          <t>1,46,70</t>
         </is>
       </c>
       <c r="F60" s="7" t="n">
-        <v>814</v>
+        <v>1011</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>14.08</v>
+        <v>30.05</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -19584,27 +19578,27 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Ole Sivert Røyrhus</t>
+          <t>Sigurd Tveit</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E61" s="17" t="inlineStr">
         <is>
-          <t>3,58,48</t>
+          <t>3,38,73</t>
         </is>
       </c>
       <c r="F61" s="7" t="n">
-        <v>776</v>
+        <v>1003</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>24.08</v>
+        <v>22.05</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -19646,7 +19640,7 @@
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Oliver Sund</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
@@ -19654,11 +19648,11 @@
       </c>
       <c r="E62" s="17" t="inlineStr">
         <is>
-          <t>9,09,28</t>
+          <t>8,50,01</t>
         </is>
       </c>
       <c r="F62" s="7" t="n">
-        <v>653</v>
+        <v>728</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
@@ -19703,30 +19697,32 @@
     <row r="63" ht="13" customHeight="1">
       <c r="B63" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E63" s="15" t="n">
-        <v>8.81</v>
+        <v>2005</v>
+      </c>
+      <c r="E63" s="17" t="inlineStr">
+        <is>
+          <t>15,01,78</t>
+        </is>
       </c>
       <c r="F63" s="7" t="n">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>28.01</v>
+        <v>29.06</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -19763,22 +19759,24 @@
     <row r="64" ht="13" customHeight="1">
       <c r="B64" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E64" s="15" t="n">
-        <v>54.97</v>
+        <v>2005</v>
+      </c>
+      <c r="E64" s="17" t="inlineStr">
+        <is>
+          <t>32,21,52</t>
+        </is>
       </c>
       <c r="F64" s="7" t="n">
-        <v>777</v>
+        <v>717</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
@@ -19821,30 +19819,30 @@
     <row r="65" ht="13" customHeight="1">
       <c r="B65" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="E65" s="15" t="n">
-        <v>4.05</v>
+        <v>6.64</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>28.01</v>
+        <v>31.08</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -19879,30 +19877,30 @@
     <row r="66" ht="13" customHeight="1">
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Aksel Wormdahl</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>6.64</v>
+        <v>13.34</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>749</v>
+        <v>706</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>4.05</v>
+        <v>3.08</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -19937,30 +19935,30 @@
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Aksel Wormdahl</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E67" s="15" t="n">
-        <v>13.51</v>
+        <v>2.98</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>724</v>
+        <v>661</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>15.11</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
@@ -19995,30 +19993,30 @@
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Sverre Ranes Olstad</t>
+          <t>Daniel Thrana</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>47.58</v>
+        <v>75.08</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>720</v>
+        <v>974</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>4.06</v>
+        <v>16.06</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
@@ -20083,7 +20081,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>9888</v>
+        <v>10240</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -20208,25 +20206,25 @@
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Einar Kjønstad-Prestvik</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>22.89</v>
+        <v>22.9</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>9.08</v>
+        <v>10.02</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -20261,30 +20259,30 @@
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="E76" s="15" t="n">
-        <v>22.97</v>
+        <v>7.29</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>21.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
@@ -20324,17 +20322,17 @@
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Emil Vestre</t>
+          <t>Tobias Dybos Larsson</t>
         </is>
       </c>
       <c r="D77" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E77" s="15" t="n">
-        <v>11.39</v>
+        <v>11.51</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="G77" s="7" t="inlineStr">
         <is>
@@ -20377,30 +20375,30 @@
     <row r="78" ht="13" customHeight="1">
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Snorre Cornelius Sund</t>
         </is>
       </c>
       <c r="D78" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E78" s="15" t="n">
-        <v>50.91</v>
+        <v>11.56</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>739</v>
+        <v>706</v>
       </c>
       <c r="G78" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H78" s="16" t="n">
-        <v>22.06</v>
+        <v>30.08</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
@@ -20435,22 +20433,22 @@
     <row r="79" ht="13" customHeight="1">
       <c r="B79" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Emil Vestre</t>
+          <t>Hans Horn Tønnessen</t>
         </is>
       </c>
       <c r="D79" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E79" s="15" t="n">
-        <v>7.3</v>
+        <v>11.58</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="G79" s="7" t="inlineStr">
         <is>
@@ -20458,7 +20456,7 @@
         </is>
       </c>
       <c r="H79" s="16" t="n">
-        <v>9.02</v>
+        <v>16.06</v>
       </c>
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
@@ -20493,30 +20491,30 @@
     <row r="80" ht="13" customHeight="1">
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Arne Røstad</t>
+          <t>Hans Horn Tønnessen</t>
         </is>
       </c>
       <c r="D80" s="7" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E80" s="15" t="n">
-        <v>11.46</v>
+        <v>23.59</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>729</v>
+        <v>688</v>
       </c>
       <c r="G80" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H80" s="16" t="n">
-        <v>23.06</v>
+        <v>15.06</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
@@ -20551,30 +20549,30 @@
     <row r="81" ht="13" customHeight="1">
       <c r="B81" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Tomas Digernes Heltne</t>
+          <t>Johannes Steinsland Gulbrandsen Lunde</t>
         </is>
       </c>
       <c r="D81" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="E81" s="15" t="n">
-        <v>11.47</v>
+        <v>6.36</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>727</v>
+        <v>687</v>
       </c>
       <c r="G81" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H81" s="16" t="n">
-        <v>23.06</v>
+        <v>28.01</v>
       </c>
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
@@ -20609,30 +20607,32 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Jonas Ramstad</t>
+          <t>Martin Ukkelberg Sløgedal</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E82" s="15" t="n">
-        <v>11.48</v>
+        <v>2005</v>
+      </c>
+      <c r="E82" s="17" t="inlineStr">
+        <is>
+          <t>4,09,57</t>
+        </is>
       </c>
       <c r="F82" s="7" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>21.08</v>
+        <v>2.08</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -20669,30 +20669,30 @@
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Einar Kjønstad-Prestvik</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>6.36</v>
+        <v>12.96</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>2.08</v>
+        <v>30.08</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
@@ -20727,30 +20727,30 @@
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Sverre Ranes Olstad</t>
+          <t>Olai Stav Graasvoll</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>3.01</v>
+        <v>24.18</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>677</v>
+        <v>630</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>18.02</v>
+        <v>15.06</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -20790,17 +20790,17 @@
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Theodor Gutvik</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>6.3</v>
+        <v>6.07</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>674</v>
+        <v>622</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>27.01</v>
+        <v>14.06</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -20843,30 +20843,30 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Åsmund Frøyen</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>1.76</v>
+        <v>36.13</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>27.01</v>
+        <v>23.06</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -20931,7 +20931,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>8568</v>
+        <v>8203</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>18456</v>
+        <v>18443</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -21003,7 +21003,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Ullensaker/Kisa IL</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>25764</v>
+        <v>25847</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -728,16 +728,16 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>25446</v>
+        <v>25773</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="M54" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="P54" s="8" t="n">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Ullensaker/Kisa IL</t>
         </is>
       </c>
       <c r="T55" s="5" t="n"/>
@@ -3495,25 +3495,25 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Chris Aulibråten</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="O61" s="15" t="n">
-        <v>6.74</v>
+        <v>7.36</v>
       </c>
       <c r="P61" s="7" t="n">
-        <v>989</v>
+        <v>713</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>9.02</v>
+        <v>7.12</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -3553,25 +3553,25 @@
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Kristoffer Olstad Dahl</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>10.47</v>
+        <v>11.45</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>986</v>
+        <v>732</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>27.06</v>
+        <v>30.08</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -3611,25 +3611,25 @@
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Kristoffer Olstad Dahl</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>21.23</v>
+        <v>23.34</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>955</v>
+        <v>713</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>21.08</v>
+        <v>31.08</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -3666,30 +3666,32 @@
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O64" s="15" t="n">
-        <v>47.89</v>
+        <v>1997</v>
+      </c>
+      <c r="O64" s="17" t="inlineStr">
+        <is>
+          <t>1,43,13</t>
+        </is>
       </c>
       <c r="P64" s="7" t="n">
-        <v>898</v>
+        <v>1129</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Monaco/MON</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>18.07</v>
+        <v>12.07</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -3726,32 +3728,32 @@
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Robin Wathne Nedrehagen</t>
+          <t>Andreas Fjeld Halvorsen</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="O65" s="17" t="inlineStr">
         <is>
-          <t>1,53,10</t>
+          <t>3,38,32</t>
         </is>
       </c>
       <c r="P65" s="7" t="n">
-        <v>838</v>
+        <v>1009</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Watford/GBR</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>8.06</v>
+        <v>24.05</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -3788,32 +3790,32 @@
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Vetle Farbu-Solbakken</t>
+          <t>Senay Amlesom Fissehatsion</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="O66" s="17" t="inlineStr">
         <is>
-          <t>3,45,82</t>
+          <t>7,48,29</t>
         </is>
       </c>
       <c r="P66" s="7" t="n">
-        <v>912</v>
+        <v>1015</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Ostrava/CZE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>10.09</v>
+        <v>10.08</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -3850,32 +3852,32 @@
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Abdullahi Dahir Rabi</t>
+          <t>Awet Nftalem Kibrab</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="O67" s="17" t="inlineStr">
         <is>
-          <t>7,50,53</t>
+          <t>13,24,25</t>
         </is>
       </c>
       <c r="P67" s="7" t="n">
-        <v>1002</v>
+        <v>1029</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>10.08</v>
+        <v>29.06</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -3912,32 +3914,32 @@
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Abdullahi Dahir Rabi</t>
+          <t>Awet Nftalem Kibrab</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="O68" s="17" t="inlineStr">
         <is>
-          <t>13,29,26</t>
+          <t>28,44,60</t>
         </is>
       </c>
       <c r="P68" s="7" t="n">
-        <v>1012</v>
+        <v>959</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Brussel/BEL</t>
+          <t>London/GBR</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>25.05</v>
+        <v>18.05</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -3972,30 +3974,32 @@
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O69" s="15" t="n">
-        <v>55.39</v>
+        <v>1996</v>
+      </c>
+      <c r="O69" s="17" t="inlineStr">
+        <is>
+          <t>8,22,94</t>
+        </is>
       </c>
       <c r="P69" s="7" t="n">
-        <v>762</v>
+        <v>1020</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Karlsruhe/GER</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>15.09</v>
+        <v>11.05</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
@@ -4030,30 +4034,30 @@
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Julian Zhang Førsund</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O70" s="15" t="n">
-        <v>1.9</v>
+        <v>57.53</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>738</v>
+        <v>691</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>11.05</v>
+        <v>3.08</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -4088,30 +4092,30 @@
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Michael Reklev</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>6.76</v>
+        <v>2.04</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>775</v>
+        <v>854</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>2.08</v>
+        <v>7.09</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
@@ -4146,30 +4150,30 @@
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Even Ragnhildsløkken</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>13.71</v>
+        <v>3.6</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>745</v>
+        <v>636</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>3.08</v>
+        <v>26.05</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
@@ -4204,30 +4208,30 @@
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Michael Reklev</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O73" s="15" t="n">
-        <v>1.5</v>
+        <v>6.92</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>672</v>
+        <v>810</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>17.02</v>
+        <v>7.12</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
@@ -4262,30 +4266,30 @@
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Michael Reklev</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>3.19</v>
+        <v>1.58</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>28.08</v>
+        <v>7.09</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
@@ -4325,25 +4329,25 @@
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Kasper Sagen</t>
+          <t>Bjørn Arne Kristiansen</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>1999</v>
+        <v>1968</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>80.66</v>
+        <v>43.92</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>1045</v>
+        <v>543</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Heusden-Zolder/BEL</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>15.06</v>
+        <v>26.05</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -4397,7 +4401,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>13106</v>
+        <v>12613</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -4528,30 +4532,32 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O82" s="15" t="n">
-        <v>6.82</v>
+        <v>1998</v>
+      </c>
+      <c r="O82" s="17" t="inlineStr">
+        <is>
+          <t>7,48,42</t>
+        </is>
       </c>
       <c r="P82" s="7" t="n">
-        <v>949</v>
+        <v>1014</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>27.01</v>
+        <v>10.08</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -4588,30 +4594,32 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O83" s="15" t="n">
-        <v>10.6</v>
+        <v>1996</v>
+      </c>
+      <c r="O83" s="17" t="inlineStr">
+        <is>
+          <t>7,49,87</t>
+        </is>
       </c>
       <c r="P83" s="7" t="n">
-        <v>948</v>
+        <v>1006</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>30.08</v>
+        <v>10.08</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -4648,30 +4656,32 @@
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Andreas Fjeld Halvorsen</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O84" s="15" t="n">
-        <v>21.33</v>
+        <v>2005</v>
+      </c>
+      <c r="O84" s="17" t="inlineStr">
+        <is>
+          <t>7,51,43</t>
+        </is>
       </c>
       <c r="P84" s="7" t="n">
-        <v>942</v>
+        <v>998</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nembro/ITA</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>1.09</v>
+        <v>19.06</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -4708,30 +4718,32 @@
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Senay Amlesom Fissehatsion</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O85" s="15" t="n">
-        <v>21.5</v>
+        <v>1995</v>
+      </c>
+      <c r="O85" s="17" t="inlineStr">
+        <is>
+          <t>13,33,51</t>
+        </is>
       </c>
       <c r="P85" s="7" t="n">
-        <v>921</v>
+        <v>998</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>17.02</v>
+        <v>29.06</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -4766,28 +4778,28 @@
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Simon Steinshamn</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O86" s="17" t="inlineStr">
         <is>
-          <t>3,45,99</t>
+          <t>8,28,47</t>
         </is>
       </c>
       <c r="P86" s="7" t="n">
-        <v>910</v>
+        <v>994</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Watford/GBR</t>
+          <t>Roma/ITA</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
@@ -4828,30 +4840,32 @@
       <c r="J87" s="5" t="n"/>
       <c r="L87" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M87" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="N87" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O87" s="15" t="n">
-        <v>6.91</v>
+        <v>1998</v>
+      </c>
+      <c r="O87" s="17" t="inlineStr">
+        <is>
+          <t>3,40,43</t>
+        </is>
       </c>
       <c r="P87" s="7" t="n">
-        <v>905</v>
+        <v>980</v>
       </c>
       <c r="Q87" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R87" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>21.08</v>
       </c>
       <c r="T87" s="5" t="n"/>
     </row>
@@ -4888,30 +4902,32 @@
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M88" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O88" s="15" t="n">
-        <v>10.77</v>
+        <v>1997</v>
+      </c>
+      <c r="O88" s="17" t="inlineStr">
+        <is>
+          <t>3,42,24</t>
+        </is>
       </c>
       <c r="P88" s="7" t="n">
-        <v>902</v>
+        <v>956</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>27.06</v>
+        <v>18.02</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -4948,30 +4964,32 @@
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M89" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O89" s="15" t="n">
-        <v>21.65</v>
+        <v>1996</v>
+      </c>
+      <c r="O89" s="17" t="inlineStr">
+        <is>
+          <t>3,42,25</t>
+        </is>
       </c>
       <c r="P89" s="7" t="n">
-        <v>902</v>
+        <v>956</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Kessel-Louvain/BEL</t>
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>18.06</v>
+        <v>27.07</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
@@ -5008,32 +5026,32 @@
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Abdullahi Dahir Rabi</t>
+          <t>Kristian Bråthen Børve</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O90" s="17" t="inlineStr">
         <is>
-          <t>3,46,89</t>
+          <t>13,52,44</t>
         </is>
       </c>
       <c r="P90" s="7" t="n">
-        <v>899</v>
+        <v>941</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>21.08</v>
+        <v>18.06</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -5075,27 +5093,27 @@
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Håkon Stavik</t>
+          <t>Kristian Bråthen Børve</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="O91" s="17" t="inlineStr">
         <is>
-          <t>8,12,30</t>
+          <t>8,04,21</t>
         </is>
       </c>
       <c r="P91" s="7" t="n">
-        <v>895</v>
+        <v>934</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>14.06</v>
+        <v>15.05</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
@@ -5132,30 +5150,30 @@
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Ruben Martinsen</t>
+          <t>Even Ragnhildsløkken</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>57.91</v>
+        <v>1.96</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>731</v>
+        <v>788</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>16.06</v>
+        <v>30.08</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -5192,30 +5210,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Dag Storm Wergeland</t>
+          <t>Vadim Pecherskii</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>57.41</v>
+        <v>1.9</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>26.05</v>
+        <v>18.08</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -5255,25 +5273,25 @@
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Even Ragnhildsløkken</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>6.35</v>
+        <v>6.36</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>12.09</v>
+        <v>1.09</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -5308,30 +5326,30 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Andreas Nordgård</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>3</v>
+        <v>3.56</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>672</v>
+        <v>628</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>26.02</v>
+        <v>7.12</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -5366,30 +5384,30 @@
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Nicholas Reklev</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>672</v>
+        <v>616</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>26.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -5443,7 +5461,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>12658</v>
+        <v>13234</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5483,7 +5501,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>25764</v>
+        <v>25847</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5549,7 +5567,7 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="F106" s="8" t="n">
@@ -5579,7 +5597,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="J107" s="5" t="n"/>
@@ -5719,17 +5737,17 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Julian Zhang Førsund</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>7.41</v>
+        <v>6.74</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>694</v>
+        <v>989</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
@@ -5777,25 +5795,25 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Olstad Dahl</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>11.45</v>
+        <v>10.47</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>732</v>
+        <v>986</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>30.08</v>
+        <v>27.06</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -5835,25 +5853,25 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Olstad Dahl</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>23.34</v>
+        <v>21.23</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>713</v>
+        <v>955</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>31.08</v>
+        <v>21.08</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -5888,32 +5906,30 @@
     <row r="116" ht="13" customHeight="1">
       <c r="B116" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kramer</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E116" s="17" t="inlineStr">
-        <is>
-          <t>1,43,13</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="E116" s="15" t="n">
+        <v>47.89</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>1129</v>
+        <v>898</v>
       </c>
       <c r="G116" s="7" t="inlineStr">
         <is>
-          <t>Monaco/MON</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H116" s="16" t="n">
-        <v>12.07</v>
+        <v>18.07</v>
       </c>
       <c r="J116" s="5" t="n"/>
       <c r="L116" s="14" t="inlineStr">
@@ -5948,32 +5964,32 @@
     <row r="117" ht="13" customHeight="1">
       <c r="B117" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Andreas Fjeld Halvorsen</t>
+          <t>Robin Wathne Nedrehagen</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E117" s="17" t="inlineStr">
         <is>
-          <t>3,38,32</t>
+          <t>1,53,10</t>
         </is>
       </c>
       <c r="F117" s="7" t="n">
-        <v>1009</v>
+        <v>838</v>
       </c>
       <c r="G117" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Watford/GBR</t>
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>24.05</v>
+        <v>8.06</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="inlineStr">
@@ -6010,32 +6026,32 @@
     <row r="118" ht="13" customHeight="1">
       <c r="B118" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Senay Amlesom Fissehatsion</t>
+          <t>Vetle Farbu-Solbakken</t>
         </is>
       </c>
       <c r="D118" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E118" s="17" t="inlineStr">
         <is>
-          <t>7,48,29</t>
+          <t>3,45,82</t>
         </is>
       </c>
       <c r="F118" s="7" t="n">
-        <v>1015</v>
+        <v>912</v>
       </c>
       <c r="G118" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Ostrava/CZE</t>
         </is>
       </c>
       <c r="H118" s="16" t="n">
-        <v>10.08</v>
+        <v>10.09</v>
       </c>
       <c r="J118" s="5" t="n"/>
       <c r="L118" s="14" t="inlineStr">
@@ -6072,32 +6088,32 @@
     <row r="119" ht="13" customHeight="1">
       <c r="B119" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>Awet Nftalem Kibrab</t>
+          <t>Abdullahi Dahir Rabi</t>
         </is>
       </c>
       <c r="D119" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E119" s="17" t="inlineStr">
         <is>
-          <t>13,24,25</t>
+          <t>7,50,53</t>
         </is>
       </c>
       <c r="F119" s="7" t="n">
-        <v>1029</v>
+        <v>1002</v>
       </c>
       <c r="G119" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H119" s="16" t="n">
-        <v>29.06</v>
+        <v>10.08</v>
       </c>
       <c r="J119" s="5" t="n"/>
       <c r="L119" s="14" t="inlineStr">
@@ -6134,32 +6150,32 @@
     <row r="120" ht="13" customHeight="1">
       <c r="B120" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>Awet Nftalem Kibrab</t>
+          <t>Abdullahi Dahir Rabi</t>
         </is>
       </c>
       <c r="D120" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E120" s="17" t="inlineStr">
         <is>
-          <t>28,44,60</t>
+          <t>13,29,26</t>
         </is>
       </c>
       <c r="F120" s="7" t="n">
-        <v>959</v>
+        <v>1012</v>
       </c>
       <c r="G120" s="7" t="inlineStr">
         <is>
-          <t>London/GBR</t>
+          <t>Brussel/BEL</t>
         </is>
       </c>
       <c r="H120" s="16" t="n">
-        <v>18.05</v>
+        <v>25.05</v>
       </c>
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="14" t="inlineStr">
@@ -6196,32 +6212,30 @@
     <row r="121" ht="13" customHeight="1">
       <c r="B121" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="D121" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E121" s="17" t="inlineStr">
-        <is>
-          <t>8,22,94</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E121" s="15" t="n">
+        <v>55.39</v>
       </c>
       <c r="F121" s="7" t="n">
-        <v>1020</v>
+        <v>762</v>
       </c>
       <c r="G121" s="7" t="inlineStr">
         <is>
-          <t>Karlsruhe/GER</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H121" s="16" t="n">
-        <v>11.05</v>
+        <v>15.09</v>
       </c>
       <c r="J121" s="5" t="n"/>
       <c r="L121" s="14" t="inlineStr">
@@ -6256,30 +6270,30 @@
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Julian Zhang Førsund</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E122" s="15" t="n">
-        <v>57.53</v>
+        <v>1.9</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>691</v>
+        <v>738</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>3.08</v>
+        <v>11.05</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
@@ -6314,30 +6328,30 @@
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Michael Reklev</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>2.04</v>
+        <v>6.8</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>854</v>
+        <v>784</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>7.09</v>
+        <v>7.12</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
@@ -6372,30 +6386,30 @@
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Even Ragnhildsløkken</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>3.6</v>
+        <v>13.71</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>636</v>
+        <v>745</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>26.05</v>
+        <v>3.08</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
@@ -6430,30 +6444,30 @@
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Even Ragnhildsløkken</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>6.36</v>
+        <v>1.5</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>1.09</v>
+        <v>17.02</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -6488,30 +6502,30 @@
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Michael Reklev</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>1.58</v>
+        <v>3.19</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>7.09</v>
+        <v>28.08</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
@@ -6551,25 +6565,25 @@
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Arne Kristiansen</t>
+          <t>Kasper Sagen</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>1968</v>
+        <v>1999</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>43.92</v>
+        <v>80.66</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>543</v>
+        <v>1045</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Heusden-Zolder/BEL</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>26.05</v>
+        <v>15.06</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -6634,7 +6648,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>12471</v>
+        <v>13115</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -6754,32 +6768,30 @@
     <row r="134" ht="13" customHeight="1">
       <c r="B134" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sandvik</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D134" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E134" s="17" t="inlineStr">
-        <is>
-          <t>7,48,42</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="E134" s="15" t="n">
+        <v>6.82</v>
       </c>
       <c r="F134" s="7" t="n">
-        <v>1014</v>
+        <v>949</v>
       </c>
       <c r="G134" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H134" s="16" t="n">
-        <v>10.08</v>
+        <v>27.01</v>
       </c>
       <c r="J134" s="5" t="n"/>
       <c r="L134" s="14" t="inlineStr">
@@ -6814,32 +6826,30 @@
     <row r="135" ht="13" customHeight="1">
       <c r="B135" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="D135" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E135" s="17" t="inlineStr">
-        <is>
-          <t>7,49,87</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E135" s="15" t="n">
+        <v>10.6</v>
       </c>
       <c r="F135" s="7" t="n">
-        <v>1006</v>
+        <v>948</v>
       </c>
       <c r="G135" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H135" s="16" t="n">
-        <v>10.08</v>
+        <v>30.08</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
@@ -6874,32 +6884,30 @@
     <row r="136" ht="13" customHeight="1">
       <c r="B136" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Andreas Fjeld Halvorsen</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="D136" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E136" s="17" t="inlineStr">
-        <is>
-          <t>7,51,43</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E136" s="15" t="n">
+        <v>21.33</v>
       </c>
       <c r="F136" s="7" t="n">
-        <v>998</v>
+        <v>942</v>
       </c>
       <c r="G136" s="7" t="inlineStr">
         <is>
-          <t>Nembro/ITA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H136" s="16" t="n">
-        <v>19.06</v>
+        <v>1.09</v>
       </c>
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
@@ -6934,32 +6942,30 @@
     <row r="137" ht="13" customHeight="1">
       <c r="B137" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Senay Amlesom Fissehatsion</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D137" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E137" s="17" t="inlineStr">
-        <is>
-          <t>13,33,51</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="E137" s="15" t="n">
+        <v>21.5</v>
       </c>
       <c r="F137" s="7" t="n">
-        <v>998</v>
+        <v>921</v>
       </c>
       <c r="G137" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H137" s="16" t="n">
-        <v>29.06</v>
+        <v>17.02</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
@@ -6994,28 +7000,28 @@
     <row r="138" ht="13" customHeight="1">
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sandvik</t>
+          <t>Simon Steinshamn</t>
         </is>
       </c>
       <c r="D138" s="7" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E138" s="17" t="inlineStr">
         <is>
-          <t>8,28,47</t>
+          <t>3,45,99</t>
         </is>
       </c>
       <c r="F138" s="7" t="n">
-        <v>994</v>
+        <v>910</v>
       </c>
       <c r="G138" s="7" t="inlineStr">
         <is>
-          <t>Roma/ITA</t>
+          <t>Watford/GBR</t>
         </is>
       </c>
       <c r="H138" s="16" t="n">
@@ -7054,32 +7060,30 @@
     <row r="139" ht="13" customHeight="1">
       <c r="B139" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sandvik</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E139" s="17" t="inlineStr">
-        <is>
-          <t>3,40,43</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E139" s="15" t="n">
+        <v>6.91</v>
       </c>
       <c r="F139" s="7" t="n">
-        <v>980</v>
+        <v>905</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>21.08</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
@@ -7114,32 +7118,30 @@
     <row r="140" ht="13" customHeight="1">
       <c r="B140" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kramer</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="D140" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E140" s="17" t="inlineStr">
-        <is>
-          <t>3,42,24</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E140" s="15" t="n">
+        <v>10.77</v>
       </c>
       <c r="F140" s="7" t="n">
-        <v>956</v>
+        <v>902</v>
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>18.02</v>
+        <v>27.06</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
@@ -7174,32 +7176,30 @@
     <row r="141" ht="13" customHeight="1">
       <c r="B141" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E141" s="17" t="inlineStr">
-        <is>
-          <t>3,42,25</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E141" s="15" t="n">
+        <v>21.65</v>
       </c>
       <c r="F141" s="7" t="n">
-        <v>956</v>
+        <v>902</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Kessel-Louvain/BEL</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>27.07</v>
+        <v>18.06</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
@@ -7234,32 +7234,32 @@
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Kristian Bråthen Børve</t>
+          <t>Abdullahi Dahir Rabi</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E142" s="17" t="inlineStr">
         <is>
-          <t>13,52,44</t>
+          <t>3,46,89</t>
         </is>
       </c>
       <c r="F142" s="7" t="n">
-        <v>941</v>
+        <v>899</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>18.06</v>
+        <v>21.08</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
@@ -7299,27 +7299,27 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Kristian Bråthen Børve</t>
+          <t>Håkon Stavik</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E143" s="17" t="inlineStr">
         <is>
-          <t>8,04,21</t>
+          <t>8,12,30</t>
         </is>
       </c>
       <c r="F143" s="7" t="n">
-        <v>934</v>
+        <v>895</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>15.05</v>
+        <v>14.06</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
@@ -7354,30 +7354,30 @@
     <row r="144" ht="13" customHeight="1">
       <c r="B144" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Even Ragnhildsløkken</t>
+          <t>Ruben Martinsen</t>
         </is>
       </c>
       <c r="D144" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E144" s="15" t="n">
-        <v>1.96</v>
+        <v>57.91</v>
       </c>
       <c r="F144" s="7" t="n">
-        <v>788</v>
+        <v>731</v>
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>30.08</v>
+        <v>16.06</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
@@ -7412,30 +7412,30 @@
     <row r="145" ht="13" customHeight="1">
       <c r="B145" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Vadim Pecherskii</t>
+          <t>Dag Storm Wergeland</t>
         </is>
       </c>
       <c r="D145" s="7" t="n">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>1.9</v>
+        <v>57.41</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>18.08</v>
+        <v>26.05</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
@@ -7470,30 +7470,30 @@
     <row r="146" ht="13" customHeight="1">
       <c r="B146" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Nicholas Reklev</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E146" s="15" t="n">
-        <v>1.76</v>
+        <v>6.35</v>
       </c>
       <c r="F146" s="7" t="n">
-        <v>616</v>
+        <v>685</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>12.09</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
@@ -7528,30 +7528,30 @@
     <row r="147" ht="13" customHeight="1">
       <c r="B147" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Andreas Nordgård</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="D147" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>3.41</v>
+        <v>3</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>595</v>
+        <v>672</v>
       </c>
       <c r="G147" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Oslo/Bk</t>
         </is>
       </c>
       <c r="H147" s="16" t="n">
-        <v>31.08</v>
+        <v>26.02</v>
       </c>
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
@@ -7586,30 +7586,30 @@
     <row r="148" ht="13" customHeight="1">
       <c r="B148" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>Aldric Kenarlikdjian</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="D148" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E148" s="15" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F148" s="7" t="n">
-        <v>461</v>
+        <v>672</v>
       </c>
       <c r="G148" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Oslo/Bk</t>
         </is>
       </c>
       <c r="H148" s="16" t="n">
-        <v>3.02</v>
+        <v>26.02</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>12975</v>
+        <v>12658</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>25446</v>
+        <v>25773</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -16937,7 +16937,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>17220</v>
+        <v>17225</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -16956,25 +16956,25 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL 3. lag</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(25/15)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>16576</v>
+        <v>16651</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -16984,25 +16984,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL i BUL 3. lag</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/13)</t>
+          <t>(25/15)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>16490</v>
+        <v>16591</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -17017,11 +17017,11 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>16424</v>
+        <v>16577</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>12322</v>
+        <v>12358</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -23741,10 +23741,10 @@
         <v>1998</v>
       </c>
       <c r="O159" s="15" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="P159" s="7" t="n">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="Q159" s="7" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="R159" s="16" t="n">
-        <v>12.02</v>
+        <v>25.11</v>
       </c>
       <c r="T159" s="5" t="n"/>
     </row>
@@ -23980,7 +23980,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>9760</v>
+        <v>9765</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -24594,11 +24594,11 @@
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Ole Magnus Villanger</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O177" s="15" t="n">
         <v>2.77</v>
@@ -24652,11 +24652,11 @@
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Ole Magnus Villanger</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O178" s="15" t="n">
         <v>2.77</v>
@@ -24880,7 +24880,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>17220</v>
+        <v>17225</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24946,7 +24946,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="F190" s="8" t="n">
@@ -24960,7 +24960,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -24976,7 +24976,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL 3. lag</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -24987,7 +24987,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL i BUL 3. lag</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -25116,25 +25116,25 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Nicolas Alexander Baranyi Eriksen</t>
+          <t>Christopher Sandvik</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>7.15</v>
+        <v>7.42</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>797</v>
+        <v>690</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -25144,25 +25144,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Christopher Sandvik</t>
+          <t>Nicolas Alexander Baranyi Eriksen</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.42</v>
+        <v>7.15</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>690</v>
+        <v>797</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>1.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -25174,25 +25174,25 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Nicolas Alexander Baranyi Eriksen</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>10.99</v>
+        <v>11.38</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>30.08</v>
+        <v>28.07</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -25202,25 +25202,25 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Nicolas Alexander Baranyi Eriksen</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>11.38</v>
+        <v>10.99</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>748</v>
+        <v>844</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>28.07</v>
+        <v>30.08</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -25232,17 +25232,17 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Nicolas Alexander Baranyi Eriksen</t>
+          <t>Christopher Sandvik</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>22.44</v>
+        <v>23.52</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>810</v>
+        <v>695</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>14.06</v>
+        <v>15.06</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -25260,17 +25260,17 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Christopher Sandvik</t>
+          <t>Nicolas Alexander Baranyi Eriksen</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>23.52</v>
+        <v>22.44</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>695</v>
+        <v>810</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>15.06</v>
+        <v>14.06</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -25290,17 +25290,17 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Jonas Grüner-Mørck</t>
+          <t>Marius Pedersen</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>52.04</v>
+        <v>53.61</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>686</v>
+        <v>619</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
@@ -25318,17 +25318,17 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Marius Pedersen</t>
+          <t>Jonas Grüner-Mørck</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>53.61</v>
+        <v>52.04</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>619</v>
+        <v>686</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
@@ -25348,19 +25348,19 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Johannes Dalland</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>1,56,24</t>
+          <t>2,01,04</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>765</v>
+        <v>667</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
@@ -25378,19 +25378,19 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Johannes Dalland</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>2,01,04</t>
+          <t>1,56,24</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>667</v>
+        <v>765</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
@@ -25410,27 +25410,27 @@
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Halvard Grape Fladby</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>3,53,98</t>
+          <t>3,52,96</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>10.05</v>
+        <v>18.07</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
@@ -25440,27 +25440,27 @@
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Halvard Grape Fladby</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>3,52,96</t>
+          <t>3,53,98</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>18.07</v>
+        <v>10.05</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -25472,27 +25472,27 @@
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Halvard Grape Fladby</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>8,44,76</t>
+          <t>8,12,36</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>749</v>
+        <v>895</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Ås</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>19.09</v>
+        <v>10.08</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
@@ -25502,27 +25502,27 @@
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Halvard Grape Fladby</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="O203" s="17" t="inlineStr">
         <is>
-          <t>8,12,36</t>
+          <t>8,44,76</t>
         </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>895</v>
+        <v>749</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Ås</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>10.08</v>
+        <v>19.09</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
@@ -25534,27 +25534,27 @@
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Endre Wigaard</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="E204" s="17" t="inlineStr">
         <is>
-          <t>16,24,18</t>
+          <t>14,29,24</t>
         </is>
       </c>
       <c r="F204" s="7" t="n">
-        <v>599</v>
+        <v>844</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>5.06</v>
+        <v>29.06</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
@@ -25564,175 +25564,175 @@
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Endre Wigaard</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="O204" s="17" t="inlineStr">
         <is>
-          <t>14,29,24</t>
+          <t>16,24,18</t>
         </is>
       </c>
       <c r="P204" s="7" t="n">
-        <v>844</v>
+        <v>599</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>29.06</v>
+        <v>5.06</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
     <row r="205" ht="13" customHeight="1">
       <c r="B205" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Radin Kalbasi</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E205" s="15" t="n">
-        <v>5.74</v>
+        <v>1999</v>
+      </c>
+      <c r="E205" s="17" t="inlineStr">
+        <is>
+          <t>30,06,44</t>
+        </is>
       </c>
       <c r="F205" s="7" t="n">
-        <v>547</v>
+        <v>858</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>11.08</v>
+        <v>27.06</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Radin Kalbasi</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O205" s="17" t="inlineStr">
-        <is>
-          <t>30,06,44</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O205" s="15" t="n">
+        <v>5.74</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>858</v>
+        <v>547</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>27.06</v>
+        <v>11.08</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
     <row r="206" ht="13" customHeight="1">
       <c r="B206" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Sondre Audahl Vik</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>11.33</v>
+        <v>1.35</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>4.02</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Sondre Audahl Vik</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>5.42</v>
+        <v>11.33</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>21.01</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
     <row r="207" ht="13" customHeight="1">
       <c r="B207" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Christopher Sandvik</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>1.3</v>
+        <v>2.76</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>440</v>
+        <v>538</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>26.02</v>
+        <v>28.11</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
@@ -25742,141 +25742,141 @@
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>503</v>
+        <v>440</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Oslo/Bk</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>4.02</v>
+        <v>26.02</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
     <row r="208" ht="13" customHeight="1">
       <c r="B208" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>Elijah Ramirez</t>
+          <t>Henrik Snemyr Langesæter</t>
         </is>
       </c>
       <c r="D208" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E208" s="15" t="n">
-        <v>2.74</v>
+        <v>11.25</v>
       </c>
       <c r="F208" s="7" t="n">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="G208" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H208" s="16" t="n">
-        <v>17.08</v>
+        <v>24.07</v>
       </c>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Henrik Snemyr Langesæter</t>
+          <t>Elijah Ramirez</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>11.25</v>
+        <v>2.74</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>24.07</v>
+        <v>17.08</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
       <c r="B209" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Henrik Snemyr Langesæter</t>
         </is>
       </c>
       <c r="D209" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E209" s="15" t="n">
-        <v>10.66</v>
+        <v>30.33</v>
       </c>
       <c r="F209" s="7" t="n">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="G209" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H209" s="16" t="n">
-        <v>10.03</v>
+        <v>24.07</v>
       </c>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Henrik Snemyr Langesæter</t>
+          <t>Eirik Halfdansen-Aspen</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>30.33</v>
+        <v>10.66</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>24.07</v>
+        <v>10.03</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -25913,7 +25913,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>8568</v>
+        <v>8917</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -25930,7 +25930,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8851</v>
+        <v>8568</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -26033,82 +26033,84 @@
     <row r="216" ht="13" customHeight="1">
       <c r="B216" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Morten Gjendem</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E216" s="15" t="n">
-        <v>22.53</v>
+        <v>1992</v>
+      </c>
+      <c r="E216" s="17" t="inlineStr">
+        <is>
+          <t>30,32,83</t>
+        </is>
       </c>
       <c r="F216" s="7" t="n">
-        <v>800</v>
+        <v>829</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>9.08</v>
+        <v>12.05</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Morten Gjendem</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O216" s="17" t="inlineStr">
-        <is>
-          <t>30,32,83</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O216" s="15" t="n">
+        <v>22.53</v>
       </c>
       <c r="P216" s="7" t="n">
-        <v>829</v>
+        <v>800</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>12.05</v>
+        <v>9.08</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Morten Gjendem</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E217" s="15" t="n">
-        <v>11.24</v>
+        <v>1992</v>
+      </c>
+      <c r="E217" s="17" t="inlineStr">
+        <is>
+          <t>14,44,94</t>
+        </is>
       </c>
       <c r="F217" s="7" t="n">
-        <v>782</v>
+        <v>807</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
@@ -26116,29 +26118,27 @@
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>27.06</v>
+        <v>29.06</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Morten Gjendem</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O217" s="17" t="inlineStr">
-        <is>
-          <t>14,44,94</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O217" s="15" t="n">
+        <v>11.24</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
@@ -26146,127 +26146,127 @@
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>29.06</v>
+        <v>27.06</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Adrian Stene Olsen</t>
+          <t>Christopher Sandvik</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E218" s="17" t="inlineStr">
-        <is>
-          <t>3,58,51</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E218" s="15" t="n">
+        <v>11.46</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>775</v>
+        <v>729</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>10.05</v>
+        <v>25.05</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Christopher Sandvik</t>
+          <t>Adrian Stene Olsen</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O218" s="15" t="n">
-        <v>11.46</v>
+        <v>2005</v>
+      </c>
+      <c r="O218" s="17" t="inlineStr">
+        <is>
+          <t>3,58,51</t>
+        </is>
       </c>
       <c r="P218" s="7" t="n">
-        <v>729</v>
+        <v>775</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>25.05</v>
+        <v>10.05</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Thomas Graftås</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E219" s="15" t="n">
-        <v>11.27</v>
+        <v>1995</v>
+      </c>
+      <c r="E219" s="17" t="inlineStr">
+        <is>
+          <t>8,54,08</t>
+        </is>
       </c>
       <c r="F219" s="7" t="n">
-        <v>774</v>
+        <v>711</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>27.06</v>
+        <v>14.06</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Thomas Graftås</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O219" s="17" t="inlineStr">
-        <is>
-          <t>8,54,08</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O219" s="15" t="n">
+        <v>11.27</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>711</v>
+        <v>774</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>14.06</v>
+        <v>27.06</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -26278,27 +26278,27 @@
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Johannes Dalland</t>
+          <t>Elias Landøy Rasmussen</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="E220" s="17" t="inlineStr">
         <is>
-          <t>3,58,90</t>
+          <t>4,07,17</t>
         </is>
       </c>
       <c r="F220" s="7" t="n">
-        <v>771</v>
+        <v>695</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>27.08</v>
+        <v>11.08</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
@@ -26308,207 +26308,207 @@
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Elias Landøy Rasmussen</t>
+          <t>Johannes Dalland</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="O220" s="17" t="inlineStr">
         <is>
-          <t>4,07,17</t>
+          <t>3,58,90</t>
         </is>
       </c>
       <c r="P220" s="7" t="n">
-        <v>695</v>
+        <v>771</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>11.08</v>
+        <v>27.08</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Elias Landøy Rasmussen</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E221" s="15" t="n">
-        <v>7.24</v>
+        <v>2009</v>
+      </c>
+      <c r="E221" s="17" t="inlineStr">
+        <is>
+          <t>8,59,4</t>
+        </is>
       </c>
       <c r="F221" s="7" t="n">
-        <v>760</v>
+        <v>691</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>9.02</v>
+        <v>24.07</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Elias Landøy Rasmussen</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O221" s="17" t="inlineStr">
-        <is>
-          <t>8,59,4</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O221" s="15" t="n">
+        <v>7.24</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>691</v>
+        <v>760</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>24.07</v>
+        <v>9.02</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Adrian Stene Olsen</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="E222" s="17" t="inlineStr">
         <is>
-          <t>1,56,57</t>
+          <t>4,08,20</t>
         </is>
       </c>
       <c r="F222" s="7" t="n">
-        <v>758</v>
+        <v>686</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>18.06</v>
+        <v>11.08</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Adrian Stene Olsen</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="O222" s="17" t="inlineStr">
         <is>
-          <t>4,08,20</t>
+          <t>1,56,57</t>
         </is>
       </c>
       <c r="P222" s="7" t="n">
-        <v>686</v>
+        <v>758</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>11.08</v>
+        <v>18.06</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Sondre F. Eilertsen</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E223" s="15" t="n">
-        <v>11.36</v>
+        <v>23.63</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>753</v>
+        <v>684</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>25.05</v>
+        <v>25.02</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Sondre F. Eilertsen</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>23.63</v>
+        <v>11.36</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>684</v>
+        <v>753</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>25.02</v>
+        <v>25.05</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
@@ -26520,25 +26520,25 @@
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>17.08</v>
+        <v>28.11</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
@@ -26548,25 +26548,25 @@
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Gunnar Husby</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>1975</v>
+        <v>2001</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>4.02</v>
+        <v>17.08</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -26578,53 +26578,53 @@
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>5.44</v>
+        <v>5.42</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>27.01</v>
+        <v>21.01</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Marius Aarset Lilleskog</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>1.6</v>
+        <v>5.44</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>4.02</v>
+        <v>27.01</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
@@ -26636,111 +26636,111 @@
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Radin Kalbasi</t>
+          <t>Bjørn Gunnar Husby</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>2008</v>
+        <v>1975</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>17.08</v>
+        <v>4.02</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Aleksander Christian Moen</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>2.61</v>
+        <v>5.35</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>4.02</v>
+        <v>7.12</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
     <row r="227" ht="13" customHeight="1">
       <c r="B227" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Noah Ruben</t>
+          <t>Marius Aarset Lilleskog</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>36.9</v>
+        <v>1.6</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Lambertseter</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>3.09</v>
+        <v>4.02</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Herman Urnes Hahn</t>
+          <t>Radin Kalbasi</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>31.05</v>
+        <v>17.08</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26777,7 +26777,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>8008</v>
+        <v>7734</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26794,7 +26794,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>7639</v>
+        <v>8023</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26817,7 +26817,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>16576</v>
+        <v>16651</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26834,7 +26834,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>16490</v>
+        <v>16591</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26849,7 +26849,7 @@
         </is>
       </c>
       <c r="C233" s="20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -26858,7 +26858,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -27715,30 +27715,30 @@
     <row r="255" ht="13" customHeight="1">
       <c r="B255" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>Vegard Trefall</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D255" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E255" s="15" t="n">
-        <v>2.67</v>
+        <v>1.43</v>
       </c>
       <c r="F255" s="7" t="n">
-        <v>485</v>
+        <v>594</v>
       </c>
       <c r="G255" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H255" s="16" t="n">
-        <v>19.02</v>
+        <v>27.11</v>
       </c>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
@@ -27861,7 +27861,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>9373</v>
+        <v>9482</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -28453,30 +28453,30 @@
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Strand Blichfeldt</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>12.53</v>
+        <v>2.71</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Haus</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>19.06</v>
+        <v>27.11</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -28511,7 +28511,7 @@
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
@@ -28523,18 +28523,18 @@
         <v>2009</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>5.46</v>
+        <v>12.53</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>21.01</v>
+        <v>19.06</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -28569,22 +28569,22 @@
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Sander Solberg Hopsdal</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>1.33</v>
+        <v>2.67</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>15.01</v>
+        <v>19.02</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
@@ -28627,30 +28627,30 @@
     <row r="274" ht="13" customHeight="1">
       <c r="B274" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Eirik Reigstad</t>
+          <t>Benjamin Strand Blichfeldt</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>2.65</v>
+        <v>5.46</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>15.01</v>
+        <v>21.01</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
@@ -28715,7 +28715,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>7051</v>
+        <v>7095</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -28755,7 +28755,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>16424</v>
+        <v>16577</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -28787,7 +28787,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -29219,18 +29219,18 @@
         <v>2006</v>
       </c>
       <c r="O294" s="15" t="n">
-        <v>51.82</v>
+        <v>51.06</v>
       </c>
       <c r="P294" s="7" t="n">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>30.08</v>
+        <v>7.12</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
@@ -29762,7 +29762,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>6609</v>
+        <v>6645</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -30618,7 +30618,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>12322</v>
+        <v>12358</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30842,7 +30842,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23202</v>
+        <v>23236</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -35308,30 +35308,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Anastasia Schnell</t>
+          <t>Elise Sandvik Tornberg</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>15.79</v>
+        <v>8.07</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Halle/GER</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>18.05</v>
+        <v>23.11</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -35366,30 +35366,30 @@
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Kaja Carlsen-Brown</t>
+          <t>Anastasia Schnell</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>11.29</v>
+        <v>15.79</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Halle/GER</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>11.02</v>
+        <v>18.05</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -35424,30 +35424,30 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Anastasia Schnell</t>
+          <t>Kaja Carlsen-Brown</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>1.6</v>
+        <v>11.29</v>
       </c>
       <c r="P95" s="7" t="n">
         <v>691</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Halle/GER</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>6.01</v>
+        <v>11.02</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -35482,30 +35482,30 @@
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Elise Sandvik Tornberg</t>
+          <t>Anastasia Schnell</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>12.95</v>
+        <v>1.6</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Halle/GER</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>30.08</v>
+        <v>6.01</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -35559,7 +35559,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11027</v>
+        <v>11061</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -35599,7 +35599,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23202</v>
+        <v>23236</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -46994,25 +46994,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL 2. lag</t>
+          <t>Bækkelagets SK</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>17000</v>
+        <v>17077</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(3/3d)</t>
+          <t>(2/3d)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -47022,20 +47022,20 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Norna-Salhus IL 2. lag</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(25/8)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>16941</v>
+        <v>17000</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(3/3d)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -47050,25 +47050,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Bækkelagets SK</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/8)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>16872</v>
+        <v>16941</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(2/3d)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -47087,7 +47087,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15781</v>
+        <v>15796</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -47115,7 +47115,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15683</v>
+        <v>15710</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -51216,7 +51216,7 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="F96" s="8" t="n">
@@ -51246,7 +51246,7 @@
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL 2. lag</t>
+          <t>Bækkelagets SK</t>
         </is>
       </c>
       <c r="J97" s="5" t="n"/>
@@ -51257,7 +51257,7 @@
       </c>
       <c r="M97" s="7" t="inlineStr">
         <is>
-          <t>Fyllingen IL</t>
+          <t>Norna-Salhus IL 2. lag</t>
         </is>
       </c>
       <c r="T97" s="5" t="n"/>
@@ -51386,25 +51386,25 @@
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Iben Carnhed</t>
         </is>
       </c>
       <c r="D103" s="7" t="n">
         <v>2001</v>
       </c>
       <c r="E103" s="15" t="n">
-        <v>8.029999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>725</v>
+        <v>814</v>
       </c>
       <c r="G103" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H103" s="16" t="n">
-        <v>10.02</v>
+        <v>17.02</v>
       </c>
       <c r="J103" s="5" t="n"/>
       <c r="L103" s="14" t="inlineStr">
@@ -51414,25 +51414,25 @@
       </c>
       <c r="M103" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="N103" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="O103" s="15" t="n">
-        <v>7.78</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="P103" s="7" t="n">
-        <v>804</v>
+        <v>725</v>
       </c>
       <c r="Q103" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R103" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="T103" s="5" t="n"/>
     </row>
@@ -51444,25 +51444,25 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Martine Lundberg Espetvedt</t>
+          <t>Iben Carnhed</t>
         </is>
       </c>
       <c r="D104" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>12.82</v>
+        <v>12.04</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>702</v>
+        <v>846</v>
       </c>
       <c r="G104" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H104" s="16" t="n">
-        <v>8.06</v>
+        <v>11.08</v>
       </c>
       <c r="J104" s="5" t="n"/>
       <c r="L104" s="14" t="inlineStr">
@@ -51472,25 +51472,25 @@
       </c>
       <c r="M104" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Martine Lundberg Espetvedt</t>
         </is>
       </c>
       <c r="N104" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O104" s="15" t="n">
-        <v>12.25</v>
+        <v>12.82</v>
       </c>
       <c r="P104" s="7" t="n">
-        <v>806</v>
+        <v>702</v>
       </c>
       <c r="Q104" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="R104" s="16" t="n">
-        <v>2.08</v>
+        <v>8.06</v>
       </c>
       <c r="T104" s="5" t="n"/>
     </row>
@@ -51502,25 +51502,25 @@
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Martine Lundberg Espetvedt</t>
+          <t>Iben Carnhed</t>
         </is>
       </c>
       <c r="D105" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>26.6</v>
+        <v>25.39</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="G105" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H105" s="16" t="n">
-        <v>12.05</v>
+        <v>2.06</v>
       </c>
       <c r="J105" s="5" t="n"/>
       <c r="L105" s="14" t="inlineStr">
@@ -51530,387 +51530,385 @@
       </c>
       <c r="M105" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Martine Lundberg Espetvedt</t>
         </is>
       </c>
       <c r="N105" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O105" s="15" t="n">
-        <v>25.41</v>
+        <v>26.6</v>
       </c>
       <c r="P105" s="7" t="n">
-        <v>773</v>
+        <v>680</v>
       </c>
       <c r="Q105" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R105" s="16" t="n">
-        <v>21.06</v>
+        <v>12.05</v>
       </c>
       <c r="T105" s="5" t="n"/>
     </row>
     <row r="106" ht="13" customHeight="1">
       <c r="B106" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Tunes Lund</t>
+          <t>Silje Dønheim</t>
         </is>
       </c>
       <c r="D106" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E106" s="17" t="inlineStr">
         <is>
-          <t>2,21,20</t>
+          <t>1,03,20</t>
         </is>
       </c>
       <c r="F106" s="7" t="n">
-        <v>653</v>
+        <v>584</v>
       </c>
       <c r="G106" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H106" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>7.12</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Alexandra Tunes Lund</t>
         </is>
       </c>
       <c r="N106" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O106" s="17" t="inlineStr">
         <is>
-          <t>1,00,99</t>
+          <t>2,21,20</t>
         </is>
       </c>
       <c r="P106" s="7" t="n">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="Q106" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R106" s="16" t="n">
-        <v>17.08</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T106" s="5" t="n"/>
     </row>
     <row r="107" ht="13" customHeight="1">
       <c r="B107" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Aurora Veen Torkildsen</t>
+          <t>Silje Dønheim</t>
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>4,56,92</t>
+          <t>2,28,89</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>628</v>
+        <v>569</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>10.02</v>
+        <v>15.09</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Aurora Veen Torkildsen</t>
         </is>
       </c>
       <c r="N107" s="7" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="O107" s="17" t="inlineStr">
         <is>
-          <t>2,25,04</t>
+          <t>4,56,92</t>
         </is>
       </c>
       <c r="P107" s="7" t="n">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="Q107" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R107" s="16" t="n">
-        <v>31.05</v>
+        <v>10.02</v>
       </c>
       <c r="T107" s="5" t="n"/>
     </row>
     <row r="108" ht="13" customHeight="1">
       <c r="B108" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Nellie Cecilia Taule</t>
+          <t>Linn Rynning Borander</t>
         </is>
       </c>
       <c r="D108" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E108" s="17" t="inlineStr">
-        <is>
-          <t>10,49,47</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E108" s="15" t="n">
+        <v>9.49</v>
       </c>
       <c r="F108" s="7" t="n">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>1.09</v>
+        <v>9.02</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M108" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Nellie Cecilia Taule</t>
         </is>
       </c>
       <c r="N108" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O108" s="15" t="n">
-        <v>8.49</v>
+        <v>2008</v>
+      </c>
+      <c r="O108" s="17" t="inlineStr">
+        <is>
+          <t>10,49,47</t>
+        </is>
       </c>
       <c r="P108" s="7" t="n">
-        <v>886</v>
+        <v>615</v>
       </c>
       <c r="Q108" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R108" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="T108" s="5" t="n"/>
     </row>
     <row r="109" ht="13" customHeight="1">
       <c r="B109" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Nellie Cecilia Taule</t>
+          <t>Ida McAdam Lium</t>
         </is>
       </c>
       <c r="D109" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E109" s="17" t="inlineStr">
-        <is>
-          <t>18,30,13mx</t>
-        </is>
+        <v>1982</v>
+      </c>
+      <c r="E109" s="15" t="n">
+        <v>1.5</v>
       </c>
       <c r="F109" s="7" t="n">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>28.09</v>
+        <v>26.09</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M109" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Nellie Cecilia Taule</t>
         </is>
       </c>
       <c r="N109" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O109" s="15" t="n">
-        <v>14.13</v>
+        <v>2008</v>
+      </c>
+      <c r="O109" s="17" t="inlineStr">
+        <is>
+          <t>18,30,13mx</t>
+        </is>
       </c>
       <c r="P109" s="7" t="n">
-        <v>856</v>
+        <v>647</v>
       </c>
       <c r="Q109" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R109" s="16" t="n">
-        <v>4.08</v>
+        <v>28.09</v>
       </c>
       <c r="T109" s="5" t="n"/>
     </row>
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Emilie Lindstad</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E110" s="15" t="n">
-        <v>9.15</v>
+        <v>2.67</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>749</v>
+        <v>600</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>11.02</v>
+        <v>7.09</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M110" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="N110" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O110" s="17" t="inlineStr">
-        <is>
-          <t>1,07,80</t>
-        </is>
+      <c r="O110" s="15" t="n">
+        <v>9.15</v>
       </c>
       <c r="P110" s="7" t="n">
-        <v>633</v>
+        <v>749</v>
       </c>
       <c r="Q110" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R110" s="16" t="n">
-        <v>31.08</v>
+        <v>11.02</v>
       </c>
       <c r="T110" s="5" t="n"/>
     </row>
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Iben Carnhed</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E111" s="15" t="n">
-        <v>15.03</v>
+        <v>6.11</v>
       </c>
       <c r="F111" s="7" t="n">
-        <v>763</v>
+        <v>867</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>30.08</v>
+        <v>28.06</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M111" s="7" t="inlineStr">
         <is>
-          <t>Kira Chan Sobolowski</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="N111" s="7" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="O111" s="15" t="n">
-        <v>1.41</v>
+        <v>15.03</v>
       </c>
       <c r="P111" s="7" t="n">
-        <v>528</v>
+        <v>763</v>
       </c>
       <c r="Q111" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R111" s="16" t="n">
-        <v>8.09</v>
+        <v>30.08</v>
       </c>
       <c r="T111" s="5" t="n"/>
     </row>
@@ -51922,107 +51920,107 @@
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Iben Carnhed</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>11.54</v>
+        <v>11.86</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>31.05</v>
+        <v>29.06</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Lea Alise Gundersen</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>5.76</v>
+        <v>11.54</v>
       </c>
       <c r="P112" s="7" t="n">
-        <v>787</v>
+        <v>717</v>
       </c>
       <c r="Q112" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R112" s="16" t="n">
-        <v>2.08</v>
+        <v>31.05</v>
       </c>
       <c r="T112" s="5" t="n"/>
     </row>
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Solveig Fredriksen</t>
+          <t>Emilie Lindstad</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>10.74</v>
+        <v>1.1</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>642</v>
+        <v>427</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bk</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>29.09</v>
+        <v>26.02</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Solveig Fredriksen</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>2.38</v>
+        <v>10.74</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>553</v>
+        <v>642</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
@@ -52033,50 +52031,50 @@
     <row r="114" ht="13" customHeight="1">
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Solveig Fredriksen</t>
+          <t>Ida McAdam Lium</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>1992</v>
+        <v>1982</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>40.48</v>
+        <v>2.38</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>731</v>
+        <v>553</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>29.09</v>
+        <v>26.09</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Kateryna Retiva</t>
+          <t>Solveig Fredriksen</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>10.58</v>
+        <v>40.48</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>632</v>
+        <v>731</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
@@ -52084,65 +52082,65 @@
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>12.05</v>
+        <v>29.09</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
     <row r="115" ht="13" customHeight="1">
       <c r="B115" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Mari Hytten Skyvang</t>
+          <t>Ida McAdam Lium</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>2003</v>
+        <v>1982</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>46.1</v>
+        <v>9.99</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>762</v>
+        <v>592</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>10.05</v>
+        <v>26.09</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Kateryna Retiva</t>
+          <t>Mari Hytten Skyvang</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>1989</v>
+        <v>2003</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>44.22</v>
+        <v>46.1</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>28.06</v>
+        <v>10.05</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -52179,7 +52177,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9014</v>
+        <v>8675</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -52196,7 +52194,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>9282</v>
+        <v>9014</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -52299,204 +52297,204 @@
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Emma Fatu Suhonen</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="E122" s="15" t="n">
-        <v>9.25</v>
+        <v>7.92</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>731</v>
+        <v>759</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>11.02</v>
+        <v>9.02</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="O122" s="15" t="n">
-        <v>12.37</v>
+        <v>9.25</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>783</v>
+        <v>731</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>27.06</v>
+        <v>11.02</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Nora Ekroll Jaidi</t>
+          <t>Pernille Sina Lund</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>43.2</v>
+        <v>12.5</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>725</v>
+        <v>759</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>26.09</v>
+        <v>1.06</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Nora Ekroll Jaidi</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>25.5</v>
+        <v>43.2</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>21.06</v>
+        <v>26.09</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Emma Fatu Suhonen</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>8.050000000000001</v>
+        <v>12.58</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>719</v>
+        <v>745</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>1.06</v>
+        <v>30.05</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>12.48</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>763</v>
+        <v>719</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>23.06</v>
+        <v>1.06</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Emma Fatu Suhonen</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2007</v>
+        <v>1991</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>8.16</v>
+        <v>25.83</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>686</v>
+        <v>739</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Kortrijk/BEL</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>21.01</v>
+        <v>13.07</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -52506,75 +52504,75 @@
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>8.039999999999999</v>
+        <v>8.16</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>24.02</v>
+        <v>21.01</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Guro Navelsaker Hjeltnes</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>12.91</v>
+        <v>11.63</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>686</v>
+        <v>727</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>17.08</v>
+        <v>2.06</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>8.06</v>
+        <v>12.91</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
@@ -52582,87 +52580,87 @@
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>10.05</v>
+        <v>17.08</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Birgitte Langeland Birkeland</t>
+          <t>Pernille Sina Lund</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>8.18</v>
+        <v>26.02</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>681</v>
+        <v>724</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>10.02</v>
+        <v>21.06</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Nicoline Pallesen Coulson</t>
+          <t>Birgitte Langeland Birkeland</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>5.23</v>
+        <v>8.18</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>3.07</v>
+        <v>10.02</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Guro Navelsaker Hjeltnes</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E128" s="15" t="n">
-        <v>26.7</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F128" s="7" t="n">
-        <v>672</v>
+        <v>719</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
@@ -52670,67 +52668,65 @@
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>20.01</v>
+        <v>21.01</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M128" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="N128" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O128" s="17" t="inlineStr">
-        <is>
-          <t>1,01,10</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O128" s="15" t="n">
+        <v>26.7</v>
       </c>
       <c r="P128" s="7" t="n">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>3.07</v>
+        <v>20.01</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
     <row r="129" ht="13" customHeight="1">
       <c r="B129" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Guro Navelsaker Hjeltnes</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E129" s="15" t="n">
-        <v>26.94</v>
+        <v>12.78</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>12.05</v>
+        <v>1.06</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
@@ -52740,51 +52736,51 @@
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O129" s="15" t="n">
-        <v>27.6</v>
+        <v>26.94</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>607</v>
+        <v>654</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>15.09</v>
+        <v>12.05</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Pernille Sina Lund</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>27.05</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>646</v>
+        <v>698</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
@@ -52793,22 +52789,22 @@
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M130" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Solberg</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="N130" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="O130" s="15" t="n">
-        <v>13.41</v>
+        <v>27.05</v>
       </c>
       <c r="P130" s="7" t="n">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="Q130" s="7" t="inlineStr">
         <is>
@@ -52816,153 +52812,153 @@
         </is>
       </c>
       <c r="R130" s="16" t="n">
-        <v>14.09</v>
+        <v>20.01</v>
       </c>
       <c r="T130" s="5" t="n"/>
     </row>
     <row r="131" ht="13" customHeight="1">
       <c r="B131" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Nora Ekroll Jaidi</t>
+          <t>Regine Johansen</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>33.48</v>
+        <v>11.23</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>634</v>
+        <v>685</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>23.06</v>
+        <v>16.06</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M131" s="7" t="inlineStr">
         <is>
-          <t>Tuva Paulsdatter Sandlund</t>
+          <t>Nora Ekroll Jaidi</t>
         </is>
       </c>
       <c r="N131" s="7" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="O131" s="15" t="n">
-        <v>4.34</v>
+        <v>33.48</v>
       </c>
       <c r="P131" s="7" t="n">
-        <v>470</v>
+        <v>634</v>
       </c>
       <c r="Q131" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R131" s="16" t="n">
-        <v>11.02</v>
+        <v>23.06</v>
       </c>
       <c r="T131" s="5" t="n"/>
     </row>
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Nora Ekroll Jaidi</t>
+          <t>Heidi Pisani Trollsås</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>2005</v>
+        <v>1980</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>33.38</v>
+        <v>4.79</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>31.08</v>
+        <v>26.09</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M132" s="7" t="inlineStr">
         <is>
-          <t>Hilde Stokvold Gundersen</t>
+          <t>Nora Ekroll Jaidi</t>
         </is>
       </c>
       <c r="N132" s="7" t="n">
-        <v>1974</v>
+        <v>2005</v>
       </c>
       <c r="O132" s="15" t="n">
-        <v>2.25</v>
+        <v>33.38</v>
       </c>
       <c r="P132" s="7" t="n">
-        <v>459</v>
+        <v>599</v>
       </c>
       <c r="Q132" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R132" s="16" t="n">
-        <v>29.09</v>
+        <v>31.08</v>
       </c>
       <c r="T132" s="5" t="n"/>
     </row>
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Tone Sandtorv Brakedal</t>
+          <t>Vilma Andersen Rooth</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>2.38</v>
+        <v>1.45</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>24.11</v>
+        <v>6.01</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
@@ -52972,17 +52968,17 @@
       </c>
       <c r="M133" s="7" t="inlineStr">
         <is>
-          <t>Anne Tharaldsen Danielsen</t>
+          <t>Tone Sandtorv Brakedal</t>
         </is>
       </c>
       <c r="N133" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="O133" s="15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="P133" s="7" t="n">
-        <v>459</v>
+        <v>553</v>
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
@@ -52990,7 +52986,7 @@
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>29.09</v>
+        <v>24.11</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -53027,7 +53023,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7986</v>
+        <v>8402</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -53044,7 +53040,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7659</v>
+        <v>7986</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -53067,7 +53063,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>17000</v>
+        <v>17077</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -53084,7 +53080,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>16941</v>
+        <v>17000</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -53099,7 +53095,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -53108,7 +53104,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -53150,7 +53146,7 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F143" s="8" t="n">
@@ -53180,7 +53176,7 @@
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Bækkelagets SK</t>
+          <t>Fyllingen IL</t>
         </is>
       </c>
       <c r="J144" s="5" t="n"/>
@@ -53320,25 +53316,25 @@
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>Iben Carnhed</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="D150" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="E150" s="15" t="n">
-        <v>7.75</v>
+        <v>7.78</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="G150" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H150" s="16" t="n">
-        <v>17.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="14" t="inlineStr">
@@ -53355,18 +53351,18 @@
         <v>2009</v>
       </c>
       <c r="O150" s="15" t="n">
-        <v>8.109999999999999</v>
+        <v>8.06</v>
       </c>
       <c r="P150" s="7" t="n">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="Q150" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R150" s="16" t="n">
-        <v>16.03</v>
+        <v>7.12</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -53378,25 +53374,25 @@
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>Iben Carnhed</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="D151" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="E151" s="15" t="n">
-        <v>12.04</v>
+        <v>12.25</v>
       </c>
       <c r="F151" s="7" t="n">
-        <v>846</v>
+        <v>806</v>
       </c>
       <c r="G151" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H151" s="16" t="n">
-        <v>11.08</v>
+        <v>2.08</v>
       </c>
       <c r="J151" s="5" t="n"/>
       <c r="L151" s="14" t="inlineStr">
@@ -53436,25 +53432,25 @@
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>Iben Carnhed</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="D152" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E152" s="15" t="n">
-        <v>25.39</v>
+        <v>25.41</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G152" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H152" s="16" t="n">
-        <v>2.06</v>
+        <v>21.06</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="14" t="inlineStr">
@@ -53494,27 +53490,27 @@
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Mathea Sofie Borgaas Sørlie</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E153" s="17" t="inlineStr">
         <is>
-          <t>1,12,45</t>
+          <t>1,00,99</t>
         </is>
       </c>
       <c r="F153" s="7" t="n">
-        <v>379</v>
+        <v>648</v>
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>12.05</v>
+        <v>17.08</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -53556,27 +53552,27 @@
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>Silje Dønheim</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="D154" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E154" s="17" t="inlineStr">
         <is>
-          <t>2,28,89</t>
+          <t>2,25,04</t>
         </is>
       </c>
       <c r="F154" s="7" t="n">
-        <v>569</v>
+        <v>610</v>
       </c>
       <c r="G154" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H154" s="16" t="n">
-        <v>15.09</v>
+        <v>31.05</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="14" t="inlineStr">
@@ -53618,25 +53614,25 @@
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>Linn Rynning Borander</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="D155" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E155" s="15" t="n">
-        <v>9.49</v>
+        <v>8.49</v>
       </c>
       <c r="F155" s="7" t="n">
-        <v>687</v>
+        <v>886</v>
       </c>
       <c r="G155" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H155" s="16" t="n">
-        <v>9.02</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
@@ -53673,30 +53669,30 @@
     <row r="156" ht="13" customHeight="1">
       <c r="B156" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>Ida McAdam Lium</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="D156" s="7" t="n">
-        <v>1982</v>
+        <v>2006</v>
       </c>
       <c r="E156" s="15" t="n">
-        <v>1.5</v>
+        <v>14.13</v>
       </c>
       <c r="F156" s="7" t="n">
-        <v>609</v>
+        <v>856</v>
       </c>
       <c r="G156" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H156" s="16" t="n">
-        <v>26.09</v>
+        <v>4.08</v>
       </c>
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
@@ -53733,30 +53729,32 @@
     <row r="157" ht="13" customHeight="1">
       <c r="B157" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>Emilie Lindstad</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="D157" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E157" s="15" t="n">
-        <v>2.67</v>
+        <v>2006</v>
+      </c>
+      <c r="E157" s="17" t="inlineStr">
+        <is>
+          <t>1,07,80</t>
+        </is>
       </c>
       <c r="F157" s="7" t="n">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="G157" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H157" s="16" t="n">
-        <v>7.09</v>
+        <v>31.08</v>
       </c>
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
@@ -53793,30 +53791,30 @@
     <row r="158" ht="13" customHeight="1">
       <c r="B158" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Iben Carnhed</t>
+          <t>Kira Chan Sobolowski</t>
         </is>
       </c>
       <c r="D158" s="7" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="E158" s="15" t="n">
-        <v>6.11</v>
+        <v>1.41</v>
       </c>
       <c r="F158" s="7" t="n">
-        <v>867</v>
+        <v>528</v>
       </c>
       <c r="G158" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H158" s="16" t="n">
-        <v>28.06</v>
+        <v>8.09</v>
       </c>
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
@@ -53851,30 +53849,30 @@
     <row r="159" ht="13" customHeight="1">
       <c r="B159" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Iben Carnhed</t>
+          <t>Lea Alise Gundersen</t>
         </is>
       </c>
       <c r="D159" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="E159" s="15" t="n">
-        <v>11.86</v>
+        <v>5.76</v>
       </c>
       <c r="F159" s="7" t="n">
-        <v>752</v>
+        <v>787</v>
       </c>
       <c r="G159" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H159" s="16" t="n">
-        <v>29.06</v>
+        <v>2.08</v>
       </c>
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
@@ -53909,30 +53907,30 @@
     <row r="160" ht="13" customHeight="1">
       <c r="B160" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>Emilie Lindstad</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="D160" s="7" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="E160" s="15" t="n">
-        <v>1.1</v>
+        <v>2.38</v>
       </c>
       <c r="F160" s="7" t="n">
-        <v>427</v>
+        <v>553</v>
       </c>
       <c r="G160" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H160" s="16" t="n">
-        <v>26.02</v>
+        <v>29.09</v>
       </c>
       <c r="J160" s="5" t="n"/>
       <c r="L160" s="14" t="inlineStr">
@@ -53967,30 +53965,30 @@
     <row r="161" ht="13" customHeight="1">
       <c r="B161" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>Ida McAdam Lium</t>
+          <t>Kateryna Retiva</t>
         </is>
       </c>
       <c r="D161" s="7" t="n">
-        <v>1982</v>
+        <v>1989</v>
       </c>
       <c r="E161" s="15" t="n">
-        <v>2.38</v>
+        <v>10.58</v>
       </c>
       <c r="F161" s="7" t="n">
-        <v>553</v>
+        <v>632</v>
       </c>
       <c r="G161" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H161" s="16" t="n">
-        <v>26.09</v>
+        <v>12.05</v>
       </c>
       <c r="J161" s="5" t="n"/>
       <c r="L161" s="14" t="inlineStr">
@@ -54025,30 +54023,30 @@
     <row r="162" ht="13" customHeight="1">
       <c r="B162" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
         <is>
-          <t>Ida McAdam Lium</t>
+          <t>Kateryna Retiva</t>
         </is>
       </c>
       <c r="D162" s="7" t="n">
-        <v>1982</v>
+        <v>1989</v>
       </c>
       <c r="E162" s="15" t="n">
-        <v>9.99</v>
+        <v>44.22</v>
       </c>
       <c r="F162" s="7" t="n">
-        <v>592</v>
+        <v>766</v>
       </c>
       <c r="G162" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H162" s="16" t="n">
-        <v>26.09</v>
+        <v>28.06</v>
       </c>
       <c r="J162" s="5" t="n"/>
       <c r="L162" s="14" t="inlineStr">
@@ -54113,7 +54111,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>8470</v>
+        <v>9282</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -54130,7 +54128,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8669</v>
+        <v>8684</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -54233,30 +54231,30 @@
     <row r="169" ht="13" customHeight="1">
       <c r="B169" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Emma Fatu Suhonen</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="E169" s="15" t="n">
-        <v>7.92</v>
+        <v>12.37</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>9.02</v>
+        <v>27.06</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -54293,30 +54291,30 @@
     <row r="170" ht="13" customHeight="1">
       <c r="B170" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Pernille Sina Lund</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="E170" s="15" t="n">
-        <v>12.5</v>
+        <v>25.5</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>1.06</v>
+        <v>21.06</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -54356,25 +54354,25 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Emma Fatu Suhonen</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="E171" s="15" t="n">
-        <v>12.58</v>
+        <v>12.48</v>
       </c>
       <c r="F171" s="7" t="n">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>30.05</v>
+        <v>23.06</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -54411,30 +54409,30 @@
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Emma Fatu Suhonen</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="E172" s="15" t="n">
-        <v>25.83</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Kortrijk/BEL</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>13.07</v>
+        <v>24.02</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -54471,30 +54469,30 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Guro Navelsaker Hjeltnes</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E173" s="15" t="n">
-        <v>11.63</v>
+        <v>8.06</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>2.06</v>
+        <v>10.05</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -54529,30 +54527,30 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Pernille Sina Lund</t>
+          <t>Nicoline Pallesen Coulson</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>26.02</v>
+        <v>5.23</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>724</v>
+        <v>668</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>21.06</v>
+        <v>3.07</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -54587,30 +54585,32 @@
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Guro Navelsaker Hjeltnes</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
         <v>2004</v>
       </c>
-      <c r="E175" s="15" t="n">
-        <v>8.050000000000001</v>
+      <c r="E175" s="17" t="inlineStr">
+        <is>
+          <t>1,01,10</t>
+        </is>
       </c>
       <c r="F175" s="7" t="n">
-        <v>719</v>
+        <v>644</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>21.01</v>
+        <v>3.07</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -54645,30 +54645,30 @@
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Guro Navelsaker Hjeltnes</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>12.78</v>
+        <v>27.6</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>709</v>
+        <v>607</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>1.06</v>
+        <v>15.09</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -54703,30 +54703,30 @@
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Pernille Sina Lund</t>
+          <t>Ingrid Solberg</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>1993</v>
+        <v>2006</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>8.119999999999999</v>
+        <v>13.41</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>698</v>
+        <v>602</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>20.01</v>
+        <v>14.09</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
@@ -54761,30 +54761,30 @@
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Regine Johansen</t>
+          <t>Tuva Paulsdatter Sandlund</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>11.23</v>
+        <v>4.34</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>685</v>
+        <v>470</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>16.06</v>
+        <v>11.02</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -54819,30 +54819,30 @@
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Heidi Pisani Trollsås</t>
+          <t>Hilde Stokvold Gundersen</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>4.79</v>
+        <v>2.25</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>573</v>
+        <v>459</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>26.09</v>
+        <v>29.09</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
@@ -54879,30 +54879,30 @@
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Vilma Andersen Rooth</t>
+          <t>Anne Tharaldsen Danielsen</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E180" s="15" t="n">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="F180" s="7" t="n">
-        <v>565</v>
+        <v>459</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>6.01</v>
+        <v>29.09</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>8402</v>
+        <v>7659</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -55007,7 +55007,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>16872</v>
+        <v>16941</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -55024,7 +55024,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15781</v>
+        <v>15796</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -55039,7 +55039,7 @@
         </is>
       </c>
       <c r="C186" s="20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="19" t="inlineStr">
@@ -55865,18 +55865,18 @@
         <v>2007</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>11.88</v>
+        <v>12.41</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>707</v>
+        <v>734</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>11.08</v>
+        <v>7.12</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
@@ -56057,7 +56057,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>8758</v>
+        <v>8785</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -56947,7 +56947,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15683</v>
+        <v>15710</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -31066,7 +31066,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>19347</v>
+        <v>19378</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -42635,17 +42635,17 @@
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Embla Adele Østreim Øina</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>13.22</v>
+        <v>13.23</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>2.06</v>
+        <v>11.05</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -43455,7 +43455,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>9765</v>
+        <v>9764</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -43714,10 +43714,10 @@
         <v>2008</v>
       </c>
       <c r="O292" s="15" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="P292" s="7" t="n">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="Q292" s="7" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         </is>
       </c>
       <c r="R292" s="16" t="n">
-        <v>13.09</v>
+        <v>30.11</v>
       </c>
       <c r="T292" s="5" t="n"/>
     </row>
@@ -43934,30 +43934,30 @@
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Embla Adele Østreim Øina</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="O296" s="15" t="n">
-        <v>13.23</v>
+        <v>2.84</v>
       </c>
       <c r="P296" s="7" t="n">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>11.05</v>
+        <v>30.11</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -43992,30 +43992,30 @@
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Lea Noor Golis</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="O297" s="15" t="n">
-        <v>13.23</v>
+        <v>1.53</v>
       </c>
       <c r="P297" s="7" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>2.06</v>
+        <v>1.12</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
@@ -44050,30 +44050,30 @@
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Lea Noor Golis</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="O298" s="15" t="n">
-        <v>8.359999999999999</v>
+        <v>13.23</v>
       </c>
       <c r="P298" s="7" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>8.09</v>
+        <v>2.06</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -44108,30 +44108,30 @@
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M299" s="7" t="inlineStr">
         <is>
-          <t>Frida Sætrum</t>
+          <t>Thea Emilie Turøy</t>
         </is>
       </c>
       <c r="N299" s="7" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="O299" s="15" t="n">
-        <v>5.03</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="P299" s="7" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="Q299" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R299" s="16" t="n">
-        <v>21.01</v>
+        <v>8.09</v>
       </c>
       <c r="T299" s="5" t="n"/>
     </row>
@@ -44166,22 +44166,22 @@
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M300" s="7" t="inlineStr">
         <is>
-          <t>Thea Emilie Turøy</t>
+          <t>Frida Sætrum</t>
         </is>
       </c>
       <c r="N300" s="7" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>1.51</v>
+        <v>5.03</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         </is>
       </c>
       <c r="R300" s="16" t="n">
-        <v>22.02</v>
+        <v>21.01</v>
       </c>
       <c r="T300" s="5" t="n"/>
     </row>
@@ -44475,7 +44475,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>9582</v>
+        <v>9614</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>19347</v>
+        <v>19378</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -47227,7 +47227,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>14272</v>
+        <v>14304</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -60385,22 +60385,22 @@
     <row r="316" ht="13" customHeight="1">
       <c r="B316" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
         <is>
-          <t>Julianna Henden</t>
+          <t>Signe Njerve</t>
         </is>
       </c>
       <c r="D316" s="7" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="E316" s="15" t="n">
-        <v>4.68</v>
+        <v>2.54</v>
       </c>
       <c r="F316" s="7" t="n">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="G316" s="7" t="inlineStr">
         <is>
@@ -60408,7 +60408,7 @@
         </is>
       </c>
       <c r="H316" s="16" t="n">
-        <v>10.02</v>
+        <v>30.11</v>
       </c>
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
@@ -60443,22 +60443,22 @@
     <row r="317" ht="13" customHeight="1">
       <c r="B317" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>Signe Njerve</t>
+          <t>Julianna Henden</t>
         </is>
       </c>
       <c r="D317" s="7" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="E317" s="15" t="n">
-        <v>2.43</v>
+        <v>4.68</v>
       </c>
       <c r="F317" s="7" t="n">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="G317" s="7" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="H317" s="16" t="n">
-        <v>13.09</v>
+        <v>10.02</v>
       </c>
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">
@@ -60513,18 +60513,18 @@
         <v>2010</v>
       </c>
       <c r="E318" s="15" t="n">
-        <v>8.710000000000001</v>
+        <v>8.69</v>
       </c>
       <c r="F318" s="7" t="n">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G318" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H318" s="16" t="n">
-        <v>16.09</v>
+        <v>30.11</v>
       </c>
       <c r="J318" s="5" t="n"/>
       <c r="L318" s="14" t="inlineStr">
@@ -60765,7 +60765,7 @@
         </is>
       </c>
       <c r="F323" s="20" t="n">
-        <v>6967</v>
+        <v>6999</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="19" t="inlineStr">
@@ -60805,7 +60805,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>14272</v>
+        <v>14304</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>21727</v>
+        <v>21733</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -15712,18 +15712,18 @@
         <v>2008</v>
       </c>
       <c r="E343" s="15" t="n">
-        <v>4.63</v>
+        <v>4.66</v>
       </c>
       <c r="F343" s="7" t="n">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="G343" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H343" s="16" t="n">
-        <v>25.05</v>
+        <v>14.12</v>
       </c>
       <c r="J343" s="5" t="n"/>
       <c r="L343" s="14" t="inlineStr">
@@ -16544,7 +16544,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>10757</v>
+        <v>10763</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16584,7 +16584,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>21727</v>
+        <v>21733</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16737,11 +16737,11 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>(25/16)</t>
+          <t>(25/15)</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18932</v>
+        <v>19021</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>18011</v>
+        <v>18033</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -16956,25 +16956,25 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL i BUL 3. lag</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/16)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>16651</v>
+        <v>16780</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -16984,25 +16984,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL 3. lag</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/15)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>16591</v>
+        <v>16651</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -17881,30 +17881,30 @@
     <row r="18" ht="13" customHeight="1">
       <c r="B18" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Mats Hjørnevik</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E18" s="15" t="n">
-        <v>12.11</v>
+        <v>1.47</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="G18" s="7" t="inlineStr">
         <is>
-          <t>Nesodden</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>22.09</v>
+        <v>14.12</v>
       </c>
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
@@ -18143,7 +18143,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>9781</v>
+        <v>9847</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -18850,25 +18850,25 @@
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Ariand Shegani</t>
         </is>
       </c>
       <c r="D38" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E38" s="15" t="n">
-        <v>11.97</v>
+        <v>12.11</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
-          <t>Lambertseter</t>
+          <t>Nesodden</t>
         </is>
       </c>
       <c r="H38" s="16" t="n">
-        <v>3.09</v>
+        <v>22.09</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
@@ -18903,30 +18903,30 @@
     <row r="39" ht="13" customHeight="1">
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D39" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E39" s="15" t="n">
-        <v>5.75</v>
+        <v>11.97</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="H39" s="16" t="n">
-        <v>15.09</v>
+        <v>3.09</v>
       </c>
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
@@ -18991,7 +18991,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>9151</v>
+        <v>9174</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -19031,7 +19031,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18932</v>
+        <v>19021</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -19063,7 +19063,7 @@
         </is>
       </c>
       <c r="C45" s="20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J45" s="5" t="n"/>
       <c r="L45" s="19" t="inlineStr">
@@ -21585,10 +21585,10 @@
         <v>2007</v>
       </c>
       <c r="E109" s="15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F109" s="7" t="n">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>30.11</v>
+        <v>14.12</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
@@ -22015,7 +22015,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9623</v>
+        <v>9645</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -22911,7 +22911,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>18011</v>
+        <v>18033</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -24946,7 +24946,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="F190" s="8" t="n">
@@ -24960,7 +24960,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -24976,7 +24976,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IL i BUL 3. lag</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -24987,7 +24987,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL 3. lag</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -25116,25 +25116,25 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Christopher Sandvik</t>
+          <t>Nicolas Alexander Baranyi Eriksen</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>7.42</v>
+        <v>7.15</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>690</v>
+        <v>797</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>1.06</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -25144,25 +25144,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Nicolas Alexander Baranyi Eriksen</t>
+          <t>Christopher Sandvik</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.15</v>
+        <v>7.42</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>797</v>
+        <v>690</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -25174,25 +25174,25 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Nicolas Alexander Baranyi Eriksen</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>11.38</v>
+        <v>10.99</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>748</v>
+        <v>844</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>28.07</v>
+        <v>30.08</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -25202,25 +25202,25 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Nicolas Alexander Baranyi Eriksen</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>10.99</v>
+        <v>11.38</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>30.08</v>
+        <v>28.07</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -25232,17 +25232,17 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Christopher Sandvik</t>
+          <t>Nicolas Alexander Baranyi Eriksen</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>23.52</v>
+        <v>22.44</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>695</v>
+        <v>810</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>15.06</v>
+        <v>14.06</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -25260,17 +25260,17 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Nicolas Alexander Baranyi Eriksen</t>
+          <t>Christopher Sandvik</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>22.44</v>
+        <v>23.52</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>810</v>
+        <v>695</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>14.06</v>
+        <v>15.06</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -25290,17 +25290,17 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Marius Pedersen</t>
+          <t>Jonas Grüner-Mørck</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>53.61</v>
+        <v>52.04</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>619</v>
+        <v>686</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
@@ -25318,17 +25318,17 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Jonas Grüner-Mørck</t>
+          <t>Marius Pedersen</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>52.04</v>
+        <v>53.61</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>686</v>
+        <v>619</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
@@ -25348,19 +25348,19 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Johannes Dalland</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>2,01,04</t>
+          <t>1,56,24</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>667</v>
+        <v>765</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
@@ -25378,19 +25378,19 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Johannes Dalland</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>1,56,24</t>
+          <t>2,01,04</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>765</v>
+        <v>667</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
@@ -25410,27 +25410,27 @@
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Halvard Grape Fladby</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>3,52,96</t>
+          <t>3,53,98</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>18.07</v>
+        <v>10.05</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
@@ -25440,27 +25440,27 @@
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Halvard Grape Fladby</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>3,53,98</t>
+          <t>3,52,96</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>10.05</v>
+        <v>18.07</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -25472,27 +25472,27 @@
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Halvard Grape Fladby</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>8,12,36</t>
+          <t>8,44,76</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>895</v>
+        <v>749</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Ås</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>10.08</v>
+        <v>19.09</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
@@ -25502,27 +25502,27 @@
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Halvard Grape Fladby</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="O203" s="17" t="inlineStr">
         <is>
-          <t>8,44,76</t>
+          <t>8,12,36</t>
         </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>749</v>
+        <v>895</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Ås</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>19.09</v>
+        <v>10.08</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
@@ -25534,27 +25534,27 @@
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Endre Wigaard</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="E204" s="17" t="inlineStr">
         <is>
-          <t>14,29,24</t>
+          <t>16,24,18</t>
         </is>
       </c>
       <c r="F204" s="7" t="n">
-        <v>844</v>
+        <v>599</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>29.06</v>
+        <v>5.06</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
@@ -25564,319 +25564,319 @@
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Endre Wigaard</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="O204" s="17" t="inlineStr">
         <is>
-          <t>16,24,18</t>
+          <t>14,29,24</t>
         </is>
       </c>
       <c r="P204" s="7" t="n">
-        <v>599</v>
+        <v>844</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>5.06</v>
+        <v>29.06</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
     <row r="205" ht="13" customHeight="1">
       <c r="B205" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E205" s="17" t="inlineStr">
-        <is>
-          <t>30,06,44</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E205" s="15" t="n">
+        <v>5.75</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>858</v>
+        <v>549</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>27.06</v>
+        <v>15.09</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Radin Kalbasi</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O205" s="15" t="n">
-        <v>5.74</v>
+        <v>1999</v>
+      </c>
+      <c r="O205" s="17" t="inlineStr">
+        <is>
+          <t>30,06,44</t>
+        </is>
       </c>
       <c r="P205" s="7" t="n">
-        <v>547</v>
+        <v>858</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>11.08</v>
+        <v>27.06</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
     <row r="206" ht="13" customHeight="1">
       <c r="B206" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>1.35</v>
+        <v>11.66</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>4.02</v>
+        <v>13.09</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Sondre Audahl Vik</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>11.33</v>
+        <v>1.35</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>4.02</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
     <row r="207" ht="13" customHeight="1">
       <c r="B207" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Christopher Sandvik</t>
+          <t>Jan Hermann Hordvik</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>2009</v>
+        <v>1966</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>2.76</v>
+        <v>1.31</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>538</v>
+        <v>453</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>28.11</v>
+        <v>14.12</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Christopher Sandvik</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>1.3</v>
+        <v>2.76</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>440</v>
+        <v>538</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>26.02</v>
+        <v>28.11</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
     <row r="208" ht="13" customHeight="1">
       <c r="B208" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>Henrik Snemyr Langesæter</t>
+          <t>Elijah Ramirez</t>
         </is>
       </c>
       <c r="D208" s="7" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E208" s="15" t="n">
-        <v>11.25</v>
+        <v>2.74</v>
       </c>
       <c r="F208" s="7" t="n">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="G208" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H208" s="16" t="n">
-        <v>24.07</v>
+        <v>17.08</v>
       </c>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Elijah Ramirez</t>
+          <t>Henrik Snemyr Langesæter</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>2.74</v>
+        <v>11.25</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>17.08</v>
+        <v>24.07</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
       <c r="B209" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>Henrik Snemyr Langesæter</t>
+          <t>Eirik Halfdansen-Aspen</t>
         </is>
       </c>
       <c r="D209" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="E209" s="15" t="n">
-        <v>30.33</v>
+        <v>10.66</v>
       </c>
       <c r="F209" s="7" t="n">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="G209" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H209" s="16" t="n">
-        <v>24.07</v>
+        <v>10.03</v>
       </c>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Henrik Snemyr Langesæter</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>10.66</v>
+        <v>30.33</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>10.03</v>
+        <v>24.07</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -25913,7 +25913,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>8917</v>
+        <v>8620</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -25930,7 +25930,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8568</v>
+        <v>8917</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -26033,84 +26033,82 @@
     <row r="216" ht="13" customHeight="1">
       <c r="B216" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Morten Gjendem</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E216" s="17" t="inlineStr">
-        <is>
-          <t>30,32,83</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E216" s="15" t="n">
+        <v>22.53</v>
       </c>
       <c r="F216" s="7" t="n">
-        <v>829</v>
+        <v>800</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>12.05</v>
+        <v>9.08</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Morten Gjendem</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O216" s="15" t="n">
-        <v>22.53</v>
+        <v>1992</v>
+      </c>
+      <c r="O216" s="17" t="inlineStr">
+        <is>
+          <t>30,32,83</t>
+        </is>
       </c>
       <c r="P216" s="7" t="n">
-        <v>800</v>
+        <v>829</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>9.08</v>
+        <v>12.05</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Morten Gjendem</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E217" s="17" t="inlineStr">
-        <is>
-          <t>14,44,94</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E217" s="15" t="n">
+        <v>11.24</v>
       </c>
       <c r="F217" s="7" t="n">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
@@ -26118,27 +26116,29 @@
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>29.06</v>
+        <v>27.06</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Morten Gjendem</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O217" s="15" t="n">
-        <v>11.24</v>
+        <v>1992</v>
+      </c>
+      <c r="O217" s="17" t="inlineStr">
+        <is>
+          <t>14,44,94</t>
+        </is>
       </c>
       <c r="P217" s="7" t="n">
-        <v>782</v>
+        <v>807</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
@@ -26146,127 +26146,127 @@
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>27.06</v>
+        <v>29.06</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Christopher Sandvik</t>
+          <t>Adrian Stene Olsen</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E218" s="15" t="n">
-        <v>11.46</v>
+        <v>2005</v>
+      </c>
+      <c r="E218" s="17" t="inlineStr">
+        <is>
+          <t>3,58,51</t>
+        </is>
       </c>
       <c r="F218" s="7" t="n">
-        <v>729</v>
+        <v>775</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>25.05</v>
+        <v>10.05</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Adrian Stene Olsen</t>
+          <t>Christopher Sandvik</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O218" s="17" t="inlineStr">
-        <is>
-          <t>3,58,51</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O218" s="15" t="n">
+        <v>11.46</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>775</v>
+        <v>729</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>10.05</v>
+        <v>25.05</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Thomas Graftås</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E219" s="17" t="inlineStr">
-        <is>
-          <t>8,54,08</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E219" s="15" t="n">
+        <v>11.27</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>711</v>
+        <v>774</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>14.06</v>
+        <v>27.06</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Thomas Graftås</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O219" s="15" t="n">
-        <v>11.27</v>
+        <v>1995</v>
+      </c>
+      <c r="O219" s="17" t="inlineStr">
+        <is>
+          <t>8,54,08</t>
+        </is>
       </c>
       <c r="P219" s="7" t="n">
-        <v>774</v>
+        <v>711</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>27.06</v>
+        <v>14.06</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -26278,27 +26278,27 @@
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Elias Landøy Rasmussen</t>
+          <t>Johannes Dalland</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E220" s="17" t="inlineStr">
         <is>
-          <t>4,07,17</t>
+          <t>3,58,90</t>
         </is>
       </c>
       <c r="F220" s="7" t="n">
-        <v>695</v>
+        <v>771</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>11.08</v>
+        <v>27.08</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
@@ -26308,237 +26308,237 @@
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Johannes Dalland</t>
+          <t>Elias Landøy Rasmussen</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="O220" s="17" t="inlineStr">
         <is>
-          <t>3,58,90</t>
+          <t>4,07,17</t>
         </is>
       </c>
       <c r="P220" s="7" t="n">
-        <v>771</v>
+        <v>695</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>27.08</v>
+        <v>11.08</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Elias Landøy Rasmussen</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E221" s="17" t="inlineStr">
-        <is>
-          <t>8,59,4</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E221" s="15" t="n">
+        <v>7.24</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>691</v>
+        <v>760</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>24.07</v>
+        <v>9.02</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Elias Landøy Rasmussen</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O221" s="15" t="n">
-        <v>7.24</v>
+        <v>2009</v>
+      </c>
+      <c r="O221" s="17" t="inlineStr">
+        <is>
+          <t>8,59,4</t>
+        </is>
       </c>
       <c r="P221" s="7" t="n">
-        <v>760</v>
+        <v>691</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>9.02</v>
+        <v>24.07</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Adrian Stene Olsen</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="E222" s="17" t="inlineStr">
         <is>
-          <t>4,08,20</t>
+          <t>1,56,57</t>
         </is>
       </c>
       <c r="F222" s="7" t="n">
-        <v>686</v>
+        <v>758</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>11.08</v>
+        <v>18.06</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Adrian Stene Olsen</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="O222" s="17" t="inlineStr">
         <is>
-          <t>1,56,57</t>
+          <t>4,08,20</t>
         </is>
       </c>
       <c r="P222" s="7" t="n">
-        <v>758</v>
+        <v>686</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>18.06</v>
+        <v>11.08</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Sondre F. Eilertsen</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E223" s="15" t="n">
-        <v>23.63</v>
+        <v>11.36</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>684</v>
+        <v>753</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>25.02</v>
+        <v>25.05</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Sondre F. Eilertsen</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>11.36</v>
+        <v>23.63</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>753</v>
+        <v>684</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>25.05</v>
+        <v>25.02</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Radin Kalbasi</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>2.7</v>
+        <v>5.74</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>28.11</v>
+        <v>11.08</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
@@ -26548,55 +26548,55 @@
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Bereket Geda Wayu</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>17.08</v>
+        <v>28.11</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Sondre Audahl Vik</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>5.42</v>
+        <v>11.33</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>21.01</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
@@ -26606,25 +26606,25 @@
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Mikael Girma Worku</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>5.44</v>
+        <v>5.42</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>27.01</v>
+        <v>21.01</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
@@ -26636,111 +26636,111 @@
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Gunnar Husby</t>
+          <t>Bereket Geda Wayu</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>1975</v>
+        <v>2001</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Moelv</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>4.02</v>
+        <v>17.08</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Aleksander Christian Moen</t>
+          <t>Bjørn Gunnar Husby</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2010</v>
+        <v>1975</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>5.35</v>
+        <v>2.64</v>
       </c>
       <c r="P226" s="7" t="n">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>7.12</v>
+        <v>4.02</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
     <row r="227" ht="13" customHeight="1">
       <c r="B227" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Marius Aarset Lilleskog</t>
+          <t>Mikael Girma Worku</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>1.6</v>
+        <v>5.44</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>4.02</v>
+        <v>27.01</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Radin Kalbasi</t>
+          <t>Marius Aarset Lilleskog</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>17.08</v>
+        <v>4.02</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26777,7 +26777,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>7734</v>
+        <v>8160</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26794,7 +26794,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>8023</v>
+        <v>7734</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26817,7 +26817,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>16651</v>
+        <v>16780</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26834,7 +26834,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>16591</v>
+        <v>16651</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26849,7 +26849,7 @@
         </is>
       </c>
       <c r="C233" s="20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -26858,7 +26858,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -30861,25 +30861,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(30/15)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>22867</v>
+        <v>22881</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -30889,25 +30889,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Ullensaker/Kisa IL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>22860</v>
+        <v>22867</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -30922,11 +30922,11 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>22575</v>
+        <v>22682</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         </is>
       </c>
       <c r="D11" s="23" t="n">
-        <v>21453</v>
+        <v>21772</v>
       </c>
       <c r="E11" s="24" t="inlineStr">
         <is>
@@ -35665,7 +35665,7 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="F106" s="8" t="n">
@@ -35679,7 +35679,7 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="P106" s="8" t="n">
@@ -35695,7 +35695,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="J107" s="5" t="n"/>
@@ -35706,7 +35706,7 @@
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Ullensaker/Kisa IL</t>
         </is>
       </c>
       <c r="T107" s="5" t="n"/>
@@ -35835,25 +35835,25 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Linnea Bratteng</t>
+          <t>Lilje Lopes Patey</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>8.220000000000001</v>
+        <v>7.89</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>669</v>
+        <v>769</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>9.029999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -35863,25 +35863,25 @@
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Linnea Bratteng</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>7.89</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>769</v>
+        <v>669</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>9.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
@@ -35893,25 +35893,25 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Elén Linchausen Skar</t>
+          <t>Lilje Lopes Patey</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>13.03</v>
+        <v>12.14</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>665</v>
+        <v>827</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>6.07</v>
+        <v>12.05</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -35921,25 +35921,25 @@
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Elén Linchausen Skar</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>12.14</v>
+        <v>13.03</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>827</v>
+        <v>665</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>12.05</v>
+        <v>6.07</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -35951,17 +35951,17 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Elén Linchausen Skar</t>
+          <t>Lilje Lopes Patey</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>26.03</v>
+        <v>24.29</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>723</v>
+        <v>868</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
@@ -35979,17 +35979,17 @@
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Elén Linchausen Skar</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>24.29</v>
+        <v>26.03</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>868</v>
+        <v>723</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
@@ -36009,25 +36009,25 @@
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Josefin Heier</t>
+          <t>Lilje Lopes Patey</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="E116" s="15" t="n">
-        <v>59.3</v>
+        <v>54.12</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>702</v>
+        <v>889</v>
       </c>
       <c r="G116" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Borås/SWE</t>
         </is>
       </c>
       <c r="H116" s="16" t="n">
-        <v>1.06</v>
+        <v>21.08</v>
       </c>
       <c r="J116" s="5" t="n"/>
       <c r="L116" s="14" t="inlineStr">
@@ -36037,25 +36037,25 @@
       </c>
       <c r="M116" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Josefin Heier</t>
         </is>
       </c>
       <c r="N116" s="7" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="O116" s="15" t="n">
-        <v>54.12</v>
+        <v>59.3</v>
       </c>
       <c r="P116" s="7" t="n">
-        <v>889</v>
+        <v>702</v>
       </c>
       <c r="Q116" s="7" t="inlineStr">
         <is>
-          <t>Borås/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R116" s="16" t="n">
-        <v>21.08</v>
+        <v>1.06</v>
       </c>
       <c r="T116" s="5" t="n"/>
     </row>
@@ -36067,7 +36067,7 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Wilma Anna Bekkemoen Torbiörnsson</t>
+          <t>Aurora Langbakk</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
@@ -36075,19 +36075,19 @@
       </c>
       <c r="E117" s="17" t="inlineStr">
         <is>
-          <t>2,07,39</t>
+          <t>2,21,14</t>
         </is>
       </c>
       <c r="F117" s="7" t="n">
-        <v>843</v>
+        <v>653</v>
       </c>
       <c r="G117" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>2.06</v>
+        <v>4.08</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="inlineStr">
@@ -36097,7 +36097,7 @@
       </c>
       <c r="M117" s="7" t="inlineStr">
         <is>
-          <t>Aurora Langbakk</t>
+          <t>Wilma Anna Bekkemoen Torbiörnsson</t>
         </is>
       </c>
       <c r="N117" s="7" t="n">
@@ -36105,19 +36105,19 @@
       </c>
       <c r="O117" s="17" t="inlineStr">
         <is>
-          <t>2,21,14</t>
+          <t>2,07,39</t>
         </is>
       </c>
       <c r="P117" s="7" t="n">
-        <v>653</v>
+        <v>843</v>
       </c>
       <c r="Q117" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R117" s="16" t="n">
-        <v>4.08</v>
+        <v>2.06</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -36129,27 +36129,27 @@
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Amalie M. Sæten</t>
+          <t>Mari Roligheten Ruud</t>
         </is>
       </c>
       <c r="D118" s="7" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E118" s="17" t="inlineStr">
         <is>
-          <t>4,09,06</t>
+          <t>4,31,43</t>
         </is>
       </c>
       <c r="F118" s="7" t="n">
-        <v>958</v>
+        <v>780</v>
       </c>
       <c r="G118" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H118" s="16" t="n">
-        <v>27.08</v>
+        <v>17.02</v>
       </c>
       <c r="J118" s="5" t="n"/>
       <c r="L118" s="14" t="inlineStr">
@@ -36159,27 +36159,27 @@
       </c>
       <c r="M118" s="7" t="inlineStr">
         <is>
-          <t>Mari Roligheten Ruud</t>
+          <t>Amalie M. Sæten</t>
         </is>
       </c>
       <c r="N118" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="O118" s="17" t="inlineStr">
         <is>
-          <t>4,31,43</t>
+          <t>4,09,06</t>
         </is>
       </c>
       <c r="P118" s="7" t="n">
-        <v>780</v>
+        <v>958</v>
       </c>
       <c r="Q118" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R118" s="16" t="n">
-        <v>17.02</v>
+        <v>27.08</v>
       </c>
       <c r="T118" s="5" t="n"/>
     </row>
@@ -36191,27 +36191,27 @@
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>Amalie M. Sæten</t>
+          <t>Mari Roligheten Ruud</t>
         </is>
       </c>
       <c r="D119" s="7" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E119" s="17" t="inlineStr">
         <is>
-          <t>8,59,59</t>
+          <t>9,29,18</t>
         </is>
       </c>
       <c r="F119" s="7" t="n">
-        <v>942</v>
+        <v>835</v>
       </c>
       <c r="G119" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H119" s="16" t="n">
-        <v>9.08</v>
+        <v>18.02</v>
       </c>
       <c r="J119" s="5" t="n"/>
       <c r="L119" s="14" t="inlineStr">
@@ -36221,27 +36221,27 @@
       </c>
       <c r="M119" s="7" t="inlineStr">
         <is>
-          <t>Mari Roligheten Ruud</t>
+          <t>Amalie M. Sæten</t>
         </is>
       </c>
       <c r="N119" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="O119" s="17" t="inlineStr">
         <is>
-          <t>9,29,18</t>
+          <t>8,59,59</t>
         </is>
       </c>
       <c r="P119" s="7" t="n">
-        <v>835</v>
+        <v>942</v>
       </c>
       <c r="Q119" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R119" s="16" t="n">
-        <v>18.02</v>
+        <v>9.08</v>
       </c>
       <c r="T119" s="5" t="n"/>
     </row>
@@ -36253,27 +36253,27 @@
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>Amalie M. Sæten</t>
+          <t>Andrea Modin Engesæth</t>
         </is>
       </c>
       <c r="D120" s="7" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E120" s="17" t="inlineStr">
         <is>
-          <t>15,17,41</t>
+          <t>16,09,23</t>
         </is>
       </c>
       <c r="F120" s="7" t="n">
-        <v>985</v>
+        <v>874</v>
       </c>
       <c r="G120" s="7" t="inlineStr">
         <is>
-          <t>Roma/ITA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H120" s="16" t="n">
-        <v>7.06</v>
+        <v>18.06</v>
       </c>
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="14" t="inlineStr">
@@ -36283,437 +36283,437 @@
       </c>
       <c r="M120" s="7" t="inlineStr">
         <is>
-          <t>Andrea Modin Engesæth</t>
+          <t>Amalie M. Sæten</t>
         </is>
       </c>
       <c r="N120" s="7" t="n">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="O120" s="17" t="inlineStr">
         <is>
-          <t>16,09,23</t>
+          <t>15,17,41</t>
         </is>
       </c>
       <c r="P120" s="7" t="n">
-        <v>874</v>
+        <v>985</v>
       </c>
       <c r="Q120" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Roma/ITA</t>
         </is>
       </c>
       <c r="R120" s="16" t="n">
-        <v>18.06</v>
+        <v>7.06</v>
       </c>
       <c r="T120" s="5" t="n"/>
     </row>
     <row r="121" ht="13" customHeight="1">
       <c r="B121" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>Hanna Rimstad</t>
+          <t>Andrea Modin Engesæth</t>
         </is>
       </c>
       <c r="D121" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E121" s="15" t="n">
-        <v>1.73</v>
+        <v>2001</v>
+      </c>
+      <c r="E121" s="17" t="inlineStr">
+        <is>
+          <t>9,58,92</t>
+        </is>
       </c>
       <c r="F121" s="7" t="n">
-        <v>799</v>
+        <v>911</v>
       </c>
       <c r="G121" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bury/GBR</t>
         </is>
       </c>
       <c r="H121" s="16" t="n">
-        <v>7.07</v>
+        <v>10.08</v>
       </c>
       <c r="J121" s="5" t="n"/>
       <c r="L121" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M121" s="7" t="inlineStr">
         <is>
-          <t>Andrea Modin Engesæth</t>
+          <t>Hanna Rimstad</t>
         </is>
       </c>
       <c r="N121" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O121" s="17" t="inlineStr">
-        <is>
-          <t>9,58,92</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="O121" s="15" t="n">
+        <v>1.73</v>
       </c>
       <c r="P121" s="7" t="n">
-        <v>911</v>
+        <v>799</v>
       </c>
       <c r="Q121" s="7" t="inlineStr">
         <is>
-          <t>Bury/GBR</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R121" s="16" t="n">
-        <v>10.08</v>
+        <v>7.07</v>
       </c>
       <c r="T121" s="5" t="n"/>
     </row>
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Birgitte Kjuus</t>
+          <t>Elizabeth Pettersen Turk</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E122" s="15" t="n">
-        <v>3.95</v>
+        <v>2001</v>
+      </c>
+      <c r="E122" s="17" t="inlineStr">
+        <is>
+          <t>1,07,85</t>
+        </is>
       </c>
       <c r="F122" s="7" t="n">
-        <v>888</v>
+        <v>632</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>17.08</v>
+        <v>27.06</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Elizabeth Pettersen Turk</t>
+          <t>Birgitte Kjuus</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O122" s="17" t="inlineStr">
-        <is>
-          <t>1,07,85</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O122" s="15" t="n">
+        <v>3.95</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>632</v>
+        <v>888</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>27.06</v>
+        <v>17.08</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Frida Rimstad</t>
+          <t>Lene Onsrud Retzius</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>5.06</v>
+        <v>4.61</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>631</v>
+        <v>1045</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Turku/FIN</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>6.01</v>
+        <v>18.06</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Lene Onsrud Retzius</t>
+          <t>Frida Rimstad</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>4.61</v>
+        <v>5.06</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>1045</v>
+        <v>631</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Turku/FIN</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>18.06</v>
+        <v>6.01</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Inger Lise Sundheim</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>1955</v>
+        <v>2005</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>1.15</v>
+        <v>5.49</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>492</v>
+        <v>726</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Ek</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>16.01</v>
+        <v>14.09</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Inger Lise Sundheim</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2005</v>
+        <v>1955</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>5.49</v>
+        <v>1.15</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>726</v>
+        <v>492</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Oslo/Ek</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>14.09</v>
+        <v>16.01</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Mariell Morken</t>
+          <t>Edel Halle</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>14.23</v>
+        <v>2.56</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>821</v>
+        <v>666</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>26.06</v>
+        <v>17.02</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Edel Halle</t>
+          <t>Mariell Morken</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>2.56</v>
+        <v>14.23</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>666</v>
+        <v>821</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Voss</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>17.02</v>
+        <v>26.06</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Hanna Emilie Hjeltnes</t>
+          <t>Arianne Duarte Morais</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>50.58</v>
+        <v>13.37</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>870</v>
+        <v>781</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Halle/GER</t>
+          <t>Lynchburg/VA/USA</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>26.05</v>
+        <v>24.02</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Arianne Duarte Morais</t>
+          <t>Hanna Emilie Hjeltnes</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>13.37</v>
+        <v>50.58</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>781</v>
+        <v>870</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Lynchburg/VA/USA</t>
+          <t>Halle/GER</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>24.02</v>
+        <v>26.05</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Mariell Morken</t>
+          <t>Arianne Duarte Morais</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>43.18</v>
+        <v>57.41</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>725</v>
+        <v>969</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Gloppen</t>
+          <t>Fayetteville/AR/USA</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>7.07</v>
+        <v>22.05</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Arianne Duarte Morais</t>
+          <t>Mariell Morken</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>57.41</v>
+        <v>43.18</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>969</v>
+        <v>725</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Fayetteville/AR/USA</t>
+          <t>Gloppen</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>22.05</v>
+        <v>7.07</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
@@ -36750,7 +36750,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11713</v>
+        <v>12225</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -36767,7 +36767,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>12225</v>
+        <v>11713</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -36870,24 +36870,22 @@
     <row r="134" ht="13" customHeight="1">
       <c r="B134" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>Wilma Anna Bekkemoen Torbiörnsson</t>
+          <t>Hanna Hagevik Bakke</t>
         </is>
       </c>
       <c r="D134" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E134" s="17" t="inlineStr">
-        <is>
-          <t>4,09,80</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E134" s="15" t="n">
+        <v>57.24</v>
       </c>
       <c r="F134" s="7" t="n">
-        <v>951</v>
+        <v>773</v>
       </c>
       <c r="G134" s="7" t="inlineStr">
         <is>
@@ -36895,27 +36893,29 @@
         </is>
       </c>
       <c r="H134" s="16" t="n">
-        <v>27.08</v>
+        <v>1.06</v>
       </c>
       <c r="J134" s="5" t="n"/>
       <c r="L134" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M134" s="7" t="inlineStr">
         <is>
-          <t>Hanna Hagevik Bakke</t>
+          <t>Wilma Anna Bekkemoen Torbiörnsson</t>
         </is>
       </c>
       <c r="N134" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O134" s="15" t="n">
-        <v>57.24</v>
+        <v>2007</v>
+      </c>
+      <c r="O134" s="17" t="inlineStr">
+        <is>
+          <t>4,09,80</t>
+        </is>
       </c>
       <c r="P134" s="7" t="n">
-        <v>773</v>
+        <v>951</v>
       </c>
       <c r="Q134" s="7" t="inlineStr">
         <is>
@@ -36923,509 +36923,507 @@
         </is>
       </c>
       <c r="R134" s="16" t="n">
-        <v>1.06</v>
+        <v>27.08</v>
       </c>
       <c r="T134" s="5" t="n"/>
     </row>
     <row r="135" ht="13" customHeight="1">
       <c r="B135" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>Wilma Anna Bekkemoen Torbiörnsson</t>
+          <t>Nora Proctor</t>
         </is>
       </c>
       <c r="D135" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E135" s="17" t="inlineStr">
-        <is>
-          <t>9,03,17</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E135" s="15" t="n">
+        <v>12.48</v>
       </c>
       <c r="F135" s="7" t="n">
-        <v>928</v>
+        <v>763</v>
       </c>
       <c r="G135" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H135" s="16" t="n">
-        <v>9.08</v>
+        <v>5.05</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M135" s="7" t="inlineStr">
         <is>
-          <t>Nora Proctor</t>
+          <t>Wilma Anna Bekkemoen Torbiörnsson</t>
         </is>
       </c>
       <c r="N135" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O135" s="15" t="n">
-        <v>12.48</v>
+        <v>2007</v>
+      </c>
+      <c r="O135" s="17" t="inlineStr">
+        <is>
+          <t>9,03,17</t>
+        </is>
       </c>
       <c r="P135" s="7" t="n">
-        <v>763</v>
+        <v>928</v>
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>5.05</v>
+        <v>9.08</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
     <row r="136" ht="13" customHeight="1">
       <c r="B136" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Venus Abraham Teffera</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D136" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E136" s="17" t="inlineStr">
-        <is>
-          <t>9,29,33</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E136" s="15" t="n">
+        <v>25.58</v>
       </c>
       <c r="F136" s="7" t="n">
-        <v>835</v>
+        <v>759</v>
       </c>
       <c r="G136" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H136" s="16" t="n">
-        <v>14.06</v>
+        <v>15.09</v>
       </c>
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M136" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Venus Abraham Teffera</t>
         </is>
       </c>
       <c r="N136" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O136" s="15" t="n">
-        <v>25.58</v>
+        <v>2008</v>
+      </c>
+      <c r="O136" s="17" t="inlineStr">
+        <is>
+          <t>9,29,33</t>
+        </is>
       </c>
       <c r="P136" s="7" t="n">
-        <v>759</v>
+        <v>835</v>
       </c>
       <c r="Q136" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R136" s="16" t="n">
-        <v>15.09</v>
+        <v>14.06</v>
       </c>
       <c r="T136" s="5" t="n"/>
     </row>
     <row r="137" ht="13" customHeight="1">
       <c r="B137" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Hanna Emilie Hjeltnes</t>
+          <t>Mari Roligheten Ruud</t>
         </is>
       </c>
       <c r="D137" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E137" s="15" t="n">
-        <v>13.99</v>
+        <v>2002</v>
+      </c>
+      <c r="E137" s="17" t="inlineStr">
+        <is>
+          <t>17,15,13</t>
+        </is>
       </c>
       <c r="F137" s="7" t="n">
-        <v>810</v>
+        <v>758</v>
       </c>
       <c r="G137" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H137" s="16" t="n">
-        <v>28.06</v>
+        <v>19.05</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M137" s="7" t="inlineStr">
         <is>
-          <t>Mari Roligheten Ruud</t>
+          <t>Hanna Emilie Hjeltnes</t>
         </is>
       </c>
       <c r="N137" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O137" s="17" t="inlineStr">
-        <is>
-          <t>17,15,13</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O137" s="15" t="n">
+        <v>13.99</v>
       </c>
       <c r="P137" s="7" t="n">
-        <v>758</v>
+        <v>810</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>19.05</v>
+        <v>28.06</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
     <row r="138" ht="13" customHeight="1">
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>Venus Abraham Teffera</t>
+          <t>Nora Proctor</t>
         </is>
       </c>
       <c r="D138" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E138" s="17" t="inlineStr">
-        <is>
-          <t>16,48,79</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E138" s="15" t="n">
+        <v>7.94</v>
       </c>
       <c r="F138" s="7" t="n">
-        <v>802</v>
+        <v>753</v>
       </c>
       <c r="G138" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H138" s="16" t="n">
-        <v>27.06</v>
+        <v>20.01</v>
       </c>
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Nora Proctor</t>
+          <t>Venus Abraham Teffera</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O138" s="15" t="n">
-        <v>7.94</v>
+        <v>2008</v>
+      </c>
+      <c r="O138" s="17" t="inlineStr">
+        <is>
+          <t>16,48,79</t>
+        </is>
       </c>
       <c r="P138" s="7" t="n">
-        <v>753</v>
+        <v>802</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R138" s="16" t="n">
-        <v>20.01</v>
+        <v>27.06</v>
       </c>
       <c r="T138" s="5" t="n"/>
     </row>
     <row r="139" ht="13" customHeight="1">
       <c r="B139" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Venus Abraham Teffera</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E139" s="17" t="inlineStr">
-        <is>
-          <t>4,29,69</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E139" s="15" t="n">
+        <v>7.94</v>
       </c>
       <c r="F139" s="7" t="n">
-        <v>792</v>
+        <v>753</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>3.08</v>
+        <v>30.11</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Venus Abraham Teffera</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O139" s="15" t="n">
-        <v>7.94</v>
+        <v>2008</v>
+      </c>
+      <c r="O139" s="17" t="inlineStr">
+        <is>
+          <t>4,29,69</t>
+        </is>
       </c>
       <c r="P139" s="7" t="n">
-        <v>753</v>
+        <v>792</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bodø</t>
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>30.11</v>
+        <v>3.08</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
     <row r="140" ht="13" customHeight="1">
       <c r="B140" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Josefin Heier</t>
+          <t>Elizabeth Pettersen Turk</t>
         </is>
       </c>
       <c r="D140" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E140" s="17" t="inlineStr">
-        <is>
-          <t>2,12,19</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E140" s="15" t="n">
+        <v>12.74</v>
       </c>
       <c r="F140" s="7" t="n">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Valencia/ESP</t>
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>2.06</v>
+        <v>4.05</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Elizabeth Pettersen Turk</t>
+          <t>Josefin Heier</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O140" s="15" t="n">
-        <v>12.74</v>
+        <v>1996</v>
+      </c>
+      <c r="O140" s="17" t="inlineStr">
+        <is>
+          <t>2,12,19</t>
+        </is>
       </c>
       <c r="P140" s="7" t="n">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
-          <t>Valencia/ESP</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>4.05</v>
+        <v>2.06</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
     <row r="141" ht="13" customHeight="1">
       <c r="B141" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Tuva Forsbacka</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E141" s="17" t="inlineStr">
-        <is>
-          <t>2,15,12</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E141" s="15" t="n">
+        <v>12.62</v>
       </c>
       <c r="F141" s="7" t="n">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>5.07</v>
+        <v>14.09</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Tuva Forsbacka</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O141" s="15" t="n">
-        <v>12.62</v>
+        <v>2009</v>
+      </c>
+      <c r="O141" s="17" t="inlineStr">
+        <is>
+          <t>2,15,12</t>
+        </is>
       </c>
       <c r="P141" s="7" t="n">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>14.09</v>
+        <v>5.07</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Hanna Rimstad</t>
+          <t>Edel Halle</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="E142" s="15" t="n">
-        <v>3.1</v>
+        <v>8.01</v>
       </c>
       <c r="F142" s="7" t="n">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>6.07</v>
+        <v>9.02</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M142" s="7" t="inlineStr">
         <is>
-          <t>Edel Halle</t>
+          <t>Hanna Rimstad</t>
         </is>
       </c>
       <c r="N142" s="7" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="O142" s="15" t="n">
-        <v>8.01</v>
+        <v>3.1</v>
       </c>
       <c r="P142" s="7" t="n">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R142" s="16" t="n">
-        <v>9.02</v>
+        <v>6.07</v>
       </c>
       <c r="T142" s="5" t="n"/>
     </row>
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Oda Bråten Richenberg</t>
+          <t>Mathilde Falck</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E143" s="17" t="inlineStr">
-        <is>
-          <t>10,17,93</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E143" s="15" t="n">
+        <v>12.68</v>
       </c>
       <c r="F143" s="7" t="n">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
@@ -37438,22 +37436,24 @@
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Falck</t>
+          <t>Oda Bråten Richenberg</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O143" s="15" t="n">
-        <v>12.68</v>
+        <v>2006</v>
+      </c>
+      <c r="O143" s="17" t="inlineStr">
+        <is>
+          <t>10,17,93</t>
+        </is>
       </c>
       <c r="P143" s="7" t="n">
-        <v>727</v>
+        <v>693</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
@@ -37468,236 +37468,236 @@
     <row r="144" ht="13" customHeight="1">
       <c r="B144" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Elén Linchausen Skar</t>
+          <t>Hanna Hagevik Bakke</t>
         </is>
       </c>
       <c r="D144" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E144" s="17" t="inlineStr">
-        <is>
-          <t>1,00,27</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E144" s="15" t="n">
+        <v>26.21</v>
       </c>
       <c r="F144" s="7" t="n">
-        <v>671</v>
+        <v>709</v>
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>26.05</v>
+        <v>2.06</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Hanna Hagevik Bakke</t>
+          <t>Elén Linchausen Skar</t>
         </is>
       </c>
       <c r="N144" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O144" s="15" t="n">
-        <v>26.21</v>
+        <v>2006</v>
+      </c>
+      <c r="O144" s="17" t="inlineStr">
+        <is>
+          <t>1,00,27</t>
+        </is>
       </c>
       <c r="P144" s="7" t="n">
-        <v>709</v>
+        <v>671</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>2.06</v>
+        <v>26.05</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
     <row r="145" ht="13" customHeight="1">
       <c r="B145" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Venus Abraham Teffera</t>
+          <t>Mathilde Falck</t>
         </is>
       </c>
       <c r="D145" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="E145" s="17" t="inlineStr">
-        <is>
-          <t>2,20,19</t>
-        </is>
+      <c r="E145" s="15" t="n">
+        <v>1.27</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>31.08</v>
+        <v>14.12</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M145" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Venus Abraham Teffera</t>
         </is>
       </c>
       <c r="N145" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O145" s="15" t="n">
-        <v>2.49</v>
+        <v>2008</v>
+      </c>
+      <c r="O145" s="17" t="inlineStr">
+        <is>
+          <t>2,20,19</t>
+        </is>
       </c>
       <c r="P145" s="7" t="n">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R145" s="16" t="n">
-        <v>26.02</v>
+        <v>31.08</v>
       </c>
       <c r="T145" s="5" t="n"/>
     </row>
     <row r="146" ht="13" customHeight="1">
       <c r="B146" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Marie Øverli</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E146" s="15" t="n">
-        <v>2.9</v>
+        <v>2.49</v>
       </c>
       <c r="F146" s="7" t="n">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Karlstad/SWE</t>
+          <t>Oslo/Bk</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>6.01</v>
+        <v>26.02</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Falck</t>
+          <t>Marie Øverli</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="P146" s="7" t="n">
-        <v>609</v>
+        <v>652</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Karlstad/SWE</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>15.09</v>
+        <v>6.01</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
     <row r="147" ht="13" customHeight="1">
       <c r="B147" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Mariell Morken</t>
+          <t>Mathilde Falck</t>
         </is>
       </c>
       <c r="D147" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>31.77</v>
+        <v>1.5</v>
       </c>
       <c r="F147" s="7" t="n">
         <v>609</v>
       </c>
       <c r="G147" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H147" s="16" t="n">
-        <v>5.06</v>
+        <v>15.09</v>
       </c>
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M147" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Falck</t>
+          <t>Mariell Morken</t>
         </is>
       </c>
       <c r="N147" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O147" s="15" t="n">
-        <v>1.25</v>
+        <v>31.77</v>
       </c>
       <c r="P147" s="7" t="n">
         <v>609</v>
       </c>
       <c r="Q147" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Voss</t>
         </is>
       </c>
       <c r="R147" s="16" t="n">
-        <v>26.02</v>
+        <v>5.06</v>
       </c>
       <c r="T147" s="5" t="n"/>
     </row>
@@ -37709,17 +37709,17 @@
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>Marie Øverli</t>
+          <t>Ida Krogh Langøy</t>
         </is>
       </c>
       <c r="D148" s="7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E148" s="15" t="n">
-        <v>4.7</v>
+        <v>4.82</v>
       </c>
       <c r="F148" s="7" t="n">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="G148" s="7" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         </is>
       </c>
       <c r="H148" s="16" t="n">
-        <v>9.02</v>
+        <v>30.11</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
@@ -37737,17 +37737,17 @@
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Ida Krogh Langøy</t>
+          <t>Marie Øverli</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>4.82</v>
+        <v>4.7</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>30.11</v>
+        <v>9.02</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -37792,7 +37792,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>11154</v>
+        <v>10656</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -37809,7 +37809,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>10635</v>
+        <v>11154</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -37832,7 +37832,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>22867</v>
+        <v>22881</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -37849,7 +37849,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>22860</v>
+        <v>22867</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -37864,7 +37864,7 @@
         </is>
       </c>
       <c r="C154" s="20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="19" t="inlineStr">
@@ -37873,7 +37873,7 @@
         </is>
       </c>
       <c r="M154" s="20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -39358,30 +39358,30 @@
     <row r="190" ht="13" customHeight="1">
       <c r="B190" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Oda Lier</t>
+          <t>Kaitesi Ertzgaard</t>
         </is>
       </c>
       <c r="D190" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E190" s="15" t="n">
-        <v>12.56</v>
+        <v>25.5</v>
       </c>
       <c r="F190" s="7" t="n">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="G190" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Fargo/ND/USA</t>
         </is>
       </c>
       <c r="H190" s="16" t="n">
-        <v>6.07</v>
+        <v>13.12</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="14" t="inlineStr">
@@ -39418,30 +39418,30 @@
     <row r="191" ht="13" customHeight="1">
       <c r="B191" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Nora Pauline Helm</t>
+          <t>Kaitesi Ertzgaard</t>
         </is>
       </c>
       <c r="D191" s="7" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E191" s="15" t="n">
-        <v>5.58</v>
+        <v>7.91</v>
       </c>
       <c r="F191" s="7" t="n">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="G191" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Fargo/ND/USA</t>
         </is>
       </c>
       <c r="H191" s="16" t="n">
-        <v>5.05</v>
+        <v>13.12</v>
       </c>
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
@@ -39476,30 +39476,30 @@
     <row r="192" ht="13" customHeight="1">
       <c r="B192" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>Solveig Hernandez Vråle</t>
+          <t>Oda Lier</t>
         </is>
       </c>
       <c r="D192" s="7" t="n">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="E192" s="15" t="n">
-        <v>58.48</v>
+        <v>12.56</v>
       </c>
       <c r="F192" s="7" t="n">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="G192" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H192" s="16" t="n">
-        <v>11.02</v>
+        <v>6.07</v>
       </c>
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
@@ -39536,30 +39536,30 @@
     <row r="193" ht="13" customHeight="1">
       <c r="B193" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>Kajsa Rooth</t>
+          <t>Nora Pauline Helm</t>
         </is>
       </c>
       <c r="D193" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E193" s="15" t="n">
-        <v>8.02</v>
+        <v>5.58</v>
       </c>
       <c r="F193" s="7" t="n">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="G193" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H193" s="16" t="n">
-        <v>9.02</v>
+        <v>5.05</v>
       </c>
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
@@ -39594,30 +39594,30 @@
     <row r="194" ht="13" customHeight="1">
       <c r="B194" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>Isabella Alida Indrebø</t>
+          <t>Solveig Hernandez Vråle</t>
         </is>
       </c>
       <c r="D194" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E194" s="15" t="n">
-        <v>12.68</v>
+        <v>58.48</v>
       </c>
       <c r="F194" s="7" t="n">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>18.06</v>
+        <v>11.02</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
@@ -39652,32 +39652,30 @@
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Aurora Kanutte Brandt Sande</t>
+          <t>Kajsa Rooth</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E195" s="17" t="inlineStr">
-        <is>
-          <t>2,16,11</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E195" s="15" t="n">
+        <v>8.02</v>
       </c>
       <c r="F195" s="7" t="n">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>18.06</v>
+        <v>9.02</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
@@ -39717,25 +39715,25 @@
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Kongssund Amlie</t>
+          <t>Isabella Alida Indrebø</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E196" s="15" t="n">
-        <v>12.8</v>
+        <v>12.68</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Bodø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>2.08</v>
+        <v>18.06</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
@@ -40032,7 +40030,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>10714</v>
+        <v>10821</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -40072,7 +40070,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>22575</v>
+        <v>22682</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -40104,7 +40102,7 @@
         </is>
       </c>
       <c r="C206" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="19" t="inlineStr">
@@ -41644,30 +41642,30 @@
     <row r="243" ht="13" customHeight="1">
       <c r="B243" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>Freia Haraldsen Skaset</t>
+          <t>Mille Matilde Røsæg</t>
         </is>
       </c>
       <c r="D243" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E243" s="15" t="n">
-        <v>59.46</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F243" s="7" t="n">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="G243" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fargo/ND/USA</t>
         </is>
       </c>
       <c r="H243" s="16" t="n">
-        <v>11.02</v>
+        <v>13.12</v>
       </c>
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
@@ -41702,22 +41700,22 @@
     <row r="244" ht="13" customHeight="1">
       <c r="B244" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Luna Andrine Stang</t>
+          <t>Freia Haraldsen Skaset</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>12.89</v>
+        <v>59.46</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
@@ -41725,7 +41723,7 @@
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>16.06</v>
+        <v>11.02</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -41760,7 +41758,7 @@
     <row r="245" ht="13" customHeight="1">
       <c r="B245" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
@@ -41772,10 +41770,10 @@
         <v>2009</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>26.66</v>
+        <v>12.89</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
@@ -41783,7 +41781,7 @@
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>15.06</v>
+        <v>16.06</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -41818,30 +41816,30 @@
     <row r="246" ht="13" customHeight="1">
       <c r="B246" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Linn Røen Skjermo</t>
+          <t>Luna Andrine Stang</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>1995</v>
+        <v>2009</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>13</v>
+        <v>26.66</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>18.06</v>
+        <v>15.06</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -41878,30 +41876,30 @@
     <row r="247" ht="13" customHeight="1">
       <c r="B247" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Luna Andrine Stang</t>
+          <t>Linn Røen Skjermo</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2009</v>
+        <v>1995</v>
       </c>
       <c r="E247" s="15" t="n">
-        <v>8.24</v>
+        <v>13</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>11.02</v>
+        <v>18.06</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -41941,25 +41939,25 @@
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Amelie Normann Andersen</t>
+          <t>Mille Matilde Røsæg</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="E248" s="15" t="n">
-        <v>4.89</v>
+        <v>5.17</v>
       </c>
       <c r="F248" s="7" t="n">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fargo/ND/USA</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>22.06</v>
+        <v>13.12</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -41994,30 +41992,30 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Valentina Helen Pauna</t>
+          <t>Mille Matilde Røsæg</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="E249" s="15" t="n">
-        <v>2.6</v>
+        <v>10.63</v>
       </c>
       <c r="F249" s="7" t="n">
-        <v>583</v>
+        <v>635</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Fargo/ND/USA</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>21.09</v>
+        <v>13.12</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -42052,22 +42050,22 @@
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Luna Andrine Stang</t>
+          <t>Amelie Normann Andersen</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E250" s="15" t="n">
-        <v>1.45</v>
+        <v>4.89</v>
       </c>
       <c r="F250" s="7" t="n">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
@@ -42075,7 +42073,7 @@
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>23.06</v>
+        <v>22.06</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -42110,22 +42108,22 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Freia Haraldsen Skaset</t>
+          <t>Valentina Helen Pauna</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>530</v>
+        <v>583</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
@@ -42133,7 +42131,7 @@
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>6.05</v>
+        <v>21.09</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -42173,25 +42171,25 @@
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Karin Wåhlberg</t>
+          <t>Luna Andrine Stang</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>15.09</v>
+        <v>23.06</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -42256,7 +42254,7 @@
         </is>
       </c>
       <c r="F254" s="20" t="n">
-        <v>10248</v>
+        <v>10567</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="19" t="inlineStr">
@@ -42296,7 +42294,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>21453</v>
+        <v>21772</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -47003,7 +47001,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>17077</v>
+        <v>17120</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -51811,18 +51809,18 @@
         <v>2010</v>
       </c>
       <c r="E110" s="15" t="n">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>7.09</v>
+        <v>14.12</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
@@ -52177,7 +52175,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>8675</v>
+        <v>8718</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -53063,7 +53061,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>17077</v>
+        <v>17120</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">

--- a/output/Lagserien 2024 1-2. div.xlsx
+++ b/output/Lagserien 2024 1-2. div.xlsx
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>25773</v>
+        <v>25834</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>23729</v>
+        <v>23757</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -887,25 +887,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(30/10)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>21964</v>
+        <v>22010</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(4/2d)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -915,25 +915,25 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Moelven IL</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(30/12)</t>
+          <t>(30/16)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>21895</v>
+        <v>21964</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>(3/2d)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -943,25 +943,25 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>Moelven IL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(30/10)</t>
+          <t>(30/12)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>21733</v>
+        <v>21895</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>(4/2d)</t>
+          <t>(3/2d)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -7470,30 +7470,30 @@
     <row r="146" ht="13" customHeight="1">
       <c r="B146" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Christopher Ekene Nordlie</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E146" s="15" t="n">
-        <v>6.35</v>
+        <v>3.06</v>
       </c>
       <c r="F146" s="7" t="n">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>12.09</v>
+        <v>17.12</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
@@ -7533,25 +7533,25 @@
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D147" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="G147" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H147" s="16" t="n">
-        <v>26.02</v>
+        <v>17.12</v>
       </c>
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
@@ -7586,30 +7586,30 @@
     <row r="148" ht="13" customHeight="1">
       <c r="B148" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Christopher Ekene Nordlie</t>
         </is>
       </c>
       <c r="D148" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E148" s="15" t="n">
-        <v>1.5</v>
+        <v>6.35</v>
       </c>
       <c r="F148" s="7" t="n">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="G148" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bk</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H148" s="16" t="n">
-        <v>26.02</v>
+        <v>12.09</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>12658</v>
+        <v>12719</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>25773</v>
+        <v>25834</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -11968,30 +11968,30 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Even Bogen Nørjordet</t>
+          <t>Sander Steen Myrvang</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>3.72</v>
+        <v>3.01</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>10.02</v>
+        <v>17.12</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -12026,7 +12026,7 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
@@ -12038,10 +12038,10 @@
         <v>2008</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>12.81</v>
+        <v>3.72</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>15.06</v>
+        <v>10.02</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -12114,7 +12114,7 @@
         </is>
       </c>
       <c r="F254" s="20" t="n">
-        <v>11398</v>
+        <v>11426</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="19" t="inlineStr">
@@ -12154,7 +12154,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>23729</v>
+        <v>23757</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -12237,7 +12237,7 @@
       </c>
       <c r="C262" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="F262" s="8" t="n">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="M262" s="7" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="P262" s="8" t="n">
@@ -12267,7 +12267,7 @@
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="J263" s="5" t="n"/>
@@ -12278,7 +12278,7 @@
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>Moelven IL</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="T263" s="5" t="n"/>
@@ -12407,25 +12407,25 @@
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="E269" s="15" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>27.01</v>
+        <v>17.02</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
@@ -12435,17 +12435,17 @@
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Håvard Bentdal Ingvaldsen</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>6.95</v>
+        <v>6.87</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>886</v>
+        <v>924</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>9.02</v>
+        <v>27.01</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -12465,17 +12465,17 @@
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="E270" s="15" t="n">
-        <v>10.44</v>
+        <v>10.41</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
@@ -12493,25 +12493,25 @@
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Håvard Bentdal Ingvaldsen</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>10.61</v>
+        <v>10.44</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>946</v>
+        <v>994</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>25.08</v>
+        <v>27.06</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -12523,25 +12523,25 @@
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>20.77</v>
+        <v>21.74</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>1016</v>
+        <v>891</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>La Chaux-de-Fonds/SUI</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>14.07</v>
+        <v>2.06</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -12551,25 +12551,25 @@
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Håvard Bentdal Ingvaldsen</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>20.64</v>
+        <v>20.77</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>25.08</v>
+        <v>14.07</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -12581,25 +12581,25 @@
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>48.12</v>
+        <v>50.81</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>885</v>
+        <v>744</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>18.07</v>
+        <v>25.05</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -12609,57 +12609,57 @@
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Håvard Bentdal Ingvaldsen</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>45.19</v>
+        <v>48.12</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>1064</v>
+        <v>885</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Moelv</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>13.09</v>
+        <v>18.07</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Philip Lonmon</t>
+          <t>Hans Øyvind Sundve</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="E273" s="17" t="inlineStr">
         <is>
-          <t>1,56,53</t>
+          <t>4,36,36</t>
         </is>
       </c>
       <c r="F273" s="7" t="n">
-        <v>759</v>
+        <v>485</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>4.02</v>
+        <v>26.05</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
@@ -12669,59 +12669,59 @@
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Tesfay Brhane</t>
+          <t>Philip Lonmon</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="O273" s="17" t="inlineStr">
         <is>
-          <t>2,00,16</t>
+          <t>1,56,53</t>
         </is>
       </c>
       <c r="P273" s="7" t="n">
-        <v>684</v>
+        <v>759</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>18.02</v>
+        <v>4.02</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
     <row r="274" ht="13" customHeight="1">
       <c r="B274" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Erik Tangen Gundersen</t>
+          <t>Hans Øyvind Sundve</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="E274" s="17" t="inlineStr">
         <is>
-          <t>3,56,72</t>
+          <t>9,37,31</t>
         </is>
       </c>
       <c r="F274" s="7" t="n">
-        <v>793</v>
+        <v>558</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>27.08</v>
+        <v>14.06</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
@@ -12731,59 +12731,57 @@
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Tesfay Brhane</t>
+          <t>Erik Tangen Gundersen</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="O274" s="17" t="inlineStr">
         <is>
-          <t>4,12,64</t>
+          <t>3,56,72</t>
         </is>
       </c>
       <c r="P274" s="7" t="n">
-        <v>650</v>
+        <v>793</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>21.06</v>
+        <v>27.08</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
     <row r="275" ht="13" customHeight="1">
       <c r="B275" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C275" s="7" t="inlineStr">
         <is>
-          <t>Erik Tangen Gundersen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       